--- a/Project/code/intermediate/models/0004_ViT_strong_3/results_0.0000_max_val/individual_clip_results.xlsx
+++ b/Project/code/intermediate/models/0004_ViT_strong_3/results_0.0000_max_val/individual_clip_results.xlsx
@@ -605,11 +605,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.06876847892999649, 0.09794716536998749, 0.09629100561141968, 0.07746012508869171, 0.06382718682289124, 0.09597854316234589, 0.08893963694572449, 0.08988004922866821, 0.07711710780858994, 0.13076789677143097, 0.14879295229911804, 0.16098377108573914, 0.15211184322834015, 0.114325612783432, 0.2581557631492615, 0.15566794574260712, 0.09357095509767532, 0.13866330683231354, 0.12005592882633209, 0.08713821321725845, 0.0666920617222786, 0.055080536752939224, 0.036052677780389786, 0.07573695480823517, 0.052056875079870224, 0.05956659093499184, 0.09297826886177063, 0.06079140678048134, 0.06758806109428406, 0.07397223263978958, 0.04749844968318939, 0.05383157357573509, 0.05038590729236603, 0.07407186180353165, 0.08633533120155334, 0.055533669888973236, 0.046896614134311676, 0.039563775062561035, 0.026053771376609802, 0.037878841161727905, 0.040199920535087585, 0.0307270847260952, 0.06260581314563751, 0.07593899220228195, 0.09746555984020233, 0.08936981111764908, 0.05828535556793213, 0.07583019882440567, 0.08830683678388596, 0.07727699726819992, 0.06032485514879227, 0.08167673647403717, 0.08607210963964462, 0.13315720856189728, 0.10489276051521301, 0.13649672269821167, 0.18227139115333557, 0.13477878272533417, 0.11449229717254639, 0.08657761663198471, 0.05978972092270851, 0.06266254931688309, 0.08963228017091751, 0.07140203565359116, 0.1178332269191742, 0.06794767826795578, 0.05709449574351311, 0.09330138564109802, 0.09183621406555176, 0.09414875507354736, 0.0873902216553688, 0.095643050968647, 0.06849828362464905, 0.06163495033979416, 0.08101630955934525, 0.05779566243290901, 0.07080352306365967, 0.07128710299730301, 0.06737677752971649, 0.05154317244887352, 0.044826582074165344, 0.09940184652805328, 0.10568828135728836, 0.08300485461950302, 0.07170189172029495, 0.07636647671461105, 0.0504106767475605, 0.05492731183767319, 0.043997831642627716, 0.04922352358698845, 0.06635567545890808, 0.05621219798922539, 0.04275887459516525, 0.0431961715221405, 0.05618850886821747, 0.05737167224287987, 0.07717803865671158, 0.04917968809604645, 0.050317008048295975, 0.053261034190654755, 0.08893667161464691, 0.13196182250976562, 0.0987042710185051, 0.08639045804738998, 0.11099705100059509, 0.07549816370010376, 0.08687568455934525, 0.056689437478780746, 0.08438101410865784, 0.12755192816257477, 0.12589861452579498, 0.10174355655908585, 0.10153823345899582, 0.08277343213558197, 0.08946610987186432, 0.2120891958475113, 0.13913343846797943, 0.1875213384628296, 0.11880568414926529, 0.09317248314619064, 0.13021425902843475, 0.10304969549179077, 0.1145821213722229, 0.05717168375849724, 0.0656772255897522, 0.07605209201574326, 0.04791560396552086, 0.07520174980163574, 0.05119161680340767, 0.13044199347496033, 0.10706770420074463, 0.1644512563943863, 0.12397504597902298, 0.11380355060100555, 0.21890634298324585, 0.3190929591655731, 0.7391347885131836, 0.16344070434570312, 0.14796772599220276, 0.14728522300720215]</t>
+          <t>[0.052923377603292465, 0.09655536711215973, 0.08169959485530853, 0.06453477591276169, 0.06404855102300644, 0.09738937020301819, 0.07708224654197693, 0.08006292581558228, 0.06388650089502335, 0.13984067738056183, 0.20976658165454865, 0.2110958695411682, 0.18043048679828644, 0.1369791477918625, 0.309321790933609, 0.1866779327392578, 0.10859636962413788, 0.1935551017522812, 0.16403953731060028, 0.09712629020214081, 0.05911440774798393, 0.046649448573589325, 0.03192557021975517, 0.06825318932533264, 0.0418885163962841, 0.047334469854831696, 0.08686008304357529, 0.04843076318502426, 0.05628321319818497, 0.0496811680495739, 0.032493580132722855, 0.04090462625026703, 0.035180818289518356, 0.05849430337548256, 0.07214287668466568, 0.041372671723365784, 0.02993454970419407, 0.029272492974996567, 0.022181011736392975, 0.029095714911818504, 0.03318500146269798, 0.021617529913783073, 0.039077021181583405, 0.07302247732877731, 0.11355007439851761, 0.09553857892751694, 0.053652700036764145, 0.0679636299610138, 0.0862676277756691, 0.07629261165857315, 0.06706584244966507, 0.10278157144784927, 0.09091366082429886, 0.10407699644565582, 0.0935770645737648, 0.1548386663198471, 0.24754464626312256, 0.1430739313364029, 0.1121864914894104, 0.07191069424152374, 0.03483050316572189, 0.03736165538430214, 0.06438972800970078, 0.0482969768345356, 0.11115442216396332, 0.06444742530584335, 0.04172240570187569, 0.06145811825990677, 0.06480995565652847, 0.06568095088005066, 0.05667315050959587, 0.07488297671079636, 0.05158652737736702, 0.05122831091284752, 0.05660349130630493, 0.04008813574910164, 0.05963174253702164, 0.06254415959119797, 0.06339693814516068, 0.04332771524786949, 0.041921086609363556, 0.10150314122438431, 0.127915620803833, 0.08316127955913544, 0.062256958335638046, 0.058797407895326614, 0.0352889709174633, 0.037692341953516006, 0.025966616347432137, 0.03185911849141121, 0.04339795559644699, 0.03857017681002617, 0.030302582308650017, 0.029863039031624794, 0.03564026579260826, 0.046474359929561615, 0.07439113408327103, 0.045542676001787186, 0.05108978599309921, 0.061674173921346664, 0.08867669105529785, 0.1445954591035843, 0.1134704053401947, 0.1364055722951889, 0.18575187027454376, 0.10309508442878723, 0.10231342166662216, 0.05045987293124199, 0.07598473131656647, 0.12479718029499054, 0.09584429860115051, 0.07380370050668716, 0.08072878420352936, 0.06461180001497269, 0.07136741280555725, 0.1495770812034607, 0.10847622901201248, 0.18859469890594482, 0.10967601835727692, 0.06266459077596664, 0.1122448667883873, 0.07726393640041351, 0.08629919588565826, 0.04389333724975586, 0.052214428782463074, 0.06072651967406273, 0.032484833151102066, 0.05411670729517937, 0.034365441650152206, 0.12684416770935059, 0.10250360518693924, 0.19245077669620514, 0.10342274606227875, 0.0980730876326561, 0.259653240442276, 0.5147225260734558, 0.9594777822494507, 0.16741213202476501, 0.17440365254878998, 0.17220135033130646]</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7391347885131836</v>
+        <v>0.9594777822494507</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -623,10 +623,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.132083700009389</v>
+        <v>1.332862100010971</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008086312142924205</v>
+        <v>0.009520443571506934</v>
       </c>
     </row>
     <row r="3">
@@ -645,11 +645,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.9981681108474731, 0.998594343662262, 0.9981892704963684, 0.9980825185775757, 0.9958686828613281, 0.9965533018112183, 0.9862951636314392, 0.9873093962669373, 0.990908145904541, 0.985859215259552, 0.9797093868255615, 0.9734236598014832, 0.9652457237243652, 0.9855765700340271, 0.9896199107170105, 0.9904879927635193, 0.9730490446090698, 0.9482049345970154, 0.972966194152832, 0.9428346157073975, 0.9643886089324951, 0.8435947299003601, 0.908892035484314, 0.9197764992713928, 0.8958817720413208, 0.9390182495117188, 0.9690283536911011, 0.9620410203933716, 0.979258120059967, 0.9809846878051758, 0.9691837430000305, 0.9577473998069763, 0.9784326553344727, 0.9426244497299194, 0.9010221362113953, 0.9808120727539062, 0.9237344264984131, 0.9813346862792969, 0.989479124546051, 0.9884159564971924, 0.9974294304847717, 0.9980998635292053, 0.9972003698348999, 0.9981067180633545, 0.9964243769645691, 0.9971334934234619, 0.9952540397644043, 0.997288703918457, 0.9976394176483154, 0.9978037476539612, 0.9979358911514282, 0.9979614019393921, 0.9987589120864868, 0.9982962012290955, 0.9982550740242004, 0.9988552331924438, 0.9989742040634155, 0.9991379976272583, 0.9990384578704834, 0.9987875819206238, 0.9975942969322205, 0.9976924657821655, 0.997658371925354, 0.9961405396461487, 0.9931743741035461, 0.9954400062561035, 0.9946873188018799, 0.9929618239402771, 0.9948011636734009, 0.9938681721687317, 0.9806829690933228, 0.9897699356079102, 0.994256317615509, 0.9940081834793091, 0.9782399535179138, 0.9857079386711121, 0.9860498309135437, 0.9836459159851074, 0.9909511804580688, 0.9830029606819153, 0.9489562511444092, 0.986905038356781, 0.9833081960678101, 0.986380398273468, 0.9709993600845337, 0.9701145887374878, 0.969203531742096, 0.986935555934906, 0.977644681930542, 0.9574815630912781, 0.956408679485321, 0.9681086540222168, 0.9433888792991638, 0.9393799901008606, 0.9677599668502808, 0.9873837828636169, 0.984775722026825, 0.991021454334259, 0.9880532026290894, 0.9970828890800476, 0.9956876635551453, 0.9959751963615417, 0.9969745874404907, 0.9979483485221863, 0.995932400226593, 0.9973370432853699, 0.9969354867935181, 0.9972409009933472, 0.9965897798538208, 0.9977837204933167, 0.9984579086303711, 0.998218834400177, 0.9984201192855835, 0.9985070824623108, 0.9987982511520386, 0.9983042478561401, 0.9982215762138367, 0.9983966946601868, 0.9990977048873901, 0.9987213015556335, 0.9979902505874634, 0.9981968998908997, 0.9970371723175049, 0.9940881729125977, 0.9936263561248779, 0.9940138459205627, 0.9845942258834839, 0.9865407347679138, 0.9850292801856995, 0.9817276000976562, 0.9876055717468262, 0.9896334409713745, 0.9880494475364685, 0.9910240173339844, 0.9648098945617676, 0.9832208156585693, 0.9825769066810608, 0.9897435307502747, 0.9763501286506653, 0.9766836762428284]</t>
+          <t>[0.9995539784431458, 0.9995627999305725, 0.9995601773262024, 0.9995207786560059, 0.9988850951194763, 0.9989284873008728, 0.9931435585021973, 0.9943317174911499, 0.9964553117752075, 0.99437415599823, 0.9881666302680969, 0.9856716394424438, 0.9733745455741882, 0.992976188659668, 0.9954079985618591, 0.9959456324577332, 0.9888114929199219, 0.9830081462860107, 0.988217294216156, 0.9707321524620056, 0.9816198348999023, 0.8945862054824829, 0.9534905552864075, 0.9520618915557861, 0.927674412727356, 0.9679275751113892, 0.9848084449768066, 0.9794574975967407, 0.9869933128356934, 0.992668092250824, 0.9882947206497192, 0.9864004850387573, 0.9921479821205139, 0.9647775888442993, 0.934982180595398, 0.992073118686676, 0.9566322565078735, 0.9881309270858765, 0.9951273202896118, 0.9940919280052185, 0.9989782571792603, 0.9992972612380981, 0.999036431312561, 0.9992071986198425, 0.9990436434745789, 0.9990021586418152, 0.9978546500205994, 0.999121367931366, 0.9992788434028625, 0.9991883635520935, 0.9992280006408691, 0.9993545413017273, 0.9995545744895935, 0.9993720650672913, 0.9993277788162231, 0.9995782971382141, 0.9996252059936523, 0.9996854066848755, 0.9996556043624878, 0.9995600581169128, 0.999186098575592, 0.9991870522499084, 0.9993278980255127, 0.9988154172897339, 0.9981328845024109, 0.9984814524650574, 0.9979669451713562, 0.9974445104598999, 0.9983847141265869, 0.9983543157577515, 0.9923446774482727, 0.9959463477134705, 0.9981873631477356, 0.997829258441925, 0.9896907806396484, 0.9916496276855469, 0.9942215085029602, 0.9955490827560425, 0.9975488781929016, 0.9933458566665649, 0.9789713621139526, 0.9948453903198242, 0.9923160076141357, 0.9955270886421204, 0.9892780780792236, 0.9867581725120544, 0.9843766689300537, 0.9957485795021057, 0.9920141100883484, 0.9819489121437073, 0.9792388081550598, 0.9847443699836731, 0.9753034114837646, 0.9722272157669067, 0.9894294142723083, 0.9960683584213257, 0.9949222207069397, 0.996526300907135, 0.9937559366226196, 0.9990214109420776, 0.998339056968689, 0.9985632300376892, 0.9989457726478577, 0.9992259740829468, 0.9989251494407654, 0.998950719833374, 0.9988332390785217, 0.9991269707679749, 0.9988901019096375, 0.9991852641105652, 0.9994592070579529, 0.9994111061096191, 0.9993476271629333, 0.9993453621864319, 0.9995396137237549, 0.9994714856147766, 0.9994601607322693, 0.9994794726371765, 0.999728262424469, 0.9996629953384399, 0.9994031190872192, 0.9995392560958862, 0.9993289709091187, 0.9978565573692322, 0.9976789355278015, 0.9979810118675232, 0.9948963522911072, 0.9944539666175842, 0.9931219220161438, 0.9893069863319397, 0.9943208694458008, 0.9951617121696472, 0.9960559606552124, 0.9968822002410889, 0.9898489117622375, 0.9939356446266174, 0.9924945831298828, 0.9960505366325378, 0.9890205264091492, 0.9891191720962524]</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9991379976272583</v>
+        <v>0.999728262424469</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.9678449000057299</v>
+        <v>0.90914440000779</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006913177857183784</v>
+        <v>0.006493888571484214</v>
       </c>
     </row>
     <row r="4">
@@ -685,11 +685,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0.9743971824645996, 0.9767434597015381, 0.9714468717575073, 0.9448552131652832, 0.9090110063552856, 0.8852106928825378, 0.876958966255188, 0.7263841032981873, 0.675403892993927, 0.7862973809242249, 0.8724443316459656, 0.7683771848678589, 0.8691915273666382, 0.9227288365364075, 0.8984038829803467, 0.8991172909736633, 0.9460061192512512, 0.9459550380706787, 0.9572078585624695, 0.9347625970840454, 0.9164611101150513, 0.8514328598976135, 0.8676590919494629, 0.9090544581413269, 0.9354581832885742, 0.9160320162773132, 0.8890079855918884, 0.8300759196281433, 0.8489766716957092, 0.867807924747467, 0.8836438655853271, 0.9519202709197998, 0.970472514629364, 0.9481492042541504, 0.932174563407898, 0.9413540959358215, 0.9213497042655945, 0.9191684722900391, 0.8481454253196716, 0.8653036952018738, 0.8771665096282959, 0.847133219242096, 0.9488646984100342, 0.9533745050430298, 0.9102102518081665, 0.9438952207565308, 0.9209352135658264, 0.9485355019569397, 0.879043459892273, 0.7940417528152466, 0.8114722371101379, 0.7767230868339539, 0.71470046043396, 0.7914514541625977, 0.8878768682479858, 0.9337486028671265, 0.9648404121398926, 0.9418900012969971, 0.8711504936218262, 0.8512545824050903, 0.8677086234092712, 0.9046736359596252, 0.8650904893875122, 0.8224180340766907, 0.7789698839187622, 0.8039944767951965, 0.95048588514328, 0.9742239713668823, 0.9054422974586487, 0.9046596884727478, 0.9616743922233582, 0.9282199740409851, 0.8954947590827942, 0.7763264179229736, 0.7741012573242188, 0.7900669574737549, 0.6873065233230591, 0.8008270263671875, 0.8154300451278687, 0.9052591919898987, 0.9596239924430847, 0.9577386975288391, 0.9602717757225037, 0.9648613929748535, 0.9598182439804077, 0.964835524559021, 0.9777833819389343, 0.9809285998344421, 0.9465617537498474, 0.9539875388145447, 0.9342131614685059, 0.8700803518295288, 0.9455962181091309, 0.9573606252670288, 0.9247596859931946, 0.9238340258598328, 0.9298043847084045, 0.9460517764091492, 0.9722607135772705, 0.9769750833511353, 0.9461166262626648, 0.9204710721969604, 0.9642260074615479, 0.924578070640564, 0.9119609594345093, 0.9027878642082214, 0.9262683987617493, 0.8989531397819519, 0.900621235370636, 0.8993614912033081, 0.9207360744476318, 0.9564687609672546, 0.9581359028816223, 0.9575464725494385, 0.9420872926712036, 0.9078049659729004, 0.9284560680389404, 0.9576641321182251, 0.9218899011611938, 0.8669935464859009, 0.8821050524711609, 0.8435166478157043, 0.8158937692642212, 0.9091865420341492, 0.966136634349823, 0.9068699479103088, 0.8251199126243591, 0.8296016454696655, 0.8644096255302429, 0.7885027527809143, 0.7425088882446289, 0.81740802526474, 0.9600191712379456, 0.883403480052948, 0.8906658291816711, 0.905859649181366, 0.9460567831993103, 0.9486814737319946, 0.9614313840866089, 0.961545467376709]</t>
+          <t>[0.9849563241004944, 0.9859639406204224, 0.9821040034294128, 0.9647440910339355, 0.9278839230537415, 0.9148507714271545, 0.9146308302879333, 0.7851681709289551, 0.6326994299888611, 0.778468668460846, 0.8686931133270264, 0.7760826945304871, 0.8767106533050537, 0.9442146420478821, 0.9227876663208008, 0.9324946403503418, 0.9539350271224976, 0.9527608752250671, 0.9641499519348145, 0.9505017995834351, 0.9399946331977844, 0.875457763671875, 0.8722312450408936, 0.9308307766914368, 0.947052001953125, 0.9271672964096069, 0.8916099667549133, 0.8401325941085815, 0.8517168760299683, 0.9140788912773132, 0.9223871827125549, 0.964633584022522, 0.9765611886978149, 0.9429442882537842, 0.9598335027694702, 0.9602101445198059, 0.9223479628562927, 0.9086111783981323, 0.8601052165031433, 0.9145480394363403, 0.8949143886566162, 0.8563820123672485, 0.9534889459609985, 0.9600585699081421, 0.9178376793861389, 0.9522026181221008, 0.940517246723175, 0.9664236903190613, 0.921135425567627, 0.8520148992538452, 0.8488693237304688, 0.80903559923172, 0.7665795087814331, 0.8200839161872864, 0.910179078578949, 0.9590198397636414, 0.9719864130020142, 0.9416472315788269, 0.8599931597709656, 0.8558136820793152, 0.8932501077651978, 0.9305497407913208, 0.8724967837333679, 0.7804790735244751, 0.8293353915214539, 0.8166972398757935, 0.9622259736061096, 0.9830009937286377, 0.9298334717750549, 0.9129054546356201, 0.9704495072364807, 0.9387056827545166, 0.901969850063324, 0.7413268089294434, 0.7798311710357666, 0.8174528479576111, 0.6357652544975281, 0.791750431060791, 0.8364548087120056, 0.9190595149993896, 0.9643558859825134, 0.9684674143791199, 0.9690067172050476, 0.9768481254577637, 0.9720214009284973, 0.9772753119468689, 0.9857903718948364, 0.9871717095375061, 0.9615996479988098, 0.9731941819190979, 0.9534419178962708, 0.8771538138389587, 0.9592016935348511, 0.9674023389816284, 0.9422217607498169, 0.9400940537452698, 0.9520685076713562, 0.9605772495269775, 0.980133056640625, 0.982040286064148, 0.9598935842514038, 0.9428205490112305, 0.981864333152771, 0.9586441516876221, 0.9355282783508301, 0.9243449568748474, 0.93645840883255, 0.904198944568634, 0.9102535247802734, 0.8989498615264893, 0.9281446933746338, 0.972038209438324, 0.9733836054801941, 0.9726449847221375, 0.9534702897071838, 0.9147345423698425, 0.9541690945625305, 0.9728513360023499, 0.9466282725334167, 0.902482271194458, 0.9168027639389038, 0.8716762661933899, 0.7920474410057068, 0.9390764236450195, 0.9760196805000305, 0.9340490698814392, 0.8404009342193604, 0.828130304813385, 0.850565493106842, 0.7709514498710632, 0.6806578040122986, 0.7742142677307129, 0.9667450189590454, 0.8939322233200073, 0.881395697593689, 0.8822952508926392, 0.9407155513763428, 0.9564550518989563, 0.9673644304275513, 0.9674655199050903]</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.9809285998344421</v>
+        <v>0.9871717095375061</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.8426074000017252</v>
+        <v>0.8035654999985127</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006018624285726608</v>
+        <v>0.005739753571417948</v>
       </c>
     </row>
     <row r="5">
@@ -725,11 +725,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.5188594460487366, 0.5308406352996826, 0.43119725584983826, 0.4145973026752472, 0.4435637295246124, 0.6375172138214111, 0.22054772078990936, 0.41113048791885376, 0.2456720620393753, 0.36925554275512695, 0.32027667760849, 0.48689723014831543, 0.6203475594520569, 0.7287026643753052, 0.7889348864555359, 0.6754669547080994, 0.4607294201850891, 0.1916676014661789, 0.20082205533981323, 0.32621538639068604, 0.4646257162094116, 0.40632081031799316, 0.28154969215393066, 0.3641214668750763, 0.4593515396118164, 0.33246004581451416, 0.23431457579135895, 0.5374798774719238, 0.43026939034461975, 0.3957236111164093, 0.37315139174461365, 0.30183321237564087, 0.5295150876045227, 0.455372154712677, 0.4932275414466858, 0.4242660701274872, 0.3836521506309509, 0.4978346526622772, 0.45585525035858154, 0.48766693472862244, 0.572296142578125, 0.5701189637184143, 0.4271105229854584, 0.4099739193916321, 0.489095538854599, 0.4529263377189636, 0.5088048577308655, 0.46283772587776184, 0.4859468936920166, 0.39179688692092896, 0.35558176040649414, 0.41061943769454956, 0.5180701613426208, 0.4341568052768707, 0.4672413468360901, 0.39248859882354736, 0.2746303975582123, 0.48011451959609985, 0.4956037700176239, 0.42523878812789917, 0.4774062931537628, 0.2616449296474457, 0.19949114322662354, 0.2855047881603241, 0.3905833959579468, 0.5279721021652222, 0.4363262355327606, 0.41003748774528503, 0.3915998339653015, 0.5544519424438477, 0.4967648684978485, 0.5575190782546997, 0.4368889331817627, 0.43444088101387024, 0.4805036783218384, 0.4583958089351654, 0.4442659318447113, 0.562508225440979, 0.5681794881820679, 0.7250311374664307, 0.40294089913368225, 0.42966076731681824, 0.5716982483863831, 0.5605184435844421, 0.4276360273361206, 0.5754774212837219, 0.4743998944759369, 0.5465844869613647, 0.5375889539718628, 0.39705967903137207, 0.3760932385921478, 0.33647966384887695, 0.39543068408966064, 0.3245907723903656, 0.2641718089580536, 0.5342981815338135, 0.46138423681259155, 0.32676443457603455, 0.3108832836151123, 0.22712136805057526, 0.3969103991985321, 0.28757816553115845, 0.24708738923072815, 0.26954934000968933, 0.31588417291641235, 0.3083733022212982, 0.23129507899284363, 0.365665078163147, 0.41990992426872253, 0.7059575319290161, 0.7390075922012329, 0.8806248903274536, 0.8665525913238525, 0.48602065443992615, 0.3687781095504761, 0.3903634250164032, 0.5189724564552307, 0.5218303799629211, 0.5742896199226379, 0.8442885875701904, 0.6731795072555542, 0.717175304889679, 0.7477708458900452, 0.6980528235435486, 0.4829627573490143, 0.3258383274078369, 0.42321261763572693, 0.5067588686943054, 0.5760735273361206, 0.3957935571670532, 0.3046860694885254, 0.266851007938385, 0.3801518380641937, 0.47241315245628357, 0.5606359839439392, 0.3376410901546478, 0.5636954307556152, 0.7465749382972717, 0.6352101564407349, 0.6337104439735413]</t>
+          <t>[0.5643247365951538, 0.5635374784469604, 0.4756234288215637, 0.3300689458847046, 0.31266358494758606, 0.4972274899482727, 0.12130741029977798, 0.3602614402770996, 0.1757352203130722, 0.2344285249710083, 0.21100489795207977, 0.46763408184051514, 0.6289113163948059, 0.644053041934967, 0.707470178604126, 0.5469828844070435, 0.45736345648765564, 0.12886545062065125, 0.14339426159858704, 0.2511606216430664, 0.4513470530509949, 0.4239698052406311, 0.23416964709758759, 0.34770166873931885, 0.45771533250808716, 0.32887256145477295, 0.18636974692344666, 0.6161120533943176, 0.5750692486763, 0.38950616121292114, 0.3358858823776245, 0.20935823023319244, 0.3627208173274994, 0.28518903255462646, 0.2834705114364624, 0.24672594666481018, 0.27596959471702576, 0.3079620897769928, 0.2547317147254944, 0.29427099227905273, 0.4052596390247345, 0.4578700661659241, 0.3392530083656311, 0.31784787774086, 0.4412919580936432, 0.398850679397583, 0.4039883613586426, 0.32586055994033813, 0.36307665705680847, 0.29634228348731995, 0.24171556532382965, 0.2788221538066864, 0.36223411560058594, 0.25890618562698364, 0.3727649748325348, 0.40121692419052124, 0.28632649779319763, 0.531882643699646, 0.5527231097221375, 0.45301035046577454, 0.47219666838645935, 0.281812846660614, 0.17395083606243134, 0.28286826610565186, 0.38176506757736206, 0.5106932520866394, 0.400671124458313, 0.4837021231651306, 0.4196650981903076, 0.6094710826873779, 0.618303656578064, 0.546768307685852, 0.347425639629364, 0.33515435457229614, 0.43490949273109436, 0.41170787811279297, 0.38655340671539307, 0.5100894570350647, 0.5065823793411255, 0.7256448268890381, 0.3677210509777069, 0.39156660437583923, 0.6736791133880615, 0.524682343006134, 0.3135213553905487, 0.40133732557296753, 0.336051881313324, 0.44395753741264343, 0.3777143359184265, 0.24579483270645142, 0.2570115923881531, 0.23855724930763245, 0.28827816247940063, 0.22967293858528137, 0.1474500298500061, 0.4098215699195862, 0.3428856432437897, 0.2178913950920105, 0.2620788812637329, 0.17594470083713531, 0.3313417136669159, 0.1916157603263855, 0.1453927606344223, 0.19132676720619202, 0.27472567558288574, 0.213989719748497, 0.142489492893219, 0.29768773913383484, 0.3044033646583557, 0.5748701691627502, 0.8071050643920898, 0.8618244528770447, 0.8828322887420654, 0.5446420311927795, 0.420808881521225, 0.5392122268676758, 0.68433678150177, 0.6214860677719116, 0.6926627159118652, 0.9497117400169373, 0.7641423344612122, 0.7531049251556396, 0.7906640768051147, 0.7743097543716431, 0.5100818872451782, 0.33726704120635986, 0.4222542941570282, 0.4634024500846863, 0.49582549929618835, 0.28125330805778503, 0.22929330170154572, 0.2198781669139862, 0.38572075963020325, 0.5853159427642822, 0.6745961904525757, 0.3408643305301666, 0.6368457674980164, 0.8243719935417175, 0.6511605978012085, 0.6490225195884705]</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8806248903274536</v>
+        <v>0.9497117400169373</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.8012502000201494</v>
+        <v>0.8214614000025904</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005723215714429638</v>
+        <v>0.005867581428589931</v>
       </c>
     </row>
     <row r="6">
@@ -765,11 +765,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.12383974343538284, 0.2184647023677826, 0.20421439409255981, 0.2563352882862091, 0.07705418765544891, 0.08405864238739014, 0.11420497298240662, 0.1450461894273758, 0.09529697149991989, 0.08693226426839828, 0.11279795318841934, 0.04146362841129303, 0.033026278018951416, 0.11672226339578629, 0.11860658973455429, 0.1792137771844864, 0.21197794377803802, 0.31553733348846436, 0.22936135530471802, 0.19972535967826843, 0.1037374958395958, 0.15055584907531738, 0.29629889130592346, 0.22126150131225586, 0.33255189657211304, 0.13690999150276184, 0.12294193357229233, 0.11171115189790726, 0.0556521899998188, 0.22600029408931732, 0.14088407158851624, 0.16540561616420746, 0.3709253668785095, 0.3087001144886017, 0.10315052419900894, 0.04800885543227196, 0.06941242516040802, 0.0878000259399414, 0.25860700011253357, 0.1982078105211258, 0.2120409905910492, 0.12775449454784393, 0.10875555872917175, 0.12387047708034515, 0.3379306197166443, 0.16887494921684265, 0.19242024421691895, 0.18850059807300568, 0.13862957060337067, 0.08187191188335419, 0.06311467289924622, 0.11820321530103683, 0.12982670962810516, 0.12657441198825836, 0.06079190969467163, 0.0900394544005394, 0.12574511766433716, 0.11629294604063034, 0.19351361691951752, 0.09137090295553207, 0.12699776887893677, 0.25606799125671387, 0.1120038777589798, 0.16850821673870087, 0.17075540125370026, 0.21901781857013702, 0.06635481119155884, 0.0453253798186779, 0.05070992186665535, 0.05081672593951225, 0.045791979879140854, 0.05118168145418167, 0.0591224730014801, 0.056113868951797485, 0.26413923501968384, 0.12355838716030121, 0.3412325978279114, 0.28841373324394226, 0.1610778421163559, 0.07843133062124252, 0.07140348106622696, 0.1761639565229416, 0.0890931636095047, 0.14077505469322205, 0.3205266296863556, 0.28348278999328613, 0.3649384081363678, 0.297338604927063, 0.45674699544906616, 0.6732929944992065, 0.6017737984657288, 0.3723469078540802, 0.273806095123291, 0.13587401807308197, 0.14782780408859253, 0.19523996114730835, 0.12347440421581268, 0.08117823302745819, 0.11846256256103516, 0.054327741265296936, 0.06339205801486969, 0.13475944101810455, 0.14069567620754242, 0.14633941650390625, 0.16538184881210327, 0.3030124306678772, 0.4030573070049286, 0.7699660658836365, 0.3408161699771881, 0.16139477491378784, 0.198378786444664, 0.10493891686201096, 0.05794888362288475, 0.2456325739622116, 0.2264939397573471, 0.44873014092445374, 0.2023891806602478, 0.5098220705986023, 0.44390949606895447, 0.35862571001052856, 0.3945864737033844, 0.41286012530326843, 0.7398857474327087, 0.8727507591247559, 0.8824456930160522, 0.8663530349731445, 0.8439679741859436, 0.7890719175338745, 0.42523494362831116, 0.5124264359474182, 0.5230208039283752, 0.3146516978740692, 0.431872695684433, 0.4672289490699768, 0.11622396856546402, 0.18326415121555328, 0.16425734758377075, 0.07986384630203247, 0.0927920714020729, 0.09315076470375061]</t>
+          <t>[0.09401489794254303, 0.2597717046737671, 0.22144541144371033, 0.2746484577655792, 0.05581967532634735, 0.05409593880176544, 0.062450215220451355, 0.08242844045162201, 0.08397369831800461, 0.08187315613031387, 0.12351974099874496, 0.02648339979350567, 0.02315715327858925, 0.09880215674638748, 0.10927844792604446, 0.17257060110569, 0.2292952835559845, 0.37091779708862305, 0.2232813686132431, 0.1571163684129715, 0.09493538737297058, 0.10874870419502258, 0.24784402549266815, 0.1863342523574829, 0.2718539834022522, 0.1768532693386078, 0.15413089096546173, 0.0972653478384018, 0.04997712001204491, 0.19372344017028809, 0.12908457219600677, 0.1596686989068985, 0.30575957894325256, 0.2378450483083725, 0.08278463035821915, 0.040204811841249466, 0.08971532434225082, 0.10485083609819412, 0.3481486141681671, 0.17216484248638153, 0.1791459023952484, 0.12764471769332886, 0.1200755387544632, 0.14780910313129425, 0.4462708830833435, 0.2301102876663208, 0.27243325114250183, 0.20415782928466797, 0.13076314330101013, 0.06578348577022552, 0.05497525632381439, 0.1131349727511406, 0.12162771821022034, 0.1229645237326622, 0.0395461730659008, 0.07444927096366882, 0.09733893722295761, 0.07942018657922745, 0.1338227391242981, 0.069793701171875, 0.07327675819396973, 0.1896316409111023, 0.09841600060462952, 0.20696799457073212, 0.27146977186203003, 0.2614787817001343, 0.07610926777124405, 0.042603664100170135, 0.04043850302696228, 0.04311757907271385, 0.04857386648654938, 0.06710290163755417, 0.07131877541542053, 0.04829706624150276, 0.35274538397789, 0.12777355313301086, 0.3469986319541931, 0.3172014355659485, 0.12062656879425049, 0.052232179790735245, 0.05366899445652962, 0.20981355011463165, 0.07956424355506897, 0.16083423793315887, 0.37102654576301575, 0.3625192940235138, 0.5419852137565613, 0.32439759373664856, 0.6073290705680847, 0.8057399988174438, 0.7865571975708008, 0.4955689609050751, 0.2283743917942047, 0.11265867203474045, 0.1256469339132309, 0.21479733288288116, 0.1651236116886139, 0.0764104351401329, 0.15546011924743652, 0.0382070429623127, 0.04621894657611847, 0.1098499521613121, 0.1576002985239029, 0.10848172008991241, 0.21111109852790833, 0.512854278087616, 0.42741742730140686, 0.7691994905471802, 0.36607494950294495, 0.17242495715618134, 0.18964442610740662, 0.10442232340574265, 0.04860426113009453, 0.29779449105262756, 0.35149165987968445, 0.6221102476119995, 0.24873903393745422, 0.4203294515609741, 0.29994654655456543, 0.2059861570596695, 0.17131461203098297, 0.2323455959558487, 0.6228482127189636, 0.7790371179580688, 0.8281446695327759, 0.8265758752822876, 0.8063541650772095, 0.7796609401702881, 0.4210427403450012, 0.619890034198761, 0.5412697792053223, 0.29037392139434814, 0.49971693754196167, 0.43715447187423706, 0.12209545820951462, 0.2130344808101654, 0.1651047319173813, 0.04980279877781868, 0.061762407422065735, 0.06227468326687813]</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.8824456930160522</v>
+        <v>0.8281446695327759</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -783,10 +783,10 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.7783935000188649</v>
+        <v>0.8012488999956986</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00555995357156332</v>
+        <v>0.005723206428540704</v>
       </c>
     </row>
     <row r="7">
@@ -805,11 +805,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[0.9879334568977356, 0.9860572814941406, 0.9763213992118835, 0.9592714309692383, 0.9625175595283508, 0.888405978679657, 0.913093090057373, 0.9468806385993958, 0.9722306132316589, 0.9875484704971313, 0.9727828502655029, 0.9516111016273499, 0.9896677732467651, 0.9750104546546936, 0.9902635812759399, 0.9910325407981873, 0.9908936023712158, 0.9934291243553162, 0.9855689406394958, 0.9011036157608032, 0.9510167837142944, 0.9401941895484924, 0.9829493761062622, 0.9878140687942505, 0.9893425703048706, 0.9870392680168152, 0.9844433069229126, 0.994416356086731, 0.9932993650436401, 0.9864727258682251, 0.9831497073173523, 0.986287534236908, 0.9852586984634399, 0.9819726943969727, 0.98708176612854, 0.9898000359535217, 0.9832042455673218, 0.9844777584075928, 0.9901995062828064, 0.9905259609222412, 0.9887053370475769, 0.9811965227127075, 0.9753570556640625, 0.9841923713684082, 0.98286372423172, 0.983862578868866, 0.9666827321052551, 0.9796114563941956, 0.9811774492263794, 0.9480971097946167, 0.9350124001502991, 0.9385906457901001, 0.9291901588439941, 0.728714108467102, 0.6434747576713562, 0.6527593731880188, 0.9517961740493774, 0.9806267619132996, 0.9868707656860352, 0.9902950525283813, 0.9919449687004089, 0.991905689239502, 0.9904248118400574, 0.9901750087738037, 0.9911648631095886, 0.982317328453064, 0.9197584390640259, 0.8719741106033325, 0.8168606162071228, 0.4815855026245117, 0.6611005067825317, 0.9284865856170654, 0.9688867330551147, 0.9607986211776733, 0.938035249710083, 0.9800605773925781, 0.9864842295646667, 0.9892330169677734, 0.9881993532180786, 0.9570788145065308, 0.9233047962188721, 0.7839553952217102, 0.35409706830978394, 0.2894713580608368, 0.7167752981185913, 0.9516410231590271, 0.946300208568573, 0.9333003163337708, 0.8924072980880737, 0.940339207649231, 0.9657496809959412, 0.9803296327590942, 0.9892314076423645, 0.9839531779289246, 0.9933785200119019, 0.9951336979866028, 0.9929597973823547, 0.9883124232292175, 0.9887334108352661, 0.990898072719574, 0.9946495890617371, 0.991265594959259, 0.9935433864593506, 0.989113450050354, 0.9888155460357666, 0.9888251423835754, 0.9896610975265503, 0.9843793511390686, 0.9938604831695557, 0.9893019795417786, 0.9838494062423706, 0.9859660267829895, 0.9857553839683533, 0.9890216588973999, 0.9674725532531738, 0.9752918481826782, 0.9712172150611877, 0.9852594137191772, 0.9686175584793091, 0.9747714400291443, 0.8950111269950867, 0.9604805111885071, 0.9118461608886719, 0.8177774548530579, 0.22161918878555298, 0.6780869364738464, 0.9011555910110474, 0.8651828765869141, 0.6421588063240051, 0.8292309641838074, 0.9415799379348755, 0.9530280232429504, 0.9448332786560059, 0.9219492673873901, 0.9540762901306152, 0.9654409289360046, 0.9883411526679993, 0.9880372285842896, 0.9809632301330566, 0.9809695482254028]</t>
+          <t>[0.9973164200782776, 0.9962719678878784, 0.9871498346328735, 0.9819756150245667, 0.9885968565940857, 0.9643316268920898, 0.9771875739097595, 0.9875641465187073, 0.9948562383651733, 0.9980820417404175, 0.9962888956069946, 0.9894670844078064, 0.9978393316268921, 0.9945981502532959, 0.9970556497573853, 0.997530996799469, 0.9979422688484192, 0.9983071088790894, 0.9973540306091309, 0.9873170256614685, 0.9912318587303162, 0.9834707379341125, 0.996150016784668, 0.9961736798286438, 0.9962826371192932, 0.9946680068969727, 0.9938680529594421, 0.9969224333763123, 0.9967474937438965, 0.9925563931465149, 0.9899202585220337, 0.9927583932876587, 0.9922199845314026, 0.9908417463302612, 0.9940500855445862, 0.9951528310775757, 0.9937113523483276, 0.9932315349578857, 0.9947274327278137, 0.9956265687942505, 0.9951251149177551, 0.9913696050643921, 0.9888429641723633, 0.9923845529556274, 0.9900463223457336, 0.9893997311592102, 0.9846485257148743, 0.9885472059249878, 0.9923092126846313, 0.9753859639167786, 0.9727998971939087, 0.9772785305976868, 0.9702115058898926, 0.8303211331367493, 0.7846104502677917, 0.7897455096244812, 0.9823479652404785, 0.9927433729171753, 0.9947788715362549, 0.9950862526893616, 0.9965112805366516, 0.99660325050354, 0.9964746832847595, 0.996566116809845, 0.9969095587730408, 0.9955486059188843, 0.9798335433006287, 0.9520919322967529, 0.8922500014305115, 0.6518582105636597, 0.9038103222846985, 0.9861700534820557, 0.9944003224372864, 0.9946690201759338, 0.9825040698051453, 0.9950887560844421, 0.996480405330658, 0.9969005584716797, 0.9968972206115723, 0.9888999462127686, 0.9832620620727539, 0.9394022822380066, 0.6275014877319336, 0.5992171764373779, 0.893205463886261, 0.9899749159812927, 0.9898568391799927, 0.9856541752815247, 0.983974277973175, 0.9925816059112549, 0.993447482585907, 0.9937770366668701, 0.9963435530662537, 0.9950119256973267, 0.9982267022132874, 0.998525083065033, 0.9974804520606995, 0.9952743053436279, 0.9957446455955505, 0.9964918494224548, 0.9980685114860535, 0.9968223571777344, 0.9976502060890198, 0.9964141249656677, 0.9959945678710938, 0.9956613183021545, 0.9960986375808716, 0.9948541522026062, 0.9980546236038208, 0.996738612651825, 0.9950206279754639, 0.9953035116195679, 0.9945898056030273, 0.9968256950378418, 0.9888639450073242, 0.9920439124107361, 0.9928713440895081, 0.9958589673042297, 0.9920175075531006, 0.994388997554779, 0.9851689338684082, 0.9925748109817505, 0.9721056818962097, 0.9193464517593384, 0.38720840215682983, 0.8845133781433105, 0.9736705422401428, 0.9544342756271362, 0.8077847361564636, 0.9300224184989929, 0.9839306473731995, 0.989680826663971, 0.9871110916137695, 0.9831826686859131, 0.9912580847740173, 0.990356981754303, 0.9966890215873718, 0.9963878393173218, 0.9946852922439575, 0.9946836829185486]</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.9951336979866028</v>
+        <v>0.998525083065033</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.7917400000151247</v>
+        <v>0.7866203999874415</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005655285714393748</v>
+        <v>0.005618717142767439</v>
       </c>
     </row>
     <row r="8">
@@ -845,11 +845,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0.7624083161354065, 0.7297517657279968, 0.8574479818344116, 0.8003836870193481, 0.8584046959877014, 0.683509111404419, 0.5820112228393555, 0.6238587498664856, 0.8887169361114502, 0.9001621007919312, 0.8501760363578796, 0.5087841749191284, 0.3313029110431671, 0.3967563509941101, 0.37938445806503296, 0.45026883482933044, 0.3206895887851715, 0.5746275186538696, 0.680486798286438, 0.6922712922096252, 0.8510291576385498, 0.8490117788314819, 0.5621375441551208, 0.836426854133606, 0.9320023059844971, 0.9506649971008301, 0.9666047692298889, 0.8896915316581726, 0.6963286399841309, 0.7134445905685425, 0.5728974342346191, 0.6050882339477539, 0.5226888060569763, 0.7005783915519714, 0.692421555519104, 0.7153602242469788, 0.5911375284194946, 0.6510540843009949, 0.7938125729560852, 0.5853163599967957, 0.7125746607780457, 0.8558919429779053, 0.800020158290863, 0.6583117842674255, 0.714227020740509, 0.6967337131500244, 0.5735248327255249, 0.6471798419952393, 0.7096198797225952, 0.697650671005249, 0.6384947896003723, 0.7695938348770142, 0.6686630249023438, 0.5292303562164307, 0.692984402179718, 0.798812210559845, 0.7845941185951233, 0.6556252837181091, 0.3019244372844696, 0.2841249108314514, 0.3121839761734009, 0.22489199042320251, 0.25650450587272644, 0.5145512223243713, 0.600960910320282, 0.7475345134735107, 0.9206168055534363, 0.8793466091156006, 0.904280424118042, 0.82803875207901, 0.6019883751869202, 0.3861214518547058, 0.48174285888671875, 0.4245017468929291, 0.646221935749054, 0.5155102610588074, 0.6960540413856506, 0.7652372717857361, 0.8296335935592651, 0.7606642246246338, 0.7138323783874512, 0.7268608808517456, 0.7962073087692261, 0.7577681541442871, 0.7581477761268616, 0.8108545541763306, 0.7123140692710876, 0.784224808216095, 0.6635640263557434, 0.5941983461380005, 0.6434811949729919, 0.8032024502754211, 0.6213892102241516, 0.7429970502853394, 0.7205326557159424, 0.5523678064346313, 0.41221609711647034, 0.6579359173774719, 0.6026116013526917, 0.4858204424381256, 0.5052937269210815, 0.2434753179550171, 0.21223889291286469, 0.29383203387260437, 0.5167966485023499, 0.5165271759033203, 0.5344699621200562, 0.6119234561920166, 0.6076776385307312, 0.4578706622123718, 0.4519447386264801, 0.5220779180526733, 0.5407018661499023, 0.5105811953544617, 0.4440866708755493, 0.42370352149009705, 0.34521523118019104, 0.2991887927055359, 0.3126624524593353, 0.5120340585708618, 0.7094284296035767, 0.6253618597984314, 0.5860723257064819, 0.5505242943763733, 0.6258647441864014, 0.682369589805603, 0.732804000377655, 0.7409648299217224, 0.7307640314102173, 0.6646855473518372, 0.6899756789207458, 0.6158003211021423, 0.3651944696903229, 0.49750614166259766, 0.44632792472839355, 0.5077158212661743, 0.6594423055648804, 0.6494189500808716, 0.6679235100746155, 0.6653484106063843]</t>
+          <t>[0.8032958507537842, 0.7250064015388489, 0.8611803650856018, 0.8084038496017456, 0.8270121216773987, 0.6671250462532043, 0.5314831733703613, 0.512007474899292, 0.883240282535553, 0.8996427059173584, 0.8368843197822571, 0.5838819146156311, 0.3015904128551483, 0.42911866307258606, 0.3909197747707367, 0.5250584483146667, 0.37803441286087036, 0.6877036690711975, 0.7393184900283813, 0.6933180689811707, 0.9319848418235779, 0.9115707874298096, 0.7101730108261108, 0.9169310331344604, 0.945858359336853, 0.965744137763977, 0.9873034358024597, 0.9173141121864319, 0.6708940267562866, 0.6983136534690857, 0.5207778811454773, 0.540289044380188, 0.44939514994621277, 0.6578778028488159, 0.6238538026809692, 0.6758124828338623, 0.5182194113731384, 0.5742228627204895, 0.7191720008850098, 0.4134710133075714, 0.6613667011260986, 0.8533501029014587, 0.8184627294540405, 0.5991136431694031, 0.6712736487388611, 0.5837198495864868, 0.4617202579975128, 0.5076640844345093, 0.6402708292007446, 0.619087278842926, 0.4912624657154083, 0.7533467411994934, 0.6622990965843201, 0.47123658657073975, 0.6319325566291809, 0.7934226989746094, 0.7992042899131775, 0.6310375332832336, 0.19235973060131073, 0.23234392702579498, 0.2646700143814087, 0.17205046117305756, 0.22936120629310608, 0.5453314781188965, 0.6309846043586731, 0.8295027017593384, 0.9536686539649963, 0.9363232254981995, 0.9327219128608704, 0.8855041861534119, 0.6701415777206421, 0.34010472893714905, 0.6011939644813538, 0.43677911162376404, 0.7052039504051208, 0.5004658102989197, 0.6783132553100586, 0.775219202041626, 0.7593091130256653, 0.6411508917808533, 0.5659357905387878, 0.6439056396484375, 0.7768079042434692, 0.7453417181968689, 0.7831671833992004, 0.837166965007782, 0.7361739277839661, 0.7939786911010742, 0.6159656047821045, 0.5064453482627869, 0.5946357250213623, 0.8546972274780273, 0.6448044776916504, 0.7153933644294739, 0.7512111663818359, 0.4622657895088196, 0.29733145236968994, 0.5658739805221558, 0.5548384189605713, 0.5200757384300232, 0.4582519829273224, 0.21898235380649567, 0.1715354174375534, 0.24575962126255035, 0.5318664908409119, 0.49883490800857544, 0.524112343788147, 0.5962274670600891, 0.5795413851737976, 0.44321227073669434, 0.4569128155708313, 0.6259709596633911, 0.6814194917678833, 0.6366797089576721, 0.5072290897369385, 0.49279212951660156, 0.3224262595176697, 0.31705859303474426, 0.34609878063201904, 0.6379969120025635, 0.8483700752258301, 0.6817746758460999, 0.6848814487457275, 0.6283478140830994, 0.7410162687301636, 0.7159451246261597, 0.7825027704238892, 0.7934326529502869, 0.7785292267799377, 0.6741541624069214, 0.7271163463592529, 0.6122118830680847, 0.3435874879360199, 0.45415177941322327, 0.3788755536079407, 0.37265491485595703, 0.5788366794586182, 0.5701727867126465, 0.648817241191864, 0.6462576389312744]</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.9666047692298889</v>
+        <v>0.9873034358024597</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.8055538999906275</v>
+        <v>0.8092958000052022</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005753956428504482</v>
+        <v>0.005780684285751445</v>
       </c>
     </row>
     <row r="9">
@@ -885,11 +885,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[0.6712455749511719, 0.7052256464958191, 0.7676433324813843, 0.5854167938232422, 0.4280996024608612, 0.5117100477218628, 0.311210572719574, 0.2830987572669983, 0.16689948737621307, 0.21809269487857819, 0.2877393662929535, 0.3117923438549042, 0.4327177107334137, 0.556766927242279, 0.47587183117866516, 0.43529611825942993, 0.524223804473877, 0.3448379933834076, 0.46782615780830383, 0.49274545907974243, 0.3876064419746399, 0.33585357666015625, 0.38239428400993347, 0.5088993310928345, 0.6886266469955444, 0.5966101884841919, 0.667807400226593, 0.832708477973938, 0.5086008310317993, 0.6231908202171326, 0.7185747623443604, 0.8881825804710388, 0.5805774331092834, 0.5415140986442566, 0.7927262187004089, 0.737604022026062, 0.4563865661621094, 0.4342854917049408, 0.8012123107910156, 0.5394003391265869, 0.682326078414917, 0.5390649437904358, 0.35869917273521423, 0.3221040368080139, 0.37191537022590637, 0.525149941444397, 0.6072043776512146, 0.46857479214668274, 0.5753133296966553, 0.3947744369506836, 0.3232176899909973, 0.29655909538269043, 0.35007792711257935, 0.4412955939769745, 0.49132442474365234, 0.35655608773231506, 0.23431116342544556, 0.3324393630027771, 0.42844271659851074, 0.42304953932762146, 0.4165971279144287, 0.5158337354660034, 0.6695924401283264, 0.7273093461990356, 0.7302241325378418, 0.7330610156059265, 0.7356694936752319, 0.793907105922699, 0.7419589161872864, 0.7939543724060059, 0.775767982006073, 0.6884140968322754, 0.5508720278739929, 0.7501460313796997, 0.7135289311408997, 0.5891478657722473, 0.40262556076049805, 0.40524527430534363, 0.7808132171630859, 0.825664222240448, 0.7217583060264587, 0.6377140879631042, 0.5415396690368652, 0.24741247296333313, 0.3283842206001282, 0.3736952841281891, 0.36802518367767334, 0.43874919414520264, 0.46608781814575195, 0.5835403203964233, 0.5345734357833862, 0.7350941896438599, 0.5260647535324097, 0.5808692574501038, 0.27841827273368835, 0.2974810302257538, 0.2009531706571579, 0.5369393229484558, 0.390394926071167, 0.2986040711402893, 0.19405193626880646, 0.29375073313713074, 0.5123823881149292, 0.5381366014480591, 0.47431376576423645, 0.478145569562912, 0.3456920385360718, 0.27934500575065613, 0.509515643119812, 0.4158898890018463, 0.26536113023757935, 0.10807430744171143, 0.09729722142219543, 0.2506226599216461, 0.3905976712703705, 0.3018004894256592, 0.273508757352829, 0.3672216832637787, 0.18840353190898895, 0.29752737283706665, 0.3363906145095825, 0.2893480062484741, 0.2797527611255646, 0.2460295557975769, 0.1871940940618515, 0.2503729462623596, 0.3177907466888428, 0.3295508325099945, 0.3424612283706665, 0.19796323776245117, 0.42335045337677, 0.4862346351146698, 0.43800613284111023, 0.21674346923828125, 0.2302979975938797, 0.2598053216934204, 0.43330445885658264, 0.3621261715888977, 0.19866809248924255, 0.323873907327652, 0.5978095531463623, 0.6139758229255676, 0.6700745224952698, 0.4157474935054779, 0.1691073179244995, 0.1516381800174713, 0.17091041803359985, 0.14564894139766693, 0.2604491114616394, 0.4537656307220459, 0.5884121656417847, 0.45967456698417664, 0.35033416748046875, 0.34678784012794495, 0.46692636609077454, 0.5813016295433044, 0.606178879737854, 0.6075433492660522]</t>
+          <t>[0.6787570118904114, 0.6666440963745117, 0.7788989543914795, 0.5658063292503357, 0.31266820430755615, 0.34746354818344116, 0.18826143443584442, 0.1617738902568817, 0.08981874585151672, 0.13100115954875946, 0.16561076045036316, 0.16442081332206726, 0.26286426186561584, 0.4527471959590912, 0.3167661130428314, 0.280776709318161, 0.5049408078193665, 0.3536769151687622, 0.45640650391578674, 0.4006288945674896, 0.28757789731025696, 0.25869548320770264, 0.37150493264198303, 0.6072244048118591, 0.7031058073043823, 0.633234977722168, 0.6602968573570251, 0.8446460962295532, 0.4974336326122284, 0.6768520474433899, 0.7744689583778381, 0.9071712493896484, 0.6501165628433228, 0.510329008102417, 0.7603850960731506, 0.7029334306716919, 0.30542606115341187, 0.3693341612815857, 0.8123751878738403, 0.5398855209350586, 0.7828812599182129, 0.5566188097000122, 0.2562296390533447, 0.20009545981884003, 0.24193529784679413, 0.4541977047920227, 0.5807839632034302, 0.46280330419540405, 0.6454651355743408, 0.472633957862854, 0.3158028721809387, 0.21039319038391113, 0.33735814690589905, 0.43455544114112854, 0.43136295676231384, 0.29150697588920593, 0.15584918856620789, 0.23578761518001556, 0.2805272936820984, 0.3110694885253906, 0.36838722229003906, 0.361963152885437, 0.5306333899497986, 0.6357573866844177, 0.6490987539291382, 0.6575496196746826, 0.682239830493927, 0.7242291569709778, 0.7081189751625061, 0.8525274991989136, 0.7651216387748718, 0.7536886930465698, 0.5639866590499878, 0.830525815486908, 0.7415309548377991, 0.6333971619606018, 0.43000608682632446, 0.3625194728374481, 0.813954770565033, 0.8776100873947144, 0.7655110359191895, 0.6791783571243286, 0.5689369440078735, 0.2027672827243805, 0.25682008266448975, 0.2326432466506958, 0.23134948313236237, 0.3033919632434845, 0.3614813983440399, 0.5564215779304504, 0.42442944645881653, 0.7269635200500488, 0.5185038447380066, 0.537431538105011, 0.17327748239040375, 0.2775753140449524, 0.1455814689397812, 0.4822187125682831, 0.3331076502799988, 0.23259328305721283, 0.13840405642986298, 0.3070752024650574, 0.47477981448173523, 0.4574185609817505, 0.4172672927379608, 0.325341135263443, 0.20983633399009705, 0.22106143832206726, 0.415837824344635, 0.3144749402999878, 0.13956981897354126, 0.043364424258470535, 0.04096651077270508, 0.12063370645046234, 0.21925953030586243, 0.15457099676132202, 0.10616044700145721, 0.2201050966978073, 0.07492261379957199, 0.16564932465553284, 0.14119583368301392, 0.10083985328674316, 0.1270153522491455, 0.11192008852958679, 0.08221257477998734, 0.16238132119178772, 0.1861647665500641, 0.2229519784450531, 0.24031159281730652, 0.1429438441991806, 0.3366469144821167, 0.2917926609516144, 0.2864592373371124, 0.10124729573726654, 0.12097977846860886, 0.14986871182918549, 0.29859301447868347, 0.2018040120601654, 0.10595332086086273, 0.20067551732063293, 0.4599998891353607, 0.5270133018493652, 0.6619229912757874, 0.28786391019821167, 0.08025572448968887, 0.07640593498945236, 0.11098827421665192, 0.07666950672864914, 0.13229168951511383, 0.3279992341995239, 0.38874655961990356, 0.3495802879333496, 0.30575263500213623, 0.2949661314487457, 0.421374648809433, 0.5711809396743774, 0.5919568538665771, 0.5950601696968079]</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8881825804710388</v>
+        <v>0.9071712493896484</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.9037549999775365</v>
+        <v>0.9478852999891387</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005719968354288205</v>
+        <v>0.005999274050564169</v>
       </c>
     </row>
     <row r="10">
@@ -925,11 +925,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[0.3022134006023407, 0.1339983344078064, 0.1250062733888626, 0.12854427099227905, 0.08955227583646774, 0.10222332179546356, 0.10320203006267548, 0.09071073681116104, 0.0801040455698967, 0.1111694946885109, 0.19522160291671753, 0.22283530235290527, 0.26579907536506653, 0.21183475852012634, 0.28071343898773193, 0.2266000360250473, 0.20534616708755493, 0.17511777579784393, 0.2577570080757141, 0.30857065320014954, 0.1974727064371109, 0.21883097290992737, 0.17354096472263336, 0.19789594411849976, 0.10503232479095459, 0.15272723138332367, 0.13951356709003448, 0.11429764330387115, 0.11885146051645279, 0.1798701286315918, 0.13664187490940094, 0.19056230783462524, 0.12937365472316742, 0.13868670165538788, 0.16877353191375732, 0.2884756326675415, 0.0860816165804863, 0.250179260969162, 0.2050919383764267, 0.1707470417022705, 0.28070273995399475, 0.217467799782753, 0.18231774866580963, 0.08377867937088013, 0.10331530123949051, 0.13498111069202423, 0.15734730660915375, 0.18318712711334229, 0.21451078355312347, 0.2708631157875061, 0.13710810244083405, 0.13407966494560242, 0.1284528374671936, 0.09613686054944992, 0.18015258014202118, 0.2008129507303238, 0.2754022181034088, 0.21903853118419647, 0.1900256872177124, 0.15808962285518646, 0.16062015295028687, 0.20427174866199493, 0.2564845681190491, 0.23295874893665314, 0.3255268633365631, 0.3241136968135834, 0.39910662174224854, 0.2028125524520874, 0.19553230702877045, 0.3280852437019348, 0.20267054438591003, 0.24151970446109772, 0.21669988334178925, 0.11975777894258499, 0.17690996825695038, 0.14091277122497559, 0.1253710687160492, 0.13853299617767334, 0.13047058880329132, 0.18930862843990326, 0.2770533263683319, 0.24284176528453827, 0.18823890388011932, 0.18097490072250366, 0.2587157189846039, 0.29435887932777405, 0.25151658058166504, 0.26070737838745117, 0.3004613220691681, 0.49518725275993347, 0.6513011455535889, 0.24097630381584167, 0.44310083985328674, 0.19761967658996582, 0.42426982522010803, 0.3116704821586609, 0.15586130321025848, 0.11121571809053421, 0.0988025814294815, 0.07863662391901016, 0.10427252948284149, 0.11770240217447281, 0.08911825716495514, 0.06803338974714279, 0.05924485623836517, 0.10529408603906631, 0.134913370013237, 0.13492044806480408, 0.09755462408065796, 0.15157365798950195, 0.14491450786590576, 0.09687468409538269, 0.07453285902738571, 0.0593518503010273, 0.13506659865379333, 0.11649958789348602, 0.23167219758033752, 0.27046167850494385, 0.16039098799228668, 0.1534092277288437, 0.20472867786884308, 0.33950167894363403, 0.3586982488632202, 0.3607945144176483, 0.29738810658454895, 0.25445520877838135, 0.35279732942581177, 0.433979868888855, 0.5259695053100586, 0.7223793268203735, 0.3393552899360657, 0.4183327555656433, 0.3730849623680115, 0.42669200897216797, 0.2885160744190216, 0.12543544173240662, 0.061086975038051605, 0.06349073350429535, 0.06842406094074249, 0.11190667003393173, 0.1518995761871338, 0.11362764239311218, 0.09358628839254379, 0.11433231085538864, 0.09887325018644333, 0.11221783608198166, 0.08270890265703201, 0.12267597019672394, 0.19829648733139038, 0.142484650015831, 0.12274438887834549, 0.140621617436409, 0.2027813047170639, 0.2768123745918274, 0.26708468794822693, 0.18126949667930603, 0.11796319484710693, 0.11817667633295059]</t>
+          <t>[0.19759893417358398, 0.06928151845932007, 0.06319768726825714, 0.05940541252493858, 0.033872488886117935, 0.041133247315883636, 0.042885828763246536, 0.044441331177949905, 0.03629409521818161, 0.05260784178972244, 0.12856537103652954, 0.13096563518047333, 0.1597413867712021, 0.12151307612657547, 0.14398053288459778, 0.12239104509353638, 0.11413143575191498, 0.07459316402673721, 0.12700119614601135, 0.19799022376537323, 0.10614684969186783, 0.12937773764133453, 0.09804951399564743, 0.10837643593549728, 0.05204450711607933, 0.0951162651181221, 0.07025455683469772, 0.057987041771411896, 0.07126203179359436, 0.08927338570356369, 0.05957169458270073, 0.09322158992290497, 0.06313534080982208, 0.07084239274263382, 0.08545747399330139, 0.14734074473381042, 0.037242207676172256, 0.1435004025697708, 0.11493168026208878, 0.08324295282363892, 0.15912547707557678, 0.1348966807126999, 0.09816084057092667, 0.05105353146791458, 0.06249385327100754, 0.09603066742420197, 0.09152714908123016, 0.09778432548046112, 0.10380304604768753, 0.1939491331577301, 0.08628486841917038, 0.0951564684510231, 0.06407099217176437, 0.050427187234163284, 0.08186015486717224, 0.09541870653629303, 0.1287127286195755, 0.1316586136817932, 0.12743021547794342, 0.11421952396631241, 0.08483138680458069, 0.11977364122867584, 0.16730818152427673, 0.14180438220500946, 0.21671921014785767, 0.18144792318344116, 0.27024003863334656, 0.09526270627975464, 0.10221707075834274, 0.19948311150074005, 0.09587273746728897, 0.117866650223732, 0.08345259726047516, 0.04758225381374359, 0.08504905551671982, 0.04903935641050339, 0.04784465208649635, 0.055350080132484436, 0.04939417168498039, 0.07363570481538773, 0.12273195385932922, 0.12014108151197433, 0.07281690835952759, 0.08349829912185669, 0.10981214791536331, 0.12951195240020752, 0.11625552177429199, 0.11047344654798508, 0.17336755990982056, 0.3300655484199524, 0.5474924445152283, 0.10863348841667175, 0.26032981276512146, 0.07935799658298492, 0.2446499913930893, 0.1779870092868805, 0.07985679805278778, 0.05438729748129845, 0.041311271488666534, 0.0357518270611763, 0.05039774999022484, 0.06637974083423615, 0.04361589998006821, 0.03283645585179329, 0.02592199668288231, 0.05546993017196655, 0.08614855259656906, 0.07663362473249435, 0.05164998397231102, 0.08848502486944199, 0.09076976031064987, 0.05706999823451042, 0.03919661417603493, 0.02699626050889492, 0.05713221803307533, 0.05974850803613663, 0.13883672654628754, 0.17883910238742828, 0.07619335502386093, 0.09803173691034317, 0.10160358995199203, 0.16716355085372925, 0.17133407294750214, 0.18866288661956787, 0.15256167948246002, 0.1371748000383377, 0.28179672360420227, 0.3303813338279724, 0.3922187387943268, 0.6129696369171143, 0.17930737137794495, 0.2036876231431961, 0.19471397995948792, 0.254225492477417, 0.14428241550922394, 0.04941079020500183, 0.022047556936740875, 0.022999517619609833, 0.029175927862524986, 0.046610716730356216, 0.0885263979434967, 0.05993787571787834, 0.04760557785630226, 0.05695255100727081, 0.04855121672153473, 0.042106516659259796, 0.0334518626332283, 0.05294399335980415, 0.11458948999643326, 0.08303244411945343, 0.06886903941631317, 0.07588021457195282, 0.11153707653284073, 0.1602802574634552, 0.18605342507362366, 0.11143265664577484, 0.063470758497715, 0.06349217891693115]</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.7223793268203735</v>
+        <v>0.6129696369171143</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.9168253999960143</v>
+        <v>0.9138636999996379</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005802692405038066</v>
+        <v>0.005783947468352139</v>
       </c>
     </row>
     <row r="11">
@@ -965,11 +965,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[0.058795686811208725, 0.07649146765470505, 0.07609180361032486, 0.060815125703811646, 0.054604846984148026, 0.04299087077379227, 0.08700715005397797, 0.10123687982559204, 0.07472849637269974, 0.0638040155172348, 0.0729474425315857, 0.07342436164617538, 0.09092854708433151, 0.12119492143392563, 0.10389148443937302, 0.13036033511161804, 0.08344274759292603, 0.10119916498661041, 0.08313213288784027, 0.0766359269618988, 0.09892512112855911, 0.10414714366197586, 0.1243075355887413, 0.08576503396034241, 0.10224328190088272, 0.13604947924613953, 0.2680962085723877, 0.2499740719795227, 0.1309184730052948, 0.1389411836862564, 0.11700186878442764, 0.19856412708759308, 0.12037588655948639, 0.11547264456748962, 0.10918179154396057, 0.07686395943164825, 0.10535341501235962, 0.1726597547531128, 0.1429433822631836, 0.15309397876262665, 0.10117358714342117, 0.07304535061120987, 0.0698847770690918, 0.07333818078041077, 0.0725569948554039, 0.13590772449970245, 0.09209117293357849, 0.16960802674293518, 0.09478480368852615, 0.08326753228902817, 0.0914255902171135, 0.09206502139568329, 0.08751771599054337, 0.10275159776210785, 0.11076661199331284, 0.09160644561052322, 0.075659841299057, 0.08911296725273132, 0.11257322132587433, 0.1442686766386032, 0.11831578612327576, 0.13210664689540863, 0.13810008764266968, 0.08273578435182571, 0.09042137116193771, 0.1368284672498703, 0.12491445988416672, 0.15469983220100403, 0.15604336559772491, 0.1320817619562149, 0.11609559506177902, 0.13270778954029083, 0.11495634913444519, 0.08345857262611389, 0.1419714093208313, 0.1422533392906189, 0.1794033944606781, 0.2596455216407776, 0.18986676633358002, 0.16956374049186707, 0.18279458582401276, 0.1306440383195877, 0.06759632378816605, 0.08736355602741241, 0.08211302757263184, 0.09871179610490799, 0.1031355932354927, 0.124121755361557, 0.14970359206199646, 0.09327676147222519, 0.08647748082876205, 0.11166917532682419, 0.147929847240448, 0.17934724688529968, 0.2017139196395874, 0.17031103372573853, 0.1845957338809967, 0.1375412493944168, 0.1611921787261963, 0.09325466305017471, 0.08240882307291031, 0.10058900713920593, 0.10576121509075165, 0.08288314938545227, 0.0677848532795906, 0.08494380116462708, 0.08961580693721771, 0.07555092126131058, 0.09426918625831604, 0.10242504626512527, 0.09860484302043915, 0.1125318855047226, 0.09013320505619049, 0.07177465409040451, 0.07791578024625778, 0.07366962730884552, 0.07730702310800552, 0.08521372824907303, 0.08863916248083115, 0.10382600128650665, 0.1073230504989624, 0.08554497361183167, 0.07759547233581543, 0.06437807530164719, 0.0718962773680687, 0.08779290318489075, 0.06660303473472595, 0.05943142622709274, 0.0874791070818901, 0.09421205520629883, 0.06841764599084854, 0.06824885308742523, 0.07139936089515686, 0.09731084108352661, 0.08519450575113297, 0.09714990109205246, 0.22194857895374298, 0.11960083246231079, 0.2019052654504776, 0.1178906261920929, 0.08605129271745682, 0.09252436459064484, 0.07115445286035538, 0.09362119436264038, 0.1324610859155655, 0.09762511402368546, 0.08994516730308533, 0.18005239963531494, 0.14206936955451965, 0.07574512809515, 0.058049462735652924, 0.07491379976272583, 0.08773917704820633, 0.09052985161542892, 0.10933278501033783, 0.08518967777490616, 0.08605129271745682, 0.08627568185329437]</t>
+          <t>[0.034953031688928604, 0.048231858760118484, 0.03741059452295303, 0.026704004034399986, 0.025401514023542404, 0.02484484575688839, 0.04779042676091194, 0.06311650574207306, 0.03487855941057205, 0.026610370725393295, 0.03086194396018982, 0.03415089100599289, 0.04030764847993851, 0.06555801630020142, 0.041932158172130585, 0.0719594955444336, 0.036541011184453964, 0.0415809340775013, 0.036452196538448334, 0.03240144997835159, 0.045941855758428574, 0.049603454768657684, 0.06329880654811859, 0.03349442780017853, 0.04429187998175621, 0.057877473533153534, 0.1576462984085083, 0.16507744789123535, 0.05374757573008537, 0.06409138441085815, 0.05466653034090996, 0.10817807167768478, 0.059971392154693604, 0.05123445764183998, 0.046194739639759064, 0.02784283459186554, 0.03771846741437912, 0.08026821911334991, 0.07610640674829483, 0.08748193085193634, 0.053273074328899384, 0.03372038155794144, 0.03222502022981644, 0.03593031316995621, 0.03317077457904816, 0.07657486945390701, 0.048739828169345856, 0.09637846797704697, 0.04603101313114166, 0.045820921659469604, 0.05117134749889374, 0.049604419618844986, 0.039919305592775345, 0.050057221204042435, 0.05270266905426979, 0.06244153156876564, 0.03520742803812027, 0.04415066912770271, 0.06117561459541321, 0.10772650688886642, 0.08387115597724915, 0.07326803356409073, 0.06872683763504028, 0.03976893052458763, 0.050878118723630905, 0.11358851939439774, 0.07097925245761871, 0.10462962836027145, 0.11298524588346481, 0.08470027148723602, 0.0709807425737381, 0.07080909609794617, 0.05949120968580246, 0.049066781997680664, 0.10062550008296967, 0.08723865449428558, 0.11745528876781464, 0.2186601310968399, 0.14338193833827972, 0.10922945290803909, 0.09134536236524582, 0.07815560698509216, 0.03780520707368851, 0.06243516132235527, 0.04204295203089714, 0.051824118942022324, 0.05507027730345726, 0.06457937508821487, 0.08799633383750916, 0.04104852303862572, 0.03578905016183853, 0.05512140691280365, 0.08837081491947174, 0.10477083921432495, 0.10368612408638, 0.12862060964107513, 0.09873749315738678, 0.06664937734603882, 0.0788436233997345, 0.048760514706373215, 0.04147692769765854, 0.04090166836977005, 0.04313076660037041, 0.0323573462665081, 0.021535169333219528, 0.023001134395599365, 0.03022618405520916, 0.021385835483670235, 0.0296767707914114, 0.03195437416434288, 0.0379900299012661, 0.0455792210996151, 0.042251184582710266, 0.02803247794508934, 0.028013670817017555, 0.02612670511007309, 0.03361047804355621, 0.032173119485378265, 0.0354980044066906, 0.0507524348795414, 0.046097707003355026, 0.032189514487981796, 0.034856002777814865, 0.028544247150421143, 0.03486374393105507, 0.05552377924323082, 0.039477817714214325, 0.02961890958249569, 0.044085413217544556, 0.06788826733827591, 0.03855675458908081, 0.045303549617528915, 0.04001104086637497, 0.0697115883231163, 0.05227711424231529, 0.06354144215583801, 0.20283037424087524, 0.07014905661344528, 0.18919244408607483, 0.06534073501825333, 0.045903075486421585, 0.04553131014108658, 0.0336155965924263, 0.04753515496850014, 0.06364157050848007, 0.04620640352368355, 0.039312850683927536, 0.1319587230682373, 0.09022422879934311, 0.039290834218263626, 0.027960050851106644, 0.05324472859501839, 0.06039614602923393, 0.05852297693490982, 0.06850943714380264, 0.04427033290266991, 0.042261358350515366, 0.042391370981931686]</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2680962085723877</v>
+        <v>0.2186601310968399</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.9469680000038352</v>
+        <v>0.9031908000033582</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005993468354454653</v>
+        <v>0.005716397468375684</v>
       </c>
     </row>
     <row r="12">
@@ -1005,11 +1005,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[0.5244200825691223, 0.5632343292236328, 0.46058112382888794, 0.3649805188179016, 0.31096190214157104, 0.24701723456382751, 0.3308107554912567, 0.33971384167671204, 0.29525381326675415, 0.2509039640426636, 0.2579604387283325, 0.23883280158042908, 0.16106408834457397, 0.1702101081609726, 0.2943342924118042, 0.5191789865493774, 0.42803192138671875, 0.2233494222164154, 0.3117258846759796, 0.5085064172744751, 0.4334569573402405, 0.5216950178146362, 0.6051134467124939, 0.5191373229026794, 0.4305133819580078, 0.26026806235313416, 0.19861382246017456, 0.3122762143611908, 0.4482366144657135, 0.39589840173721313, 0.34778982400894165, 0.4187684953212738, 0.2624651789665222, 0.30186721682548523, 0.23239199817180634, 0.31627896428108215, 0.2569276690483093, 0.26211726665496826, 0.2966032922267914, 0.3444381058216095, 0.40867769718170166, 0.3510936200618744, 0.2963603436946869, 0.342032790184021, 0.2959439158439636, 0.41174769401550293, 0.2786751389503479, 0.39628085494041443, 0.3924579620361328, 0.4728221893310547, 0.3941105902194977, 0.357244074344635, 0.2301211953163147, 0.30630603432655334, 0.3678510785102844, 0.24482892453670502, 0.17880548536777496, 0.37672728300094604, 0.278082937002182, 0.3626633882522583, 0.38366565108299255, 0.1764555722475052, 0.3453390300273895, 0.1848057210445404, 0.1737254112958908, 0.2854487895965576, 0.30506631731987, 0.4872874915599823, 0.49184542894363403, 0.40049684047698975, 0.47108194231987, 0.5188544392585754, 0.3130328953266144, 0.26122573018074036, 0.36665427684783936, 0.295794814825058, 0.34548574686050415, 0.20199096202850342, 0.4241420030593872, 0.3362134099006653, 0.5551289319992065, 0.43318840861320496, 0.5612584352493286, 0.4920157194137573, 0.6200226545333862, 0.37033042311668396, 0.5009905099868774, 0.6957374811172485, 0.5489905476570129, 0.48958146572113037, 0.6507291197776794, 0.5188665986061096, 0.6846752166748047, 0.7513596415519714, 0.755841851234436, 0.9259233474731445, 0.7439326047897339, 0.46992379426956177, 0.5630641579627991, 0.5796273946762085, 0.8450733423233032, 0.7664452195167542, 0.7568843364715576, 0.797441840171814, 0.6333919167518616, 0.6944813132286072, 0.4857215881347656, 0.7952631711959839, 0.810971736907959, 0.7844515442848206, 0.7960643768310547, 0.6497507691383362, 0.7034702897071838, 0.5394082069396973, 0.5599362254142761, 0.4756450355052948, 0.4901445209980011, 0.6729550957679749, 0.8278903961181641, 0.7916133403778076, 0.7512167096138, 0.8051640391349792, 0.645094633102417, 0.5131334066390991, 0.7311479449272156, 0.5411202311515808, 0.6589263081550598, 0.7734400033950806, 0.7144650816917419, 0.6092225909233093, 0.5433104634284973, 0.4427783489227295, 0.5826631188392639, 0.6617533564567566, 0.416978120803833, 0.3754284083843231, 0.4165876507759094, 0.4115453064441681, 0.4715506136417389, 0.38833385705947876, 0.30001577734947205, 0.3949238657951355, 0.5059325098991394, 0.4129525423049927, 0.42973455786705017, 0.6337010860443115, 0.4748856723308563, 0.4097231328487396, 0.34888070821762085, 0.35220298171043396, 0.33418551087379456, 0.4379304349422455, 0.5847189426422119, 0.5444017052650452, 0.5134897232055664, 0.5258356928825378, 0.5272940397262573]</t>
+          <t>[0.5041179060935974, 0.5465559363365173, 0.4181191921234131, 0.32770028710365295, 0.2573431432247162, 0.19128985702991486, 0.2589046359062195, 0.33736681938171387, 0.24747908115386963, 0.19333426654338837, 0.2335791289806366, 0.26158297061920166, 0.1458493322134018, 0.12027843296527863, 0.25216612219810486, 0.4876945912837982, 0.48306146264076233, 0.2156001329421997, 0.3390422463417053, 0.5961533784866333, 0.4912263751029968, 0.6057672500610352, 0.7383496761322021, 0.624274730682373, 0.44614678621292114, 0.27641910314559937, 0.17870238423347473, 0.3134499490261078, 0.45125678181648254, 0.3824623227119446, 0.27344271540641785, 0.3484678268432617, 0.18365629017353058, 0.254733681678772, 0.19091182947158813, 0.20807310938835144, 0.13403993844985962, 0.13962848484516144, 0.20909389853477478, 0.2624153792858124, 0.41401541233062744, 0.26274940371513367, 0.22242693603038788, 0.3158515989780426, 0.2361532747745514, 0.3665056824684143, 0.27237004041671753, 0.3652876913547516, 0.2723284065723419, 0.3931552469730377, 0.31725847721099854, 0.21636249125003815, 0.1311611831188202, 0.19221962988376617, 0.23576557636260986, 0.11726277321577072, 0.08728668838739395, 0.2491033375263214, 0.20464788377285004, 0.25439125299453735, 0.40039557218551636, 0.12389987707138062, 0.36232370138168335, 0.10757285356521606, 0.09521792083978653, 0.18893253803253174, 0.20899544656276703, 0.46889442205429077, 0.4364410638809204, 0.3010199964046478, 0.5100730657577515, 0.48712390661239624, 0.22092735767364502, 0.21055720746517181, 0.33709004521369934, 0.2483040988445282, 0.3337342441082001, 0.15046922862529755, 0.3580278158187866, 0.2725755274295807, 0.5164577960968018, 0.4764827489852905, 0.5862677097320557, 0.5087297558784485, 0.7022686004638672, 0.3498641550540924, 0.5134108662605286, 0.7499311566352844, 0.542456865310669, 0.5463981628417969, 0.6622946262359619, 0.5147932171821594, 0.7722429633140564, 0.8090539574623108, 0.7424032688140869, 0.9453422427177429, 0.7858216166496277, 0.45388317108154297, 0.549063503742218, 0.625034749507904, 0.8720150589942932, 0.7632579207420349, 0.7448959350585938, 0.7939653396606445, 0.5819339156150818, 0.6770556569099426, 0.3658425509929657, 0.7651136517524719, 0.8004989624023438, 0.7769016623497009, 0.7613367438316345, 0.5616313815116882, 0.6397969126701355, 0.43816235661506653, 0.5045109987258911, 0.4067075252532959, 0.4740179777145386, 0.6168540716171265, 0.8066617846488953, 0.7829041481018066, 0.7509925961494446, 0.8568891286849976, 0.6524041295051575, 0.4999270439147949, 0.7868323922157288, 0.5765586495399475, 0.7275112271308899, 0.8222485780715942, 0.7623853087425232, 0.6323877573013306, 0.5626763105392456, 0.4052257835865021, 0.5485783219337463, 0.6491209268569946, 0.2986484169960022, 0.24262697994709015, 0.2720894515514374, 0.26622098684310913, 0.28839802742004395, 0.2370908260345459, 0.1585570126771927, 0.23948846757411957, 0.3387945890426636, 0.25343242287635803, 0.2790551483631134, 0.39300137758255005, 0.2916073799133301, 0.27853354811668396, 0.2463858276605606, 0.2550733685493469, 0.23232436180114746, 0.39163437485694885, 0.5305566191673279, 0.509965717792511, 0.4729812741279602, 0.4908949136734009, 0.49286291003227234]</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.9259233474731445</v>
+        <v>0.9453422427177429</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.9665699999895878</v>
+        <v>0.8968816999986302</v>
       </c>
       <c r="J12" t="n">
-        <v>0.006156496815220304</v>
+        <v>0.005712622292984906</v>
       </c>
     </row>
     <row r="13">
@@ -1045,11 +1045,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[0.1547170877456665, 0.13608978688716888, 0.10232995450496674, 0.11771968007087708, 0.1379922330379486, 0.18710143864154816, 0.16296133399009705, 0.17053860425949097, 0.11858809739351273, 0.10241831839084625, 0.07329533249139786, 0.05773914232850075, 0.09561750292778015, 0.10387646406888962, 0.08077159523963928, 0.12326586246490479, 0.17273224890232086, 0.17695371806621552, 0.14310011267662048, 0.11570950597524643, 0.09265846014022827, 0.09484178572893143, 0.10868888348340988, 0.07140578329563141, 0.06466693431138992, 0.08502300828695297, 0.06602058559656143, 0.052137210965156555, 0.08533266186714172, 0.06052318215370178, 0.11608550697565079, 0.0969114750623703, 0.050995681434869766, 0.04880600795149803, 0.05081038177013397, 0.05717192217707634, 0.08644045889377594, 0.1800283044576645, 0.12034334987401962, 0.07294522225856781, 0.0871024951338768, 0.09624902904033661, 0.13391372561454773, 0.09043363481760025, 0.051367808133363724, 0.10566338896751404, 0.17607280611991882, 0.13212035596370697, 0.10442408174276352, 0.14145265519618988, 0.10854990035295486, 0.09396781027317047, 0.11059949547052383, 0.16464783251285553, 0.31028109788894653, 0.21986761689186096, 0.0943843200802803, 0.2214723825454712, 0.22130024433135986, 0.19410066306591034, 0.10596473515033722, 0.20929217338562012, 0.12454412132501602, 0.14181621372699738, 0.16059744358062744, 0.1323762983083725, 0.09700893610715866, 0.07701320201158524, 0.22532163560390472, 0.22555066645145416, 0.2146889865398407, 0.12999463081359863, 0.21830101311206818, 0.1135120540857315, 0.23069216310977936, 0.3092235028743744, 0.4239022731781006, 0.40301552414894104, 0.15069325268268585, 0.11714040488004684, 0.12711821496486664, 0.0820106565952301, 0.17218747735023499, 0.31588709354400635, 0.2124524861574173, 0.2893837094306946, 0.5233518481254578, 0.558099091053009, 0.26447293162345886, 0.09481000155210495, 0.14427903294563293, 0.13271498680114746, 0.27811646461486816, 0.2017843872308731, 0.20878928899765015, 0.25556427240371704, 0.40803754329681396, 0.22689668834209442, 0.20707641541957855, 0.1608099788427353, 0.22788408398628235, 0.2382645308971405, 0.18404100835323334, 0.2567020654678345, 0.2764209806919098, 0.24394597113132477, 0.18855354189872742, 0.3506365120410919, 0.213608518242836, 0.3036707937717438, 0.36807888746261597, 0.4157819151878357, 0.39112716913223267, 0.33020806312561035, 0.19917301833629608, 0.2989427447319031, 0.29779648780822754, 0.4261907637119293, 0.2264903038740158, 0.22309744358062744, 0.1900225430727005, 0.1285068243741989, 0.12840288877487183, 0.11527629941701889, 0.2777503430843353, 0.37303051352500916, 0.2030642330646515, 0.1363944709300995, 0.10025645792484283, 0.09312982857227325, 0.1586417406797409, 0.3218423128128052, 0.27988696098327637, 0.11345447599887848, 0.09204041957855225, 0.12526147067546844, 0.12685756385326385, 0.08335144072771072, 0.1613118052482605, 0.296726793050766, 0.12725098431110382, 0.0991990938782692, 0.16198109090328217, 0.2946186363697052, 0.08952358365058899, 0.05273793637752533, 0.07427821308374405, 0.09332630038261414, 0.0644281804561615, 0.07160494476556778, 0.09838645160198212, 0.16345852613449097, 0.18972893059253693, 0.15316441655158997, 0.1349274069070816, 0.11609397083520889, 0.12266208976507187, 0.12286853790283203]</t>
+          <t>[0.1639811098575592, 0.11202294379472733, 0.04809331148862839, 0.075251504778862, 0.09582497924566269, 0.15419094264507294, 0.11098627001047134, 0.09979487210512161, 0.06876911967992783, 0.05965925008058548, 0.03381799906492233, 0.023446600884199142, 0.0593004934489727, 0.06803710758686066, 0.030747272074222565, 0.07589766383171082, 0.09304086118936539, 0.10240764170885086, 0.08438900113105774, 0.05345269292593002, 0.0643593817949295, 0.05133454501628876, 0.06046445295214653, 0.03552816063165665, 0.02544938027858734, 0.0483216755092144, 0.028537357226014137, 0.02608628384768963, 0.048543136566877365, 0.0224339310079813, 0.04069109261035919, 0.046214811503887177, 0.02401902712881565, 0.020965542644262314, 0.01854323036968708, 0.02732948772609234, 0.034915078431367874, 0.10741102695465088, 0.08058423548936844, 0.040430229157209396, 0.0366039052605629, 0.046188510954380035, 0.0849696472287178, 0.05804908275604248, 0.030069401487708092, 0.07303667813539505, 0.11279003322124481, 0.09221751242876053, 0.06735169142484665, 0.10386839509010315, 0.07380392402410507, 0.05933694541454315, 0.05285760760307312, 0.10728269815444946, 0.2731304168701172, 0.146193727850914, 0.04811171814799309, 0.17425377666950226, 0.1645667552947998, 0.1284715086221695, 0.053898364305496216, 0.11747345328330994, 0.06140134111046791, 0.07695795595645905, 0.11695051938295364, 0.12392058223485947, 0.07111653685569763, 0.0579824224114418, 0.32674410939216614, 0.3262101709842682, 0.2278924286365509, 0.10342973470687866, 0.27265453338623047, 0.11538145691156387, 0.3251769542694092, 0.6218786835670471, 0.6169338822364807, 0.5641759634017944, 0.1628350466489792, 0.07408617436885834, 0.12032589316368103, 0.0862240195274353, 0.2958073914051056, 0.5294692516326904, 0.42326077818870544, 0.5880240201950073, 0.7174038290977478, 0.7354605793952942, 0.33355119824409485, 0.08912540972232819, 0.10137549042701721, 0.0927921012043953, 0.38463637232780457, 0.3674187660217285, 0.3021649122238159, 0.30623942613601685, 0.4822649359703064, 0.3584761321544647, 0.21842405200004578, 0.1790139377117157, 0.25103503465652466, 0.26806801557540894, 0.20447708666324615, 0.3303011953830719, 0.33386898040771484, 0.23612719774246216, 0.14235007762908936, 0.44596439599990845, 0.18570686876773834, 0.3194223940372467, 0.3311622738838196, 0.3422638177871704, 0.5021340847015381, 0.47455334663391113, 0.16748033463954926, 0.23676349222660065, 0.21308191120624542, 0.5573259592056274, 0.23217028379440308, 0.2655726671218872, 0.17723898589611053, 0.09156369417905807, 0.07614914327859879, 0.06581292301416397, 0.4046551287174225, 0.599605917930603, 0.28721097111701965, 0.12354336678981781, 0.06902685761451721, 0.04324134439229965, 0.11562741547822952, 0.2904629111289978, 0.20228397846221924, 0.09396634995937347, 0.051552340388298035, 0.0764235332608223, 0.09006543457508087, 0.04273775592446327, 0.09133370965719223, 0.21590164303779602, 0.06948904693126678, 0.0734369307756424, 0.16872663795948029, 0.38763853907585144, 0.07036740332841873, 0.033900316804647446, 0.029218673706054688, 0.04733990132808685, 0.030737947672605515, 0.03681590408086777, 0.04883517324924469, 0.083212710916996, 0.11205800622701645, 0.09420931339263916, 0.08792676776647568, 0.06464509665966034, 0.07073397189378738, 0.07087178528308868]</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.558099091053009</v>
+        <v>0.7354605793952942</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.8989151999994647</v>
+        <v>0.8952420999994501</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005689336708857371</v>
+        <v>0.005666089240502849</v>
       </c>
     </row>
     <row r="14">
@@ -1085,11 +1085,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[0.29212307929992676, 0.2190251648426056, 0.17042750120162964, 0.16251735389232635, 0.17079342901706696, 0.2097693681716919, 0.2694534957408905, 0.24766325950622559, 0.28744760155677795, 0.14485286176204681, 0.174831822514534, 0.1538928896188736, 0.19039106369018555, 0.32264670729637146, 0.2918790578842163, 0.2668880224227905, 0.26618924736976624, 0.22564420104026794, 0.2653958797454834, 0.16116809844970703, 0.22981992363929749, 0.20907430350780487, 0.6136101484298706, 0.5463904142379761, 0.5647432804107666, 0.5936517119407654, 0.6793955564498901, 0.6579590439796448, 0.4816734492778778, 0.4419698417186737, 0.37279605865478516, 0.6391615271568298, 0.46907761693000793, 0.35196852684020996, 0.5714926719665527, 0.4853905439376831, 0.5907418131828308, 0.4806407690048218, 0.408047080039978, 0.4430820643901825, 0.35617730021476746, 0.4440546929836273, 0.41727256774902344, 0.43942004442214966, 0.38600417971611023, 0.4295264184474945, 0.4681546986103058, 0.3515155017375946, 0.36032429337501526, 0.4941250681877136, 0.6532205939292908, 0.635172426700592, 0.6433574557304382, 0.5112649202346802, 0.321713387966156, 0.31814345717430115, 0.5237832069396973, 0.279227614402771, 0.20886816084384918, 0.43885499238967896, 0.37424173951148987, 0.3870019018650055, 0.525090754032135, 0.5279899835586548, 0.4540141224861145, 0.5181130766868591, 0.4240187704563141, 0.3951607644557953, 0.38475480675697327, 0.5053088068962097, 0.4453907907009125, 0.3373679220676422, 0.39331021904945374, 0.3414977490901947, 0.4174540340900421, 0.3613036572933197, 0.25769278407096863, 0.3357774615287781, 0.3421689569950104, 0.3992782235145569, 0.29460784792900085, 0.3009633719921112, 0.4067040979862213, 0.22173810005187988, 0.10717802494764328, 0.13781790435314178, 0.2964459955692291, 0.23617962002754211, 0.1768244206905365, 0.3463593125343323, 0.2091931849718094, 0.2491069734096527, 0.4113357961177826, 0.4226268231868744, 0.3765386641025543, 0.2274874746799469, 0.2742706537246704, 0.22839641571044922, 0.2997961938381195, 0.3860298991203308, 0.3394990861415863, 0.5164216160774231, 0.44783833622932434, 0.40984830260276794, 0.41471347212791443, 0.3059796988964081, 0.18461497128009796, 0.1282554715871811, 0.3233244717121124, 0.19610750675201416, 0.3540026545524597, 0.5426337122917175, 0.7076668739318848, 0.5856718420982361, 0.42943981289863586, 0.48403170704841614, 0.31114819645881653, 0.30391108989715576, 0.36637622117996216, 0.5187304615974426, 0.48439911007881165, 0.6307570338249207, 0.6892777681350708, 0.5560901165008545, 0.6830981969833374, 0.486904501914978, 0.5713844895362854, 0.4575517177581787, 0.38171109557151794, 0.5467317700386047, 0.5915321707725525, 0.3758094310760498, 0.3964022397994995, 0.5436462163925171, 0.44009602069854736, 0.3863873779773712, 0.3156900107860565, 0.3291674256324768, 0.3564872443675995, 0.49214377999305725, 0.5292927026748657, 0.6742920279502869, 0.5112024545669556, 0.44505617022514343, 0.4556982219219208, 0.40747693181037903, 0.2873084247112274, 0.3604828715324402, 0.33036360144615173, 0.33140668272972107, 0.40981683135032654, 0.3906647264957428, 0.3296146094799042, 0.5567965507507324, 0.4263854920864105, 0.41317784786224365, 0.41250598430633545]</t>
+          <t>[0.22638529539108276, 0.20196197926998138, 0.15357810258865356, 0.13709357380867004, 0.13804028928279877, 0.2082013338804245, 0.21844395995140076, 0.16763728857040405, 0.23766525089740753, 0.09805592149496078, 0.12775003910064697, 0.12366809695959091, 0.15665142238140106, 0.3549126982688904, 0.30660930275917053, 0.31082847714424133, 0.29422253370285034, 0.23958346247673035, 0.27212679386138916, 0.1400044858455658, 0.16229209303855896, 0.20944464206695557, 0.678570568561554, 0.4961632490158081, 0.5198400616645813, 0.6286199688911438, 0.6808681488037109, 0.7029775381088257, 0.5474863648414612, 0.48294124007225037, 0.3013066053390503, 0.610284149646759, 0.33422136306762695, 0.20882336795330048, 0.5640696287155151, 0.4576984941959381, 0.5951255559921265, 0.3502269387245178, 0.22056931257247925, 0.2986842691898346, 0.28030526638031006, 0.3653407394886017, 0.3439479172229767, 0.38178446888923645, 0.2995288670063019, 0.3448736369609833, 0.46205779910087585, 0.2772563099861145, 0.25581273436546326, 0.4308074116706848, 0.6690539717674255, 0.6445915699005127, 0.6613067388534546, 0.47791236639022827, 0.22943249344825745, 0.203861802816391, 0.3821929693222046, 0.17344841361045837, 0.11299628764390945, 0.3420941233634949, 0.26377150416374207, 0.2791348397731781, 0.4659646451473236, 0.5178796052932739, 0.3748277425765991, 0.4469784200191498, 0.3533463180065155, 0.3601263761520386, 0.28818365931510925, 0.3872516453266144, 0.31480872631073, 0.26888251304626465, 0.3896835744380951, 0.32176804542541504, 0.40594133734703064, 0.3278505206108093, 0.1899634301662445, 0.30836501717567444, 0.43677422404289246, 0.4825792908668518, 0.23751263320446014, 0.23555812239646912, 0.30106785893440247, 0.14639952778816223, 0.05736113712191582, 0.0983811765909195, 0.23430389165878296, 0.17650774121284485, 0.10318499058485031, 0.25282472372055054, 0.17479199171066284, 0.24622438848018646, 0.4765138626098633, 0.4033588469028473, 0.2790103256702423, 0.14324377477169037, 0.2160300612449646, 0.21609535813331604, 0.3150462210178375, 0.38054564595222473, 0.38072922825813293, 0.6227755546569824, 0.5299420356750488, 0.5209414958953857, 0.5270121693611145, 0.4323108196258545, 0.1885916143655777, 0.08729603886604309, 0.2940135598182678, 0.12754006683826447, 0.30480727553367615, 0.5649357438087463, 0.764606237411499, 0.6227487921714783, 0.3994358777999878, 0.41230228543281555, 0.22368624806404114, 0.2382560670375824, 0.35301515460014343, 0.43866628408432007, 0.4171910583972931, 0.6217794418334961, 0.7405681014060974, 0.4423670470714569, 0.5954065322875977, 0.4310368597507477, 0.4903213679790497, 0.39198899269104004, 0.29561877250671387, 0.4077434837818146, 0.4205838441848755, 0.2665448784828186, 0.3702225387096405, 0.4525989890098572, 0.35938066244125366, 0.2382349967956543, 0.2244711071252823, 0.2107425034046173, 0.22288762032985687, 0.3870869576931, 0.5978744029998779, 0.6871302127838135, 0.42074131965637207, 0.3485349714756012, 0.28108298778533936, 0.3203379511833191, 0.224204882979393, 0.24968399107456207, 0.26752689480781555, 0.3123073875904083, 0.44172316789627075, 0.46473345160484314, 0.28721877932548523, 0.6573348641395569, 0.5407074093818665, 0.46657678484916687, 0.4671988785266876]</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7076668739318848</v>
+        <v>0.764606237411499</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.9439108000078704</v>
+        <v>0.9008422000042628</v>
       </c>
       <c r="J14" t="n">
-        <v>0.006012170700687072</v>
+        <v>0.005737848407670464</v>
       </c>
     </row>
     <row r="15">
@@ -1125,11 +1125,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0.6835394501686096, 0.43164491653442383, 0.256944864988327, 0.4262775778770447, 0.4220295548439026, 0.3664294481277466, 0.5313710570335388, 0.7567555904388428, 0.6973470449447632, 0.5823516845703125, 0.7011511921882629, 0.6548664569854736, 0.6375892758369446, 0.6140440702438354, 0.7783268690109253, 0.7089959979057312, 0.6164786219596863, 0.7723299264907837, 0.6892683506011963, 0.8241083025932312, 0.8447615504264832, 0.888325035572052, 0.7555351853370667, 0.5609071850776672, 0.5772876143455505, 0.7744320631027222, 0.866309642791748, 0.9025237560272217, 0.8044112324714661, 0.9050031304359436, 0.8261956572532654, 0.6416661143302917, 0.6288520097732544, 0.7972919344902039, 0.763972818851471, 0.7066017389297485, 0.5410524010658264, 0.584304690361023, 0.7092816829681396, 0.5993441939353943, 0.8751853704452515, 0.8405938744544983, 0.8689959049224854, 0.9330641627311707, 0.7598822116851807, 0.7025585174560547, 0.7957574725151062, 0.8574942946434021, 0.7974907755851746, 0.8621320128440857, 0.9393218159675598, 0.8776783347129822, 0.9110395312309265, 0.9440795183181763, 0.8940373063087463, 0.8986758589744568, 0.7856062650680542, 0.7804663181304932, 0.8679584264755249, 0.9309044480323792, 0.8956333994865417, 0.9384825229644775, 0.9135708808898926, 0.8693512082099915, 0.9104829430580139, 0.788653552532196, 0.8377588987350464, 0.921757698059082, 0.9372421503067017, 0.9253909587860107, 0.9500584006309509, 0.9147204756736755, 0.9311820864677429, 0.8918201327323914, 0.6717090606689453, 0.5038626194000244, 0.553800642490387, 0.5208375453948975, 0.5492655038833618, 0.5831649303436279, 0.484148770570755, 0.4574201703071594, 0.385500967502594, 0.4768705666065216, 0.8345741033554077, 0.6036574840545654, 0.511764407157898, 0.4853062033653259, 0.7822733521461487, 0.6406993865966797, 0.50975501537323, 0.5552525520324707, 0.7173495888710022, 0.7625706195831299, 0.6393586993217468, 0.7741602063179016, 0.8031642436981201, 0.8465970158576965, 0.849238932132721, 0.8229833245277405, 0.6784893274307251, 0.8374179005622864, 0.8388626575469971, 0.8099376559257507, 0.5765010714530945, 0.4791039228439331, 0.5804518461227417, 0.6014751195907593, 0.6517583727836609, 0.7407692074775696, 0.5994163155555725, 0.6460165977478027, 0.7471579313278198, 0.756588876247406, 0.6142805218696594, 0.629949152469635, 0.8074595928192139, 0.7973207235336304, 0.6428790092468262, 0.5827898979187012, 0.4171018600463867, 0.8311328291893005, 0.801442563533783, 0.7318245768547058, 0.7997567057609558, 0.6178553104400635, 0.4811426103115082, 0.8359056115150452, 0.9492611885070801, 0.8812035918235779, 0.8708338737487793, 0.8961104154586792, 0.8227882981300354, 0.8665311336517334, 0.8923006057739258, 0.7663310766220093, 0.8815909028053284, 0.8437724113464355, 0.642767071723938, 0.8141007423400879, 0.7636420726776123, 0.8293250799179077, 0.9289613366127014, 0.9066570997238159, 0.8508431315422058, 0.8619526624679565, 0.8726572394371033, 0.9199607968330383, 0.8581840991973877, 0.892688512802124, 0.9191586971282959, 0.8840770125389099, 0.8335447311401367, 0.8969835638999939, 0.9296967387199402, 0.9131045937538147, 0.8905761241912842, 0.8897669315338135]</t>
+          <t>[0.5668876767158508, 0.2789817452430725, 0.13014709949493408, 0.25573596358299255, 0.29613834619522095, 0.2682231664657593, 0.43702584505081177, 0.772364616394043, 0.6435829401016235, 0.490811288356781, 0.6651411652565002, 0.6428679823875427, 0.5520831942558289, 0.5018433928489685, 0.7070631384849548, 0.6067795157432556, 0.5500999689102173, 0.7727268934249878, 0.6172513961791992, 0.8137478828430176, 0.758648693561554, 0.8474964499473572, 0.7191483378410339, 0.5460068583488464, 0.4544873535633087, 0.6794537901878357, 0.8126394152641296, 0.8321248888969421, 0.7032118439674377, 0.8648219108581543, 0.7624816298484802, 0.5523093342781067, 0.5376484394073486, 0.6732720732688904, 0.658638596534729, 0.5231467485427856, 0.4068913459777832, 0.4485390782356262, 0.6820476651191711, 0.49096032977104187, 0.8870579600334167, 0.81736159324646, 0.9013007283210754, 0.9584712982177734, 0.7637329697608948, 0.7223243713378906, 0.8148380517959595, 0.9114080667495728, 0.7913187146186829, 0.857809841632843, 0.9271565079689026, 0.7825866937637329, 0.8548860549926758, 0.9383875727653503, 0.8788586258888245, 0.9080735445022583, 0.7925216555595398, 0.8507558703422546, 0.9430986642837524, 0.9711843729019165, 0.9496832489967346, 0.9741581082344055, 0.9380798935890198, 0.9115855693817139, 0.9424275755882263, 0.84400874376297, 0.8482765555381775, 0.9216969013214111, 0.9523656368255615, 0.9378482699394226, 0.9735172986984253, 0.9543609023094177, 0.961897075176239, 0.9391569495201111, 0.7545438408851624, 0.4822550415992737, 0.40713194012641907, 0.38739705085754395, 0.5224223732948303, 0.5568875670433044, 0.40514183044433594, 0.3216515779495239, 0.28031715750694275, 0.4213593006134033, 0.8132794499397278, 0.5406824350357056, 0.38484135270118713, 0.4118524491786957, 0.7081412672996521, 0.49610966444015503, 0.3325769603252411, 0.3878721594810486, 0.5743790864944458, 0.6306610107421875, 0.46809467673301697, 0.6892781853675842, 0.731629490852356, 0.7881085276603699, 0.8009929060935974, 0.7652106285095215, 0.5770508646965027, 0.8203239440917969, 0.8121889233589172, 0.7302830219268799, 0.3762757480144501, 0.3055923879146576, 0.4628022015094757, 0.48597007989883423, 0.5419110059738159, 0.6896688342094421, 0.5617080926895142, 0.6295852065086365, 0.6536673307418823, 0.7101470828056335, 0.5719442367553711, 0.5897161364555359, 0.8386880159378052, 0.7898972630500793, 0.5438519716262817, 0.4786587059497833, 0.3022061288356781, 0.8163309097290039, 0.7279432415962219, 0.7324671149253845, 0.7742469310760498, 0.5493229627609253, 0.31468865275382996, 0.8356224894523621, 0.9540297389030457, 0.89104825258255, 0.8525418639183044, 0.9073250889778137, 0.8611186742782593, 0.9068641662597656, 0.9273555874824524, 0.7636346817016602, 0.9187213778495789, 0.8895004391670227, 0.6430423259735107, 0.7658164501190186, 0.7025667428970337, 0.7927286624908447, 0.932166576385498, 0.8894186615943909, 0.807963490486145, 0.7839390635490417, 0.7906236052513123, 0.8926416635513306, 0.815106213092804, 0.8264481425285339, 0.8727468252182007, 0.856763482093811, 0.7488356828689575, 0.8887217044830322, 0.9306044578552246, 0.9180978536605835, 0.9061418175697327, 0.9051345586776733]</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.9500584006309509</v>
+        <v>0.9741581082344055</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.9071285000245553</v>
+        <v>0.9000812999875052</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005741319620408578</v>
+        <v>0.005696717088528514</v>
       </c>
     </row>
     <row r="16">
@@ -1165,11 +1165,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[0.5024482011795044, 0.23846261203289032, 0.4977913200855255, 0.4890003204345703, 0.500135600566864, 0.24595262110233307, 0.3529846668243408, 0.5563642978668213, 0.44776493310928345, 0.42889344692230225, 0.24246986210346222, 0.3226427733898163, 0.3336390554904938, 0.24247731268405914, 0.2823970913887024, 0.3258828818798065, 0.24589619040489197, 0.24394646286964417, 0.23341596126556396, 0.2546021640300751, 0.2664097845554352, 0.3567887544631958, 0.33047881722450256, 0.38677170872688293, 0.22320376336574554, 0.3424959182739258, 0.383134126663208, 0.26836612820625305, 0.3150846064090729, 0.35853347182273865, 0.5285871028900146, 0.3032175600528717, 0.3535686731338501, 0.4024091362953186, 0.3336847424507141, 0.3781941533088684, 0.2532348036766052, 0.3359682559967041, 0.21067042648792267, 0.1737053096294403, 0.20295771956443787, 0.25642043352127075, 0.23310832679271698, 0.3529190421104431, 0.177224799990654, 0.3450295925140381, 0.5025374889373779, 0.5765770673751831, 0.30558106303215027, 0.47965821623802185, 0.5253995656967163, 0.53147292137146, 0.3755798935890198, 0.3640809953212738, 0.5742738246917725, 0.26950058341026306, 0.274596631526947, 0.1893039345741272, 0.24123133718967438, 0.34898093342781067, 0.25815874338150024, 0.24698348343372345, 0.17715026438236237, 0.4389253258705139, 0.2582680583000183, 0.1974770575761795, 0.2832259237766266, 0.24512751400470734, 0.20793858170509338, 0.19597719609737396, 0.19457672536373138, 0.1527806967496872, 0.10022471100091934, 0.24506875872612, 0.27475714683532715, 0.20312783122062683, 0.12228512018918991, 0.18737611174583435, 0.29442572593688965, 0.2992655038833618, 0.21593475341796875, 0.23455995321273804, 0.22737997770309448, 0.2502981424331665, 0.2647401988506317, 0.23988664150238037, 0.24703039228916168, 0.32696041464805603, 0.3978671431541443, 0.22958987951278687, 0.26728686690330505, 0.3490867614746094, 0.40192514657974243, 0.3678275942802429, 0.33243444561958313, 0.1727660745382309, 0.21386311948299408, 0.236248180270195, 0.24444729089736938, 0.2659284472465515, 0.18574878573417664, 0.22947141528129578, 0.24743051826953888, 0.4260125458240509, 0.3178991675376892, 0.46311330795288086, 0.48226431012153625, 0.42695507407188416, 0.3110451400279999, 0.28512418270111084, 0.14733299612998962, 0.10878848284482956, 0.1346927285194397, 0.20797309279441833, 0.19599726796150208, 0.14710262417793274, 0.22995412349700928, 0.20843061804771423, 0.26418614387512207, 0.181463822722435, 0.22101786732673645, 0.33905255794525146, 0.3555774688720703, 0.2903064787387848, 0.19693568348884583, 0.2435523122549057, 0.48240846395492554, 0.30991172790527344, 0.37224283814430237, 0.38132140040397644, 0.2246849536895752, 0.26014530658721924, 0.29281535744667053, 0.18181896209716797, 0.2083311527967453, 0.3037371337413788, 0.1742512583732605, 0.17885015904903412, 0.2464641034603119, 0.3164497911930084, 0.3620588481426239, 0.28205347061157227, 0.24798724055290222, 0.1718258410692215, 0.17021353542804718, 0.23141910135746002, 0.3220308721065521, 0.2917591333389282, 0.4254736602306366, 0.519511878490448, 0.2106045037508011, 0.28895634412765503, 0.2304665744304657, 0.2281385213136673, 0.18814565241336823, 0.17262248694896698, 0.16882437467575073, 0.16976113617420197]</t>
+          <t>[0.30267664790153503, 0.12437687814235687, 0.29493191838264465, 0.34316936135292053, 0.32991087436676025, 0.130121648311615, 0.2237934023141861, 0.45081982016563416, 0.29130858182907104, 0.3128242790699005, 0.11414164304733276, 0.17006610333919525, 0.1793409138917923, 0.10090167075395584, 0.14588546752929688, 0.2011909782886505, 0.1413048356771469, 0.16002118587493896, 0.14034730195999146, 0.2045527547597885, 0.18682286143302917, 0.25564178824424744, 0.24159783124923706, 0.32441166043281555, 0.10325673967599869, 0.20617656409740448, 0.25009116530418396, 0.15775753557682037, 0.21423272788524628, 0.34207043051719666, 0.4910643398761749, 0.2744389772415161, 0.32355785369873047, 0.35564643144607544, 0.24846187233924866, 0.26660069823265076, 0.1581428498029709, 0.2786058187484741, 0.14810711145401, 0.09243521839380264, 0.12968014180660248, 0.2417808324098587, 0.2021406888961792, 0.4509811997413635, 0.23957481980323792, 0.3669527471065521, 0.4325388967990875, 0.5329307913780212, 0.20919236540794373, 0.4034857153892517, 0.5752297639846802, 0.5770939588546753, 0.39139318466186523, 0.31204766035079956, 0.6756311058998108, 0.28385278582572937, 0.28385475277900696, 0.16375663876533508, 0.2620808184146881, 0.2967284619808197, 0.1838613748550415, 0.16611522436141968, 0.11262190341949463, 0.39546963572502136, 0.17459839582443237, 0.11083688586950302, 0.21647410094738007, 0.21851329505443573, 0.15258432924747467, 0.14621739089488983, 0.1526401787996292, 0.11138774454593658, 0.05014348775148392, 0.1922954022884369, 0.1765483319759369, 0.12132721394300461, 0.0602928064763546, 0.13319040834903717, 0.3363834321498871, 0.21516548097133636, 0.14301657676696777, 0.204743891954422, 0.15234848856925964, 0.21855571866035461, 0.2895236015319824, 0.2845615744590759, 0.17558203637599945, 0.36297792196273804, 0.3999047875404358, 0.18758583068847656, 0.22720740735530853, 0.33684927225112915, 0.2613316476345062, 0.2875638008117676, 0.26984578371047974, 0.10505085438489914, 0.12430372089147568, 0.1698082983493805, 0.18390490114688873, 0.13756921887397766, 0.0927751362323761, 0.13858404755592346, 0.15753240883350372, 0.32810479402542114, 0.2506367564201355, 0.3889326751232147, 0.44489187002182007, 0.35781827569007874, 0.25469842553138733, 0.23086316883563995, 0.09475166350603104, 0.07234477996826172, 0.09338954091072083, 0.18640431761741638, 0.1479388177394867, 0.06953692436218262, 0.1441829651594162, 0.13848096132278442, 0.12593670189380646, 0.09205769002437592, 0.147386834025383, 0.27514001727104187, 0.34117308259010315, 0.2679837644100189, 0.12507092952728271, 0.149151012301445, 0.30617639422416687, 0.15288957953453064, 0.1978052705526352, 0.24622777104377747, 0.09518883377313614, 0.11951687932014465, 0.17535895109176636, 0.07769691944122314, 0.09398055821657181, 0.17903034389019012, 0.0827796533703804, 0.08866915106773376, 0.16930055618286133, 0.18569740653038025, 0.33763283491134644, 0.14962700009346008, 0.1237424686551094, 0.06337693333625793, 0.08424543589353561, 0.18032395839691162, 0.2234877198934555, 0.19288687407970428, 0.2561989426612854, 0.2935139834880829, 0.09329775720834732, 0.13778424263000488, 0.11251257359981537, 0.12273195385932922, 0.09428275376558304, 0.07120328396558762, 0.0722091943025589, 0.0726860985159874]</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.5765770673751831</v>
+        <v>0.6756311058998108</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.8892043000087142</v>
+        <v>0.8940742000122555</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00562787531651085</v>
+        <v>0.005658697468431996</v>
       </c>
     </row>
     <row r="17">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[0.15458686649799347, 0.16113950312137604, 0.1854400336742401, 0.17966239154338837, 0.10190605372190475, 0.09410466998815536, 0.10131251811981201, 0.08290799707174301, 0.08157256245613098, 0.04280265420675278, 0.06089816987514496, 0.06383863091468811, 0.05378297343850136, 0.03942026570439339, 0.031861260533332825, 0.09102465957403183, 0.11942791938781738, 0.11725808680057526, 0.20433309674263, 0.223074272274971, 0.09133507311344147, 0.08817524462938309, 0.04612777382135391, 0.09614873677492142, 0.10961861908435822, 0.1276175081729889, 0.17317958176136017, 0.18948324024677277, 0.1090269610285759, 0.11390472948551178, 0.11360909789800644, 0.08516605943441391, 0.13515092432498932, 0.20600196719169617, 0.10743460059165955, 0.114522784948349, 0.1319015622138977, 0.1661887913942337, 0.09576235711574554, 0.12444689869880676, 0.12210353463888168, 0.14649726450443268, 0.1863096058368683, 0.21468143165111542, 0.13962288200855255, 0.1308087259531021, 0.0940118208527565, 0.15071772038936615, 0.10716095566749573, 0.12649224698543549, 0.1071791723370552, 0.052889008074998856, 0.05281989276409149, 0.09205546975135803, 0.07990749180316925, 0.07424820959568024, 0.2532321512699127, 0.1998252272605896, 0.11870931833982468, 0.0990898609161377, 0.12007814645767212, 0.09884974360466003, 0.08997966349124908, 0.16525010764598846, 0.23103809356689453, 0.14653156697750092, 0.16468845307826996, 0.1278957575559616, 0.13516706228256226, 0.08094416558742523, 0.08445537835359573, 0.06922311335802078, 0.17981398105621338, 0.26807117462158203, 0.23484046757221222, 0.3443562388420105, 0.23489348590373993, 0.09608367830514908, 0.06708090007305145, 0.08269138634204865, 0.1468261182308197, 0.1286679357290268, 0.11811947077512741, 0.12561126053333282, 0.15319561958312988, 0.10768937319517136, 0.06988535821437836, 0.07965271919965744, 0.09510324150323868, 0.1813739836215973, 0.3014924228191376, 0.10527856647968292, 0.09048957377672195, 0.15841558575630188, 0.2022225558757782, 0.11608895659446716, 0.10908333957195282, 0.08469266444444656, 0.04578064754605293, 0.05007152259349823, 0.07981277257204056, 0.10834665596485138, 0.10677146166563034, 0.09827374666929245, 0.06326957792043686, 0.054490868002176285, 0.06494329124689102, 0.23852723836898804, 0.1650904417037964, 0.2181653529405594, 0.47854742407798767, 0.1766352504491806, 0.10462003946304321, 0.16043442487716675, 0.17186859250068665, 0.1479770541191101, 0.1187141090631485, 0.16413192451000214, 0.14845268428325653, 0.22978374361991882, 0.15698394179344177, 0.16730386018753052, 0.0871870294213295, 0.07508496940135956, 0.09208718687295914, 0.05698280781507492, 0.06429322063922882, 0.07889223843812943, 0.14026609063148499, 0.09180716425180435, 0.10012869536876678, 0.1373891681432724, 0.09310764074325562, 0.05894982069730759, 0.09660385549068451, 0.10424308478832245, 0.1373519003391266, 0.14915215969085693, 0.08446706086397171, 0.11343449354171753, 0.19253528118133545, 0.19669519364833832, 0.18736106157302856, 0.17400617897510529, 0.26808127760887146, 0.1566700041294098, 0.1753450185060501, 0.2924805283546448, 0.31622257828712463, 0.34034520387649536, 0.1892729252576828, 0.1517421305179596, 0.11214526742696762, 0.1300203949213028, 0.11642035096883774, 0.21869812905788422, 0.17982245981693268, 0.1784132421016693]</t>
+          <t>[0.04040687158703804, 0.0388667955994606, 0.04581984505057335, 0.05262840539216995, 0.030445918440818787, 0.02592604048550129, 0.026627501472830772, 0.026692703366279602, 0.02685406431555748, 0.013746852055191994, 0.01888139173388481, 0.01731260120868683, 0.016055475920438766, 0.009554168209433556, 0.0075720008462667465, 0.027961859479546547, 0.04638909175992012, 0.04798554629087448, 0.07675675302743912, 0.11009126156568527, 0.031418878585100174, 0.02728870138525963, 0.012612002901732922, 0.03150879591703415, 0.043883729726076126, 0.05282377079129219, 0.06713546067476273, 0.09025029838085175, 0.047681812196969986, 0.056603312492370605, 0.04932643473148346, 0.03809443861246109, 0.08100610971450806, 0.15529926121234894, 0.04868268966674805, 0.04357573390007019, 0.048038020730018616, 0.0761217474937439, 0.039819780737161636, 0.05190934240818024, 0.04338303580880165, 0.0605873242020607, 0.08255664259195328, 0.10839516669511795, 0.060707904398441315, 0.04639594629406929, 0.03568168729543686, 0.05998285114765167, 0.04142042621970177, 0.05199771374464035, 0.04355834424495697, 0.019275464117527008, 0.01959703303873539, 0.039300478994846344, 0.030193889513611794, 0.028568953275680542, 0.11028113961219788, 0.09946493804454803, 0.0559404157102108, 0.049876026809215546, 0.05575389042496681, 0.04179844260215759, 0.028806885704398155, 0.06325703859329224, 0.12145300954580307, 0.0750342532992363, 0.09950572997331619, 0.06341440230607986, 0.05611675605177879, 0.030423689633607864, 0.04283244162797928, 0.032262980937957764, 0.09450976550579071, 0.17922502756118774, 0.13014265894889832, 0.2017432451248169, 0.12430673092603683, 0.044182129204273224, 0.024605538696050644, 0.03192446008324623, 0.055651240050792694, 0.059744127094745636, 0.05920758470892906, 0.06240885332226753, 0.08157925307750702, 0.053108375519514084, 0.026486840099096298, 0.02721535414457321, 0.0501437671482563, 0.08961157500743866, 0.1582983285188675, 0.04232797026634216, 0.03328104317188263, 0.06539268046617508, 0.1013074517250061, 0.05978573113679886, 0.04812236130237579, 0.02803882770240307, 0.014368669129908085, 0.01770913042128086, 0.038123566657304764, 0.05114021152257919, 0.036719948053359985, 0.042825955897569656, 0.01980702579021454, 0.014592867344617844, 0.01917225308716297, 0.09524853527545929, 0.0691358894109726, 0.0889250710606575, 0.26618921756744385, 0.07070516794919968, 0.04403267428278923, 0.0729343593120575, 0.08061165362596512, 0.08008433878421783, 0.06798398494720459, 0.07031197845935822, 0.07220704108476639, 0.12992876768112183, 0.08329584449529648, 0.07733030617237091, 0.03861090540885925, 0.028753116726875305, 0.03368057683110237, 0.019865477457642555, 0.022495772689580917, 0.02565210685133934, 0.05294306203722954, 0.026433482766151428, 0.025668801739811897, 0.044593699276447296, 0.025848595425486565, 0.016077281907200813, 0.03399975225329399, 0.04858911409974098, 0.06160278245806694, 0.07967327535152435, 0.02903723157942295, 0.04404092952609062, 0.09818442165851593, 0.07991904765367508, 0.07690233737230301, 0.07939954102039337, 0.12091320753097534, 0.057241473346948624, 0.07048451155424118, 0.13521739840507507, 0.14791931211948395, 0.13668666779994965, 0.07087714225053787, 0.0502571277320385, 0.03551268205046654, 0.04934210702776909, 0.042125407606363297, 0.08315709233283997, 0.08614292740821838, 0.08523717522621155]</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.4785474240779877</v>
+        <v>0.2661892175674438</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.8794746000203304</v>
+        <v>0.8913981999940006</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005566294936837534</v>
+        <v>0.0056417607594557</v>
       </c>
     </row>
     <row r="18">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[0.06873417645692825, 0.1269538253545761, 0.10806422680616379, 0.25537797808647156, 0.13886123895645142, 0.09895385801792145, 0.07740090042352676, 0.06034126877784729, 0.04351339489221573, 0.061403196305036545, 0.06360126286745071, 0.09026619046926498, 0.0872538611292839, 0.08289919048547745, 0.09630025923252106, 0.0882720947265625, 0.13527262210845947, 0.10290081053972244, 0.08203992992639542, 0.10878267884254456, 0.09632714092731476, 0.08089432120323181, 0.08013945817947388, 0.0811544805765152, 0.14414489269256592, 0.14723974466323853, 0.148733988404274, 0.1471741795539856, 0.10542947053909302, 0.09611492604017258, 0.08433205634355545, 0.05275201052427292, 0.04693513363599777, 0.054790232330560684, 0.05238611251115799, 0.04176763817667961, 0.042487408965826035, 0.03841647133231163, 0.05037613585591316, 0.05419297143816948, 0.08882081508636475, 0.08063583076000214, 0.09321829676628113, 0.10365331172943115, 0.14235739409923553, 0.11939641088247299, 0.09838748723268509, 0.10851618647575378, 0.061076052486896515, 0.05479981750249863, 0.09062779694795609, 0.09697583317756653, 0.06684184074401855, 0.04240952059626579, 0.03892127424478531, 0.03855729103088379, 0.05398561432957649, 0.04479922354221344, 0.05618662387132645, 0.08018862456083298, 0.04830169305205345, 0.058621764183044434, 0.12819956243038177, 0.13010330498218536, 0.12623602151870728, 0.07245459407567978, 0.11234641820192337, 0.14262579381465912, 0.21756647527217865, 0.12438533455133438, 0.05586486682295799, 0.1066938042640686, 0.08804499357938766, 0.09330900758504868, 0.11112838983535767, 0.17647717893123627, 0.12565457820892334, 0.1226547509431839, 0.09565596282482147, 0.10117147117853165, 0.06956411898136139, 0.0575464628636837, 0.12929514050483704, 0.1270599663257599, 0.1755659580230713, 0.14136426150798798, 0.10611119866371155, 0.08751046657562256, 0.09609998017549515, 0.09059043973684311, 0.08004079014062881, 0.07344197481870651, 0.05642729625105858, 0.07589367777109146, 0.07563881576061249, 0.06649444252252579, 0.07467183470726013, 0.08337812125682831, 0.08477403968572617, 0.06249959394335747, 0.08183078467845917, 0.14659827947616577, 0.11222080141305923, 0.14763280749320984, 0.16673775017261505, 0.14097526669502258, 0.06628952920436859, 0.07586105912923813, 0.07217603176832199, 0.06971849501132965, 0.056826040148735046, 0.0925007238984108, 0.1654471606016159, 0.14308297634124756, 0.10084061324596405, 0.06192885711789131, 0.07963059842586517, 0.10241737961769104, 0.10258663445711136, 0.12092866748571396, 0.1361360102891922, 0.16010484099388123, 0.1724427193403244, 0.19584421813488007, 0.27734050154685974, 0.17682239413261414, 0.21744389832019806, 0.21267832815647125, 0.24339713156223297, 0.12656037509441376, 0.14118941128253937, 0.1270359456539154, 0.08277454227209091, 0.12373566627502441, 0.15391148626804352, 0.09197789430618286, 0.13471844792366028, 0.061017878353595734, 0.048569612205028534, 0.04475393146276474, 0.06128041446208954, 0.09898104518651962, 0.05442299321293831, 0.07977353781461716, 0.19872650504112244, 0.21886630356311798, 0.14327330887317657, 0.07780434191226959, 0.08519914746284485, 0.1438579261302948, 0.14371509850025177, 0.08385149389505386, 0.099141426384449, 0.07991804927587509, 0.07758540660142899, 0.08676549792289734, 0.08667457848787308]</t>
+          <t>[0.04660864919424057, 0.1147606372833252, 0.08962026238441467, 0.22490864992141724, 0.09676595032215118, 0.047246310859918594, 0.04175550118088722, 0.029274597764015198, 0.015800273045897484, 0.02398342452943325, 0.026942746713757515, 0.046040769666433334, 0.0351596474647522, 0.03315121680498123, 0.04892057180404663, 0.05536525696516037, 0.08104449510574341, 0.06008235737681389, 0.04906141385436058, 0.08106648921966553, 0.05596303194761276, 0.043793052434921265, 0.04769989475607872, 0.049670297652482986, 0.12365300953388214, 0.10973242670297623, 0.11304454505443573, 0.09163794666528702, 0.047719940543174744, 0.048364464193582535, 0.03971001133322716, 0.024395853281021118, 0.020688138902187347, 0.02873251773416996, 0.021087169647216797, 0.01695556566119194, 0.021234974265098572, 0.016798628494143486, 0.021931244060397148, 0.019856784492731094, 0.04574398696422577, 0.048510871827602386, 0.06299559772014618, 0.06827490031719208, 0.07923226803541183, 0.0747145265340805, 0.04396546632051468, 0.041435472667217255, 0.02154628559947014, 0.017431234940886497, 0.03488815575838089, 0.05529743432998657, 0.029798435047268867, 0.014380491338670254, 0.014884904026985168, 0.0147927301004529, 0.024542175233364105, 0.016973847523331642, 0.027337994426488876, 0.05407802388072014, 0.031734831631183624, 0.02747851423919201, 0.06969495117664337, 0.07519163191318512, 0.08226034045219421, 0.02546307072043419, 0.04257053881883621, 0.06370830535888672, 0.1906101256608963, 0.08633212745189667, 0.029161931946873665, 0.077481709420681, 0.05231194943189621, 0.06539247184991837, 0.10753323882818222, 0.18867570161819458, 0.11850305646657944, 0.108343705534935, 0.10503357648849487, 0.10203954577445984, 0.06445462256669998, 0.0397692546248436, 0.12150612473487854, 0.09807305783033371, 0.18887321650981903, 0.12375526875257492, 0.08203314989805222, 0.06496655941009521, 0.0692623108625412, 0.0630299523472786, 0.054602161049842834, 0.05051995813846588, 0.02694600261747837, 0.04758019372820854, 0.05173565819859505, 0.052183765918016434, 0.0515923947095871, 0.04688988998532295, 0.04471429064869881, 0.034403491765260696, 0.04870136082172394, 0.11400080472230911, 0.07544928044080734, 0.13161681592464447, 0.16660432517528534, 0.12909850478172302, 0.03853693604469299, 0.052850838750600815, 0.05207456648349762, 0.05631108209490776, 0.032522205263376236, 0.056545015424489975, 0.12184476107358932, 0.0713426023721695, 0.051665570586919785, 0.034659598022699356, 0.05253995209932327, 0.08367185294628143, 0.08766587823629379, 0.10932809859514236, 0.10204194486141205, 0.08341912925243378, 0.10586226731538773, 0.1797652393579483, 0.3603418469429016, 0.16168692708015442, 0.18095028400421143, 0.1917562335729599, 0.22923679649829865, 0.0902208611369133, 0.08515553176403046, 0.09632916748523712, 0.04812333360314369, 0.09055326879024506, 0.10996659845113754, 0.07311265915632248, 0.10223845392465591, 0.03544195741415024, 0.03270077332854271, 0.021000787615776062, 0.03518472984433174, 0.07259862869977951, 0.033632803708314896, 0.059938397258520126, 0.19601821899414062, 0.16114963591098785, 0.08039649575948715, 0.039250750094652176, 0.04469579830765724, 0.1989557296037674, 0.19826693832874298, 0.06273268163204193, 0.06261032074689865, 0.04666448384523392, 0.049308665096759796, 0.060868266969919205, 0.0604935921728611]</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2773405015468597</v>
+        <v>0.3603418469429016</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.8666712999984156</v>
+        <v>0.8766541000077268</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005520199363047234</v>
+        <v>0.005583784076482337</v>
       </c>
     </row>
     <row r="19">
@@ -1285,11 +1285,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[0.21915927529335022, 0.16598175466060638, 0.23699429631233215, 0.1874948889017105, 0.0814812034368515, 0.07013586908578873, 0.08961387723684311, 0.10361530631780624, 0.11312396079301834, 0.15412981808185577, 0.08579692989587784, 0.1469154953956604, 0.13439838588237762, 0.1724061816930771, 0.19355379045009613, 0.09826242923736572, 0.05801364406943321, 0.1050017774105072, 0.2298203855752945, 0.19230476021766663, 0.13301584124565125, 0.10469932109117508, 0.19438518583774567, 0.17334170639514923, 0.1672644019126892, 0.21049779653549194, 0.12125177681446075, 0.07867757230997086, 0.067442886531353, 0.09093861281871796, 0.0696159228682518, 0.052125442773103714, 0.08353667706251144, 0.20218990743160248, 0.20405921339988708, 0.18403935432434082, 0.12296683341264725, 0.08923307806253433, 0.08930688351392746, 0.09400400519371033, 0.10402824729681015, 0.18798109889030457, 0.15077686309814453, 0.17302218079566956, 0.1482565551996231, 0.19792616367340088, 0.19381558895111084, 0.24724934995174408, 0.1404658406972885, 0.15793773531913757, 0.12381604313850403, 0.08907659351825714, 0.1690376102924347, 0.15353690087795258, 0.1380654126405716, 0.18525901436805725, 0.22325821220874786, 0.13695207238197327, 0.4358949065208435, 0.2761377990245819, 0.4292045831680298, 0.4834187924861908, 0.3564938008785248, 0.3251383304595947, 0.1262911558151245, 0.23574045300483704, 0.1969497799873352, 0.12147796154022217, 0.1973898708820343, 0.20572689175605774, 0.15311315655708313, 0.16738204658031464, 0.13874517381191254, 0.1881440132856369, 0.12507876753807068, 0.21806228160858154, 0.360834002494812, 0.4785813093185425, 0.17121051251888275, 0.14280876517295837, 0.17145390808582306, 0.12075062841176987, 0.12030605971813202, 0.10317231714725494, 0.06940170377492905, 0.186282217502594, 0.09599941223859787, 0.15581583976745605, 0.10845992714166641, 0.055367663502693176, 0.12214577943086624, 0.22309096157550812, 0.3075633943080902, 0.1531190276145935, 0.38486379384994507, 0.11432437598705292, 0.12896640598773956, 0.163486048579216, 0.5915734171867371, 0.2015933245420456, 0.10617491602897644, 0.14174646139144897, 0.41229549050331116, 0.22964537143707275, 0.23063713312149048, 0.1743551641702652, 0.11484434455633163, 0.1344994455575943, 0.16425882279872894, 0.18240205943584442, 0.13753069937229156, 0.11544997990131378, 0.13492456078529358, 0.07896312326192856, 0.10330092161893845, 0.1552489697933197, 0.17510944604873657, 0.24966345727443695, 0.2774154841899872, 0.30440542101860046, 0.14072014391422272, 0.138188436627388, 0.09725446999073029, 0.09716413170099258, 0.09778472036123276, 0.12336777150630951, 0.16596880555152893, 0.13721615076065063, 0.08657929301261902, 0.16555127501487732, 0.1876126080751419, 0.07667413353919983, 0.0646502897143364, 0.07735816389322281, 0.12449156492948532, 0.10242859274148941, 0.11030521988868713, 0.15876805782318115, 0.17662371695041656, 0.22542120516300201, 0.19675542414188385, 0.3591518998146057, 0.2783108949661255, 0.19422879815101624, 0.22524656355381012, 0.19748573005199432, 0.1374669075012207, 0.21445371210575104, 0.14056700468063354, 0.10014113783836365, 0.14291030168533325, 0.17430968582630157, 0.20826134085655212, 0.2590947449207306, 0.19987738132476807, 0.17028355598449707, 0.19972729682922363, 0.19872206449508667]</t>
+          <t>[0.1255500763654709, 0.10947391390800476, 0.16085509955883026, 0.11553339660167694, 0.035979386419057846, 0.02873692847788334, 0.03896777704358101, 0.04338855668902397, 0.047057364135980606, 0.07491257786750793, 0.04270585998892784, 0.0619606152176857, 0.04349436238408089, 0.07680461555719376, 0.08478415757417679, 0.03627128526568413, 0.021133702248334885, 0.04704916849732399, 0.12576772272586823, 0.08902252465486526, 0.06445825845003128, 0.047551222145557404, 0.14437051117420197, 0.13072465360164642, 0.12364190071821213, 0.14832672476768494, 0.08094341307878494, 0.04428863525390625, 0.04027426987886429, 0.06211931258440018, 0.040392063558101654, 0.023695316165685654, 0.038107700645923615, 0.15794892609119415, 0.1779063493013382, 0.1373964548110962, 0.07833077758550644, 0.049984417855739594, 0.05195506662130356, 0.049746256321668625, 0.06636589020490646, 0.12996402382850647, 0.11035653948783875, 0.1386781483888626, 0.14532539248466492, 0.14136171340942383, 0.13215689361095428, 0.190956249833107, 0.08693472295999527, 0.08076531440019608, 0.0695618987083435, 0.0512247309088707, 0.1013747826218605, 0.08761581778526306, 0.0814080610871315, 0.083655446767807, 0.11375721544027328, 0.08301838487386703, 0.34258565306663513, 0.2014441192150116, 0.32457974553108215, 0.4056668281555176, 0.18113169074058533, 0.19762691855430603, 0.06399276107549667, 0.10895342379808426, 0.10277300328016281, 0.06958118826150894, 0.09084935486316681, 0.11398419737815857, 0.06765344738960266, 0.08220195025205612, 0.05812188237905502, 0.07931806892156601, 0.04593322426080704, 0.10430280864238739, 0.27584946155548096, 0.4325421452522278, 0.11180010437965393, 0.07293937355279922, 0.08467491716146469, 0.05800171196460724, 0.05540170148015022, 0.04613879695534706, 0.02342471294105053, 0.07549512386322021, 0.03444414213299751, 0.06169959902763367, 0.0408572256565094, 0.023239392787218094, 0.05152427777647972, 0.11058884859085083, 0.18789128959178925, 0.07556606084108353, 0.18999680876731873, 0.04423986375331879, 0.05350840091705322, 0.08095967769622803, 0.5176640152931213, 0.09894416481256485, 0.048906389623880386, 0.058148592710494995, 0.21312789618968964, 0.09480255097150803, 0.09557073563337326, 0.06488434225320816, 0.04285993054509163, 0.05686058849096298, 0.08326517045497894, 0.08569668978452682, 0.05394511669874191, 0.04626127704977989, 0.05554033815860748, 0.030875975266098976, 0.047495778650045395, 0.0923410952091217, 0.12677167356014252, 0.1889897882938385, 0.16707156598567963, 0.17792470753192902, 0.06601782143115997, 0.06535433232784271, 0.0438094399869442, 0.045134469866752625, 0.04737218841910362, 0.06196027994155884, 0.09116770327091217, 0.06607253104448318, 0.043057966977357864, 0.08712796866893768, 0.10825904458761215, 0.03724329546093941, 0.02968868426978588, 0.04179663583636284, 0.0839981660246849, 0.05961187556385994, 0.060078080743551254, 0.09141851961612701, 0.10237380117177963, 0.12001776695251465, 0.12278365343809128, 0.2407829910516739, 0.16241371631622314, 0.10034883767366409, 0.11551426351070404, 0.08544842898845673, 0.0639309361577034, 0.11907730251550674, 0.07558571547269821, 0.04759791120886803, 0.07433345168828964, 0.10804537683725357, 0.11413026601076126, 0.18178759515285492, 0.11743754148483276, 0.10100485384464264, 0.11686066538095474, 0.11586307734251022]</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5915734171867371</v>
+        <v>0.5176640152931213</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -1303,10 +1303,10 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.8835390999738593</v>
+        <v>0.8952393000072334</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005592019620087717</v>
+        <v>0.005666071519033123</v>
       </c>
     </row>
     <row r="20">
@@ -1325,11 +1325,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[0.11997758597135544, 0.08752270042896271, 0.1536904126405716, 0.2641180455684662, 0.1392640918493271, 0.13388505578041077, 0.26436400413513184, 0.24129799008369446, 0.21164880692958832, 0.2499106228351593, 0.12717367708683014, 0.08156737685203552, 0.10438667237758636, 0.13050711154937744, 0.1456674188375473, 0.21197034418582916, 0.2593487501144409, 0.35762909054756165, 0.4997761845588684, 0.36390793323516846, 0.38196861743927, 0.17633655667304993, 0.16095003485679626, 0.11368131637573242, 0.13506507873535156, 0.2012750804424286, 0.16834117472171783, 0.1403081864118576, 0.1537492722272873, 0.1950473040342331, 0.21039846539497375, 0.3199540376663208, 0.2542184591293335, 0.15449358522891998, 0.27880507707595825, 0.44441115856170654, 0.408758282661438, 0.2389148473739624, 0.20015577971935272, 0.1885000616312027, 0.19261762499809265, 0.1920871138572693, 0.18959906697273254, 0.17786087095737457, 0.1223105862736702, 0.14782486855983734, 0.1781149059534073, 0.195095494389534, 0.2461092174053192, 0.15679875016212463, 0.4238731563091278, 0.4884645938873291, 0.5713609457015991, 0.4269019067287445, 0.2469257116317749, 0.24789896607398987, 0.3044889569282532, 0.2984045147895813, 0.3739664852619171, 0.47343868017196655, 0.548655092716217, 0.5664140582084656, 0.43026357889175415, 0.2914940118789673, 0.3251458406448364, 0.32120847702026367, 0.28737953305244446, 0.31043264269828796, 0.31229427456855774, 0.46583423018455505, 0.3699917197227478, 0.18839143216609955, 0.4305911958217621, 0.5143665671348572, 0.396509051322937, 0.4227062463760376, 0.4915763735771179, 0.27412647008895874, 0.3504297435283661, 0.45278871059417725, 0.2580832839012146, 0.27679964900016785, 0.3492335081100464, 0.42504966259002686, 0.26478323340415955, 0.2625095248222351, 0.32592248916625977, 0.15620316565036774, 0.11403235048055649, 0.17334537208080292, 0.10687580704689026, 0.16213901340961456, 0.15592607855796814, 0.3285365104675293, 0.44262105226516724, 0.1767975389957428, 0.1806003749370575, 0.14589591324329376, 0.0894181877374649, 0.07929807901382446, 0.14860619604587555, 0.12257987260818481, 0.10093385726213455, 0.08994468301534653, 0.1320972591638565, 0.18821324408054352, 0.20665591955184937, 0.08155932277441025, 0.07603558152914047, 0.11040788143873215, 0.09505540877580643, 0.1053289920091629, 0.18398721516132355, 0.11359640210866928, 0.10405166447162628, 0.15920792520046234, 0.08132239431142807, 0.08649683743715286, 0.09910700470209122, 0.0708865374326706, 0.08956339210271835, 0.15493573248386383, 0.21300402283668518, 0.24279151856899261, 0.20342303812503815, 0.16929058730602264, 0.1303459107875824, 0.15683870017528534, 0.11465930938720703, 0.10749313980340958, 0.1016310602426529, 0.12055487930774689, 0.13526321947574615, 0.10494320094585419, 0.10780571401119232, 0.08153983950614929, 0.08507497608661652, 0.06884343177080154, 0.13084769248962402, 0.1479332000017166, 0.10121899098157883, 0.17337460815906525, 0.11571109294891357, 0.10926629602909088, 0.06822164356708527, 0.09481892734766006, 0.08116471767425537, 0.07730593532323837, 0.09372973442077637, 0.08848647028207779, 0.07156217098236084, 0.04925104230642319, 0.13599629700183868, 0.1484212577342987, 0.12850156426429749, 0.1896766573190689, 0.11418222635984421, 0.11417175084352493]</t>
+          <t>[0.05438077449798584, 0.042109984904527664, 0.08166687190532684, 0.1404973715543747, 0.06379810720682144, 0.07394897192716599, 0.17982320487499237, 0.17536872625350952, 0.10939665138721466, 0.09736688435077667, 0.04367567226290703, 0.023180732503533363, 0.04163501039147377, 0.058752067387104034, 0.07758934050798416, 0.13067995011806488, 0.17780709266662598, 0.2655238211154938, 0.44769635796546936, 0.252456396818161, 0.2303464710712433, 0.07945101708173752, 0.07665365934371948, 0.05330037698149681, 0.05886511877179146, 0.12164757400751114, 0.09293434023857117, 0.07101727277040482, 0.08066818863153458, 0.11536813527345657, 0.13778619468212128, 0.20460861921310425, 0.14062157273292542, 0.06754008680582047, 0.16215041279792786, 0.2905580699443817, 0.2559659481048584, 0.1658778190612793, 0.12451954185962677, 0.162624329328537, 0.17889562249183655, 0.1341935694217682, 0.10879166424274445, 0.10341169685125351, 0.07087047398090363, 0.07849659770727158, 0.09773857146501541, 0.13200533390045166, 0.13005398213863373, 0.060766950249671936, 0.2893959879875183, 0.43470680713653564, 0.5401537418365479, 0.32533562183380127, 0.17782503366470337, 0.18150517344474792, 0.18045468628406525, 0.23329542577266693, 0.3188145160675049, 0.49656447768211365, 0.5503499507904053, 0.5590132474899292, 0.4495992362499237, 0.2367003858089447, 0.23828572034835815, 0.1774822473526001, 0.18250389397144318, 0.21850641071796417, 0.20576411485671997, 0.34066444635391235, 0.17484216392040253, 0.10475572198629379, 0.27372533082962036, 0.3778752386569977, 0.27835825085639954, 0.3052792251110077, 0.3352911174297333, 0.19405585527420044, 0.2158743292093277, 0.3602455258369446, 0.16138441860675812, 0.19547200202941895, 0.24613378942012787, 0.24334995448589325, 0.15642467141151428, 0.14928099513053894, 0.2169044017791748, 0.08242465555667877, 0.05835205316543579, 0.06694355607032776, 0.04401923343539238, 0.07456213235855103, 0.06848067790269852, 0.2769326865673065, 0.40459001064300537, 0.10588936507701874, 0.11998976022005081, 0.08780074864625931, 0.048072271049022675, 0.03482404351234436, 0.08842955529689789, 0.060328561812639236, 0.053950972855091095, 0.04009746015071869, 0.0857568234205246, 0.1348779797554016, 0.17164531350135803, 0.0617402009665966, 0.055311162024736404, 0.08146487176418304, 0.06385716050863266, 0.06209087371826172, 0.15596064925193787, 0.06377610564231873, 0.051051195710897446, 0.07990139722824097, 0.03844773396849632, 0.04570074751973152, 0.052081119269132614, 0.029275471344590187, 0.04064439609646797, 0.09784837067127228, 0.15657910704612732, 0.17926813662052155, 0.11341433227062225, 0.09624277055263519, 0.05141954496502876, 0.06144631654024124, 0.04709435999393463, 0.03926635906100273, 0.04439029470086098, 0.0656556636095047, 0.07922012358903885, 0.054425641894340515, 0.050165385007858276, 0.03385389968752861, 0.037364840507507324, 0.030597928911447525, 0.07954154908657074, 0.07679931819438934, 0.04450591281056404, 0.08807883411645889, 0.05653807520866394, 0.05114932358264923, 0.030393972992897034, 0.04587150365114212, 0.03756508231163025, 0.028115687891840935, 0.036934297531843185, 0.028841648250818253, 0.02224184386432171, 0.01612747460603714, 0.05086652562022209, 0.06204796954989433, 0.05058726668357849, 0.0726974681019783, 0.040279801934957504, 0.040291618555784225]</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.5713609457015991</v>
+        <v>0.5590132474899292</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.9302781000151299</v>
+        <v>0.8938673999946332</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005887836076045126</v>
+        <v>0.00565738860756097</v>
       </c>
     </row>
     <row r="21">
@@ -1365,11 +1365,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[0.05034898221492767, 0.058920618146657944, 0.12410483509302139, 0.2487928569316864, 0.23583528399467468, 0.2736970782279968, 0.1793370544910431, 0.10184887051582336, 0.13709430396556854, 0.16885040700435638, 0.1255054622888565, 0.19922569394111633, 0.06727161258459091, 0.09593630582094193, 0.14932306110858917, 0.17047524452209473, 0.1960304081439972, 0.14176464080810547, 0.12677329778671265, 0.10392807424068451, 0.07320661842823029, 0.06069360673427582, 0.05790511891245842, 0.10395123809576035, 0.09673609584569931, 0.08462774008512497, 0.07819219678640366, 0.11372224986553192, 0.10956110805273056, 0.15798692405223846, 0.11430810391902924, 0.18595950305461884, 0.23731406033039093, 0.2592248320579529, 0.20120710134506226, 0.11268802732229233, 0.0907321497797966, 0.13870616257190704, 0.17746244370937347, 0.16272689402103424, 0.13135845959186554, 0.0994909480214119, 0.12266771495342255, 0.11786685138940811, 0.06761088967323303, 0.09760136157274246, 0.07576493173837662, 0.07864826917648315, 0.09656210243701935, 0.12498889118432999, 0.10003618896007538, 0.06838521361351013, 0.13814760744571686, 0.07030418515205383, 0.23537541925907135, 0.17274661362171173, 0.12149503082036972, 0.11587512493133545, 0.15816913545131683, 0.10931327193975449, 0.0997726246714592, 0.06837014108896255, 0.06023269519209862, 0.06340070813894272, 0.08142860233783722, 0.10124041885137558, 0.16298218071460724, 0.13361848890781403, 0.1162489652633667, 0.09493160992860794, 0.08525729924440384, 0.0653262510895729, 0.07390464097261429, 0.07071968913078308, 0.057074375450611115, 0.05749921128153801, 0.0608241930603981, 0.0764572024345398, 0.09647563099861145, 0.14133267104625702, 0.07325296103954315, 0.08328594267368317, 0.06480619311332703, 0.11944206804037094, 0.0941418707370758, 0.13978251814842224, 0.15137910842895508, 0.10956026613712311, 0.16434688866138458, 0.09439975023269653, 0.1791372299194336, 0.16470634937286377, 0.2701973021030426, 0.14871487021446228, 0.11659207940101624, 0.18748974800109863, 0.13046106696128845, 0.100985586643219, 0.09553080052137375, 0.1129603236913681, 0.12544243037700653, 0.0859152302145958, 0.08587231487035751]</t>
+          <t>[0.041539404541254044, 0.05897291749715805, 0.14993861317634583, 0.32935917377471924, 0.44184932112693787, 0.39468878507614136, 0.1880517601966858, 0.09678884595632553, 0.1267344355583191, 0.20369482040405273, 0.13872240483760834, 0.21946874260902405, 0.058767955750226974, 0.0832526683807373, 0.20665569603443146, 0.1691923886537552, 0.1859438568353653, 0.13202133774757385, 0.1191687062382698, 0.10778572410345078, 0.06238734722137451, 0.045335810631513596, 0.05336005240678787, 0.12812291085720062, 0.09389060735702515, 0.07204493880271912, 0.06271585077047348, 0.13476362824440002, 0.1318206489086151, 0.16645431518554688, 0.11290343850851059, 0.21765273809432983, 0.2751692235469818, 0.3617861568927765, 0.20356328785419464, 0.09337566047906876, 0.07146269083023071, 0.12929928302764893, 0.21648329496383667, 0.1477562040090561, 0.11081872135400772, 0.08208175748586655, 0.1578957438468933, 0.17991435527801514, 0.06997058540582657, 0.07005587220191956, 0.05882447957992554, 0.06202467903494835, 0.08914173394441605, 0.11712661385536194, 0.07702784985303879, 0.04452506825327873, 0.10548499971628189, 0.05306420847773552, 0.32918161153793335, 0.20719057321548462, 0.13487738370895386, 0.12170401215553284, 0.17335912585258484, 0.10345295816659927, 0.07014641910791397, 0.05318637192249298, 0.06066638603806496, 0.0644104853272438, 0.0739617571234703, 0.10080570727586746, 0.23255857825279236, 0.13641107082366943, 0.11371442675590515, 0.09337165951728821, 0.07143692672252655, 0.06481927633285522, 0.08680374920368195, 0.08729109913110733, 0.05238209664821625, 0.052118778228759766, 0.05360223352909088, 0.11468919366598129, 0.09772524237632751, 0.19944629073143005, 0.05178413912653923, 0.0733972117304802, 0.050221268087625504, 0.14761172235012054, 0.10612699389457703, 0.1470719277858734, 0.16940224170684814, 0.12892434000968933, 0.24126183986663818, 0.1069832593202591, 0.2336016297340393, 0.17243337631225586, 0.253091961145401, 0.19750110805034637, 0.12060217559337616, 0.24137187004089355, 0.12958693504333496, 0.10068304091691971, 0.0896172821521759, 0.13250522315502167, 0.1353495866060257, 0.10447955876588821, 0.10415644198656082]</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2736970782279968</v>
+        <v>0.4418493211269379</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0.5914384999778122</v>
+        <v>0.6263646000006702</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005742121359007885</v>
+        <v>0.006081209708744371</v>
       </c>
     </row>
     <row r="22">
@@ -1405,11 +1405,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[0.03611806780099869, 0.045853160321712494, 0.040347903966903687, 0.06315845251083374, 0.04425714537501335, 0.03822055086493492, 0.05274175480008125, 0.03674834221601486, 0.031545937061309814, 0.028311580419540405, 0.02793853171169758, 0.02017936296761036, 0.037136051803827286, 0.039398662745952606, 0.04392891749739647, 0.04026785120368004, 0.030534228309988976, 0.021656353026628494, 0.03422350808978081, 0.03612805902957916, 0.0344475619494915, 0.02585676498711109, 0.029282771050930023, 0.02712348848581314, 0.02870909310877323, 0.028873015195131302, 0.03264865279197693, 0.04176026210188866, 0.04238046333193779, 0.047058433294296265, 0.05001200735569, 0.03951338306069374, 0.03574414178729057, 0.0396101176738739, 0.045903004705905914, 0.06254110485315323, 0.10487576574087143, 0.07406035810709, 0.0787339061498642, 0.07919442653656006, 0.08804868161678314, 0.07786155492067337, 0.04526638984680176, 0.04246773198246956, 0.028152035549283028, 0.020851198583841324, 0.018937064334750175, 0.053143538534641266, 0.047218482941389084, 0.04046902060508728, 0.06237625330686569, 0.09049993008375168, 0.05869715288281441, 0.09440494328737259, 0.08233541995286942, 0.07988899201154709, 0.08966455608606339, 0.0683860033750534, 0.06286920607089996, 0.0631813108921051, 0.08108794689178467, 0.1257527619600296, 0.13214117288589478, 0.09426958858966827, 0.08497463166713715, 0.07213745266199112, 0.05101902410387993, 0.04675669223070145, 0.05658780783414841, 0.07005005329847336, 0.1274513155221939, 0.21298907697200775, 0.2566561996936798, 0.1474016159772873, 0.11619868874549866, 0.09684048593044281, 0.09164460748434067, 0.1478593647480011, 0.052788473665714264, 0.03920801356434822, 0.030708391219377518, 0.031590159982442856, 0.03880932927131653, 0.06330776959657669, 0.0715222954750061, 0.06439802795648575, 0.06360147893428802, 0.07190102338790894, 0.0786433145403862, 0.07433786243200302, 0.05528517812490463, 0.061119258403778076, 0.05426221713423729, 0.08287107944488525, 0.10041318833827972, 0.09500868618488312, 0.12433435022830963, 0.08736070245504379, 0.08154639601707458, 0.06738237291574478, 0.11922052502632141, 0.13077212870121002, 0.07953926920890808, 0.11673318594694138, 0.06565355509519577, 0.0688040629029274, 0.06929651647806168, 0.05275483801960945, 0.04517703130841255, 0.046561162918806076, 0.04226813465356827, 0.09406314045190811, 0.12467178702354431, 0.07246427983045578, 0.049498967826366425, 0.057451147586107254, 0.03858359530568123, 0.043546102941036224, 0.05042145401239395, 0.0464974008500576, 0.0473087802529335, 0.05850548669695854, 0.0584506131708622, 0.040491074323654175, 0.034122828394174576, 0.043389227241277695, 0.03669930621981621, 0.035171713680028915, 0.027597744017839432, 0.02964327298104763, 0.026148276403546333, 0.0274166502058506, 0.030600888654589653, 0.02905399724841118, 0.03749657794833183, 0.037292204797267914, 0.05185083672404289, 0.03738651052117348, 0.03581444174051285, 0.04711884632706642, 0.03526875749230385, 0.026773419231176376, 0.02233261801302433, 0.02237273007631302, 0.029523929581046104, 0.027707429602742195, 0.024245034903287888, 0.016144366934895515, 0.017569975927472115, 0.013560567051172256, 0.016501814126968384, 0.019040502607822418, 0.016126273199915886, 0.025882702320814133, 0.030431635677814484, 0.02538352645933628, 0.015467647463083267, 0.019707268103957176, 0.02235775999724865, 0.033083271235227585, 0.06106652319431305, 0.03231901675462723, 0.026685109362006187, 0.04118836298584938, 0.04484725743532181, 0.0323309451341629, 0.02884138934314251, 0.026040097698569298, 0.026175906881690025]</t>
+          <t>[0.019997743889689445, 0.021506616845726967, 0.025766268372535706, 0.03895852342247963, 0.02706928364932537, 0.019112996757030487, 0.025215277448296547, 0.017461739480495453, 0.013557596132159233, 0.013733741827309132, 0.014169455505907536, 0.011842753738164902, 0.02289942465722561, 0.02464704029262066, 0.03075476735830307, 0.023314911872148514, 0.019059348851442337, 0.010079845786094666, 0.022766059264540672, 0.021818671375513077, 0.021827084943652153, 0.014886393211781979, 0.019638536497950554, 0.018993649631738663, 0.017453735694289207, 0.014791897498071194, 0.01833716407418251, 0.02617049403488636, 0.0266403891146183, 0.02620193362236023, 0.031272947788238525, 0.016527589410543442, 0.0172108244150877, 0.019747445359826088, 0.027587393298745155, 0.04376513883471489, 0.0661855936050415, 0.047074735164642334, 0.056435417383909225, 0.05988142266869545, 0.077296681702137, 0.06713045388460159, 0.02949783205986023, 0.02474530227482319, 0.016146115958690643, 0.010395180433988571, 0.00834895670413971, 0.03148435801267624, 0.03578426316380501, 0.025310922414064407, 0.03677581995725632, 0.05589897930622101, 0.04155929386615753, 0.0718187466263771, 0.05688247084617615, 0.07144805788993835, 0.06626301258802414, 0.05039628967642784, 0.037882886826992035, 0.034458693116903305, 0.0506616085767746, 0.11147712916135788, 0.1402370184659958, 0.109242282807827, 0.09057557582855225, 0.055007703602313995, 0.03464715927839279, 0.03321924805641174, 0.04567910358309746, 0.05638733133673668, 0.08425605297088623, 0.13446831703186035, 0.19017769396305084, 0.07982387393712997, 0.04867734760046005, 0.04945746064186096, 0.05295123904943466, 0.07275062799453735, 0.028682902455329895, 0.021204644814133644, 0.017606014385819435, 0.016369393095374107, 0.019115252420306206, 0.03169149160385132, 0.03582543507218361, 0.03575778752565384, 0.03774978965520859, 0.040884945541620255, 0.04257878661155701, 0.05094572901725769, 0.033451471477746964, 0.039410609751939774, 0.030288301408290863, 0.047346390783786774, 0.06200157850980759, 0.0607101246714592, 0.09210873395204544, 0.05253574997186661, 0.03985247015953064, 0.04058822989463806, 0.08026568591594696, 0.09510981291532516, 0.06809258460998535, 0.08301209658384323, 0.039867181330919266, 0.04714881628751755, 0.05436314642429352, 0.04411671683192253, 0.03082461841404438, 0.02731914073228836, 0.025134705007076263, 0.06539308279752731, 0.09257771819829941, 0.05017326772212982, 0.02972390316426754, 0.0390244759619236, 0.01913272589445114, 0.020093508064746857, 0.02486060932278633, 0.02766934223473072, 0.028477897867560387, 0.03266572952270508, 0.026245245710015297, 0.01893758587539196, 0.014241660013794899, 0.025492118671536446, 0.018368948251008987, 0.018858972936868668, 0.012065665796399117, 0.013752237893640995, 0.011201336048543453, 0.012732983566820621, 0.01372450776398182, 0.012539624236524105, 0.020269136875867844, 0.022062161937355995, 0.03322668746113777, 0.020445803180336952, 0.016589894890785217, 0.020310761407017708, 0.016043804585933685, 0.008672188967466354, 0.008858568035066128, 0.006819096393883228, 0.011841733008623123, 0.009391662664711475, 0.00861552357673645, 0.005219541490077972, 0.006228726357221603, 0.0045702336356043816, 0.0059212688356637955, 0.008664751425385475, 0.0068172551691532135, 0.011667617596685886, 0.013538018800318241, 0.011842933483421803, 0.007551524322479963, 0.009579787962138653, 0.010015372186899185, 0.013907046988606453, 0.04224233701825142, 0.016241224482655525, 0.01118396781384945, 0.019674334675073624, 0.018791506066918373, 0.012503215111792088, 0.012214777059853077, 0.011127726174890995, 0.011171061545610428]</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2566561996936798</v>
+        <v>0.1901776939630508</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -1423,10 +1423,10 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.9616496999806259</v>
+        <v>0.9622979999985546</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005690234911127964</v>
+        <v>0.005694071005908607</v>
       </c>
     </row>
     <row r="23">
@@ -1445,11 +1445,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[0.2897241413593292, 0.11677562445402145, 0.15418969094753265, 0.19204576313495636, 0.1880377233028412, 0.18253031373023987, 0.3668960630893707, 0.29961177706718445, 0.27804410457611084, 0.3381575047969818, 0.43892785906791687, 0.4113578796386719, 0.37320178747177124, 0.521815299987793, 0.2213975042104721, 0.20512433350086212, 0.20724816620349884, 0.4352630078792572, 0.4121023714542389, 0.308759480714798, 0.18580903112888336, 0.20158420503139496, 0.1575843095779419, 0.2914101779460907, 0.1822483092546463, 0.2504068613052368, 0.2719608247280121, 0.19654147326946259, 0.5510010719299316, 0.5732689499855042, 0.3193072974681854, 0.16265106201171875, 0.2443312704563141, 0.20310159027576447, 0.19611653685569763, 0.16805654764175415, 0.11573323607444763, 0.15372240543365479, 0.11623868346214294, 0.13182930648326874, 0.1502392441034317, 0.17830438911914825, 0.17210637032985687, 0.1512865275144577, 0.27058327198028564, 0.13060027360916138, 0.135470449924469, 0.06853199750185013, 0.08758558332920074, 0.08574437350034714, 0.05981376767158508, 0.08377744257450104, 0.11932902038097382, 0.17637722194194794, 0.12163405120372772, 0.12096939980983734, 0.06410606950521469, 0.07329341769218445, 0.2308729737997055, 0.3859902322292328, 0.361618310213089, 0.2724553048610687, 0.1910596787929535, 0.14921075105667114, 0.14847087860107422, 0.15271823108196259, 0.16263523697853088, 0.1262085735797882, 0.21247373521327972, 0.30893975496292114, 0.2900345027446747, 0.5239645838737488, 0.33074817061424255, 0.25578731298446655, 0.291473925113678, 0.32945719361305237, 0.23787640035152435, 0.2097700536251068, 0.20411033928394318, 0.30939388275146484, 0.15995261073112488, 0.23761816322803497, 0.21886174380779266, 0.1936437040567398, 0.09869476407766342, 0.12892943620681763, 0.151901975274086, 0.11892686039209366, 0.27589818835258484, 0.21717648208141327, 0.22515815496444702, 0.20651748776435852, 0.17566169798374176, 0.1631222665309906, 0.0774703398346901, 0.06511982530355453, 0.08814924955368042, 0.10466035455465317, 0.10815957933664322, 0.14060814678668976, 0.28346699476242065, 0.19643934071063995, 0.12113939225673676, 0.18010637164115906, 0.2055271714925766, 0.22069817781448364, 0.16800738871097565, 0.19627049565315247, 0.21929103136062622, 0.2159501165151596, 0.15643741190433502, 0.09436672925949097, 0.09893534332513809, 0.08314982056617737, 0.16760201752185822, 0.12603868544101715, 0.2614676058292389, 0.4984718859195709, 0.1581423133611679, 0.4542299807071686, 0.45674434304237366, 0.6379263997077942, 0.4443826377391815, 0.564883828163147, 0.39262887835502625, 0.43856626749038696, 0.3690791428089142, 0.3625541925430298, 0.3773430287837982, 0.3264639675617218, 0.19612862169742584, 0.10848727822303772, 0.10379523038864136, 0.12510251998901367, 0.10037817806005478, 0.06395910680294037, 0.071454718708992, 0.10867605358362198, 0.11364797502756119, 0.14888827502727509, 0.2973308563232422, 0.16835252940654755, 0.23519285023212433, 0.20584549009799957, 0.15199890732765198, 0.231974259018898, 0.07268941402435303, 0.07334243506193161]</t>
+          <t>[0.2174939066171646, 0.07001054286956787, 0.1111384928226471, 0.10885435342788696, 0.11091409623622894, 0.10111156851053238, 0.2392592579126358, 0.182151660323143, 0.16848750412464142, 0.20203004777431488, 0.21040701866149902, 0.20340029895305634, 0.18998101353645325, 0.4097709059715271, 0.09656316041946411, 0.09176933765411377, 0.11724957823753357, 0.2554478943347931, 0.26566362380981445, 0.1795530468225479, 0.07726873457431793, 0.0787680596113205, 0.06421084702014923, 0.1276971697807312, 0.07448364049196243, 0.10030188411474228, 0.11569954454898834, 0.08140785992145538, 0.41811516880989075, 0.5356210470199585, 0.14824263751506805, 0.07694608718156815, 0.14042264223098755, 0.10257106274366379, 0.11243848502635956, 0.10240689665079117, 0.052037663757801056, 0.10393459349870682, 0.05941203981637955, 0.05472124367952347, 0.057550035417079926, 0.07683847099542618, 0.08411795645952225, 0.05458911135792732, 0.09550834447145462, 0.03904866427183151, 0.055949617177248, 0.026811569929122925, 0.03537444397807121, 0.03576844185590744, 0.029570337384939194, 0.055477436631917953, 0.06677044928073883, 0.08746597915887833, 0.05256209895014763, 0.05941185727715492, 0.027282284572720528, 0.030786557123064995, 0.12936075031757355, 0.20837172865867615, 0.1943056583404541, 0.13975827395915985, 0.0770331546664238, 0.05961507558822632, 0.07595933973789215, 0.08484601974487305, 0.10426980257034302, 0.06621884554624557, 0.10942848026752472, 0.18311382830142975, 0.15860164165496826, 0.3452635705471039, 0.14188730716705322, 0.12182643264532089, 0.15985071659088135, 0.19168435037136078, 0.1546831578016281, 0.13658316433429718, 0.09658452123403549, 0.19553318619728088, 0.10105051845312119, 0.15483100712299347, 0.098831906914711, 0.09380132704973221, 0.042939215898513794, 0.07179609686136246, 0.08135899901390076, 0.06945888698101044, 0.18648985028266907, 0.14849017560482025, 0.2063484936952591, 0.11565398424863815, 0.09177275002002716, 0.10951226949691772, 0.03049432300031185, 0.03187308833003044, 0.04671381041407585, 0.06369965523481369, 0.058990709483623505, 0.08283601701259613, 0.19850897789001465, 0.11845352500677109, 0.0828360989689827, 0.12502719461917877, 0.1565794050693512, 0.1494051069021225, 0.0949103906750679, 0.1275695264339447, 0.12235477566719055, 0.10412716865539551, 0.06549367308616638, 0.04131250083446503, 0.040459755808115005, 0.043412983417510986, 0.07734350860118866, 0.06926708668470383, 0.19943737983703613, 0.47050678730010986, 0.1317308098077774, 0.4642831087112427, 0.41640588641166687, 0.6168719530105591, 0.35539084672927856, 0.46702104806900024, 0.3688417077064514, 0.39183393120765686, 0.2853360176086426, 0.2800634503364563, 0.21370142698287964, 0.1832137405872345, 0.10895978659391403, 0.06322582811117172, 0.05517587810754776, 0.06375361233949661, 0.058341946452856064, 0.038209691643714905, 0.0502871610224247, 0.10481781512498856, 0.09800374507904053, 0.1128789409995079, 0.18483257293701172, 0.11622323840856552, 0.23164983093738556, 0.20423632860183716, 0.13484229147434235, 0.21049977838993073, 0.06149492412805557, 0.06234321743249893]</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.6379263997077942</v>
+        <v>0.6168719530105591</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.8427846000122372</v>
+        <v>0.8549137000081828</v>
       </c>
       <c r="J23" t="n">
-        <v>0.005694490540623224</v>
+        <v>0.005776443918974208</v>
       </c>
     </row>
     <row r="24">
@@ -1485,11 +1485,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0.04790604114532471, 0.051225170493125916, 0.055541351437568665, 0.049298692494630814, 0.02895074151456356, 0.02756241336464882, 0.04762064665555954, 0.03554556518793106, 0.038563523441553116, 0.025643661618232727, 0.046464771032333374, 0.04361680522561073, 0.039648450911045074, 0.051819875836372375, 0.05011729896068573, 0.0715230256319046, 0.060454271733760834, 0.036230336874723434, 0.03327975422143936, 0.036594245582818985, 0.03799135610461235, 0.06322494894266129, 0.058909956365823746, 0.05936488136649132, 0.10651202499866486, 0.10381341725587845, 0.06124351918697357, 0.03755011782050133, 0.03635521978139877, 0.07262028008699417, 0.11694592237472534, 0.055878859013319016, 0.12467779219150543, 0.07242966443300247, 0.09931476414203644, 0.0476900078356266, 0.0783323273062706, 0.09987396001815796, 0.03334561362862587, 0.04432530701160431, 0.04254348948597908, 0.050950806587934494, 0.02252640388906002, 0.02775484137237072, 0.03715420514345169, 0.024493254721164703, 0.02272595465183258, 0.024435363709926605, 0.03788003697991371, 0.031496595591306686, 0.0247003436088562, 0.06321690231561661, 0.0658089742064476, 0.04112554341554642, 0.02576744183897972, 0.028666706755757332, 0.027096077799797058, 0.032681602984666824, 0.027541493996977806, 0.02839409001171589, 0.02302824705839157, 0.0285422932356596, 0.0252493005245924, 0.024421105161309242, 0.019587945193052292, 0.021791009232401848, 0.021624205633997917, 0.023316023871302605, 0.02043571136891842, 0.03392786160111427, 0.03440086916089058, 0.02324865199625492, 0.01533026248216629, 0.019638365134596825, 0.019702838733792305, 0.02402021922171116, 0.035465408116579056, 0.03712708503007889, 0.030562719330191612, 0.038866981863975525, 0.045672234147787094, 0.07137127220630646, 0.06194973364472389, 0.04168611764907837, 0.03324552997946739, 0.056339964270591736, 0.07531332224607468, 0.0665239468216896, 0.053532689809799194, 0.04408232495188713, 0.04212566465139389, 0.034773144870996475, 0.0406683124601841, 0.03298862650990486, 0.027804028242826462, 0.02708570286631584, 0.03361544385552406, 0.027137968689203262, 0.06446202844381332, 0.06420218199491501, 0.03654351830482483, 0.020728938281536102, 0.024248449131846428, 0.025717876851558685, 0.026257624849677086, 0.02946130931377411, 0.024718713015317917, 0.03847704082727432, 0.038304403424263, 0.022690197452902794, 0.03035842627286911, 0.02869414910674095, 0.02927817404270172, 0.028391629457473755, 0.023929821327328682, 0.01663035713136196, 0.02246609888970852, 0.04434477537870407, 0.060517217963933945, 0.03951862081885338, 0.027484210208058357, 0.040848322212696075, 0.04132485389709473, 0.036841802299022675, 0.03332411125302315, 0.05038886517286301, 0.028190992772579193, 0.04989098757505417, 0.04459084942936897, 0.04860921949148178, 0.04358624294400215, 0.036297254264354706, 0.037053465843200684, 0.0442739874124527, 0.025932110846042633, 0.03550686314702034, 0.02962922304868698, 0.04383500665426254, 0.0481344535946846, 0.036732159554958344, 0.027660107240080833, 0.028647886589169502, 0.024788465350866318, 0.036719001829624176, 0.031214093789458275, 0.025450343266129494, 0.01992868073284626, 0.01992577686905861]</t>
+          <t>[0.0331457294523716, 0.036726392805576324, 0.038070354610681534, 0.04272982105612755, 0.02426561899483204, 0.018286284059286118, 0.03522200882434845, 0.02191045694053173, 0.022234469652175903, 0.013285890221595764, 0.025809597223997116, 0.01909138821065426, 0.018114913254976273, 0.027793988585472107, 0.025269070640206337, 0.05180055648088455, 0.03799796849489212, 0.017214341089129448, 0.016050970181822777, 0.017099369317293167, 0.017599305137991905, 0.03637811541557312, 0.03068782575428486, 0.04633358120918274, 0.08553944528102875, 0.18253657221794128, 0.08293718844652176, 0.040134452283382416, 0.015427709557116032, 0.042684443295001984, 0.06564685702323914, 0.022959832102060318, 0.09247836470603943, 0.024698469787836075, 0.043025314807891846, 0.01958361081779003, 0.040837425738573074, 0.07571490854024887, 0.020077304914593697, 0.02540462091565132, 0.021931862458586693, 0.026175927370786667, 0.00894972961395979, 0.014237556606531143, 0.024405190721154213, 0.010886316187679768, 0.012532646767795086, 0.010632292367517948, 0.027812251821160316, 0.01807497628033161, 0.010961262509226799, 0.039933547377586365, 0.06783200055360794, 0.038959696888923645, 0.01682058721780777, 0.018771346658468246, 0.018000945448875427, 0.024018850177526474, 0.014431925490498543, 0.014223990961909294, 0.00980158057063818, 0.011768455617129803, 0.009322317317128181, 0.008856714703142643, 0.008067714050412178, 0.010686042718589306, 0.009641716256737709, 0.009684324264526367, 0.00889452826231718, 0.013903634622693062, 0.01705801673233509, 0.011137657798826694, 0.006808724254369736, 0.011482098139822483, 0.012858014553785324, 0.015173307619988918, 0.03119378164410591, 0.02501564472913742, 0.01694929040968418, 0.021133141592144966, 0.023282011970877647, 0.03855183720588684, 0.03654951974749565, 0.027795571833848953, 0.022496363148093224, 0.03892807289958, 0.07795040309429169, 0.05368650704622269, 0.0341682955622673, 0.032163720577955246, 0.03016204759478569, 0.026628786697983742, 0.03624548390507698, 0.02125050313770771, 0.017653226852416992, 0.01573144644498825, 0.02015954628586769, 0.0179740097373724, 0.04160216450691223, 0.049831707030534744, 0.019777614623308182, 0.00798636581748724, 0.009226750582456589, 0.011872051283717155, 0.013459226116538048, 0.012029874138534069, 0.010016057640314102, 0.01948179118335247, 0.017575738951563835, 0.014254833571612835, 0.012016920372843742, 0.01320645771920681, 0.012177297845482826, 0.012746472842991352, 0.008020654320716858, 0.006339330226182938, 0.01157713308930397, 0.020911291241645813, 0.051559124141931534, 0.01611044630408287, 0.009466833434998989, 0.012643223628401756, 0.018045226112008095, 0.013806280680000782, 0.016887515783309937, 0.035612836480140686, 0.013411890715360641, 0.026581572368741035, 0.03493493050336838, 0.025649569928646088, 0.0374983586370945, 0.02611650340259075, 0.024238908663392067, 0.03859620913863182, 0.01478749979287386, 0.026907771825790405, 0.01663210429251194, 0.03654289245605469, 0.03105100244283676, 0.01936681754887104, 0.015492051839828491, 0.019841602072119713, 0.0123492032289505, 0.018879162147641182, 0.012374445796012878, 0.011262510903179646, 0.00841320026665926, 0.008422820828855038]</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1246777921915054</v>
+        <v>0.1825365722179413</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.8358442000171635</v>
+        <v>0.837961199998972</v>
       </c>
       <c r="J24" t="n">
-        <v>0.005647595946061915</v>
+        <v>0.005661899999993054</v>
       </c>
     </row>
     <row r="25">
@@ -1525,11 +1525,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[0.07159314304590225, 0.0479840412735939, 0.08725891262292862, 0.19364139437675476, 0.08966438472270966, 0.09854264557361603, 0.0984276831150055, 0.09283993393182755, 0.11202733218669891, 0.13542743027210236, 0.07597523182630539, 0.12428887188434601, 0.12713108956813812, 0.11334775388240814, 0.06617050617933273, 0.0897958055138588, 0.08606676012277603, 0.05714740231633186, 0.056697625666856766, 0.0668579638004303, 0.037727054208517075, 0.039954815059900284, 0.15992672741413116, 0.17488880455493927, 0.24060413241386414, 0.10897014290094376, 0.07852217555046082, 0.07082006335258484, 0.0527154766023159, 0.031793251633644104, 0.05432092770934105, 0.03748730570077896, 0.08996447175741196, 0.07078924775123596, 0.19369105994701385, 0.04008789733052254, 0.05302446335554123, 0.05234716460108757, 0.04010609909892082, 0.040680382400751114, 0.05784988030791283, 0.07984791696071625, 0.06633737683296204, 0.042215075343847275, 0.06512321531772614, 0.1480502337217331, 0.24913008511066437, 0.18200749158859253, 0.11657071113586426, 0.17068703472614288, 0.05186433717608452, 0.05104976147413254, 0.07554089277982712, 0.15505066514015198, 0.08097004145383835, 0.05944431945681572, 0.040134984999895096, 0.06361477077007294, 0.07076612859964371, 0.03762679919600487, 0.026978466659784317, 0.04228818416595459, 0.051299817860126495, 0.04671734571456909, 0.041337039321660995, 0.06750568002462387, 0.13686414062976837, 0.1422894150018692, 0.12756401300430298, 0.14509859681129456, 0.08715499937534332, 0.06447829306125641, 0.04084188491106033, 0.03514814376831055, 0.048588257282972336, 0.07283122837543488, 0.04173775762319565, 0.048417314887046814, 0.06162159889936447, 0.13460884988307953, 0.09451387077569962, 0.09851202368736267, 0.11366526037454605, 0.2786862552165985, 0.18863548338413239, 0.10844865441322327, 0.03747978433966637, 0.05339720472693443, 0.05055221915245056, 0.12327874451875687, 0.07724670320749283, 0.08912397176027298, 0.06653274595737457, 0.06073043867945671, 0.12035738676786423, 0.06718645989894867, 0.08340449631214142, 0.13529075682163239, 0.148623988032341, 0.09742375463247299, 0.1282561719417572, 0.24039070308208466, 0.19147686660289764, 0.07116851955652237, 0.07770431786775589, 0.08053259551525116, 0.06147095188498497, 0.044154923409223557, 0.04628177732229233, 0.07521016150712967, 0.07318894565105438, 0.032586731016635895, 0.019294118508696556, 0.04354044795036316, 0.039975423365831375, 0.037924278527498245, 0.05533939227461815, 0.058409757912158966, 0.037268370389938354, 0.06942348927259445, 0.05649860203266144, 0.15693999826908112, 0.10922280699014664, 0.09683194011449814, 0.07338886708021164, 0.05608173459768295, 0.0656435489654541, 0.06377764046192169, 0.04878881201148033, 0.043958380818367004, 0.0492655374109745, 0.0941854938864708, 0.06289473921060562, 0.07537316530942917, 0.059590693563222885, 0.10197345912456512, 0.07397423684597015, 0.06977733224630356, 0.051397908478975296, 0.09340787678956985, 0.14938586950302124, 0.06764007359743118, 0.0954098030924797, 0.09428109228610992, 0.05743417888879776, 0.0386185348033905, 0.032773856073617935, 0.03276936337351799]</t>
+          <t>[0.044001977890729904, 0.02162962779402733, 0.07484330981969833, 0.24634163081645966, 0.05510327219963074, 0.06000646576285362, 0.06926242262125015, 0.04925979673862457, 0.0726521834731102, 0.08451252430677414, 0.04070361703634262, 0.06844473630189896, 0.11223568767309189, 0.08625062555074692, 0.03459051623940468, 0.049695827066898346, 0.0439867340028286, 0.03786061331629753, 0.040556322783231735, 0.043915774673223495, 0.016317810863256454, 0.017645664513111115, 0.1302373707294464, 0.13605406880378723, 0.21713733673095703, 0.06464573740959167, 0.043829698115587234, 0.044667359441518784, 0.028372734785079956, 0.01778198778629303, 0.030577123165130615, 0.015665683895349503, 0.04472411423921585, 0.03841648995876312, 0.2616167962551117, 0.02024058625102043, 0.03657805919647217, 0.03222350403666496, 0.018702268600463867, 0.01688138209283352, 0.02853652834892273, 0.042748574167490005, 0.03885754197835922, 0.021413758397102356, 0.03443792834877968, 0.12159273028373718, 0.287043035030365, 0.14334827661514282, 0.07141366600990295, 0.12745125591754913, 0.027878105640411377, 0.032963965088129044, 0.06480306386947632, 0.19936883449554443, 0.05200473964214325, 0.03338223695755005, 0.01790432818233967, 0.042314790189266205, 0.05961771681904793, 0.017092302441596985, 0.013352484442293644, 0.024154555052518845, 0.03017248772084713, 0.026511505246162415, 0.026895038783550262, 0.034408409148454666, 0.11083674430847168, 0.11543777585029602, 0.1291959583759308, 0.16979780793190002, 0.0917014479637146, 0.05797581002116203, 0.020974265411496162, 0.014583387412130833, 0.020759737119078636, 0.037313833832740784, 0.024440832436084747, 0.030862294137477875, 0.04272139072418213, 0.14054906368255615, 0.08634497970342636, 0.08577016741037369, 0.16168145835399628, 0.3833273947238922, 0.2760484516620636, 0.0993700921535492, 0.020060772076249123, 0.034698016941547394, 0.03224381431937218, 0.15431013703346252, 0.07748440653085709, 0.11734360456466675, 0.07146395742893219, 0.052115462720394135, 0.19179767370224, 0.04329831153154373, 0.06330230087041855, 0.08365653455257416, 0.11527492851018906, 0.061055637896060944, 0.07783211767673492, 0.1986657679080963, 0.2543199360370636, 0.06599022448062897, 0.08298194408416748, 0.07136552035808563, 0.03891351819038391, 0.026331810280680656, 0.02488621510565281, 0.04172934964299202, 0.04466905817389488, 0.014180083759129047, 0.006843216717243195, 0.019085172563791275, 0.01740720123052597, 0.019135503098368645, 0.03430640324950218, 0.032528508454561234, 0.013805977068841457, 0.040292784571647644, 0.04787759482860565, 0.1518070548772812, 0.10514441132545471, 0.07036486268043518, 0.05001112446188927, 0.036908093839883804, 0.034932106733322144, 0.03355666622519493, 0.02352062426507473, 0.019098443910479546, 0.0214836522936821, 0.06702419370412827, 0.0324014350771904, 0.04954070225358009, 0.03219902142882347, 0.08184823393821716, 0.04420680180191994, 0.03584190085530281, 0.0288572795689106, 0.0761728510260582, 0.16303332149982452, 0.051888007670640945, 0.10059689730405807, 0.07680394500494003, 0.03927243873476982, 0.022470610216259956, 0.017075814306735992, 0.017070887610316277]</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2786862552165985</v>
+        <v>0.3833273947238922</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.8498582000029273</v>
+        <v>0.8465313000051538</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005742285135154915</v>
+        <v>0.005719806081115904</v>
       </c>
     </row>
     <row r="26">
@@ -1565,11 +1565,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[0.1260135918855667, 0.10430236905813217, 0.09920674562454224, 0.22313331067562103, 0.16922812163829803, 0.2233484387397766, 0.259617418050766, 0.5813124179840088, 0.31851106882095337, 0.13857276737689972, 0.14544899761676788, 0.2588222622871399, 0.23001591861248016, 0.14508278667926788, 0.13324116170406342, 0.16444304585456848, 0.19885680079460144, 0.2593991160392761, 0.22624032199382782, 0.20619116723537445, 0.2457992136478424, 0.4404691457748413, 0.2783568799495697, 0.1798660010099411, 0.21469271183013916, 0.15349584817886353, 0.10122425109148026, 0.20087727904319763, 0.15759636461734772, 0.1171664223074913, 0.18625949323177338, 0.1479499787092209, 0.11980624496936798, 0.17205770313739777, 0.18917541205883026, 0.20066331326961517, 0.11604899913072586, 0.21392114460468292, 0.11132393032312393, 0.14353905618190765, 0.1690331995487213, 0.08611703664064407, 0.15221136808395386, 0.16938252747058868, 0.0815085843205452, 0.12866587936878204, 0.1160680502653122, 0.17152148485183716, 0.11155463010072708, 0.11222754418849945, 0.145460307598114, 0.12748277187347412, 0.09930607676506042, 0.08418915420770645, 0.14328019320964813, 0.22862443327903748, 0.28119975328445435, 0.2715093791484833, 0.20271934568881989, 0.12748336791992188, 0.06107059493660927, 0.14419160783290863, 0.08597907423973083, 0.12475121766328812, 0.09123662114143372, 0.16233955323696136, 0.07743164151906967, 0.0668400377035141, 0.11164788156747818, 0.09880273044109344, 0.1840740442276001, 0.2674945592880249, 0.13428173959255219, 0.18402843177318573, 0.1432177573442459, 0.14559727907180786, 0.1935744732618332, 0.06893999129533768, 0.12325067818164825, 0.1403529793024063, 0.15014244616031647, 0.15994153916835785, 0.18486060202121735, 0.1332356333732605, 0.13249266147613525, 0.22144566476345062, 0.24014432728290558, 0.2711501121520996, 0.21879656612873077, 0.24425548315048218, 0.16199274361133575, 0.22669057548046112, 0.16821978986263275, 0.17522986233234406, 0.3172672986984253, 0.3629356026649475, 0.27468159794807434, 0.23257584869861603, 0.2874271273612976, 0.4971800148487091, 0.3177716135978699, 0.3314657509326935, 0.3796645700931549, 0.39800745248794556, 0.3517100512981415, 0.4174461364746094, 0.3483276069164276, 0.7049464583396912, 0.5096682906150818, 0.18118761479854584, 0.2595256268978119, 0.38688403367996216, 0.32724180817604065, 0.25701257586479187, 0.3121356666088104, 0.1723000407218933, 0.1473197489976883, 0.09916173666715622, 0.12858058512210846, 0.17057697474956512, 0.14360105991363525, 0.21662800014019012, 0.32236096262931824, 0.1888035535812378, 0.30940353870391846, 0.5522753596305847, 0.481293648481369, 0.45438504219055176, 0.5479996800422668, 0.27466925978660583, 0.33640256524086, 0.2787832021713257, 0.22058846056461334, 0.30557796359062195, 0.18976551294326782, 0.15837261080741882, 0.17921046912670135, 0.3244722783565521, 0.25460970401763916, 0.2652451992034912, 0.1957281529903412, 0.3080923855304718, 0.267479807138443, 0.45010465383529663, 0.5897783041000366, 0.6471652984619141, 0.6382295489311218, 0.638506293296814]</t>
+          <t>[0.0666808933019638, 0.08327724784612656, 0.0599905326962471, 0.15712490677833557, 0.12419645488262177, 0.17246758937835693, 0.22082532942295074, 0.5147249698638916, 0.25231531262397766, 0.08548429608345032, 0.09740976244211197, 0.1939818561077118, 0.1446843296289444, 0.08455599844455719, 0.06633827835321426, 0.12237229198217392, 0.15091270208358765, 0.20626243948936462, 0.16409160196781158, 0.14638976752758026, 0.21645082533359528, 0.38825201988220215, 0.20577581226825714, 0.12364913523197174, 0.1757400929927826, 0.14308471977710724, 0.09440004080533981, 0.16428065299987793, 0.11077440530061722, 0.08154955506324768, 0.131688192486763, 0.07798226922750473, 0.07570385932922363, 0.10926852375268936, 0.12512695789337158, 0.11390205472707748, 0.045619357377290726, 0.11425518244504929, 0.049829449504613876, 0.059076473116874695, 0.06769051402807236, 0.036723632365465164, 0.07676894962787628, 0.08634883165359497, 0.034802332520484924, 0.08628446608781815, 0.08088479191064835, 0.09105311334133148, 0.06023591011762619, 0.05814112722873688, 0.0971589908003807, 0.08725587278604507, 0.052499715238809586, 0.04209716618061066, 0.09069909900426865, 0.20089110732078552, 0.27590852975845337, 0.2819867730140686, 0.1946079581975937, 0.08814940601587296, 0.03846602514386177, 0.08237238228321075, 0.04853348433971405, 0.07790959626436234, 0.05885418504476547, 0.15164360404014587, 0.044393185526132584, 0.03731836378574371, 0.07277201116085052, 0.06082124635577202, 0.11887697875499725, 0.2745545506477356, 0.08616921305656433, 0.13841462135314941, 0.10212568938732147, 0.07933000475168228, 0.14881885051727295, 0.03756614774465561, 0.07734201103448868, 0.08727644383907318, 0.07884436100721359, 0.11327733099460602, 0.13908135890960693, 0.0795748382806778, 0.10510913282632828, 0.22336092591285706, 0.23901823163032532, 0.2671014666557312, 0.18791158497333527, 0.2330450415611267, 0.15664337575435638, 0.2052483856678009, 0.12509319186210632, 0.16466759145259857, 0.3564036786556244, 0.4564107358455658, 0.29882919788360596, 0.19724266231060028, 0.30821260809898376, 0.5668760538101196, 0.24926206469535828, 0.2575782835483551, 0.3283277451992035, 0.311982661485672, 0.2759537398815155, 0.3729950189590454, 0.26936668157577515, 0.7494624853134155, 0.5773324370384216, 0.14891085028648376, 0.24572040140628815, 0.3425878584384918, 0.3013640344142914, 0.2178851217031479, 0.2838720381259918, 0.14841239154338837, 0.12025812268257141, 0.06194765493273735, 0.09992857277393341, 0.1396602839231491, 0.11508994549512863, 0.18664495646953583, 0.41351771354675293, 0.17940928041934967, 0.338980495929718, 0.4933808445930481, 0.4505363702774048, 0.4475368857383728, 0.5358566641807556, 0.21329471468925476, 0.3940712511539459, 0.2229444831609726, 0.23642680048942566, 0.36133086681365967, 0.21045716106891632, 0.15538622438907623, 0.1834854781627655, 0.33549025654792786, 0.21319010853767395, 0.17983204126358032, 0.12305951118469238, 0.34381142258644104, 0.2559838593006134, 0.3943660855293274, 0.6302378177642822, 0.7551487684249878, 0.6603221297264099, 0.6617887616157532]</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.7049464583396912</v>
+        <v>0.7551487684249878</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1583,10 +1583,10 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.8492651999986265</v>
+        <v>0.8494231999939075</v>
       </c>
       <c r="J26" t="n">
-        <v>0.005738278378369098</v>
+        <v>0.005739345945904781</v>
       </c>
     </row>
     <row r="27">
@@ -1605,11 +1605,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[0.17844778299331665, 0.3258598744869232, 0.23382002115249634, 0.10749704390764236, 0.11864034086465836, 0.11579202860593796, 0.18353042006492615, 0.11488114297389984, 0.061194926500320435, 0.04757169261574745, 0.05452689528465271, 0.0777091309428215, 0.07167495042085648, 0.11873362958431244, 0.1250377893447876, 0.11047051101922989, 0.13466894626617432, 0.08714812994003296, 0.15139144659042358, 0.1618259698152542, 0.1504034698009491, 0.13193249702453613, 0.13936957716941833, 0.1858130842447281, 0.15718583762645721, 0.141485333442688, 0.20891013741493225, 0.2464144378900528, 0.18886645138263702, 0.23687995970249176, 0.2324123978614807, 0.19085988402366638, 0.15027739107608795, 0.1616675704717636, 0.13648729026317596, 0.15128320455551147, 0.13466204702854156, 0.19659824669361115, 0.1536334902048111, 0.20629245042800903, 0.17271453142166138, 0.12229682505130768, 0.11606500297784805, 0.15884725749492645, 0.25577566027641296, 0.1786166876554489, 0.11640513688325882, 0.14231213927268982, 0.2782289981842041, 0.42459896206855774, 0.3357573449611664, 0.21391397714614868, 0.13047969341278076, 0.14105857908725739, 0.27149367332458496, 0.3386770784854889, 0.2632807195186615, 0.2983342409133911, 0.1156037226319313, 0.19832104444503784, 0.25801071524620056, 0.19836555421352386, 0.14799374341964722, 0.1312832534313202, 0.19172056019306183, 0.241522878408432, 0.2867352366447449, 0.26666679978370667, 0.21666887402534485, 0.1767621785402298, 0.17551001906394958, 0.24857142567634583, 0.16695812344551086, 0.1567041128873825, 0.17824289202690125, 0.13208025693893433, 0.11992646008729935, 0.1350240707397461, 0.36221909523010254, 0.41468456387519836, 0.35278698801994324, 0.2316376268863678, 0.2618952989578247, 0.3013869822025299, 0.20693619549274445, 0.17399771511554718, 0.10464350134134293, 0.16415584087371826, 0.14592020213603973, 0.1652042269706726, 0.16849808394908905, 0.1717761904001236, 0.21399149298667908, 0.19366665184497833, 0.16233676671981812, 0.1823394000530243, 0.18829157948493958, 0.17857441306114197, 0.12950041890144348, 0.16080531477928162, 0.22108519077301025, 0.2807139456272125, 0.21402578055858612, 0.14509698748588562, 0.202722430229187, 0.10822150856256485, 0.14049232006072998, 0.17792154848575592, 0.13432668149471283, 0.19076821208000183, 0.21709878742694855, 0.39198246598243713, 0.24744723737239838, 0.2889463007450104, 0.16224883496761322, 0.27886784076690674, 0.16613534092903137, 0.19346919655799866, 0.20455284416675568, 0.33175772428512573, 0.2650289237499237, 0.22846780717372894, 0.2053765058517456, 0.22451087832450867, 0.21306172013282776, 0.4037708044052124, 0.3964085876941681, 0.36409130692481995, 0.3904566168785095, 0.23950207233428955, 0.45980608463287354, 0.4236927330493927, 0.2733844518661499, 0.2564464211463928, 0.28939923644065857, 0.3640562891960144, 0.39748919010162354, 0.4229470193386078, 0.380575567483902, 0.5337080359458923, 0.31497740745544434, 0.22421666979789734, 0.2287159413099289, 0.2882671356201172, 0.32023298740386963, 0.4694767892360687, 0.3923327624797821, 0.39309266209602356]</t>
+          <t>[0.08307736366987228, 0.21733570098876953, 0.1538793444633484, 0.05957089364528656, 0.06653962284326553, 0.07159950584173203, 0.12773913145065308, 0.07978656888008118, 0.03706591576337814, 0.02249804139137268, 0.025803646072745323, 0.04200597107410431, 0.0328618623316288, 0.06582265347242355, 0.0656915158033371, 0.07507544755935669, 0.061442781239748, 0.03851839527487755, 0.07342550158500671, 0.052858803421258926, 0.0385572649538517, 0.044878412038087845, 0.06377416104078293, 0.10107848793268204, 0.0839773491024971, 0.0451744981110096, 0.1234632357954979, 0.15948782861232758, 0.09120278805494308, 0.1902695596218109, 0.19467465579509735, 0.12451446056365967, 0.07965759187936783, 0.0929512307047844, 0.08664276450872421, 0.09169873595237732, 0.08541128784418106, 0.10041920095682144, 0.06549698114395142, 0.08486811816692352, 0.0765819177031517, 0.04784763604402542, 0.054014191031455994, 0.07217741012573242, 0.10122770816087723, 0.07806766033172607, 0.045941077172756195, 0.05218825489282608, 0.13107986748218536, 0.3029586374759674, 0.14407728612422943, 0.07911518961191177, 0.06112821027636528, 0.08114016056060791, 0.2471117079257965, 0.2607470154762268, 0.19084860384464264, 0.23281536996364594, 0.06122427433729172, 0.13918767869472504, 0.2078082412481308, 0.11025606840848923, 0.0830729678273201, 0.06688978523015976, 0.08930153399705887, 0.1138458102941513, 0.1568862497806549, 0.14048530161380768, 0.111367367208004, 0.09215182811021805, 0.10914766043424606, 0.15643617510795593, 0.07980469614267349, 0.08509106189012527, 0.07814338803291321, 0.05442048981785774, 0.05270397663116455, 0.05312686413526535, 0.2298179715871811, 0.2503356635570526, 0.1980261355638504, 0.13629287481307983, 0.14346909523010254, 0.1528739631175995, 0.09181014448404312, 0.0774027556180954, 0.04397943988442421, 0.06792329251766205, 0.0581015907227993, 0.068491630256176, 0.08317942917346954, 0.0948869064450264, 0.09042429178953171, 0.07183127105236053, 0.05779440328478813, 0.07609318196773529, 0.09960681200027466, 0.0794449970126152, 0.04741385579109192, 0.064583919942379, 0.09910226613283157, 0.13716386258602142, 0.09132344275712967, 0.05549529194831848, 0.0815330520272255, 0.03556540235877037, 0.04099113494157791, 0.07045046985149384, 0.06077473238110542, 0.08408716320991516, 0.10317491739988327, 0.2289465367794037, 0.15683171153068542, 0.1891467571258545, 0.0921909362077713, 0.18729634582996368, 0.07789317518472672, 0.09776203334331512, 0.0959167405962944, 0.1939048171043396, 0.17222608625888824, 0.11543785780668259, 0.10101640969514847, 0.14038822054862976, 0.0995195209980011, 0.27852001786231995, 0.32216978073120117, 0.30083349347114563, 0.2991516590118408, 0.16377440094947815, 0.343955397605896, 0.30188071727752686, 0.1500726044178009, 0.12758705019950867, 0.15865495800971985, 0.1629728376865387, 0.27682679891586304, 0.2667286694049835, 0.20350611209869385, 0.3747221827507019, 0.18750187754631042, 0.16406026482582092, 0.15316875278949738, 0.1507716178894043, 0.20456406474113464, 0.3892785310745239, 0.29439884424209595, 0.2963464558124542]</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.5337080359458923</v>
+        <v>0.3892785310745239</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0.9486450999975204</v>
+        <v>0.9763985999888973</v>
       </c>
       <c r="J27" t="n">
-        <v>0.006409764189172436</v>
+        <v>0.006597287837762819</v>
       </c>
     </row>
     <row r="28">
@@ -1645,11 +1645,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[0.06402191519737244, 0.08016164600849152, 0.11009806394577026, 0.0983491912484169, 0.07565648853778839, 0.11143957823514938, 0.10571035742759705, 0.06191366910934448, 0.1006794199347496, 0.12848015129566193, 0.2289881706237793, 0.38704341650009155, 0.29545262455940247, 0.22887834906578064, 0.22529399394989014, 0.5454698801040649, 0.2080688327550888, 0.3678191602230072, 0.1722286343574524, 0.22964242100715637, 0.19592797756195068, 0.3605426549911499, 0.40137872099876404, 0.10717898607254028, 0.22696129977703094, 0.16949881613254547, 0.09862453490495682, 0.2224147766828537, 0.22275632619857788, 0.35367268323898315, 0.19895046949386597, 0.1041562408208847, 0.0650269091129303, 0.14513373374938965, 0.24382393062114716, 0.1595005840063095, 0.3137889802455902, 0.2555840313434601, 0.22730623185634613, 0.19455282390117645, 0.1795538365840912, 0.3330185115337372, 0.16661642491817474, 0.29136836528778076, 0.2489326149225235, 0.19651441276073456, 0.08267726749181747, 0.17435067892074585, 0.36539924144744873, 0.15313909947872162, 0.11897841840982437, 0.07344736158847809, 0.1984039843082428, 0.3206758201122284, 0.6265663504600525, 0.45814642310142517, 0.4195654094219208, 0.4468079209327698, 0.6470117568969727, 0.43124499917030334, 0.21415095031261444, 0.31420350074768066, 0.4371257722377777, 0.15511205792427063, 0.12739485502243042, 0.1200946718454361, 0.23060716688632965, 0.12836258113384247, 0.1452631652355194, 0.16322414577007294, 0.19603028893470764, 0.15044541656970978, 0.1346214860677719, 0.10504019260406494, 0.1301717311143875, 0.14397317171096802, 0.11197946220636368, 0.22921985387802124, 0.12762609124183655, 0.2671694755554199, 0.18430490791797638, 0.23451082408428192, 0.2061404585838318, 0.13073651492595673, 0.3394775390625, 0.19781559705734253, 0.16993166506290436, 0.15015371143817902, 0.12628225982189178, 0.058231811970472336, 0.06462041288614273, 0.10084441304206848, 0.0721660852432251, 0.09005250781774521, 0.31862035393714905, 0.3011106550693512, 0.1811298280954361, 0.08928300440311432, 0.12268821895122528, 0.16088345646858215, 0.151461660861969, 0.14994244277477264, 0.21326155960559845, 0.19533264636993408, 0.06646867096424103, 0.06835353374481201, 0.06600186228752136, 0.07381880283355713, 0.069266676902771, 0.09846711903810501, 0.21284376084804535, 0.175430029630661, 0.44015443325042725, 0.07285715639591217, 0.054576244205236435, 0.15917165577411652, 0.1866280436515808, 0.13392291963100433, 0.0727466568350792, 0.07671651244163513, 0.07591606676578522, 0.038283806294202805, 0.035607967525720596, 0.0475095696747303, 0.06117914617061615, 0.04919271916151047, 0.03618622198700905, 0.037566330283880234, 0.0633159726858139, 0.10655275732278824, 0.05180995538830757, 0.06338591873645782, 0.11421908438205719, 0.06574108451604843, 0.05437742546200752, 0.06554599851369858, 0.20197921991348267, 0.12672856450080872, 0.12237177789211273, 0.14167100191116333, 0.17212854325771332, 0.13029848039150238, 0.1333618313074112, 0.22012151777744293, 0.27149930596351624, 0.18162944912910461, 0.09897205978631973, 0.09878519177436829]</t>
+          <t>[0.02836577035486698, 0.04100034013390541, 0.09077383577823639, 0.05886064097285271, 0.03371800482273102, 0.0536973737180233, 0.06092536821961403, 0.029987096786499023, 0.0548156276345253, 0.061443936079740524, 0.18439824879169464, 0.3071664869785309, 0.1476794332265854, 0.14599427580833435, 0.13422618806362152, 0.6165058016777039, 0.15750505030155182, 0.3122992515563965, 0.1244286298751831, 0.1940927952528, 0.15198491513729095, 0.48012208938598633, 0.5292715430259705, 0.08733012527227402, 0.24895286560058594, 0.11971427500247955, 0.06468904763460159, 0.23425908386707306, 0.20122221112251282, 0.31502485275268555, 0.1493724286556244, 0.05254640430212021, 0.025227824226021767, 0.08974099904298782, 0.1736806184053421, 0.08752721548080444, 0.2319643497467041, 0.16551998257637024, 0.1857607364654541, 0.172988161444664, 0.21027858555316925, 0.29574963450431824, 0.09574682265520096, 0.26513779163360596, 0.19408753514289856, 0.16955865919589996, 0.03650716692209244, 0.11004703491926193, 0.324977308511734, 0.08291671425104141, 0.044327590614557266, 0.026787573471665382, 0.11689148843288422, 0.20442530512809753, 0.5146228671073914, 0.30723249912261963, 0.30779165029525757, 0.35056257247924805, 0.5782222747802734, 0.2888927161693573, 0.14174389839172363, 0.16922765970230103, 0.39641672372817993, 0.09811609238386154, 0.08330365270376205, 0.08148488402366638, 0.17358343303203583, 0.07378032803535461, 0.08589503914117813, 0.10113245993852615, 0.1938047707080841, 0.08222220093011856, 0.05444730445742607, 0.06309129297733307, 0.06541668623685837, 0.08923724293708801, 0.06886394321918488, 0.1354396790266037, 0.07826210558414459, 0.1409018635749817, 0.09465424716472626, 0.18631333112716675, 0.1395139843225479, 0.08497593551874161, 0.24752353131771088, 0.13195325434207916, 0.1352619081735611, 0.08860041201114655, 0.07883962988853455, 0.03676283732056618, 0.036344561725854874, 0.049307677894830704, 0.044033754616975784, 0.06507299095392227, 0.3924533426761627, 0.23882797360420227, 0.15230819582939148, 0.05907838046550751, 0.06949903070926666, 0.08797915279865265, 0.08603636175394058, 0.05446310341358185, 0.09330631792545319, 0.1213998943567276, 0.031656693667173386, 0.052903659641742706, 0.050484102219343185, 0.042128775268793106, 0.025799158960580826, 0.04469909891486168, 0.1480700820684433, 0.08997509628534317, 0.3159100115299225, 0.027239229530096054, 0.01863577403128147, 0.11146056652069092, 0.10648747533559799, 0.1017715260386467, 0.03445664420723915, 0.03647205978631973, 0.036776356399059296, 0.013667218387126923, 0.01189782191067934, 0.019540471956133842, 0.023782329633831978, 0.02297365479171276, 0.016406264156103134, 0.016541747376322746, 0.033361729234457016, 0.03796440735459328, 0.022313453257083893, 0.026957320049405098, 0.058018285781145096, 0.019557714462280273, 0.014536557719111443, 0.025732165202498436, 0.12004692852497101, 0.052479952573776245, 0.05902845412492752, 0.07816990464925766, 0.08994502574205399, 0.0673888549208641, 0.0780549943447113, 0.12664897739887238, 0.23726119101047516, 0.11427070945501328, 0.04093736782670021, 0.040959469974040985]</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.6470117568969727</v>
+        <v>0.6165058016777039</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0.8403890999907162</v>
+        <v>0.8527812999964226</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005678304729667002</v>
+        <v>0.00576203581078664</v>
       </c>
     </row>
     <row r="29">
@@ -1685,11 +1685,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[0.11125082522630692, 0.09712701290845871, 0.17065514624118805, 0.06752344220876694, 0.09389094263315201, 0.2051968276500702, 0.24840593338012695, 0.16527019441127777, 0.32567206025123596, 0.2523934543132782, 0.12918029725551605, 0.11250736564397812, 0.22847986221313477, 0.3893062472343445, 0.20562225580215454, 0.15225400030612946, 0.057158857583999634, 0.06436276435852051, 0.07292881608009338, 0.10654570162296295, 0.0732814222574234, 0.06916197389364243, 0.056810833513736725, 0.045476917177438736, 0.07915676385164261, 0.19415846467018127, 0.2110055834054947, 0.21390965580940247, 0.1483757644891739, 0.3077941834926605, 0.07744426280260086, 0.0893281027674675, 0.17137789726257324, 0.08016590774059296, 0.11421145498752594, 0.1341046392917633, 0.17885033786296844, 0.12893085181713104, 0.13929475843906403, 0.25109291076660156, 0.12776292860507965, 0.21465295553207397, 0.20667801797389984, 0.10830070823431015, 0.11791723221540451, 0.12515123188495636, 0.25362628698349, 0.18797893822193146, 0.18902620673179626, 0.1404033899307251, 0.12258180975914001, 0.11987512558698654, 0.0922064408659935, 0.10089666396379471, 0.1138606145977974, 0.08515951037406921, 0.12955087423324585, 0.10129686444997787, 0.07910408079624176, 0.15635652840137482, 0.12652388215065002, 0.17967729270458221, 0.11779087036848068, 0.17461834847927094, 0.23265643417835236, 0.20053625106811523, 0.12797261774539948, 0.1320255547761917, 0.1903146356344223, 0.18346814811229706, 0.2900221645832062, 0.3000529110431671, 0.17135736346244812, 0.12415504455566406, 0.06420488655567169, 0.07118608057498932, 0.10931273549795151, 0.06738175451755524, 0.07075585424900055, 0.09837951511144638, 0.18191809952259064, 0.16577033698558807, 0.07025303691625595, 0.1086810901761055, 0.1519828736782074, 0.12697908282279968, 0.12611298263072968, 0.1423272341489792, 0.19547708332538605, 0.2413172423839569, 0.1607595682144165, 0.43820542097091675, 0.401235967874527, 0.1574954092502594, 0.15491528809070587, 0.15761175751686096, 0.22803623974323273, 0.17446869611740112, 0.28436994552612305, 0.15912505984306335, 0.28108933568000793, 0.18372666835784912, 0.11860532313585281, 0.3301173150539398, 0.3910228908061981, 0.36870908737182617, 0.1122131422162056, 0.08255934715270996, 0.11665064841508865, 0.11818160861730576, 0.1869031935930252, 0.13954631984233856, 0.21509189903736115, 0.3260294795036316, 0.22063986957073212, 0.13357654213905334, 0.1350676268339157, 0.0760532096028328, 0.10995842516422272, 0.13875092566013336, 0.07899317890405655, 0.048511993139982224, 0.09560494124889374, 0.14574366807937622, 0.10634768754243851, 0.15954792499542236, 0.3574909269809723, 0.19755883514881134, 0.21312710642814636, 0.23472745716571808, 0.2722508907318115, 0.5572587847709656, 0.48331013321876526, 0.29258230328559875, 0.3651285469532013, 0.26416194438934326, 0.3975490629673004, 0.43583646416664124, 0.2353217750787735, 0.14400044083595276, 0.1101551204919815, 0.10927915573120117, 0.0904054194688797, 0.1309228539466858, 0.2565727233886719, 0.15401044487953186, 0.2395215779542923, 0.23971696197986603]</t>
+          <t>[0.09895478188991547, 0.06620870530605316, 0.15512041747570038, 0.057706497609615326, 0.0984451174736023, 0.22907240688800812, 0.2623874545097351, 0.15371382236480713, 0.3906523287296295, 0.2627702057361603, 0.10515102744102478, 0.09799759089946747, 0.23256641626358032, 0.32980284094810486, 0.17335925996303558, 0.13352935016155243, 0.035485319793224335, 0.04436129331588745, 0.044512663036584854, 0.13422900438308716, 0.05532340705394745, 0.06383977085351944, 0.04534925892949104, 0.027774987742304802, 0.0835053026676178, 0.1859857439994812, 0.25542306900024414, 0.2995646297931671, 0.18623168766498566, 0.5722876191139221, 0.08878768980503082, 0.061682358384132385, 0.15425194799900055, 0.05376487225294113, 0.10327145457267761, 0.12119925022125244, 0.18863558769226074, 0.09229686111211777, 0.11338797211647034, 0.24058540165424347, 0.08828650414943695, 0.1567460000514984, 0.19192253053188324, 0.07790438830852509, 0.12646916508674622, 0.10478155314922333, 0.24276937544345856, 0.1524210125207901, 0.14509926736354828, 0.13086742162704468, 0.11696462333202362, 0.09567607194185257, 0.08329953998327255, 0.10996153205633163, 0.10232558101415634, 0.07053084671497345, 0.13109439611434937, 0.09341109544038773, 0.05377338454127312, 0.1420804113149643, 0.10536038130521774, 0.20520436763763428, 0.1325118988752365, 0.1993788480758667, 0.28585121035575867, 0.20526796579360962, 0.0940890684723854, 0.08763314038515091, 0.15073782205581665, 0.149478942155838, 0.30714040994644165, 0.3263969421386719, 0.20118752121925354, 0.09385664016008377, 0.0398261584341526, 0.06346539407968521, 0.09236115962266922, 0.04596098139882088, 0.07162367552518845, 0.0945596843957901, 0.18661700189113617, 0.13763241469860077, 0.053986500948667526, 0.08788935840129852, 0.09885208308696747, 0.10661880671977997, 0.10720281302928925, 0.15717864036560059, 0.3063977062702179, 0.2166358232498169, 0.15119971334934235, 0.5446508526802063, 0.6431925892829895, 0.2217683047056198, 0.18734490871429443, 0.16950596868991852, 0.27711227536201477, 0.25517538189888, 0.41962486505508423, 0.2441369891166687, 0.3825347423553467, 0.19471974670886993, 0.08490143716335297, 0.4357641041278839, 0.5724343061447144, 0.525439977645874, 0.09560467302799225, 0.05351119115948677, 0.10038828104734421, 0.0855981782078743, 0.16389963030815125, 0.12370260059833527, 0.19027620553970337, 0.25277775526046753, 0.14862839877605438, 0.09678560495376587, 0.1071891188621521, 0.05443868786096573, 0.10115986317396164, 0.1573229283094406, 0.058899104595184326, 0.03528071194887161, 0.09585003554821014, 0.15548434853553772, 0.10951162129640579, 0.16976460814476013, 0.4323422610759735, 0.2720452547073364, 0.1920756995677948, 0.3086492121219635, 0.27648505568504333, 0.6060653924942017, 0.5687540173530579, 0.4073010981082916, 0.46297013759613037, 0.28969806432724, 0.5163617730140686, 0.5765382051467896, 0.2648073434829712, 0.1514539271593094, 0.10792291909456253, 0.10935327410697937, 0.09544595330953598, 0.12176050990819931, 0.29283440113067627, 0.19680562615394592, 0.30422765016555786, 0.30441415309906006]</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.5572587847709656</v>
+        <v>0.6431925892829895</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1703,10 +1703,10 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0.828750900021987</v>
+        <v>0.8439090000028955</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005599668243391804</v>
+        <v>0.005702087837857402</v>
       </c>
     </row>
     <row r="30">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[0.056541815400123596, 0.05728655308485031, 0.07441198080778122, 0.05972827225923538, 0.03976050764322281, 0.07047795504331589, 0.09175827354192734, 0.08458279818296432, 0.06767505407333374, 0.035005539655685425, 0.04417230933904648, 0.0288014467805624, 0.05833834409713745, 0.09198889881372452, 0.06739000976085663, 0.05137321352958679, 0.06413646042346954, 0.08319563418626785, 0.0860123559832573, 0.07389582693576813, 0.0679912194609642, 0.05499209836125374, 0.05823344737291336, 0.0522051565349102, 0.04535020887851715, 0.04421164467930794, 0.035513121634721756, 0.05003729462623596, 0.08081088215112686, 0.059733327478170395, 0.03540012612938881, 0.022206760942935944, 0.027421319857239723, 0.031137151643633842, 0.03542802855372429, 0.03835824504494667, 0.03614046797156334, 0.046715572476387024, 0.04792112484574318, 0.048928339034318924, 0.05351145565509796, 0.05506594851613045, 0.03442087024450302, 0.04685867205262184, 0.05296234413981438, 0.04136151447892189, 0.041921839118003845, 0.05385049432516098, 0.04028758034110069, 0.028137486428022385, 0.07786417007446289, 0.061182983219623566, 0.03993185609579086, 0.03769993782043457, 0.04854368418455124, 0.04749913513660431, 0.09276283532381058, 0.0720718577504158, 0.07332328706979752, 0.071108877658844, 0.06424983590841293, 0.04775073751807213, 0.0787339061498642, 0.09648026525974274, 0.07208932191133499, 0.06759743392467499, 0.07738462835550308, 0.1103217676281929, 0.138747900724411, 0.08589141070842743, 0.07953211665153503, 0.07565601915121078, 0.08518875390291214, 0.11414030939340591, 0.10587199777364731, 0.08776222914457321, 0.07050683349370956, 0.049809522926807404, 0.05342743545770645, 0.0778784304857254, 0.06656254082918167, 0.07924699038267136, 0.10713190585374832, 0.08703990280628204, 0.0944250077009201, 0.07901079952716827, 0.05698426812887192, 0.06432562321424484, 0.061501581221818924, 0.06656687706708908, 0.06558196991682053, 0.05175158381462097, 0.05012647435069084, 0.03693319484591484, 0.027643000707030296, 0.037512194365262985, 0.0494631864130497, 0.0532502681016922, 0.042138222604990005, 0.049931928515434265, 0.0513085201382637, 0.07430470734834671, 0.07290520519018173, 0.09490824490785599, 0.05109896883368492, 0.051609233021736145, 0.049204543232917786, 0.05492861568927765, 0.05010894685983658, 0.12937892973423004, 0.1096990779042244, 0.08521498739719391, 0.05109284073114395, 0.05713909864425659, 0.07340096682310104, 0.052458882331848145, 0.10212932527065277, 0.06677937507629395, 0.06267404556274414, 0.035326745361089706, 0.057026457041502, 0.15139567852020264, 0.10318292677402496, 0.0888790562748909, 0.05777435377240181, 0.0694023072719574, 0.08238857239484787, 0.05636075139045715, 0.07369039207696915, 0.11271613836288452, 0.16251036524772644, 0.2083902806043625, 0.217802032828331, 0.12241089344024658, 0.17281818389892578, 0.14759857952594757, 0.07166266441345215, 0.0553722120821476, 0.05689927563071251, 0.06142886355519295, 0.0811377763748169, 0.10179281234741211, 0.05600975453853607, 0.05133771523833275, 0.03272553160786629, 0.03666922077536583, 0.037279605865478516, 0.03738352283835411]</t>
+          <t>[0.04993218928575516, 0.05550602450966835, 0.0712265819311142, 0.04421393945813179, 0.02838951349258423, 0.047529153525829315, 0.09953957051038742, 0.0859844982624054, 0.06590831279754639, 0.02546219527721405, 0.02837277576327324, 0.019158216193318367, 0.0528971403837204, 0.1067902073264122, 0.06970144808292389, 0.03783481940627098, 0.05417128652334213, 0.08216768503189087, 0.07833488285541534, 0.053688377141952515, 0.04458931088447571, 0.035498082637786865, 0.03799758478999138, 0.027927216142416, 0.023525342345237732, 0.023490160703659058, 0.018996138125658035, 0.02969113551080227, 0.05894295126199722, 0.04950280487537384, 0.022216761484742165, 0.01198426354676485, 0.013147210702300072, 0.01488126814365387, 0.01635735295712948, 0.021515702828764915, 0.023221641778945923, 0.02939460426568985, 0.03509582579135895, 0.03093705326318741, 0.036223769187927246, 0.03868986666202545, 0.02031431533396244, 0.033390846103429794, 0.04161226376891136, 0.02861184999346733, 0.02965771034359932, 0.041895195841789246, 0.027453474700450897, 0.018895341083407402, 0.0648169070482254, 0.06117016449570656, 0.030488546937704086, 0.02024814486503601, 0.029872195795178413, 0.024829428642988205, 0.08175969123840332, 0.05736769735813141, 0.04957195743918419, 0.04307112470269203, 0.04627380147576332, 0.0332707054913044, 0.06565210223197937, 0.1059340387582779, 0.050409089773893356, 0.04098152369260788, 0.06214902177453041, 0.08374251425266266, 0.10065806657075882, 0.060194067656993866, 0.05425909906625748, 0.04685990884900093, 0.057294487953186035, 0.106346495449543, 0.11569257080554962, 0.06751497089862823, 0.04963874816894531, 0.03470916673541069, 0.039014920592308044, 0.060387566685676575, 0.04596451297402382, 0.053568050265312195, 0.08188628405332565, 0.06643114238977432, 0.07248218357563019, 0.051666148006916046, 0.03353453800082207, 0.033806152641773224, 0.03799981251358986, 0.05180457979440689, 0.051438748836517334, 0.041840050369501114, 0.039118241518735886, 0.024035939946770668, 0.017829012125730515, 0.029549993574619293, 0.034788526594638824, 0.03354920446872711, 0.025353901088237762, 0.03380277007818222, 0.03517039492726326, 0.04636736959218979, 0.05222053825855255, 0.06963745504617691, 0.033441800624132156, 0.0365462489426136, 0.041715264320373535, 0.04310720041394234, 0.03235781937837601, 0.10850076377391815, 0.06302710622549057, 0.05308762192726135, 0.0334649384021759, 0.04431445896625519, 0.08237012475728989, 0.04672345891594887, 0.07814769446849823, 0.046802446246147156, 0.04098713397979736, 0.022888613864779472, 0.03930467367172241, 0.1307734102010727, 0.08503562211990356, 0.07045523822307587, 0.04305041581392288, 0.051759686321020126, 0.04971879720687866, 0.03854222968220711, 0.05252334102988243, 0.09667890518903732, 0.2298274040222168, 0.22533144056797028, 0.26682230830192566, 0.12037016451358795, 0.21604779362678528, 0.1614876389503479, 0.06620702147483826, 0.03608258068561554, 0.04241424426436424, 0.04935649782419205, 0.06247181445360184, 0.07385633885860443, 0.04203059896826744, 0.03092578984797001, 0.015899086371064186, 0.016134006902575493, 0.01731783337891102, 0.017354898154735565]</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.217802032828331</v>
+        <v>0.2668223083019257</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1743,10 +1743,10 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.8478841000178363</v>
+        <v>0.8519169999926817</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005728946621742137</v>
+        <v>0.005756195945896498</v>
       </c>
     </row>
     <row r="31">
@@ -1765,11 +1765,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[0.10659303516149521, 0.15330930054187775, 0.15361632406711578, 0.18590980768203735, 0.16859427094459534, 0.1727437674999237, 0.18097756803035736, 0.21429818868637085, 0.20543214678764343, 0.17687126994132996, 0.09156523644924164, 0.12737104296684265, 0.1255011409521103, 0.11145919561386108, 0.14786842465400696, 0.2496669441461563, 0.17394936084747314, 0.22761064767837524, 0.1845945566892624, 0.25193727016448975, 0.13582713901996613, 0.12246042490005493, 0.09549781680107117, 0.06465084850788116, 0.10274544358253479, 0.1320355087518692, 0.08635801076889038, 0.08717180788516998, 0.08708349615335464, 0.09795471280813217, 0.09896848350763321, 0.08515181392431259, 0.06971412152051926, 0.08943930268287659, 0.07554014027118683, 0.061776984483003616, 0.055905040353536606, 0.06920740008354187, 0.08424810320138931, 0.08843782544136047, 0.08826383948326111, 0.0683857724070549, 0.08274682611227036, 0.08807973563671112, 0.07032948732376099, 0.10919427871704102, 0.18560896813869476, 0.10273835808038712, 0.09148948639631271, 0.05820702388882637, 0.06735137850046158, 0.048719990998506546, 0.0706658735871315, 0.10019140690565109, 0.10865253955125809, 0.08136020600795746, 0.13474029302597046, 0.11809297651052475, 0.13369983434677124, 0.32180529832839966, 0.19566276669502258, 0.377260684967041, 0.21250875294208527, 0.27222615480422974, 0.20527786016464233, 0.14673390984535217, 0.1220240518450737, 0.16064417362213135, 0.1037813127040863, 0.11101531237363815, 0.11265789717435837, 0.1029377207159996, 0.0977788195014, 0.07318722456693649, 0.10583412647247314, 0.110758475959301, 0.12814626097679138, 0.24167637526988983, 0.14593605697155, 0.09829472005367279, 0.09992095082998276, 0.09806401282548904, 0.21117030084133148, 0.11881468445062637, 0.11242525279521942, 0.08185191452503204, 0.07513554394245148, 0.09115865081548691, 0.13060332834720612, 0.10455271601676941, 0.13545088469982147, 0.09759882092475891, 0.12004268914461136, 0.11942928284406662, 0.10681365430355072, 0.11560791730880737, 0.17419864237308502, 0.1614760458469391, 0.10971604287624359, 0.11933979392051697, 0.11172422766685486, 0.11177873611450195, 0.1508941501379013, 0.14389653503894806, 0.13416120409965515, 0.24397534132003784, 0.2359895557165146, 0.19850799441337585, 0.17719724774360657, 0.15322798490524292, 0.12109720706939697, 0.08198513835668564, 0.08431481570005417, 0.1166774332523346, 0.16240918636322021, 0.27850452065467834, 0.31064510345458984, 0.2481296956539154, 0.21767009794712067, 0.14565972983837128, 0.17314404249191284, 0.35109472274780273, 0.28183069825172424, 0.3724270164966583, 0.316449910402298, 0.23701977729797363, 0.1845828741788864, 0.1479489803314209, 0.09967543184757233, 0.1282801628112793, 0.17618533968925476, 0.14542719721794128, 0.1422392725944519, 0.09323780983686447, 0.17156982421875, 0.1481788456439972, 0.11728379130363464, 0.15694692730903625, 0.16153113543987274, 0.14832328259944916, 0.15523338317871094, 0.2117968052625656, 0.2043343484401703, 0.18287795782089233, 0.1698702871799469, 0.3006258010864258, 0.37900862097740173, 0.37876588106155396]</t>
+          <t>[0.11071792989969254, 0.1822410374879837, 0.2336408644914627, 0.2216273695230484, 0.19258809089660645, 0.17293453216552734, 0.20246011018753052, 0.2440585494041443, 0.17884479463100433, 0.1478547900915146, 0.057034943252801895, 0.08735965937376022, 0.08650138229131699, 0.082424595952034, 0.10694069415330887, 0.2604178190231323, 0.1600562334060669, 0.19410118460655212, 0.15492895245552063, 0.21157731115818024, 0.06876904517412186, 0.06656012684106827, 0.05437696725130081, 0.03527327999472618, 0.0785258412361145, 0.09070216864347458, 0.06039230152964592, 0.06251901388168335, 0.0735638216137886, 0.09972669929265976, 0.08178677409887314, 0.06386738270521164, 0.05207467079162598, 0.08151336014270782, 0.0632895976305008, 0.04391016438603401, 0.04905121028423309, 0.070694699883461, 0.0785096064209938, 0.0955386683344841, 0.06949418783187866, 0.055467527359724045, 0.0714084804058075, 0.08607860654592514, 0.054443977773189545, 0.12637270987033844, 0.20318862795829773, 0.07658186554908752, 0.0790615975856781, 0.045314401388168335, 0.04431523010134697, 0.02308163233101368, 0.03438783437013626, 0.06636558473110199, 0.07899057120084763, 0.05017783120274544, 0.12563030421733856, 0.08956902474164963, 0.08956097811460495, 0.2842022776603699, 0.1440582275390625, 0.33388614654541016, 0.16951192915439606, 0.2285679131746292, 0.18690785765647888, 0.13461874425411224, 0.10403652489185333, 0.12977242469787598, 0.08129113912582397, 0.07858940213918686, 0.0658428966999054, 0.0557246133685112, 0.06335651129484177, 0.04829559102654457, 0.06264714896678925, 0.096222423017025, 0.13509808480739594, 0.24234583973884583, 0.10158439725637436, 0.07221602648496628, 0.060179855674505234, 0.06848230212926865, 0.27015793323516846, 0.09170976281166077, 0.07136038690805435, 0.05072851851582527, 0.04199429973959923, 0.04676248878240585, 0.110975481569767, 0.0655813068151474, 0.1146068423986435, 0.08258477598428726, 0.12400677055120468, 0.09287833422422409, 0.10475651174783707, 0.08358163386583328, 0.1667385995388031, 0.12860974669456482, 0.07580231130123138, 0.101756252348423, 0.1515112817287445, 0.09181710332632065, 0.1416340321302414, 0.1566200852394104, 0.1346358358860016, 0.30874103307724, 0.25695979595184326, 0.16826440393924713, 0.1509391814470291, 0.16144268214702606, 0.13434748351573944, 0.07046441733837128, 0.05823936313390732, 0.08710256963968277, 0.15180666744709015, 0.30091342329978943, 0.37155216932296753, 0.291291207075119, 0.29424723982810974, 0.15435318648815155, 0.15492378175258636, 0.43917199969291687, 0.2613314092159271, 0.41037553548812866, 0.35182318091392517, 0.27010563015937805, 0.19964362680912018, 0.1367952674627304, 0.07568875700235367, 0.10559125244617462, 0.16839434206485748, 0.10746486485004425, 0.11186427623033524, 0.05852041020989418, 0.13916002213954926, 0.10242002457380295, 0.0775589793920517, 0.1002456545829773, 0.11441632360219955, 0.11122802644968033, 0.09290563315153122, 0.12839414179325104, 0.1162143126130104, 0.10700176656246185, 0.09822487831115723, 0.2150096893310547, 0.31454187631607056, 0.3134278655052185]</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.3790086209774017</v>
+        <v>0.4391719996929169</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0.8517728000006173</v>
+        <v>0.8393521000107285</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005755221621625792</v>
+        <v>0.005671297973045462</v>
       </c>
     </row>
     <row r="32">
@@ -1805,11 +1805,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[0.06110067293047905, 0.06938843429088593, 0.043518953025341034, 0.041851360350847244, 0.049097009003162384, 0.030865654349327087, 0.03360193967819214, 0.027329271659255028, 0.061385322362184525, 0.04193522781133652, 0.0466347336769104, 0.08558179438114166, 0.09606729447841644, 0.050007544457912445, 0.06747590750455856, 0.0605950728058815, 0.09087957441806793, 0.08174227923154831, 0.11051444709300995, 0.07349205762147903, 0.06184389442205429, 0.07143804430961609, 0.17026571929454803, 0.07975900173187256, 0.09514828026294708, 0.07732228189706802, 0.10448645055294037, 0.06329028308391571, 0.04174185171723366, 0.053392283618450165, 0.058189451694488525, 0.05036526918411255, 0.04614071175456047, 0.05970548838376999, 0.04911448433995247, 0.06135648861527443, 0.07919606566429138, 0.060968272387981415, 0.05102100968360901, 0.04917221888899803, 0.09375336021184921, 0.07195379585027695, 0.1382085233926773, 0.09339513629674911, 0.09089452773332596, 0.1732187420129776, 0.19004930555820465, 0.09358087927103043, 0.03452806919813156, 0.05770516023039818, 0.052975282073020935, 0.05451204627752304, 0.042490966618061066, 0.10910403728485107, 0.09405327588319778, 0.08463574945926666, 0.09480316936969757, 0.0489017590880394, 0.042352061718702316, 0.029609013348817825, 0.032742489129304886, 0.03634649142622948, 0.03289446979761124, 0.045689843595027924, 0.060841504484415054, 0.12955224514007568, 0.1487254500389099, 0.10558796674013138, 0.10308200865983963, 0.18996337056159973, 0.171327605843544, 0.14706870913505554, 0.2013949155807495, 0.14947712421417236, 0.08821581304073334, 0.096211738884449, 0.0902656689286232, 0.06452979147434235, 0.05162068083882332, 0.06231044605374336, 0.0702785924077034, 0.04946187138557434, 0.05784182250499725, 0.041258443146944046, 0.06355639547109604, 0.12298699468374252, 0.2228279560804367, 0.15846574306488037, 0.15086694061756134, 0.2150859236717224, 0.1931464523077011, 0.1461925208568573, 0.1203402504324913, 0.14005224406719208, 0.1450967639684677, 0.13640658557415009, 0.1818353533744812, 0.17690835893154144, 0.2514471709728241, 0.08211550861597061, 0.046271927654743195, 0.06187721714377403, 0.05876554176211357, 0.06163188815116882, 0.052075039595365524, 0.0604325532913208, 0.06310896575450897, 0.07593851536512375, 0.06306160986423492, 0.09123656153678894, 0.13392850756645203, 0.10477213561534882, 0.15923868119716644, 0.13623757660388947, 0.10499721020460129, 0.13328132033348083, 0.1449260264635086, 0.13369806110858917, 0.056380923837423325, 0.07952351123094559, 0.11288664489984512, 0.07814215123653412, 0.07221610099077225, 0.07493821531534195, 0.054924264550209045, 0.07858506590127945, 0.14227162301540375, 0.08493232727050781, 0.0437200702726841, 0.08919484913349152, 0.1263384371995926, 0.09667915850877762, 0.14571912586688995, 0.24267525970935822, 0.20425182580947876, 0.2823743522167206, 0.21558813750743866, 0.08926916122436523, 0.14343145489692688, 0.1602836698293686, 0.23133717477321625, 0.11592838168144226, 0.1377309411764145, 0.24718806147575378, 0.1775888055562973, 0.18174268305301666, 0.37805265188217163, 0.3782762289047241]</t>
+          <t>[0.03155142813920975, 0.044766075909137726, 0.024067573249340057, 0.029757779091596603, 0.0320720300078392, 0.021064555272459984, 0.01956881955265999, 0.01781499944627285, 0.05643559247255325, 0.024496357887983322, 0.03266109526157379, 0.06578245759010315, 0.08341765403747559, 0.03402320668101311, 0.05633888393640518, 0.05106513202190399, 0.07310104370117188, 0.06956831365823746, 0.12971670925617218, 0.06701839715242386, 0.046621013432741165, 0.05812261626124382, 0.17462898790836334, 0.07020563632249832, 0.07711915671825409, 0.06674439460039139, 0.08988358080387115, 0.04055839776992798, 0.026743289083242416, 0.03206394612789154, 0.03770485520362854, 0.035494133830070496, 0.026543335989117622, 0.05122486874461174, 0.04347757250070572, 0.04582028463482857, 0.07538755238056183, 0.0434902086853981, 0.04487384855747223, 0.05403668060898781, 0.10085182636976242, 0.07928983122110367, 0.21517397463321686, 0.11601340025663376, 0.10247275233268738, 0.1806592494249344, 0.1996779590845108, 0.07856514304876328, 0.02111753262579441, 0.03505416959524155, 0.04185968637466431, 0.038104575127363205, 0.027670545503497124, 0.09325248748064041, 0.06914793699979782, 0.06608202308416367, 0.0691475123167038, 0.026096109300851822, 0.02227172628045082, 0.01741003803908825, 0.01856812834739685, 0.022794773802161217, 0.017488587647676468, 0.02539752423763275, 0.04863809794187546, 0.10677110403776169, 0.09627296775579453, 0.05033315345644951, 0.07363610714673996, 0.18378391861915588, 0.17396624386310577, 0.14805251359939575, 0.15615862607955933, 0.16538335382938385, 0.07623467594385147, 0.0746312066912651, 0.05412210524082184, 0.048362068831920624, 0.042851489037275314, 0.04630252346396446, 0.05093535780906677, 0.029103543609380722, 0.04625376686453819, 0.023010121658444405, 0.05863189697265625, 0.14667440950870514, 0.195126473903656, 0.11117343604564667, 0.12142332643270493, 0.18809810280799866, 0.17026710510253906, 0.16538074612617493, 0.18847604095935822, 0.13995513319969177, 0.135505810379982, 0.20137159526348114, 0.2436736822128296, 0.22041212022304535, 0.3036159574985504, 0.07760530710220337, 0.03245249763131142, 0.05106654018163681, 0.05081940442323685, 0.047001201659440994, 0.039512258023023605, 0.052918411791324615, 0.05586247518658638, 0.08066204935312271, 0.05169498547911644, 0.0649261400103569, 0.14511965215206146, 0.11558081209659576, 0.2552143335342407, 0.14845487475395203, 0.11359407007694244, 0.1419178992509842, 0.19648665189743042, 0.1910400539636612, 0.05044945329427719, 0.07904607802629471, 0.14192019402980804, 0.06331881880760193, 0.07292544841766357, 0.08787059038877487, 0.046610623598098755, 0.059678815305233, 0.15608403086662292, 0.0656471699476242, 0.02335037849843502, 0.0521463006734848, 0.09526308625936508, 0.09748617559671402, 0.1971505731344223, 0.2855280339717865, 0.1776583194732666, 0.3074148893356323, 0.13750271499156952, 0.05972578749060631, 0.15702980756759644, 0.2020721435546875, 0.3187482953071594, 0.19778820872306824, 0.18251369893550873, 0.19517382979393005, 0.1784302294254303, 0.21922050416469574, 0.40156489610671997, 0.4019087851047516]</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.3782762289047241</v>
+        <v>0.4019087851047516</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.8423336999840103</v>
+        <v>0.8605561000003945</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005691443918810881</v>
+        <v>0.005814568243245909</v>
       </c>
     </row>
     <row r="33">
@@ -1845,11 +1845,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[0.0981428250670433, 0.13101701438426971, 0.1202096939086914, 0.13970069587230682, 0.13190798461437225, 0.14125818014144897, 0.19757471978664398, 0.2519765794277191, 0.2242828905582428, 0.11173315346240997, 0.09908507764339447, 0.1322958767414093, 0.18174870312213898, 0.14157737791538239, 0.09099379181861877, 0.14890684187412262, 0.08938418328762054, 0.05683364346623421, 0.1116982251405716, 0.17571288347244263, 0.06278897821903229, 0.12343371659517288, 0.11997527629137039, 0.11623233556747437, 0.06191306188702583, 0.07374675571918488, 0.10694099217653275, 0.08504530042409897, 0.048124801367521286, 0.04188252612948418, 0.027995651587843895, 0.036976054310798645, 0.04402131214737892, 0.028430335223674774, 0.021954497322440147, 0.017262907698750496, 0.02060619741678238, 0.03880468010902405, 0.04256049171090126, 0.04299919307231903, 0.0526341013610363, 0.06487412005662918, 0.0541398748755455, 0.05510010942816734, 0.10772724449634552, 0.07189155369997025, 0.06961583346128464, 0.05390780046582222, 0.09028614312410355, 0.06726634502410889, 0.06990543752908707, 0.054679252207279205, 0.08371845632791519, 0.09605082869529724, 0.14110656082630157, 0.10730794817209244, 0.06354581564664841, 0.14467684924602509, 0.17283062636852264, 0.12353860586881638, 0.11536853015422821, 0.12412024289369583, 0.1608932614326477, 0.1293279230594635, 0.14143496751785278, 0.10051041096448898, 0.09817343205213547, 0.09399066865444183, 0.08312644809484482, 0.09445421397686005, 0.06784375011920929, 0.05635802075266838, 0.07137404382228851, 0.06409035623073578, 0.1116563156247139, 0.13740769028663635, 0.09971627593040466, 0.07201816886663437, 0.08640974014997482, 0.08165338635444641, 0.11009764671325684, 0.13093553483486176, 0.09603312611579895, 0.11537379771471024, 0.10622269660234451, 0.07184401899576187, 0.04686427488923073, 0.045427355915308, 0.057829711586236954, 0.07553669810295105, 0.09459041804075241, 0.12151531130075455, 0.14671151340007782, 0.1637381762266159, 0.12457724660634995, 0.15801554918289185, 0.2777617871761322, 0.1932380497455597, 0.30443358421325684, 0.1537841111421585, 0.15936163067817688, 0.19877028465270996, 0.29394465684890747, 0.24630355834960938, 0.2737717926502228, 0.26257452368736267, 0.19553054869174957, 0.1619379222393036, 0.19229000806808472, 0.10187377035617828, 0.07677067071199417, 0.06952042132616043, 0.08124474436044693, 0.046945471316576004, 0.06395791471004486, 0.1514952927827835, 0.13024933636188507, 0.10095895826816559, 0.08212552964687347, 0.062106095254421234, 0.08196084201335907, 0.07749222964048386, 0.06844251602888107, 0.05272090062499046, 0.07788053154945374, 0.09684335440397263, 0.09274555742740631, 0.12781940400600433, 0.08154098689556122, 0.07761497050523758, 0.06997879594564438, 0.053797584027051926, 0.06298186630010605, 0.03573324903845787, 0.04447963088750839, 0.0551803894340992, 0.028864098712801933, 0.0748366042971611, 0.08687490969896317, 0.068451888859272, 0.08219750225543976, 0.0848635584115982, 0.04840125888586044, 0.04071255773305893, 0.05530933290719986, 0.08864331990480423, 0.17286017537117004, 0.17338629066944122]</t>
+          <t>[0.09863939136266708, 0.1519256979227066, 0.1956365406513214, 0.20069821178913116, 0.27661728858947754, 0.24870365858078003, 0.285165399312973, 0.4045577347278595, 0.39579635858535767, 0.21432192623615265, 0.24853810667991638, 0.22411413490772247, 0.34958356618881226, 0.24916470050811768, 0.15715286135673523, 0.21796990931034088, 0.09613299369812012, 0.06015930697321892, 0.16247648000717163, 0.2753327190876007, 0.06774132698774338, 0.11865543574094772, 0.14449162781238556, 0.13281920552253723, 0.0580456517636776, 0.05786849185824394, 0.09775892645120621, 0.08202832192182541, 0.04016561433672905, 0.03529895842075348, 0.019858775660395622, 0.026816582307219505, 0.0314035564661026, 0.023448197171092033, 0.01767750456929207, 0.01176705863326788, 0.01789224147796631, 0.03737024590373039, 0.03834393247961998, 0.036955926567316055, 0.0498574823141098, 0.06683456897735596, 0.048112526535987854, 0.049901094287633896, 0.10428182780742645, 0.09302037954330444, 0.0865800678730011, 0.05774535983800888, 0.12424034625291824, 0.10401478409767151, 0.08064490556716919, 0.05140545219182968, 0.0904756560921669, 0.1196625828742981, 0.18076346814632416, 0.11854260414838791, 0.05195026472210884, 0.13832567632198334, 0.21553176641464233, 0.15420681238174438, 0.1471303552389145, 0.1622772067785263, 0.2299509346485138, 0.19246405363082886, 0.18337522447109222, 0.11747436225414276, 0.109054334461689, 0.11066529154777527, 0.08436461538076401, 0.08394243568181992, 0.04671839252114296, 0.03929537534713745, 0.057699717581272125, 0.04915129765868187, 0.1389959156513214, 0.20060329139232635, 0.1355009227991104, 0.0728113129734993, 0.08735483139753342, 0.08868411928415298, 0.12324817478656769, 0.15537697076797485, 0.11137952655553818, 0.14963984489440918, 0.12470308691263199, 0.08251962810754776, 0.04499140754342079, 0.039943378418684006, 0.05935954675078392, 0.08481842279434204, 0.11731217056512833, 0.1837044507265091, 0.20987701416015625, 0.23316380381584167, 0.15670137107372284, 0.3189370036125183, 0.44583776593208313, 0.2980799078941345, 0.5248611569404602, 0.22427049279212952, 0.2003401517868042, 0.30258095264434814, 0.4305269122123718, 0.416961669921875, 0.431440144777298, 0.3485896587371826, 0.2858429253101349, 0.26626744866371155, 0.281107097864151, 0.10320218652486801, 0.07112926244735718, 0.06695697456598282, 0.08436853438615799, 0.034586623311042786, 0.055137999355793, 0.25065264105796814, 0.2065896838903427, 0.140410915017128, 0.08374989777803421, 0.06382306665182114, 0.11716418713331223, 0.09085365384817123, 0.07712392508983612, 0.04155418276786804, 0.0861896201968193, 0.09702980518341064, 0.09145666658878326, 0.12315942347049713, 0.07504405081272125, 0.09801667928695679, 0.06910621374845505, 0.05709601566195488, 0.07255278527736664, 0.03863124921917915, 0.0406891368329525, 0.05542686954140663, 0.02566131204366684, 0.08156179636716843, 0.09479950368404388, 0.06850595027208328, 0.06344565004110336, 0.074785977602005, 0.04233671724796295, 0.03266462683677673, 0.03462034836411476, 0.07662773877382278, 0.18446999788284302, 0.18519467115402222]</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.3044335842132568</v>
+        <v>0.5248611569404602</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -1863,10 +1863,10 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.8457067999988794</v>
+        <v>0.8530144000105793</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005714235135127563</v>
+        <v>0.005763610810882292</v>
       </c>
     </row>
     <row r="34">
@@ -1885,11 +1885,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[0.50816810131073, 0.16057924926280975, 0.26537683606147766, 0.19006121158599854, 0.1378600299358368, 0.1148449033498764, 0.18070513010025024, 0.16250181198120117, 0.27568119764328003, 0.09404640644788742, 0.12204770743846893, 0.14960253238677979, 0.09777459502220154, 0.23710276186466217, 0.16860686242580414, 0.14984764158725739, 0.21748287975788116, 0.10759034752845764, 0.1433417648077011, 0.15246114134788513, 0.17064890265464783, 0.15207208693027496, 0.1323876827955246, 0.11573299765586853, 0.31495487689971924, 0.2485862821340561, 0.1605687439441681, 0.1464453935623169, 0.13803920149803162, 0.0883665457367897, 0.13204695284366608, 0.09566740691661835, 0.12675268948078156, 0.1612652689218521, 0.14157824218273163, 0.14316771924495697, 0.1399916559457779, 0.19892871379852295, 0.11288730055093765, 0.12509264051914215, 0.13947385549545288, 0.13116000592708588, 0.13222408294677734, 0.15032237768173218, 0.10746796429157257, 0.14241652190685272, 0.36311301589012146, 0.2520206868648529, 0.10647453367710114, 0.09516080468893051, 0.13024073839187622, 0.09915381669998169, 0.23092374205589294, 0.14842307567596436, 0.1544773280620575, 0.10616139322519302, 0.21739374101161957, 0.24276189506053925, 0.12090865522623062, 0.12738049030303955, 0.13944444060325623, 0.11390912532806396, 0.07005597651004791, 0.07344391196966171, 0.09918719530105591, 0.14559079706668854, 0.10877014696598053, 0.08684372901916504, 0.10046590864658356, 0.17314933240413666, 0.1858779340982437, 0.13004277646541595, 0.17541155219078064, 0.1494818478822708, 0.10871221125125885, 0.0877099558711052, 0.0930270105600357, 0.11981961131095886, 0.12856458127498627, 0.10217443853616714, 0.12232550978660583, 0.1658446490764618, 0.12646695971488953, 0.06753220409154892, 0.09057948738336563, 0.1407744437456131, 0.1960863173007965, 0.0980045348405838, 0.10596485435962677, 0.09350072592496872, 0.12283773720264435, 0.07736513763666153, 0.13777212798595428, 0.11299237608909607, 0.16553819179534912, 0.10813692957162857, 0.09225749224424362, 0.14293643832206726, 0.11966455727815628, 0.11598095297813416, 0.09285899251699448, 0.1097816675901413, 0.1400076299905777, 0.1990426629781723, 0.2791033089160919, 0.2519514858722687, 0.098103828728199, 0.08578173816204071, 0.1148359403014183, 0.14615923166275024, 0.1344238966703415, 0.11017164587974548, 0.13892091810703278, 0.1817321479320526, 0.2554866671562195, 0.11700276285409927, 0.16232453286647797, 0.1319831758737564, 0.20099346339702606, 0.20383884012699127, 0.2277137041091919, 0.2616020441055298, 0.13698315620422363, 0.12179804593324661, 0.13726109266281128, 0.10626804083585739, 0.14827178418636322, 0.061632607132196426, 0.06041276827454567, 0.057017967104911804, 0.09795942157506943, 0.09809228032827377]</t>
+          <t>[0.6248688697814941, 0.13670089840888977, 0.23692914843559265, 0.15751531720161438, 0.10244672000408173, 0.08452241122722626, 0.1373560130596161, 0.1356634646654129, 0.27164968848228455, 0.07815711945295334, 0.10396218299865723, 0.13544127345085144, 0.07032318413257599, 0.23727566003799438, 0.12873795628547668, 0.11664215475320816, 0.20623545348644257, 0.06995775550603867, 0.13860183954238892, 0.15226951241493225, 0.1451013684272766, 0.1103127971291542, 0.10183388739824295, 0.08217079937458038, 0.3136115074157715, 0.23013731837272644, 0.13740235567092896, 0.13777948915958405, 0.10405551642179489, 0.0641210675239563, 0.14149774610996246, 0.09691192209720612, 0.11160139739513397, 0.17428840696811676, 0.1348840892314911, 0.11744040995836258, 0.1412324607372284, 0.1889609396457672, 0.10548947006464005, 0.09110632538795471, 0.12999354302883148, 0.10618583112955093, 0.12129147350788116, 0.15781927108764648, 0.1180855855345726, 0.1383831650018692, 0.3421572148799896, 0.25559526681900024, 0.0951092466711998, 0.06545032560825348, 0.1343557983636856, 0.07798339426517487, 0.28948095440864563, 0.1598384827375412, 0.14346832036972046, 0.07947374880313873, 0.1679982990026474, 0.25606614351272583, 0.11795798689126968, 0.14263403415679932, 0.12714159488677979, 0.08418267965316772, 0.046348873525857925, 0.04977614805102348, 0.06929027289152145, 0.10990706086158752, 0.07801731675863266, 0.061635762453079224, 0.07306759804487228, 0.21033334732055664, 0.2113596647977829, 0.11037536710500717, 0.1601477563381195, 0.13644316792488098, 0.09954959899187088, 0.07389336824417114, 0.06128910556435585, 0.09969989955425262, 0.08863409608602524, 0.07003352046012878, 0.08522450178861618, 0.14572156965732574, 0.10439057648181915, 0.052708785980939865, 0.0824957862496376, 0.12464801222085953, 0.17797787487506866, 0.0743742361664772, 0.10064373910427094, 0.07991302758455276, 0.10850612074136734, 0.07015271484851837, 0.13241006433963776, 0.09031615406274796, 0.13049721717834473, 0.08755641430616379, 0.0875491201877594, 0.13232499361038208, 0.11917851120233536, 0.11945369839668274, 0.07901652902364731, 0.10485004633665085, 0.1364920437335968, 0.2360076755285263, 0.37109488248825073, 0.29266640543937683, 0.0631047934293747, 0.06897703558206558, 0.07141236960887909, 0.09996194392442703, 0.11415322870016098, 0.0870109498500824, 0.1707828789949417, 0.22633178532123566, 0.2602726221084595, 0.09930426627397537, 0.17855219542980194, 0.12777189910411835, 0.2210085391998291, 0.23335209488868713, 0.3623169958591461, 0.3415886163711548, 0.26461437344551086, 0.12120319902896881, 0.15046237409114838, 0.1952117383480072, 0.2193383127450943, 0.0700787678360939, 0.06636682152748108, 0.052293822169303894, 0.10214313119649887, 0.10197070986032486]</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.50816810131073</v>
+        <v>0.6248688697814941</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1903,10 +1903,10 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0.7675396999984514</v>
+        <v>0.7955494999914663</v>
       </c>
       <c r="J34" t="n">
-        <v>0.005814694696957965</v>
+        <v>0.006026890151450502</v>
       </c>
     </row>
     <row r="35">
@@ -1925,11 +1925,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[0.43096816539764404, 0.2431247979402542, 0.31272223591804504, 0.16128422319889069, 0.41525185108184814, 0.2907703220844269, 0.32756903767585754, 0.21398311853408813, 0.2365948110818863, 0.1230621188879013, 0.15740053355693817, 0.17441727221012115, 0.16351132094860077, 0.17278297245502472, 0.2966565489768982, 0.3325318396091461, 0.1910766363143921, 0.6693822145462036, 0.3200392425060272, 0.17314819991588593, 0.43522748351097107, 0.43870365619659424, 0.30405673384666443, 0.23091937601566315, 0.13527534902095795, 0.13301974534988403, 0.15382717549800873, 0.1659640222787857, 0.12269656360149384, 0.16361531615257263, 0.13025878369808197, 0.21399830281734467, 0.06881074607372284, 0.07975079119205475, 0.1007678285241127, 0.13642476499080658, 0.1640056073665619, 0.08706441521644592, 0.1042540967464447, 0.10038906335830688, 0.13592566549777985, 0.18672484159469604, 0.16827630996704102, 0.23167060315608978, 0.14565420150756836, 0.09440983086824417, 0.12976773083209991, 0.09658943116664886, 0.0804395079612732, 0.11144299060106277, 0.09005561470985413, 0.08581267297267914, 0.08139988034963608, 0.05897277966141701, 0.12601236999034882, 0.13314667344093323, 0.1481936275959015, 0.18091300129890442, 0.17802047729492188, 0.19436901807785034, 0.37036845088005066, 0.2722509205341339, 0.22930586338043213, 0.22335264086723328, 0.27457159757614136, 0.19810111820697784, 0.20449280738830566, 0.11912360042333603, 0.12943755090236664, 0.12249846756458282, 0.08940190821886063, 0.09136855602264404, 0.1098078116774559, 0.16608095169067383, 0.1747688502073288, 0.11306334286928177, 0.1304256170988083, 0.10479390621185303, 0.1029890850186348, 0.1622759848833084, 0.1031770408153534, 0.10892373323440552, 0.18211455643177032, 0.15428835153579712, 0.19286198914051056, 0.11859442293643951, 0.10011892020702362, 0.1138668954372406, 0.09171077609062195, 0.11981023848056793, 0.1417144536972046, 0.14843499660491943, 0.13992592692375183, 0.18396076560020447, 0.16719287633895874, 0.11308375746011734, 0.14999864995479584, 0.14435240626335144, 0.14477047324180603, 0.1417306810617447, 0.17027541995048523, 0.12185865640640259, 0.16343195736408234, 0.20858673751354218, 0.22863011062145233, 0.35102927684783936, 0.3330216109752655, 0.18515056371688843, 0.1062052845954895, 0.34942230582237244, 0.22112706303596497, 0.2852700650691986, 0.31677696108818054, 0.2363453060388565, 0.17592662572860718, 0.24961331486701965, 0.2844320237636566, 0.36047232151031494, 0.2647947072982788, 0.43178361654281616, 0.26307231187820435, 0.1786150187253952, 0.21854005753993988, 0.26789239048957825, 0.2447962462902069, 0.20910963416099548, 0.1803583949804306, 0.17640593647956848, 0.2673354148864746, 0.1541764736175537, 0.22820527851581573, 0.22816549241542816]</t>
+          <t>[0.4582371115684509, 0.3061085343360901, 0.41663482785224915, 0.13701511919498444, 0.4947925806045532, 0.3540816009044647, 0.3556123375892639, 0.1579144150018692, 0.2234657108783722, 0.06514148414134979, 0.11899945884943008, 0.1662691980600357, 0.21105441451072693, 0.181910440325737, 0.3646795451641083, 0.5541660189628601, 0.13002550601959229, 0.8038312196731567, 0.38209614157676697, 0.14319398999214172, 0.5282743573188782, 0.5888640284538269, 0.33590859174728394, 0.2241341471672058, 0.07769238203763962, 0.06470304727554321, 0.05201299116015434, 0.07945907115936279, 0.062060944736003876, 0.11521165817975998, 0.13781116902828217, 0.3284340500831604, 0.0601460337638855, 0.04689755290746689, 0.07836170494556427, 0.13166171312332153, 0.14742781221866608, 0.07584106177091599, 0.07969401031732559, 0.04981909692287445, 0.10367132723331451, 0.24412940442562103, 0.20557504892349243, 0.3825962543487549, 0.18406599760055542, 0.09250164031982422, 0.14230334758758545, 0.0834992527961731, 0.060267042368650436, 0.07823114097118378, 0.0641760528087616, 0.03700704500079155, 0.03259802609682083, 0.034651972353458405, 0.07182256132364273, 0.07036972045898438, 0.06869526207447052, 0.08695199340581894, 0.11451167613267899, 0.09932900965213776, 0.34135428071022034, 0.2022852748632431, 0.1516331285238266, 0.1398610770702362, 0.21352115273475647, 0.09085053950548172, 0.1317654699087143, 0.05383003130555153, 0.055474504828453064, 0.06340761482715607, 0.040133312344551086, 0.03669598698616028, 0.04617803916335106, 0.07809212803840637, 0.08666561543941498, 0.06782769411802292, 0.05677012354135513, 0.04312945902347565, 0.04608999192714691, 0.10838592052459717, 0.04572511464357376, 0.06956108659505844, 0.13546736538410187, 0.09881773591041565, 0.15906675159931183, 0.06824932992458344, 0.06794130802154541, 0.07624964416027069, 0.05272035300731659, 0.0590093769133091, 0.08261983096599579, 0.09777548909187317, 0.0677390992641449, 0.09950785338878632, 0.07458938658237457, 0.04381423071026802, 0.08616513013839722, 0.07089601457118988, 0.08473961800336838, 0.09243343770503998, 0.10029194504022598, 0.06389076262712479, 0.10083494335412979, 0.175496906042099, 0.16516466438770294, 0.3165441155433655, 0.38621604442596436, 0.198404923081398, 0.07532006502151489, 0.27356651425361633, 0.11898728460073471, 0.20734913647174835, 0.247162863612175, 0.13407376408576965, 0.12139861285686493, 0.16390089690685272, 0.23151728510856628, 0.3245864510536194, 0.2309480905532837, 0.5037809610366821, 0.11637071520090103, 0.08116575330495834, 0.12474004924297333, 0.26544028520584106, 0.1632523089647293, 0.16815507411956787, 0.10324942320585251, 0.11128538101911545, 0.208448588848114, 0.09584686905145645, 0.18752947449684143, 0.1872224509716034]</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.6693822145462036</v>
+        <v>0.8038312196731567</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0.7541554999770597</v>
+        <v>0.7556608000013512</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005713299242250452</v>
+        <v>0.005724703030313266</v>
       </c>
     </row>
     <row r="36">
@@ -1965,11 +1965,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[0.6761555075645447, 0.5835891366004944, 0.6711704730987549, 0.4203108549118042, 0.5192239880561829, 0.4868466556072235, 0.3985191881656647, 0.45387864112854004, 0.48035797476768494, 0.3969433307647705, 0.25864505767822266, 0.15153522789478302, 0.4234706163406372, 0.55214923620224, 0.4461389482021332, 0.37397775053977966, 0.49623605608940125, 0.46954280138015747, 0.43161994218826294, 0.3719141483306885, 0.468929260969162, 0.5073877573013306, 0.5759433507919312, 0.43824490904808044, 0.3659464418888092, 0.31218814849853516, 0.5157190561294556, 0.5519810318946838, 0.5911590456962585, 0.5458979606628418, 0.5615809559822083, 0.4421445429325104, 0.4542739987373352, 0.44004708528518677, 0.26675179600715637, 0.22269940376281738, 0.170354962348938, 0.30229246616363525, 0.3916715383529663, 0.418471097946167, 0.34598681330680847, 0.36504635214805603, 0.509922981262207, 0.4663007855415344, 0.3371216654777527, 0.4502701461315155, 0.4596047103404999, 0.5639421343803406, 0.648415207862854, 0.6142828464508057, 0.5203606486320496, 0.5073810815811157, 0.4387909770011902, 0.42037153244018555, 0.7417488694190979, 0.7530845403671265, 0.6684461832046509, 0.6966562867164612, 0.6719968318939209, 0.6772028207778931, 0.80168217420578, 0.605444610118866, 0.5615569353103638, 0.7286341786384583, 0.7469019293785095, 0.7018014788627625, 0.5044007301330566, 0.511369526386261, 0.5781741142272949, 0.4321805238723755, 0.5060029625892639, 0.3579833209514618, 0.5220546126365662, 0.40312209725379944, 0.3761169910430908, 0.41793420910835266, 0.45296451449394226, 0.4303604066371918, 0.42158976197242737, 0.6334539651870728, 0.8187160491943359, 0.7887464761734009, 0.5737219452857971, 0.8631505370140076, 0.6182658672332764, 0.5725662112236023, 0.4980403780937195, 0.6187874674797058, 0.3165540099143982, 0.31856054067611694, 0.6302701830863953, 0.6970167756080627, 0.758245050907135, 0.7551859617233276, 0.6194100379943848, 0.7822231650352478, 0.7017703652381897, 0.722758412361145, 0.6251411437988281, 0.6031321287155151, 0.70512455701828, 0.6832070350646973, 0.6817663908004761, 0.6709117889404297, 0.6994431614875793, 0.67570561170578, 0.621168851852417, 0.655811607837677, 0.7074946165084839, 0.5799617171287537, 0.6929932236671448, 0.720417320728302, 0.4963361620903015, 0.6556840538978577, 0.6498769521713257, 0.8190171718597412, 0.5869147181510925, 0.613576352596283, 0.6188912391662598, 0.5441965460777283, 0.4187085032463074, 0.5929871797561646, 0.6588013172149658, 0.44289499521255493, 0.3429436981678009, 0.7123570442199707, 0.6224827766418457, 0.6128614544868469, 0.6805498600006104, 0.7029476761817932, 0.6457157731056213, 0.64525306224823]</t>
+          <t>[0.8514460325241089, 0.7363558411598206, 0.8427348732948303, 0.5298317670822144, 0.6285959482192993, 0.637633204460144, 0.48698151111602783, 0.6827915906906128, 0.677544355392456, 0.518096923828125, 0.24789635837078094, 0.13789772987365723, 0.5280995965003967, 0.6989142894744873, 0.5381057262420654, 0.43592891097068787, 0.558405876159668, 0.5284320712089539, 0.4648442268371582, 0.3522573411464691, 0.49538543820381165, 0.571735143661499, 0.689491868019104, 0.5646567940711975, 0.46535468101501465, 0.35054370760917664, 0.5963813066482544, 0.6589633226394653, 0.7690898776054382, 0.7400516271591187, 0.5934019684791565, 0.48377329111099243, 0.5440943241119385, 0.5180108547210693, 0.21273280680179596, 0.17477846145629883, 0.11378691345453262, 0.2620919942855835, 0.4874494969844818, 0.5962468385696411, 0.41886401176452637, 0.5073158144950867, 0.6235411167144775, 0.5068108439445496, 0.39492303133010864, 0.5694810748100281, 0.5706204771995544, 0.6082754731178284, 0.7578023076057434, 0.7125892639160156, 0.551157534122467, 0.5298148393630981, 0.3724033534526825, 0.39875534176826477, 0.8206531405448914, 0.8650192618370056, 0.7369959354400635, 0.8127288222312927, 0.7718237638473511, 0.7493472695350647, 0.85857093334198, 0.6316892504692078, 0.6625673770904541, 0.8215380907058716, 0.8574120402336121, 0.7452455759048462, 0.4709518551826477, 0.552599310874939, 0.6502916812896729, 0.3867969810962677, 0.517697811126709, 0.27131959795951843, 0.46085843443870544, 0.34119197726249695, 0.2795477509498596, 0.45632752776145935, 0.46542835235595703, 0.5691909193992615, 0.4622790217399597, 0.7050728797912598, 0.8774015307426453, 0.8161282539367676, 0.5294750332832336, 0.9197183847427368, 0.6381552219390869, 0.536338746547699, 0.426652729511261, 0.7177619934082031, 0.2925923466682434, 0.2806837260723114, 0.7048376202583313, 0.74348384141922, 0.8357736468315125, 0.7659122943878174, 0.5814163088798523, 0.8168314099311829, 0.7661803960800171, 0.798480212688446, 0.6616367101669312, 0.5315172076225281, 0.7731227874755859, 0.7669553160667419, 0.7415454387664795, 0.7047719359397888, 0.7531912326812744, 0.682050347328186, 0.616472601890564, 0.6819301843643188, 0.7423413395881653, 0.5954236388206482, 0.6978601813316345, 0.7820733785629272, 0.4194531738758087, 0.6406345367431641, 0.6336709260940552, 0.8803484439849854, 0.6619296669960022, 0.6614702343940735, 0.6713804006576538, 0.5760428309440613, 0.5499707460403442, 0.6185436844825745, 0.8147505521774292, 0.4890536069869995, 0.28249847888946533, 0.7641163468360901, 0.7180967330932617, 0.6251946091651917, 0.665680468082428, 0.7573441863059998, 0.724851667881012, 0.7239184975624084]</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.8631505370140076</v>
+        <v>0.9197183847427368</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1983,10 +1983,10 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0.7516315000248142</v>
+        <v>0.7709439000027487</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005694178030491016</v>
+        <v>0.005840484090929915</v>
       </c>
     </row>
     <row r="37">
@@ -2005,11 +2005,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[0.21249349415302277, 0.08552202582359314, 0.18219777941703796, 0.09884956479072571, 0.12798912823200226, 0.18536964058876038, 0.13785648345947266, 0.0418403334915638, 0.11508820205926895, 0.05127870664000511, 0.2180006355047226, 0.20148839056491852, 0.1071624681353569, 0.1004929468035698, 0.18042884767055511, 0.046938207000494, 0.22006727755069733, 0.3148106634616852, 0.18167155981063843, 0.06410760432481766, 0.3139474391937256, 0.24018552899360657, 0.17004312574863434, 0.3496178686618805, 0.21779678761959076, 0.27194488048553467, 0.1901020109653473, 0.20430345833301544, 0.08334937691688538, 0.14325572550296783, 0.20784907042980194, 0.3613395094871521, 0.4088161885738373, 0.30073025822639465, 0.32345050573349, 0.30267825722694397, 0.08560200780630112, 0.3308282494544983, 0.3432045578956604, 0.5153152942657471, 0.267195463180542, 0.19310109317302704, 0.05146225169301033, 0.04228511452674866, 0.09351031482219696, 0.13954901695251465, 0.18750430643558502, 0.06945322453975677, 0.0962652787566185, 0.07387059181928635, 0.11888053268194199, 0.08114390075206757, 0.0536130927503109, 0.1382264345884323, 0.10282617807388306, 0.08741435408592224, 0.12073946744203568, 0.25509345531463623, 0.18923421204090118, 0.13752713799476624, 0.19873283803462982, 0.6121479272842407, 0.22932720184326172, 0.06823582947254181, 0.09789316356182098, 0.25705552101135254, 0.29926803708076477, 0.11903265863656998, 0.08134786784648895, 0.06667175143957138, 0.04989806190133095, 0.0762922614812851, 0.07335422188043594, 0.0607886016368866, 0.09546111524105072, 0.3263179659843445, 0.6730333566665649, 0.2295292615890503, 0.08955816179513931, 0.06892023235559464, 0.0998140275478363, 0.09866538643836975, 0.18412496149539948, 0.17267759144306183, 0.0997990220785141, 0.0562560148537159, 0.1959976702928543, 0.12257099151611328, 0.22691233456134796, 0.07466215640306473, 0.048191510140895844, 0.052010517567396164, 0.08972872793674469, 0.08016689121723175, 0.060266684740781784, 0.1599481850862503, 0.3002169728279114, 0.22110459208488464, 0.13435699045658112, 0.222050279378891, 0.07105531543493271, 0.15731804072856903, 0.1310211420059204, 0.15188267827033997, 0.09093349426984787, 0.17185929417610168, 0.11850656569004059, 0.1604020744562149, 0.1276831328868866, 0.31779351830482483, 0.06156506761908531, 0.0873527079820633, 0.043200861662626266, 0.060928016901016235, 0.05949678644537926, 0.45219704508781433, 0.047398641705513, 0.1833389848470688, 0.04557310789823532, 0.05490773916244507, 0.15129931271076202, 0.09477093070745468, 0.02790815383195877, 0.03507739305496216, 0.03438930958509445, 0.04010367393493652, 0.04907357320189476, 0.20502065122127533, 0.061097338795661926, 0.05659577623009682, 0.09592614322900772, 0.09587749093770981]</t>
+          <t>[0.38066473603248596, 0.12494280934333801, 0.4037838578224182, 0.1751982569694519, 0.23995931446552277, 0.2644807994365692, 0.1871110051870346, 0.05784379690885544, 0.16555112600326538, 0.05058709532022476, 0.19642683863639832, 0.226701557636261, 0.07580522447824478, 0.07873626798391342, 0.14251431822776794, 0.0348430760204792, 0.23170863091945648, 0.43014729022979736, 0.17253339290618896, 0.04545134678483009, 0.41166427731513977, 0.24160443246364594, 0.2234174907207489, 0.5631626844406128, 0.2966202199459076, 0.3531135320663452, 0.22300410270690918, 0.3022480010986328, 0.09189556539058685, 0.21679073572158813, 0.2930901050567627, 0.4650658965110779, 0.5274222493171692, 0.405882865190506, 0.3931677043437958, 0.46789851784706116, 0.06768695265054703, 0.4052284061908722, 0.4473475217819214, 0.7169166207313538, 0.38151997327804565, 0.2358737587928772, 0.04211978614330292, 0.028617223724722862, 0.06663938611745834, 0.09324806183576584, 0.21965338289737701, 0.06037338450551033, 0.08554629981517792, 0.0517897792160511, 0.15000303089618683, 0.041979074478149414, 0.019927186891436577, 0.1182653158903122, 0.05732980743050575, 0.06601272523403168, 0.09736062586307526, 0.28991955518722534, 0.12216192483901978, 0.16745905578136444, 0.2127191573381424, 0.7675077319145203, 0.24310609698295593, 0.05075760930776596, 0.06739695370197296, 0.2568080425262451, 0.2852395176887512, 0.10779768228530884, 0.08153686672449112, 0.06900987774133682, 0.0514436811208725, 0.050564441829919815, 0.05292583629488945, 0.03789709508419037, 0.07361312210559845, 0.2988422214984894, 0.774314820766449, 0.3363484740257263, 0.06802427768707275, 0.04518628865480423, 0.10254885256290436, 0.07397044450044632, 0.17234504222869873, 0.21935664117336273, 0.13140101730823517, 0.06334862858057022, 0.1883053183555603, 0.08255735784769058, 0.20958229899406433, 0.04847022891044617, 0.025901271030306816, 0.03218613937497139, 0.07412271201610565, 0.06786579638719559, 0.05313408374786377, 0.08874613791704178, 0.2175714671611786, 0.15066790580749512, 0.11667969822883606, 0.2808462977409363, 0.056661881506443024, 0.18120037019252777, 0.11389467120170593, 0.1694319248199463, 0.10740473866462708, 0.2120668888092041, 0.1427140235900879, 0.1327134072780609, 0.09092819690704346, 0.22677820920944214, 0.038515783846378326, 0.07407508790493011, 0.033356837928295135, 0.04904705286026001, 0.05473034083843231, 0.710091769695282, 0.027681555598974228, 0.23415294289588928, 0.046036653220653534, 0.04775138944387436, 0.27703091502189636, 0.10873225331306458, 0.0181681327521801, 0.017841877415776253, 0.014574386179447174, 0.023786282166838646, 0.049307115375995636, 0.22961845993995667, 0.04777781292796135, 0.052922479808330536, 0.07872733473777771, 0.0789140909910202]</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.6730333566665649</v>
+        <v>0.774314820766449</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -2023,10 +2023,10 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0.749677799991332</v>
+        <v>0.7725954000052297</v>
       </c>
       <c r="J37" t="n">
-        <v>0.005679377272661606</v>
+        <v>0.005852995454585074</v>
       </c>
     </row>
     <row r="38">
@@ -2045,11 +2045,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[0.08889400959014893, 0.13017013669013977, 0.061051398515701294, 0.08079960197210312, 0.05190829932689667, 0.1527249813079834, 0.10097697377204895, 0.0637606531381607, 0.12130013108253479, 0.08694636821746826, 0.09593214839696884, 0.10642153024673462, 0.04461377114057541, 0.08473236113786697, 0.10189925134181976, 0.08055669814348221, 0.13133284449577332, 0.18590699136257172, 0.09078894555568695, 0.0738447904586792, 0.10615503787994385, 0.06393827497959137, 0.04085038602352142, 0.09902004897594452, 0.18201200664043427, 0.39646875858306885, 0.10100337862968445, 0.20175175368785858, 0.11754556000232697, 0.08810330927371979, 0.08624649792909622, 0.06138184294104576, 0.08128656446933746, 0.06202344968914986, 0.04039786756038666, 0.03692445158958435, 0.03435973450541496, 0.032834142446517944, 0.02738938480615616, 0.044928595423698425, 0.04664304479956627, 0.05665721744298935, 0.05586298555135727, 0.07268281280994415, 0.03889067471027374, 0.04820343106985092, 0.04303313046693802, 0.05620765686035156, 0.08842957764863968, 0.07807943969964981, 0.06544443219900131, 0.08431068807840347, 0.08696240931749344, 0.07248998433351517, 0.06262136250734329, 0.06810049712657928, 0.08026519417762756, 0.10438833385705948, 0.08442406356334686, 0.14512856304645538, 0.11585679650306702, 0.15066535770893097, 0.1512504518032074, 0.10120689123868942, 0.10301473736763, 0.10875952243804932, 0.0791788175702095, 0.08058981597423553, 0.061124399304389954, 0.09028856456279755, 0.09638094156980515, 0.09742522984743118, 0.2108977735042572, 0.177994504570961, 0.217267245054245, 0.1491992473602295, 0.08710615336894989, 0.13107210397720337, 0.10984160751104355, 0.11880951374769211, 0.13995668292045593, 0.1146867647767067, 0.1387169361114502, 0.09097368270158768, 0.11082511395215988, 0.09929242730140686, 0.17596004903316498, 0.07221855223178864, 0.08307510614395142, 0.07220827043056488, 0.10021129995584488, 0.14419788122177124, 0.11626021564006805, 0.11965687572956085, 0.0885624960064888, 0.08109533041715622, 0.08314944058656693, 0.13748449087142944, 0.12700891494750977, 0.0974978506565094, 0.13619515299797058, 0.09827069193124771, 0.14650149643421173, 0.1176961362361908, 0.14484530687332153, 0.15621107816696167, 0.10639167577028275, 0.13107387721538544, 0.1687382161617279, 0.1909002959728241, 0.12177549302577972, 0.12975047528743744, 0.1412775069475174, 0.10595345497131348, 0.14812813699245453, 0.14172397553920746, 0.09581912308931351, 0.09948069602251053, 0.09535131603479385, 0.06331852823495865, 0.053339943289756775, 0.17290927469730377, 0.20573651790618896, 0.18089808523654938, 0.1424790769815445, 0.19743379950523376, 0.12418213486671448, 0.15667873620986938, 0.15622170269489288, 0.15626999735832214, 0.10234585404396057, 0.10276574641466141]</t>
+          <t>[0.13022644817829132, 0.25399938225746155, 0.08437009155750275, 0.11361468583345413, 0.06887668371200562, 0.28608766198158264, 0.11309778690338135, 0.08089587837457657, 0.19947078824043274, 0.12708859145641327, 0.18941642343997955, 0.2462974339723587, 0.053419169038534164, 0.1481645107269287, 0.15377011895179749, 0.08016256988048553, 0.19001927971839905, 0.20626568794250488, 0.09550102800130844, 0.05977442115545273, 0.09740964323282242, 0.06800589710474014, 0.02501572109758854, 0.11635338515043259, 0.2501639723777771, 0.7550604939460754, 0.10325843095779419, 0.46532124280929565, 0.17335696518421173, 0.10928785800933838, 0.09419453889131546, 0.06637192517518997, 0.12331006675958633, 0.07859505712985992, 0.031872108578681946, 0.02797889895737171, 0.03338378667831421, 0.02142339013516903, 0.019528845325112343, 0.03673292696475983, 0.03394787386059761, 0.04506799951195717, 0.046758659183979034, 0.07267504185438156, 0.039463773369789124, 0.04127658158540726, 0.03404078632593155, 0.049810741096735, 0.10455605387687683, 0.07348321378231049, 0.07738178223371506, 0.12139736860990524, 0.10200333595275879, 0.06064360961318016, 0.056990738958120346, 0.08851385116577148, 0.082431361079216, 0.13895216584205627, 0.09315543621778488, 0.21070674061775208, 0.17744800448417664, 0.22224795818328857, 0.19978810846805573, 0.13098584115505219, 0.17044825851917267, 0.13689664006233215, 0.09656001627445221, 0.10197855532169342, 0.06636690348386765, 0.0994434729218483, 0.10469881445169449, 0.15146151185035706, 0.3550434112548828, 0.23367880284786224, 0.359050452709198, 0.24577030539512634, 0.13722014427185059, 0.21929225325584412, 0.1498454064130783, 0.20722830295562744, 0.2003846913576126, 0.1260337382555008, 0.20855316519737244, 0.11215244978666306, 0.178754523396492, 0.12541848421096802, 0.26146066188812256, 0.06337559968233109, 0.07843846827745438, 0.07400022447109222, 0.11778038740158081, 0.17895443737506866, 0.14352922141551971, 0.16217215359210968, 0.13602276146411896, 0.10734771192073822, 0.0877857431769371, 0.13474105298519135, 0.18022678792476654, 0.11289101839065552, 0.1977206915616989, 0.10927039384841919, 0.19927042722702026, 0.1328573077917099, 0.20376195013523102, 0.18389034271240234, 0.15081797540187836, 0.17190760374069214, 0.23775817453861237, 0.2754339575767517, 0.114712193608284, 0.15982837975025177, 0.18001532554626465, 0.1051936149597168, 0.14770254492759705, 0.14584487676620483, 0.10447379946708679, 0.10803966224193573, 0.11663191020488739, 0.04788981005549431, 0.039720650762319565, 0.2443651556968689, 0.3221553862094879, 0.2541149854660034, 0.14823871850967407, 0.33707892894744873, 0.1346767693758011, 0.19613797962665558, 0.17000848054885864, 0.20276284217834473, 0.102022185921669, 0.10221973806619644]</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.3964687585830688</v>
+        <v>0.7550604939460754</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0.7500611000286881</v>
+        <v>0.7509758000087459</v>
       </c>
       <c r="J38" t="n">
-        <v>0.005682281060823395</v>
+        <v>0.005689210606126862</v>
       </c>
     </row>
     <row r="39">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[0.19506345689296722, 0.22789977490901947, 0.07622039318084717, 0.0965980812907219, 0.19512687623500824, 0.11873869597911835, 0.08021236956119537, 0.14835569262504578, 0.196663498878479, 0.31769075989723206, 0.11734852939844131, 0.1589479297399521, 0.11396831274032593, 0.06573459506034851, 0.08099816739559174, 0.09803120046854019, 0.2594936490058899, 0.1627315729856491, 0.11275940388441086, 0.11330296099185944, 0.177553191781044, 0.09755466133356094, 0.26947277784347534, 0.2606714069843292, 0.24720482528209686, 0.16886407136917114, 0.436422735452652, 0.12126211076974869, 0.10859653353691101, 0.21013522148132324, 0.3331683874130249, 0.20459753274917603, 0.15123075246810913, 0.1846800297498703, 0.10521300137042999, 0.0808873325586319, 0.11951835453510284, 0.08473751693964005, 0.0964871197938919, 0.12549100816249847, 0.11970514059066772, 0.18458634614944458, 0.09410963207483292, 0.08731705695390701, 0.2260836362838745, 0.14688850939273834, 0.10851297527551651, 0.14535453915596008, 0.1186765730381012, 0.20295771956443787, 0.08130105584859848, 0.07965558767318726, 0.13921749591827393, 0.10238391160964966, 0.05428406223654747, 0.14750294387340546, 0.1793639361858368, 0.11289328336715698, 0.11555974930524826, 0.13454130291938782, 0.1969880610704422, 0.09289544075727463, 0.09506624191999435, 0.14928123354911804, 0.08694623410701752, 0.14813226461410522, 0.11683805286884308, 0.09135498851537704, 0.10584382712841034, 0.057663287967443466, 0.0864391177892685, 0.0779375210404396, 0.09634193032979965, 0.0883273184299469, 0.0869227722287178, 0.05228976160287857, 0.06696199625730515, 0.10352448374032974, 0.06642843037843704, 0.09704739600419998, 0.07629838585853577, 0.07942453026771545, 0.07563409954309464, 0.0912373811006546, 0.13228359818458557, 0.12155665457248688, 0.10357239842414856, 0.1613588184118271, 0.11818694323301315, 0.10798494517803192, 0.07874905318021774, 0.250122606754303, 0.21317000687122345, 0.22852857410907745, 0.08512592315673828, 0.056955788284540176, 0.1478240191936493, 0.09682334214448929, 0.14368830621242523, 0.06279776990413666, 0.07964930683374405, 0.07239305227994919, 0.14187000691890717, 0.14662016928195953, 0.11435933411121368, 0.15797363221645355, 0.10687749087810516, 0.10527189075946808, 0.10215447098016739, 0.17765894532203674, 0.30130934715270996, 0.09462985396385193, 0.08740025758743286, 0.29463595151901245, 0.26820066571235657, 0.11256437003612518, 0.06843076646327972, 0.10796071588993073, 0.06804805994033813, 0.053644463419914246, 0.10960046201944351, 0.19703128933906555, 0.09768398106098175, 0.1391429603099823, 0.11844637989997864, 0.060867421329021454, 0.04686865210533142, 0.053161125630140305, 0.07597808539867401, 0.08278343826532364, 0.11586786061525345, 0.11547357589006424]</t>
+          <t>[0.13674859702587128, 0.2142356038093567, 0.03722761198878288, 0.05248814821243286, 0.18217480182647705, 0.08511906117200851, 0.042985592037439346, 0.07220591604709625, 0.1581738144159317, 0.2765922248363495, 0.07180824875831604, 0.15047700703144073, 0.10345197468996048, 0.051867224276065826, 0.1015177071094513, 0.0743037611246109, 0.296045184135437, 0.20428481698036194, 0.07342734932899475, 0.07317932695150375, 0.21976913511753082, 0.07875162363052368, 0.31253162026405334, 0.22493958473205566, 0.2764291763305664, 0.14271239936351776, 0.6189183592796326, 0.13182541728019714, 0.08628019690513611, 0.1883912831544876, 0.32639279961586, 0.1549074798822403, 0.10948391258716583, 0.147650346159935, 0.06901301443576813, 0.04763970524072647, 0.08366105705499649, 0.06396928429603577, 0.07939332723617554, 0.13220149278640747, 0.13744723796844482, 0.17752154171466827, 0.08259226381778717, 0.04815680906176567, 0.20285679399967194, 0.10545343905687332, 0.0827142745256424, 0.09967095404863358, 0.09280796349048615, 0.18430599570274353, 0.06394897401332855, 0.049921609461307526, 0.13579046726226807, 0.09410098940134048, 0.04057106748223305, 0.16935667395591736, 0.17591363191604614, 0.14312225580215454, 0.1946357786655426, 0.11236929148435593, 0.1884979009628296, 0.07848982512950897, 0.08423614501953125, 0.1012091264128685, 0.06843234598636627, 0.1585140824317932, 0.10591166466474533, 0.08411700278520584, 0.07807323336601257, 0.031292106956243515, 0.04582724720239639, 0.05048017203807831, 0.07722563296556473, 0.07395391911268234, 0.06031874939799309, 0.028221942484378815, 0.044639069586992264, 0.08747954666614532, 0.04958963021636009, 0.07688965648412704, 0.04654528573155403, 0.04902014508843422, 0.033112477511167526, 0.07257775962352753, 0.10617049038410187, 0.1466834545135498, 0.08170870691537857, 0.1406756490468979, 0.07614850997924805, 0.0774180069565773, 0.053624995052814484, 0.21019072830677032, 0.15058018267154694, 0.18322362005710602, 0.05292236804962158, 0.030628681182861328, 0.11977609246969223, 0.06176088750362396, 0.09859225153923035, 0.04553965851664543, 0.06082608550786972, 0.04354551061987877, 0.09489895403385162, 0.09286785870790482, 0.08311241865158081, 0.11247104406356812, 0.050688955932855606, 0.06466945260763168, 0.0780506581068039, 0.22744129598140717, 0.29870447516441345, 0.06354133784770966, 0.045718707144260406, 0.3282284438610077, 0.24941600859165192, 0.08651076257228851, 0.03878822177648544, 0.0760582685470581, 0.04358411952853203, 0.029661284759640694, 0.07008834928274155, 0.1998627483844757, 0.05669001117348671, 0.10705794394016266, 0.0755615308880806, 0.02816837467253208, 0.025044003501534462, 0.030004557222127914, 0.0493144765496254, 0.06366553902626038, 0.07666108012199402, 0.07604361325502396]</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.436422735452652</v>
+        <v>0.6189183592796326</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0.7590507999993861</v>
+        <v>0.759624199999962</v>
       </c>
       <c r="J39" t="n">
-        <v>0.005750384848480197</v>
+        <v>0.0057547287878785</v>
       </c>
     </row>
     <row r="40">
@@ -2125,11 +2125,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[0.42276787757873535, 0.8493566513061523, 0.3239127993583679, 0.49950000643730164, 0.26837030053138733, 0.30138805508613586, 0.4100356996059418, 0.2466271072626114, 0.5947313904762268, 0.5877442955970764, 0.5048538446426392, 0.6823202967643738, 0.369568407535553, 0.4024646282196045, 0.28176337480545044, 0.13541266322135925, 0.11697850376367569, 0.13661494851112366, 0.3017178773880005, 0.25867676734924316, 0.32165494561195374, 0.5554810166358948, 0.45152440667152405, 0.21674001216888428, 0.21545375883579254, 0.4736471474170685, 0.19777518510818481, 0.15977327525615692, 0.26992470026016235, 0.4813940227031708, 0.2615644335746765, 0.2302737981081009, 0.1647213250398636, 0.27002832293510437, 0.12537506222724915, 0.2635529935359955, 0.06779461354017258, 0.114334337413311, 0.16053952276706696, 0.14646831154823303, 0.3391730487346649, 0.34607937932014465, 0.2894679009914398, 0.5011118650436401, 0.5225520133972168, 0.3101634085178375, 0.24554765224456787, 0.3417278230190277, 0.5058140158653259, 0.22878794372081757, 0.3238544464111328, 0.21894507110118866, 0.10826526582241058, 0.09678208827972412, 0.12777824699878693, 0.0842837244272232, 0.11066550761461258, 0.06989993155002594, 0.14584212005138397, 0.11724212020635605, 0.11409884691238403, 0.2505813539028168, 0.32700011134147644, 0.18060480058193207, 0.22647657990455627, 0.12450556457042694, 0.11761371791362762, 0.16300474107265472, 0.24132724106311798, 0.5227617025375366, 0.4682985842227936, 0.15676778554916382, 0.40312936902046204, 0.3185710906982422, 0.2694999575614929, 0.27807876467704773, 0.17026139795780182, 0.48407694697380066, 0.24923089146614075, 0.38180285692214966, 0.36880236864089966, 0.21609073877334595, 0.1990804523229599, 0.5337512493133545, 0.15130801498889923, 0.2374032437801361, 0.29806214570999146, 0.15206660330295563, 0.3144306242465973, 0.25938788056373596, 0.36712968349456787, 0.23916661739349365, 0.4872429370880127, 0.24800771474838257, 0.15409500896930695, 0.20716331899166107, 0.22736285626888275, 0.12356551736593246, 0.11848092079162598, 0.2790583670139313, 0.36740297079086304, 0.4249871075153351, 0.23379270732402802, 0.5539225935935974, 0.35744112730026245, 0.3230591118335724, 0.12521976232528687, 0.33454805612564087, 0.2009640336036682, 0.1455419510602951, 0.18165776133537292, 0.4221344292163849, 0.8282758593559265, 0.4164848029613495, 0.36895015835762024, 0.23050883412361145, 0.12255039811134338, 0.20281746983528137, 0.2920099198818207, 0.4688648581504822, 0.30479931831359863, 0.23683376610279083, 0.29307854175567627, 0.2496841549873352, 0.38042789697647095, 0.5623793601989746, 0.27094611525535583, 0.16080321371555328, 0.15567821264266968, 0.1838357299566269, 0.2251073122024536, 0.22527062892913818]</t>
+          <t>[0.5828099846839905, 0.9153439998626709, 0.3854314684867859, 0.5459305047988892, 0.28421705961227417, 0.29018285870552063, 0.5213162899017334, 0.25661179423332214, 0.7206994295120239, 0.6477494239807129, 0.5383573174476624, 0.7864217758178711, 0.501019299030304, 0.4548094868659973, 0.28780290484428406, 0.14700853824615479, 0.10943666100502014, 0.2086906135082245, 0.4524805247783661, 0.3318251967430115, 0.3538236916065216, 0.6845585107803345, 0.5809794068336487, 0.3466792404651642, 0.30995282530784607, 0.6239568591117859, 0.26121580600738525, 0.2094830572605133, 0.314110666513443, 0.5419979095458984, 0.33532679080963135, 0.2875351309776306, 0.13926470279693604, 0.29710811376571655, 0.17215871810913086, 0.41451650857925415, 0.06242263689637184, 0.1241806223988533, 0.17914898693561554, 0.18081700801849365, 0.4298858344554901, 0.41096794605255127, 0.3741688132286072, 0.7231584787368774, 0.7563652992248535, 0.43902653455734253, 0.20825420320034027, 0.4762522280216217, 0.5493836998939514, 0.27943500876426697, 0.494489848613739, 0.22852487862110138, 0.10690557956695557, 0.11001971364021301, 0.16834361851215363, 0.09183017909526825, 0.10576756298542023, 0.057767104357481, 0.16211260855197906, 0.13310816884040833, 0.13801799714565277, 0.4535452723503113, 0.4744688868522644, 0.13060221076011658, 0.2628675103187561, 0.11811509728431702, 0.11823339760303497, 0.175112783908844, 0.28683871030807495, 0.7782544493675232, 0.6415370106697083, 0.15926697850227356, 0.6949137449264526, 0.5548078417778015, 0.32574841380119324, 0.42794692516326904, 0.2394954115152359, 0.6350349187850952, 0.28915682435035706, 0.4814377725124359, 0.4613417685031891, 0.33247923851013184, 0.2314884215593338, 0.6112499237060547, 0.18770848214626312, 0.3669397532939911, 0.39293789863586426, 0.23652930557727814, 0.4020909070968628, 0.3767549991607666, 0.5789729356765747, 0.3054051101207733, 0.6336140632629395, 0.27045416831970215, 0.1650262176990509, 0.31760886311531067, 0.2386166751384735, 0.12332760542631149, 0.09633224457502365, 0.24320262670516968, 0.34496980905532837, 0.4701581597328186, 0.2622724771499634, 0.6081069707870483, 0.3753167688846588, 0.35554438829421997, 0.12087637931108475, 0.3650168180465698, 0.2215801477432251, 0.15441718697547913, 0.19189883768558502, 0.48203524947166443, 0.9444366097450256, 0.5265857577323914, 0.5348262190818787, 0.26990848779678345, 0.11624645441770554, 0.2538684904575348, 0.37307924032211304, 0.5540049076080322, 0.3818061649799347, 0.2648754417896271, 0.36025428771972656, 0.22985029220581055, 0.3656417429447174, 0.6347959041595459, 0.21338346600532532, 0.1573997288942337, 0.13683167099952698, 0.1464100331068039, 0.21845029294490814, 0.21846051514148712]</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.8493566513061523</v>
+        <v>0.9444366097450256</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -2143,10 +2143,10 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0.7560722000198439</v>
+        <v>0.7873766000120668</v>
       </c>
       <c r="J40" t="n">
-        <v>0.00572781969712003</v>
+        <v>0.005964974242515657</v>
       </c>
     </row>
     <row r="41">
@@ -2165,11 +2165,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[0.10849611461162567, 0.055811554193496704, 0.09440255910158157, 0.049724031239748, 0.06052935868501663, 0.06925790011882782, 0.047723304480314255, 0.025049563497304916, 0.01931464858353138, 0.020044971257448196, 0.03354987874627113, 0.032767653465270996, 0.02110924944281578, 0.042184941470623016, 0.05458266660571098, 0.038753487169742584, 0.03992157429456711, 0.03075825795531273, 0.06469275802373886, 0.060550276190042496, 0.07921519130468369, 0.08635096251964569, 0.05633445084095001, 0.0380045548081398, 0.034855011850595474, 0.029940802603960037, 0.02255830727517605, 0.02678927592933178, 0.026937134563922882, 0.03085741214454174, 0.04847526177763939, 0.03132525458931923, 0.03273675590753555, 0.0421723835170269, 0.07554422318935394, 0.05460143834352493, 0.05013273283839226, 0.06025978550314903, 0.22392311692237854, 0.2716731131076813, 0.22067862749099731, 0.16527488827705383, 0.13409243524074554, 0.2961449921131134, 0.29151254892349243, 0.2682071626186371, 0.25574764609336853, 0.2599289119243622, 0.1625567078590393, 0.16782085597515106, 0.16841720044612885, 0.21398793160915375, 0.29218214750289917, 0.16051176190376282, 0.21401777863502502, 0.12404848635196686, 0.18087266385555267, 0.14714305102825165, 0.09463784843683243, 0.1471835821866989, 0.10145382583141327, 0.06494104862213135, 0.11705499142408371, 0.33188381791114807, 0.39878010749816895, 0.35690805315971375, 0.17439527809619904, 0.4346321225166321, 0.09853120893239975, 0.09425831586122513, 0.10766700655221939, 0.1461321860551834, 0.16442877054214478, 0.19178946316242218, 0.1350967437028885, 0.1180574893951416, 0.1299521028995514, 0.13944606482982635, 0.1410418301820755, 0.12047544866800308, 0.17249388992786407, 0.11415528506040573, 0.1141224354505539, 0.21396256983280182, 0.2050195038318634, 0.4582596719264984, 0.16626690328121185, 0.11023902893066406, 0.27643001079559326, 0.13268958032131195, 0.2374926209449768, 0.16415606439113617, 0.1384611576795578, 0.0635298639535904, 0.07772567123174667, 0.07524096965789795, 0.11390361934900284, 0.03526851162314415, 0.049030277878046036, 0.12090133130550385, 0.08517016470432281, 0.15260085463523865, 0.22758366167545319, 0.183406800031662, 0.15099647641181946, 0.3404410183429718, 0.2700110077857971, 0.24151211977005005, 0.26765161752700806, 0.7808604836463928, 0.2631817162036896, 0.27107781171798706, 0.284378319978714, 0.261787474155426, 0.2655106782913208, 0.1310746818780899, 0.1508173644542694, 0.11211536079645157, 0.07595300674438477, 0.17084430158138275, 0.2135554701089859, 0.2012733519077301, 0.08431370556354523, 0.1356223076581955, 0.34419408440589905, 0.0837339460849762, 0.383720725774765, 0.17949822545051575, 0.1260022222995758, 0.10049410164356232, 0.07804273068904877, 0.0784129649400711]</t>
+          <t>[0.1316986382007599, 0.03837040066719055, 0.06840579956769943, 0.028726017102599144, 0.04268849268555641, 0.07031520456075668, 0.02907089702785015, 0.01563851721584797, 0.009413488209247589, 0.009568135254085064, 0.020590487867593765, 0.015552881173789501, 0.011923085898160934, 0.029206598177552223, 0.043803468346595764, 0.02860107086598873, 0.03226228430867195, 0.024514978751540184, 0.07310106605291367, 0.05391876772046089, 0.07699664682149887, 0.06857717037200928, 0.046975813806056976, 0.037061743438243866, 0.02087285928428173, 0.019215919077396393, 0.0163897518068552, 0.023824542760849, 0.023139890283346176, 0.0244902353733778, 0.04734509438276291, 0.023212986066937447, 0.024176394566893578, 0.03516404703259468, 0.07613348215818405, 0.06849601864814758, 0.05557189881801605, 0.0620143860578537, 0.2909839451313019, 0.3990679085254669, 0.30748456716537476, 0.15245376527309418, 0.09588948637247086, 0.2741551399230957, 0.23824821412563324, 0.27062177658081055, 0.20333726704120636, 0.2230779081583023, 0.08610469102859497, 0.16123944520950317, 0.12784947454929352, 0.17278042435646057, 0.41018980741500854, 0.1671070009469986, 0.2208104431629181, 0.14821819961071014, 0.15675322711467743, 0.14622819423675537, 0.08345536142587662, 0.16804984211921692, 0.10637325048446655, 0.05359019711613655, 0.09565426409244537, 0.4704727530479431, 0.4964789152145386, 0.38101235032081604, 0.12307921051979065, 0.41640517115592957, 0.08412687480449677, 0.07929127663373947, 0.09828376770019531, 0.15629510581493378, 0.12331051379442215, 0.14883682131767273, 0.1443767547607422, 0.1056336835026741, 0.11331260949373245, 0.12951119244098663, 0.13269662857055664, 0.10060285031795502, 0.2556599974632263, 0.16074344515800476, 0.142565056681633, 0.35982465744018555, 0.3723096251487732, 0.6917392015457153, 0.17729344964027405, 0.176454097032547, 0.40449604392051697, 0.23670221865177155, 0.43702974915504456, 0.1557616889476776, 0.12018849700689316, 0.05803099274635315, 0.10089749842882156, 0.07788122445344925, 0.09756973385810852, 0.02611597068607807, 0.047870222479104996, 0.109394870698452, 0.07629507035017014, 0.17150449752807617, 0.1930900514125824, 0.21098478138446808, 0.12908081710338593, 0.4078873097896576, 0.29430514574050903, 0.2959648668766022, 0.34000757336616516, 0.8377236723899841, 0.40109583735466003, 0.32021230459213257, 0.4246153235435486, 0.3238808810710907, 0.30711591243743896, 0.12717896699905396, 0.20298448204994202, 0.12803108990192413, 0.10876453667879105, 0.22905531525611877, 0.31351548433303833, 0.3652399182319641, 0.14582286775112152, 0.18732787668704987, 0.5000522136688232, 0.09586016833782196, 0.41270312666893005, 0.20684213936328888, 0.1527653932571411, 0.12468260526657104, 0.06799058616161346, 0.0683823674917221]</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.7808604836463928</v>
+        <v>0.8377236723899841</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0.7473766000184696</v>
+        <v>0.7744245000067167</v>
       </c>
       <c r="J41" t="n">
-        <v>0.00566194393953386</v>
+        <v>0.005866852272778156</v>
       </c>
     </row>
     <row r="42">
@@ -2205,11 +2205,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[0.06205102428793907, 0.06787680834531784, 0.07322977483272552, 0.058310285210609436, 0.0777423232793808, 0.04652624577283859, 0.06730390340089798, 0.11073566228151321, 0.10260197520256042, 0.09376933425664902, 0.0969785749912262, 0.10983677953481674, 0.09883320331573486, 0.06527095288038254, 0.05547930300235748, 0.06872128695249557, 0.12383090704679489, 0.20294389128684998, 0.24699537456035614, 0.1787516325712204, 0.10959330946207047, 0.08867575228214264, 0.0979670062661171, 0.060975540429353714, 0.07718262076377869, 0.042322274297475815, 0.055681560188531876, 0.06385840475559235, 0.059670016169548035, 0.21425829827785492, 0.17012137174606323, 0.17787408828735352, 0.11394096165895462, 0.07443678379058838, 0.08291176706552505, 0.08775312453508377, 0.06641749292612076, 0.09854859113693237, 0.10930675268173218, 0.14749880135059357, 0.11495569348335266, 0.07822014391422272, 0.09539476037025452, 0.07397634536027908, 0.08012356609106064, 0.06635500490665436, 0.044034443795681, 0.0606432668864727, 0.04839790239930153, 0.05220108479261398, 0.10290823876857758, 0.026829324662685394, 0.05446742847561836, 0.036070261150598526, 0.036883413791656494, 0.03417052701115608, 0.057411208748817444, 0.03829169273376465, 0.03459050506353378, 0.03961559385061264, 0.04876110330224037, 0.06661611050367355, 0.05051753297448158, 0.033939070999622345, 0.02140973135828972, 0.024735121056437492, 0.021425502374768257, 0.02230805717408657, 0.023001648485660553, 0.02721378393471241, 0.04332123324275017, 0.0232399869710207, 0.02640593610703945, 0.04918188229203224, 0.04071235656738281, 0.03366249427199364, 0.03322134166955948, 0.02882073074579239, 0.05300023779273033, 0.02729259803891182, 0.02327718771994114, 0.03827149420976639, 0.036510318517684937, 0.03494199737906456, 0.06994945555925369, 0.07518760859966278, 0.14840063452720642, 0.13959883153438568, 0.04933840408921242, 0.03380679711699486, 0.050872765481472015, 0.04223303869366646, 0.03886391595005989, 0.041594743728637695, 0.05285446345806122, 0.04510318487882614, 0.04821956530213356, 0.04189842939376831, 0.07407807558774948, 0.13672424852848053, 0.06743468344211578, 0.06159406900405884, 0.060197360813617706, 0.0482180193066597, 0.06796499341726303, 0.07407283037900925, 0.0794457495212555, 0.10683941096067429, 0.09768632799386978, 0.09977838397026062, 0.06872373819351196, 0.050404779613018036, 0.1123993769288063, 0.16597123444080353, 0.2793922424316406, 0.11241941899061203, 0.06514663994312286, 0.10105864703655243, 0.05545763671398163, 0.0363159216940403, 0.02675565704703331, 0.04816802591085434, 0.024803876876831055, 0.022967031225562096, 0.015586682595312595, 0.022678609937429428, 0.030317479744553566, 0.06100494787096977, 0.06339363008737564, 0.04478400573134422, 0.09773629158735275, 0.09786239266395569]</t>
+          <t>[0.06249237060546875, 0.05819783732295036, 0.06048811599612236, 0.04769621044397354, 0.0490800216794014, 0.025630712509155273, 0.052386220544576645, 0.10674707591533661, 0.10109233111143112, 0.07786928117275238, 0.0822107344865799, 0.09362133592367172, 0.08504433929920197, 0.04440751671791077, 0.03479918837547302, 0.04873127117753029, 0.09990857541561127, 0.2310398817062378, 0.41208377480506897, 0.19021053612232208, 0.16423845291137695, 0.15789784491062164, 0.21356059610843658, 0.09805890917778015, 0.1140933707356453, 0.050511881709098816, 0.06803310662508011, 0.06432797014713287, 0.06499148160219193, 0.31803300976753235, 0.19760027527809143, 0.19058145582675934, 0.10450977832078934, 0.05554146319627762, 0.06166067346930504, 0.09547869116067886, 0.057360582053661346, 0.07244172692298889, 0.06906915456056595, 0.1432826817035675, 0.11331164836883545, 0.06233837082982063, 0.0886564552783966, 0.05067272111773491, 0.05455774441361427, 0.05740450695157051, 0.03513466194272041, 0.04980214312672615, 0.03008115291595459, 0.038301825523376465, 0.12662546336650848, 0.0190830510109663, 0.04366957023739815, 0.021068058907985687, 0.021975241601467133, 0.025608690455555916, 0.03842807188630104, 0.020810602232813835, 0.01989496685564518, 0.021982163190841675, 0.02955934777855873, 0.043711744248867035, 0.04205584526062012, 0.020582500845193863, 0.010627447627484798, 0.012839127331972122, 0.01037430390715599, 0.012526335194706917, 0.01468033716082573, 0.014468345791101456, 0.02646421268582344, 0.011433695442974567, 0.012281394563615322, 0.02462775632739067, 0.022291213274002075, 0.01539656613022089, 0.021699341014027596, 0.017142513766884804, 0.050114862620830536, 0.023032795637845993, 0.013815264217555523, 0.03573506325483322, 0.030882831662893295, 0.020550314337015152, 0.043843578547239304, 0.07886864244937897, 0.1395890712738037, 0.18368422985076904, 0.03226263448596001, 0.01751188561320305, 0.03437897935509682, 0.028937887400388718, 0.024431874975562096, 0.026525814086198807, 0.04067659378051758, 0.027880089357495308, 0.03679510951042175, 0.03275188058614731, 0.07379131019115448, 0.12423954904079437, 0.038176123052835464, 0.03456597030162811, 0.04397577419877052, 0.032674290239810944, 0.050967738032341, 0.053243428468704224, 0.06984332948923111, 0.09003015607595444, 0.10133372992277145, 0.11008347570896149, 0.06259498745203018, 0.03565240278840065, 0.09672599285840988, 0.14661149680614471, 0.41682037711143494, 0.09024869650602341, 0.04350040480494499, 0.09246092289686203, 0.04427409917116165, 0.024151908233761787, 0.012812093831598759, 0.031871989369392395, 0.01813371665775776, 0.021590569987893105, 0.012054478749632835, 0.014552043750882149, 0.023581799119710922, 0.024139147251844406, 0.03179166093468666, 0.016815634444355965, 0.08560484647750854, 0.08575756847858429]</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2793922424316406</v>
+        <v>0.4168203771114349</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0.7429508999921381</v>
+        <v>0.7764968999981647</v>
       </c>
       <c r="J42" t="n">
-        <v>0.00562841590903135</v>
+        <v>0.005882552272713369</v>
       </c>
     </row>
     <row r="43">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[0.2571009397506714, 0.12330953031778336, 0.10887951403856277, 0.1457064002752304, 0.17151102423667908, 0.1736520230770111, 0.6438422799110413, 0.6229226589202881, 0.3227027952671051, 0.3537895679473877, 0.21918070316314697, 0.24117852747440338, 0.06997140496969223, 0.10914002358913422, 0.3213622272014618, 0.26135581731796265, 0.20011040568351746, 0.20998334884643555, 0.11766814440488815, 0.0874955952167511, 0.07004908472299576, 0.061088643968105316, 0.2331860512495041, 0.3767359256744385, 0.2799893915653229, 0.384617418050766, 0.21033060550689697, 0.26708465814590454, 0.09352346509695053, 0.08079392462968826, 0.093360535800457, 0.08825194835662842, 0.13144399225711823, 0.16452471911907196, 0.3000718951225281, 0.3534868657588959, 0.40417036414146423, 0.6665021181106567, 0.29473650455474854, 0.21601904928684235, 0.6418002843856812, 0.5303517580032349, 0.652048647403717, 0.7054561376571655, 0.2552405595779419, 0.3232291340827942, 0.4675252437591553, 0.27343446016311646, 0.27188777923583984, 0.22585612535476685, 0.4243188202381134, 0.4244145154953003, 0.49819326400756836, 0.35986828804016113, 0.3271358013153076, 0.1980612576007843, 0.1684352308511734, 0.22056856751441956, 0.3068782687187195, 0.1093502789735794, 0.21251991391181946, 0.23950037360191345, 0.2109992653131485, 0.1164785772562027, 0.27900758385658264, 0.07541444897651672, 0.13508348166942596, 0.1862102597951889, 0.28942278027534485, 0.3202079236507416, 0.23164325952529907, 0.3612680435180664, 0.23840798437595367, 0.3346672058105469, 0.15694659948349, 0.12645627558231354, 0.20128007233142853, 0.19366246461868286, 0.09442685544490814, 0.2232959270477295, 0.21258385479450226, 0.23985806107521057, 0.1522553563117981, 0.1622449904680252, 0.10985713452100754, 0.10712628811597824, 0.06163601577281952, 0.1478973627090454, 0.0419415645301342, 0.05033459886908531, 0.09204699099063873, 0.1330101042985916, 0.15590599179267883, 0.17481663823127747, 0.2105511724948883, 0.11913130432367325, 0.19295674562454224, 0.16103000938892365, 0.17065143585205078, 0.10008805245161057, 0.07891935110092163, 0.09604507684707642, 0.13159258663654327, 0.23382169008255005, 0.4142826199531555, 0.20859521627426147, 0.29019200801849365, 0.6080320477485657, 0.7683189511299133, 0.49472689628601074, 0.23041686415672302, 0.09795508533716202, 0.1799047887325287, 0.27196526527404785, 0.1841771900653839, 0.4370962679386139, 0.7158382534980774, 0.6035271286964417, 0.542047381401062, 0.5393102169036865, 0.5368428826332092, 0.4870840311050415, 0.44242382049560547, 0.345007985830307, 0.5149633884429932, 0.37364667654037476, 0.40566286444664, 0.38029491901397705, 0.5316138863563538, 0.25385376811027527, 0.2532995343208313]</t>
+          <t>[0.4531056880950928, 0.1573609560728073, 0.10360933840274811, 0.14553265273571014, 0.21802103519439697, 0.1971423178911209, 0.8541529774665833, 0.7376520037651062, 0.30796992778778076, 0.45689311623573303, 0.22678212821483612, 0.19681714475154877, 0.04124622419476509, 0.16292791068553925, 0.42305704951286316, 0.280719518661499, 0.1542542278766632, 0.2219243198633194, 0.13863596320152283, 0.09718791395425797, 0.0775991678237915, 0.06490736454725266, 0.35938817262649536, 0.47752952575683594, 0.3212132751941681, 0.37658584117889404, 0.16722021996974945, 0.15427173674106598, 0.04402374476194382, 0.027730189263820648, 0.03847310692071915, 0.04317229613661766, 0.09321101009845734, 0.12860403954982758, 0.300161212682724, 0.3231542706489563, 0.37984699010849, 0.7817721962928772, 0.2843383252620697, 0.22900377213954926, 0.7085731625556946, 0.5727580189704895, 0.7453914284706116, 0.825609028339386, 0.2869589030742645, 0.3282625079154968, 0.5242701172828674, 0.22346819937229156, 0.24161241948604584, 0.18375852704048157, 0.41167935729026794, 0.38347703218460083, 0.509782075881958, 0.33366256952285767, 0.22527547180652618, 0.11144422739744186, 0.1105855405330658, 0.1385212540626526, 0.28264880180358887, 0.047912854701280594, 0.1815442144870758, 0.2328791618347168, 0.20536187291145325, 0.07927869260311127, 0.2284599095582962, 0.052041731774806976, 0.1160019263625145, 0.174918994307518, 0.28377577662467957, 0.327319860458374, 0.25355958938598633, 0.37217122316360474, 0.1979590207338333, 0.415079802274704, 0.11594768613576889, 0.0768352597951889, 0.15403170883655548, 0.11622901260852814, 0.043338339775800705, 0.16220059990882874, 0.16638502478599548, 0.22158686816692352, 0.13479244709014893, 0.137802392244339, 0.06830431520938873, 0.07485289871692657, 0.05215418338775635, 0.13927815854549408, 0.038742873817682266, 0.041866764426231384, 0.08653958141803741, 0.10847315192222595, 0.15605351328849792, 0.13710662722587585, 0.18167437613010406, 0.10829004645347595, 0.18001531064510345, 0.14398285746574402, 0.13892774283885956, 0.06467214971780777, 0.04046083986759186, 0.07716642320156097, 0.11933460831642151, 0.2004401981830597, 0.4092561602592468, 0.13834334909915924, 0.3875866234302521, 0.5807640552520752, 0.8325329422950745, 0.4018999934196472, 0.23975995182991028, 0.08776453882455826, 0.26645687222480774, 0.25729745626449585, 0.14991800487041473, 0.5332843661308289, 0.8773916363716125, 0.7210389375686646, 0.622787594795227, 0.5692762732505798, 0.4779670238494873, 0.554766058921814, 0.45347633957862854, 0.36970648169517517, 0.6506641507148743, 0.4288918673992157, 0.39708614349365234, 0.33135366439819336, 0.5867137908935547, 0.3097620904445648, 0.30904191732406616]</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.7683189511299133</v>
+        <v>0.8773916363716125</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0.7442796999821439</v>
+        <v>0.7890478999906918</v>
       </c>
       <c r="J43" t="n">
-        <v>0.005681524427344611</v>
+        <v>0.006023266412142686</v>
       </c>
     </row>
     <row r="44">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[0.14150160551071167, 0.12088043242692947, 0.19811518490314484, 0.21720126271247864, 0.20462630689144135, 0.10788843780755997, 0.09306098520755768, 0.11712782084941864, 0.194510355591774, 0.15090306103229523, 0.1581154614686966, 0.19418926537036896, 0.21959109604358673, 0.4185512661933899, 0.43217936158180237, 0.22779524326324463, 0.0761839970946312, 0.14457154273986816, 0.11047699302434921, 0.29696276783943176, 0.20142291486263275, 0.20991769433021545, 0.2244895100593567, 0.2032753974199295, 0.11916005611419678, 0.1658005267381668, 0.11432348936796188, 0.2506714463233948, 0.36293697357177734, 0.3238338828086853, 0.12450259923934937, 0.2401883602142334, 0.18658766150474548, 0.27510467171669006, 0.1470731645822525, 0.14118584990501404, 0.1344442367553711, 0.25167426466941833, 0.16243132948875427, 0.3009973168373108, 0.17036184668540955, 0.09693841636180878, 0.1318836361169815, 0.2719356417655945, 0.5603413581848145, 0.19790588319301605, 0.06885478645563126, 0.2753343880176544, 0.10557976365089417, 0.17960895597934723, 0.2781337797641754, 0.1597900092601776, 0.10039333999156952, 0.07858026027679443, 0.12585555016994476, 0.22562749683856964, 0.34097692370414734, 0.3631155788898468, 0.1569238007068634, 0.2424333244562149, 0.27824637293815613, 0.15942944586277008, 0.21746490895748138, 0.21388661861419678, 0.19160999357700348, 0.16730602085590363, 0.2616901099681854, 0.081825390458107, 0.17605826258659363, 0.13298571109771729, 0.10679447650909424, 0.08727312088012695, 0.12375807017087936, 0.13070549070835114, 0.07984613627195358, 0.06680849194526672, 0.08175469934940338, 0.11726129800081253, 0.08587435632944107, 0.19426852464675903, 0.053729381412267685, 0.06892233341932297, 0.2217540293931961, 0.1785154491662979, 0.10677167028188705, 0.13259682059288025, 0.17376351356506348, 0.2702370882034302, 0.07190326601266861, 0.21233175694942474, 0.15471406280994415, 0.19545280933380127, 0.12632669508457184, 0.11612062156200409, 0.16909541189670563, 0.25746503472328186, 0.234551340341568, 0.23248985409736633, 0.23457936942577362]</t>
+          <t>[0.11544334143400192, 0.08688950538635254, 0.15261001884937286, 0.20453205704689026, 0.2032632827758789, 0.13410307466983795, 0.09071770310401917, 0.08479046076536179, 0.1705542802810669, 0.12022219598293304, 0.13153021037578583, 0.17241540551185608, 0.19886597990989685, 0.5883557200431824, 0.49782925844192505, 0.2563670873641968, 0.04808921739459038, 0.1530853509902954, 0.0932578518986702, 0.4125883877277374, 0.2688409090042114, 0.3265129327774048, 0.2753407657146454, 0.39728042483329773, 0.13017213344573975, 0.1813569962978363, 0.11184761673212051, 0.37433910369873047, 0.48471951484680176, 0.414045125246048, 0.12591136991977692, 0.3053377568721771, 0.257860004901886, 0.3518093526363373, 0.21875639259815216, 0.28630003333091736, 0.14259463548660278, 0.2750440239906311, 0.1878797709941864, 0.5217694640159607, 0.22986645996570587, 0.12025090306997299, 0.13809257745742798, 0.512940526008606, 0.823897123336792, 0.36989033222198486, 0.09157347679138184, 0.3293575644493103, 0.07870645821094513, 0.13638602197170258, 0.26856356859207153, 0.14714452624320984, 0.06917525827884674, 0.05238073691725731, 0.1169220358133316, 0.3542063236236572, 0.3592999577522278, 0.40757986903190613, 0.15511159598827362, 0.2997906804084778, 0.3077229857444763, 0.20927399396896362, 0.25362807512283325, 0.2336362898349762, 0.26574403047561646, 0.192539781332016, 0.3494466245174408, 0.07374662905931473, 0.23791716992855072, 0.20838233828544617, 0.13819023966789246, 0.11473481357097626, 0.16055718064308167, 0.12939037382602692, 0.07421676069498062, 0.04731834679841995, 0.05371423810720444, 0.07259542495012283, 0.09566468745470047, 0.18425729870796204, 0.041229818016290665, 0.05302710458636284, 0.2833613455295563, 0.1549907773733139, 0.10124494135379791, 0.11983127146959305, 0.20918528735637665, 0.4421426057815552, 0.06867636740207672, 0.30400702357292175, 0.19386951625347137, 0.2621261775493622, 0.12111308425664902, 0.14354051649570465, 0.15051546692848206, 0.3081907629966736, 0.2640688419342041, 0.199601948261261, 0.2015068084001541]</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.5603413581848145</v>
+        <v>0.823897123336792</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -2303,10 +2303,10 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0.5702548999979626</v>
+        <v>0.5796231000131229</v>
       </c>
       <c r="J44" t="n">
-        <v>0.005760150505029925</v>
+        <v>0.005854778788011343</v>
       </c>
     </row>
     <row r="45">
@@ -2325,11 +2325,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[0.10600534081459045, 0.06916939467191696, 0.06250452250242233, 0.07910840958356857, 0.06282806396484375, 0.06036754697561264, 0.05069057270884514, 0.03429896757006645, 0.03377291560173035, 0.03215888887643814, 0.04309961944818497, 0.06985257565975189, 0.10726112127304077, 0.05724729970097542, 0.06699274480342865, 0.06378626078367233, 0.12678223848342896, 0.11892836540937424, 0.09377703815698624, 0.1765136569738388, 0.10489732027053833, 0.08127766102552414, 0.09504839777946472, 0.09293923527002335, 0.11857479810714722, 0.11439908295869827, 0.07018174976110458, 0.057708051055669785, 0.10394173860549927, 0.20635868608951569, 0.12579704821109772, 0.12513266503810883, 0.15070073306560516, 0.13270986080169678, 0.16625012457370758, 0.12281011044979095, 0.19578389823436737, 0.1651640683412552, 0.1664450466632843, 0.17433512210845947, 0.1435558944940567, 0.1762388050556183, 0.08903125673532486, 0.10094952583312988, 0.12962891161441803, 0.10246840864419937, 0.09305752068758011, 0.062390346080064774, 0.03830703720450401, 0.028917694464325905, 0.03226091340184212, 0.04339302331209183, 0.029366645961999893, 0.026213668286800385, 0.027557233348488808, 0.03523353859782219, 0.047350626438856125, 0.0404166616499424, 0.02593291737139225, 0.02914850227534771, 0.04036654531955719, 0.04606021195650101, 0.04314941167831421, 0.042450711131095886, 0.04475385323166847, 0.046071458607912064, 0.054086439311504364, 0.05729011073708534, 0.046503107994794846, 0.035838887095451355, 0.038736216723918915, 0.03422071412205696, 0.03330891579389572, 0.03918687626719475, 0.02989187091588974, 0.04047974571585655, 0.06776580959558487, 0.06717762351036072, 0.10295972973108292, 0.1095753163099289, 0.16052331030368805, 0.19053159654140472, 0.14546237885951996, 0.2137225717306137, 0.14822767674922943, 0.08111846446990967, 0.0631839856505394, 0.06444749981164932, 0.06338842213153839, 0.059445157647132874, 0.04767241328954697, 0.07455794513225555, 0.11401338130235672, 0.1163630411028862, 0.13802529871463776, 0.12695853412151337, 0.09470688551664352, 0.08387059718370438, 0.10581308603286743, 0.0906367301940918, 0.10703683644533157, 0.10143237560987473, 0.0649477168917656, 0.05205211788415909, 0.04827849939465523, 0.06617481261491776, 0.06168510764837265, 0.07038701325654984, 0.10132499039173126, 0.06534048914909363, 0.05414575710892677, 0.060718391090631485, 0.09289693087339401, 0.11176536977291107, 0.08699862658977509, 0.08685698360204697, 0.060836710035800934, 0.05002270266413689, 0.05545569211244583, 0.05774799361824989, 0.050919145345687866, 0.04609062895178795, 0.050371650606393814, 0.05218735709786415, 0.0428888276219368, 0.043536171317100525, 0.0602412074804306, 0.04442252591252327, 0.045757219195365906, 0.049148477613925934, 0.042143404483795166, 0.03496274724602699, 0.036582887172698975, 0.0834825411438942, 0.08844221383333206, 0.04913029819726944, 0.06741824746131897, 0.11368422210216522, 0.07546612620353699, 0.07923321425914764, 0.06341087818145752, 0.0606713593006134, 0.055735960602760315, 0.0666319727897644, 0.1022612527012825, 0.10390567779541016, 0.07775900512933731, 0.0826251432299614, 0.098395437002182, 0.10533447563648224, 0.13229571282863617, 0.14637373387813568, 0.1413637101650238, 0.09061739593744278, 0.09703358262777328, 0.08889943361282349, 0.08464691787958145, 0.07450563460588455, 0.085344597697258, 0.0869997888803482, 0.0663812905550003, 0.07592183351516724, 0.0731535330414772, 0.06990320235490799, 0.08513502031564713, 0.09207530319690704, 0.09347391873598099, 0.1008799821138382, 0.08787146955728531, 0.08542244881391525, 0.11330465972423553, 0.12885509431362152, 0.09814565628767014, 0.0880713164806366, 0.09160909801721573, 0.0826479122042656, 0.08089897781610489, 0.09616489708423615, 0.06517244875431061, 0.07053189724683762, 0.06527110934257507, 0.08773799240589142, 0.07530806958675385, 0.10063061863183975, 0.08938630670309067, 0.1061999648809433, 0.0757669061422348, 0.06173165887594223, 0.06480862945318222, 0.052912160754203796, 0.06433351337909698, 0.05725137144327164, 0.06307769566774368, 0.0818873941898346, 0.07285571843385696, 0.051499396562576294, 0.03416700288653374, 0.03677328675985336, 0.05985885486006737, 0.06829439848661423, 0.06599006056785583, 0.06358209252357483, 0.06964033842086792, 0.04596169292926788, 0.038657911121845245, 0.03332815319299698, 0.027178999036550522, 0.03179357573390007, 0.051551710814237595, 0.05801680311560631, 0.059300363063812256, 0.046769559383392334, 0.050293270498514175]</t>
+          <t>[0.0688372328877449, 0.043994076550006866, 0.03405994549393654, 0.036602359265089035, 0.029482658952474594, 0.03484564647078514, 0.027807634323835373, 0.01571997068822384, 0.015667105093598366, 0.016907596960663795, 0.02835731953382492, 0.04384976625442505, 0.06973427534103394, 0.03671235591173172, 0.03959571570158005, 0.03536446392536163, 0.09414524585008621, 0.10288263112306595, 0.06088203191757202, 0.10794202238321304, 0.06304097175598145, 0.04848748818039894, 0.06654193997383118, 0.06503211706876755, 0.09900327026844025, 0.08626696467399597, 0.03998551890254021, 0.02673516795039177, 0.055692095309495926, 0.1515185832977295, 0.08610105514526367, 0.08689115196466446, 0.09095833450555801, 0.08545418828725815, 0.11968491226434708, 0.08528220653533936, 0.21774864196777344, 0.16476784646511078, 0.15337494015693665, 0.1382180005311966, 0.10622847080230713, 0.19513486325740814, 0.05556248500943184, 0.06670118868350983, 0.0905192643404007, 0.06986349821090698, 0.06004036217927933, 0.03534268960356712, 0.021804409101605415, 0.01566382311284542, 0.020104696974158287, 0.05167658254504204, 0.01610885187983513, 0.01502262707799673, 0.013744221068918705, 0.021383894607424736, 0.03500242903828621, 0.02642541006207466, 0.011439603753387928, 0.013302810490131378, 0.019443223252892494, 0.025885462760925293, 0.01852473057806492, 0.018106747418642044, 0.021997904404997826, 0.024634793400764465, 0.04003670811653137, 0.04918409883975983, 0.03352677449584007, 0.02393372356891632, 0.03285754472017288, 0.020510021597146988, 0.0173228420317173, 0.020663274452090263, 0.016337882727384567, 0.03436458483338356, 0.07066550850868225, 0.0496676042675972, 0.07638449966907501, 0.0829317569732666, 0.1337357461452484, 0.15716256201267242, 0.08285140991210938, 0.15141774713993073, 0.12110316753387451, 0.07298336923122406, 0.04627011716365814, 0.04327020049095154, 0.03719329088926315, 0.033359356224536896, 0.021212421357631683, 0.0612875334918499, 0.08789622038602829, 0.10796816647052765, 0.18042169511318207, 0.1619129180908203, 0.0751814916729927, 0.05089361593127251, 0.07421082258224487, 0.05867127329111099, 0.0780966654419899, 0.08143099397420883, 0.04257075488567352, 0.03713478893041611, 0.03310684859752655, 0.037679918110370636, 0.029851527884602547, 0.03999144583940506, 0.07308198511600494, 0.04349224641919136, 0.03839314728975296, 0.039130378514528275, 0.057334210723638535, 0.08380046486854553, 0.08003958314657211, 0.0643797442317009, 0.04423845186829567, 0.03006741590797901, 0.03242374211549759, 0.030268657952547073, 0.023169802501797676, 0.024629216641187668, 0.027177438139915466, 0.04088438302278519, 0.021810907870531082, 0.027100177481770515, 0.05472718924283981, 0.02825232967734337, 0.02800493687391281, 0.032165080308914185, 0.034580498933792114, 0.025521088391542435, 0.027090532705187798, 0.0637059360742569, 0.09143506735563278, 0.04230325669050217, 0.05943094193935394, 0.16225062310695648, 0.07929416745901108, 0.07264705002307892, 0.03524782136082649, 0.034409478306770325, 0.03649190440773964, 0.06767699867486954, 0.1322481781244278, 0.11630063503980637, 0.05184352397918701, 0.048896439373493195, 0.05860350653529167, 0.05935097485780716, 0.07371453195810318, 0.10212364047765732, 0.10174256563186646, 0.049015238881111145, 0.05611845478415489, 0.048464592546224594, 0.04901891574263573, 0.04455588012933731, 0.0550227127969265, 0.046681519597768784, 0.036273565143346786, 0.04450766742229462, 0.04130488634109497, 0.041508499532938004, 0.053804267197847366, 0.06584534794092178, 0.11068660020828247, 0.10967006534337997, 0.07553739845752716, 0.053625356405973434, 0.09064847230911255, 0.10757946968078613, 0.07183489203453064, 0.049487918615341187, 0.055894885212183, 0.041337184607982635, 0.05995030701160431, 0.10545586794614792, 0.04236185923218727, 0.04622819647192955, 0.03879164159297943, 0.059624891728162766, 0.04932155832648277, 0.07135499268770218, 0.060199081897735596, 0.06833849847316742, 0.04785798862576485, 0.03641422837972641, 0.03458324074745178, 0.026988405734300613, 0.03422771021723747, 0.027490727603435516, 0.03121335059404373, 0.04567428305745125, 0.04242601618170738, 0.026052916422486305, 0.023300277069211006, 0.023689813911914825, 0.04551874101161957, 0.053495485335588455, 0.05364004522562027, 0.041963424533605576, 0.06654240936040878, 0.026612063869833946, 0.020092209801077843, 0.01755296252667904, 0.013796058483421803, 0.015064248815178871, 0.029271136969327927, 0.03022514097392559, 0.0310056172311306, 0.02705829218029976, 0.028813593089580536]</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2137225717306137</v>
+        <v>0.2177486419677734</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1.171242699987488</v>
+        <v>1.246981899996172</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0054987920187206</v>
+        <v>0.005854375117352918</v>
       </c>
     </row>
     <row r="46">
@@ -2365,11 +2365,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[0.18477381765842438, 0.1437954604625702, 0.10356910526752472, 0.09935738146305084, 0.13445523381233215, 0.11502222716808319, 0.11719025671482086, 0.15472012758255005, 0.19801829755306244, 0.16012640297412872, 0.31275975704193115, 0.35400739312171936, 0.2867310643196106, 0.18941615521907806, 0.29670271277427673, 0.3053573966026306, 0.25158995389938354, 0.2773713767528534, 0.23683498799800873, 0.23837636411190033, 0.27523675560951233, 0.20779216289520264, 0.1193360835313797, 0.1099834069609642, 0.13106825947761536, 0.1288086175918579, 0.08374735713005066, 0.15867406129837036, 0.17783322930335999, 0.12975651025772095, 0.16585898399353027, 0.17038165032863617, 0.2223014533519745, 0.2528907060623169, 0.27112317085266113, 0.2723997235298157, 0.2290773242712021, 0.19215615093708038, 0.2298649251461029, 0.16080445051193237, 0.28260770440101624, 0.27608722448349, 0.2805638015270233, 0.42480459809303284, 0.42265811562538147, 0.5854911208152771, 0.6397479176521301, 0.34445920586586, 0.6450016498565674, 0.6030296683311462, 0.4667571783065796, 0.2996247410774231, 0.16116449236869812, 0.16977114975452423, 0.16488240659236908, 0.12229325622320175, 0.11409696191549301, 0.14974945783615112, 0.23553557693958282, 0.26642364263534546, 0.24290341138839722, 0.18477679789066315, 0.12628592550754547, 0.15144729614257812, 0.1297740340232849, 0.47795313596725464, 0.4184788763523102, 0.29055914282798767, 0.16708265244960785, 0.2913059592247009, 0.27715376019477844, 0.3480754792690277, 0.3237953782081604, 0.27626389265060425, 0.1845669448375702, 0.24089646339416504, 0.26837146282196045, 0.4805329740047455, 0.29897964000701904, 0.47013017535209656, 0.5577924847602844, 0.22428864240646362, 0.15940609574317932, 0.2764917314052582, 0.13751105964183807, 0.10633934289216995, 0.11022036522626877, 0.13028813898563385, 0.07015156745910645, 0.08832142502069473, 0.061256054788827896, 0.057634640485048294, 0.05069030821323395, 0.0666295662522316, 0.05504416301846504, 0.0798947736620903, 0.07042727619409561, 0.03753931447863579, 0.03716808930039406, 0.032540008425712585, 0.026720291003584862, 0.02539071999490261, 0.0266270749270916, 0.031001407653093338, 0.02602539211511612, 0.026062797755002975, 0.027808601036667824, 0.028004996478557587, 0.024755818769335747, 0.03034794144332409, 0.030762499198317528, 0.03718528151512146, 0.04142707958817482, 0.06056936830282211, 0.06096717715263367, 0.04492431879043579, 0.04080204293131828, 0.06647659838199615, 0.09745145589113235, 0.043607842177152634, 0.04000408574938774, 0.03522228077054024, 0.040711659938097, 0.0259359423071146, 0.023314349353313446, 0.03193084895610809, 0.0604284331202507, 0.09911718964576721, 0.05443820729851723, 0.04954440891742706, 0.06692714989185333, 0.07463079690933228, 0.07987409830093384, 0.055031467229127884, 0.042479902505874634, 0.03429347276687622, 0.049849458038806915, 0.050784021615982056, 0.061660878360271454, 0.054645102471113205, 0.046941179782152176, 0.042944714426994324, 0.038576360791921616, 0.049506112933158875, 0.0428803488612175, 0.04433072358369827, 0.03384270891547203, 0.04555945843458176, 0.04238568991422653, 0.05127358064055443, 0.05068853497505188, 0.05497341975569725, 0.056221671402454376, 0.12965494394302368, 0.08895840495824814, 0.2092965990304947, 0.3394976258277893, 0.5047408938407898, 0.36137160658836365, 0.14486193656921387, 0.09863125532865524, 0.24005553126335144, 0.528507649898529, 0.7500429749488831, 0.824680507183075, 0.7139578461647034, 0.5538240671157837, 0.43339744210243225, 0.3928619623184204, 0.6359787583351135, 0.3555414080619812, 0.6517285704612732, 0.4896167814731598, 0.5819516181945801, 0.663679301738739, 0.6368671655654907, 0.37721046805381775, 0.34795665740966797, 0.203436478972435, 0.14890258014202118, 0.3583575487136841, 0.4928988516330719, 0.6105269193649292, 0.38063380122184753, 0.3796326816082001, 0.36241135001182556, 0.30069926381111145, 0.30468252301216125, 0.3085917830467224, 0.1389022171497345, 0.20286273956298828, 0.14025543630123138, 0.17118330299854279, 0.18245095014572144, 0.14425069093704224, 0.18602696061134338, 0.2027147114276886, 0.16978494822978973, 0.2844333052635193, 0.26728272438049316, 0.30177366733551025, 0.31589648127555847, 0.24653586745262146, 0.19378869235515594, 0.1287420392036438, 0.09962241351604462, 0.11010308563709259, 0.09645437449216843, 0.09803333133459091, 0.13046477735042572, 0.12288489192724228, 0.11716712266206741, 0.13423505425453186]</t>
+          <t>[0.17962642014026642, 0.11657793074846268, 0.07466258108615875, 0.061100538820028305, 0.08068569004535675, 0.056568462401628494, 0.06584881246089935, 0.09162825345993042, 0.1425630897283554, 0.1473582684993744, 0.25893253087997437, 0.32285720109939575, 0.285127192735672, 0.18793490529060364, 0.26781201362609863, 0.2855533957481384, 0.23859640955924988, 0.24197646975517273, 0.20666299760341644, 0.18122053146362305, 0.19729717075824738, 0.1276666224002838, 0.06921517848968506, 0.05368199199438095, 0.062376707792282104, 0.06527256965637207, 0.04032769426703453, 0.09193192422389984, 0.11708738654851913, 0.0883314460515976, 0.1088293120265007, 0.09999971091747284, 0.15321648120880127, 0.21099938452243805, 0.211550772190094, 0.22927899658679962, 0.20393919944763184, 0.15894918143749237, 0.2155464142560959, 0.16518472135066986, 0.2932787835597992, 0.2550356090068817, 0.28334325551986694, 0.5555949211120605, 0.5387338399887085, 0.6727718114852905, 0.6638715863227844, 0.29560181498527527, 0.6413536667823792, 0.6929135918617249, 0.5784882307052612, 0.2631206214427948, 0.09886874258518219, 0.11194469034671783, 0.10339774936437607, 0.08514370769262314, 0.07113130390644073, 0.14695337414741516, 0.3239448666572571, 0.41133227944374084, 0.2620299756526947, 0.15484265983104706, 0.09988384693861008, 0.1456536054611206, 0.14705118536949158, 0.6243395209312439, 0.5399486422538757, 0.4091053605079651, 0.3121602535247803, 0.5606771111488342, 0.5042139887809753, 0.5510885119438171, 0.5016838312149048, 0.41694536805152893, 0.20603831112384796, 0.2750490605831146, 0.35348448157310486, 0.6815935969352722, 0.4583462178707123, 0.6376326680183411, 0.7781188488006592, 0.2754809856414795, 0.13464777171611786, 0.3503628671169281, 0.13308052718639374, 0.13426169753074646, 0.12223660200834274, 0.1517050713300705, 0.04159834608435631, 0.04898197576403618, 0.0337536595761776, 0.03559540957212448, 0.03193439543247223, 0.04798285290598869, 0.03365565836429596, 0.040564488619565964, 0.029233615845441818, 0.016563791781663895, 0.017426082864403725, 0.014799479395151138, 0.01083370205014944, 0.008868538774549961, 0.009345744736492634, 0.010067155584692955, 0.009061452932655811, 0.010384765453636646, 0.010133658535778522, 0.012334254570305347, 0.011024966835975647, 0.010397749952971935, 0.00842845719307661, 0.011842736974358559, 0.014386359602212906, 0.02591409534215927, 0.037358351051807404, 0.02793758362531662, 0.027351802214980125, 0.05118221417069435, 0.09203582257032394, 0.028595631942152977, 0.017973193898797035, 0.015877502039074898, 0.022435104474425316, 0.009832882322371006, 0.010662838816642761, 0.016047215089201927, 0.031715646386146545, 0.05489262193441391, 0.019387366250157356, 0.020864909514784813, 0.03994852304458618, 0.05164205655455589, 0.0515277124941349, 0.030760496854782104, 0.02191442996263504, 0.02248351275920868, 0.04098402336239815, 0.03882138058543205, 0.049545951187610626, 0.04648195579648018, 0.04723677039146423, 0.026609301567077637, 0.021618621423840523, 0.054627884179353714, 0.03198942169547081, 0.02710825949907303, 0.021296266466379166, 0.025054512545466423, 0.026961935684084892, 0.043477702885866165, 0.03188842907547951, 0.036007944494485855, 0.04059533774852753, 0.1839389055967331, 0.13089002668857574, 0.4028224050998688, 0.6299902200698853, 0.7695135474205017, 0.5487061142921448, 0.1849086880683899, 0.0692688599228859, 0.30811262130737305, 0.6797807812690735, 0.8803253769874573, 0.8964947462081909, 0.823668897151947, 0.641345202922821, 0.4772144854068756, 0.4735904335975647, 0.7492510080337524, 0.5184714794158936, 0.8220949172973633, 0.7020337581634521, 0.6610797643661499, 0.7731673121452332, 0.7642580270767212, 0.595845103263855, 0.5705714821815491, 0.3387143015861511, 0.20939600467681885, 0.5105513334274292, 0.6824848651885986, 0.7797063589096069, 0.5883065462112427, 0.5870612859725952, 0.5366212725639343, 0.43107882142066956, 0.45751968026161194, 0.4701717495918274, 0.11733891069889069, 0.2412005364894867, 0.1264823079109192, 0.1754612922668457, 0.2821446657180786, 0.22283558547496796, 0.2572742700576782, 0.25595706701278687, 0.1965097039937973, 0.4551025927066803, 0.43497949838638306, 0.5635307431221008, 0.45382604002952576, 0.39274829626083374, 0.2783598005771637, 0.13869191706180573, 0.06439860165119171, 0.08698046952486038, 0.08177648484706879, 0.10492607206106186, 0.1562771201133728, 0.11720092594623566, 0.10050573199987411, 0.14109116792678833]</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.824680507183075</v>
+        <v>0.8964947462081909</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1.193604099971708</v>
+        <v>1.237755300011486</v>
       </c>
       <c r="J46" t="n">
-        <v>0.005603775117238066</v>
+        <v>0.005811057746532797</v>
       </c>
     </row>
     <row r="47">
@@ -2405,11 +2405,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[0.057942651212215424, 0.07485486567020416, 0.05451936274766922, 0.058462031185626984, 0.03957907110452652, 0.03865988552570343, 0.03704492002725601, 0.04452589154243469, 0.04196474701166153, 0.04598665237426758, 0.04676920548081398, 0.045198939740657806, 0.05497261509299278, 0.06728731840848923, 0.05449524149298668, 0.04327907785773277, 0.04798715561628342, 0.053215838968753815, 0.06629256904125214, 0.05606171488761902, 0.05372564494609833, 0.07519698888063431, 0.08882102370262146, 0.08320054411888123, 0.09698458760976791, 0.06252798438072205, 0.10197339206933975, 0.10764864087104797, 0.06756168603897095, 0.09734700620174408, 0.0771087184548378, 0.08360675722360611, 0.06652045994997025, 0.04900873452425003, 0.05299857258796692, 0.0666423887014389, 0.05251271650195122, 0.056489523500204086, 0.055697280913591385, 0.06011924520134926, 0.06006699427962303, 0.07650158554315567, 0.12334123253822327, 0.08359875530004501, 0.06146838888525963, 0.04771464318037033, 0.09197621792554855, 0.06446139514446259, 0.08551517874002457, 0.08043891191482544, 0.05334335193037987, 0.030756423249840736, 0.033559806644916534, 0.03461345285177231, 0.041765134781599045, 0.05814124271273613, 0.06788865476846695, 0.060913510620594025, 0.04614441841840744, 0.05183768272399902, 0.05127286911010742, 0.06088893860578537, 0.048346273601055145, 0.04679463058710098, 0.047775425016880035, 0.08835984021425247, 0.0858752503991127, 0.05717631056904793, 0.13849318027496338, 0.11881987005472183, 0.09116868674755096, 0.04020446166396141, 0.039926014840602875, 0.05572746321558952, 0.06844412535429001, 0.055396050214767456, 0.05525911599397659, 0.04623393714427948, 0.041279423981904984, 0.0483316145837307, 0.07533595710992813, 0.06842277199029922, 0.04996852949261665, 0.05262615531682968, 0.051066216081380844, 0.055067457258701324, 0.05669010430574417, 0.05406986176967621, 0.062260955572128296, 0.06876130402088165, 0.08140180259943008, 0.0665849968791008, 0.09975380450487137, 0.11881932616233826, 0.07740646600723267, 0.1096009612083435, 0.0769587829709053, 0.10456334799528122, 0.14527779817581177, 0.12641790509223938, 0.16775955259799957, 0.14169391989707947, 0.13749125599861145, 0.12165738642215729, 0.09310458600521088, 0.0984480232000351, 0.09401225298643112, 0.13327455520629883, 0.11931345611810684, 0.12753522396087646, 0.14099253714084625, 0.1337546706199646, 0.1283433884382248, 0.10975790023803711, 0.06477756798267365, 0.06631986051797867, 0.07050434499979019, 0.07615248113870621, 0.09237074851989746, 0.13193809986114502, 0.17768114805221558, 0.13302208483219147, 0.12109263986349106, 0.11230931431055069, 0.10079219192266464, 0.08905816078186035, 0.08200047165155411, 0.12053783982992172, 0.15021318197250366, 0.17225725948810577, 0.08239806443452835, 0.07140258699655533, 0.08482341468334198, 0.09815201908349991, 0.0878002941608429, 0.07180629670619965, 0.08435871452093124, 0.06720266491174698, 0.08208397030830383, 0.12938188016414642, 0.14057588577270508, 0.20467251539230347, 0.165926992893219, 0.0767243504524231, 0.09120464324951172, 0.1211913600564003, 0.21382302045822144, 0.17224816977977753, 0.17975516617298126, 0.21671108901500702, 0.12280582636594772, 0.09129874408245087, 0.08803725242614746, 0.13114894926548004, 0.15874621272087097, 0.192732036113739, 0.11605003476142883, 0.09227179735898972, 0.08210727572441101, 0.11355110257863998, 0.14706936478614807, 0.13932830095291138, 0.188828706741333, 0.14689289033412933, 0.11517734080553055, 0.10736837983131409, 0.09945148974657059, 0.09856994450092316, 0.11687714606523514, 0.09013605862855911, 0.09951944649219513, 0.07256994396448135, 0.059500884264707565, 0.05799570679664612, 0.0592513345181942, 0.05930565670132637, 0.06702229380607605, 0.07878964394330978, 0.08332381397485733, 0.11646009981632233, 0.13390801846981049, 0.14956092834472656, 0.12223901599645615, 0.12847313284873962, 0.16508352756500244, 0.0920662134885788, 0.08424742519855499, 0.10575298219919205, 0.1453191488981247, 0.17326566576957703, 0.22440963983535767, 0.18629808723926544, 0.2443288415670395, 0.19986997544765472, 0.13663597404956818, 0.1209973618388176, 0.1175195500254631, 0.13455569744110107, 0.15004383027553558, 0.16202883422374725, 0.19476282596588135, 0.17932260036468506, 0.2581101655960083, 0.24677586555480957, 0.18780148029327393, 0.17520193755626678, 0.19410547614097595, 0.1678006947040558, 0.221500426530838, 0.19887037575244904, 0.22745050489902496, 0.3343469202518463, 0.24555735290050507]</t>
+          <t>[0.03700859844684601, 0.07320770621299744, 0.04079733043909073, 0.037354081869125366, 0.018884509801864624, 0.01573985069990158, 0.013688505627214909, 0.021338891237974167, 0.018215734511613846, 0.020672298967838287, 0.022451234981417656, 0.021207671612501144, 0.03416511416435242, 0.03230206295847893, 0.023868024349212646, 0.0176957119256258, 0.01688246615231037, 0.01813412457704544, 0.02409733645617962, 0.01991942524909973, 0.019875947386026382, 0.027987537905573845, 0.038253989070653915, 0.036294084042310715, 0.059267785400152206, 0.03850148245692253, 0.0659632459282875, 0.056802812963724136, 0.028029894456267357, 0.04048743098974228, 0.023775490000844002, 0.022868266329169273, 0.021171951666474342, 0.014389537274837494, 0.018990647047758102, 0.034342776983976364, 0.02342645823955536, 0.02178110182285309, 0.02265026979148388, 0.03652589023113251, 0.03057108074426651, 0.06659766286611557, 0.09619435667991638, 0.05185747891664505, 0.03504427894949913, 0.02243051305413246, 0.05998803302645683, 0.04003562405705452, 0.08274117857217789, 0.06705086678266525, 0.040733981877565384, 0.017648091539740562, 0.026610221713781357, 0.024960963055491447, 0.031203197315335274, 0.050345953553915024, 0.06868577003479004, 0.06795591115951538, 0.02932722494006157, 0.02873929776251316, 0.02452782168984413, 0.030747072771191597, 0.02654942497611046, 0.027865497395396233, 0.026033587753772736, 0.10397940874099731, 0.0685344785451889, 0.0355059914290905, 0.08431185781955719, 0.06896323710680008, 0.05774715542793274, 0.01755792275071144, 0.01567426137626171, 0.022520465776324272, 0.038815729320049286, 0.023324523121118546, 0.02275230549275875, 0.017828786745667458, 0.017197569832205772, 0.026752319186925888, 0.04365815967321396, 0.037793081253767014, 0.026357335969805717, 0.03127067908644676, 0.03102199174463749, 0.021959681063890457, 0.018259311094880104, 0.017536018043756485, 0.030202286317944527, 0.04149945080280304, 0.054982930421829224, 0.05360901355743408, 0.09262455999851227, 0.10766533762216568, 0.05587795376777649, 0.11390555649995804, 0.06678999960422516, 0.20306383073329926, 0.26346930861473083, 0.15948517620563507, 0.22167536616325378, 0.12777017056941986, 0.10959842056035995, 0.08506632596254349, 0.045979101210832596, 0.059348348528146744, 0.05964510887861252, 0.15997648239135742, 0.14074166119098663, 0.16310247778892517, 0.20140282809734344, 0.18109998106956482, 0.15939879417419434, 0.11774501949548721, 0.04877966642379761, 0.05202906206250191, 0.05863885208964348, 0.05733203887939453, 0.07546813040971756, 0.11113670468330383, 0.16620197892189026, 0.11972466111183167, 0.11785966902971268, 0.12654027342796326, 0.09592504054307938, 0.0801631361246109, 0.06762614101171494, 0.10056009888648987, 0.12244323641061783, 0.17284709215164185, 0.05465449020266533, 0.03905171900987625, 0.053992316126823425, 0.06588546186685562, 0.0498519092798233, 0.03951794281601906, 0.058052875101566315, 0.04332507774233818, 0.05596780776977539, 0.13107793033123016, 0.1089053824543953, 0.19975894689559937, 0.15969879925251007, 0.06403246521949768, 0.08160869777202606, 0.1160806268453598, 0.17020657658576965, 0.12213219702243805, 0.16209958493709564, 0.21613486111164093, 0.08213432133197784, 0.053724486380815506, 0.05093979090452194, 0.1117095947265625, 0.1696530133485794, 0.179989755153656, 0.08495436608791351, 0.062319207936525345, 0.057083748281002045, 0.09762032330036163, 0.12387348711490631, 0.1164318397641182, 0.1839926689863205, 0.14160963892936707, 0.08696398884057999, 0.06550648808479309, 0.0756855234503746, 0.07682569324970245, 0.09052006900310516, 0.05840618535876274, 0.06740642338991165, 0.041355159133672714, 0.02972928062081337, 0.029912998899817467, 0.032847702503204346, 0.031508445739746094, 0.03303450718522072, 0.04010947793722153, 0.045178983360528946, 0.0702076330780983, 0.08644341677427292, 0.10867144912481308, 0.0759795680642128, 0.09348868578672409, 0.15449699759483337, 0.058770790696144104, 0.05479652062058449, 0.07163584232330322, 0.10172443091869354, 0.15549859404563904, 0.2323104292154312, 0.14518660306930542, 0.20121385157108307, 0.16528093814849854, 0.08233753591775894, 0.08448278158903122, 0.07666585594415665, 0.08457235991954803, 0.09835931658744812, 0.10915245860815048, 0.14292237162590027, 0.10225875675678253, 0.25444555282592773, 0.2692745327949524, 0.17671722173690796, 0.12726686894893646, 0.1561255306005478, 0.12272397428750992, 0.2433750033378601, 0.21067392826080322, 0.21626409888267517, 0.3373618423938751, 0.22591178119182587]</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.3343469202518463</v>
+        <v>0.3373618423938751</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -2423,10 +2423,10 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1.196320699993521</v>
+        <v>1.196235399998841</v>
       </c>
       <c r="J47" t="n">
-        <v>0.005616529107950803</v>
+        <v>0.005616128638492211</v>
       </c>
     </row>
     <row r="48">
@@ -2445,11 +2445,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[0.1628570705652237, 0.19976791739463806, 0.18827638030052185, 0.2829054296016693, 0.3848917484283447, 0.39149776101112366, 0.2302197366952896, 0.2063387930393219, 0.18378350138664246, 0.18272405862808228, 0.18157029151916504, 0.1927463412284851, 0.20211106538772583, 0.14114929735660553, 0.14352943003177643, 0.13296546041965485, 0.14363713562488556, 0.23318643867969513, 0.27495068311691284, 0.20146752893924713, 0.1933814287185669, 0.14579015970230103, 0.1582319438457489, 0.24131891131401062, 0.213717982172966, 0.19875523447990417, 0.200326070189476, 0.1445750892162323, 0.21199867129325867, 0.3434896171092987, 0.21217456459999084, 0.20393337309360504, 0.13813470304012299, 0.15951301157474518, 0.1524890661239624, 0.14512434601783752, 0.12782983481884003, 0.14757777750492096, 0.15342752635478973, 0.09516999870538712, 0.09911959618330002, 0.12363564968109131, 0.09843161702156067, 0.11908773332834244, 0.13243670761585236, 0.06836272031068802, 0.0969475507736206, 0.10779686272144318, 0.17036689817905426, 0.13485106825828552, 0.13761427998542786, 0.1367180347442627, 0.11079850792884827, 0.1278417557477951, 0.08545560389757156, 0.07055020332336426, 0.0906171053647995, 0.09990439563989639, 0.07418204098939896, 0.05745287984609604, 0.05391170457005501, 0.14107002317905426, 0.14919964969158173, 0.1429971158504486, 0.18139320611953735, 0.12230441719293594, 0.15963616967201233, 0.15411213040351868, 0.10519354790449142, 0.09145452827215195, 0.08173845708370209, 0.09573919326066971, 0.08562247455120087, 0.08365702629089355, 0.07263414561748505, 0.09545577317476273, 0.09841529279947281, 0.0698271170258522, 0.08986561745405197, 0.10048610717058182, 0.1047901138663292, 0.07047853618860245, 0.09121603518724442, 0.1066705510020256, 0.08686976134777069, 0.09184767305850983, 0.11930343508720398, 0.12614667415618896, 0.1275937408208847, 0.08177582919597626, 0.07860453426837921, 0.09999394416809082, 0.12226461619138718, 0.10832974314689636, 0.14495868980884552, 0.1575748473405838, 0.1592550426721573, 0.17575569450855255, 0.16981615126132965, 0.1660918891429901, 0.14243477582931519, 0.096587635576725, 0.11400846391916275, 0.08991562575101852, 0.08779391646385193, 0.07705485820770264, 0.0828469842672348, 0.06474039703607559, 0.08069067448377609, 0.11166292428970337, 0.12079436331987381, 0.11623217910528183, 0.10815942287445068, 0.09429292380809784, 0.07419101148843765, 0.07235054671764374, 0.063839390873909, 0.049123574048280716, 0.04221617802977562, 0.052860066294670105, 0.08373022824525833, 0.07380842417478561, 0.09341409057378769, 0.059291016310453415, 0.052872054278850555, 0.07062403857707977, 0.07958865165710449, 0.0707835778594017, 0.08544589579105377, 0.0744849145412445, 0.06832264363765717, 0.09372935444116592, 0.08140315115451813, 0.07838074862957001, 0.07436421513557434, 0.07462142407894135, 0.13384650647640228, 0.06472746282815933, 0.0664442703127861, 0.062330298125743866, 0.08239907771348953, 0.06907972693443298, 0.06416904181241989, 0.13126440346240997, 0.1278294175863266, 0.12109076231718063, 0.1223885715007782, 0.0991341769695282, 0.09103281795978546, 0.07069980353116989, 0.1270471215248108, 0.14308419823646545, 0.12154087424278259, 0.148784801363945, 0.12736749649047852, 0.12247627973556519, 0.237130805850029, 0.23457452654838562, 0.1318725198507309, 0.14774858951568604, 0.17137634754180908, 0.19438382983207703, 0.16609051823616028, 0.19599594175815582, 0.13725879788398743, 0.1574433594942093, 0.13731303811073303, 0.10604917258024216, 0.1123349592089653, 0.0841541439294815, 0.11052800714969635, 0.10479303449392319, 0.09796489775180817, 0.09022711962461472, 0.09066709876060486, 0.08029261976480484, 0.06971126049757004, 0.05994622781872749, 0.05539993196725845, 0.06301497668027878, 0.08234401792287827, 0.0813906267285347, 0.06925208121538162, 0.0674436017870903, 0.07207141071557999, 0.06760050356388092, 0.06634480506181717, 0.05955127626657486, 0.07653876394033432, 0.07343968749046326, 0.07353661209344864, 0.08912630379199982, 0.1366453468799591, 0.14336806535720825, 0.10435759276151657, 0.19179968535900116, 0.1481265276670456, 0.1288348138332367, 0.21191388368606567, 0.33025625348091125, 0.35657116770744324, 0.37262535095214844, 0.18147268891334534, 0.3013155162334442, 0.45535171031951904, 0.3268108367919922, 0.23259155452251434, 0.1395157426595688, 0.13267670571804047, 0.12994174659252167, 0.15639160573482513, 0.12637892365455627, 0.12670418620109558]</t>
+          <t>[0.11345958709716797, 0.17283396422863007, 0.12068791687488556, 0.3368399441242218, 0.5740724802017212, 0.5192668437957764, 0.2284814715385437, 0.1791173368692398, 0.14937058091163635, 0.15726742148399353, 0.16285786032676697, 0.2214805781841278, 0.25527268648147583, 0.11451663821935654, 0.11184395104646683, 0.10209555178880692, 0.12434490025043488, 0.32171618938446045, 0.3452681601047516, 0.16461311280727386, 0.16893945634365082, 0.11782350391149521, 0.14990589022636414, 0.2726573348045349, 0.19748196005821228, 0.16719073057174683, 0.17082852125167847, 0.11672890931367874, 0.23222486674785614, 0.44691240787506104, 0.26520782709121704, 0.20542781054973602, 0.10985326766967773, 0.15033270418643951, 0.1585361659526825, 0.12091817706823349, 0.07923272997140884, 0.08634709566831589, 0.09238161146640778, 0.0586952306330204, 0.08025761693716049, 0.1207733228802681, 0.06476377695798874, 0.07734307646751404, 0.09231835603713989, 0.028333360329270363, 0.04903925582766533, 0.07328027486801147, 0.16134986281394958, 0.11515611410140991, 0.12617605924606323, 0.13012298941612244, 0.08676107972860336, 0.10810763388872147, 0.0626201331615448, 0.05491815507411957, 0.09731277078390121, 0.09716423600912094, 0.062092289328575134, 0.03204952925443649, 0.026581207290291786, 0.16777557134628296, 0.21513162553310394, 0.19716958701610565, 0.2945299446582794, 0.08707775920629501, 0.13245950639247894, 0.1376829445362091, 0.059426821768283844, 0.04930053651332855, 0.04303092136979103, 0.06733497232198715, 0.05590137839317322, 0.04918624460697174, 0.03874578699469566, 0.06136457622051239, 0.05970082804560661, 0.04341680556535721, 0.04840375855565071, 0.05313175916671753, 0.052219294011592865, 0.029839463531970978, 0.05410848930478096, 0.07118909806013107, 0.03283410891890526, 0.03555141016840935, 0.057480376213788986, 0.06702175736427307, 0.07953676581382751, 0.02919745445251465, 0.030686168000102043, 0.0355667807161808, 0.050710853189229965, 0.0465523861348629, 0.06960577517747879, 0.08082833141088486, 0.06113879010081291, 0.07877964526414871, 0.06939109414815903, 0.06833184510469437, 0.053635161370038986, 0.024348556995391846, 0.02652902342379093, 0.018319323658943176, 0.019864901900291443, 0.02119825966656208, 0.02268216945230961, 0.024664198979735374, 0.03154345229268074, 0.058871250599622726, 0.06385905295610428, 0.05992519482970238, 0.04597390815615654, 0.03505725786089897, 0.03445036709308624, 0.03557606041431427, 0.027435030788183212, 0.017660116776823997, 0.012921318411827087, 0.01821831986308098, 0.02582165040075779, 0.02532052807509899, 0.03223191201686859, 0.01924038678407669, 0.018472691997885704, 0.021961113438010216, 0.027250507846474648, 0.021117636933922768, 0.02804919332265854, 0.021519580855965614, 0.02155626378953457, 0.029275311157107353, 0.027173593640327454, 0.026005418971180916, 0.028914563357830048, 0.027912139892578125, 0.05702370032668114, 0.022451946511864662, 0.026466114446520805, 0.025510113686323166, 0.04134228825569153, 0.03236881643533707, 0.031123600900173187, 0.08975641429424286, 0.08242420852184296, 0.06417963653802872, 0.057233862578868866, 0.048243239521980286, 0.05179606378078461, 0.03671946004033089, 0.0858863964676857, 0.08874836564064026, 0.07607005536556244, 0.10371977090835571, 0.09268219023942947, 0.09518012404441833, 0.170653834939003, 0.1330176442861557, 0.07413722574710846, 0.10434748232364655, 0.10576247423887253, 0.11479050666093826, 0.08984570950269699, 0.11444616317749023, 0.07940631359815598, 0.08783980458974838, 0.08722236007452011, 0.07218961417675018, 0.08423164486885071, 0.04612547531723976, 0.06525500118732452, 0.060656554996967316, 0.06061749532818794, 0.05448385328054428, 0.06268646568059921, 0.049362052232027054, 0.038578297942876816, 0.03058154322206974, 0.02724122628569603, 0.033834073692560196, 0.04727427661418915, 0.0389166921377182, 0.03354521840810776, 0.03601505234837532, 0.04001789167523384, 0.04064151644706726, 0.037391629070043564, 0.0333942286670208, 0.03934170678257942, 0.033414918929338455, 0.04111407697200775, 0.048567935824394226, 0.09269054979085922, 0.09192724525928497, 0.06166527792811394, 0.12015140056610107, 0.08507686108350754, 0.06424888968467712, 0.15590985119342804, 0.3873158097267151, 0.43467533588409424, 0.5219975113868713, 0.19691701233386993, 0.3659280836582184, 0.6974553465843201, 0.5886386036872864, 0.3387749195098877, 0.1665058434009552, 0.10575492680072784, 0.08692245185375214, 0.12809176743030548, 0.0669732317328453, 0.06707513332366943]</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.455351710319519</v>
+        <v>0.6974553465843201</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1.191888900008053</v>
+        <v>1.197503799994593</v>
       </c>
       <c r="J48" t="n">
-        <v>0.005595722535249073</v>
+        <v>0.00562208356804973</v>
       </c>
     </row>
     <row r="49">
@@ -2485,11 +2485,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[0.08736473321914673, 0.06493654102087021, 0.0667530745267868, 0.0525563545525074, 0.05911559984087944, 0.07968981564044952, 0.12774795293807983, 0.11272723972797394, 0.14149686694145203, 0.10394885390996933, 0.07248422503471375, 0.054129499942064285, 0.05527849495410919, 0.06430930644273758, 0.0944509208202362, 0.059255316853523254, 0.083205945789814, 0.12078104168176651, 0.10710213333368301, 0.20508834719657898, 0.1768881231546402, 0.11405134946107864, 0.1342279314994812, 0.10170098394155502, 0.07943635433912277, 0.06798117607831955, 0.15537217259407043, 0.12368274480104446, 0.15041010081768036, 0.07721710950136185, 0.0675838366150856, 0.14403079450130463, 0.10032589733600616, 0.1013135313987732, 0.08695835620164871, 0.10149365663528442, 0.09099811315536499, 0.09612897038459778, 0.10748627781867981, 0.12484163045883179, 0.11011380702257156, 0.10152392089366913, 0.11581302434206009, 0.24789851903915405, 0.2088342159986496, 0.3661144971847534, 0.4554308354854584, 0.34275850653648376, 0.17519274353981018, 0.21572192013263702, 0.1617090404033661, 0.23820744454860687, 0.19964715838432312, 0.16584542393684387, 0.2010333091020584, 0.17390011250972748, 0.1730114072561264, 0.10889150202274323, 0.19164687395095825, 0.13667291402816772, 0.18254046142101288, 0.27129828929901123, 0.35144370794296265, 0.2696201205253601, 0.23207522928714752, 0.27583053708076477, 0.2509416937828064, 0.19470831751823425, 0.14399412274360657, 0.12627117335796356, 0.2864638566970825, 0.30602824687957764, 0.5029918551445007, 0.5774915218353271, 0.4858211278915405, 0.26064518094062805, 0.42810875177383423, 0.49245160818099976, 0.14279301464557648, 0.1583084762096405, 0.20784547924995422, 0.1153532862663269, 0.10077819973230362, 0.12025774270296097, 0.23504050076007843, 0.2846277952194214, 0.25207775831222534, 0.37041741609573364, 0.17898660898208618, 0.1843722015619278, 0.19569092988967896, 0.32666054368019104, 0.4065484404563904, 0.38887906074523926, 0.13070109486579895, 0.23618054389953613, 0.34384727478027344, 0.28170663118362427, 0.21991859376430511, 0.21940366923809052, 0.27713680267333984, 0.1890806406736374, 0.14893314242362976, 0.10307088494300842, 0.07676877081394196, 0.09302154183387756, 0.07911010831594467, 0.07413043826818466, 0.17070241272449493, 0.23733821511268616, 0.26372846961021423, 0.34405064582824707, 0.43187785148620605, 0.5154281258583069, 0.2779773771762848, 0.19097885489463806, 0.23370786011219025, 0.18616878986358643, 0.17188499867916107, 0.13708826899528503, 0.10549334436655045, 0.10454592853784561, 0.08393856883049011, 0.060820505023002625, 0.06459569931030273, 0.062558613717556, 0.05841662734746933, 0.05101063475012779, 0.05956720933318138, 0.05821829289197922, 0.061790831387043, 0.10123413056135178, 0.1234060600399971, 0.12353474646806717, 0.19721126556396484, 0.11126899719238281, 0.07575535029172897, 0.06454144418239594, 0.05917033925652504, 0.04601694270968437, 0.051553841680288315, 0.04815223440527916, 0.057488515973091125, 0.07135029137134552, 0.06344108283519745, 0.1032465398311615, 0.0505058690905571, 0.05226580426096916, 0.057311542332172394, 0.10139051079750061, 0.05628000572323799, 0.05799082666635513, 0.05166104435920715, 0.04911031946539879, 0.0701012909412384, 0.07470791786909103, 0.06416105479001999, 0.05091261491179466, 0.06358303874731064, 0.07456167787313461, 0.10321483016014099, 0.10497280210256577, 0.09812447428703308, 0.12104897946119308, 0.12957389652729034, 0.11595764011144638, 0.08592456579208374, 0.11772255599498749, 0.10261491686105728, 0.06796222180128098, 0.04885458946228027, 0.05712353438138962, 0.09710732847452164, 0.0859638899564743, 0.07682615518569946, 0.06522058695554733, 0.06832795590162277, 0.05771558731794357, 0.031113041564822197, 0.08285848796367645, 0.07902146875858307, 0.09942172467708588, 0.16635242104530334, 0.17127850651741028, 0.1744072586297989, 0.18426965177059174, 0.1851065754890442, 0.1790495067834854, 0.22793132066726685, 0.12506651878356934, 0.13882960379123688, 0.19102293252944946, 0.31940606236457825, 0.32822635769844055, 0.15352727472782135, 0.3016350567340851, 0.21211294829845428, 0.1374039500951767, 0.13765482604503632, 0.09194713085889816, 0.07589385658502579, 0.07283436506986618, 0.08456506580114365, 0.10128548741340637, 0.0905388742685318, 0.11363855749368668, 0.08062777668237686, 0.056926023215055466, 0.055917274206876755, 0.089512899518013, 0.11345108598470688, 0.14407770335674286, 0.1316099911928177]</t>
+          <t>[0.07185272872447968, 0.04701035097241402, 0.05223826691508293, 0.03127046674489975, 0.037605170160532, 0.06283996254205704, 0.11794035136699677, 0.12477878481149673, 0.17127002775669098, 0.10451480746269226, 0.05617968365550041, 0.03363098204135895, 0.029274193570017815, 0.041225891560316086, 0.07047318667173386, 0.03807971253991127, 0.04256562143564224, 0.06888075917959213, 0.07632031291723251, 0.21591641008853912, 0.22032158076763153, 0.10938269644975662, 0.12505397200584412, 0.07838282734155655, 0.05341874808073044, 0.04372784495353699, 0.19223041832447052, 0.11008583009243011, 0.1480591893196106, 0.06402401626110077, 0.06144476681947708, 0.23820184171199799, 0.08558686822652817, 0.09814134985208511, 0.06386499106884003, 0.07675324380397797, 0.06589117646217346, 0.07295970618724823, 0.09299404174089432, 0.11771832406520844, 0.09771927446126938, 0.07920617610216141, 0.10682050883769989, 0.21006231009960175, 0.2496832311153412, 0.4638678729534149, 0.6329696774482727, 0.4192168712615967, 0.1806187927722931, 0.2911747992038727, 0.18031680583953857, 0.24865055084228516, 0.17572422325611115, 0.2073448896408081, 0.20870420336723328, 0.17680153250694275, 0.19003801047801971, 0.10877490788698196, 0.2306121289730072, 0.15163014829158783, 0.21007822453975677, 0.3334471881389618, 0.4277638792991638, 0.3294569253921509, 0.27572283148765564, 0.39313650131225586, 0.3382693827152252, 0.27232056856155396, 0.16089168190956116, 0.17049627006053925, 0.4007885158061981, 0.42698004841804504, 0.555036723613739, 0.7022050619125366, 0.6965455412864685, 0.3342016339302063, 0.6582366228103638, 0.7177067995071411, 0.18769292533397675, 0.1532384604215622, 0.2545887529850006, 0.10111261159181595, 0.085941381752491, 0.12179409712553024, 0.31489098072052, 0.45339348912239075, 0.3751716613769531, 0.49557939171791077, 0.1370254009962082, 0.1324249804019928, 0.17076179385185242, 0.34646281599998474, 0.3993731141090393, 0.39183181524276733, 0.08058494329452515, 0.21042796969413757, 0.3842231333255768, 0.224849134683609, 0.18166759610176086, 0.19668841361999512, 0.24266397953033447, 0.18750156462192535, 0.11397029459476471, 0.11027491837739944, 0.056464675813913345, 0.07848041504621506, 0.06815344095230103, 0.08390302956104279, 0.2851591408252716, 0.27666932344436646, 0.33329060673713684, 0.4129881262779236, 0.4286822974681854, 0.5287588238716125, 0.41572076082229614, 0.21144738793373108, 0.22281336784362793, 0.2198486030101776, 0.1719764769077301, 0.12337520718574524, 0.09850814938545227, 0.13022369146347046, 0.0999431237578392, 0.03930782526731491, 0.05178823694586754, 0.05211638659238815, 0.03964652866125107, 0.02663523145020008, 0.03728821873664856, 0.03572768345475197, 0.03852510824799538, 0.08760327845811844, 0.12245752662420273, 0.14254584908485413, 0.23923325538635254, 0.1006346195936203, 0.059135254472494125, 0.04624830558896065, 0.0364631749689579, 0.024508217349648476, 0.026374490931630135, 0.022906729951500893, 0.025478120893239975, 0.028560923412442207, 0.032677292823791504, 0.07269454002380371, 0.03369501605629921, 0.03504294157028198, 0.039003461599349976, 0.07662814855575562, 0.02926383540034294, 0.03404689207673073, 0.03058156929910183, 0.027403954416513443, 0.04329024627804756, 0.04737894609570503, 0.057040974497795105, 0.037390660494565964, 0.044905293732881546, 0.05847502499818802, 0.09891431033611298, 0.08383733779191971, 0.07295987755060196, 0.0924612507224083, 0.09071560204029083, 0.08852166682481766, 0.056400880217552185, 0.10720685124397278, 0.0995420590043068, 0.05108516290783882, 0.028285199776291847, 0.03265596181154251, 0.051589734852313995, 0.043549131602048874, 0.035401154309511185, 0.027800993993878365, 0.03140702098608017, 0.029949327930808067, 0.023374399170279503, 0.08289893716573715, 0.06840216368436813, 0.07291541993618011, 0.12545661628246307, 0.13193659484386444, 0.12556476891040802, 0.1482463777065277, 0.1636427342891693, 0.1543966382741928, 0.25348761677742004, 0.10828988999128342, 0.14946267008781433, 0.23371948301792145, 0.4030006527900696, 0.32067301869392395, 0.13103409111499786, 0.42304420471191406, 0.30166566371917725, 0.16681566834449768, 0.0978190004825592, 0.05019104853272438, 0.0490325503051281, 0.03764265030622482, 0.05166233330965042, 0.0598738007247448, 0.062160808593034744, 0.05905163288116455, 0.03789272531867027, 0.026045221835374832, 0.03104766272008419, 0.06058383733034134, 0.0776495486497879, 0.09279871731996536, 0.08138842135667801]</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.5774915218353271</v>
+        <v>0.7177067995071411</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1.190138999983901</v>
+        <v>1.193162000010489</v>
       </c>
       <c r="J49" t="n">
-        <v>0.005587507042177939</v>
+        <v>0.005601699530565674</v>
       </c>
     </row>
     <row r="50">
@@ -2525,11 +2525,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[0.3482336103916168, 0.42378854751586914, 0.37242570519447327, 0.3685183525085449, 0.3161490857601166, 0.40399280190467834, 0.24165789783000946, 0.23402434587478638, 0.18438811600208282, 0.2521047294139862, 0.1910274773836136, 0.32026195526123047, 0.3892025649547577, 0.41183122992515564, 0.3581801652908325, 0.2625466585159302, 0.25824040174484253, 0.3193790316581726, 0.35957109928131104, 0.4566667675971985, 0.4449874460697174, 0.3849448561668396, 0.2829054892063141, 0.28526607155799866, 0.25342175364494324, 0.25122353434562683, 0.24756287038326263, 0.3301747739315033, 0.23481501638889313, 0.19609351456165314, 0.2109733521938324, 0.21221260726451874, 0.25118279457092285, 0.3990725576877594, 0.41208675503730774, 0.2541303336620331, 0.26374927163124084, 0.3413480222225189, 0.3530281186103821, 0.30676746368408203, 0.2517455518245697, 0.22077476978302002, 0.18128575384616852, 0.1796102225780487, 0.17332372069358826, 0.16993974149227142, 0.16179589927196503, 0.13832511007785797, 0.1742992103099823, 0.20363657176494598, 0.3218972384929657, 0.42583271861076355, 0.10623907297849655, 0.07373848557472229, 0.06757598370313644, 0.08865413069725037, 0.13435949385166168, 0.15850594639778137, 0.21123236417770386, 0.2708086669445038, 0.23126253485679626, 0.20644594728946686, 0.17699643969535828, 0.2357175201177597, 0.18518361449241638, 0.09525716304779053, 0.07971951365470886, 0.07403454184532166, 0.13529200851917267, 0.18843981623649597, 0.15391497313976288, 0.11798033863306046, 0.08644269406795502, 0.12163697183132172, 0.15968213975429535, 0.15515971183776855, 0.1506810188293457, 0.1232747808098793, 0.1995178759098053, 0.28212037682533264, 0.4682171642780304, 0.41490137577056885, 0.3812260031700134, 0.23305962979793549, 0.383339524269104, 0.4535522758960724, 0.555476188659668, 0.5160889029502869, 0.5314027070999146, 0.4123976230621338, 0.4310123920440674, 0.3946499824523926, 0.47638872265815735, 0.5526231527328491, 0.4819242060184479, 0.5752128958702087, 0.5342011451721191, 0.5064942240715027, 0.44273364543914795, 0.40482282638549805, 0.37333428859710693, 0.41703009605407715, 0.4098484218120575, 0.35212242603302, 0.5166219472885132, 0.33643627166748047, 0.4178095757961273, 0.3208651542663574, 0.2621747851371765, 0.2568489909172058, 0.21866858005523682, 0.206246018409729, 0.18963366746902466, 0.2520420551300049, 0.4166370928287506, 0.4500749111175537, 0.6169930696487427, 0.2845158874988556, 0.24650490283966064, 0.1964232474565506, 0.1616198718547821, 0.12618690729141235, 0.14129219949245453, 0.1409723162651062, 0.14545932412147522, 0.14639821648597717, 0.11761699616909027, 0.07615593075752258, 0.09271553158760071, 0.13293200731277466, 0.2574205994606018, 0.23956894874572754, 0.12392128258943558, 0.11425057053565979, 0.10733915865421295, 0.11017858237028122, 0.1432809978723526, 0.13341152667999268, 0.09047625213861465, 0.0760599672794342, 0.12287537753582001, 0.13467569649219513, 0.1375764012336731, 0.2596708834171295, 0.2968522608280182, 0.2541264295578003, 0.15361621975898743, 0.12339749187231064, 0.1305459886789322, 0.0929902195930481, 0.07580572366714478, 0.08177576959133148, 0.09405803680419922, 0.11242328584194183, 0.09256322681903839, 0.09719698876142502, 0.12165981531143188, 0.10705920308828354, 0.16441203653812408, 0.09971454739570618, 0.09263911098241806, 0.058843016624450684, 0.08938863128423691, 0.08951322734355927, 0.10242296010255814, 0.0946851447224617, 0.08627244830131531, 0.106608085334301, 0.12178655713796616, 0.12196613103151321, 0.11383946985006332, 0.11399069428443909, 0.07203203439712524, 0.08160293847322464, 0.11957161128520966, 0.169121652841568, 0.11997424811124802, 0.101065494120121, 0.07997056841850281, 0.07125278562307358, 0.07004591077566147, 0.06503284722566605, 0.0769626721739769, 0.10144569724798203, 0.12621505558490753, 0.12936435639858246, 0.08332207798957825, 0.07663528621196747, 0.08978419750928879, 0.06893039494752884, 0.10248703509569168, 0.14674702286720276, 0.1379234343767166, 0.17360830307006836, 0.18759599328041077, 0.10939788073301315, 0.11357089132070541, 0.1264919489622116, 0.10407906025648117, 0.08929816633462906, 0.06652393192052841, 0.0609731562435627, 0.04065979644656181, 0.02911267802119255, 0.023480592295527458, 0.030414102599024773, 0.038358788937330246, 0.03499772027134895, 0.0376536063849926, 0.05739179253578186, 0.04852095991373062, 0.03593888878822327, 0.03710005804896355]</t>
+          <t>[0.21821507811546326, 0.2720685303211212, 0.20158515870571136, 0.23908965289592743, 0.21410170197486877, 0.3155297040939331, 0.18839681148529053, 0.21187905967235565, 0.18607011437416077, 0.24752549827098846, 0.17956960201263428, 0.2720949649810791, 0.3513909578323364, 0.3330703675746918, 0.23782046139240265, 0.14270097017288208, 0.2078212946653366, 0.2726639211177826, 0.3286427855491638, 0.40359631180763245, 0.38171496987342834, 0.32255226373672485, 0.23788630962371826, 0.22194954752922058, 0.20670725405216217, 0.21765866875648499, 0.21470963954925537, 0.34163811802864075, 0.2222052365541458, 0.15114495158195496, 0.14691834151744843, 0.14738740026950836, 0.172854483127594, 0.3559238612651825, 0.3460562527179718, 0.19505919516086578, 0.22660216689109802, 0.3268880248069763, 0.34172603487968445, 0.27145811915397644, 0.1864430010318756, 0.16527505218982697, 0.13293330371379852, 0.11369342356920242, 0.10686486959457397, 0.11842469871044159, 0.09951180964708328, 0.07723468542098999, 0.11025415360927582, 0.1336008608341217, 0.2717360854148865, 0.40812453627586365, 0.05829000100493431, 0.030294205993413925, 0.027735140174627304, 0.03685818240046501, 0.0782313197851181, 0.08718322962522507, 0.115319162607193, 0.1814681589603424, 0.14223848283290863, 0.1518247276544571, 0.10509632527828217, 0.1782221496105194, 0.13909827172756195, 0.03964390605688095, 0.03316691517829895, 0.030031854286789894, 0.0818486288189888, 0.11935732513666153, 0.07207810133695602, 0.03673059493303299, 0.030116023495793343, 0.04899296909570694, 0.08165443688631058, 0.0839848741889, 0.09092780947685242, 0.06886023283004761, 0.11220578104257584, 0.1656205803155899, 0.39541012048721313, 0.29571202397346497, 0.2695940136909485, 0.1252811998128891, 0.29586493968963623, 0.3647620677947998, 0.5260431170463562, 0.45137858390808105, 0.45601126551628113, 0.34750106930732727, 0.4886048138141632, 0.4190905690193176, 0.5485363006591797, 0.604019045829773, 0.5159571170806885, 0.6465808749198914, 0.5325412750244141, 0.5069049596786499, 0.41035208106040955, 0.3833969235420227, 0.35728922486305237, 0.3570634424686432, 0.3299170136451721, 0.2826734185218811, 0.42870306968688965, 0.2671039402484894, 0.3489230275154114, 0.274321585893631, 0.1903935670852661, 0.1593785583972931, 0.11659697443246841, 0.11697032302618027, 0.11019756644964218, 0.17873522639274597, 0.381190687417984, 0.4076516926288605, 0.5898330211639404, 0.17664538323879242, 0.13059104979038239, 0.1091194748878479, 0.06493674963712692, 0.04986684396862984, 0.0634322389960289, 0.07166873663663864, 0.08749555796384811, 0.07723376154899597, 0.04823128879070282, 0.025647634640336037, 0.037852007895708084, 0.06707155704498291, 0.11690764129161835, 0.1119239404797554, 0.05436760559678078, 0.05178050696849823, 0.046010393649339676, 0.05343064293265343, 0.10465516149997711, 0.0982205867767334, 0.050987061113119125, 0.03719836473464966, 0.06911475211381912, 0.06786441802978516, 0.06761077791452408, 0.16934838891029358, 0.2258623242378235, 0.17193648219108582, 0.06895744800567627, 0.046735089272260666, 0.05176103115081787, 0.03760102391242981, 0.028951270505785942, 0.026774736121296883, 0.03039626218378544, 0.05534796044230461, 0.03738837316632271, 0.0388045608997345, 0.06418979912996292, 0.05373956263065338, 0.08745753765106201, 0.04057585448026657, 0.03986132889986038, 0.019292132928967476, 0.03477882593870163, 0.055603425949811935, 0.059257734566926956, 0.04432599991559982, 0.04185623303055763, 0.05834116414189339, 0.07226889580488205, 0.07400313019752502, 0.07405035197734833, 0.07882318645715714, 0.03917071223258972, 0.043060511350631714, 0.056945983320474625, 0.08659976720809937, 0.06617207080125809, 0.05040494352579117, 0.0360250286757946, 0.02699900232255459, 0.02782566286623478, 0.02650168538093567, 0.031739454716444016, 0.051626160740852356, 0.08148437738418579, 0.07225549221038818, 0.03718120977282524, 0.03236791491508484, 0.037505149841308594, 0.028920499607920647, 0.05049562454223633, 0.07224958389997482, 0.06424054503440857, 0.08309207111597061, 0.09158302843570709, 0.047823261469602585, 0.04475333169102669, 0.06099735200405121, 0.045644938945770264, 0.04100889340043068, 0.030594492331147194, 0.023627812042832375, 0.016060367226600647, 0.010662234388291836, 0.007159161381423473, 0.01044364832341671, 0.014472895301878452, 0.01495017483830452, 0.01363370567560196, 0.024715103209018707, 0.02228601463139057, 0.013913895934820175, 0.015704290941357613]</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.6169930696487427</v>
+        <v>0.6465808749198914</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1.179816799995024</v>
+        <v>1.174866900008055</v>
       </c>
       <c r="J50" t="n">
-        <v>0.005539046009366309</v>
+        <v>0.00551580704229134</v>
       </c>
     </row>
     <row r="51">
@@ -2565,11 +2565,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[0.05344010517001152, 0.09431896358728409, 0.12610964477062225, 0.22324399650096893, 0.18868079781532288, 0.18024373054504395, 0.15561960637569427, 0.16277411580085754, 0.1596391499042511, 0.1867876499891281, 0.12569791078567505, 0.13153497874736786, 0.11516152322292328, 0.12439711391925812, 0.14483797550201416, 0.1327180713415146, 0.14385102689266205, 0.12471479177474976, 0.13814184069633484, 0.13767512142658234, 0.11959744244813919, 0.12540176510810852, 0.09736353904008865, 0.1203138455748558, 0.12952090799808502, 0.11304260790348053, 0.16511842608451843, 0.13496527075767517, 0.11452177166938782, 0.14886894822120667, 0.11118657886981964, 0.1346856951713562, 0.08556991070508957, 0.07601190358400345, 0.08860217034816742, 0.14170220494270325, 0.1353992074728012, 0.24003389477729797, 0.1425824910402298, 0.09445861726999283, 0.10004658997058868, 0.08340010046958923, 0.059221237897872925, 0.06198091432452202, 0.06380286067724228, 0.1272420436143875, 0.12273018807172775, 0.11451593786478043, 0.0983310341835022, 0.08852110803127289, 0.135497584939003, 0.0870259702205658, 0.10398610681295395, 0.12554536759853363, 0.15473142266273499, 0.15696386992931366, 0.13928230106830597, 0.18282778561115265, 0.333138644695282, 0.4557512402534485, 0.6083340048789978, 0.4902888834476471, 0.4710286557674408, 0.406186580657959, 0.2914453148841858, 0.21772904694080353, 0.11134215444326401, 0.08189225196838379, 0.0966850146651268, 0.08342395722866058, 0.06834781169891357, 0.07650614529848099, 0.08784682303667068, 0.08103115111589432, 0.0751105397939682, 0.08045211434364319, 0.08366435021162033, 0.08446355909109116, 0.08129429072141647, 0.08261246234178543, 0.09897509962320328, 0.22550928592681885, 0.14728201925754547, 0.11266085505485535, 0.147766575217247, 0.11997188627719879, 0.07881822437047958, 0.0665682852268219, 0.11722132563591003, 0.10091649740934372, 0.15086452662944794, 0.11585317552089691, 0.10243052989244461, 0.08711612969636917, 0.23653241991996765, 0.2770270109176636, 0.18102511763572693, 0.15689389407634735, 0.11382454633712769, 0.09147948771715164, 0.08916496485471725, 0.07176660746335983, 0.11387108266353607, 0.15724369883537292, 0.1053251102566719, 0.12910939753055573, 0.10067440569400787, 0.12615293264389038, 0.12505033612251282, 0.10400400310754776, 0.08790477365255356, 0.09599730372428894, 0.10466855764389038, 0.08640871942043304, 0.1128406748175621, 0.11408241093158722, 0.11071697622537613, 0.11036817729473114, 0.09314031898975372, 0.09594590961933136, 0.12146539241075516, 0.11069036275148392, 0.2284177541732788, 0.18989329040050507, 0.12844155728816986, 0.11015931516885757, 0.09874314069747925, 0.09457239508628845, 0.10449780523777008, 0.10281028598546982, 0.09405002743005753, 0.09330540150403976, 0.1356325000524521, 0.0893707349896431, 0.0777178630232811, 0.10917984694242477, 0.09128906577825546, 0.07386806607246399, 0.08536221086978912, 0.0979262962937355, 0.19558918476104736, 0.15376310050487518, 0.13450254499912262, 0.10974599421024323, 0.0770852193236351, 0.09653329849243164, 0.10568173974752426, 0.1236526146531105, 0.0966322124004364, 0.07380028814077377, 0.04787161573767662, 0.040840622037649155, 0.05247662961483002, 0.05256735906004906, 0.07050740718841553, 0.058039166033267975, 0.0641716867685318, 0.05180761590600014, 0.056942809373140335, 0.06859121471643448, 0.06689856946468353, 0.0474168062210083, 0.05400563403964043, 0.06005294620990753, 0.08266604691743851, 0.07808210700750351, 0.08190818876028061, 0.07545831799507141, 0.07395113259553909, 0.08653593808412552, 0.09390591084957123, 0.1459851711988449, 0.10503635555505753, 0.10577275604009628, 0.1462486982345581, 0.12845683097839355, 0.12655876576900482, 0.1330583244562149, 0.17003804445266724, 0.16434822976589203, 0.1305457204580307, 0.1779433637857437, 0.3085225522518158, 0.2463681995868683, 0.3004097640514374, 0.16046586632728577, 0.1161707267165184, 0.1205620989203453, 0.11910507082939148, 0.08573383092880249, 0.0932798683643341, 0.13061822950839996, 0.17280958592891693, 0.13245345652103424, 0.23444679379463196, 0.20866632461547852, 0.30898407101631165, 0.1698029339313507, 0.1381816864013672, 0.12497784942388535, 0.08654635399580002, 0.09779208153486252, 0.11606860160827637, 0.13039027154445648, 0.16585612297058105, 0.19165654480457306, 0.14626677334308624, 0.09285572916269302, 0.1135740652680397, 0.1008182093501091, 0.10012153536081314, 0.08252819627523422, 0.08355333656072617]</t>
+          <t>[0.025996265932917595, 0.059822846204042435, 0.08753050118684769, 0.2039598971605301, 0.14608430862426758, 0.13567201793193817, 0.10594169795513153, 0.12891700863838196, 0.13119298219680786, 0.197011798620224, 0.10920024663209915, 0.11513735353946686, 0.09533346444368362, 0.11490558832883835, 0.13355669379234314, 0.11374654620885849, 0.0929257944226265, 0.07684443145990372, 0.08849681168794632, 0.09506304562091827, 0.08062054961919785, 0.08212107419967651, 0.05612611770629883, 0.09640268981456757, 0.11663424968719482, 0.11345145106315613, 0.2031395435333252, 0.20134663581848145, 0.16344396770000458, 0.1592317372560501, 0.10903062671422958, 0.13495837152004242, 0.05706940218806267, 0.044924307614564896, 0.05684136971831322, 0.1455642580986023, 0.1436849981546402, 0.19487933814525604, 0.08639027178287506, 0.04376498609781265, 0.04750550538301468, 0.03809482604265213, 0.03213706612586975, 0.032785914838314056, 0.03410670533776283, 0.07117492705583572, 0.07145699113607407, 0.0696544349193573, 0.06888321042060852, 0.07249486446380615, 0.11666527390480042, 0.05751633271574974, 0.06961728632450104, 0.08570798486471176, 0.1477372646331787, 0.15083430707454681, 0.13805754482746124, 0.19866272807121277, 0.4346354007720947, 0.5204756855964661, 0.7977576851844788, 0.6788631081581116, 0.6292139887809753, 0.45871517062187195, 0.44947001338005066, 0.32447734475135803, 0.1106099933385849, 0.07675633579492569, 0.09368102252483368, 0.07364098727703094, 0.05664452165365219, 0.056653499603271484, 0.06837056577205658, 0.0628223791718483, 0.06621389836072922, 0.0731051117181778, 0.07802785187959671, 0.08000396192073822, 0.0747452899813652, 0.08068845421075821, 0.0901562049984932, 0.2268284559249878, 0.1402665674686432, 0.12712731957435608, 0.24978795647621155, 0.21157531440258026, 0.10874929279088974, 0.08715356141328812, 0.20612436532974243, 0.16600634157657623, 0.2473178505897522, 0.1277868151664734, 0.11270345747470856, 0.07933644205331802, 0.3694637715816498, 0.48076555132865906, 0.2639009952545166, 0.15215818583965302, 0.11154703795909882, 0.08655361831188202, 0.08645343035459518, 0.06271278113126755, 0.11618895083665848, 0.2001839280128479, 0.11199380457401276, 0.136471226811409, 0.1004546731710434, 0.12386685609817505, 0.10985953360795975, 0.07962673157453537, 0.059072691947221756, 0.08091199398040771, 0.09334277361631393, 0.06897224485874176, 0.12504050135612488, 0.11769761890172958, 0.12377429753541946, 0.1426500827074051, 0.10068822652101517, 0.10428782552480698, 0.1263260841369629, 0.12629033625125885, 0.3588060438632965, 0.2692548632621765, 0.15051378309726715, 0.1187065988779068, 0.09496154636144638, 0.06691966205835342, 0.07656904309988022, 0.09582096338272095, 0.10260850191116333, 0.10933074355125427, 0.19895513355731964, 0.09865117073059082, 0.09227506071329117, 0.14479631185531616, 0.07564642280340195, 0.07187315076589584, 0.10863330215215683, 0.0923134982585907, 0.21700096130371094, 0.1814483404159546, 0.1762477159500122, 0.10789520293474197, 0.0628085657954216, 0.09911224991083145, 0.10828445851802826, 0.12209691852331161, 0.06824270635843277, 0.04211864620447159, 0.022557390853762627, 0.02462586760520935, 0.03174198418855667, 0.03614877909421921, 0.04659423232078552, 0.03837433084845543, 0.04636745527386665, 0.03141719102859497, 0.02910793200135231, 0.039013128727674484, 0.036983270198106766, 0.0221577025949955, 0.023276353254914284, 0.03542216494679451, 0.04768853634595871, 0.04848160594701767, 0.0868256688117981, 0.061675481498241425, 0.056491974741220474, 0.08038666844367981, 0.09932135045528412, 0.1640104353427887, 0.08568430691957474, 0.06582360714673996, 0.10093483328819275, 0.0922154039144516, 0.1060028150677681, 0.13175524771213531, 0.15561090409755707, 0.1547846496105194, 0.11952827125787735, 0.1905304193496704, 0.3857879936695099, 0.31581541895866394, 0.47785690426826477, 0.2405651956796646, 0.13639657199382782, 0.1400740146636963, 0.12060660123825073, 0.06321834772825241, 0.07686670124530792, 0.13377468287944794, 0.253190279006958, 0.17234276235103607, 0.31256377696990967, 0.2040434628725052, 0.3144960105419159, 0.17588789761066437, 0.13855035603046417, 0.11374936252832413, 0.06054797023534775, 0.08101431280374527, 0.11124609410762787, 0.140852689743042, 0.22790838778018951, 0.33707892894744873, 0.21770423650741577, 0.09306603670120239, 0.15796270966529846, 0.15194308757781982, 0.1257428526878357, 0.09110426902770996, 0.10418038815259933]</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.6083340048789978</v>
+        <v>0.7977576851844788</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
@@ -2583,10 +2583,10 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1.312823899992509</v>
+        <v>1.339611599993077</v>
       </c>
       <c r="J51" t="n">
-        <v>0.006163492488227741</v>
+        <v>0.006289256337995667</v>
       </c>
     </row>
     <row r="52">
@@ -2605,11 +2605,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[0.1359563022851944, 0.12408459931612015, 0.12750643491744995, 0.12195087969303131, 0.12911191582679749, 0.11971504986286163, 0.1272411048412323, 0.13287997245788574, 0.12931686639785767, 0.07658449560403824, 0.0858437567949295, 0.07126805186271667, 0.0748024508357048, 0.12230493128299713, 0.1471422165632248, 0.15262995660305023, 0.1342381238937378, 0.17045940458774567, 0.16372044384479523, 0.1909610629081726, 0.24358254671096802, 0.2261960208415985, 0.41628602147102356, 0.35203346610069275, 0.16946905851364136, 0.24674515426158905, 0.21179789304733276, 0.15086227655410767, 0.11607921868562698, 0.09173911809921265, 0.08934571593999863, 0.08205980062484741, 0.08995796740055084, 0.159148171544075, 0.20033077895641327, 0.14509420096874237, 0.14680731296539307, 0.16766303777694702, 0.16923393309116364, 0.13035055994987488, 0.13816425204277039, 0.12052751332521439, 0.09172073751688004, 0.06951525807380676, 0.08404818922281265, 0.12154801189899445, 0.1473233699798584, 0.12594488263130188, 0.13053514063358307, 0.1459302008152008, 0.12473578751087189, 0.09509098529815674, 0.07339335978031158, 0.07082175463438034, 0.08032489567995071, 0.11017101258039474, 0.08450935781002045, 0.07883867621421814, 0.06973925977945328, 0.08009448647499084, 0.1268395632505417, 0.09693099558353424, 0.07006356120109558, 0.11330503225326538, 0.13805483281612396, 0.10356425493955612, 0.13895341753959656, 0.17119091749191284, 0.18841291964054108, 0.26922905445098877, 0.25947412848472595, 0.18629443645477295, 0.10462787002325058, 0.15994518995285034, 0.18611887097358704, 0.17494742572307587, 0.1282176822423935, 0.13088680803775787, 0.10756636410951614, 0.1347876638174057, 0.09322721511125565, 0.07486995309591293, 0.08051445335149765, 0.06497140973806381, 0.06040415167808533, 0.056379735469818115, 0.05593321844935417, 0.07398655265569687, 0.105274997651577, 0.05873223766684532, 0.050159063190221786, 0.05098447576165199, 0.05946897342801094, 0.05631636455655098, 0.07705619931221008, 0.06358660012483597, 0.05119132995605469, 0.045197732746601105, 0.04211236163973808, 0.039472151547670364, 0.04626098647713661, 0.05170093849301338, 0.05265988036990166, 0.061623040586709976, 0.07801036536693573, 0.06600262969732285, 0.046835124492645264, 0.031001927331089973, 0.026335429400205612, 0.025696994736790657, 0.023438982665538788, 0.025960709899663925, 0.0251030120998621, 0.02242797240614891, 0.02506401389837265, 0.02787388116121292, 0.03906179219484329, 0.04304928332567215, 0.04684123024344444, 0.04438595473766327, 0.033994968980550766, 0.030070491135120392, 0.034642744809389114, 0.03838168829679489, 0.038687001913785934, 0.0384305976331234, 0.03443557024002075, 0.04211781546473503, 0.04696352034807205, 0.045702014118433, 0.06737393885850906, 0.07087220996618271, 0.05336666479706764, 0.029235998168587685, 0.02658325433731079, 0.023065492510795593, 0.040338583290576935, 0.0471855066716671, 0.045928750187158585, 0.04464193806052208, 0.024107202887535095, 0.02836308255791664, 0.028754660859704018, 0.030267389491200447, 0.0288696251809597, 0.022546106949448586, 0.03241972252726555, 0.03541816025972366, 0.033572908490896225, 0.03942626714706421, 0.029672609642148018, 0.028741691261529922, 0.031157994642853737, 0.031231138855218887, 0.03544231131672859, 0.03711092844605446, 0.0416426919400692, 0.03517035394906998, 0.02679312601685524, 0.021898940205574036, 0.025486279278993607, 0.023942183703184128, 0.028447750955820084, 0.048051875084638596, 0.04595862701535225, 0.051755718886852264, 0.03006155788898468, 0.03163730725646019, 0.03130722790956497, 0.03509297966957092, 0.04034096375107765, 0.04137326776981354, 0.02983906865119934, 0.028487753123044968, 0.02971697226166725, 0.027051487937569618, 0.039416421204805374, 0.03742455318570137, 0.034798551350831985, 0.024926217272877693, 0.020697355270385742, 0.015712453052401543, 0.01495894230902195, 0.019102677702903748, 0.0173066146671772, 0.0214836522936821, 0.023802122101187706, 0.026005292311310768, 0.034507401287555695, 0.03296820446848869, 0.03374911844730377, 0.03254694864153862, 0.03770666569471359, 0.044053878635168076, 0.05275202542543411, 0.05031438544392586, 0.04358113557100296, 0.04795275628566742, 0.0599990114569664, 0.060512203723192215, 0.04595052823424339, 0.04620324820280075, 0.03371703624725342, 0.02887796238064766, 0.04443228244781494, 0.06223558261990547, 0.05765635147690773, 0.06667296588420868, 0.07498984783887863, 0.06711984425783157, 0.06331483274698257, 0.08041069656610489, 0.09696266800165176]</t>
+          <t>[0.10116096585988998, 0.08574990928173065, 0.08462736010551453, 0.0722159817814827, 0.07031121850013733, 0.06521099805831909, 0.06931949406862259, 0.07880192250013351, 0.08326680213212967, 0.04164653643965721, 0.049013711512088776, 0.03606069087982178, 0.041609205305576324, 0.0886441245675087, 0.09564127027988434, 0.08171413093805313, 0.07282029092311859, 0.13935084640979767, 0.13548001646995544, 0.1666274517774582, 0.19730821251869202, 0.20310251414775848, 0.4453672468662262, 0.3240359127521515, 0.11522217839956284, 0.1824294924736023, 0.16651488840579987, 0.09528493136167526, 0.06150199472904205, 0.04865773767232895, 0.04483887553215027, 0.038746271282434464, 0.058974094688892365, 0.12307710200548172, 0.1627267301082611, 0.08103609085083008, 0.09878412634134293, 0.10676794499158859, 0.09307573735713959, 0.07531605660915375, 0.07838477939367294, 0.07001370936632156, 0.05900495871901512, 0.040133651345968246, 0.0508725643157959, 0.09144672006368637, 0.11891867965459824, 0.10074800997972488, 0.08680933713912964, 0.09067056328058243, 0.06066421791911125, 0.03664378449320793, 0.03354651480913162, 0.03321100398898125, 0.04695615917444229, 0.07380914688110352, 0.05007561668753624, 0.04629611223936081, 0.03234715387225151, 0.04407362639904022, 0.09780639410018921, 0.0756850391626358, 0.04969555512070656, 0.07353299111127853, 0.09379227459430695, 0.06218746677041054, 0.08151474595069885, 0.13429734110832214, 0.17519702017307281, 0.2719949185848236, 0.3069072663784027, 0.1888342946767807, 0.08576098829507828, 0.1452997624874115, 0.17681176960468292, 0.16260184347629547, 0.09402716159820557, 0.13183599710464478, 0.09262362122535706, 0.1331070214509964, 0.09622492641210556, 0.06168392673134804, 0.06006178632378578, 0.0526631623506546, 0.04905841127038002, 0.03988901153206825, 0.041434645652770996, 0.056946367025375366, 0.08060028403997421, 0.03823799639940262, 0.03269631415605545, 0.039574772119522095, 0.04419371485710144, 0.04136495664715767, 0.07237213850021362, 0.05617903918027878, 0.03590737283229828, 0.030496718361973763, 0.02894432842731476, 0.028430864214897156, 0.03598613291978836, 0.045530084520578384, 0.04273580387234688, 0.05225637927651405, 0.05181504786014557, 0.05074528232216835, 0.03039037622511387, 0.01772422529757023, 0.015954846516251564, 0.013887097127735615, 0.011695892550051212, 0.015094852074980736, 0.015250125899910927, 0.013615666888654232, 0.015536492690443993, 0.020724685862660408, 0.03261197358369827, 0.033651161938905716, 0.04552303999662399, 0.03279384598135948, 0.02568635530769825, 0.02065003477036953, 0.020508181303739548, 0.023136872798204422, 0.02452898770570755, 0.026731466874480247, 0.02317831479012966, 0.022415565326809883, 0.02499401569366455, 0.022034741938114166, 0.0422457680106163, 0.05156590789556503, 0.03449683636426926, 0.019804423674941063, 0.01884828694164753, 0.014119480736553669, 0.030350685119628906, 0.043426670134067535, 0.0494081936776638, 0.04515281692147255, 0.016872068867087364, 0.01916106976568699, 0.0156862735748291, 0.017173482105135918, 0.014086661860346794, 0.010151448659598827, 0.018417963758111, 0.025794770568609238, 0.024168314412236214, 0.031213494017720222, 0.018652865663170815, 0.016255967319011688, 0.01880260556936264, 0.0206533744931221, 0.024371540173888206, 0.02154705859720707, 0.02657489664852619, 0.023256629705429077, 0.0133082689717412, 0.00987321138381958, 0.011212742887437344, 0.011479008011519909, 0.016622520983219147, 0.04436209425330162, 0.04461195319890976, 0.04877667501568794, 0.01675053872168064, 0.01624148339033127, 0.016546696424484253, 0.020648647099733353, 0.026256494224071503, 0.027637353166937828, 0.01968351937830448, 0.016748299822211266, 0.017530126497149467, 0.017013389617204666, 0.02154495194554329, 0.021250514313578606, 0.019870558753609657, 0.013044766150414944, 0.009669960476458073, 0.007284834980964661, 0.007938557304441929, 0.010242538526654243, 0.009686490520834923, 0.009441042318940163, 0.011839073151350021, 0.013428773730993271, 0.02058657445013523, 0.0181549284607172, 0.019375720992684364, 0.019735468551516533, 0.026998363435268402, 0.029653163626790047, 0.03513040393590927, 0.04234875738620758, 0.03397684171795845, 0.04382075369358063, 0.05062735825777054, 0.04366801679134369, 0.031273793429136276, 0.032664574682712555, 0.02129392884671688, 0.017758559435606003, 0.029263000935316086, 0.049856726080179214, 0.055850617587566376, 0.06230749189853668, 0.06881751120090485, 0.05873489007353783, 0.06216166913509369, 0.08803465962409973, 0.11998692154884338]</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.4162860214710236</v>
+        <v>0.4453672468662262</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -2623,10 +2623,10 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1.191655100003118</v>
+        <v>1.212635499992757</v>
       </c>
       <c r="J52" t="n">
-        <v>0.005594624882643745</v>
+        <v>0.005693124413111535</v>
       </c>
     </row>
     <row r="53">
@@ -2645,11 +2645,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[0.29804596304893494, 0.343117892742157, 0.2170165479183197, 0.46154534816741943, 0.5080175399780273, 0.7223275899887085, 0.7581086158752441, 0.8431147933006287, 0.8276817202568054, 0.6750192046165466, 0.6609222888946533, 0.7320922017097473, 0.8070351481437683, 0.8695700168609619, 0.9059829115867615, 0.9414124488830566, 0.8827421069145203, 0.8229982256889343, 0.7633309364318848, 0.7362203001976013, 0.7303011417388916, 0.6853796243667603, 0.8405463695526123, 0.8618319630622864, 0.8790175914764404, 0.884643018245697, 0.7941707372665405, 0.7819996476173401, 0.7604550719261169, 0.6404879093170166, 0.6568319201469421, 0.6844659447669983, 0.263430118560791, 0.24537017941474915, 0.18806032836437225, 0.276211142539978, 0.3849177956581116, 0.3657568693161011, 0.5140064358711243, 0.5330141186714172, 0.7691471576690674, 0.8709030747413635, 0.8470836281776428, 0.6331542730331421, 0.47145161032676697, 0.28285011649131775, 0.27988287806510925, 0.22988955676555634, 0.14468121528625488, 0.1769900918006897, 0.12222009152173996, 0.1185530498623848, 0.07104018330574036, 0.07679582387208939, 0.055632591247558594, 0.07007481157779694, 0.08588778227567673, 0.10139590501785278, 0.06712528318166733, 0.06793893873691559, 0.13768267631530762, 0.13548311591148376, 0.10876617580652237, 0.13769805431365967, 0.14305409789085388, 0.12015633285045624, 0.10235457867383957, 0.10138196498155594, 0.08288730680942535, 0.08899978548288345, 0.08471836149692535, 0.07040806859731674, 0.08087877184152603, 0.0935935229063034, 0.09632620215415955, 0.11605775356292725, 0.10285986959934235, 0.13232101500034332, 0.1866927146911621, 0.15281368792057037, 0.11966419219970703, 0.06653296202421188, 0.05677586793899536, 0.05491318181157112, 0.08580457419157028, 0.08625931292772293, 0.10383101552724838, 0.10333690792322159, 0.0701250284910202, 0.04958384484052658, 0.04699007794260979, 0.042579151690006256, 0.04937507584691048, 0.04557042568922043, 0.044940635561943054, 0.03655707836151123, 0.041615817695856094, 0.041723430156707764, 0.04426722973585129, 0.04264502599835396, 0.03981310501694679, 0.04624614864587784, 0.035903315991163254, 0.04629584029316902, 0.07459789514541626, 0.07712578773498535, 0.06709251552820206, 0.0683780163526535, 0.058485276997089386, 0.05284850299358368, 0.03985536843538284, 0.04053233936429024, 0.04034797474741936, 0.04228786379098892, 0.04500061273574829, 0.04261908680200577, 0.04801008105278015, 0.06323642283678055, 0.06688706576824188, 0.06752075254917145, 0.05380247160792351, 0.0642414540052414, 0.05814647302031517, 0.08644762635231018, 0.08212674409151077, 0.059075649827718735, 0.045919373631477356, 0.04680541530251503, 0.0563114695250988, 0.054892830550670624, 0.05379617214202881, 0.049766071140766144, 0.052056413143873215, 0.055121324956417084, 0.07186621427536011, 0.06390338391065598, 0.059029821306467056, 0.07535719871520996, 0.06182538717985153, 0.08334989100694656, 0.10259641706943512, 0.08178981393575668, 0.07688963413238525, 0.09178632497787476, 0.11724094301462173, 0.11328674107789993, 0.0957961156964302, 0.08960781991481781, 0.10423582792282104, 0.09601485729217529, 0.1127118468284607, 0.15256579220294952, 0.15638510882854462, 0.11733483523130417, 0.12253433465957642, 0.14012454450130463, 0.13960181176662445, 0.11334020644426346, 0.1358392983675003, 0.0787082090973854, 0.05693240091204643, 0.07348211854696274, 0.1473805010318756, 0.08126644790172577, 0.10501811653375626, 0.13772954046726227, 0.1228998675942421, 0.10386829078197479, 0.08201265335083008, 0.055525463074445724, 0.08840581029653549, 0.1200345978140831, 0.11821331083774567, 0.1203860342502594, 0.12572930753231049, 0.10520195960998535, 0.1483539491891861, 0.1123071014881134, 0.11645397543907166, 0.12177935987710953, 0.13536010682582855, 0.13103514909744263, 0.11158394813537598, 0.15749339759349823, 0.14036184549331665, 0.11041875928640366, 0.08586503565311432, 0.09596287459135056, 0.07084991037845612, 0.05534953624010086, 0.057776764035224915, 0.055147331207990646, 0.038149621337652206, 0.033615581691265106, 0.047865964472293854, 0.04788711294531822, 0.07914333045482635, 0.07833243161439896, 0.10679835826158524, 0.13222388923168182, 0.13639526069164276, 0.10918956249952316, 0.1535319685935974, 0.1611533761024475, 0.1973593831062317, 0.13342846930027008, 0.10004540532827377, 0.09871912747621536, 0.1046631932258606, 0.10481340438127518, 0.09518658369779587, 0.15513692796230316, 0.24343012273311615]</t>
+          <t>[0.16490007936954498, 0.22419777512550354, 0.1313163787126541, 0.2936863899230957, 0.399402916431427, 0.5895683169364929, 0.6710854768753052, 0.8684564232826233, 0.8397448658943176, 0.6219390630722046, 0.6371829509735107, 0.6898862719535828, 0.7759971618652344, 0.8552934527397156, 0.8844794034957886, 0.9361578226089478, 0.8978757262229919, 0.8324633240699768, 0.7451794743537903, 0.6889442801475525, 0.6970286965370178, 0.6673666834831238, 0.8724091053009033, 0.9019511938095093, 0.9067477583885193, 0.910778820514679, 0.817670464515686, 0.7799634337425232, 0.7440269589424133, 0.5356104969978333, 0.5760822892189026, 0.6015883684158325, 0.2051825225353241, 0.14760686457157135, 0.11114660650491714, 0.17564840614795685, 0.29843670129776, 0.27189627289772034, 0.40164026618003845, 0.493733286857605, 0.7843469381332397, 0.8900933265686035, 0.7819098234176636, 0.4492782950401306, 0.3481568396091461, 0.2250840812921524, 0.2394835501909256, 0.21498826146125793, 0.11671542376279831, 0.16357165575027466, 0.10841496288776398, 0.09884744137525558, 0.05951615050435066, 0.0662601962685585, 0.04184834659099579, 0.052276596426963806, 0.065464086830616, 0.09051241725683212, 0.05054454877972603, 0.03984300419688225, 0.08808869868516922, 0.09198175370693207, 0.08087760210037231, 0.12279515713453293, 0.150893434882164, 0.13931137323379517, 0.10516004264354706, 0.10443510115146637, 0.06674299389123917, 0.06692545115947723, 0.06273311376571655, 0.05310514569282532, 0.06489637494087219, 0.0815705731511116, 0.07480482012033463, 0.12489603459835052, 0.09488209336996078, 0.11138594150543213, 0.1537279337644577, 0.1005529910326004, 0.08064156025648117, 0.04294972121715546, 0.03418680280447006, 0.0340719148516655, 0.05509043112397194, 0.05146545544266701, 0.06200866028666496, 0.06553947925567627, 0.03529934957623482, 0.022021213546395302, 0.018643571063876152, 0.01987544074654579, 0.025083864107728004, 0.02368769608438015, 0.02497338503599167, 0.020944617688655853, 0.02371271513402462, 0.022604860365390778, 0.02542494423687458, 0.023391643539071083, 0.020297864452004433, 0.022261843085289, 0.01603192836046219, 0.021727927029132843, 0.04291589558124542, 0.0477236844599247, 0.04008561745285988, 0.04794738069176674, 0.0412176288664341, 0.03523727133870125, 0.023284047842025757, 0.025500616058707237, 0.023886973038315773, 0.02436613105237484, 0.023365845903754234, 0.022634511813521385, 0.02761625312268734, 0.03836942836642265, 0.04266484081745148, 0.04038463160395622, 0.02974565513432026, 0.03705994784832001, 0.030200965702533722, 0.05586529150605202, 0.05664854869246483, 0.037920478731393814, 0.027934478595852852, 0.02931063622236252, 0.04415641725063324, 0.041236914694309235, 0.031188074499368668, 0.030529038980603218, 0.034596219658851624, 0.03456582874059677, 0.04574435576796532, 0.04156028479337692, 0.04489314928650856, 0.05522816255688667, 0.0368947871029377, 0.04838152602314949, 0.06920887529850006, 0.04844788461923599, 0.04381980746984482, 0.06164140999317169, 0.08573072403669357, 0.07606375217437744, 0.05683278664946556, 0.05168437212705612, 0.06903456896543503, 0.06326024979352951, 0.09976150840520859, 0.12014763057231903, 0.12160524725914001, 0.07339344918727875, 0.06694545596837997, 0.09451378881931305, 0.13128265738487244, 0.1010950356721878, 0.11659564077854156, 0.05973684415221214, 0.042406659573316574, 0.06189431622624397, 0.145472913980484, 0.06281545013189316, 0.09330255538225174, 0.1206284612417221, 0.13257765769958496, 0.09247526526451111, 0.05829014256596565, 0.038245707750320435, 0.07237711548805237, 0.10359150916337967, 0.10663267225027084, 0.1004640981554985, 0.10494177043437958, 0.10515206307172775, 0.12200503051280975, 0.08324496448040009, 0.0844874233007431, 0.07083523273468018, 0.08008088916540146, 0.07689768075942993, 0.07154281437397003, 0.10300376266241074, 0.10253028571605682, 0.0788421630859375, 0.055048950016498566, 0.0775887668132782, 0.05666481330990791, 0.05947486683726311, 0.0625106692314148, 0.04888634383678436, 0.02294732630252838, 0.015846170485019684, 0.02369341067969799, 0.021178442984819412, 0.049543801695108414, 0.04841775447130203, 0.07414481043815613, 0.09713304042816162, 0.09764017909765244, 0.06498780846595764, 0.08852701634168625, 0.09175051003694534, 0.10786950588226318, 0.08137752115726471, 0.05051637440919876, 0.05122702568769455, 0.06280893832445145, 0.05640198662877083, 0.05042870715260506, 0.07711323350667953, 0.13544178009033203]</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.9414124488830566</v>
+        <v>0.9361578226089478</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1.175536700000521</v>
+        <v>1.186004700008198</v>
       </c>
       <c r="J53" t="n">
-        <v>0.005518951643194933</v>
+        <v>0.005568097183137079</v>
       </c>
     </row>
     <row r="54">
@@ -2685,11 +2685,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0.2804015278816223, 0.28516730666160583, 0.26188334822654724, 0.16585560142993927, 0.19642220437526703, 0.1989087164402008, 0.6368728876113892, 0.6691620349884033, 0.5041932463645935, 0.6564391255378723, 0.46471473574638367, 0.5596606731414795, 0.6720565557479858, 0.5807278752326965, 0.20806746184825897, 0.14116528630256653, 0.13346360623836517, 0.15188907086849213, 0.09452313184738159, 0.09765318036079407, 0.09855026751756668, 0.10400231927633286, 0.08871550112962723, 0.09744427353143692, 0.0871187075972557, 0.08105771243572235, 0.099079430103302, 0.11286821961402893, 0.11297332495450974, 0.08147592842578888, 0.0857805609703064, 0.0821145698428154, 0.08159801363945007, 0.08236969262361526, 0.06795242428779602, 0.15457944571971893, 0.29556506872177124, 0.2424251139163971, 0.23297816514968872, 0.06427223980426788, 0.08519205451011658, 0.07307014614343643, 0.07254569977521896, 0.11963952332735062, 0.1988561898469925, 0.3796323835849762, 0.3020998239517212, 0.26930513978004456, 0.41660135984420776, 0.4143543541431427, 0.41570818424224854, 0.5032013058662415, 0.1593380570411682, 0.13546642661094666, 0.29809463024139404, 0.18177759647369385, 0.19737808406352997, 0.1574016511440277, 0.20440223813056946, 0.21363145112991333, 0.1000530943274498, 0.16241112351417542, 0.12594270706176758, 0.12740424275398254, 0.10612738877534866, 0.04188040271401405, 0.04162321984767914, 0.06005587428808212, 0.10046185553073883, 0.08897171914577484, 0.06451305747032166, 0.08414267003536224, 0.08129948377609253, 0.05560819059610367, 0.05507699027657509, 0.06279633194208145, 0.07730916142463684, 0.08230315148830414, 0.05688801035284996, 0.048899952322244644, 0.05164384841918945, 0.04475933685898781, 0.03283359482884407, 0.029995890334248543, 0.044596653431653976, 0.047544363886117935, 0.07265292853116989, 0.08651404082775116, 0.07834839075803757, 0.06264477968215942, 0.05796615779399872, 0.12825462222099304, 0.15621976554393768, 0.1512073129415512, 0.12781527638435364, 0.08969001471996307, 0.09201379865407944, 0.37379273772239685, 0.3320719301700592, 0.2692812979221344, 0.22900685667991638, 0.5363569855690002, 0.5132165551185608, 0.3985501527786255, 0.7606721520423889, 0.3583548069000244, 0.18454451858997345, 0.4335508644580841, 0.5964311957359314, 0.3985567092895508, 0.14179426431655884, 0.20456691086292267, 0.2736145257949829, 0.26403987407684326, 0.18573705852031708, 0.08600203692913055, 0.06439875811338425, 0.09446179121732712, 0.18794822692871094, 0.19045990705490112, 0.16175541281700134, 0.14801156520843506, 0.14903514087200165, 0.15070240199565887, 0.13749095797538757, 0.26258033514022827, 0.32419469952583313, 0.1254407912492752, 0.09074440598487854, 0.07217629253864288, 0.07662422955036163, 0.09564608335494995, 0.1618431955575943, 0.3439129590988159, 0.20402264595031738, 0.4372074007987976, 0.48242658376693726, 0.5129702091217041, 0.347115695476532, 0.5271257758140564, 0.5774316191673279, 0.5285086035728455, 0.6294947266578674, 0.3367824852466583, 0.4288303554058075, 0.415106862783432, 0.11293766647577286, 0.3978999853134155, 0.29937249422073364, 0.3834550082683563, 0.42094263434410095, 0.40569067001342773, 0.17257817089557648, 0.06128157675266266, 0.04843808710575104, 0.03688725829124451, 0.062296267598867416, 0.07466422021389008, 0.043406568467617035, 0.03734973818063736, 0.031738076359033585, 0.0359003059566021, 0.04094839468598366, 0.09278715401887894, 0.16304470598697662, 0.7765626311302185, 0.9235677719116211, 0.8215914368629456, 0.5902868509292603, 0.45637765526771545, 0.3228965699672699, 0.5270292162895203, 0.5051323771476746, 0.5314503312110901, 0.7800102829933167, 0.9421584010124207, 0.9836020469665527, 0.9757707118988037, 0.9545861482620239, 0.7929156422615051, 0.5029202103614807, 0.6508169174194336, 0.4519253075122833, 0.5304619073867798, 0.37298208475112915, 0.19554081559181213, 0.1942683458328247, 0.18885312974452972, 0.14599977433681488, 0.20240797102451324, 0.23914046585559845, 0.17896156013011932, 0.2465490847826004, 0.19488944113254547, 0.1496625542640686, 0.23613150417804718, 0.15327757596969604, 0.19398413598537445, 0.18193389475345612, 0.1791631281375885, 0.16923359036445618, 0.18705403804779053, 0.1389915496110916, 0.12966997921466827, 0.10294963419437408, 0.12018128484487534, 0.13753987848758698, 0.203872412443161, 0.24527058005332947, 0.14312626421451569, 0.21192313730716705, 0.3030519485473633, 0.27545997500419617]</t>
+          <t>[0.26581719517707825, 0.29814612865448, 0.24195270240306854, 0.1530407965183258, 0.17585185170173645, 0.1888560950756073, 0.8242373466491699, 0.8420265913009644, 0.7569712400436401, 0.8669634461402893, 0.73276686668396, 0.8837379217147827, 0.8910924792289734, 0.7339376211166382, 0.3101635277271271, 0.21917839348316193, 0.21478991210460663, 0.19235701858997345, 0.08419222384691238, 0.09344256669282913, 0.1091926172375679, 0.11313764750957489, 0.07039118558168411, 0.07593012601137161, 0.06434419006109238, 0.04706490412354469, 0.049170080572366714, 0.06214671581983566, 0.0737142562866211, 0.04094046354293823, 0.045123107731342316, 0.05239617079496384, 0.061384741216897964, 0.05695654824376106, 0.04265362396836281, 0.2556518018245697, 0.5242417454719543, 0.3643864393234253, 0.3962782621383667, 0.06736208498477936, 0.11296209692955017, 0.08937869966030121, 0.06490528583526611, 0.1495806723833084, 0.304455041885376, 0.5461089015007019, 0.40204545855522156, 0.3502650558948517, 0.5453568696975708, 0.6013100743293762, 0.6507772207260132, 0.7044183015823364, 0.17918702960014343, 0.13368093967437744, 0.32743263244628906, 0.1549566686153412, 0.16944238543510437, 0.15074607729911804, 0.23669745028018951, 0.24046757817268372, 0.08790417015552521, 0.1361406147480011, 0.09285661578178406, 0.11812704056501389, 0.12534333765506744, 0.034814462065696716, 0.04303509369492531, 0.06757239997386932, 0.07862900197505951, 0.07519687712192535, 0.0632842630147934, 0.09544316679239273, 0.08689352124929428, 0.056722115725278854, 0.045190732926130295, 0.04764794185757637, 0.05149894952774048, 0.08278901129961014, 0.0539262518286705, 0.04621795937418938, 0.04119163006544113, 0.03242030739784241, 0.01951690763235092, 0.017344307154417038, 0.0360773429274559, 0.036718741059303284, 0.054167576134204865, 0.08293966203927994, 0.0550217479467392, 0.037656836211681366, 0.03714004158973694, 0.09384705871343613, 0.10248394310474396, 0.11679618805646896, 0.07092581689357758, 0.04395861178636551, 0.04560471326112747, 0.28570684790611267, 0.21073156595230103, 0.13038533926010132, 0.10421554744243622, 0.40236300230026245, 0.3701110780239105, 0.2806409001350403, 0.7980378866195679, 0.3757935166358948, 0.18242184817790985, 0.3496987819671631, 0.5753335952758789, 0.34488797187805176, 0.09972584992647171, 0.13350455462932587, 0.21599352359771729, 0.24296090006828308, 0.13298733532428741, 0.05832228809595108, 0.044163916260004044, 0.097875215113163, 0.27212056517601013, 0.21436572074890137, 0.14174175262451172, 0.11125586926937103, 0.11122588813304901, 0.13251101970672607, 0.08598405867815018, 0.24969202280044556, 0.34242701530456543, 0.09693025797605515, 0.06028960645198822, 0.04786946251988411, 0.043059203773736954, 0.06148863211274147, 0.11245753616094589, 0.3808196783065796, 0.26993870735168457, 0.5516805052757263, 0.6838663816452026, 0.6491551399230957, 0.5690678954124451, 0.7976093292236328, 0.8555958271026611, 0.815041720867157, 0.8924681544303894, 0.4964383840560913, 0.6114097237586975, 0.6466243267059326, 0.16841746866703033, 0.7646655440330505, 0.5432434678077698, 0.6639396548271179, 0.6184453964233398, 0.6685463190078735, 0.27542516589164734, 0.04866202175617218, 0.02872726134955883, 0.020631561055779457, 0.06651728600263596, 0.08258145302534103, 0.03335760533809662, 0.024570675566792488, 0.017716536298394203, 0.021133435890078545, 0.024344662204384804, 0.0803157240152359, 0.19307386875152588, 0.9144445061683655, 0.9772372841835022, 0.9479206800460815, 0.8303897976875305, 0.6644086241722107, 0.48476293683052063, 0.665461540222168, 0.6615188121795654, 0.6860001087188721, 0.868434727191925, 0.9794715642929077, 0.9959824085235596, 0.994306743144989, 0.9892571568489075, 0.9229762554168701, 0.673477053642273, 0.7832931280136108, 0.6062376499176025, 0.677653431892395, 0.43491142988204956, 0.3223625123500824, 0.3266196846961975, 0.32839474081993103, 0.30639350414276123, 0.4200006127357483, 0.4531186521053314, 0.3188948631286621, 0.46301427483558655, 0.32901129126548767, 0.2311398833990097, 0.4140014052391052, 0.2829648554325104, 0.35640329122543335, 0.3412812054157257, 0.32208746671676636, 0.2774417996406555, 0.31114479899406433, 0.1983121931552887, 0.21512088179588318, 0.14294898509979248, 0.14825306832790375, 0.13591709733009338, 0.2679053843021393, 0.3840954601764679, 0.1850186437368393, 0.3047732710838318, 0.4670133590698242, 0.539348840713501]</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.9836020469665527</v>
+        <v>0.9959824085235596</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
@@ -2703,10 +2703,10 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1.170518200000515</v>
+        <v>1.183406600001035</v>
       </c>
       <c r="J54" t="n">
-        <v>0.005495390610331058</v>
+        <v>0.005555899530521292</v>
       </c>
     </row>
     <row r="55">
@@ -2725,11 +2725,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[0.6885669231414795, 0.7939562797546387, 0.7184396982192993, 0.5782931447029114, 0.7091883420944214, 0.8197606801986694, 0.8038225769996643, 0.6799761652946472, 0.6967847943305969, 0.6688178777694702, 0.6320947408676147, 0.7055866718292236, 0.6594471335411072, 0.7450245022773743, 0.6908440589904785, 0.4781564772129059, 0.7311066389083862, 0.6461145877838135, 0.6299278736114502, 0.47745269536972046, 0.4413396120071411, 0.3262493908405304, 0.18027624487876892, 0.19363495707511902, 0.17582297325134277, 0.21450132131576538, 0.34641560912132263, 0.2734231948852539, 0.2884494662284851, 0.2233753651380539, 0.2425982654094696, 0.32786157727241516, 0.3394223153591156, 0.35323965549468994, 0.525115966796875, 0.24467569589614868, 0.26324430108070374, 0.2811899185180664, 0.2591378390789032, 0.176224023103714, 0.15296143293380737, 0.21409942209720612, 0.16874271631240845, 0.24626608192920685, 0.3060196042060852, 0.48746925592422485, 0.4295234680175781, 0.47960275411605835, 0.3202555179595947, 0.5666650533676147, 0.6083941459655762, 0.42930495738983154, 0.7141878008842468, 0.6651006937026978, 0.3023516535758972, 0.18350642919540405, 0.3148678243160248, 0.2127101719379425, 0.3165654242038727, 0.3184424340724945, 0.2807046175003052, 0.24512559175491333, 0.11082915216684341, 0.21607555449008942, 0.2032400220632553, 0.1912839710712433, 0.28285160660743713, 0.29101505875587463, 0.33267349004745483, 0.2559523582458496, 0.12055077403783798, 0.2124180793762207, 0.25908562541007996, 0.28369519114494324, 0.3957397937774658, 0.2588319778442383, 0.29193636775016785, 0.17283789813518524, 0.22724774479866028, 0.25087934732437134, 0.17296575009822845, 0.2897263765335083, 0.26825910806655884, 0.26896780729293823, 0.267984002828598, 0.3564321994781494, 0.4447247385978699, 0.4116094708442688, 0.598465621471405, 0.6436872482299805, 0.6196937561035156, 0.3672434985637665, 0.4501221776008606, 0.6502899527549744, 0.35070502758026123, 0.3892887532711029, 0.425935298204422, 0.36440446972846985, 0.47761139273643494, 0.4524884819984436, 0.46849414706230164, 0.3953201472759247, 0.44620785117149353, 0.5100144147872925, 0.2937624454498291, 0.5777381062507629, 0.5279801487922668, 0.3635559678077698, 0.32133808732032776, 0.39343157410621643, 0.2501893937587738, 0.22133462131023407, 0.22339966893196106, 0.2458818256855011, 0.2969975173473358, 0.2966954708099365, 0.33514684438705444, 0.43016424775123596, 0.3201264441013336, 0.3463934361934662, 0.5263471603393555, 0.5299720764160156, 0.5578953623771667, 0.4520125985145569, 0.43354377150535583, 0.4056292474269867, 0.3826708197593689, 0.2437838464975357, 0.22052715718746185, 0.2368527501821518, 0.22484378516674042, 0.24862957000732422, 0.2619722783565521, 0.22412168979644775, 0.16656677424907684, 0.15043996274471283, 0.18533603847026825, 0.21354132890701294, 0.35009607672691345, 0.27009329199790955, 0.2259625941514969, 0.5487004518508911, 0.6455702185630798, 0.5574089884757996, 0.5260968804359436, 0.37621673941612244, 0.5714696645736694, 0.5363374948501587, 0.5967243909835815, 0.7785360813140869, 0.7830315828323364, 0.7152541279792786, 0.5537351965904236, 0.9159678220748901, 0.8696940541267395, 0.8279845714569092, 0.8686093688011169, 0.8341128826141357, 0.6722657084465027, 0.2918814420700073, 0.3194407522678375, 0.2742011249065399, 0.17520476877689362, 0.18557609617710114, 0.16177085041999817, 0.1584825962781906, 0.24337568879127502, 0.17164002358913422, 0.2115849405527115, 0.23671379685401917, 0.2336052656173706, 0.17609018087387085, 0.23488707840442657, 0.2477644383907318, 0.20491327345371246, 0.34878647327423096, 0.5595790147781372, 0.428302526473999, 0.614611029624939, 0.505395233631134, 0.44024476408958435, 0.36521339416503906, 0.3774368464946747, 0.6321520209312439, 0.4172419607639313, 0.5551155805587769, 0.7683908939361572, 0.6792698502540588, 0.7048206925392151, 0.5302229523658752, 0.5161536335945129, 0.6964690685272217, 0.7535036206245422, 0.7571547627449036, 0.8783259987831116, 0.8280942440032959, 0.818178653717041, 0.6848989129066467, 0.403506875038147, 0.22341288626194, 0.26998400688171387, 0.4700101912021637, 0.5887463688850403, 0.49231889843940735, 0.4643302261829376, 0.42638635635375977, 0.45151880383491516, 0.8144611716270447, 0.6696943044662476, 0.49350035190582275, 0.4329972267150879, 0.4648924469947815, 0.48778557777404785]</t>
+          <t>[0.8354104161262512, 0.8843485116958618, 0.8379682898521423, 0.6547173261642456, 0.8005826473236084, 0.9179655909538269, 0.9187321662902832, 0.8538801074028015, 0.8712584376335144, 0.865384042263031, 0.7805529236793518, 0.8644616603851318, 0.8556978702545166, 0.8898455500602722, 0.816148042678833, 0.513235867023468, 0.7870579957962036, 0.7656977772712708, 0.778671145439148, 0.5868326425552368, 0.6293148994445801, 0.6009281277656555, 0.2017887979745865, 0.2657710313796997, 0.17916853725910187, 0.22727210819721222, 0.364207923412323, 0.3103659749031067, 0.3140299320220947, 0.20430023968219757, 0.21015006303787231, 0.337539404630661, 0.3598128855228424, 0.34424111247062683, 0.568935751914978, 0.30640068650245667, 0.35765203833580017, 0.33988773822784424, 0.2647610306739807, 0.16936077177524567, 0.14016392827033997, 0.218369260430336, 0.15571849048137665, 0.23401296138763428, 0.27567368745803833, 0.5069659948348999, 0.46043553948402405, 0.5006793737411499, 0.38742321729660034, 0.6760199666023254, 0.6950728893280029, 0.5045889019966125, 0.8214001059532166, 0.7742300033569336, 0.3415158987045288, 0.23979054391384125, 0.4789496958255768, 0.23461546003818512, 0.5656590461730957, 0.5261126756668091, 0.4147627353668213, 0.3809337615966797, 0.13366611301898956, 0.32224273681640625, 0.24561254680156708, 0.24029913544654846, 0.32278817892074585, 0.28781774640083313, 0.3149418532848358, 0.2528066039085388, 0.08159259706735611, 0.11907490342855453, 0.1651894450187683, 0.18487855792045593, 0.3290894031524658, 0.2522505819797516, 0.25999903678894043, 0.12264829874038696, 0.1655626744031906, 0.1560543179512024, 0.10447587072849274, 0.21329614520072937, 0.24190029501914978, 0.2180384248495102, 0.19901221990585327, 0.30368831753730774, 0.3326890766620636, 0.30323225259780884, 0.5300205945968628, 0.5701842904090881, 0.5784752368927002, 0.2974948585033417, 0.40765559673309326, 0.6643773913383484, 0.39968547224998474, 0.43012842535972595, 0.5562822818756104, 0.423248291015625, 0.48231375217437744, 0.5457537770271301, 0.5942049622535706, 0.4235985279083252, 0.5006340742111206, 0.57110196352005, 0.3121779263019562, 0.7227399349212646, 0.6677648425102234, 0.4119855463504791, 0.3180907666683197, 0.3930971920490265, 0.27971887588500977, 0.2639485001564026, 0.26592275500297546, 0.24906150996685028, 0.30007556080818176, 0.27299195528030396, 0.3231811821460724, 0.5235999226570129, 0.44214677810668945, 0.4886585772037506, 0.6567232012748718, 0.6453019380569458, 0.7002655863761902, 0.685914158821106, 0.650058925151825, 0.6830498576164246, 0.5773429870605469, 0.25193312764167786, 0.22554954886436462, 0.32664287090301514, 0.2553360164165497, 0.3085905611515045, 0.2973818778991699, 0.3069974482059479, 0.20200146734714508, 0.15374872088432312, 0.1772320717573166, 0.24216915667057037, 0.40699324011802673, 0.3389061987400055, 0.24963895976543427, 0.7518477439880371, 0.8475308418273926, 0.6423213481903076, 0.5993599891662598, 0.4026566445827484, 0.6068640947341919, 0.5735472440719604, 0.7180965542793274, 0.8977286219596863, 0.9024443030357361, 0.8088328242301941, 0.6466935276985168, 0.9614784121513367, 0.9370047450065613, 0.9174006581306458, 0.9337503910064697, 0.8747518062591553, 0.5970648527145386, 0.18683917820453644, 0.18917478621006012, 0.15312699973583221, 0.08380857110023499, 0.08638791739940643, 0.0805400013923645, 0.09048645198345184, 0.13975366950035095, 0.09345973283052444, 0.11632691323757172, 0.15365120768547058, 0.15401941537857056, 0.1189710944890976, 0.16485825181007385, 0.17565634846687317, 0.15948165953159332, 0.2520999014377594, 0.3872385323047638, 0.2601493299007416, 0.4572664797306061, 0.3741200566291809, 0.34207260608673096, 0.3188205659389496, 0.2921581268310547, 0.6022205352783203, 0.29582688212394714, 0.4921172857284546, 0.7577810883522034, 0.6883666515350342, 0.7961493134498596, 0.5088105797767639, 0.46260517835617065, 0.709374189376831, 0.9064925909042358, 0.9065641164779663, 0.9638869762420654, 0.9241254329681396, 0.93047696352005, 0.8502821922302246, 0.4289419651031494, 0.1938338577747345, 0.244273379445076, 0.4799234867095947, 0.622801661491394, 0.472201406955719, 0.4312703013420105, 0.38802897930145264, 0.4002170264720917, 0.835456132888794, 0.6404561996459961, 0.4165761172771454, 0.30482709407806396, 0.3319742977619171, 0.3062451481819153]</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.9159678220748901</v>
+        <v>0.9638869762420654</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1.180072799994377</v>
+        <v>1.188162299993564</v>
       </c>
       <c r="J55" t="n">
-        <v>0.005540247887297547</v>
+        <v>0.005578226760533166</v>
       </c>
     </row>
     <row r="56">
@@ -2765,11 +2765,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[0.7809999585151672, 0.8729279637336731, 0.7336061596870422, 0.6326269507408142, 0.7243921756744385, 0.7418850064277649, 0.4564337730407715, 0.2865740656852722, 0.24949350953102112, 0.32115715742111206, 0.41962915658950806, 0.3360864520072937, 0.24768197536468506, 0.13952814042568207, 0.0945400521159172, 0.08969941735267639, 0.12947821617126465, 0.09027116745710373, 0.1030728667974472, 0.09281245619058609, 0.0798996239900589, 0.08833418786525726, 0.09576231986284256, 0.09498266875743866, 0.0991748571395874, 0.09198298305273056, 0.12388080358505249, 0.11935459822416306, 0.12150368094444275, 0.17827266454696655, 0.15734705328941345, 0.13783390820026398, 0.22930890321731567, 0.5259177088737488, 0.5158360004425049, 0.2840230166912079, 0.3574691712856293, 0.3030585050582886, 0.3121079206466675, 0.3177768886089325, 0.27554967999458313, 0.23250924050807953, 0.22785012423992157, 0.16806764900684357, 0.19356577098369598, 0.1766887754201889, 0.13272586464881897, 0.08296985179185867, 0.23679666221141815, 0.20094045996665955, 0.20571845769882202, 0.27694597840309143, 0.48541632294654846, 0.5468515157699585, 0.4336147904396057, 0.556049644947052, 0.3883240222930908, 0.3717857599258423, 0.19984208047389984, 0.2198510766029358, 0.2887563109397888, 0.5192956328392029, 0.4702809154987335, 0.37437278032302856, 0.3468055725097656, 0.3396754562854767, 0.4461582899093628, 0.34377434849739075, 0.18290962278842926, 0.13960109651088715, 0.16177143156528473, 0.13793213665485382, 0.1007128357887268, 0.08469758927822113, 0.1982681006193161, 0.21667824685573578, 0.22406068444252014, 0.18865957856178284, 0.13857771456241608, 0.10946208238601685, 0.1768268644809723, 0.7528679370880127, 0.8857521414756775, 0.8671494722366333, 0.8113197684288025, 0.7638000845909119, 0.6435804963111877, 0.7055784463882446, 0.6824772357940674, 0.7008936405181885, 0.6118474006652832, 0.31847473978996277, 0.2605195641517639, 0.32738006114959717, 0.1147749274969101, 0.1301945149898529, 0.1543554663658142, 0.14112719893455505, 0.1496812105178833, 0.13295680284500122, 0.1442699432373047, 0.46016401052474976, 0.7118030190467834, 0.9226393103599548, 0.5243001580238342, 0.39170435070991516, 0.355854332447052, 0.31847378611564636, 0.21039727330207825, 0.1326388716697693, 0.16083209216594696, 0.15495997667312622, 0.13622550666332245, 0.13241074979305267, 0.09955456107854843, 0.07745036482810974, 0.09721678495407104, 0.08991841971874237, 0.07966825366020203, 0.16863229870796204, 0.2990860641002655, 0.4630735218524933, 0.49048712849617004, 0.7315534949302673, 0.8045356869697571, 0.8561056852340698, 0.719213604927063, 0.4241083562374115, 0.42396438121795654, 0.282286673784256, 0.21695955097675323, 0.5827483534812927, 0.7145944833755493, 0.7162232398986816, 0.6320726871490479, 0.4345179796218872, 0.33596286177635193, 0.07910434901714325, 0.048428382724523544, 0.03194158896803856, 0.07725651562213898, 0.45190921425819397, 0.31323108077049255, 0.2807985544204712, 0.1745336949825287, 0.07095636427402496, 0.13733617961406708, 0.062478791922330856, 0.05990534648299217, 0.07652860879898071, 0.18899832665920258, 0.4093819260597229, 0.27445167303085327, 0.10544046759605408, 0.11995786428451538, 0.16668760776519775, 0.2952360510826111, 0.29672569036483765, 0.3541490435600281, 0.530194878578186, 0.23391273617744446, 0.1615188866853714, 0.11442847549915314, 0.21787293255329132, 0.23809190094470978, 0.12283067405223846, 0.07798314094543457, 0.0655830055475235, 0.07755427062511444, 0.16667795181274414, 0.06602839380502701, 0.05412383750081062, 0.07257932424545288, 0.08034129440784454, 0.06519187986850739, 0.04541393741965294, 0.04284939542412758, 0.052789852023124695, 0.08669368177652359, 0.09679615497589111, 0.07486983388662338, 0.0904020443558693, 0.21030478179454803, 0.19436752796173096, 0.3953000605106354, 0.28373515605926514, 0.22470849752426147, 0.10447176545858383, 0.10129857808351517, 0.09686955064535141, 0.14980803430080414, 0.21205365657806396, 0.30440688133239746, 0.28362274169921875, 0.21019315719604492, 0.09764063358306885, 0.14501647651195526, 0.16268658638000488, 0.40175431966781616, 0.20092467963695526, 0.2333172708749771, 0.4463815987110138, 0.11673185974359512, 0.11306654661893845, 0.07607530057430267, 0.04446278139948845, 0.04983525350689888, 0.05219564959406853, 0.07818522304296494, 0.13538424670696259, 0.21898050606250763, 0.4660804569721222, 0.2238258719444275]</t>
+          <t>[0.6565881371498108, 0.8263582587242126, 0.7219407558441162, 0.7351455688476562, 0.7941766977310181, 0.8444739580154419, 0.49513110518455505, 0.326799601316452, 0.27868181467056274, 0.3523584008216858, 0.4913827180862427, 0.4364522695541382, 0.29559555649757385, 0.15914177894592285, 0.08665312081575394, 0.07981191575527191, 0.11653660237789154, 0.07304991781711578, 0.0838748887181282, 0.06403487175703049, 0.049188341945409775, 0.0589529387652874, 0.06833764165639877, 0.06910565495491028, 0.08362443745136261, 0.06304353475570679, 0.10932345688343048, 0.09583023190498352, 0.1043924018740654, 0.1731143295764923, 0.1394631713628769, 0.09417724609375, 0.23768162727355957, 0.5858315825462341, 0.6057544350624084, 0.31190556287765503, 0.4659881591796875, 0.36567437648773193, 0.44768527150154114, 0.45640116930007935, 0.39193055033683777, 0.3108774423599243, 0.28154614567756653, 0.2170463651418686, 0.2717020511627197, 0.2218679040670395, 0.1441372185945511, 0.06852468103170395, 0.31616705656051636, 0.24761269986629486, 0.2919171154499054, 0.42987388372421265, 0.5175508260726929, 0.6016743183135986, 0.4609847366809845, 0.5803192257881165, 0.3887738585472107, 0.37434694170951843, 0.193855881690979, 0.20742455124855042, 0.2925563156604767, 0.5470012426376343, 0.4319923520088196, 0.3522407114505768, 0.37002789974212646, 0.40463125705718994, 0.6947119832038879, 0.4626322090625763, 0.19099870324134827, 0.14582857489585876, 0.1697973906993866, 0.11666160821914673, 0.08122504502534866, 0.06355157494544983, 0.17637838423252106, 0.2452474683523178, 0.2687944173812866, 0.23243680596351624, 0.17500869929790497, 0.11842489242553711, 0.25874146819114685, 0.9470945596694946, 0.9821346998214722, 0.9781278371810913, 0.9663879871368408, 0.9588846564292908, 0.8932849168777466, 0.916133463382721, 0.889137327671051, 0.9088619947433472, 0.8944128751754761, 0.5091174244880676, 0.43067285418510437, 0.5604662299156189, 0.19176633656024933, 0.21150092780590057, 0.3071773946285248, 0.21852561831474304, 0.19490206241607666, 0.16450951993465424, 0.20880526304244995, 0.7752035856246948, 0.9313509464263916, 0.9877766370773315, 0.7469862699508667, 0.5597211718559265, 0.524508535861969, 0.41891568899154663, 0.2697972059249878, 0.1458362638950348, 0.1856309175491333, 0.17503373324871063, 0.11985775083303452, 0.10120392590761185, 0.05483822897076607, 0.042092785239219666, 0.06416972726583481, 0.07101170718669891, 0.06012120842933655, 0.18207429349422455, 0.4345684051513672, 0.6592186093330383, 0.6814203858375549, 0.9295589923858643, 0.9468557834625244, 0.9669285416603088, 0.8878876566886902, 0.6084156632423401, 0.6342639923095703, 0.41075044870376587, 0.41875752806663513, 0.9151492118835449, 0.9276171326637268, 0.9568445086479187, 0.9451329708099365, 0.8607829809188843, 0.7805712223052979, 0.116303451359272, 0.045813944190740585, 0.025137700140476227, 0.13790619373321533, 0.7929106950759888, 0.5245105028152466, 0.5333030819892883, 0.42717859148979187, 0.13599641621112823, 0.35612547397613525, 0.10712821036577225, 0.07623674720525742, 0.08280809968709946, 0.2567345201969147, 0.7158175110816956, 0.49573689699172974, 0.22988498210906982, 0.20713301002979279, 0.3915952146053314, 0.5321927666664124, 0.612661600112915, 0.7567805051803589, 0.8815974593162537, 0.6486038565635681, 0.46816739439964294, 0.2867777943611145, 0.47929617762565613, 0.46794846653938293, 0.15365691483020782, 0.10457268357276917, 0.09064698964357376, 0.15525364875793457, 0.3310781717300415, 0.10520869493484497, 0.06114029511809349, 0.12766659259796143, 0.14683769643306732, 0.14217662811279297, 0.03713953122496605, 0.0359225831925869, 0.04619457200169563, 0.111466184258461, 0.1699957549571991, 0.11586581915616989, 0.12131287157535553, 0.3176315426826477, 0.27044743299484253, 0.6180652379989624, 0.4676542580127716, 0.29417768120765686, 0.09265835583209991, 0.08901748061180115, 0.07258686423301697, 0.13619039952754974, 0.24805991351604462, 0.4077852666378021, 0.44021713733673096, 0.3333219885826111, 0.09689861536026001, 0.14207899570465088, 0.14966779947280884, 0.6433365345001221, 0.3421728014945984, 0.3159257769584656, 0.6375995874404907, 0.10706065595149994, 0.07951734960079193, 0.05474833399057388, 0.03931266441941261, 0.038803473114967346, 0.04390854388475418, 0.04940304160118103, 0.2517716586589813, 0.5266971588134766, 0.8231703639030457, 0.2620861828327179]</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.9226393103599548</v>
+        <v>0.9877766370773315</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -2783,10 +2783,10 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1.173286299977917</v>
+        <v>1.189338900003349</v>
       </c>
       <c r="J56" t="n">
-        <v>0.005508386384872851</v>
+        <v>0.005583750704241077</v>
       </c>
     </row>
     <row r="57">
@@ -2805,11 +2805,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>[0.0905354842543602, 0.09667002409696579, 0.1036309227347374, 0.12097211182117462, 0.09655014425516129, 0.04762803018093109, 0.046754203736782074, 0.04622402414679527, 0.043800871819257736, 0.053265031427145004, 0.06167950481176376, 0.06143113598227501, 0.04642309248447418, 0.07168228924274445, 0.07451403141021729, 0.04666338115930557, 0.04197730869054794, 0.07406548410654068, 0.058093372732400894, 0.11105915158987045, 0.0690641850233078, 0.0662582516670227, 0.07584609091281891, 0.10478167235851288, 0.08945254981517792, 0.19386710226535797, 0.23622635006904602, 0.16744908690452576, 0.40807029604911804, 0.17093366384506226, 0.30911165475845337, 0.2976563274860382, 0.14232701063156128, 0.33418187499046326, 0.3837592899799347, 0.6642462015151978, 0.24266067147254944, 0.14917880296707153, 0.1347254067659378, 0.09464676678180695, 0.09051067382097244, 0.0776234120130539, 0.19561265408992767, 0.2901764214038849, 0.16369159519672394, 0.06300022453069687, 0.08179664611816406, 0.12626509368419647, 0.23173801600933075, 0.2604442238807678, 0.29836493730545044, 0.3007715344429016, 0.04959965497255325, 0.11098756641149521, 0.07426361739635468, 0.059554629027843475, 0.06557813286781311, 0.09088028967380524, 0.12197153270244598, 0.10626145452260971, 0.11646007746458054, 0.12389829754829407, 0.0857904925942421, 0.07045076787471771, 0.06477241963148117, 0.09914658963680267, 0.17321857810020447, 0.13458013534545898, 0.11487552523612976, 0.14836810529232025, 0.08832702785730362, 0.10797888040542603, 0.054971836507320404, 0.054140765219926834, 0.07175001502037048, 0.09242461621761322, 0.13272227346897125, 0.1546519696712494, 0.15468819439411163, 0.1429857611656189, 0.10848049074411392, 0.22548545897006989, 0.3570369780063629, 0.30648478865623474, 0.15645229816436768, 0.17476925253868103, 0.217799112200737, 0.38685840368270874, 0.1339975893497467, 0.08838200569152832, 0.06123844161629677, 0.1273278295993805, 0.09781121462583542, 0.12295639514923096, 0.1409899741411209, 0.20686139166355133, 0.16441106796264648, 0.14037203788757324, 0.13955280184745789, 0.135438933968544, 0.14337535202503204, 0.12595632672309875, 0.12600776553153992]</t>
+          <t>[0.11834956705570221, 0.1205119788646698, 0.12667681276798248, 0.17146994173526764, 0.1034741997718811, 0.038231171667575836, 0.03017675317823887, 0.024702347815036774, 0.028433049097657204, 0.035073138773441315, 0.04525098204612732, 0.049882713705301285, 0.03086770884692669, 0.0641360953450203, 0.057798635214567184, 0.03833162039518356, 0.03633257746696472, 0.06510181725025177, 0.06623761355876923, 0.17328611016273499, 0.07706992328166962, 0.07625036686658859, 0.09672083705663681, 0.13657166063785553, 0.08796338737010956, 0.18442711234092712, 0.24332557618618011, 0.16521060466766357, 0.43683621287345886, 0.20985201001167297, 0.19220517575740814, 0.22067853808403015, 0.08716177195310593, 0.41110965609550476, 0.3315834403038025, 0.6327531933784485, 0.22013349831104279, 0.11241916567087173, 0.10589349269866943, 0.09513456374406815, 0.06789762526750565, 0.07804093509912491, 0.15332457423210144, 0.19466088712215424, 0.10059357434511185, 0.038937438279390335, 0.05845710262656212, 0.10678882151842117, 0.20402726531028748, 0.19603943824768066, 0.199988454580307, 0.3122074007987976, 0.05310346558690071, 0.14174294471740723, 0.062140341848134995, 0.04475344344973564, 0.057296741753816605, 0.07054296135902405, 0.10618101060390472, 0.08078154921531677, 0.0982501283288002, 0.08338933438062668, 0.0605107806622982, 0.04306940361857414, 0.061242714524269104, 0.1280638873577118, 0.21675442159175873, 0.15329194068908691, 0.10065726935863495, 0.10734126716852188, 0.061723291873931885, 0.07562911510467529, 0.035119857639074326, 0.03129732236266136, 0.04767106473445892, 0.07009916752576828, 0.06287922710180283, 0.09285275638103485, 0.07573195546865463, 0.05493944510817528, 0.04717721417546272, 0.15069524943828583, 0.3155820071697235, 0.29800891876220703, 0.09558254480361938, 0.10852696746587753, 0.1465163379907608, 0.268221378326416, 0.0944749042391777, 0.06425420939922333, 0.03761538490653038, 0.09459558129310608, 0.06699295341968536, 0.0723017007112503, 0.08720624446868896, 0.1293909251689911, 0.09953665733337402, 0.08296811580657959, 0.0909748449921608, 0.10849738121032715, 0.16999760270118713, 0.09662922471761703, 0.0966363400220871]</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.6642462015151978</v>
+        <v>0.6327531933784485</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0.5906669999822043</v>
+        <v>0.6146411999943666</v>
       </c>
       <c r="J57" t="n">
-        <v>0.005734631067788391</v>
+        <v>0.005967390291207443</v>
       </c>
     </row>
     <row r="58">
@@ -2845,11 +2845,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[0.19786040484905243, 0.1384018063545227, 0.07794135808944702, 0.09470319002866745, 0.05354362726211548, 0.09787779301404953, 0.09531909227371216, 0.11461884528398514, 0.12391814589500427, 0.09384898841381073, 0.12254761904478073, 0.08885597437620163, 0.09207624197006226, 0.06169850751757622, 0.07406597584486008, 0.04298916459083557, 0.09418066591024399, 0.08440158516168594, 0.06963882595300674, 0.07013493776321411, 0.09872151911258698, 0.059377919882535934, 0.11999694257974625, 0.10796570032835007, 0.16176269948482513, 0.19460584223270416, 0.19883134961128235, 0.21820135414600372, 0.26333314180374146, 0.2780020236968994, 0.2734309434890747, 0.2573610544204712, 0.15863284468650818, 0.2583535611629486, 0.15529780089855194, 0.18469583988189697, 0.1329079419374466, 0.06530337035655975, 0.07529978454113007, 0.08394251018762589, 0.09709996730089188, 0.09416136145591736, 0.1737183779478073, 0.11878568679094315, 0.10694629698991776, 0.12396645545959473, 0.10099256038665771, 0.10546951740980148, 0.09078472852706909, 0.11282413452863693, 0.11615293473005295, 0.1377432942390442, 0.07504512369632721, 0.10209165513515472, 0.08631659299135208, 0.11433149129152298, 0.07500936836004257, 0.08572044968605042, 0.09325245022773743, 0.12178177386522293, 0.12025714665651321, 0.17485958337783813, 0.16216333210468292, 0.08741230517625809, 0.09511999785900116, 0.1438542753458023, 0.1515892744064331, 0.1368962675333023, 0.12343475967645645, 0.07078376412391663, 0.08229812234640121, 0.0738433375954628, 0.05674581602215767, 0.06691084802150726, 0.06863044947385788, 0.06492020189762115, 0.12643787264823914, 0.07429926097393036, 0.10871868580579758, 0.07238630950450897, 0.06659699976444244, 0.09948784112930298, 0.41321057081222534, 0.2734438180923462, 0.38444197177886963, 0.1036008670926094, 0.06133843585848808, 0.07218018919229507, 0.061296336352825165, 0.07517550885677338, 0.096100352704525, 0.08208771049976349, 0.09387640655040741, 0.08477028459310532, 0.099542036652565, 0.1353829950094223, 0.18702243268489838, 0.12152107805013657, 0.12527337670326233, 0.17495162785053253, 0.1700318604707718, 0.1702016144990921]</t>
+          <t>[0.1858927458524704, 0.06744559854269028, 0.03831962123513222, 0.04410424828529358, 0.022838735952973366, 0.055254820734262466, 0.05762235075235367, 0.08353196829557419, 0.07583209127187729, 0.06690871715545654, 0.09245649725198746, 0.0453316867351532, 0.04684707522392273, 0.05370238423347473, 0.05148793384432793, 0.041307397186756134, 0.11587199568748474, 0.08526235073804855, 0.053706035017967224, 0.04112481325864792, 0.05419395864009857, 0.027404360473155975, 0.10478045791387558, 0.078619584441185, 0.10193032026290894, 0.19041238725185394, 0.1820325404405594, 0.14592429995536804, 0.26062431931495667, 0.2652190029621124, 0.23752489686012268, 0.21575979888439178, 0.08538728207349777, 0.19851119816303253, 0.10639132559299469, 0.17149880528450012, 0.07613324373960495, 0.044715818017721176, 0.05965627729892731, 0.05271030217409134, 0.055147696286439896, 0.05243110656738281, 0.118838369846344, 0.11117333918809891, 0.07785165309906006, 0.10897525399923325, 0.07195570319890976, 0.06819244474172592, 0.05135727673768997, 0.11096657812595367, 0.12330926954746246, 0.1015210747718811, 0.041084736585617065, 0.06018465384840965, 0.04935233294963837, 0.07105344533920288, 0.03384774550795555, 0.044402461498975754, 0.06779530644416809, 0.10050700604915619, 0.1045541763305664, 0.30689433217048645, 0.16105510294437408, 0.06922130286693573, 0.07408401370048523, 0.12073380500078201, 0.1876586228609085, 0.1532471776008606, 0.0779702365398407, 0.03472321853041649, 0.0521918348968029, 0.04350845143198967, 0.03607828542590141, 0.031198224052786827, 0.03130219504237175, 0.02894841879606247, 0.10183839499950409, 0.06202617660164833, 0.12429068982601166, 0.06722583621740341, 0.055535465478897095, 0.08583325147628784, 0.7544159293174744, 0.6386159658432007, 0.8058675527572632, 0.09314761310815811, 0.044242240488529205, 0.05181848257780075, 0.039260488003492355, 0.04446104168891907, 0.0674968957901001, 0.0703505352139473, 0.08439819514751434, 0.0810982882976532, 0.08513714373111725, 0.14028355479240417, 0.18428288400173187, 0.13858091831207275, 0.0707668736577034, 0.14864866435527802, 0.20925326645374298, 0.2096714824438095]</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.4132105708122253</v>
+        <v>0.8058675527572632</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0.5835592000221368</v>
+        <v>0.5894955999974627</v>
       </c>
       <c r="J58" t="n">
-        <v>0.005721168627668007</v>
+        <v>0.005779368627426105</v>
       </c>
     </row>
     <row r="59">
@@ -2885,11 +2885,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[0.1824313849210739, 0.07262005656957626, 0.13063551485538483, 0.07999633997678757, 0.3205648362636566, 0.22385720908641815, 0.1231803223490715, 0.10970296710729599, 0.48437657952308655, 0.4610188603401184, 0.2983459234237671, 0.44011807441711426, 0.1490807831287384, 0.14782309532165527, 0.18670609593391418, 0.2967686653137207, 0.12671440839767456, 0.22406341135501862, 0.31161996722221375, 0.15653958916664124, 0.20374596118927002, 0.33195313811302185, 0.24350929260253906, 0.24779964983463287, 0.28022798895835876, 0.5116782784461975, 0.35963520407676697, 0.31408631801605225, 0.23377078771591187, 0.28812578320503235, 0.15767565369606018, 0.2229955494403839, 0.23246172070503235, 0.16668246686458588, 0.18033495545387268, 0.17618602514266968, 0.2087109237909317, 0.3643777072429657, 0.2679809629917145, 0.229854553937912, 0.31226420402526855, 0.23179452121257782, 0.19214774668216705, 0.40810301899909973, 0.31339696049690247, 0.1504562795162201, 0.2994298040866852, 0.20003458857536316, 0.3253886103630066, 0.2975808084011078, 0.2948060631752014, 0.39464929699897766, 0.26202428340911865, 0.27960512042045593, 0.29827800393104553, 0.16490210592746735, 0.2158745527267456, 0.25277531147003174, 0.3479278087615967, 0.20393379032611847, 0.1028270497918129, 0.17623279988765717, 0.30503949522972107, 0.20536337792873383, 0.44061896204948425, 0.5600429177284241, 0.4311869144439697, 0.5440211892127991, 0.49687865376472473, 0.5711614489555359, 0.2748257517814636, 0.3052677810192108, 0.4870077967643738, 0.5402144193649292, 0.25188013911247253, 0.24373486638069153, 0.43360283970832825, 0.4388560354709625, 0.2652774155139923, 0.36659008264541626, 0.2879428267478943, 0.41292980313301086, 0.31306207180023193, 0.49641716480255127, 0.4868888556957245, 0.4013610780239105, 0.40103641152381897, 0.2739819884300232, 0.49424535036087036, 0.3384402096271515, 0.35435357689857483, 0.2402001917362213, 0.1800849884748459, 0.3985774517059326, 0.44675561785697937, 0.2760278284549713, 0.28991830348968506, 0.27962175011634827, 0.2016773670911789, 0.29130688309669495, 0.26954734325408936, 0.27261966466903687]</t>
+          <t>[0.2562774121761322, 0.10030205547809601, 0.13768135011196136, 0.09971833229064941, 0.38216477632522583, 0.2794625461101532, 0.1530168205499649, 0.10433709621429443, 0.6370906233787537, 0.6523739695549011, 0.3222391903400421, 0.5206733345985413, 0.22961100935935974, 0.18273720145225525, 0.2314031422138214, 0.4706743359565735, 0.15609116852283478, 0.30033573508262634, 0.3699578046798706, 0.2106282114982605, 0.26576095819473267, 0.40353915095329285, 0.25444459915161133, 0.3730534613132477, 0.4342615008354187, 0.7090299725532532, 0.5347051620483398, 0.40709853172302246, 0.280615895986557, 0.3692306876182556, 0.1563926786184311, 0.2661466598510742, 0.25674256682395935, 0.26507505774497986, 0.3736763596534729, 0.24466019868850708, 0.26765432953834534, 0.5066343545913696, 0.34541329741477966, 0.29964834451675415, 0.37746915221214294, 0.3053993880748749, 0.25181683897972107, 0.5387511253356934, 0.4805062711238861, 0.20371657609939575, 0.362545371055603, 0.23610076308250427, 0.4561738669872284, 0.45438313484191895, 0.40869367122650146, 0.49929600954055786, 0.3537716567516327, 0.45439136028289795, 0.36219125986099243, 0.17391768097877502, 0.30268770456314087, 0.41384220123291016, 0.5047699213027954, 0.3594741225242615, 0.14190523326396942, 0.25525975227355957, 0.4551975727081299, 0.27465900778770447, 0.5585724711418152, 0.6117997765541077, 0.5322245359420776, 0.6799733638763428, 0.5806987285614014, 0.6646127700805664, 0.3266303837299347, 0.34129568934440613, 0.5913760662078857, 0.6136590838432312, 0.3738817274570465, 0.3714054226875305, 0.5744115710258484, 0.5555543899536133, 0.37753525376319885, 0.5974893569946289, 0.41402801871299744, 0.621634304523468, 0.4395924508571625, 0.735131561756134, 0.7807745933532715, 0.6514027714729309, 0.574254035949707, 0.3889380395412445, 0.6857825517654419, 0.5072498917579651, 0.48453328013420105, 0.34473446011543274, 0.25825923681259155, 0.5345661640167236, 0.5932076573371887, 0.4544401168823242, 0.47745776176452637, 0.4243747293949127, 0.22877895832061768, 0.4264518618583679, 0.32820627093315125, 0.3322806656360626]</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.5711614489555359</v>
+        <v>0.7807745933532715</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -2903,10 +2903,10 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0.5781426999892574</v>
+        <v>0.594940900002257</v>
       </c>
       <c r="J59" t="n">
-        <v>0.00566806568616919</v>
+        <v>0.005832753921590755</v>
       </c>
     </row>
     <row r="60">
@@ -2925,11 +2925,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>[0.1474798321723938, 0.25363412499427795, 0.2981788218021393, 0.2897903323173523, 0.44963061809539795, 0.4806138277053833, 0.5943748950958252, 0.238286092877388, 0.14521454274654388, 0.1720804125070572, 0.173267662525177, 0.13660655915737152, 0.16476836800575256, 0.3167203366756439, 0.2831684947013855, 0.24702507257461548, 0.25488120317459106, 0.2939537763595581, 0.33176565170288086, 0.33003440499305725, 0.31920427083969116, 0.3846929669380188, 0.7253162860870361, 0.4263211488723755, 0.31603655219078064, 0.2320423275232315, 0.16735659539699554, 0.18991044163703918, 0.14298449456691742, 0.1200365349650383, 0.2769445478916168, 0.10098428279161453, 0.15774519741535187, 0.24688270688056946, 0.2502574622631073, 0.14364993572235107, 0.14214806258678436, 0.1445649415254593, 0.11603044718503952, 0.14098258316516876, 0.15185165405273438, 0.3150884807109833, 0.10881882905960083, 0.16277503967285156, 0.19823746383190155, 0.07003737986087799, 0.057487983256578445, 0.2040763944387436, 0.10138390958309174, 0.15724711120128632, 0.15327438712120056, 0.14416193962097168, 0.06451849639415741, 0.12369322031736374, 0.1326562911272049, 0.2291962206363678, 0.1283719688653946, 0.15773321688175201, 0.1442994624376297, 0.24978120625019073, 0.1641857624053955, 0.10576200485229492, 0.16310012340545654, 0.10820160806179047, 0.2394723743200302, 0.10376392304897308, 0.06231378763914108, 0.10932587087154388, 0.1923128068447113, 0.15919190645217896, 0.14980202913284302, 0.11682243645191193, 0.09454811364412308, 0.14088571071624756, 0.19239579141139984, 0.16835197806358337, 0.18064823746681213, 0.47501492500305176, 0.21407826244831085, 0.8663660287857056, 0.716773509979248, 0.8308972120285034, 0.20787325501441956, 0.16325855255126953, 0.14059855043888092, 0.10527827590703964, 0.10836893320083618, 0.17088960111141205, 0.1357254981994629, 0.13089928030967712, 0.10935662686824799, 0.12053787708282471, 0.12679903209209442, 0.1681026816368103, 0.22799886763095856, 0.15528534352779388, 0.08001907914876938, 0.227288618683815, 0.13506877422332764, 0.24285097420215607, 0.1950032114982605, 0.19422964751720428]</t>
+          <t>[0.22453182935714722, 0.4684872627258301, 0.48358598351478577, 0.4312143325805664, 0.6361140012741089, 0.644878625869751, 0.7048001885414124, 0.3624381422996521, 0.24920903146266937, 0.2645163834095001, 0.3329322934150696, 0.22259178757667542, 0.21557018160820007, 0.4266679883003235, 0.32910048961639404, 0.3440282642841339, 0.27751144766807556, 0.2874937057495117, 0.41549965739250183, 0.3463119566440582, 0.33696725964546204, 0.5662317872047424, 0.8680803179740906, 0.4008353352546692, 0.3773959279060364, 0.3278883993625641, 0.31082791090011597, 0.2731723487377167, 0.17469900846481323, 0.12243452668190002, 0.4301443099975586, 0.08356717973947525, 0.20916835963726044, 0.3274202346801758, 0.3547819256782532, 0.17307233810424805, 0.1803656965494156, 0.21311241388320923, 0.16489900648593903, 0.18190555274486542, 0.25223469734191895, 0.44277599453926086, 0.1804109513759613, 0.32591015100479126, 0.30957886576652527, 0.08303046226501465, 0.05240067094564438, 0.37557345628738403, 0.16508734226226807, 0.26710426807403564, 0.19622811675071716, 0.20263148844242096, 0.05053431913256645, 0.11739001423120499, 0.16825376451015472, 0.31888046860694885, 0.17987650632858276, 0.18559269607067108, 0.22962568700313568, 0.405280739068985, 0.24619165062904358, 0.16260404884815216, 0.2496701180934906, 0.15667416155338287, 0.4266006052494049, 0.11312134563922882, 0.048848431557416916, 0.1271769106388092, 0.22119931876659393, 0.25473693013191223, 0.16097420454025269, 0.09918764233589172, 0.07584942132234573, 0.16109153628349304, 0.22078023850917816, 0.20041505992412567, 0.24369455873966217, 0.6239463090896606, 0.4187564253807068, 0.9829729795455933, 0.9123563766479492, 0.9624210596084595, 0.3155542314052582, 0.29092758893966675, 0.2452329695224762, 0.1385941058397293, 0.14259780943393707, 0.32937726378440857, 0.15079954266548157, 0.2031976580619812, 0.09942377358675003, 0.12717384099960327, 0.17424842715263367, 0.20839577913284302, 0.23827429115772247, 0.13593488931655884, 0.06822924315929413, 0.28709468245506287, 0.1481453776359558, 0.32503265142440796, 0.25064119696617126, 0.24896901845932007]</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.8663660287857056</v>
+        <v>0.9829729795455933</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -2943,10 +2943,10 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0.5775602999783587</v>
+        <v>0.5817918000102509</v>
       </c>
       <c r="J60" t="n">
-        <v>0.005662355882140771</v>
+        <v>0.005703841176571087</v>
       </c>
     </row>
     <row r="61">
@@ -2965,11 +2965,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[0.6231356859207153, 0.45416736602783203, 0.5724136829376221, 0.43436846137046814, 0.3629111051559448, 0.3866710960865021, 0.4745791554450989, 0.40206143260002136, 0.3312871754169464, 0.4424523711204529, 0.4887979030609131, 0.4866715371608734, 0.5900803208351135, 0.5770441293716431, 0.5322599411010742, 0.58036208152771, 0.46184617280960083, 0.4984045922756195, 0.7758380174636841, 0.6851281523704529, 0.6867772936820984, 0.4916011393070221, 0.6425811648368835, 0.46214795112609863, 0.5390810966491699, 0.3797323703765869, 0.3822665810585022, 0.34945419430732727, 0.4851519763469696, 0.4746977388858795, 0.5359269380569458, 0.5388039350509644, 0.6507349014282227, 0.7357021570205688, 0.6005222201347351, 0.5557388067245483, 0.6866496205329895, 0.5177695155143738, 0.5629196166992188, 0.8028485178947449, 0.7086560130119324, 0.32733848690986633, 0.5790608525276184, 0.39076653122901917, 0.43950673937797546, 0.4166426658630371, 0.4433846175670624, 0.3040572702884674, 0.3318246304988861, 0.4536207318305969, 0.3622906506061554, 0.3203224241733551, 0.284119188785553, 0.5321240425109863, 0.33689942955970764, 0.26852646470069885, 0.3757224380970001, 0.4683849811553955, 0.5398823618888855, 0.5737483501434326, 0.635998010635376, 0.36464056372642517, 0.35164061188697815, 0.25931066274642944, 0.3176293671131134, 0.4032072424888611, 0.30639007687568665, 0.35326308012008667, 0.5244334936141968, 0.5249093770980835, 0.35487794876098633, 0.3308304250240326, 0.45838114619255066, 0.4428587853908539, 0.5215184688568115, 0.4738198220729828, 0.28693342208862305, 0.39371371269226074, 0.38743704557418823, 0.28578484058380127, 0.2571839690208435, 0.24582231044769287, 0.27981260418891907, 0.11011731624603271, 0.148417666554451, 0.09839749336242676, 0.14240096509456635, 0.18156525492668152, 0.2474939525127411, 0.44355466961860657, 0.3923812210559845, 0.3895777463912964, 0.5252355337142944, 0.4669310748577118, 0.5080163478851318, 0.5295238494873047, 0.48897436261177063, 0.4838283360004425, 0.5681567192077637, 0.5895313620567322, 0.4531131684780121, 0.45354390144348145]</t>
+          <t>[0.7146900296211243, 0.5115523338317871, 0.6854864954948425, 0.5547431707382202, 0.48790884017944336, 0.4820953607559204, 0.6593583226203918, 0.47832444310188293, 0.4007522761821747, 0.5219138860702515, 0.5648639798164368, 0.6293766498565674, 0.7669066190719604, 0.7342986464500427, 0.7175434231758118, 0.7495826482772827, 0.6203073859214783, 0.6422945261001587, 0.9040505290031433, 0.8412553668022156, 0.8288414478302002, 0.6516422033309937, 0.7838717103004456, 0.5816384553909302, 0.6611230969429016, 0.41040173172950745, 0.4456046521663666, 0.44347473978996277, 0.5443199276924133, 0.5537250638008118, 0.6926485300064087, 0.7095630764961243, 0.756730854511261, 0.8742203116416931, 0.6984173655509949, 0.706667423248291, 0.8114482760429382, 0.704154908657074, 0.640304446220398, 0.9222499132156372, 0.8747028708457947, 0.36999091506004333, 0.6157711148262024, 0.4385245740413666, 0.5151565074920654, 0.5871500372886658, 0.5551972985267639, 0.40665876865386963, 0.4416361451148987, 0.6123612523078918, 0.4263225793838501, 0.4421766400337219, 0.4308326244354248, 0.67721027135849, 0.3611305058002472, 0.3335123360157013, 0.4753522574901581, 0.48429906368255615, 0.5971620678901672, 0.6603904962539673, 0.7422523498535156, 0.3285270929336548, 0.33670666813850403, 0.2624567449092865, 0.40587183833122253, 0.45331889390945435, 0.3706398010253906, 0.46577349305152893, 0.635113000869751, 0.6170985698699951, 0.4345163404941559, 0.3987218141555786, 0.5394211411476135, 0.49898096919059753, 0.6164540648460388, 0.6040763258934021, 0.40550002455711365, 0.5291455388069153, 0.47223761677742004, 0.38646790385246277, 0.3446371853351593, 0.24929183721542358, 0.30464428663253784, 0.10014267265796661, 0.14719250798225403, 0.09103699028491974, 0.1512751430273056, 0.18212494254112244, 0.3099912703037262, 0.5773876309394836, 0.4672994911670685, 0.48482465744018555, 0.629278838634491, 0.6060291528701782, 0.6342158317565918, 0.671112060546875, 0.6219026446342468, 0.6447795629501343, 0.6991212964057922, 0.7140781283378601, 0.562900960445404, 0.5647373795509338]</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.8028485178947449</v>
+        <v>0.9222499132156372</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -2983,10 +2983,10 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0.584401500003878</v>
+        <v>0.5940086000045994</v>
       </c>
       <c r="J61" t="n">
-        <v>0.005729426470626255</v>
+        <v>0.005823613725535288</v>
       </c>
     </row>
     <row r="62">
@@ -3005,11 +3005,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[0.32882535457611084, 0.41230133175849915, 0.4128209948539734, 0.3861760199069977, 0.35645395517349243, 0.3189235329627991, 0.36981046199798584, 0.390841007232666, 0.41815701127052307, 0.5103086233139038, 0.3580930233001709, 0.40024733543395996, 0.35645511746406555, 0.33179590106010437, 0.34679147601127625, 0.30753716826438904, 0.3106350600719452, 0.34749943017959595, 0.3819747269153595, 0.3397531509399414, 0.3228946030139923, 0.35593366622924805, 0.2725923955440521, 0.33056411147117615, 0.30064666271209717, 0.35422176122665405, 0.33106157183647156, 0.29342105984687805, 0.30769428610801697, 0.2659550607204437, 0.2588456869125366, 0.15866011381149292, 0.1337931752204895, 0.18251606822013855, 0.30590084195137024, 0.3060673773288727, 0.22666360437870026, 0.2019898146390915, 0.15204595029354095, 0.13779579102993011, 0.2040281742811203, 0.17509262263774872, 0.20766425132751465, 0.24201425909996033, 0.24733063578605652, 0.24790914356708527, 0.30159813165664673, 0.3666028082370758, 0.30920708179473877, 0.308245450258255, 0.23890167474746704, 0.22329024970531464, 0.2584819197654724, 0.21575428545475006, 0.20507091283798218, 0.3483069837093353, 0.3628033995628357, 0.3108898103237152, 0.31449803709983826, 0.3616863191127777, 0.29476600885391235, 0.2381231039762497, 0.4147984981536865, 0.41119158267974854, 0.3302152156829834, 0.30285146832466125, 0.2823737561702728, 0.3312058448791504, 0.1696859449148178, 0.23825225234031677, 0.27397388219833374, 0.25637945532798767, 0.2943420708179474, 0.24018040299415588, 0.26254111528396606, 0.2066277265548706, 0.2222427874803543, 0.2608604431152344, 0.26268935203552246, 0.210226371884346, 0.2012767493724823, 0.26886942982673645, 0.2614971995353699, 0.23374250531196594, 0.23192532360553741, 0.29885783791542053, 0.27219876646995544, 0.22167767584323883, 0.21531902253627777, 0.20538216829299927, 0.194877490401268, 0.3107537031173706, 0.3465251326560974, 0.40430986881256104, 0.41552552580833435, 0.30072328448295593, 0.31491896510124207, 0.29813218116760254, 0.34568995237350464, 0.3081628382205963, 0.3391239047050476, 0.34000450372695923, 0.37211164832115173, 0.2571055293083191, 0.24368660151958466, 0.25336867570877075, 0.21046750247478485, 0.24523060023784637, 0.28467968106269836, 0.24486754834651947, 0.19579145312309265, 0.3708544671535492, 0.2793981432914734, 0.32545581459999084, 0.3934294581413269, 0.33180350065231323, 0.3202514946460724, 0.328174352645874, 0.40712130069732666, 0.4747466742992401, 0.5293564200401306, 0.5140072703361511, 0.42244309186935425, 0.43245527148246765, 0.3009350299835205, 0.34232640266418457, 0.34939244389533997, 0.31602343916893005, 0.32200324535369873, 0.3186439275741577, 0.3825820982456207, 0.3501769006252289, 0.3680383265018463, 0.26200586557388306, 0.2893475592136383, 0.21962156891822815, 0.21049869060516357, 0.23742429912090302, 0.3257203996181488, 0.27134114503860474, 0.3307441771030426, 0.4160185754299164, 0.42891567945480347, 0.3954097628593445, 0.2967519462108612, 0.31599822640419006, 0.385668009519577, 0.41272273659706116, 0.5396646857261658, 0.4498198628425598, 0.379783570766449, 0.38084229826927185]</t>
+          <t>[0.34162437915802, 0.43961936235427856, 0.45914509892463684, 0.4708655774593353, 0.4175950586795807, 0.33382004499435425, 0.44722235202789307, 0.44774624705314636, 0.5168421268463135, 0.5714812874794006, 0.38215866684913635, 0.41897454857826233, 0.3518427014350891, 0.32491108775138855, 0.33845674991607666, 0.3317458927631378, 0.3535034656524658, 0.3998684585094452, 0.4608364403247833, 0.39602112770080566, 0.33893370628356934, 0.39977598190307617, 0.30697372555732727, 0.40583276748657227, 0.4185081422328949, 0.45848187804222107, 0.41644132137298584, 0.38329797983169556, 0.4306684732437134, 0.3337119519710541, 0.30584508180618286, 0.18871182203292847, 0.15699158608913422, 0.18477240204811096, 0.3722818195819855, 0.4494660198688507, 0.3337738811969757, 0.228810653090477, 0.17463427782058716, 0.13209845125675201, 0.1928424835205078, 0.1613532155752182, 0.2137708216905594, 0.25991591811180115, 0.2964518368244171, 0.31835904717445374, 0.4362802803516388, 0.5562737584114075, 0.4500560462474823, 0.464421808719635, 0.33207204937934875, 0.2963685691356659, 0.26194682717323303, 0.24874787032604218, 0.22446778416633606, 0.40572601556777954, 0.38984814286231995, 0.35205507278442383, 0.3469828963279724, 0.4125370681285858, 0.32433828711509705, 0.2705324590206146, 0.5592455267906189, 0.5115602016448975, 0.41368845105171204, 0.424541711807251, 0.34286990761756897, 0.3841533362865448, 0.18416336178779602, 0.30868664383888245, 0.3787793219089508, 0.29623016715049744, 0.33119165897369385, 0.22521229088306427, 0.2910819947719574, 0.25145483016967773, 0.2737763524055481, 0.3306792378425598, 0.3378715217113495, 0.23343999683856964, 0.22965683043003082, 0.334705114364624, 0.2973138391971588, 0.2886377274990082, 0.24994197487831116, 0.3640296757221222, 0.32522016763687134, 0.2694898247718811, 0.2344547063112259, 0.22866825759410858, 0.20985989272594452, 0.43665969371795654, 0.4471815824508667, 0.5452255010604858, 0.5857900977134705, 0.3935200572013855, 0.39343348145484924, 0.43649062514305115, 0.4390762150287628, 0.3812181353569031, 0.40714162588119507, 0.37330740690231323, 0.43607577681541443, 0.2711012065410614, 0.26630905270576477, 0.2644456624984741, 0.2620514929294586, 0.30685150623321533, 0.3544919192790985, 0.3219706118106842, 0.2779655158519745, 0.5947539806365967, 0.38044610619544983, 0.4006805419921875, 0.5383617281913757, 0.4854925274848938, 0.44502708315849304, 0.3643193244934082, 0.45685648918151855, 0.5717629194259644, 0.7153846621513367, 0.6969925761222839, 0.5633836388587952, 0.5613788366317749, 0.37151655554771423, 0.4606851637363434, 0.4757840633392334, 0.3897216022014618, 0.4398685395717621, 0.49231773614883423, 0.5288219451904297, 0.42993348836898804, 0.468588262796402, 0.3396550416946411, 0.37957778573036194, 0.25665661692619324, 0.23297686874866486, 0.2686104476451874, 0.4307481050491333, 0.3719215393066406, 0.46102407574653625, 0.5642156004905701, 0.5026649236679077, 0.528465986251831, 0.3899560272693634, 0.41231444478034973, 0.5395038723945618, 0.6476775407791138, 0.714192271232605, 0.6487350463867188, 0.5578336119651794, 0.5291588306427002]</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.5396646857261658</v>
+        <v>0.7153846621513367</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -3023,10 +3023,10 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0.8650860999769066</v>
+        <v>0.8775322000001324</v>
       </c>
       <c r="J62" t="n">
-        <v>0.005691355920900701</v>
+        <v>0.005773238157895608</v>
       </c>
     </row>
     <row r="63">
@@ -3045,11 +3045,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>[0.20613659918308258, 0.24012719094753265, 0.30091333389282227, 0.20567619800567627, 0.2374294102191925, 0.4502611756324768, 0.31047531962394714, 0.3671819269657135, 0.4684673547744751, 0.4216296970844269, 0.4040200412273407, 0.33416274189949036, 0.4458244740962982, 0.43872299790382385, 0.37672629952430725, 0.751995325088501, 0.6561652421951294, 0.6112152934074402, 0.5398244261741638, 0.5752524733543396, 0.46361851692199707, 0.48727449774742126, 0.4450749456882477, 0.3568630814552307, 0.35892540216445923, 0.38072314858436584, 0.3425731062889099, 0.4087199866771698, 0.2856466472148895, 0.41140609979629517, 0.3046879768371582, 0.23764951527118683, 0.2776971161365509, 0.311629056930542, 0.18765783309936523, 0.18564152717590332, 0.32520416378974915, 0.3519343435764313, 0.3586057126522064, 0.2980532646179199, 0.25888341665267944, 0.25935882329940796, 0.24091003835201263, 0.21141701936721802, 0.32965943217277527, 0.3328525722026825, 0.33313873410224915, 0.23770128190517426, 0.21044892072677612, 0.25725990533828735, 0.20309235155582428, 0.25854066014289856, 0.17451412975788116, 0.1664055734872818, 0.18874172866344452, 0.17017634212970734, 0.22083087265491486, 0.2913166880607605, 0.44558343291282654, 0.37481415271759033, 0.27582916617393494, 0.18493250012397766, 0.20469915866851807, 0.2178543508052826, 0.2969628870487213, 0.2920205593109131, 0.32647863030433655, 0.43192386627197266, 0.33478090167045593, 0.31030184030532837, 0.4022860825061798, 0.47973909974098206, 0.45271366834640503, 0.3075544834136963, 0.2794381380081177, 0.28250834345817566, 0.3185507655143738, 0.25975432991981506, 0.39924943447113037, 0.3495102822780609, 0.35201790928840637, 0.29502809047698975, 0.3815542757511139, 0.3496904671192169, 0.26091399788856506, 0.2071409821510315, 0.25363656878471375, 0.22677117586135864, 0.38600125908851624, 0.8284240365028381, 0.7522391676902771, 0.40749961137771606, 0.32735490798950195, 0.23971840739250183, 0.2576206624507904, 0.25673195719718933, 0.23863042891025543, 0.20202094316482544, 0.18869730830192566, 0.15320314466953278, 0.21876516938209534, 0.40323975682258606, 0.26798003911972046, 0.21334761381149292, 0.1843356043100357, 0.22133147716522217, 0.2567264437675476, 0.21669122576713562, 0.24319344758987427, 0.2769308090209961, 0.3691270053386688, 0.33373305201530457, 0.33575716614723206, 0.4337886571884155, 0.2670992314815521, 0.38784652948379517, 0.4450687766075134, 0.40643659234046936, 0.29093489050865173, 0.187210351228714, 0.20739653706550598, 0.23206156492233276, 0.23852109909057617, 0.27554506063461304, 0.2799099385738373, 0.2678412199020386, 0.24163271486759186, 0.2862439751625061, 0.27936848998069763, 0.28828999400138855, 0.4254254102706909, 0.38014283776283264, 0.4248715043067932, 0.47586730122566223, 0.42854243516921997, 0.22277337312698364, 0.38815879821777344, 0.2714381814002991, 0.21276362240314484, 0.2769700586795807, 0.29084089398384094, 0.26461365818977356, 0.3825351297855377, 0.324709951877594, 0.1620018184185028, 0.2323586344718933, 0.15288232266902924, 0.2275155633687973, 0.29004785418510437, 0.30821019411087036, 0.3444232940673828, 0.29865893721580505]</t>
+          <t>[0.15248945355415344, 0.1801980882883072, 0.2309950441122055, 0.1406010240316391, 0.1731920838356018, 0.5139578580856323, 0.35161855816841125, 0.3349246680736542, 0.5555627346038818, 0.5262475609779358, 0.4266930818557739, 0.35246071219444275, 0.5184987783432007, 0.5093017816543579, 0.4539003372192383, 0.9052225947380066, 0.7578955292701721, 0.5707746744155884, 0.516711413860321, 0.6357588171958923, 0.5163657665252686, 0.5268365144729614, 0.5074901580810547, 0.3689538836479187, 0.3322126865386963, 0.4436148703098297, 0.3403916358947754, 0.4301036596298218, 0.2895149886608124, 0.4728061258792877, 0.3300337493419647, 0.2583715319633484, 0.2688842713832855, 0.41871678829193115, 0.21154682338237762, 0.23880015313625336, 0.4446984827518463, 0.4061630368232727, 0.4583907723426819, 0.35817474126815796, 0.2688003182411194, 0.26729869842529297, 0.21995136141777039, 0.216706320643425, 0.43954142928123474, 0.4414413273334503, 0.33280304074287415, 0.21480798721313477, 0.21771720051765442, 0.2617957890033722, 0.22358274459838867, 0.3343505263328552, 0.14797034859657288, 0.14802809059619904, 0.13873742520809174, 0.1358262151479721, 0.16405999660491943, 0.29929348826408386, 0.5664845108985901, 0.45433109998703003, 0.26186618208885193, 0.19194993376731873, 0.172776460647583, 0.20662274956703186, 0.3627486228942871, 0.28618985414505005, 0.3914007246494293, 0.5754699110984802, 0.4255768060684204, 0.3857928514480591, 0.5141512155532837, 0.6828423142433167, 0.5957651138305664, 0.3649373948574066, 0.27923494577407837, 0.2757522165775299, 0.32018423080444336, 0.26255226135253906, 0.47434598207473755, 0.3806211054325104, 0.3558451235294342, 0.2917099893093109, 0.43081292510032654, 0.42827823758125305, 0.3306918442249298, 0.2139919251203537, 0.32809704542160034, 0.24253800511360168, 0.5147625207901001, 0.9679283499717712, 0.9396085143089294, 0.5492476224899292, 0.36192941665649414, 0.25140154361724854, 0.2801067531108856, 0.3344331681728363, 0.2628658413887024, 0.21175728738307953, 0.1876790076494217, 0.13945765793323517, 0.23987245559692383, 0.5384076833724976, 0.36333733797073364, 0.278805136680603, 0.23305384814739227, 0.27684009075164795, 0.2911608815193176, 0.19434309005737305, 0.22379747033119202, 0.3017832636833191, 0.5203729867935181, 0.41229012608528137, 0.45699456334114075, 0.5433991551399231, 0.27925050258636475, 0.4317709505558014, 0.5202784538269043, 0.5237590074539185, 0.38235536217689514, 0.2419080138206482, 0.21873438358306885, 0.2753244638442993, 0.2685351073741913, 0.301801860332489, 0.28921350836753845, 0.24573847651481628, 0.2358628511428833, 0.36114633083343506, 0.36902526021003723, 0.32726335525512695, 0.506996750831604, 0.4146535396575928, 0.5381974577903748, 0.5803363919258118, 0.49216556549072266, 0.25794661045074463, 0.45931723713874817, 0.2693284749984741, 0.2306170016527176, 0.2940070629119873, 0.33354946970939636, 0.2851283550262451, 0.5195558071136475, 0.35321810841560364, 0.15755455195903778, 0.2618574798107147, 0.11786380410194397, 0.22189785540103912, 0.3027314841747284, 0.32137733697891235, 0.36971360445022583, 0.3082708716392517]</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.8284240365028381</v>
+        <v>0.9679283499717712</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0.860845800023526</v>
+        <v>0.9030075000046054</v>
       </c>
       <c r="J63" t="n">
-        <v>0.005663459210681092</v>
+        <v>0.005940838815819772</v>
       </c>
     </row>
     <row r="64">
@@ -3085,11 +3085,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>[0.24473905563354492, 0.3855760991573334, 0.44443076848983765, 0.4303709864616394, 0.42658475041389465, 0.36041998863220215, 0.3107560873031616, 0.45912453532218933, 0.3267574608325958, 0.3301709294319153, 0.6846157908439636, 0.6091616153717041, 0.6517428159713745, 0.7289652824401855, 0.6436130404472351, 0.6388881206512451, 0.7014389038085938, 0.6610487103462219, 0.6812134981155396, 0.5157076120376587, 0.71504807472229, 0.6921212673187256, 0.34922173619270325, 0.30147692561149597, 0.4249482750892639, 0.36642464995384216, 0.461412250995636, 0.27555790543556213, 0.3397798538208008, 0.34978580474853516, 0.3037981390953064, 0.27733156085014343, 0.24617893993854523, 0.25616419315338135, 0.30978938937187195, 0.2706962525844574, 0.3914870023727417, 0.49883797764778137, 0.46776530146598816, 0.32781365513801575, 0.3845883011817932, 0.4310520887374878, 0.36606767773628235, 0.3495854139328003, 0.23931822180747986, 0.32025137543678284, 0.3099629878997803, 0.3530421257019043, 0.5111138820648193, 0.4530157744884491, 0.462537944316864, 0.3788807988166809, 0.3895392119884491, 0.35678666830062866, 0.300499826669693, 0.27825090289115906, 0.3407241106033325, 0.39720726013183594, 0.4034723937511444, 0.4751129448413849, 0.47753244638442993, 0.39533889293670654, 0.5878565311431885, 0.6302838325500488, 0.4834519922733307, 0.30800989270210266, 0.5308907628059387, 0.6989205479621887, 0.640043318271637, 0.5577525496482849, 0.6021625995635986, 0.4615374803543091, 0.5293989181518555, 0.5786831378936768, 0.5043909549713135, 0.5685592293739319, 0.579348623752594, 0.5870153903961182, 0.6468011736869812, 0.4109388291835785, 0.3600603938102722, 0.4402731657028198, 0.6505729556083679, 0.6642442941665649, 0.5839438438415527, 0.6899093389511108, 0.6571478247642517, 0.6024549007415771, 0.7366229891777039, 0.6665748953819275, 0.7074630856513977, 0.720070481300354, 0.6831287741661072, 0.7351118326187134, 0.7831664681434631, 0.7425005435943604, 0.6864979863166809, 0.7547823190689087, 0.6020443439483643, 0.5270032286643982, 0.5275576114654541, 0.4060393273830414, 0.34494835138320923, 0.37090790271759033, 0.5537457466125488, 0.6748985052108765, 0.4922735095024109, 0.46847569942474365, 0.533378005027771, 0.7369309067726135, 0.743157148361206, 0.7322192788124084, 0.7247920036315918, 0.7955166697502136, 0.7706970572471619, 0.7397447824478149, 0.5158506631851196, 0.4739368259906769, 0.5801586508750916, 0.5846336483955383, 0.4245627820491791, 0.5455130338668823, 0.6186023950576782, 0.6376835107803345, 0.46547600626945496, 0.398092120885849, 0.4711102247238159, 0.5677160620689392, 0.5208384394645691, 0.4222801923751831, 0.7561469674110413, 0.6584427356719971, 0.6741735339164734, 0.6769509315490723, 0.7498438358306885, 0.7412303686141968, 0.7632002830505371, 0.8504934310913086, 0.8399791717529297, 0.5730111002922058, 0.5970795750617981, 0.6274024844169617, 0.6348114013671875, 0.5699782967567444, 0.4960346519947052, 0.5552060604095459, 0.5495254397392273, 0.49455371499061584, 0.659949004650116, 0.6079858541488647, 0.7295230627059937, 0.7537263035774231]</t>
+          <t>[0.24730145931243896, 0.4323205351829529, 0.5496060848236084, 0.4791196584701538, 0.4696844518184662, 0.40774300694465637, 0.324557363986969, 0.5342329740524292, 0.3317677676677704, 0.4206785261631012, 0.7830100059509277, 0.6782651543617249, 0.7971747517585754, 0.8567541241645813, 0.7317923903465271, 0.7011749744415283, 0.844857931137085, 0.8456228375434875, 0.7821789979934692, 0.6007410883903503, 0.8227978348731995, 0.8050397634506226, 0.34561586380004883, 0.27055293321609497, 0.3593650460243225, 0.4082000255584717, 0.4600699543952942, 0.220696359872818, 0.3489726483821869, 0.3562568426132202, 0.2949240207672119, 0.21699346601963043, 0.1520637422800064, 0.23984244465827942, 0.3335914611816406, 0.2783805727958679, 0.3527928292751312, 0.5234065055847168, 0.5730975866317749, 0.3515166640281677, 0.41069769859313965, 0.5290396213531494, 0.4784928262233734, 0.4705345630645752, 0.26415640115737915, 0.37807872891426086, 0.2758351266384125, 0.3459983170032501, 0.444358766078949, 0.43243059515953064, 0.4704289734363556, 0.3214593827724457, 0.3609634339809418, 0.30504685640335083, 0.30173084139823914, 0.27126479148864746, 0.33903253078460693, 0.37480056285858154, 0.39874446392059326, 0.5499057173728943, 0.5480246543884277, 0.49926844239234924, 0.7088394165039062, 0.7194985747337341, 0.5582740306854248, 0.33321598172187805, 0.6890686750411987, 0.836763858795166, 0.7871739864349365, 0.7040981650352478, 0.745055079460144, 0.5517077445983887, 0.6081007719039917, 0.661966860294342, 0.5729979276657104, 0.6360194087028503, 0.6458045840263367, 0.6643631458282471, 0.7570871114730835, 0.4749913215637207, 0.4497659206390381, 0.5357706546783447, 0.7757031321525574, 0.8074826002120972, 0.6688161492347717, 0.7689458131790161, 0.7195415496826172, 0.6695529222488403, 0.8030771017074585, 0.7391389608383179, 0.8449263572692871, 0.8335480093955994, 0.7583904266357422, 0.8353904485702515, 0.9068790078163147, 0.8825498223304749, 0.8223608732223511, 0.8597536683082581, 0.694145143032074, 0.6463974714279175, 0.6568307876586914, 0.4997829794883728, 0.40194573998451233, 0.42820703983306885, 0.5887563228607178, 0.8029575943946838, 0.6130625009536743, 0.5465477108955383, 0.6537809371948242, 0.8430027365684509, 0.850054144859314, 0.8208924531936646, 0.7959555983543396, 0.8529756665229797, 0.8880583643913269, 0.8605993390083313, 0.626945436000824, 0.5878667235374451, 0.6830479502677917, 0.6766084432601929, 0.5821221470832825, 0.6858037710189819, 0.7002708911895752, 0.7434014678001404, 0.5239413976669312, 0.4384629726409912, 0.4437204599380493, 0.5309656858444214, 0.4552571177482605, 0.4098784327507019, 0.7852914929389954, 0.7493653893470764, 0.8324449062347412, 0.7886663675308228, 0.8408018946647644, 0.8335443139076233, 0.8735367059707642, 0.919559895992279, 0.9035311341285706, 0.653306782245636, 0.6881071925163269, 0.7468302249908447, 0.7555583715438843, 0.688845157623291, 0.6319441199302673, 0.6634842157363892, 0.6811783909797668, 0.6113883852958679, 0.8032673597335815, 0.7960748076438904, 0.8533356189727783, 0.9051323533058167]</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.8504934310913086</v>
+        <v>0.9195598959922791</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
@@ -3103,10 +3103,10 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0.8600032999820542</v>
+        <v>0.865714499988826</v>
       </c>
       <c r="J64" t="n">
-        <v>0.005657916447250356</v>
+        <v>0.005695490131505434</v>
       </c>
     </row>
     <row r="65">
@@ -3125,11 +3125,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>[0.4495488107204437, 0.4363069236278534, 0.38527193665504456, 0.29342615604400635, 0.24271099269390106, 0.21385569870471954, 0.24195966124534607, 0.2959584891796112, 0.3182958960533142, 0.3256712555885315, 0.28409677743911743, 0.22979845106601715, 0.15504726767539978, 0.2535267174243927, 0.2665289342403412, 0.2931458353996277, 0.3274320065975189, 0.33114954829216003, 0.2736988067626953, 0.3699740767478943, 0.2810368835926056, 0.26199978590011597, 0.2759090065956116, 0.29965677857398987, 0.29370659589767456, 0.27832064032554626, 0.20322242379188538, 0.24287988245487213, 0.2510203719139099, 0.31598836183547974, 0.2996242046356201, 0.35807257890701294, 0.3035341203212738, 0.3671884536743164, 0.3732360899448395, 0.44962334632873535, 0.27161431312561035, 0.29341721534729004, 0.2556142210960388, 0.30785611271858215, 0.2046959102153778, 0.2776046097278595, 0.4022587537765503, 0.4159037172794342, 0.34466421604156494, 0.3272874355316162, 0.3010241985321045, 0.3187696039676666, 0.32301539182662964, 0.3309462368488312, 0.30839985609054565, 0.32267484068870544, 0.27168455719947815, 0.3492611050605774, 0.36053720116615295, 0.31123408675193787, 0.2825394570827484, 0.3582480847835541, 0.4016053080558777, 0.3958476185798645, 0.35532820224761963, 0.2813929617404938, 0.24063779413700104, 0.21280266344547272, 0.2821681797504425, 0.38612470030784607, 0.36877286434173584, 0.37890392541885376, 0.31134891510009766, 0.35051771998405457, 0.23706769943237305, 0.2797892689704895, 0.1784815639257431, 0.2086934596300125, 0.304336279630661, 0.3380216062068939, 0.3419479429721832, 0.25773507356643677, 0.2800404131412506, 0.34781426191329956, 0.374706506729126, 0.42605769634246826, 0.3478972911834717, 0.13500425219535828, 0.29861879348754883, 0.3644711375236511, 0.21499937772750854, 0.2965501546859741, 0.27373212575912476, 0.29547181725502014, 0.3396192491054535, 0.24449419975280762, 0.31112661957740784, 0.35746702551841736, 0.3207044303417206, 0.3261229395866394, 0.24173472821712494, 0.3205386996269226, 0.2851141095161438, 0.20909573137760162, 0.22682234644889832, 0.29040414094924927, 0.35829779505729675, 0.36989349126815796, 0.29486289620399475, 0.28800585865974426, 0.23334600031375885, 0.2817150056362152, 0.2116342931985855, 0.3187659978866577, 0.3179329037666321, 0.26871973276138306, 0.2013372778892517, 0.2135353684425354, 0.35341203212738037, 0.34246042370796204, 0.2791880965232849, 0.21606752276420593, 0.246764674782753, 0.3950301706790924, 0.28644251823425293, 0.19952885806560516, 0.18976743519306183, 0.24891194701194763, 0.16178223490715027, 0.22209803760051727, 0.23230938613414764, 0.28087130188941956, 0.25120270252227783, 0.2277616262435913, 0.2135339379310608, 0.22829104959964752, 0.23921643197536469, 0.21286308765411377, 0.2605859637260437, 0.3015501797199249, 0.3055250346660614, 0.2648610472679138, 0.2644279897212982, 0.1976611316204071, 0.25052186846733093, 0.3772801458835602, 0.3352125585079193, 0.33038023114204407, 0.321353018283844, 0.23981419205665588, 0.2835216224193573, 0.29580777883529663, 0.403236448764801, 0.28266364336013794, 0.20808498561382294, 0.18700741231441498]</t>
+          <t>[0.5342174172401428, 0.5354642271995544, 0.46969878673553467, 0.2960042953491211, 0.22128576040267944, 0.19169895350933075, 0.23820441961288452, 0.2735634446144104, 0.31086283922195435, 0.3305918872356415, 0.27399271726608276, 0.19075627624988556, 0.10485433042049408, 0.19168893992900848, 0.20428040623664856, 0.24649740755558014, 0.3368074297904968, 0.3089466691017151, 0.23942822217941284, 0.34140536189079285, 0.22728312015533447, 0.20011954009532928, 0.28714022040367126, 0.28888076543807983, 0.2926905155181885, 0.2705693542957306, 0.16645894944667816, 0.20138850808143616, 0.1961180716753006, 0.26149120926856995, 0.25699129700660706, 0.3959140181541443, 0.2664974331855774, 0.3405814468860626, 0.3582981526851654, 0.5481019616127014, 0.2776322364807129, 0.25742772221565247, 0.17871926724910736, 0.2541080117225647, 0.12942452728748322, 0.18443840742111206, 0.3490252196788788, 0.3604123592376709, 0.3091248571872711, 0.28506705164909363, 0.27651458978652954, 0.2962276339530945, 0.27695590257644653, 0.26463761925697327, 0.23331806063652039, 0.2614401578903198, 0.1998831182718277, 0.27193504571914673, 0.3460589051246643, 0.30603423714637756, 0.23471947014331818, 0.3166729509830475, 0.38601645827293396, 0.41904327273368835, 0.36267560720443726, 0.2509754002094269, 0.21365194022655487, 0.17287451028823853, 0.25493887066841125, 0.43344810605049133, 0.36514919996261597, 0.455521821975708, 0.3768549859523773, 0.34156113862991333, 0.21402975916862488, 0.2610393464565277, 0.11303187161684036, 0.16549551486968994, 0.2810855805873871, 0.3368798792362213, 0.3187412917613983, 0.21021729707717896, 0.24889212846755981, 0.32615789771080017, 0.41187068819999695, 0.5056710839271545, 0.35021936893463135, 0.10851730406284332, 0.39848196506500244, 0.42654892802238464, 0.26914384961128235, 0.3750554919242859, 0.3009311258792877, 0.37099742889404297, 0.4227849841117859, 0.2584819197654724, 0.3287102282047272, 0.3750586211681366, 0.3819771707057953, 0.3450465798377991, 0.2543923854827881, 0.36503008008003235, 0.3915981650352478, 0.21710814535617828, 0.24166809022426605, 0.29695072770118713, 0.34526410698890686, 0.3570987284183502, 0.2824447453022003, 0.24141718447208405, 0.18716026842594147, 0.2464836686849594, 0.19343040883541107, 0.32893213629722595, 0.3653189539909363, 0.27156901359558105, 0.17622904479503632, 0.20239798724651337, 0.3897920846939087, 0.3649013936519623, 0.3024904131889343, 0.21907205879688263, 0.21756501495838165, 0.46434298157691956, 0.2781692147254944, 0.21508890390396118, 0.1836145967245102, 0.20559066534042358, 0.13742339611053467, 0.22353224456310272, 0.24742011725902557, 0.26159387826919556, 0.23461364209651947, 0.20808033645153046, 0.25390616059303284, 0.26317769289016724, 0.26545634865760803, 0.2357868105173111, 0.2831917405128479, 0.37250322103500366, 0.3444688320159912, 0.29467788338661194, 0.30718299746513367, 0.20184431970119476, 0.28128471970558167, 0.5438452959060669, 0.3754008114337921, 0.4670712351799011, 0.38620471954345703, 0.2478426843881607, 0.2890174388885498, 0.2877950370311737, 0.36868706345558167, 0.2008737474679947, 0.12719230353832245, 0.1078765019774437]</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.4496233463287354</v>
+        <v>0.5481019616127014</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0.8702631000196561</v>
+        <v>0.8741349000047194</v>
       </c>
       <c r="J65" t="n">
-        <v>0.005725415131708264</v>
+        <v>0.005750887500031048</v>
       </c>
     </row>
     <row r="66">
@@ -3165,11 +3165,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[0.24790723621845245, 0.33267444372177124, 0.29515981674194336, 0.4676661491394043, 0.2873857021331787, 0.30091771483421326, 0.21454045176506042, 0.20584015548229218, 0.16536477208137512, 0.23736442625522614, 0.21521565318107605, 0.3244170844554901, 0.1457596719264984, 0.09773637354373932, 0.11928149312734604, 0.23450084030628204, 0.1958840787410736, 0.19616614282131195, 0.26182401180267334, 0.36814552545547485, 0.321119487285614, 0.348122239112854, 0.2930343449115753, 0.2179771363735199, 0.2441314309835434, 0.1819067895412445, 0.24975192546844482, 0.2205328792333603, 0.2543005645275116, 0.2939511239528656, 0.27649223804473877, 0.24179066717624664, 0.27055221796035767, 0.19658085703849792, 0.18856258690357208, 0.3018389344215393, 0.2903063893318176, 0.19319698214530945, 0.180441752076149, 0.19563233852386475, 0.2534366250038147, 0.18812066316604614, 0.2197718620300293, 0.23287148773670197, 0.2263271063566208, 0.18322880566120148, 0.36575764417648315, 0.3961048126220703, 0.37492814660072327, 0.29949966073036194, 0.20014548301696777, 0.11962354928255081, 0.248566672205925, 0.15008117258548737, 0.14155909419059753, 0.20179502665996552, 0.17114974558353424, 0.1991845965385437, 0.1798640489578247, 0.33755603432655334, 0.4245089888572693, 0.2795049846172333, 0.15881337225437164, 0.2813648581504822, 0.2632705569267273, 0.35695308446884155, 0.4118797481060028, 0.5241678953170776, 0.4752052426338196, 0.3716680407524109, 0.49515390396118164, 0.2956559956073761, 0.23039691150188446, 0.228813037276268, 0.3528396785259247, 0.3294980525970459, 0.37233036756515503, 0.3236512243747711, 0.2213611751794815, 0.2849367558956146, 0.2653489112854004, 0.16401439905166626, 0.1242346242070198, 0.22562634944915771, 0.23728220164775848, 0.1952207386493683, 0.3934382200241089, 0.23462313413619995, 0.5693760514259338, 0.501751720905304, 0.3498498797416687, 0.2675798833370209, 0.2414925992488861, 0.36780571937561035, 0.29742932319641113, 0.38180413842201233, 0.3650020658969879, 0.6208077669143677, 0.5059261918067932, 0.6728670001029968, 0.6347796320915222, 0.5412657856941223, 0.6119513511657715, 0.5350525379180908, 0.30363792181015015, 0.34795477986335754, 0.25604188442230225, 0.31076616048812866, 0.4375463128089905, 0.20467925071716309, 0.3606552481651306, 0.40188878774642944, 0.4676869511604309, 0.26682785153388977, 0.28850674629211426, 0.2913607060909271, 0.5402136445045471, 0.6400123834609985, 0.5748080611228943, 0.60393887758255, 0.38475361466407776, 0.3013083040714264, 0.2275552898645401, 0.298997700214386, 0.11282971501350403, 0.15054038166999817, 0.23449231684207916, 0.27083224058151245, 0.43476223945617676, 0.4093064069747925, 0.6691690683364868, 0.7635738253593445, 0.6913936138153076, 0.6024076342582703, 0.35515424609184265, 0.5319309234619141, 0.5589792132377625, 0.5077106952667236, 0.5279132723808289, 0.5493624210357666, 0.5028079152107239, 0.4041144549846649, 0.6527485251426697, 0.524060070514679, 0.4118671119213104, 0.2889341115951538, 0.3356931805610657, 0.3886684477329254, 0.5145601034164429, 0.47694963216781616, 0.34589841961860657, 0.49703851342201233]</t>
+          <t>[0.24463455379009247, 0.32797831296920776, 0.342175155878067, 0.461770623922348, 0.3361240327358246, 0.19208987057209015, 0.13066163659095764, 0.1246890127658844, 0.11580952256917953, 0.16226668655872345, 0.14680200815200806, 0.24025917053222656, 0.08402526378631592, 0.05014375224709511, 0.061126817017793655, 0.17505502700805664, 0.10072833299636841, 0.10453017801046371, 0.24716630578041077, 0.35329169034957886, 0.26439982652664185, 0.33736956119537354, 0.20915652811527252, 0.11122056096792221, 0.16665515303611755, 0.13739359378814697, 0.21030911803245544, 0.11584141850471497, 0.15449507534503937, 0.16152743995189667, 0.15457384288311005, 0.09437596797943115, 0.12838247418403625, 0.09783992916345596, 0.09438302367925644, 0.21165436506271362, 0.16121433675289154, 0.07000961899757385, 0.06044595316052437, 0.07767143100500107, 0.14248651266098022, 0.10263104736804962, 0.12450284510850906, 0.13540737330913544, 0.1470319926738739, 0.09273532778024673, 0.1718771904706955, 0.23180001974105835, 0.18986845016479492, 0.14066392183303833, 0.09452352672815323, 0.058041222393512726, 0.1974736452102661, 0.08262380212545395, 0.08190079778432846, 0.09337159991264343, 0.07554750144481659, 0.11994648724794388, 0.10886603593826294, 0.1971319019794464, 0.3057362139225006, 0.16958637535572052, 0.08726190030574799, 0.23661747574806213, 0.21465325355529785, 0.4008748233318329, 0.3981098532676697, 0.4522898495197296, 0.49906983971595764, 0.30369827151298523, 0.47267937660217285, 0.21152116358280182, 0.11388213187456131, 0.12488555908203125, 0.17790605127811432, 0.2209271788597107, 0.34247761964797974, 0.3033693730831146, 0.14191877841949463, 0.1501196026802063, 0.13133887946605682, 0.07694131135940552, 0.0681525394320488, 0.16405585408210754, 0.1834239959716797, 0.11420388519763947, 0.4387524127960205, 0.18003219366073608, 0.5676584243774414, 0.4913915991783142, 0.3737240135669708, 0.23840300738811493, 0.1861824244260788, 0.26496633887290955, 0.15857645869255066, 0.2593822777271271, 0.26984527707099915, 0.658035933971405, 0.5185290575027466, 0.7814961075782776, 0.6046894192695618, 0.49312421679496765, 0.45395195484161377, 0.642736554145813, 0.2766718864440918, 0.3140648305416107, 0.1319175511598587, 0.185011088848114, 0.3413229286670685, 0.11988892406225204, 0.2985392212867737, 0.23623095452785492, 0.27742719650268555, 0.24135379493236542, 0.26012980937957764, 0.18572671711444855, 0.42670825123786926, 0.5060285329818726, 0.5314242839813232, 0.5945436358451843, 0.3252413868904114, 0.23520106077194214, 0.14033974707126617, 0.2564942240715027, 0.06016409397125244, 0.08599118143320084, 0.14321956038475037, 0.1603284329175949, 0.3665392994880676, 0.40543028712272644, 0.6144025325775146, 0.7769222259521484, 0.6631186008453369, 0.7252753973007202, 0.31182774901390076, 0.6731718182563782, 0.6113709211349487, 0.4966362416744232, 0.47024017572402954, 0.5552372932434082, 0.4688035547733307, 0.2588299512863159, 0.6059003472328186, 0.46402639150619507, 0.3098701238632202, 0.17810513079166412, 0.1678808331489563, 0.23371821641921997, 0.43169912695884705, 0.42977389693260193, 0.2491052895784378, 0.4158982038497925]</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.7635738253593445</v>
+        <v>0.7814961075782776</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -3183,10 +3183,10 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0.8689363000157755</v>
+        <v>0.8698108999960823</v>
       </c>
       <c r="J66" t="n">
-        <v>0.005716686184314312</v>
+        <v>0.005722440131553173</v>
       </c>
     </row>
     <row r="67">
@@ -3205,11 +3205,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>[0.3020175099372864, 0.3735049366950989, 0.2973616421222687, 0.24015644192695618, 0.28617745637893677, 0.3426791727542877, 0.2314571738243103, 0.28239142894744873, 0.17322300374507904, 0.1084158644080162, 0.13004626333713531, 0.08949536830186844, 0.2719198167324066, 0.2723022699356079, 0.194480299949646, 0.0651320144534111, 0.09118513762950897, 0.1150471493601799, 0.08804800361394882, 0.15667088329792023, 0.2978796064853668, 0.22127549350261688, 0.20599111914634705, 0.19547449052333832, 0.15899558365345, 0.3380993902683258, 0.30804091691970825, 0.321948379278183, 0.22875799238681793, 0.3814941942691803, 0.33707547187805176, 0.24613763391971588, 0.2894601821899414, 0.27490469813346863, 0.2164759784936905, 0.5279393792152405, 0.34056970477104187, 0.5235117077827454, 0.24959346652030945, 0.27506500482559204, 0.4927733838558197, 0.2929433584213257, 0.3219667077064514, 0.21027076244354248, 0.35424575209617615, 0.4416113793849945, 0.21996431052684784, 0.2813892662525177, 0.6149371862411499, 0.6191752552986145, 0.8181912302970886, 0.8434101343154907, 0.3022643029689789, 0.19046828150749207, 0.4602680802345276, 0.3416580259799957, 0.2942732274532318, 0.35432249307632446, 0.3530753254890442, 0.2498154640197754, 0.7116180658340454, 0.47250938415527344, 0.5122281908988953, 0.6495696902275085, 0.6222862601280212, 0.8100646734237671, 0.8344488739967346, 0.7834790349006653, 0.6518257856369019, 0.6450945734977722, 0.27251967787742615, 0.38090893626213074, 0.37033611536026, 0.3675462007522583, 0.48251035809516907, 0.22061428427696228, 0.23883187770843506, 0.22728238999843597, 0.2657284736633301, 0.35562875866889954, 0.19497795403003693, 0.18255548179149628, 0.35175251960754395, 0.47831153869628906, 0.7053428292274475, 0.6690988540649414, 0.5521670579910278, 0.5934473872184753, 0.6767811179161072, 0.7968876361846924, 0.738423764705658, 0.8142307996749878, 0.8454112410545349, 0.8450323343276978, 0.8868962526321411, 0.8425151109695435, 0.6792175769805908, 0.7937030792236328, 0.4840380549430847, 0.4736118018627167, 0.48414725065231323, 0.5775759220123291, 0.739387571811676, 0.5030611157417297, 0.4771234095096588, 0.42652079463005066, 0.37368884682655334, 0.2925940752029419, 0.32739460468292236, 0.22803273797035217, 0.30979427695274353, 0.42211073637008667, 0.4753964841365814, 0.4291207194328308, 0.3419003486633301, 0.24841342866420746, 0.2833315432071686, 0.3093784749507904, 0.4318311810493469, 0.4368860423564911, 0.3265121579170227, 0.18945999443531036, 0.12119849771261215, 0.19081450998783112, 0.29099249839782715, 0.22300079464912415, 0.19186493754386902, 0.23821291327476501, 0.26525411009788513, 0.4681604206562042, 0.34997257590293884, 0.4292275905609131, 0.4583282172679901, 0.39024096727371216, 0.20776347815990448, 0.19486583769321442, 0.2488696426153183, 0.2291816920042038, 0.20041698217391968, 0.37723156809806824, 0.640067994594574, 0.5067392587661743, 0.2924002707004547, 0.24897202849388123, 0.5296545624732971, 0.2523534595966339, 0.244439497590065, 0.43367141485214233, 0.4258810877799988, 0.3867557942867279, 0.34538817405700684]</t>
+          <t>[0.4092123508453369, 0.4326706826686859, 0.3419733941555023, 0.33592432737350464, 0.3995252251625061, 0.3836474120616913, 0.24363958835601807, 0.35373547673225403, 0.22485417127609253, 0.14239975810050964, 0.13444659113883972, 0.13591448962688446, 0.36022594571113586, 0.3500889539718628, 0.19564251601696014, 0.08241549879312515, 0.11002786457538605, 0.1573847234249115, 0.09684918075799942, 0.19432054460048676, 0.2832481563091278, 0.25717827677726746, 0.2474355250597, 0.23338854312896729, 0.22149315476417542, 0.3354211747646332, 0.3383905291557312, 0.370983362197876, 0.29735690355300903, 0.5696106553077698, 0.4737100303173065, 0.2562882900238037, 0.35075893998146057, 0.26017525792121887, 0.24542386829853058, 0.5723372101783752, 0.4881364107131958, 0.638272225856781, 0.30273234844207764, 0.35392341017723083, 0.56803297996521, 0.377311110496521, 0.4134575128555298, 0.2840926945209503, 0.4628239572048187, 0.5698044896125793, 0.26408782601356506, 0.3025546669960022, 0.7060203552246094, 0.753392219543457, 0.8932791948318481, 0.9151496887207031, 0.3847244083881378, 0.21781983971595764, 0.45355597138404846, 0.39397189021110535, 0.3335103988647461, 0.39647436141967773, 0.4785902798175812, 0.2506226897239685, 0.7230193018913269, 0.49702173471450806, 0.438991516828537, 0.5236753821372986, 0.5705460906028748, 0.8152804374694824, 0.9227301478385925, 0.8588419556617737, 0.689839780330658, 0.7575732469558716, 0.4247959852218628, 0.6123073697090149, 0.6153011918067932, 0.4805469214916229, 0.6001095771789551, 0.2513745129108429, 0.26028701663017273, 0.24983733892440796, 0.25422927737236023, 0.39181143045425415, 0.18465566635131836, 0.20418217778205872, 0.40580442547798157, 0.5054011940956116, 0.7689344882965088, 0.7800846695899963, 0.6818466782569885, 0.7589517831802368, 0.8152087330818176, 0.9029508829116821, 0.8231998085975647, 0.8285976052284241, 0.881473958492279, 0.9097560048103333, 0.9485376477241516, 0.8784370422363281, 0.7698869109153748, 0.8421960473060608, 0.6020673513412476, 0.6641305685043335, 0.6793866157531738, 0.7367210388183594, 0.8765913844108582, 0.6676595211029053, 0.5746068954467773, 0.4943089485168457, 0.4130783975124359, 0.36065414547920227, 0.40158116817474365, 0.3193279206752777, 0.40606096386909485, 0.4548526406288147, 0.5242030620574951, 0.5300942063331604, 0.5120313167572021, 0.33573663234710693, 0.35954904556274414, 0.4215248227119446, 0.5611335039138794, 0.4994392395019531, 0.39476338028907776, 0.21027936041355133, 0.13979323208332062, 0.22593635320663452, 0.3722212016582489, 0.33658209443092346, 0.2617955505847931, 0.3339429795742035, 0.3063657283782959, 0.6126174330711365, 0.42129629850387573, 0.5274316668510437, 0.5986930727958679, 0.4980204999446869, 0.2622341215610504, 0.23413287103176117, 0.33634865283966064, 0.3521539568901062, 0.27570217847824097, 0.5162476897239685, 0.8244467377662659, 0.5663740634918213, 0.3489346206188202, 0.31688445806503296, 0.676852285861969, 0.4007812440395355, 0.3793485164642334, 0.5646277070045471, 0.5260754227638245, 0.4255565106868744, 0.46083617210388184]</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.8868962526321411</v>
+        <v>0.9485376477241516</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -3223,10 +3223,10 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0.8561281000147574</v>
+        <v>0.8578885000024457</v>
       </c>
       <c r="J67" t="n">
-        <v>0.005669722516654022</v>
+        <v>0.005681380794718183</v>
       </c>
     </row>
     <row r="68">
@@ -3245,11 +3245,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[0.07581411302089691, 0.12042251229286194, 0.1274186372756958, 0.04174670949578285, 0.08702728152275085, 0.16023480892181396, 0.14124061167240143, 0.26865720748901367, 0.22360092401504517, 0.14304709434509277, 0.18322709202766418, 0.1337248831987381, 0.18064995110034943, 0.16822615265846252, 0.09851302951574326, 0.11313865333795547, 0.14134575426578522, 0.11475776880979538, 0.16716597974300385, 0.20835714042186737, 0.14718660712242126, 0.15621636807918549, 0.26837339997291565, 0.1602928340435028, 0.11607500165700912, 0.18712161481380463, 0.19435326755046844, 0.16927289962768555, 0.11260440200567245, 0.09203465282917023, 0.07708869129419327, 0.16781719028949738, 0.1665307879447937, 0.11311716586351395, 0.11203909665346146, 0.34542596340179443, 0.24296508729457855, 0.2513851523399353, 0.17196179926395416, 0.4583524167537689, 0.3125016987323761, 0.3085049092769623, 0.39736393094062805, 0.25579965114593506, 0.21509750187397003, 0.11976109445095062, 0.34770360589027405, 0.33625394105911255, 0.16459371149539948, 0.10711204260587692, 0.2183643877506256, 0.3226887881755829, 0.36067667603492737, 0.17059782147407532, 0.2616846561431885, 0.20002461969852448, 0.1630508005619049, 0.3290451467037201, 0.641282320022583, 0.6157814264297485, 0.6551328897476196, 0.7047427296638489, 0.34504058957099915, 0.4712783694267273, 0.42998287081718445, 0.30060988664627075, 0.3928523659706116, 0.3848624527454376, 0.44938158988952637, 0.3058450222015381, 0.36518970131874084, 0.3584909439086914, 0.22273804247379303, 0.3797416090965271, 0.6343894004821777, 0.6783355474472046, 0.7462772130966187, 0.8193800449371338, 0.8517060875892639, 0.8179532885551453, 0.8212781548500061, 0.9223501086235046, 0.6454216837882996, 0.4210980534553528, 0.39037081599235535, 0.620007336139679, 0.7016411423683167, 0.9018257260322571, 0.49473318457603455, 0.8753424286842346, 0.9620650410652161, 0.9426615834236145, 0.857671856880188, 0.8571844696998596, 0.8531051874160767, 0.9163904786109924, 0.866851806640625, 0.4786534011363983, 0.8960091471672058, 0.4095437228679657, 0.2690679728984833, 0.3238738775253296, 0.22492216527462006, 0.6781358122825623, 0.9377448558807373, 0.5791884660720825, 0.4811524450778961, 0.43136897683143616, 0.51961350440979, 0.5039985775947571, 0.3547130823135376, 0.5187055468559265, 0.8029993176460266, 0.6612040400505066, 0.5782175660133362, 0.41989606618881226, 0.4331270456314087, 0.6612836718559265, 0.3842752277851105, 0.3689113259315491, 0.42977893352508545, 0.6173895001411438, 0.4820619821548462, 0.3123496174812317, 0.3068346381187439, 0.7140445709228516, 0.7324572205543518, 0.44210270047187805, 0.27453720569610596, 0.20460274815559387, 0.25977474451065063, 0.25957128405570984, 0.18163035809993744, 0.22303132712841034, 0.21683219075202942, 0.7448253631591797, 0.8014059066772461, 0.6088350415229797, 0.7625517249107361, 0.7635262608528137, 0.6671910881996155, 0.72077876329422, 0.6329671144485474, 0.532283365726471, 0.5875691771507263, 0.4601080119609833, 0.5556315779685974, 0.34285157918930054, 0.591505229473114, 0.7888509035110474, 0.8886615633964539]</t>
+          <t>[0.06716444343328476, 0.07564205676317215, 0.11311633884906769, 0.026060957461595535, 0.05644887313246727, 0.18517059087753296, 0.10277685523033142, 0.26283589005470276, 0.16702444851398468, 0.11353513598442078, 0.13271823525428772, 0.11788846552371979, 0.1551571786403656, 0.11753524094820023, 0.06339594721794128, 0.09947413206100464, 0.16315577924251556, 0.07549786567687988, 0.08954451978206635, 0.15728190541267395, 0.1083870381116867, 0.15710900723934174, 0.2746340334415436, 0.1303977221250534, 0.14540758728981018, 0.20621614158153534, 0.3034246265888214, 0.22567224502563477, 0.0771806612610817, 0.0595538504421711, 0.05024532228708267, 0.127475768327713, 0.13320575654506683, 0.08337001502513885, 0.10075514018535614, 0.33774444460868835, 0.25155922770500183, 0.28171586990356445, 0.185965895652771, 0.496628075838089, 0.3251051604747772, 0.402426540851593, 0.4663729667663574, 0.30396217107772827, 0.26358288526535034, 0.11459154635667801, 0.37176480889320374, 0.34003129601478577, 0.2033885270357132, 0.13303305208683014, 0.252295583486557, 0.42746564745903015, 0.5058848261833191, 0.17453207075595856, 0.3298664391040802, 0.2406211793422699, 0.15921807289123535, 0.30494076013565063, 0.7329593300819397, 0.6456040143966675, 0.7233176231384277, 0.8097200989723206, 0.34291985630989075, 0.5267841219902039, 0.48732173442840576, 0.3832418918609619, 0.44977083802223206, 0.36791202425956726, 0.4563765823841095, 0.23279939591884613, 0.27398690581321716, 0.3787030279636383, 0.21053661406040192, 0.4521733522415161, 0.7267229557037354, 0.8526409864425659, 0.8265140652656555, 0.9107950329780579, 0.9469044804573059, 0.9272958040237427, 0.8923337459564209, 0.9606245756149292, 0.6929523944854736, 0.42985668778419495, 0.44086983799934387, 0.6855458617210388, 0.7906858921051025, 0.974624514579773, 0.5542799830436707, 0.9449032545089722, 0.9865386486053467, 0.9844586849212646, 0.948269248008728, 0.9393320083618164, 0.9302803874015808, 0.9733578562736511, 0.9436665773391724, 0.6316663026809692, 0.9624661803245544, 0.5582832098007202, 0.25833800435066223, 0.386991024017334, 0.28461095690727234, 0.8429906368255615, 0.9799675941467285, 0.7234135270118713, 0.5661916136741638, 0.5417890548706055, 0.6448160409927368, 0.5355703234672546, 0.3722105622291565, 0.5661831498146057, 0.8357603549957275, 0.6653306484222412, 0.6187345385551453, 0.5499682426452637, 0.5282008051872253, 0.799207866191864, 0.4462047219276428, 0.4338482916355133, 0.5088099241256714, 0.7068201303482056, 0.5348507165908813, 0.3733443021774292, 0.34202471375465393, 0.8411741256713867, 0.8538838624954224, 0.5305222868919373, 0.308366984128952, 0.18164029717445374, 0.18826398253440857, 0.172096386551857, 0.13267762959003448, 0.19902582466602325, 0.20650385320186615, 0.872402012348175, 0.8773805499076843, 0.6861588358879089, 0.8382729291915894, 0.8428734540939331, 0.6848806142807007, 0.8144185543060303, 0.7445847392082214, 0.6135321855545044, 0.644957423210144, 0.4959946572780609, 0.6632049679756165, 0.3688104748725891, 0.7076476812362671, 0.8736772537231445, 0.9570280313491821]</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.9620650410652161</v>
+        <v>0.9865386486053467</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.8533775999967474</v>
+        <v>0.8633869000041159</v>
       </c>
       <c r="J68" t="n">
-        <v>0.005651507284746672</v>
+        <v>0.005717794039762357</v>
       </c>
     </row>
     <row r="69">
@@ -3285,11 +3285,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[0.289793998003006, 0.30600783228874207, 0.284574955701828, 0.31525719165802, 0.3446314036846161, 0.3821018934249878, 0.4018227159976959, 0.42373430728912354, 0.29766854643821716, 0.37763649225234985, 0.40172502398490906, 0.37929707765579224, 0.37959107756614685, 0.46825066208839417, 0.2944762408733368, 0.4099198877811432, 0.3364715576171875, 0.3204945921897888, 0.36936208605766296, 0.45597660541534424, 0.4384445548057556, 0.4053458869457245, 0.4000852108001709, 0.5621660947799683, 0.48163262009620667, 0.43875977396965027, 0.41524913907051086, 0.4503028690814972, 0.3286202549934387, 0.3370630145072937, 0.388526976108551, 0.38321149349212646, 0.4250377118587494, 0.29570117592811584, 0.33133047819137573, 0.36912909150123596, 0.3733489513397217, 0.5176869034767151, 0.4687331020832062, 0.32877856492996216, 0.4287903904914856, 0.4173988997936249, 0.3417450785636902, 0.2723349630832672, 0.3041498363018036, 0.3848184049129486, 0.5139567852020264, 0.4312250018119812, 0.46931058168411255, 0.5382934808731079, 0.5348435640335083, 0.6778272390365601, 0.5928250551223755, 0.3973295986652374, 0.581720232963562, 0.48109540343284607, 0.42582032084465027, 0.4432978332042694, 0.4936981201171875, 0.5423302054405212, 0.38132244348526, 0.507640540599823, 0.6372496485710144, 0.5874843001365662, 0.48347213864326477, 0.7323757410049438, 0.7042056322097778, 0.5925055146217346, 0.5536279082298279, 0.4880165159702301, 0.48014748096466064, 0.5294619798660278, 0.3968464732170105, 0.2730475664138794, 0.26701900362968445, 0.3146725296974182, 0.2911766767501831, 0.46434420347213745, 0.3752027750015259, 0.30831295251846313, 0.32645609974861145, 0.45339691638946533, 0.43427595496177673, 0.48571935296058655, 0.4468872547149658, 0.4631205201148987, 0.35867026448249817, 0.34073856472969055, 0.30645522475242615, 0.2855924069881439, 0.34788838028907776, 0.4732475280761719, 0.763210117816925, 0.5519362688064575, 0.4621621072292328, 0.5869337916374207, 0.6388146281242371, 0.45488402247428894, 0.3622475862503052, 0.3292980492115021, 0.40427109599113464, 0.3475255072116852, 0.3870075047016144, 0.5200280547142029, 0.5714098215103149, 0.46581771969795227, 0.43899667263031006, 0.47803276777267456, 0.4065907597541809, 0.4724105894565582, 0.42617931962013245, 0.4955112934112549, 0.40467512607574463, 0.5737804174423218, 0.2734038531780243, 0.40767374634742737, 0.3856274485588074, 0.46710672974586487, 0.33079034090042114, 0.3976278007030487, 0.3880043923854828, 0.5556203126907349, 0.39998435974121094, 0.6288099884986877, 0.831153929233551, 0.5385677814483643, 0.44681796431541443, 0.6486769318580627, 0.6353982090950012, 0.6260201930999756, 0.3616267740726471, 0.36833861470222473, 0.43213391304016113, 0.4543970227241516, 0.44201284646987915, 0.2099640816450119, 0.3682754337787628, 0.40549370646476746, 0.33205485343933105, 0.5062135457992554, 0.40013980865478516, 0.3903731107711792, 0.32956212759017944, 0.3889800012111664, 0.37081336975097656, 0.4895375967025757, 0.3924168050289154, 0.38255012035369873, 0.41270020604133606, 0.4411051273345947, 0.386604905128479, 0.43167054653167725]</t>
+          <t>[0.21490643918514252, 0.26445314288139343, 0.2356005758047104, 0.26608097553253174, 0.30195122957229614, 0.3240657448768616, 0.33298832178115845, 0.36633849143981934, 0.21237696707248688, 0.32626405358314514, 0.3462241291999817, 0.33168190717697144, 0.35093361139297485, 0.4261087477207184, 0.29283177852630615, 0.37786608934402466, 0.3609101176261902, 0.28523632884025574, 0.3766629993915558, 0.5013158917427063, 0.2954792082309723, 0.29951539635658264, 0.3063746988773346, 0.43660804629325867, 0.4411865174770355, 0.41051194071769714, 0.3132701814174652, 0.44436123967170715, 0.31671932339668274, 0.35150226950645447, 0.3693406879901886, 0.3681814968585968, 0.3928951919078827, 0.24207402765750885, 0.2799907326698303, 0.3112952411174774, 0.34098607301712036, 0.4894515872001648, 0.45458871126174927, 0.34529197216033936, 0.49532103538513184, 0.48749685287475586, 0.3598582148551941, 0.26945245265960693, 0.29870912432670593, 0.41008999943733215, 0.5739985108375549, 0.42643025517463684, 0.3963988423347473, 0.5219802856445312, 0.4386594295501709, 0.7490730285644531, 0.5573751926422119, 0.2948039472103119, 0.5244715809822083, 0.3817088305950165, 0.3788001239299774, 0.40758857131004333, 0.4370044767856598, 0.6290990710258484, 0.3626031279563904, 0.5389519929885864, 0.6698822379112244, 0.4850277006626129, 0.4303496479988098, 0.840054452419281, 0.6787843108177185, 0.602787971496582, 0.6003807187080383, 0.6058139801025391, 0.4213935136795044, 0.5326243042945862, 0.3984043002128601, 0.25251442193984985, 0.24471378326416016, 0.25305306911468506, 0.22788652777671814, 0.39389902353286743, 0.25815391540527344, 0.20330116152763367, 0.1879657655954361, 0.3474106788635254, 0.32796624302864075, 0.3641815781593323, 0.32145828008651733, 0.38444653153419495, 0.25267401337623596, 0.259966641664505, 0.22873258590698242, 0.255218505859375, 0.34030768275260925, 0.5313570499420166, 0.8607388138771057, 0.6233019232749939, 0.3924850821495056, 0.5973720550537109, 0.601144552230835, 0.39752885699272156, 0.32423609495162964, 0.2898178696632385, 0.34655895829200745, 0.29425331950187683, 0.34032848477363586, 0.49587053060531616, 0.4722067415714264, 0.3707866072654724, 0.3129071295261383, 0.3721051514148712, 0.30204254388809204, 0.44258955121040344, 0.37156495451927185, 0.4635735750198364, 0.3592556416988373, 0.48960089683532715, 0.2085185945034027, 0.3648104965686798, 0.3492180407047272, 0.35857176780700684, 0.2311875969171524, 0.34600695967674255, 0.3053324222564697, 0.5228403210639954, 0.3014409840106964, 0.7437865138053894, 0.8821123838424683, 0.6114456057548523, 0.36740267276763916, 0.6080429553985596, 0.5522802472114563, 0.6165141463279724, 0.30994492769241333, 0.278533935546875, 0.328290194272995, 0.47593069076538086, 0.42151060700416565, 0.13761866092681885, 0.2746829688549042, 0.3101813495159149, 0.3008963465690613, 0.47374409437179565, 0.29094189405441284, 0.325671523809433, 0.2542703449726105, 0.3123038113117218, 0.3149225115776062, 0.4946868419647217, 0.30598413944244385, 0.29041802883148193, 0.337605357170105, 0.3692914843559265, 0.3634864389896393, 0.3735053837299347]</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.831153929233551</v>
+        <v>0.8821123838424683</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -3303,10 +3303,10 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0.8578462000004947</v>
+        <v>0.8614977999968687</v>
       </c>
       <c r="J69" t="n">
-        <v>0.005643725000003255</v>
+        <v>0.005667748684189925</v>
       </c>
     </row>
     <row r="70">
@@ -3325,11 +3325,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[0.5308176875114441, 0.5233660340309143, 0.5034982562065125, 0.3772293031215668, 0.34372684359550476, 0.4589378237724304, 0.3565269112586975, 0.4232831299304962, 0.33372119069099426, 0.4214610755443573, 0.34369903802871704, 0.24071212112903595, 0.2871182858943939, 0.3282095193862915, 0.35670170187950134, 0.38453155755996704, 0.4148058295249939, 0.2994290292263031, 0.29202765226364136, 0.30974313616752625, 0.46234121918678284, 0.4984816908836365, 0.4152339994907379, 0.5082182288169861, 0.45092421770095825, 0.5421490669250488, 0.39538100361824036, 0.5137209892272949, 0.6298787593841553, 0.7095435857772827, 0.6557918787002563, 0.5519702434539795, 0.37670376896858215, 0.48308518528938293, 0.5579907894134521, 0.5699236392974854, 0.3931257128715515, 0.2818032205104828, 0.42064014077186584, 0.35948559641838074, 0.24534842371940613, 0.5776684880256653, 0.3282952308654785, 0.2882593870162964, 0.23073548078536987, 0.3529033362865448, 0.29333755373954773, 0.30529433488845825, 0.39252179861068726, 0.25562185049057007, 0.29618117213249207, 0.26872774958610535, 0.3142699897289276, 0.3521558344364166, 0.43788427114486694, 0.35023874044418335, 0.35116609930992126, 0.2765875458717346, 0.32611942291259766, 0.26152968406677246, 0.28176063299179077, 0.3561631143093109, 0.254285603761673, 0.23783034086227417, 0.264053076505661, 0.3099469244480133, 0.34596019983291626, 0.5147331953048706, 0.3407653570175171, 0.3657259941101074, 0.5137065649032593, 0.3779764175415039, 0.3223564922809601, 0.29370513558387756, 0.14772692322731018, 0.13317535817623138, 0.21486279368400574, 0.30218440294265747, 0.20459212362766266, 0.19379477202892303, 0.26407748460769653, 0.2747316360473633, 0.4579213559627533, 0.3046799302101135, 0.24941176176071167, 0.4304250180721283, 0.2564513385295868, 0.30067428946495056, 0.39751529693603516, 0.31166496872901917, 0.37631237506866455, 0.37026169896125793, 0.2781166136264801, 0.40684255957603455, 0.28773143887519836, 0.2459212690591812, 0.25018876791000366, 0.25033944845199585, 0.24748022854328156, 0.27496907114982605, 0.3180954158306122, 0.39188700914382935, 0.4494134783744812, 0.5232663154602051, 0.411888986825943, 0.3179449737071991, 0.43349456787109375, 0.5377283692359924, 0.564566433429718, 0.5197495222091675, 0.42513221502304077, 0.49660277366638184, 0.6256904602050781, 0.6090221405029297, 0.6822494268417358, 0.6280047297477722, 0.5159804821014404, 0.4129751920700073, 0.5320024490356445, 0.4354875683784485, 0.7148521542549133, 0.42575353384017944, 0.5233187079429626, 0.49119997024536133, 0.4249408543109894, 0.3430880904197693, 0.2905685305595398, 0.30013707280158997, 0.350460022687912, 0.350034236907959, 0.40545427799224854, 0.36123165488243103, 0.35541272163391113, 0.31210657954216003, 0.40580517053604126, 0.37282827496528625, 0.33768993616104126, 0.4030810296535492, 0.2952903211116791, 0.2897796332836151, 0.25844433903694153, 0.23288995027542114, 0.23484095931053162, 0.26687633991241455, 0.2809309661388397, 0.32088667154312134, 0.3078087568283081, 0.325000524520874, 0.30030786991119385, 0.25912240147590637, 0.3415847718715668, 0.2771252691745758]</t>
+          <t>[0.5074158906936646, 0.5310543179512024, 0.3996872305870056, 0.27213355898857117, 0.2818927466869354, 0.4666118919849396, 0.29934537410736084, 0.4472714960575104, 0.31364691257476807, 0.3993205428123474, 0.2853466868400574, 0.19670118391513824, 0.24730998277664185, 0.2846430838108063, 0.3224981427192688, 0.36244866251945496, 0.40044382214546204, 0.2600080072879791, 0.24859343469142914, 0.26144781708717346, 0.4621278643608093, 0.43108314275741577, 0.31695255637168884, 0.5616576075553894, 0.455608606338501, 0.6004655957221985, 0.39477285742759705, 0.4866250455379486, 0.666394054889679, 0.7918006181716919, 0.7644359469413757, 0.644585371017456, 0.331028550863266, 0.4230272173881531, 0.5475427508354187, 0.5539604425430298, 0.41374659538269043, 0.25321024656295776, 0.45289698243141174, 0.3564593195915222, 0.1842806190252304, 0.5559446215629578, 0.214167982339859, 0.1766587644815445, 0.14826388657093048, 0.22122503817081451, 0.1932913362979889, 0.1869506984949112, 0.30589425563812256, 0.155791774392128, 0.261780321598053, 0.2262444794178009, 0.22232486307621002, 0.2552535831928253, 0.3501778542995453, 0.21445512771606445, 0.22762560844421387, 0.14414647221565247, 0.2136063277721405, 0.15152594447135925, 0.18901434540748596, 0.26256063580513, 0.13857288658618927, 0.14385294914245605, 0.17137011885643005, 0.2244386076927185, 0.2407037764787674, 0.4301425814628601, 0.2664637863636017, 0.23238734900951385, 0.5621258020401001, 0.3540688157081604, 0.2826792895793915, 0.20066072046756744, 0.08172274380922318, 0.07457435131072998, 0.15789636969566345, 0.2935052812099457, 0.16404980421066284, 0.15730011463165283, 0.26494377851486206, 0.2824819087982178, 0.4712080955505371, 0.35039061307907104, 0.1764891892671585, 0.4699903130531311, 0.19903245568275452, 0.2969776391983032, 0.40460559725761414, 0.23389077186584473, 0.3087664246559143, 0.311290979385376, 0.24416807293891907, 0.3704719543457031, 0.18635989725589752, 0.18668076395988464, 0.21215248107910156, 0.21545106172561646, 0.19756348431110382, 0.27859777212142944, 0.3238116502761841, 0.3643234372138977, 0.4409937560558319, 0.5821835994720459, 0.40182361006736755, 0.2811843156814575, 0.44503432512283325, 0.5464956164360046, 0.6650265455245972, 0.5268833637237549, 0.38392406702041626, 0.3946842849254608, 0.6033096313476562, 0.5865043997764587, 0.7623118758201599, 0.6912949085235596, 0.5191985368728638, 0.398739755153656, 0.5336741805076599, 0.3963559865951538, 0.8763473629951477, 0.4036024808883667, 0.4742097854614258, 0.4565335810184479, 0.3802809417247772, 0.2685852348804474, 0.243478924036026, 0.241167813539505, 0.2849496901035309, 0.36553603410720825, 0.40827834606170654, 0.3313901722431183, 0.29055216908454895, 0.2582092881202698, 0.35406485199928284, 0.3651672601699829, 0.2856440544128418, 0.3677883744239807, 0.2581736147403717, 0.2197635918855667, 0.23005728423595428, 0.21680767834186554, 0.19806520640850067, 0.2329769730567932, 0.27105072140693665, 0.2902992069721222, 0.2978909909725189, 0.29888105392456055, 0.2121209055185318, 0.203455850481987, 0.3294089436531067, 0.2522348165512085]</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.7148521542549133</v>
+        <v>0.8763473629951477</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0.8537159000115935</v>
+        <v>0.9031278999900678</v>
       </c>
       <c r="J70" t="n">
-        <v>0.005616551973760484</v>
+        <v>0.005941630920987288</v>
       </c>
     </row>
     <row r="71">
@@ -3365,11 +3365,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[0.6174290776252747, 0.5797618627548218, 0.6565864086151123, 0.7663686275482178, 0.8303621411323547, 0.49000662565231323, 0.3929746150970459, 0.44347435235977173, 0.31615713238716125, 0.33332163095474243, 0.3963552713394165, 0.41534286737442017, 0.4533301293849945, 0.34921249747276306, 0.45672523975372314, 0.5092496275901794, 0.5072354078292847, 0.49394690990448, 0.5278345346450806, 0.4459579288959503, 0.6669933795928955, 0.6178510189056396, 0.5812919735908508, 0.5067879557609558, 0.4796478748321533, 0.5207177996635437, 0.6068351864814758, 0.5163450241088867, 0.43477892875671387, 0.5076392889022827, 0.3933544456958771, 0.6124342083930969, 0.4899410903453827, 0.5133749842643738, 0.5491750836372375, 0.5856180191040039, 0.5324658751487732, 0.33865946531295776, 0.27524688839912415, 0.3978063464164734, 0.3957308530807495, 0.5255022644996643, 0.5324235558509827, 0.5893489718437195, 0.43471646308898926, 0.4097183346748352, 0.42952394485473633, 0.3798784613609314, 0.23150627315044403, 0.6198252439498901, 0.4515376091003418, 0.5750383734703064, 0.5026451349258423, 0.4608466923236847, 0.23801839351654053, 0.280023455619812, 0.24367870390415192, 0.20148849487304688, 0.36384040117263794, 0.410927951335907, 0.49810951948165894, 0.46351200342178345, 0.2970127463340759, 0.2183682918548584, 0.3667190670967102, 0.37248358130455017, 0.4554620683193207, 0.37523153424263, 0.4059467017650604, 0.4075850546360016, 0.36060020327568054, 0.29121673107147217, 0.4072122275829315, 0.41041266918182373, 0.267729252576828, 0.4248793423175812, 0.22027181088924408, 0.19234436750411987, 0.14481841027736664, 0.09716551750898361, 0.13961920142173767, 0.13136111199855804, 0.1301649510860443, 0.19940496981143951, 0.15967564284801483, 0.11468946933746338, 0.07458251714706421, 0.06949105113744736, 0.03699316084384918, 0.0528925359249115, 0.031271252781152725, 0.06455902755260468, 0.0762249007821083, 0.08625238388776779, 0.10955387353897095, 0.05126319080591202, 0.050750840455293655, 0.05941332131624222, 0.12504693865776062, 0.07368456572294235, 0.08224014192819595, 0.06747633218765259, 0.06381847709417343, 0.05636311694979668, 0.08168379962444305, 0.08052654564380646, 0.07911338657140732, 0.04398106038570404, 0.03563139960169792, 0.04395386576652527, 0.0539155937731266, 0.11004192382097244, 0.06331799179315567, 0.02508314698934555, 0.08085360378026962, 0.12974922358989716, 0.135239839553833, 0.08895570039749146, 0.06632418185472488, 0.11124519258737564, 0.07452159374952316, 0.12241662293672562, 0.09333042055368423, 0.10454554855823517, 0.06984724849462509, 0.08431471884250641, 0.07622593641281128, 0.09046642482280731, 0.058653105050325394, 0.05839364230632782, 0.05158086121082306, 0.020023882389068604, 0.02495303563773632, 0.02603672631084919, 0.025849083438515663, 0.02475013956427574, 0.02394816093146801, 0.029320942237973213, 0.039897896349430084, 0.05087529495358467, 0.03911580145359039, 0.059832941740751266, 0.04845155403017998, 0.035918254405260086, 0.04396214336156845, 0.05060809105634689, 0.06022552773356438, 0.11339844018220901, 0.08737460523843765, 0.14624571800231934, 0.1035204827785492]</t>
+          <t>[0.7044649720191956, 0.695522129535675, 0.7173972129821777, 0.862247109413147, 0.8777702450752258, 0.5671074986457825, 0.43129539489746094, 0.3977808952331543, 0.25883522629737854, 0.2596554756164551, 0.3445001244544983, 0.403083860874176, 0.41573813557624817, 0.36887723207473755, 0.4218364357948303, 0.44511380791664124, 0.5619773864746094, 0.5025826096534729, 0.5916582942008972, 0.4649016857147217, 0.6881313920021057, 0.676552951335907, 0.5921247005462646, 0.5948650240898132, 0.6441778540611267, 0.7457585334777832, 0.7982176542282104, 0.6357012391090393, 0.5112202167510986, 0.608119547367096, 0.4327099919319153, 0.758120596408844, 0.5607715249061584, 0.596500813961029, 0.7270340919494629, 0.7858757376670837, 0.6913235187530518, 0.3669355809688568, 0.2558203637599945, 0.4308978319168091, 0.4024534225463867, 0.6001725196838379, 0.5743041634559631, 0.6226016283035278, 0.49647608399391174, 0.3496124744415283, 0.3933815658092499, 0.4285886585712433, 0.3702879846096039, 0.8200076818466187, 0.6392795443534851, 0.6677342653274536, 0.5384344458580017, 0.4247121214866638, 0.3083447217941284, 0.2739640772342682, 0.17644928395748138, 0.20059114694595337, 0.33461982011795044, 0.41100847721099854, 0.4894113838672638, 0.5190447568893433, 0.31844112277030945, 0.2712605595588684, 0.315624475479126, 0.4416743516921997, 0.5201432108879089, 0.44664329290390015, 0.3140014410018921, 0.42987826466560364, 0.33962875604629517, 0.3099082112312317, 0.4052877724170685, 0.3433796465396881, 0.16245262324810028, 0.3848964273929596, 0.16100405156612396, 0.13627058267593384, 0.09153394401073456, 0.046651724725961685, 0.07581822574138641, 0.1080036461353302, 0.09173183888196945, 0.13490603864192963, 0.11496292054653168, 0.048680417239665985, 0.08597933501005173, 0.11457102745771408, 0.017723867669701576, 0.042300574481487274, 0.02766651101410389, 0.04001719877123833, 0.06386321783065796, 0.07526323944330215, 0.10069357603788376, 0.042758915573358536, 0.04209582135081291, 0.06909152120351791, 0.13827665150165558, 0.11775413900613785, 0.12325786799192429, 0.09462253749370575, 0.05303335189819336, 0.04942258819937706, 0.0607890784740448, 0.06864611804485321, 0.07731344550848007, 0.04168485477566719, 0.02764134854078293, 0.028299110010266304, 0.039419837296009064, 0.11569306254386902, 0.06112299859523773, 0.022855978459119797, 0.09181779623031616, 0.13638180494308472, 0.13298484683036804, 0.10444752871990204, 0.08121384680271149, 0.12273447960615158, 0.07130949944257736, 0.13382858037948608, 0.11689280718564987, 0.15568752586841583, 0.08207542449235916, 0.08277219533920288, 0.06186020001769066, 0.06826457381248474, 0.0709591954946518, 0.07060335576534271, 0.05407756194472313, 0.014773952774703503, 0.020651552826166153, 0.022610042244195938, 0.025943633168935776, 0.023457396775484085, 0.015594243071973324, 0.019174136221408844, 0.02596406824886799, 0.04656294733285904, 0.02559663914144039, 0.06537267565727234, 0.05013247951865196, 0.026397427543997765, 0.036901023238897324, 0.05446302890777588, 0.047009099274873734, 0.10690713673830032, 0.07705389708280563, 0.18424734473228455, 0.09383822977542877]</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.8303621411323547</v>
+        <v>0.8777702450752258</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -3383,10 +3383,10 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0.8451232000079472</v>
+        <v>0.8555398000025889</v>
       </c>
       <c r="J71" t="n">
-        <v>0.005596842384158591</v>
+        <v>0.00566582649008337</v>
       </c>
     </row>
     <row r="72">
@@ -3405,11 +3405,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>[0.026148902252316475, 0.0319768451154232, 0.06910762190818787, 0.04298699274659157, 0.05003365874290466, 0.0641029104590416, 0.06793013960123062, 0.03927868232131004, 0.06894653290510178, 0.09078937023878098, 0.09280829131603241, 0.05277220159769058, 0.043677184730768204, 0.037936799228191376, 0.014323115348815918, 0.05027884617447853, 0.05164838582277298, 0.09003050625324249, 0.08025607466697693, 0.07864917069673538, 0.03782355785369873, 0.07653386890888214, 0.026250632479786873, 0.026207372546195984, 0.031242212280631065, 0.023783942684531212, 0.04606480151414871, 0.061828017234802246, 0.09612371027469635, 0.046463143080472946, 0.04460466653108597, 0.07476887106895447, 0.06803697347640991, 0.0666903629899025, 0.04824448749423027, 0.05231158435344696, 0.07319251447916031, 0.04018434137105942, 0.0668126791715622, 0.05302083119750023, 0.04646359011530876, 0.03593819960951805, 0.06405138224363327, 0.1077771931886673, 0.05147930607199669, 0.03731619939208031, 0.08036552369594574, 0.023940933868288994, 0.03341216966509819, 0.03074263036251068, 0.024729400873184204, 0.053249914199113846, 0.020097952336072922, 0.03706600144505501, 0.05982954055070877, 0.09540766477584839, 0.06496898829936981, 0.021710136905312538, 0.09190477430820465, 0.14133192598819733, 0.11310475319623947, 0.04330716282129288, 0.020213719457387924, 0.03234683722257614, 0.03061417117714882, 0.026374734938144684, 0.022499732673168182, 0.025469208136200905, 0.02925637736916542, 0.02254711650311947, 0.014966757036745548, 0.02598118968307972, 0.042005833238363266, 0.06154623255133629, 0.17038428783416748, 0.15616156160831451, 0.1422182023525238, 0.09374571591615677, 0.04137725755572319, 0.08445901423692703, 0.09620059281587601, 0.08925752341747284, 0.054857172071933746, 0.05522992089390755, 0.10660064965486526, 0.08999057114124298, 0.05991740524768829, 0.10870498418807983, 0.06380639225244522, 0.036773115396499634, 0.0367339663207531, 0.04474874958395958, 0.10380290448665619, 0.044454943388700485, 0.03757218271493912, 0.11859099566936493, 0.07086630165576935, 0.06199397146701813, 0.053396206349134445, 0.049899034202098846, 0.04624325409531593, 0.08375091105699539, 0.04521767050027847, 0.08005582541227341, 0.06077282875776291, 0.06772666424512863, 0.04999338090419769, 0.0749581828713417, 0.03527386114001274, 0.029867952689528465, 0.03667145222425461, 0.026432352140545845, 0.04029993712902069, 0.11959370970726013, 0.07283313572406769, 0.0652817115187645, 0.07527396082878113, 0.111046701669693, 0.032372742891311646, 0.05662074685096741, 0.06916159391403198, 0.05995136871933937, 0.12038780003786087, 0.08857451379299164, 0.08493203669786453, 0.05064012482762337, 0.07047252357006073, 0.04629518464207649, 0.057702746242284775, 0.050876032561063766, 0.02930442988872528, 0.030327050015330315, 0.03341399133205414, 0.030581146478652954, 0.021166430786252022, 0.01624135486781597, 0.03605973348021507, 0.024862172082066536, 0.04075123369693756, 0.032674308866262436, 0.025681573897600174, 0.01962200552225113, 0.03157786279916763, 0.0394182987511158, 0.05237547308206558, 0.02702058106660843, 0.03728587180376053, 0.03439284861087799, 0.04557310789823532, 0.021992523223161697, 0.02927982062101364]</t>
+          <t>[0.020228004083037376, 0.023427484557032585, 0.08396466076374054, 0.04055991396307945, 0.03412589058279991, 0.09483694285154343, 0.09070398658514023, 0.03811020404100418, 0.05731024965643883, 0.07604850083589554, 0.09466715902090073, 0.06054673343896866, 0.04091906547546387, 0.03146902099251747, 0.009274640120565891, 0.04764816164970398, 0.04459032416343689, 0.0924442932009697, 0.05750838294625282, 0.05993964895606041, 0.03305916115641594, 0.07407476007938385, 0.018315348774194717, 0.022440405562520027, 0.04378603771328926, 0.026491770520806313, 0.06508836150169373, 0.07700088620185852, 0.10727909207344055, 0.053377896547317505, 0.04517071694135666, 0.08776796609163284, 0.057937707751989365, 0.078703872859478, 0.04984080046415329, 0.038957275450229645, 0.08069831877946854, 0.03985397145152092, 0.07352578639984131, 0.03530481830239296, 0.06061139330267906, 0.03249985724687576, 0.05732274800539017, 0.10410323739051819, 0.04556214436888695, 0.04278439283370972, 0.09565377235412598, 0.02131624147295952, 0.025961359962821007, 0.0374177023768425, 0.020043756812810898, 0.04825390502810478, 0.01809905655682087, 0.0236362311989069, 0.042663268744945526, 0.057707447558641434, 0.04688680171966553, 0.013549257069826126, 0.11236253380775452, 0.1459473967552185, 0.09792371094226837, 0.04166122153401375, 0.012440868653357029, 0.018557632341980934, 0.020475782454013824, 0.023006757721304893, 0.016798367723822594, 0.020590748637914658, 0.016533834859728813, 0.01436587329953909, 0.014547224156558514, 0.022325316444039345, 0.054582517594099045, 0.06310656666755676, 0.2599751949310303, 0.17537257075309753, 0.1718839406967163, 0.07691743969917297, 0.026450300589203835, 0.08024917542934418, 0.05201712250709534, 0.09214642643928528, 0.03618374839425087, 0.031552206724882126, 0.07181868702173233, 0.07857703417539597, 0.04167918860912323, 0.09626785665750504, 0.035941481590270996, 0.026070503517985344, 0.02064070850610733, 0.03525250032544136, 0.13987788558006287, 0.04923282563686371, 0.048274945467710495, 0.12589502334594727, 0.07158159464597702, 0.09765781462192535, 0.05364113673567772, 0.03249437361955643, 0.03206653147935867, 0.0875961035490036, 0.02932577393949032, 0.08390717208385468, 0.05999152362346649, 0.0785442441701889, 0.04922160506248474, 0.06238469108939171, 0.02359681762754917, 0.02054782584309578, 0.04695739969611168, 0.02490578033030033, 0.032151225954294205, 0.13227327167987823, 0.041515499353408813, 0.045365773141384125, 0.051652587950229645, 0.08712653815746307, 0.021873606368899345, 0.038311220705509186, 0.04544278234243393, 0.07301867008209229, 0.15385600924491882, 0.09957589209079742, 0.08987844735383987, 0.04514024779200554, 0.08801466226577759, 0.05583605170249939, 0.06680593639612198, 0.06451057642698288, 0.022860869765281677, 0.026974575594067574, 0.02236231416463852, 0.015514817088842392, 0.011067535728216171, 0.009266840294003487, 0.029096603393554688, 0.024779189378023148, 0.019663184881210327, 0.023209167644381523, 0.023002412170171738, 0.015716958791017532, 0.015471620485186577, 0.02247738093137741, 0.04349594935774803, 0.01995113119482994, 0.026991674676537514, 0.029527973383665085, 0.02988625317811966, 0.010994319804012775, 0.0253664068877697]</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.1703842878341675</v>
+        <v>0.2599751949310303</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0.8481281000131276</v>
+        <v>0.8969136999949114</v>
       </c>
       <c r="J72" t="n">
-        <v>0.005616742384192898</v>
+        <v>0.00593982582778087</v>
       </c>
     </row>
     <row r="73">
@@ -3445,11 +3445,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[0.07528585940599442, 0.07500224560499191, 0.07249178737401962, 0.04502109810709953, 0.07399280369281769, 0.08634480088949203, 0.08471440523862839, 0.0644100159406662, 0.08757374435663223, 0.1290172040462494, 0.07933694869279861, 0.13855229318141937, 0.09266261011362076, 0.10467427968978882, 0.08848079293966293, 0.09629563987255096, 0.14842601120471954, 0.6793276071548462, 0.19265645742416382, 0.2098843902349472, 0.24064117670059204, 0.14808067679405212, 0.07919707894325256, 0.22082383930683136, 0.1595577746629715, 0.7815310955047607, 0.6201930046081543, 0.5970968008041382, 0.7312160134315491, 0.5854195356369019, 0.6799725890159607, 0.5823273062705994, 0.11654015630483627, 0.8788436055183411, 0.6600562930107117, 0.2975923418998718, 0.38638702034950256, 0.6026933789253235, 0.6371162533760071, 0.9756469130516052, 0.9845987558364868, 0.9902113080024719, 0.9663715958595276, 0.8852550983428955, 0.6758723855018616, 0.41917115449905396, 0.5010875463485718, 0.8074505925178528, 0.7397174835205078, 0.20776958763599396, 0.1571289449930191, 0.2128964066505432, 0.6897947192192078, 0.8664391040802002, 0.8623967170715332, 0.9516646862030029, 0.8454785346984863, 0.774641215801239, 0.7619258165359497, 0.8876796364784241, 0.984681248664856, 0.9606180787086487, 0.8810757994651794, 0.9060361385345459, 0.8875479698181152, 0.942549467086792, 0.93988037109375, 0.9475017189979553, 0.9694371223449707, 0.9682130813598633, 0.9703313708305359, 0.9467830657958984, 0.9228732585906982, 0.9053156971931458, 0.9545422792434692, 0.9148925542831421, 0.8244869709014893, 0.5923814177513123, 0.2738611400127411, 0.9354787468910217, 0.8908013105392456, 0.8157105445861816, 0.8927141427993774, 0.5128318071365356, 0.4234340190887451, 0.198470339179039, 0.29806408286094666, 0.7184677720069885, 0.9331607222557068, 0.9190389513969421, 0.9224565625190735, 0.7890545129776001, 0.9409599304199219, 0.5568626523017883, 0.6305800676345825, 0.3242393732070923, 0.246916264295578, 0.23814459145069122, 0.42136648297309875, 0.34104016423225403, 0.6636356115341187, 0.2940339744091034, 0.2940211296081543]</t>
+          <t>[0.07758977264165878, 0.057404275983572006, 0.05860224366188049, 0.019780416041612625, 0.08068498224020004, 0.08012638986110687, 0.06695803254842758, 0.0991608202457428, 0.08848360180854797, 0.14514905214309692, 0.08131737262010574, 0.1866704672574997, 0.0813707485795021, 0.09395201504230499, 0.0934508889913559, 0.10635895282030106, 0.15700259804725647, 0.8594751358032227, 0.24854867160320282, 0.24830450117588043, 0.19321250915527344, 0.12834952771663666, 0.056462716311216354, 0.3848712742328644, 0.18676820397377014, 0.897883415222168, 0.8371906876564026, 0.7506600618362427, 0.8951448202133179, 0.7385073304176331, 0.8613027334213257, 0.7067046761512756, 0.14289776980876923, 0.9487298727035522, 0.866674542427063, 0.4645530581474304, 0.3995346128940582, 0.8208501935005188, 0.8408064842224121, 0.9931380152702332, 0.9941956400871277, 0.9970683455467224, 0.9889203906059265, 0.9588284492492676, 0.791801929473877, 0.5192769169807434, 0.5948402881622314, 0.8658797740936279, 0.8693271279335022, 0.2648316025733948, 0.15601754188537598, 0.2240101546049118, 0.762071967124939, 0.953018307685852, 0.9367794394493103, 0.9810116291046143, 0.9317329525947571, 0.8829481601715088, 0.8190204501152039, 0.9206474423408508, 0.9939135909080505, 0.9744200706481934, 0.932400643825531, 0.941149115562439, 0.9239482879638672, 0.9571537971496582, 0.966924786567688, 0.9730095267295837, 0.9836769104003906, 0.9754860997200012, 0.9862629175186157, 0.969018816947937, 0.9674562215805054, 0.9324832558631897, 0.9746202230453491, 0.9400231838226318, 0.9198342561721802, 0.5501036643981934, 0.1973753720521927, 0.9685559868812561, 0.9349825978279114, 0.8945615887641907, 0.9439877867698669, 0.6941715478897095, 0.5384215712547302, 0.15547116100788116, 0.27634450793266296, 0.8335088491439819, 0.9525198340415955, 0.9665153622627258, 0.9718273878097534, 0.8920589089393616, 0.9787178039550781, 0.7059364914894104, 0.5814041495323181, 0.256394624710083, 0.27512046694755554, 0.25657960772514343, 0.6430991888046265, 0.42673107981681824, 0.8385925889015198, 0.4904906153678894, 0.4905839264392853]</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.9902113080024719</v>
+        <v>0.9970683455467224</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -3463,10 +3463,10 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0.582271999999648</v>
+        <v>0.6231713000015588</v>
       </c>
       <c r="J73" t="n">
-        <v>0.005653126213588816</v>
+        <v>0.00605020679613164</v>
       </c>
     </row>
     <row r="74">
@@ -3485,11 +3485,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[0.2538085877895355, 0.08010271191596985, 0.11104342341423035, 0.13022953271865845, 0.2699553370475769, 0.20862044394016266, 0.0984400063753128, 0.08618615567684174, 0.06435465812683105, 0.09820391237735748, 0.07993064075708389, 0.07418827712535858, 0.06847833842039108, 0.07547568529844284, 0.04877591133117676, 0.06751619279384613, 0.03926759958267212, 0.046881336718797684, 0.030316947028040886, 0.14024032652378082, 0.0891902819275856, 0.10152453184127808, 0.057131510227918625, 0.09082553535699844, 0.19493013620376587, 0.0895886942744255, 0.22995616495609283, 0.2407499998807907, 0.1823592633008957, 0.15825773775577545, 0.16913659870624542, 0.2677643597126007, 0.4076637923717499, 0.18833284080028534, 0.20636115968227386, 0.22484438121318817, 0.21389418840408325, 0.12616358697414398, 0.14849784970283508, 0.13923712074756622, 0.2032591998577118, 0.13085949420928955, 0.13952544331550598, 0.20268288254737854, 0.24223586916923523, 0.12404885143041611, 0.16784442961215973, 0.23592597246170044, 0.3292577564716339, 0.2268127202987671, 0.19894269108772278, 0.18246668577194214, 0.2817978858947754, 0.2229907363653183, 0.27017340064048767, 0.1418791115283966, 0.14273199439048767, 0.2947332262992859, 0.14766216278076172, 0.26193928718566895, 0.2966749668121338, 0.3345974087715149, 0.1907753199338913, 0.16212885081768036, 0.26929622888565063, 0.3147588074207306, 0.34566307067871094, 0.1273922175168991, 0.20570488274097443, 0.11049456149339676, 0.17685900628566742, 0.17977571487426758, 0.30147966742515564, 0.19559118151664734, 0.11239366978406906, 0.22231042385101318, 0.13464848697185516, 0.18780890107154846, 0.2811962068080902, 0.30328503251075745, 0.264494925737381, 0.12477803975343704, 0.20818085968494415, 0.2911261022090912, 0.10026506334543228, 0.1268971860408783, 0.11283273994922638, 0.32779166102409363, 0.23526091873645782, 0.2186322957277298, 0.27130672335624695, 0.23829904198646545, 0.3633720278739929, 0.25640371441841125, 0.48695701360702515, 0.24740520119667053, 0.27996158599853516, 0.4505220651626587, 0.3986547887325287, 0.3404136002063751, 0.5438705086708069, 0.5436195135116577]</t>
+          <t>[0.3553035259246826, 0.06180218234658241, 0.08998768776655197, 0.09187748283147812, 0.24886851012706757, 0.211503267288208, 0.0744825229048729, 0.07188401371240616, 0.03927874565124512, 0.06868588924407959, 0.05836280807852745, 0.04856763035058975, 0.04857957363128662, 0.06523656100034714, 0.05109360069036484, 0.06580609083175659, 0.029538579285144806, 0.06708072125911713, 0.022065751254558563, 0.1273387372493744, 0.0962173268198967, 0.07514699548482895, 0.040754277259111404, 0.10526399314403534, 0.22105476260185242, 0.12680454552173615, 0.30245351791381836, 0.2993333339691162, 0.28920242190361023, 0.28921306133270264, 0.30538129806518555, 0.3952696621417999, 0.6589572429656982, 0.39327165484428406, 0.3278052806854248, 0.41990959644317627, 0.30350902676582336, 0.17915859818458557, 0.22385026514530182, 0.203661248087883, 0.3203875422477722, 0.17383667826652527, 0.1822725087404251, 0.24827174842357635, 0.388226717710495, 0.1955162137746811, 0.29737406969070435, 0.36145254969596863, 0.542647659778595, 0.3595010042190552, 0.25359493494033813, 0.3322867453098297, 0.38043397665023804, 0.29573020339012146, 0.405772864818573, 0.2060801237821579, 0.18135714530944824, 0.4656335711479187, 0.2663985788822174, 0.3279014527797699, 0.4949003756046295, 0.5796664357185364, 0.3612101972103119, 0.24756523966789246, 0.36415618658065796, 0.49531319737434387, 0.5379206538200378, 0.1839219331741333, 0.26221296191215515, 0.14701645076274872, 0.24910132586956024, 0.2511965036392212, 0.45048263669013977, 0.2953585684299469, 0.147312194108963, 0.24384182691574097, 0.14988891780376434, 0.23690687119960785, 0.36629849672317505, 0.44500043988227844, 0.31559768319129944, 0.1520969420671463, 0.25324133038520813, 0.3749167025089264, 0.11104455590248108, 0.10346338897943497, 0.13458777964115143, 0.41188299655914307, 0.29530370235443115, 0.2644180953502655, 0.2757057547569275, 0.25403887033462524, 0.4326569437980652, 0.23179179430007935, 0.5619017481803894, 0.3675132393836975, 0.41515734791755676, 0.6612614393234253, 0.5111352801322937, 0.4633725583553314, 0.6111057996749878, 0.6104663014411926]</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.5438705086708069</v>
+        <v>0.6612614393234253</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -3503,10 +3503,10 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0.5818848000199068</v>
+        <v>0.5835292999981903</v>
       </c>
       <c r="J74" t="n">
-        <v>0.005704752941371636</v>
+        <v>0.005720875490178336</v>
       </c>
     </row>
     <row r="75">
@@ -3525,11 +3525,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[0.9905970692634583, 0.9905808568000793, 0.9911672472953796, 0.983025074005127, 0.9899922013282776, 0.9892075657844543, 0.9935528039932251, 0.9858060479164124, 0.95360267162323, 0.9626293182373047, 0.7055673003196716, 0.9261751174926758, 0.9266096353530884, 0.9446765780448914, 0.9327629804611206, 0.96439129114151, 0.923926830291748, 0.9345536828041077, 0.9013288617134094, 0.8885579109191895, 0.9793297052383423, 0.9825844168663025, 0.9898943305015564, 0.977527379989624, 0.9849188327789307, 0.9837333559989929, 0.9836054444313049, 0.8188735842704773, 0.5100795030593872, 0.7960070371627808, 0.9586085677146912, 0.9652607440948486, 0.9796287417411804, 0.9510754346847534, 0.9741834402084351, 0.8468115329742432, 0.907363772392273, 0.8055455088615417, 0.936320424079895, 0.9182671308517456, 0.7028656601905823, 0.9055306911468506, 0.9614161849021912, 0.9220467805862427, 0.847641110420227, 0.8898584246635437, 0.2617225646972656, 0.8961508274078369, 0.9539527297019958, 0.8381520509719849, 0.7138127684593201, 0.3227258324623108, 0.40827515721321106, 0.6876685619354248, 0.7201159596443176, 0.2845166027545929, 0.891746997833252, 0.7538508772850037, 0.7663623690605164, 0.5263542532920837, 0.930492103099823, 0.25377029180526733, 0.3283730745315552, 0.3407668471336365, 0.7969198822975159, 0.7947912812232971, 0.7352334856987, 0.5110528469085693, 0.9649943709373474, 0.8795186877250671, 0.973251461982727, 0.9138778448104858, 0.9305411577224731, 0.9808611273765564, 0.9179978966712952, 0.9473965167999268, 0.9556128978729248, 0.8538160920143127, 0.5089361071586609, 0.29960519075393677, 0.35872671008110046, 0.18730449676513672, 0.10354439914226532, 0.1827360838651657, 0.10078144818544388, 0.4699234664440155, 0.5930823087692261, 0.527750551700592, 0.37431520223617554, 0.43127599358558655, 0.40477997064590454, 0.2936236560344696, 0.4056762754917145, 0.8367787003517151, 0.726600170135498, 0.5699888467788696, 0.7430980801582336, 0.1445281058549881, 0.3520701229572296, 0.2319328486919403, 0.8770806193351746, 0.8777143955230713]</t>
+          <t>[0.9972527623176575, 0.9975894689559937, 0.9978565573692322, 0.996404767036438, 0.9974930286407471, 0.9972739815711975, 0.9980270266532898, 0.9956951141357422, 0.978500247001648, 0.9872041344642639, 0.8038623332977295, 0.9567100405693054, 0.965315043926239, 0.9723745584487915, 0.9723390340805054, 0.9848552346229553, 0.9636405110359192, 0.9640973210334778, 0.963371217250824, 0.9613690376281738, 0.9935395121574402, 0.99394690990448, 0.9970210194587708, 0.9941527247428894, 0.9954776167869568, 0.9926210641860962, 0.9946935772895813, 0.9199606776237488, 0.6958456039428711, 0.8692095279693604, 0.9837977290153503, 0.9905381202697754, 0.9946144223213196, 0.9830886721611023, 0.9911235570907593, 0.9476407766342163, 0.9678857922554016, 0.8654294013977051, 0.9789642095565796, 0.9657139778137207, 0.7495273351669312, 0.967166543006897, 0.9849877953529358, 0.9615813493728638, 0.9364930987358093, 0.9485123157501221, 0.4352092742919922, 0.9734994769096375, 0.9878271222114563, 0.9268828630447388, 0.8871511220932007, 0.3760175108909607, 0.43492549657821655, 0.7897801399230957, 0.8892315626144409, 0.5746484398841858, 0.9649041295051575, 0.8557663559913635, 0.8942588567733765, 0.779662013053894, 0.9841837882995605, 0.3082807958126068, 0.5693650841712952, 0.5005179047584534, 0.9152328372001648, 0.89410001039505, 0.8429619073867798, 0.7905879020690918, 0.9888767600059509, 0.9491390585899353, 0.9895492792129517, 0.9662494659423828, 0.9709501266479492, 0.9952319264411926, 0.9729731678962708, 0.9846620559692383, 0.991517961025238, 0.9309491515159607, 0.6702876091003418, 0.3525933027267456, 0.4409799873828888, 0.187795490026474, 0.08566790074110031, 0.13314835727214813, 0.08184559643268585, 0.6259350776672363, 0.77105712890625, 0.5775025486946106, 0.4910130202770233, 0.631188154220581, 0.44687163829803467, 0.4107643961906433, 0.44661417603492737, 0.934278666973114, 0.7897812724113464, 0.7519698739051819, 0.8806228637695312, 0.1741047203540802, 0.37394118309020996, 0.22551244497299194, 0.9489534497261047, 0.948946475982666]</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.9935528039932251</v>
+        <v>0.9980270266532898</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
@@ -3543,10 +3543,10 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0.73506260002614</v>
+        <v>0.6890493999962928</v>
       </c>
       <c r="J75" t="n">
-        <v>0.007206496078687647</v>
+        <v>0.006755386274473458</v>
       </c>
     </row>
     <row r="76">
@@ -3565,11 +3565,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>[0.20228977501392365, 0.16084899008274078, 0.20472197234630585, 0.07372681051492691, 0.1149510070681572, 0.12347538769245148, 0.18104028701782227, 0.1697925180196762, 0.2110133320093155, 0.28995832800865173, 0.13980844616889954, 0.27618929743766785, 0.15401913225650787, 0.11260079592466354, 0.10628360509872437, 0.15598933398723602, 0.2553878426551819, 0.20158837735652924, 0.1328982412815094, 0.13123105466365814, 0.17355749011039734, 0.4793737232685089, 0.11269393563270569, 0.25817736983299255, 0.1574525535106659, 0.2213905155658722, 0.21626757085323334, 0.32145029306411743, 0.17933586239814758, 0.33519041538238525, 0.2988824248313904, 0.302709698677063, 0.6837893128395081, 0.6425240635871887, 0.6734216809272766, 0.5720200538635254, 0.4515905976295471, 0.5251986384391785, 0.42114967107772827, 0.3216208517551422, 0.14537127315998077, 0.11755874007940292, 0.1663372963666916, 0.17935630679130554, 0.2995377779006958, 0.12665444612503052, 0.20954030752182007, 0.22365449368953705, 0.2940463721752167, 0.5159656405448914, 0.25470373034477234, 0.4443835914134979, 0.6581002473831177, 0.2363090068101883, 0.16240151226520538, 0.3033991754055023, 0.22924652695655823, 0.09475188702344894, 0.21344655752182007, 0.161991149187088, 0.2771776616573334, 0.2527080774307251, 0.17901061475276947, 0.20269624888896942, 0.2592073380947113, 0.23580554127693176, 0.05950449779629707, 0.17951250076293945, 0.13381348550319672, 0.14815287292003632, 0.14913354814052582, 0.09854310005903244, 0.18480052053928375, 0.22283342480659485, 0.11218825727701187, 0.10985179245471954, 0.09685471653938293, 0.1461740881204605, 0.15279115736484528, 0.10280872136354446, 0.13062797486782074, 0.18550382554531097, 0.2760949432849884, 0.11362172663211823, 0.26951441168785095, 0.2740405797958374, 0.3198830783367157, 0.1799459457397461, 0.25497347116470337, 0.2242662012577057, 0.36674654483795166, 0.2170567512512207, 0.1614450365304947, 0.23023925721645355, 0.3210890293121338, 0.2096516340970993, 0.2296680361032486, 0.183118537068367, 0.16785138845443726, 0.1466679871082306, 0.25888368487358093, 0.2588772773742676]</t>
+          <t>[0.20311659574508667, 0.17808757722377777, 0.22410619258880615, 0.05123443901538849, 0.12098662555217743, 0.10564008355140686, 0.20050139725208282, 0.2116522192955017, 0.2903473675251007, 0.4121384918689728, 0.2166638970375061, 0.337041974067688, 0.16871723532676697, 0.11400903761386871, 0.09041765332221985, 0.14199498295783997, 0.2784941792488098, 0.237253338098526, 0.12340939044952393, 0.11598680168390274, 0.16857154667377472, 0.7738727927207947, 0.1128782257437706, 0.3468892276287079, 0.2050546258687973, 0.27106133103370667, 0.37956568598747253, 0.6042699813842773, 0.2552102208137512, 0.4713797867298126, 0.3826756179332733, 0.3733364939689636, 0.6997838020324707, 0.6510226726531982, 0.73052978515625, 0.5794780254364014, 0.5542147159576416, 0.5806258916854858, 0.5419924259185791, 0.42132917046546936, 0.19565916061401367, 0.13417492806911469, 0.2564906179904938, 0.23321649432182312, 0.3578120172023773, 0.0820222869515419, 0.18551847338676453, 0.19387495517730713, 0.2693576514720917, 0.6172814965248108, 0.3154394328594208, 0.7169159650802612, 0.8644860982894897, 0.27754151821136475, 0.18803837895393372, 0.34897488355636597, 0.1824570894241333, 0.08215141296386719, 0.22095538675785065, 0.16667701303958893, 0.3797890841960907, 0.3604173958301544, 0.22344467043876648, 0.21274320781230927, 0.46978020668029785, 0.4099612832069397, 0.05696817860007286, 0.24164892733097076, 0.17008380591869354, 0.17599236965179443, 0.14877288043498993, 0.06268593668937683, 0.12461875379085541, 0.1478569507598877, 0.0788826122879982, 0.08929494023323059, 0.09849511831998825, 0.14413131773471832, 0.19797345995903015, 0.11952933669090271, 0.24921993911266327, 0.36345693469047546, 0.5863391757011414, 0.24308207631111145, 0.5532419681549072, 0.5798830389976501, 0.6713793277740479, 0.37184202671051025, 0.4383643865585327, 0.4178556203842163, 0.6675674915313721, 0.529564619064331, 0.35910311341285706, 0.42557138204574585, 0.504836916923523, 0.39165830612182617, 0.5242950320243835, 0.4409908354282379, 0.3543526828289032, 0.24650786817073822, 0.5827983021736145, 0.5828630328178406]</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.6837893128395081</v>
+        <v>0.8644860982894897</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
@@ -3583,10 +3583,10 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0.5784796999942046</v>
+        <v>0.6043953000043985</v>
       </c>
       <c r="J76" t="n">
-        <v>0.005671369607786319</v>
+        <v>0.005925444117690181</v>
       </c>
     </row>
     <row r="77">
@@ -3605,11 +3605,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>[0.9838309288024902, 0.9907194972038269, 0.9906814694404602, 0.99310702085495, 0.9893301129341125, 0.9903538227081299, 0.9854485392570496, 0.9784479737281799, 0.9867911338806152, 0.9838072657585144, 0.9849634766578674, 0.9854992628097534, 0.9852327108383179, 0.9871202111244202, 0.9835372567176819, 0.9786633253097534, 0.9777542948722839, 0.9901396632194519, 0.988373339176178, 0.9811106324195862, 0.9834797382354736, 0.9900140762329102, 0.9872506856918335, 0.9737790822982788, 0.9678829908370972, 0.9762851595878601, 0.9528027772903442, 0.8731619119644165, 0.7068444490432739, 0.32380354404449463, 0.15510055422782898, 0.48894211649894714, 0.7032234072685242, 0.7489367127418518, 0.24460940062999725, 0.17442432045936584, 0.15977711975574493, 0.17501740157604218, 0.18849726021289825, 0.2446114718914032, 0.3499871790409088, 0.47900569438934326, 0.8531431555747986, 0.6685999631881714, 0.892501950263977, 0.8022282719612122, 0.9772005677223206, 0.9533359408378601, 0.9190196394920349, 0.5791043639183044, 0.9532144069671631, 0.23521453142166138, 0.8346163034439087, 0.9452943205833435, 0.9629900455474854, 0.9567181468009949, 0.9131565093994141, 0.9593159556388855, 0.9845685958862305, 0.9892640709877014, 0.9747514724731445, 0.9838120341300964, 0.983241081237793, 0.9880285263061523, 0.9892271757125854, 0.9858642816543579, 0.976800799369812, 0.9755681157112122, 0.9776471853256226, 0.9749420285224915, 0.978596568107605, 0.989656925201416, 0.9860324263572693, 0.9872870445251465, 0.9846466779708862, 0.9879767298698425, 0.9856395721435547, 0.9743423461914062, 0.9842602610588074, 0.9802142381668091, 0.9815658330917358, 0.979113757610321, 0.9763423204421997, 0.9841532111167908, 0.9382944703102112, 0.9757349491119385, 0.9661635756492615, 0.9730133414268494, 0.9342256188392639, 0.8783923983573914, 0.9262514114379883, 0.9404526352882385, 0.7345946431159973, 0.9204199314117432, 0.9117165207862854, 0.9367135763168335, 0.9701170325279236, 0.9752591848373413, 0.9107670187950134, 0.3315359652042389, 0.13690344989299774, 0.13865333795547485, 0.1387556940317154]</t>
+          <t>[0.9942476749420166, 0.9968198537826538, 0.9957051873207092, 0.997262716293335, 0.9956218600273132, 0.996589183807373, 0.9958974123001099, 0.9926875829696655, 0.9953574538230896, 0.9941582679748535, 0.9951269626617432, 0.9953442215919495, 0.9956910014152527, 0.9955145716667175, 0.9937479496002197, 0.9919381737709045, 0.9903330206871033, 0.9959359169006348, 0.9944193959236145, 0.9911502599716187, 0.9930298924446106, 0.9954921007156372, 0.9955219030380249, 0.9909580945968628, 0.9872663617134094, 0.9924749732017517, 0.9808292388916016, 0.9685702919960022, 0.9009760022163391, 0.44354739785194397, 0.13999232649803162, 0.7259368300437927, 0.9372972846031189, 0.9439157843589783, 0.3836115002632141, 0.22714322805404663, 0.24147938191890717, 0.2053254097700119, 0.3011156916618347, 0.27859750390052795, 0.4922306537628174, 0.7234653830528259, 0.9575918316841125, 0.8904247879981995, 0.9838391542434692, 0.9627640843391418, 0.9951346516609192, 0.9908949136734009, 0.976639449596405, 0.8472573757171631, 0.9837782382965088, 0.31710290908813477, 0.9506986141204834, 0.9844691157341003, 0.9869872331619263, 0.9809509515762329, 0.968672513961792, 0.9881977438926697, 0.995388388633728, 0.9964836835861206, 0.9930667877197266, 0.9954847097396851, 0.9956901669502258, 0.9961011409759521, 0.9959774613380432, 0.9952785968780518, 0.9918475151062012, 0.9928009510040283, 0.9930591583251953, 0.9908764958381653, 0.9911112189292908, 0.9964025020599365, 0.9950838685035706, 0.9946621060371399, 0.9943211078643799, 0.9958010315895081, 0.9952462315559387, 0.9916684627532959, 0.9954578876495361, 0.995629072189331, 0.994796097278595, 0.9942008256912231, 0.9931777715682983, 0.9934507608413696, 0.9690902233123779, 0.9901036024093628, 0.9881120920181274, 0.9887785315513611, 0.9674617052078247, 0.9521369338035583, 0.9750669002532959, 0.9777132868766785, 0.8978081941604614, 0.9756009578704834, 0.97152179479599, 0.9829588532447815, 0.9890152812004089, 0.9939946532249451, 0.9798754453659058, 0.4864886999130249, 0.14948724210262299, 0.18659941852092743, 0.18674629926681519]</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.99310702085495</v>
+        <v>0.997262716293335</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0.5896210999926552</v>
+        <v>0.6139851000043564</v>
       </c>
       <c r="J77" t="n">
-        <v>0.005724476698957818</v>
+        <v>0.005961020388391809</v>
       </c>
     </row>
     <row r="78">
@@ -3645,11 +3645,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[0.3470389246940613, 0.2018231302499771, 0.1974082738161087, 0.1855192482471466, 0.23979602754116058, 0.3735367953777313, 0.6552429795265198, 0.5531647205352783, 0.34352004528045654, 0.5118974447250366, 0.44039517641067505, 0.46242761611938477, 0.3792634904384613, 0.4740298390388489, 0.419180303812027, 0.30433714389801025, 0.2719949185848236, 0.39144590497016907, 0.4784576892852783, 0.28400084376335144, 0.35380420088768005, 0.19656874239444733, 0.3929663598537445, 0.20404283702373505, 0.2838297486305237, 0.2591361999511719, 0.19135227799415588, 0.24899105727672577, 0.23367273807525635, 0.23133903741836548, 0.18719986081123352, 0.2687302231788635, 0.2062498778104782, 0.20306552946567535, 0.14483478665351868, 0.13971979916095734, 0.10376595705747604, 0.15372881293296814, 0.1353754848241806, 0.13147340714931488, 0.20824261009693146, 0.14830054342746735, 0.24025027453899384, 0.1703142523765564, 0.26375436782836914, 0.21972626447677612, 0.20410820841789246, 0.13446523249149323, 0.14102602005004883, 0.16091202199459076, 0.20767837762832642, 0.21401503682136536, 0.2086188793182373, 0.26691848039627075, 0.1187639981508255, 0.13685274124145508, 0.14593751728534698, 0.10654053092002869, 0.11579523235559464, 0.16721577942371368, 0.10289569944143295, 0.0756249949336052, 0.08991805464029312, 0.1449420005083084, 0.2711721658706665, 0.12420711666345596, 0.23577582836151123, 0.232248455286026, 0.4314970076084137, 0.31616127490997314, 0.26528462767601013, 0.23979432880878448, 0.20312495529651642, 0.29389074444770813, 0.2490445226430893, 0.3037721812725067, 0.17924845218658447, 0.16392919421195984, 0.14335191249847412, 0.12178391218185425, 0.15986737608909607, 0.11649484932422638, 0.09982379525899887, 0.07564301788806915, 0.08220908790826797, 0.04532451927661896, 0.06819748133420944, 0.06301809102296829, 0.0797785297036171, 0.08734380453824997, 0.07212282717227936, 0.06445562094449997, 0.06209205090999603, 0.05449545010924339, 0.06375673413276672, 0.04500729963183403, 0.04074541851878166, 0.08415408432483673, 0.11660423874855042, 0.09713660925626755, 0.1384471356868744, 0.04801114648580551, 0.04800932854413986]</t>
+          <t>[0.28085798025131226, 0.1806231439113617, 0.15507282316684723, 0.15419042110443115, 0.2170647829771042, 0.4529862701892853, 0.7222692966461182, 0.45669472217559814, 0.2855469584465027, 0.504737138748169, 0.4938572943210602, 0.5460548400878906, 0.3291093707084656, 0.4884907603263855, 0.4777047336101532, 0.3916703462600708, 0.36518481373786926, 0.5103521347045898, 0.6257638335227966, 0.34741678833961487, 0.38270941376686096, 0.2427050620317459, 0.4820530414581299, 0.3017323911190033, 0.4345543086528778, 0.26902157068252563, 0.19324804842472076, 0.2308836728334427, 0.2781117260456085, 0.26559925079345703, 0.19468744099140167, 0.3057331144809723, 0.2034294307231903, 0.20358985662460327, 0.14676854014396667, 0.17244952917099, 0.09038420766592026, 0.1157192662358284, 0.10774096846580505, 0.09811388701200485, 0.17788851261138916, 0.0844389945268631, 0.12820269167423248, 0.10005883127450943, 0.22035831212997437, 0.16873963177204132, 0.20897458493709564, 0.12878455221652985, 0.14735147356987, 0.19037653505802155, 0.20653557777404785, 0.19676949083805084, 0.22721867263317108, 0.2678583562374115, 0.11598674207925797, 0.13294631242752075, 0.16287939250469208, 0.1094958633184433, 0.13229970633983612, 0.18543361127376556, 0.07963293045759201, 0.06767746061086655, 0.07210393995046616, 0.13552410900592804, 0.34457817673683167, 0.13374629616737366, 0.2508663833141327, 0.27403131127357483, 0.5382272601127625, 0.3596016466617584, 0.34112459421157837, 0.2761348485946655, 0.17318445444107056, 0.3375709056854248, 0.36549699306488037, 0.4309927523136139, 0.2010260373353958, 0.182105153799057, 0.14117340743541718, 0.1232982873916626, 0.16596464812755585, 0.13426904380321503, 0.09751243889331818, 0.08802109211683273, 0.11163436621427536, 0.04037515074014664, 0.05667686089873314, 0.05748847499489784, 0.10029169172048569, 0.09741605818271637, 0.08062448352575302, 0.07515593618154526, 0.07319372147321701, 0.05267089605331421, 0.080985426902771, 0.03700455278158188, 0.028364771977066994, 0.09397096931934357, 0.18231599032878876, 0.11477156728506088, 0.18251578509807587, 0.04635324329137802, 0.04633966088294983]</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.6552429795265198</v>
+        <v>0.7222692966461182</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
@@ -3663,10 +3663,10 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0.5921046000148635</v>
+        <v>0.6020626999961678</v>
       </c>
       <c r="J78" t="n">
-        <v>0.005748588349658869</v>
+        <v>0.005845268932001629</v>
       </c>
     </row>
     <row r="79">
@@ -3685,11 +3685,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>[0.5719114542007446, 0.5480626821517944, 0.5090484619140625, 0.31060850620269775, 0.22070816159248352, 0.41504210233688354, 0.5176183581352234, 0.25243276357650757, 0.3524654805660248, 0.19659942388534546, 0.5566322207450867, 0.591065526008606, 0.29466512799263, 0.24356147646903992, 0.27956894040107727, 0.4654258191585541, 0.44525930285453796, 0.46406006813049316, 0.49658238887786865, 0.3359418511390686, 0.6203224658966064, 0.7841091156005859, 0.6644037961959839, 0.9338164925575256, 0.4700471758842468, 0.5041379928588867, 0.3407707214355469, 0.6103953123092651, 0.4206348657608032, 0.258708119392395, 0.4221026599407196, 0.4041613042354584, 0.29295235872268677, 0.6944059133529663, 0.46979185938835144, 0.5213903188705444, 0.6355790495872498, 0.6836755275726318, 0.9001354575157166, 0.5656991004943848, 0.6777248382568359, 0.4199502468109131, 0.17536664009094238, 0.24920302629470825, 0.47397324442863464, 0.48576584458351135, 0.2676646411418915, 0.2192448228597641, 0.24081633985042572, 0.3867562711238861, 0.32248497009277344, 0.21109458804130554, 0.3106358051300049, 0.15121932327747345, 0.13295292854309082, 0.387940913438797, 0.24206434190273285, 0.40159517526626587, 0.23015032708644867, 0.08596540987491608, 0.2434374839067459, 0.2633223235607147, 0.529414176940918, 0.4422011077404022, 0.3133852779865265, 0.332196980714798, 0.1812203824520111, 0.2622024714946747, 0.28689563274383545, 0.27179673314094543, 0.18086060881614685, 0.2314799427986145, 0.3635033965110779, 0.2025580108165741, 0.18203780055046082, 0.27440014481544495, 0.14548982679843903, 0.2629263699054718, 0.27270516753196716, 0.5163772106170654, 0.3154846131801605, 0.2795869708061218, 0.30339181423187256, 0.31626027822494507, 0.2894892394542694, 0.18644918501377106, 0.28571757674217224, 0.2425980120897293, 0.17868882417678833, 0.15417993068695068, 0.28551730513572693, 0.2244914323091507, 0.1805996596813202, 0.2954627573490143, 0.2996131479740143, 0.4134427607059479, 0.23481400310993195, 0.15879738330841064, 0.34102863073349, 0.18923209607601166, 0.4226907193660736, 0.40542173385620117]</t>
+          <t>[0.7246004343032837, 0.7226331830024719, 0.7047005891799927, 0.4168916344642639, 0.2898211181163788, 0.5928945541381836, 0.6923040747642517, 0.3785545229911804, 0.5207700133323669, 0.23397019505500793, 0.6689245700836182, 0.734754741191864, 0.45730286836624146, 0.3713918626308441, 0.4121229946613312, 0.6603531837463379, 0.6005337834358215, 0.5315960049629211, 0.6164563298225403, 0.3440001904964447, 0.7632501721382141, 0.9201887249946594, 0.7856876850128174, 0.9841394424438477, 0.7046608328819275, 0.7129058241844177, 0.46164730191230774, 0.7922247648239136, 0.582754909992218, 0.4505807161331177, 0.5659266710281372, 0.6261360049247742, 0.38392385840415955, 0.8514973521232605, 0.6198729276657104, 0.6464841961860657, 0.804267942905426, 0.8132349252700806, 0.9613451957702637, 0.6833562850952148, 0.7514318823814392, 0.5826047658920288, 0.18350617587566376, 0.2396504431962967, 0.7177326679229736, 0.7116317749023438, 0.5105860829353333, 0.22740809619426727, 0.4342134892940521, 0.5385767221450806, 0.3506929874420166, 0.25474488735198975, 0.4569808542728424, 0.18196271359920502, 0.13667069375514984, 0.6598480343818665, 0.4329957067966461, 0.5712233781814575, 0.3400774598121643, 0.10910633206367493, 0.4127247929573059, 0.4340587854385376, 0.6444308161735535, 0.5765030384063721, 0.344922810792923, 0.43678244948387146, 0.29993459582328796, 0.4772711992263794, 0.52614825963974, 0.33153098821640015, 0.26304835081100464, 0.2989984154701233, 0.5868546962738037, 0.25440022349357605, 0.2626488506793976, 0.386646032333374, 0.19168516993522644, 0.3479628562927246, 0.37507525086402893, 0.8051653504371643, 0.40110841393470764, 0.4442804455757141, 0.4848979115486145, 0.4107542335987091, 0.5004844665527344, 0.26544737815856934, 0.2931443452835083, 0.27688872814178467, 0.20387689769268036, 0.1537977010011673, 0.41257041692733765, 0.20863567292690277, 0.19255881011486053, 0.35141631960868835, 0.4019227921962738, 0.44492000341415405, 0.24624069035053253, 0.13347171247005463, 0.3832259178161621, 0.13469642400741577, 0.5333977937698364, 0.5133211612701416]</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.9338164925575256</v>
+        <v>0.9841394424438477</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
@@ -3703,10 +3703,10 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0.5810608000028878</v>
+        <v>0.5946886000019731</v>
       </c>
       <c r="J79" t="n">
-        <v>0.005696674509832233</v>
+        <v>0.005830280392176207</v>
       </c>
     </row>
     <row r="80">
@@ -3725,11 +3725,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[0.07900403439998627, 0.18559761345386505, 0.11977186053991318, 0.14627893269062042, 0.13743548095226288, 0.2792397439479828, 0.12631715834140778, 0.06598488241434097, 0.15596075356006622, 0.08441106230020523, 0.14878115057945251, 0.18651242554187775, 0.32703331112861633, 0.14918673038482666, 0.08006329089403152, 0.10987210273742676, 0.129365012049675, 0.14066481590270996, 0.292556494474411, 0.3525390625, 0.39256393909454346, 0.21290108561515808, 0.21396833658218384, 0.06231081113219261, 0.09430893510580063, 0.20634429156780243, 0.16493920981884003, 0.15430954098701477, 0.12044371664524078, 0.20782727003097534, 0.2735684812068939, 0.1220676451921463, 0.13487811386585236, 0.0768178179860115, 0.13151602447032928, 0.20351429283618927, 0.14843401312828064, 0.1740484982728958, 0.10631263256072998, 0.12609796226024628, 0.08644295483827591, 0.13630524277687073, 0.09717141836881638, 0.0706116184592247, 0.14039677381515503, 0.13449779152870178, 0.07939288020133972, 0.20247411727905273, 0.1612420380115509, 0.17528608441352844, 0.2134314626455307, 0.11175135523080826, 0.05087645724415779, 0.04808495193719864, 0.07594111561775208, 0.0634002611041069, 0.0777125284075737, 0.07309149950742722, 0.06616757810115814, 0.05995730310678482, 0.1611657589673996, 0.19122613966464996, 0.08637924492359161, 0.09380867332220078, 0.19421665370464325, 0.19703198969364166, 0.11611902713775635, 0.12821990251541138, 0.11305088549852371, 0.08284129947423935, 0.06630274653434753, 0.06414667516946793, 0.07554135471582413, 0.07678386569023132, 0.06118621304631233, 0.08557894080877304, 0.0986519604921341, 0.09940488636493683, 0.08215963840484619, 0.07594487071037292, 0.10272833704948425, 0.08526934683322906, 0.11674171686172485, 0.11112537235021591, 0.12516632676124573, 0.11215949058532715, 0.11225027590990067, 0.1203346699476242, 0.09574321657419205, 0.06548745930194855, 0.1023852676153183, 0.07900490611791611, 0.23335464298725128, 0.15476255118846893, 0.213422492146492, 0.29277458786964417, 0.2508580684661865, 0.14071157574653625, 0.42407456040382385, 0.11850418150424957, 0.1280132532119751, 0.1279941201210022]</t>
+          <t>[0.10372774302959442, 0.31369277834892273, 0.15307097136974335, 0.17401623725891113, 0.25488486886024475, 0.42924952507019043, 0.16595518589019775, 0.07303869724273682, 0.15086056292057037, 0.06590541452169418, 0.1217956691980362, 0.2207813262939453, 0.3422258794307709, 0.09816787391901016, 0.062269117683172226, 0.09138868004083633, 0.1199548989534378, 0.13795405626296997, 0.2757667303085327, 0.3776133358478546, 0.3390956223011017, 0.1813693791627884, 0.22147682309150696, 0.05080518499016762, 0.07887120544910431, 0.24903273582458496, 0.15480747818946838, 0.16666024923324585, 0.10959362983703613, 0.20367057621479034, 0.3008870482444763, 0.10873293876647949, 0.12354907393455505, 0.08243176341056824, 0.13000135123729706, 0.28146785497665405, 0.19644397497177124, 0.17839501798152924, 0.091042160987854, 0.15029267966747284, 0.09020702540874481, 0.13473480939865112, 0.09064653515815735, 0.05987771973013878, 0.1959436982870102, 0.14188571274280548, 0.06502144038677216, 0.30218032002449036, 0.1682778298854828, 0.20479625463485718, 0.1878804713487625, 0.0739060565829277, 0.04013397544622421, 0.03823342174291611, 0.06794636696577072, 0.0578463040292263, 0.05632111057639122, 0.05210649222135544, 0.060146208852529526, 0.04184264689683914, 0.16634449362754822, 0.1861783266067505, 0.06493444740772247, 0.07560518383979797, 0.22202850878238678, 0.2737511098384857, 0.10857824981212616, 0.1476924866437912, 0.11060270667076111, 0.057657547295093536, 0.054860517382621765, 0.04690662398934364, 0.055341944098472595, 0.0540025420486927, 0.03530936688184738, 0.05297823250293732, 0.06039847061038017, 0.059877630323171616, 0.05877479538321495, 0.06327738612890244, 0.1234976202249527, 0.0624319463968277, 0.08043638616800308, 0.09891142696142197, 0.07540473341941833, 0.0823013037443161, 0.07355645298957825, 0.08352076262235641, 0.08254363387823105, 0.036904796957969666, 0.06830395013093948, 0.06125708669424057, 0.22794200479984283, 0.1796824038028717, 0.23769615590572357, 0.3121136724948883, 0.2523483633995056, 0.14930886030197144, 0.5757228136062622, 0.12337175011634827, 0.09497373551130295, 0.09494835138320923]</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.4240745604038239</v>
+        <v>0.5757228136062622</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
@@ -3743,10 +3743,10 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0.586953199992422</v>
+        <v>0.590427200004342</v>
       </c>
       <c r="J80" t="n">
-        <v>0.005754443137180608</v>
+        <v>0.005788501960826882</v>
       </c>
     </row>
     <row r="81">
@@ -3765,11 +3765,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[0.07686150074005127, 0.06629181653261185, 0.06637176126241684, 0.07530978322029114, 0.10494472086429596, 0.1499781459569931, 0.09211115539073944, 0.11523277312517166, 0.07704278826713562, 0.1303371787071228, 0.21419113874435425, 0.09963398426771164, 0.09107375890016556, 0.15441524982452393, 0.16149356961250305, 0.11660885065793991, 0.32030153274536133, 0.19454438984394073, 0.1929609626531601, 0.13690349459648132, 0.22169676423072815, 0.12929029762744904, 0.09685499966144562, 0.1317438930273056, 0.0908152237534523, 0.102269746363163, 0.05677030235528946, 0.09059362858533859, 0.10576708614826202, 0.10479363054037094, 0.08452338725328445, 0.10300826281309128, 0.08385675400495529, 0.09730684757232666, 0.06416944414377213, 0.057217661291360855, 0.11322541534900665, 0.13652583956718445, 0.07896576076745987, 0.05857178941369057, 0.05265117064118385, 0.07391756027936935, 0.04892776906490326, 0.07545999437570572, 0.08830541372299194, 0.05693534016609192, 0.035749971866607666, 0.03821653500199318, 0.034492842853069305, 0.07473205029964447, 0.052836041897535324, 0.12097486853599548, 0.0933237373828888, 0.06937585771083832, 0.05591067299246788, 0.12268989533185959, 0.08399903774261475, 0.11569637805223465, 0.18075719475746155, 0.1404642015695572, 0.095286063849926, 0.06587032228708267, 0.11917917430400848, 0.13469763100147247, 0.1406443864107132, 0.0807054191827774, 0.16913464665412903, 0.08499570935964584, 0.08391983062028885, 0.1692693829536438, 0.10524129122495651, 0.1774134486913681, 0.20246228575706482, 0.15559504926204681, 0.25055280327796936, 0.10096774995326996, 0.19715090095996857, 0.26131367683410645, 0.4101463258266449, 0.11331610381603241, 0.1700313538312912, 0.21294479072093964, 0.15407855808734894, 0.09906045347452164, 0.1417314112186432, 0.1672850400209427, 0.32783645391464233, 0.1692570447921753, 0.21128152310848236, 0.12608538568019867, 0.2054077833890915, 0.3051002323627472, 0.4236944913864136, 0.2561335265636444, 0.25942128896713257, 0.1547737568616867, 0.3857869803905487, 0.44380801916122437, 0.2579686939716339, 0.4354403614997864, 0.2820799648761749, 0.43489450216293335, 0.4349961280822754]</t>
+          <t>[0.08729471266269684, 0.0650554969906807, 0.07045216113328934, 0.0706268921494484, 0.11928927153348923, 0.17747578024864197, 0.08853305876255035, 0.11910216510295868, 0.06869194656610489, 0.19551794230937958, 0.248269185423851, 0.10316392779350281, 0.0873236134648323, 0.2262333333492279, 0.19068385660648346, 0.14627261459827423, 0.41311806440353394, 0.24568864703178406, 0.3126014173030853, 0.17495441436767578, 0.38905417919158936, 0.2227725386619568, 0.1171305701136589, 0.15781322121620178, 0.0870666578412056, 0.0997803583741188, 0.04788976535201073, 0.09670150279998779, 0.0976567491889, 0.12497697025537491, 0.06948675215244293, 0.09285029023885727, 0.09121697396039963, 0.1109590157866478, 0.06833014637231827, 0.05559384822845459, 0.13604363799095154, 0.1361127644777298, 0.0817582979798317, 0.06743144243955612, 0.06884605437517166, 0.07912519574165344, 0.048503320664167404, 0.07435676455497742, 0.10790632665157318, 0.04657293111085892, 0.021711573004722595, 0.03286639228463173, 0.026534514501690865, 0.10487816482782364, 0.05395905300974846, 0.21134121716022491, 0.0970286875963211, 0.06701450794935226, 0.05310368165373802, 0.14527568221092224, 0.07192873954772949, 0.1633853316307068, 0.2527303397655487, 0.1623251736164093, 0.11788000911474228, 0.08005965501070023, 0.18291306495666504, 0.190405935049057, 0.18716318905353546, 0.10258641839027405, 0.2717568278312683, 0.11186198890209198, 0.10384275019168854, 0.24293802678585052, 0.09353310614824295, 0.21678215265274048, 0.2733341157436371, 0.18436001241207123, 0.25277093052864075, 0.10952669382095337, 0.30121612548828125, 0.38570287823677063, 0.6226815581321716, 0.1450657844543457, 0.2316524088382721, 0.2766214609146118, 0.1449688822031021, 0.11042625457048416, 0.14643214643001556, 0.22924987971782684, 0.4209843575954437, 0.2240917831659317, 0.2297220230102539, 0.12524820864200592, 0.22913531959056854, 0.3632473647594452, 0.4873138666152954, 0.2967466413974762, 0.2618018388748169, 0.171315535902977, 0.5731011629104614, 0.5872536897659302, 0.39842092990875244, 0.6335225701332092, 0.480707049369812, 0.5030533075332642, 0.5031929016113281]</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.4438080191612244</v>
+        <v>0.6335225701332092</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -3783,10 +3783,10 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0.5893125000002328</v>
+        <v>0.5928032999945572</v>
       </c>
       <c r="J81" t="n">
-        <v>0.005721480582526532</v>
+        <v>0.005755371844607352</v>
       </c>
     </row>
     <row r="82">
@@ -3805,11 +3805,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[0.1251266747713089, 0.11038829386234283, 0.10436476767063141, 0.09384898841381073, 0.11982248723506927, 0.20410321652889252, 0.1927994042634964, 0.09356895089149475, 0.17475199699401855, 0.11986938118934631, 0.11894166469573975, 0.11629172414541245, 0.26390910148620605, 0.2791551947593689, 0.23263369500637054, 0.1267450451850891, 0.08343462646007538, 0.10454647243022919, 0.10416682064533234, 0.10164564102888107, 0.11256210505962372, 0.12657618522644043, 0.10535705834627151, 0.09846442937850952, 0.0776263102889061, 0.15019971132278442, 0.16865482926368713, 0.1106569916009903, 0.14585638046264648, 0.15992654860019684, 0.22384467720985413, 0.11231344938278198, 0.06839537620544434, 0.18519249558448792, 0.1486172378063202, 0.20584188401699066, 0.4083927571773529, 0.3157768249511719, 0.19586096704006195, 0.21159519255161285, 0.21700724959373474, 0.21791861951351166, 0.2402275651693344, 0.21502648293972015, 0.2940661609172821, 0.22524435818195343, 0.1397436559200287, 0.2040759176015854, 0.2588091194629669, 0.09385285526514053, 0.3083912134170532, 0.19037999212741852, 0.12443246692419052, 0.1342332810163498, 0.11915913224220276, 0.11727651953697205, 0.14544570446014404, 0.14538238942623138, 0.25345379114151, 0.12795649468898773, 0.16743986308574677, 0.20002570748329163, 0.18550963699817657, 0.22424668073654175, 0.13257837295532227, 0.10505769401788712, 0.18634000420570374, 0.1661575734615326, 0.07877787947654724, 0.11727455258369446, 0.08457878977060318, 0.08410249650478363, 0.10277942568063736, 0.29855018854141235, 0.46613648533821106, 0.15452617406845093, 0.0842289999127388, 0.20442399382591248, 0.2644496560096741, 0.44398078322410583, 0.25448930263519287, 0.3140665292739868, 0.2558654546737671, 0.14406825602054596, 0.17609871923923492, 0.17683276534080505, 0.20666572451591492, 0.18054638803005219, 0.16694669425487518, 0.16557089984416962, 0.14726994931697845, 0.2510925233364105, 0.3738129138946533, 0.3205936551094055, 0.2525356113910675, 0.31899595260620117, 0.40280085802078247, 0.4269746243953705, 0.45665910840034485, 0.4017811715602875, 0.23233051598072052, 0.26210328936576843, 0.21721075475215912, 0.33376383781433105, 0.5969502925872803, 0.22857798635959625, 0.3465830683708191, 0.284058153629303, 0.18683677911758423, 0.16905489563941956, 0.1887912154197693, 0.18797819316387177]</t>
+          <t>[0.14991645514965057, 0.13298611342906952, 0.12183164805173874, 0.07122266292572021, 0.1166936606168747, 0.21894820034503937, 0.21665038168430328, 0.09217862039804459, 0.22078858315944672, 0.09088420122861862, 0.1295452117919922, 0.10486386716365814, 0.22816075384616852, 0.2843339443206787, 0.34056082367897034, 0.14128386974334717, 0.07228315621614456, 0.09549982100725174, 0.08258567750453949, 0.10500628501176834, 0.11429877579212189, 0.14424045383930206, 0.10210350900888443, 0.09417019039392471, 0.06270918995141983, 0.146990567445755, 0.18559513986110687, 0.1006968542933464, 0.15317131578922272, 0.2216745913028717, 0.2290179282426834, 0.13523104786872864, 0.05100162327289581, 0.16977931559085846, 0.15439936518669128, 0.1905226707458496, 0.39025747776031494, 0.3131813704967499, 0.14997588098049164, 0.14740052819252014, 0.1666850447654724, 0.1603504866361618, 0.2762962877750397, 0.2678474485874176, 0.5983089804649353, 0.34668606519699097, 0.1476753205060959, 0.2392808496952057, 0.4412238597869873, 0.1305510699748993, 0.3905171751976013, 0.3234551250934601, 0.12747323513031006, 0.15212441980838776, 0.09948205947875977, 0.10661230981349945, 0.16500763595104218, 0.1364631950855255, 0.28602778911590576, 0.1125626266002655, 0.1807703673839569, 0.14982932806015015, 0.18515029549598694, 0.19882501661777496, 0.12219978123903275, 0.08965865522623062, 0.1727764904499054, 0.1377568244934082, 0.044988442212343216, 0.07874694466590881, 0.05424484983086586, 0.05779436603188515, 0.06760724633932114, 0.33586591482162476, 0.6790533661842346, 0.16367770731449127, 0.07153584808111191, 0.25148433446884155, 0.32792115211486816, 0.5308299660682678, 0.3527440130710602, 0.38797301054000854, 0.2594674229621887, 0.10706412047147751, 0.1438165009021759, 0.1584167778491974, 0.23007264733314514, 0.17744798958301544, 0.14553631842136383, 0.1796571910381317, 0.16954246163368225, 0.2432352751493454, 0.433966726064682, 0.42863738536834717, 0.3330996632575989, 0.35853126645088196, 0.5680404305458069, 0.6458780169487, 0.5504124760627747, 0.4537495970726013, 0.3146921992301941, 0.30339863896369934, 0.18968991935253143, 0.41270679235458374, 0.6699334383010864, 0.2451285570859909, 0.48886606097221375, 0.24973849952220917, 0.14418421685695648, 0.14604589343070984, 0.15705755352973938, 0.15606099367141724]</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.5969502925872803</v>
+        <v>0.6790533661842346</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -3823,10 +3823,10 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0.6424682000069879</v>
+        <v>0.6493184999999357</v>
       </c>
       <c r="J82" t="n">
-        <v>0.005736323214348106</v>
+        <v>0.005797486607142284</v>
       </c>
     </row>
     <row r="83">
@@ -3845,11 +3845,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[0.9844281077384949, 0.9605066776275635, 0.9778593182563782, 0.9877960681915283, 0.9878437519073486, 0.9830530285835266, 0.9532187581062317, 0.9452838897705078, 0.9876847267150879, 0.9837199449539185, 0.9837747812271118, 0.9928734302520752, 0.9964935183525085, 0.9955978989601135, 0.9928280711174011, 0.9744818806648254, 0.9817668795585632, 0.9481649994850159, 0.9722759127616882, 0.9651824235916138, 0.9837550520896912, 0.9887105822563171, 0.9928702712059021, 0.9926747679710388, 0.9879335761070251, 0.9749789834022522, 0.9758664965629578, 0.9888249039649963, 0.99181067943573, 0.9972565770149231, 0.9936119914054871, 0.9754893779754639, 0.9949105381965637, 0.9942474365234375, 0.9931521415710449, 0.9900922179222107, 0.9857369661331177, 0.9760012626647949, 0.9018510580062866, 0.9916332960128784, 0.9915180802345276, 0.9917970895767212, 0.9900805354118347, 0.9937335848808289, 0.9917759895324707, 0.9945676326751709, 0.9922266006469727, 0.9852504730224609, 0.9898689985275269, 0.9879235625267029, 0.985572874546051, 0.986994206905365, 0.9768635034561157, 0.9895834922790527, 0.9804389476776123, 0.976550281047821, 0.9725710153579712, 0.977168083190918, 0.9756379127502441, 0.991866409778595, 0.990436851978302, 0.9791233539581299, 0.9648431539535522, 0.956963837146759, 0.9712501764297485, 0.9774556159973145, 0.983091413974762, 0.9735032916069031, 0.9173548221588135, 0.952025294303894, 0.9377079606056213, 0.9347760081291199, 0.8194255232810974, 0.8577006459236145, 0.9662184119224548, 0.9786574244499207, 0.983953595161438, 0.9905463457107544, 0.9885509610176086, 0.9809346795082092, 0.9823217391967773, 0.9876825213432312, 0.9695789217948914, 0.9713274240493774, 0.9798264503479004, 0.9734432101249695, 0.9541988372802734, 0.9540490508079529, 0.9489660859107971, 0.9864813089370728, 0.9883750677108765, 0.9792248606681824, 0.911068320274353, 0.9540256261825562, 0.9919940233230591, 0.9927341938018799, 0.9912109375, 0.9839695692062378, 0.6188302040100098, 0.8648064732551575, 0.6483337879180908, 0.6975987553596497, 0.8419338464736938, 0.8563213348388672, 0.9324107766151428, 0.9220815896987915, 0.7853271961212158, 0.9073177576065063, 0.9115742444992065, 0.9928777813911438, 0.9874413013458252, 0.985007643699646, 0.9875182509422302, 0.9854142665863037, 0.9894801378250122, 0.9752939939498901, 0.9831530451774597, 0.9831883311271667]</t>
+          <t>[0.9953914880752563, 0.9888603091239929, 0.9943042397499084, 0.9963425993919373, 0.9964639544487, 0.995564877986908, 0.9853355884552002, 0.988499104976654, 0.9966147541999817, 0.9962238073348999, 0.996412456035614, 0.9981499910354614, 0.9988600015640259, 0.9987592697143555, 0.998458981513977, 0.9934826493263245, 0.9954108595848083, 0.977948009967804, 0.9931140542030334, 0.9899836778640747, 0.9961716532707214, 0.9964435696601868, 0.9977522492408752, 0.9979617595672607, 0.9967779517173767, 0.9926720857620239, 0.9898838996887207, 0.9960169196128845, 0.9968395233154297, 0.9990257024765015, 0.9983847141265869, 0.9899868369102478, 0.9987227320671082, 0.9987902045249939, 0.998484194278717, 0.9972623586654663, 0.9963635802268982, 0.9932085871696472, 0.9672754406929016, 0.9981665015220642, 0.9982932209968567, 0.9983324408531189, 0.9979820251464844, 0.9986065030097961, 0.997865617275238, 0.998751163482666, 0.9983590245246887, 0.9969823956489563, 0.99741530418396, 0.9960765242576599, 0.9966903924942017, 0.9972846508026123, 0.9950695037841797, 0.9976990818977356, 0.9953472018241882, 0.9927464127540588, 0.9946250319480896, 0.9944222569465637, 0.9948691129684448, 0.9979375600814819, 0.9971022009849548, 0.9958195686340332, 0.9909602403640747, 0.9866639375686646, 0.9921512603759766, 0.9942231774330139, 0.9956743121147156, 0.990605890750885, 0.9653149247169495, 0.986423909664154, 0.9818053841590881, 0.9883698225021362, 0.9254921674728394, 0.9387207627296448, 0.9864826202392578, 0.9934926629066467, 0.996404767036438, 0.9975443482398987, 0.9974192380905151, 0.9957557916641235, 0.9948838353157043, 0.9954364895820618, 0.992251455783844, 0.9918713569641113, 0.9909756779670715, 0.9921213388442993, 0.9868829846382141, 0.9847583770751953, 0.983985960483551, 0.9968174695968628, 0.9972922205924988, 0.9949996471405029, 0.9793563485145569, 0.9877899885177612, 0.9981014132499695, 0.9983587861061096, 0.9976333379745483, 0.9946849346160889, 0.6775110363960266, 0.9018634557723999, 0.719592809677124, 0.7571786642074585, 0.9249305129051208, 0.9368635416030884, 0.9862116575241089, 0.9756262302398682, 0.9448341727256775, 0.9722342491149902, 0.971653938293457, 0.9984059929847717, 0.9968641400337219, 0.996874213218689, 0.9976716637611389, 0.9957945346832275, 0.9975693821907043, 0.9945405125617981, 0.995887815952301, 0.9958755373954773]</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.9972565770149231</v>
+        <v>0.9990257024765015</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -3863,10 +3863,10 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0.6758061999862548</v>
+        <v>0.6836173000046983</v>
       </c>
       <c r="J83" t="n">
-        <v>0.005727171186324194</v>
+        <v>0.005793366949192359</v>
       </c>
     </row>
     <row r="84">
@@ -3885,11 +3885,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[0.33977049589157104, 0.9511377811431885, 0.7937021851539612, 0.6681452989578247, 0.6577330827713013, 0.5009554028511047, 0.7378003001213074, 0.7380386590957642, 0.49106791615486145, 0.8285293579101562, 0.53411465883255, 0.47623685002326965, 0.7832559943199158, 0.7199456095695496, 0.7688071727752686, 0.9559580087661743, 0.9957166314125061, 0.9975650310516357, 0.99736088514328, 0.9956307411193848, 0.9962127208709717, 0.9942477941513062, 0.9918930530548096, 0.9476995468139648, 0.9451608657836914, 0.9371894001960754, 0.9592827558517456, 0.9873102903366089, 0.9875844120979309, 0.9679911136627197, 0.9934647679328918, 0.9954700469970703, 0.9887047410011292, 0.9767318964004517, 0.9629687666893005, 0.9848582744598389, 0.9957459568977356, 0.9928677082061768, 0.9838283061981201, 0.8289345502853394, 0.9417408108711243, 0.9878941178321838, 0.9884495735168457, 0.9828864932060242, 0.6851294040679932, 0.9413737654685974, 0.8529753088951111, 0.989947497844696, 0.9958593249320984, 0.956672728061676, 0.9274513125419617, 0.590704083442688, 0.3043740689754486, 0.5281068086624146, 0.2443396896123886, 0.46290823817253113, 0.5625287294387817, 0.7712178826332092, 0.8198572397232056, 0.5871455073356628, 0.8350682258605957, 0.7165060639381409, 0.8440350890159607, 0.7716411352157593, 0.8087145686149597, 0.7490885853767395, 0.5686925649642944, 0.6499561071395874, 0.794998288154602, 0.6208956241607666, 0.5888108015060425, 0.5699964165687561, 0.5497033596038818, 0.4493292570114136, 0.6277729868888855, 0.7448756694793701, 0.6946491599082947, 0.9767842888832092, 0.9968609809875488, 0.9978964328765869, 0.9979488253593445, 0.9926357865333557, 0.9975631237030029, 0.9972500205039978, 0.9969555139541626, 0.9931938648223877, 0.9691522717475891, 0.6763424277305603, 0.485004723072052, 0.8687770366668701, 0.8701037764549255, 0.9735410809516907, 0.7066884636878967, 0.7850505113601685, 0.6841097474098206, 0.8331316709518433, 0.8591746091842651, 0.8411712646484375, 0.9503584504127502, 0.9306976795196533, 0.893423318862915, 0.9198534488677979, 0.9336909055709839, 0.9934890270233154, 0.9881885647773743, 0.9783931970596313, 0.9700427651405334, 0.9825448989868164, 0.9932894110679626, 0.9958866238594055, 0.99573814868927, 0.9382137060165405, 0.9848105311393738, 0.9572455883026123, 0.9736806154251099, 0.8514211177825928, 0.7917553782463074, 0.7914865612983704]</t>
+          <t>[0.2255641371011734, 0.9882704019546509, 0.8708853721618652, 0.7547763586044312, 0.7375702857971191, 0.5391323566436768, 0.7944431900978088, 0.674765408039093, 0.3897540867328644, 0.8893895745277405, 0.4357629120349884, 0.3733569383621216, 0.8026937246322632, 0.795734167098999, 0.8812286853790283, 0.9863380789756775, 0.9983683228492737, 0.9990262985229492, 0.9989950060844421, 0.9982832670211792, 0.9985796213150024, 0.9976338148117065, 0.9966444969177246, 0.9844322204589844, 0.9683908224105835, 0.9854721426963806, 0.991744339466095, 0.997175931930542, 0.9970768690109253, 0.9900977611541748, 0.9979871511459351, 0.9981957077980042, 0.996145486831665, 0.9922528862953186, 0.9899098873138428, 0.9953089356422424, 0.9985879063606262, 0.9979588985443115, 0.9947764873504639, 0.8655139803886414, 0.9816145300865173, 0.9966499209403992, 0.9972953200340271, 0.9958847165107727, 0.8435362577438354, 0.9701977372169495, 0.9309749007225037, 0.9968224763870239, 0.9984252452850342, 0.9868175983428955, 0.9772831797599792, 0.628584086894989, 0.23557530343532562, 0.5066981315612793, 0.15383391082286835, 0.34754863381385803, 0.406239777803421, 0.8061924576759338, 0.8591345548629761, 0.5886278748512268, 0.8836002349853516, 0.7426614761352539, 0.9380728602409363, 0.8201878070831299, 0.8339405655860901, 0.7931466698646545, 0.5138185024261475, 0.6957482695579529, 0.8105596899986267, 0.6396597027778625, 0.7100715637207031, 0.6270932555198669, 0.4727937579154968, 0.3746933043003082, 0.6455069780349731, 0.7408178448677063, 0.8026870489120483, 0.9921311736106873, 0.9988670349121094, 0.9991304278373718, 0.999202311038971, 0.9974541068077087, 0.9989995360374451, 0.9989809393882751, 0.998970627784729, 0.9982125759124756, 0.9885519742965698, 0.7099953889846802, 0.48455849289894104, 0.9162179827690125, 0.9384123682975769, 0.9951725602149963, 0.7414671778678894, 0.8639219403266907, 0.8777437806129456, 0.9138079285621643, 0.908588707447052, 0.9385887384414673, 0.9745217561721802, 0.9742149114608765, 0.9747000932693481, 0.9810227751731873, 0.9863579273223877, 0.998012900352478, 0.9960430860519409, 0.9946467280387878, 0.99112868309021, 0.9944920539855957, 0.9977971315383911, 0.9985950589179993, 0.9987359642982483, 0.9749867916107178, 0.9918963313102722, 0.973798394203186, 0.9903588891029358, 0.8663513660430908, 0.8640774488449097, 0.8644434809684753]</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.9979488253593445</v>
+        <v>0.9992023110389709</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0.6636218999919947</v>
+        <v>0.6602220000058878</v>
       </c>
       <c r="J84" t="n">
-        <v>0.005623914406711819</v>
+        <v>0.005595101694965151</v>
       </c>
     </row>
     <row r="85">
@@ -3925,11 +3925,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[0.4737303555011749, 0.5300304889678955, 0.387265682220459, 0.5437912344932556, 0.47102218866348267, 0.3856920599937439, 0.44533687829971313, 0.3562445044517517, 0.6008701920509338, 0.6399354338645935, 0.8357200622558594, 0.6740791201591492, 0.510077714920044, 0.4098738729953766, 0.27232497930526733, 0.3171658217906952, 0.28564080595970154, 0.17186270654201508, 0.288898766040802, 0.310271292924881, 0.4056073725223541, 0.6725196242332458, 0.8369840979576111, 0.9038102030754089, 0.8316612839698792, 0.4536207318305969, 0.23026570677757263, 0.3110666871070862, 0.3369279205799103, 0.2734541893005371, 0.3031231760978699, 0.33717796206474304, 0.3309953510761261, 0.4927061200141907, 0.5057307481765747, 0.4189147353172302, 0.3216557800769806, 0.28846901655197144, 0.34327465295791626, 0.4699915945529938, 0.37224259972572327, 0.44487372040748596, 0.3107684850692749, 0.30567649006843567, 0.41780591011047363, 0.4543207287788391, 0.3569299280643463, 0.38975825905799866, 0.4010237455368042, 0.27488991618156433, 0.37336182594299316, 0.6391375660896301, 0.4370570182800293, 0.48096925020217896, 0.5834206938743591, 0.5403628945350647, 0.46715447306632996, 0.3885178565979004, 0.5048366785049438, 0.4332316517829895, 0.4974895715713501, 0.4450630843639374, 0.5115053057670593, 0.5836207270622253, 0.4124421775341034, 0.415638267993927, 0.37962672114372253, 0.35622328519821167, 0.3950841724872589, 0.3636481761932373, 0.39653345942497253, 0.2992255985736847, 0.4769943654537201, 0.39784249663352966, 0.4741886854171753, 0.5160752534866333, 0.4271247684955597, 0.44815686345100403, 0.5751404166221619, 0.4933622181415558, 0.3858186900615692, 0.3547746241092682, 0.40236470103263855, 0.3624787926673889, 0.32393327355384827, 0.4426002502441406, 0.39160242676734924, 0.2889905571937561, 0.31797048449516296, 0.2205217033624649, 0.4769388735294342, 0.36745685338974, 0.23880818486213684, 0.30127349495887756, 0.2754157781600952, 0.1959870308637619, 0.24268095195293427, 0.3541593849658966, 0.23935997486114502, 0.3379445970058441, 0.29904744029045105, 0.5874594449996948, 0.29713043570518494, 0.3054942488670349, 0.24003972113132477, 0.20187333226203918, 0.3681982457637787, 0.2525269091129303, 0.3245120942592621, 0.3785263001918793, 0.4210113286972046, 0.4867013692855835, 0.610299825668335, 0.8871506452560425, 0.9349732398986816, 0.9569939374923706, 0.9440702795982361, 0.9441348314285278]</t>
+          <t>[0.6302616000175476, 0.6919517517089844, 0.6239142417907715, 0.708422839641571, 0.6929424405097961, 0.5568942427635193, 0.7141347527503967, 0.5339740514755249, 0.731662929058075, 0.7250257134437561, 0.8836552500724792, 0.9118542671203613, 0.7270145416259766, 0.7654610276222229, 0.496685653924942, 0.4506019353866577, 0.3606239855289459, 0.18164457380771637, 0.41881734132766724, 0.4226442277431488, 0.5912076234817505, 0.861733078956604, 0.9500929117202759, 0.9708203077316284, 0.9438130855560303, 0.673245370388031, 0.25890862941741943, 0.34443846344947815, 0.36858031153678894, 0.24994537234306335, 0.2890876531600952, 0.3079814314842224, 0.3323439359664917, 0.5241144299507141, 0.5246810913085938, 0.425577312707901, 0.3650234043598175, 0.2657439112663269, 0.4148990213871002, 0.5135124325752258, 0.36676231026649475, 0.38463443517684937, 0.24218665063381195, 0.23543521761894226, 0.4055123031139374, 0.4726008176803589, 0.36682575941085815, 0.36521023511886597, 0.38897204399108887, 0.23227459192276, 0.3715650737285614, 0.718443751335144, 0.5290734767913818, 0.5423815846443176, 0.6559848785400391, 0.5479416847229004, 0.43078434467315674, 0.33581092953681946, 0.5309716463088989, 0.4745420217514038, 0.5729338526725769, 0.5262372493743896, 0.5392725467681885, 0.6818842887878418, 0.4242158532142639, 0.3918776512145996, 0.38733789324760437, 0.2938496470451355, 0.4008244276046753, 0.35827019810676575, 0.3866853415966034, 0.27965107560157776, 0.6199797987937927, 0.42835667729377747, 0.4788268506526947, 0.544362485408783, 0.44917789101600647, 0.5022501945495605, 0.7099640369415283, 0.524756133556366, 0.4346901774406433, 0.45459410548210144, 0.5392616987228394, 0.3868827521800995, 0.3159857988357544, 0.5234205722808838, 0.47408822178840637, 0.3323131501674652, 0.3460274934768677, 0.22460277378559113, 0.48053792119026184, 0.41510388255119324, 0.22529423236846924, 0.3244950771331787, 0.27562156319618225, 0.2229820042848587, 0.25598594546318054, 0.36038368940353394, 0.3104044795036316, 0.41420552134513855, 0.34757286310195923, 0.6510500907897949, 0.28932324051856995, 0.2620534300804138, 0.22643105685710907, 0.1879989504814148, 0.29903918504714966, 0.25136101245880127, 0.25319209694862366, 0.29734674096107483, 0.3676927983760834, 0.6423168778419495, 0.7795671820640564, 0.9659003615379333, 0.9848414659500122, 0.9935488104820251, 0.9837653040885925, 0.9837852716445923]</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.9569939374923706</v>
+        <v>0.9935488104820251</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
@@ -3943,10 +3943,10 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0.6719632000022102</v>
+        <v>0.666069900005823</v>
       </c>
       <c r="J85" t="n">
-        <v>0.005694603389849239</v>
+        <v>0.005644660169540873</v>
       </c>
     </row>
     <row r="86">
@@ -3965,11 +3965,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[0.8313686847686768, 0.8104850053787231, 0.6633960008621216, 0.42164215445518494, 0.7780519723892212, 0.7118277549743652, 0.5776562094688416, 0.554611086845398, 0.6533486247062683, 0.7513706088066101, 0.6902797222137451, 0.8882144093513489, 0.8748036026954651, 0.8996518850326538, 0.8864221572875977, 0.7592611908912659, 0.3898736834526062, 0.37840619683265686, 0.3469371795654297, 0.3503101170063019, 0.6372568011283875, 0.44167467951774597, 0.3844025433063507, 0.29500821232795715, 0.36820101737976074, 0.4685960114002228, 0.40266910195350647, 0.5049750208854675, 0.2653868496417999, 0.36418604850769043, 0.5419917106628418, 0.3428747057914734, 0.31866997480392456, 0.28035828471183777, 0.41949665546417236, 0.7464328408241272, 0.7013322114944458, 0.6146669387817383, 0.48050257563591003, 0.6337170004844666, 0.6861822009086609, 0.38975605368614197, 0.3234788775444031, 0.2782241404056549, 0.3476906716823578, 0.44999316334724426, 0.6890376806259155, 0.6122451424598694, 0.44422200322151184, 0.3945324718952179, 0.556897759437561, 0.558846652507782, 0.6560041904449463, 0.6356195211410522, 0.4792898893356323, 0.4979904592037201, 0.287905752658844, 0.5446984767913818, 0.23887698352336884, 0.34646451473236084, 0.40118518471717834, 0.5092739462852478, 0.454450786113739, 0.5098694562911987, 0.8125500082969666, 0.6652019023895264, 0.6132705807685852, 0.5642147064208984, 0.4826561510562897, 0.5802583694458008, 0.37636512517929077, 0.43995827436447144, 0.8818793892860413, 0.7321376204490662, 0.7399396300315857, 0.5019843578338623, 0.5994235873222351, 0.5566423535346985, 0.5149250030517578, 0.8457536697387695, 0.913070797920227, 0.5688263773918152, 0.7000501751899719, 0.7512904405593872, 0.683384120464325, 0.6280537247657776, 0.7091168165206909, 0.5852134227752686, 0.5066668391227722, 0.5332779884338379, 0.6205554008483887, 0.6630581617355347, 0.5915111303329468, 0.6258308291435242, 0.4383758306503296, 0.4727643132209778, 0.37871941924095154, 0.3918878436088562, 0.258949875831604, 0.3415277600288391, 0.5070061087608337, 0.506441056728363, 0.5684170722961426, 0.4852151572704315, 0.6434736251831055, 0.5773854851722717, 0.8668546676635742, 0.7641940712928772, 0.8320930600166321, 0.6035996079444885, 0.6459614634513855, 0.4264344871044159, 0.2071332484483719, 0.3250499367713928, 0.6451488137245178, 0.43879085779190063, 0.7263895273208618, 0.7278783321380615]</t>
+          <t>[0.9620213508605957, 0.9674586057662964, 0.9091514945030212, 0.6415601968765259, 0.9308685064315796, 0.8780247569084167, 0.8077113032341003, 0.7913530468940735, 0.8700821399688721, 0.8967539072036743, 0.9272860288619995, 0.9751331210136414, 0.9492382407188416, 0.9743419885635376, 0.9774246215820312, 0.937205970287323, 0.5063104629516602, 0.544890820980072, 0.5065436363220215, 0.48276790976524353, 0.8377665281295776, 0.6586464047431946, 0.5072084665298462, 0.3567667007446289, 0.6461097002029419, 0.6963763236999512, 0.4488183557987213, 0.6542179584503174, 0.371692419052124, 0.5131455659866333, 0.6586788296699524, 0.36398571729660034, 0.46276500821113586, 0.3406031131744385, 0.5444583296775818, 0.9140526056289673, 0.9127790331840515, 0.8130950927734375, 0.7454070448875427, 0.8435138463973999, 0.8678719997406006, 0.6211193203926086, 0.47275856137275696, 0.4352070391178131, 0.4437241554260254, 0.61676025390625, 0.8408944010734558, 0.7287904620170593, 0.5849257707595825, 0.5336841344833374, 0.7752280831336975, 0.7275264859199524, 0.8618787527084351, 0.826330304145813, 0.721484899520874, 0.7660088539123535, 0.4477338492870331, 0.8047463893890381, 0.31790512800216675, 0.4905795454978943, 0.6119915246963501, 0.689624011516571, 0.5562779903411865, 0.6750665903091431, 0.9584903717041016, 0.8831163048744202, 0.7199813723564148, 0.8127612471580505, 0.7839359045028687, 0.794015645980835, 0.4739494323730469, 0.5661410093307495, 0.9705902934074402, 0.9069312214851379, 0.8912453651428223, 0.6854210495948792, 0.8160016536712646, 0.7475345134735107, 0.7367178201675415, 0.9566942453384399, 0.9892232418060303, 0.7506716847419739, 0.8966724872589111, 0.9138206839561462, 0.8697889447212219, 0.8269340991973877, 0.8457648754119873, 0.7778651714324951, 0.7775153517723083, 0.6584516167640686, 0.7970516085624695, 0.792900025844574, 0.7332606911659241, 0.6823130249977112, 0.41946473717689514, 0.5080074071884155, 0.3881062865257263, 0.37972813844680786, 0.2604628801345825, 0.30486544966697693, 0.559510350227356, 0.6346747279167175, 0.6274208426475525, 0.6293566823005676, 0.8514338135719299, 0.8277732729911804, 0.9689490795135498, 0.9327031373977661, 0.949479341506958, 0.7701051235198975, 0.849754810333252, 0.5330142378807068, 0.20678511261940002, 0.4303908348083496, 0.8298501372337341, 0.5983731150627136, 0.8952917456626892, 0.8966270685195923]</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.9130707979202271</v>
+        <v>0.9892232418060303</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -3983,10 +3983,10 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0.6669549999933224</v>
+        <v>0.6761748999997508</v>
       </c>
       <c r="J86" t="n">
-        <v>0.005652161016892563</v>
+        <v>0.005730295762709752</v>
       </c>
     </row>
     <row r="87">
@@ -4005,11 +4005,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>[0.9640054702758789, 0.8826603293418884, 0.6483343839645386, 0.849425196647644, 0.6877328753471375, 0.6900086998939514, 0.8459206223487854, 0.7209392189979553, 0.7533249855041504, 0.7293180227279663, 0.9639290571212769, 0.9830355644226074, 0.9678516983985901, 0.9200341105461121, 0.7371783256530762, 0.7834186553955078, 0.6400201320648193, 0.842910885810852, 0.7332876324653625, 0.7265827655792236, 0.9515097737312317, 0.9766259789466858, 0.9225782155990601, 0.47473347187042236, 0.6618453860282898, 0.5808413624763489, 0.5394469499588013, 0.706523597240448, 0.8139420747756958, 0.7364328503608704, 0.7782031297683716, 0.8690035939216614, 0.9776090383529663, 0.9667843580245972, 0.8282383680343628, 0.5564121007919312, 0.7520825862884521, 0.8565268516540527, 0.9438625574111938, 0.9476584196090698, 0.7260884046554565, 0.91077721118927, 0.8734421133995056, 0.9382987022399902, 0.9856922626495361, 0.9935278296470642, 0.9948516488075256, 0.9923515915870667, 0.9045119285583496, 0.9895562529563904, 0.9881552457809448, 0.9189804792404175, 0.7059065699577332, 0.8124495148658752, 0.9951708912849426, 0.995116114616394, 0.982613742351532, 0.8659929037094116, 0.8353434205055237, 0.9539864659309387, 0.9888301491737366, 0.992089033126831, 0.9876937866210938, 0.958139181137085, 0.9846165180206299, 0.8929709196090698, 0.964267909526825, 0.9225256443023682, 0.9731374382972717, 0.7308029532432556, 0.9276716113090515, 0.9281493425369263, 0.9872947335243225, 0.995089590549469, 0.9724488258361816, 0.8424069285392761, 0.5853646397590637, 0.8596727252006531, 0.9047207832336426, 0.9867210388183594, 0.9925462603569031, 0.974927544593811, 0.9692232608795166, 0.9706581234931946, 0.7964181900024414, 0.8245828747749329, 0.9768552780151367, 0.9442683458328247, 0.9285780787467957, 0.9185363054275513, 0.8128732442855835, 0.8319234848022461, 0.8490524888038635, 0.9104468822479248, 0.8667048811912537, 0.7388214468955994, 0.8787270784378052, 0.9760363698005676, 0.995267927646637, 0.9970428347587585, 0.9848743081092834, 0.9940750598907471, 0.9936145544052124, 0.9902717471122742, 0.9823079109191895, 0.9911034107208252, 0.9832593202590942, 0.958286464214325, 0.9602152109146118, 0.9762424230575562, 0.9825277924537659, 0.9802800416946411, 0.9857777953147888, 0.9960837364196777, 0.9943802952766418, 0.9696618914604187, 0.978042483329773, 0.9780394434928894]</t>
+          <t>[0.9930055737495422, 0.9579984545707703, 0.8801619410514832, 0.9273064732551575, 0.8418763875961304, 0.8041442036628723, 0.9309902787208557, 0.8905760049819946, 0.8730722069740295, 0.8964242339134216, 0.9960207343101501, 0.9970394968986511, 0.9939596652984619, 0.9843331575393677, 0.8487827181816101, 0.8641219139099121, 0.7479296326637268, 0.9258926510810852, 0.8768154382705688, 0.8477083444595337, 0.9898788928985596, 0.9944235682487488, 0.9828232526779175, 0.7348508238792419, 0.8608033657073975, 0.8079352378845215, 0.8145131468772888, 0.8654788732528687, 0.9144474864006042, 0.9080612659454346, 0.9288125038146973, 0.9845763444900513, 0.9955700039863586, 0.9962712526321411, 0.9649622440338135, 0.8304659724235535, 0.9710782766342163, 0.9797149896621704, 0.9922487735748291, 0.990906834602356, 0.9215864539146423, 0.9808969497680664, 0.9525535702705383, 0.9844875931739807, 0.9974756836891174, 0.9986488223075867, 0.9987057447433472, 0.9984428286552429, 0.979736864566803, 0.9974942207336426, 0.9975123405456543, 0.9912421703338623, 0.8666393756866455, 0.9682665467262268, 0.9988095760345459, 0.9990072846412659, 0.9968018531799316, 0.9496545195579529, 0.9524726867675781, 0.9934149980545044, 0.9983630776405334, 0.9982617497444153, 0.9980282187461853, 0.992621660232544, 0.9966421127319336, 0.9618764519691467, 0.9912034273147583, 0.9823914170265198, 0.993255615234375, 0.8562191724777222, 0.9819781184196472, 0.9733755588531494, 0.9968864321708679, 0.9987183809280396, 0.9964401125907898, 0.9246566295623779, 0.8225384950637817, 0.9483458995819092, 0.9729287028312683, 0.9977130889892578, 0.9981136322021484, 0.9968751668930054, 0.9963803887367249, 0.9964807629585266, 0.9526353478431702, 0.9330385327339172, 0.9950032830238342, 0.9863816499710083, 0.9797540307044983, 0.9735032916069031, 0.9089353680610657, 0.9143650531768799, 0.9317468404769897, 0.9712607264518738, 0.9595677852630615, 0.8775712847709656, 0.9533980488777161, 0.9980898499488831, 0.9989750385284424, 0.9993897676467896, 0.9974715709686279, 0.9988603591918945, 0.998407781124115, 0.998479425907135, 0.9970556497573853, 0.9980815649032593, 0.9952149391174316, 0.99072265625, 0.9939265847206116, 0.995556652545929, 0.9972631931304932, 0.9963417649269104, 0.9980466365814209, 0.999049723148346, 0.9988477230072021, 0.9919800758361816, 0.9957168698310852, 0.9957084655761719]</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.9970428347587585</v>
+        <v>0.9993897676467896</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -4023,10 +4023,10 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0.663107400003355</v>
+        <v>0.665659999998752</v>
       </c>
       <c r="J87" t="n">
-        <v>0.005619554237316568</v>
+        <v>0.00564118644066739</v>
       </c>
     </row>
     <row r="88">
@@ -4045,11 +4045,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[0.3405577838420868, 0.6399424076080322, 0.4745835065841675, 0.30426546931266785, 0.3837204575538635, 0.5279109477996826, 0.3713482916355133, 0.31956708431243896, 0.3612504303455353, 0.5291832685470581, 0.395944207906723, 0.2724892795085907, 0.23709844052791595, 0.1923178732395172, 0.13149070739746094, 0.14698950946331024, 0.13399654626846313, 0.18993283808231354, 0.07165080308914185, 0.08417563140392303, 0.16617731750011444, 0.20880623161792755, 0.22138911485671997, 0.26677319407463074, 0.21797482669353485, 0.09980688989162445, 0.20986182987689972, 0.16728270053863525, 0.09441069513559341, 0.07875760644674301, 0.1964961737394333, 0.1567743569612503, 0.3057115972042084, 0.24074219167232513, 0.2313152700662613, 0.36326080560684204, 0.31385427713394165, 0.45506078004837036, 0.5196059346199036, 0.27914807200431824, 0.2050734907388687, 0.13649417459964752, 0.12623146176338196, 0.15559980273246765, 0.2899853587150574, 0.36154982447624207, 0.34351933002471924, 0.25463366508483887, 0.23212483525276184, 0.482563853263855, 0.5708208680152893, 0.5776842832565308, 0.3012140095233917, 0.27890732884407043, 0.5252427458763123, 0.44134077429771423, 0.34703516960144043, 0.27677610516548157, 0.32828259468078613, 0.1384296864271164, 0.10295098274946213, 0.09065251797437668, 0.1037272959947586, 0.08378250151872635, 0.3707613945007324, 0.24292106926441193, 0.49727582931518555, 0.17338253557682037, 0.22654883563518524, 0.13567566871643066, 0.321776807308197, 0.11955101788043976, 0.13828280568122864, 0.17857322096824646, 0.15589867532253265, 0.12844318151474, 0.14526358246803284, 0.11687071621417999, 0.12205544114112854, 0.1121259406208992, 0.12576264142990112, 0.11769601702690125, 0.13970743119716644, 0.09264793246984482, 0.14495590329170227, 0.3863774240016937, 0.29810193181037903, 0.21359601616859436, 0.23111049830913544, 0.1245584487915039, 0.20077303051948547, 0.170188769698143, 0.12096162140369415, 0.11913236975669861, 0.07219678163528442, 0.10454526543617249, 0.09055519849061966, 0.09152055531740189, 0.26558834314346313, 0.38943883776664734, 0.24313539266586304, 0.1525154709815979, 0.27204060554504395, 0.32241564989089966, 0.315110445022583, 0.4605095684528351, 0.415525883436203, 0.3121627867221832, 0.22895531356334686, 0.19650670886039734, 0.2707635760307312, 0.4308266341686249, 0.3598456382751465, 0.12066031992435455, 0.18001125752925873, 0.5761545300483704, 0.30757156014442444, 0.30778199434280396]</t>
+          <t>[0.4438275694847107, 0.811976969242096, 0.6213058233261108, 0.4870906472206116, 0.7336254715919495, 0.6530666351318359, 0.40227073431015015, 0.43981555104255676, 0.5050394535064697, 0.6931169629096985, 0.45611172914505005, 0.3389664590358734, 0.30919942259788513, 0.2605542838573456, 0.19854244589805603, 0.19197486340999603, 0.1830054223537445, 0.1970413625240326, 0.08044186979532242, 0.09084046632051468, 0.25700661540031433, 0.31148961186408997, 0.28663110733032227, 0.3748118281364441, 0.2837795317173004, 0.14196357131004333, 0.300420343875885, 0.20310169458389282, 0.10377201437950134, 0.09696214646100998, 0.3035939037799835, 0.25811293721199036, 0.5273887515068054, 0.3718458116054535, 0.3346657454967499, 0.6092098951339722, 0.6310846209526062, 0.6398038864135742, 0.7335537075996399, 0.404256671667099, 0.23507791757583618, 0.1852494180202484, 0.14767315983772278, 0.21019716560840607, 0.43187832832336426, 0.5681531429290771, 0.6489524245262146, 0.38344722986221313, 0.4147920310497284, 0.8117042779922485, 0.8761493563652039, 0.7538381814956665, 0.47462043166160583, 0.43722233176231384, 0.8216642141342163, 0.6824221014976501, 0.6526833772659302, 0.3964400291442871, 0.4820604920387268, 0.23540014028549194, 0.18972016870975494, 0.11061921715736389, 0.13673797249794006, 0.13452059030532837, 0.45618563890457153, 0.3052469789981842, 0.6868094205856323, 0.25680261850357056, 0.4107241630554199, 0.16787037253379822, 0.4758497476577759, 0.1615375280380249, 0.17179377377033234, 0.2426908165216446, 0.2817889451980591, 0.21827799081802368, 0.23609085381031036, 0.21937178075313568, 0.14283119142055511, 0.15204501152038574, 0.13882943987846375, 0.13124307990074158, 0.13589869439601898, 0.09973825514316559, 0.17145909368991852, 0.551717221736908, 0.3841913342475891, 0.2988928556442261, 0.37485605478286743, 0.20309831202030182, 0.3247305154800415, 0.35075944662094116, 0.2067633718252182, 0.17357011139392853, 0.09253644943237305, 0.11650358140468597, 0.12331757694482803, 0.11613500118255615, 0.3709758520126343, 0.6375560760498047, 0.3860199451446533, 0.221236914396286, 0.47090551257133484, 0.5426416993141174, 0.4912812411785126, 0.5961059927940369, 0.6401482820510864, 0.46604734659194946, 0.39686962962150574, 0.3463667631149292, 0.5561714768409729, 0.7480039000511169, 0.6158820390701294, 0.1866476982831955, 0.31154879927635193, 0.7541784644126892, 0.4836289882659912, 0.48482799530029297]</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.6399424076080322</v>
+        <v>0.8761493563652039</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0.6714756999863312</v>
+        <v>0.6729254999954719</v>
       </c>
       <c r="J88" t="n">
-        <v>0.005690472033782468</v>
+        <v>0.005702758474537897</v>
       </c>
     </row>
     <row r="89">
@@ -4085,11 +4085,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>[0.9741503000259399, 0.9177267551422119, 0.7700971961021423, 0.7961132526397705, 0.7006368041038513, 0.5548794865608215, 0.42309561371803284, 0.3507949709892273, 0.7763045430183411, 0.7028385996818542, 0.7387670874595642, 0.5034424066543579, 0.6566545367240906, 0.8749386072158813, 0.7404980063438416, 0.728513240814209, 0.6838289499282837, 0.6700383424758911, 0.43726295232772827, 0.24314235150814056, 0.28563034534454346, 0.3169591724872589, 0.48147180676460266, 0.3923395872116089, 0.8566598892211914, 0.5178501605987549, 0.344950795173645, 0.392213374376297, 0.47164270281791687, 0.7625131607055664, 0.8619950413703918, 0.9182158708572388, 0.9674614667892456, 0.9105880856513977, 0.9127182364463806, 0.652273416519165, 0.9495176076889038, 0.969838559627533, 0.903511106967926, 0.995389461517334, 0.9962460398674011, 0.9964751601219177, 0.8887638449668884, 0.9046280980110168, 0.5505238175392151, 0.9260938167572021, 0.8610367774963379, 0.9293261170387268, 0.7714329361915588, 0.9140193462371826, 0.8519601821899414, 0.8581942915916443, 0.7161895632743835, 0.5864512920379639, 0.3001801073551178, 0.2217564880847931, 0.567247211933136, 0.509139895439148, 0.5553220510482788, 0.8123265504837036, 0.856609582901001, 0.9890097975730896, 0.9888652563095093, 0.9188536405563354, 0.6623592376708984, 0.8557685613632202, 0.8803130984306335, 0.955454409122467, 0.9781802892684937, 0.976382315158844, 0.9827905893325806, 0.9830535054206848, 0.9837489128112793, 0.9904326796531677, 0.9925721287727356, 0.9589062929153442, 0.8529495596885681, 0.9825608134269714, 0.9874916076660156, 0.7837019562721252, 0.7408523559570312, 0.991006076335907, 0.9922243356704712, 0.9950748085975647, 0.9926365613937378, 0.9936153888702393, 0.9819203019142151, 0.8672164082527161, 0.5839194655418396, 0.9416801333427429, 0.9733026027679443, 0.9923743605613708, 0.7492110133171082, 0.6600233316421509, 0.5672513842582703, 0.8757556676864624, 0.7371945977210999, 0.7243583798408508, 0.5754931569099426, 0.636845588684082, 0.42185261845588684, 0.35055187344551086, 0.43742063641548157, 0.37520819902420044, 0.342506468296051, 0.36537811160087585, 0.33268943428993225, 0.37388139963150024, 0.8352495431900024, 0.6234821081161499, 0.815108597278595, 0.9088770747184753, 0.6195191740989685, 0.6813774108886719, 0.4107040464878082, 0.6843186616897583, 0.8000693321228027, 0.7989147901535034]</t>
+          <t>[0.9947754144668579, 0.986984133720398, 0.8810818791389465, 0.9187858700752258, 0.8530687689781189, 0.8241346478462219, 0.6220428943634033, 0.5260913968086243, 0.938559889793396, 0.8087269067764282, 0.8812074065208435, 0.5752102732658386, 0.7268156409263611, 0.8941022753715515, 0.8380505442619324, 0.8785601258277893, 0.9029344916343689, 0.877068281173706, 0.6263056993484497, 0.43004968762397766, 0.5019785761833191, 0.6743839383125305, 0.7639010548591614, 0.7408318519592285, 0.9635449647903442, 0.6685041785240173, 0.3665747344493866, 0.40557846426963806, 0.4248639643192291, 0.7886895537376404, 0.8652117848396301, 0.9392425417900085, 0.9880998134613037, 0.9570196270942688, 0.9540538191795349, 0.7928613424301147, 0.9888478517532349, 0.9921154379844666, 0.966955840587616, 0.9986521601676941, 0.9987070560455322, 0.9987969398498535, 0.9112638235092163, 0.9469684362411499, 0.6761065125465393, 0.9631420373916626, 0.9263855218887329, 0.9658448696136475, 0.8113927245140076, 0.9590403437614441, 0.8461103439331055, 0.8741987347602844, 0.7984468340873718, 0.5427279472351074, 0.2557922899723053, 0.20307059586048126, 0.6543428301811218, 0.4873586893081665, 0.6960834264755249, 0.9142964482307434, 0.9605844020843506, 0.9968969821929932, 0.9973922967910767, 0.968458354473114, 0.763058602809906, 0.9385182857513428, 0.9276911020278931, 0.9789992570877075, 0.9921811819076538, 0.9897512197494507, 0.994726836681366, 0.9958328604698181, 0.9953304529190063, 0.9978603720664978, 0.9976028800010681, 0.9780712723731995, 0.9331342577934265, 0.9965922236442566, 0.9972450733184814, 0.8647735714912415, 0.8453807234764099, 0.9965623021125793, 0.9968888163566589, 0.9979709982872009, 0.9961947202682495, 0.9972246885299683, 0.9904256463050842, 0.9458832144737244, 0.6721444725990295, 0.9833400249481201, 0.9903085827827454, 0.9972187280654907, 0.838699460029602, 0.670947253704071, 0.5358364582061768, 0.9320775270462036, 0.7240670919418335, 0.6930376291275024, 0.5414797067642212, 0.6382468342781067, 0.4480603337287903, 0.4385600686073303, 0.3948698341846466, 0.38035348057746887, 0.42361244559288025, 0.37243565917015076, 0.28190574049949646, 0.3452712893486023, 0.8303648233413696, 0.5484629273414612, 0.8403173089027405, 0.9463673830032349, 0.5660226941108704, 0.6681517958641052, 0.38560137152671814, 0.7431458830833435, 0.9037139415740967, 0.90310138463974]</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.9964751601219177</v>
+        <v>0.9987969398498535</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -4103,10 +4103,10 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0.6689107999845874</v>
+        <v>0.6640908999979729</v>
       </c>
       <c r="J89" t="n">
-        <v>0.005668735593089723</v>
+        <v>0.005627888983033669</v>
       </c>
     </row>
     <row r="90">
@@ -4125,11 +4125,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[0.44380292296409607, 0.33362075686454773, 0.4151076376438141, 0.4363026022911072, 0.3318403661251068, 0.957124650478363, 0.8964212536811829, 0.8070335984230042, 0.9131839275360107, 0.9195336699485779, 0.9858690500259399, 0.9898833632469177, 0.9469568729400635, 0.9258405566215515, 0.9713156223297119, 0.9932998418807983, 0.9954428672790527, 0.9764636754989624, 0.9917546510696411, 0.9323083758354187, 0.9251658320426941, 0.933002233505249, 0.7890699505805969, 0.42155322432518005, 0.25182202458381653, 0.4798406958580017, 0.5186501741409302, 0.5085810422897339, 0.49374762177467346, 0.5620670318603516, 0.4483206868171692, 0.5329037308692932, 0.8432401418685913, 0.826106071472168, 0.547120213508606, 0.42011842131614685, 0.3842993974685669, 0.8078823685646057, 0.9731873273849487, 0.9616904258728027, 0.9152591228485107, 0.4137051999568939, 0.2900061011314392, 0.5383699536323547, 0.6026633381843567, 0.8629251718521118, 0.5852642059326172, 0.6591698527336121, 0.5933785438537598, 0.6374838352203369, 0.7606926560401917, 0.8425056338310242, 0.5178801417350769, 0.42660772800445557, 0.3628331422805786, 0.30957791209220886, 0.41257205605506897, 0.980652928352356, 0.9794716835021973, 0.9861213564872742, 0.7672339081764221, 0.5057376027107239, 0.6356545090675354, 0.5090346932411194, 0.8315414786338806, 0.9070472717285156, 0.9064933657646179, 0.8442672491073608, 0.624426007270813, 0.6964765787124634, 0.5915423035621643, 0.8649289011955261, 0.6171677112579346, 0.8435021638870239, 0.8277944922447205, 0.7617306113243103, 0.7066795229911804, 0.42773112654685974, 0.4960637390613556, 0.48456573486328125, 0.5373398661613464, 0.5943877696990967, 0.40914684534072876, 0.9537699818611145, 0.7676607966423035, 0.8050501346588135, 0.7121564745903015, 0.45680034160614014, 0.20658405125141144, 0.30628687143325806, 0.35477977991104126, 0.4666145443916321, 0.48866891860961914, 0.5395647883415222, 0.7177197933197021, 0.7511924505233765, 0.6418333649635315, 0.759536623954773, 0.5768900513648987, 0.8648404479026794, 0.7551239132881165, 0.6125463843345642, 0.589694082736969, 0.33970752358436584, 0.2952355444431305, 0.3621671795845032, 0.45831677317619324, 0.5834892392158508, 0.8086588382720947, 0.8502936959266663, 0.6775566339492798, 0.5240930318832397, 0.531239926815033, 0.677352249622345, 0.7577341198921204, 0.7553292512893677, 0.4644762873649597, 0.4630149304866791]</t>
+          <t>[0.3831150233745575, 0.2553516924381256, 0.3197305202484131, 0.3816971480846405, 0.2528071999549866, 0.9894943833351135, 0.9755573868751526, 0.897367000579834, 0.9714151620864868, 0.9784730672836304, 0.9958720803260803, 0.997257649898529, 0.9861719012260437, 0.982244074344635, 0.9940430521965027, 0.997980535030365, 0.9986956715583801, 0.9938255548477173, 0.9978679418563843, 0.9823030829429626, 0.981496274471283, 0.9717864394187927, 0.7985368967056274, 0.36973363161087036, 0.2379433810710907, 0.5561214685440063, 0.5719744563102722, 0.4775641858577728, 0.44786450266838074, 0.6138572692871094, 0.4811337888240814, 0.7582383155822754, 0.947665274143219, 0.9607520699501038, 0.5917323231697083, 0.3229452967643738, 0.2794991731643677, 0.9087607860565186, 0.9927950501441956, 0.9919573068618774, 0.9757353067398071, 0.40994638204574585, 0.19657394289970398, 0.4366219937801361, 0.4962799549102783, 0.855586588382721, 0.5050943493843079, 0.6738921403884888, 0.553178071975708, 0.6460824012756348, 0.8163352012634277, 0.9202112555503845, 0.6042606234550476, 0.40195029973983765, 0.31573519110679626, 0.25461670756340027, 0.3988986313343048, 0.993823766708374, 0.990228533744812, 0.9948175549507141, 0.8258253931999207, 0.5031755566596985, 0.5782193541526794, 0.4611556828022003, 0.8535138368606567, 0.9742966294288635, 0.9684023261070251, 0.9338138699531555, 0.6958702206611633, 0.854442834854126, 0.7254498600959778, 0.9366704821586609, 0.7621653079986572, 0.9029987454414368, 0.9142882227897644, 0.8300796151161194, 0.7234988808631897, 0.4321824610233307, 0.47427141666412354, 0.42620155215263367, 0.5160040855407715, 0.5990270972251892, 0.41587314009666443, 0.9885641932487488, 0.8710403442382812, 0.8725109100341797, 0.7978066802024841, 0.4506359398365021, 0.14926475286483765, 0.23438143730163574, 0.3299277722835541, 0.4822829067707062, 0.4438442289829254, 0.5030397176742554, 0.7458518147468567, 0.7777224779129028, 0.6418917179107666, 0.7767359614372253, 0.4922805428504944, 0.9421464204788208, 0.8522610664367676, 0.5832329392433167, 0.5768342018127441, 0.26735031604766846, 0.24058331549167633, 0.33735278248786926, 0.4115699231624603, 0.6262277960777283, 0.9272792935371399, 0.9328314661979675, 0.7884001135826111, 0.6175587177276611, 0.5941146016120911, 0.7285839915275574, 0.8892647624015808, 0.8666535019874573, 0.5927082300186157, 0.5920019745826721]</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.9954428672790527</v>
+        <v>0.9986956715583801</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -4143,10 +4143,10 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0.6692964999820106</v>
+        <v>0.6716689000022598</v>
       </c>
       <c r="J90" t="n">
-        <v>0.005672004237135683</v>
+        <v>0.005692109322053049</v>
       </c>
     </row>
     <row r="91">
@@ -4165,11 +4165,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>[0.9803563356399536, 0.7506613731384277, 0.3956933915615082, 0.21888872981071472, 0.3545275628566742, 0.1766359508037567, 0.22385114431381226, 0.3358740210533142, 0.356523334980011, 0.44923755526542664, 0.4672381281852722, 0.5119836330413818, 0.5191875100135803, 0.595487654209137, 0.3956899046897888, 0.30452099442481995, 0.4904475808143616, 0.3194485902786255, 0.324924111366272, 0.32830241322517395, 0.31831440329551697, 0.3148117959499359, 0.25616133213043213, 0.27172183990478516, 0.1875067800283432, 0.2452271431684494, 0.29148223996162415, 0.18069590628147125, 0.11992151290178299, 0.23891213536262512, 0.13290366530418396, 0.3120477497577667, 0.1857498437166214, 0.12192387133836746, 0.2320997416973114, 0.10621938854455948, 0.19912023842334747, 0.07970944046974182, 0.08672477304935455, 0.09867008775472641, 0.13126124441623688, 0.0834653377532959, 0.07432399690151215, 0.12509824335575104, 0.12483140826225281, 0.10596013814210892, 0.19964291155338287, 0.12134672701358795, 0.07832334190607071, 0.07003325968980789, 0.11094215512275696, 0.08620510250329971, 0.06572148203849792, 0.09704187512397766, 0.15859581530094147, 0.17750640213489532, 0.05787351354956627, 0.04369371384382248, 0.09090038388967514, 0.1568794548511505, 0.12487504631280899, 0.06438889354467392, 0.05036531388759613, 0.18962255120277405, 0.28946200013160706, 0.25677523016929626, 0.2945552170276642, 0.11942396312952042, 0.18760626018047333, 0.0985235869884491, 0.14004479348659515, 0.15470166504383087, 0.13546913862228394, 0.10537496954202652, 0.11002697795629501, 0.09244135767221451, 0.12258955836296082, 0.19886194169521332, 0.26149407029151917, 0.3620816469192505, 0.21509581804275513, 0.20816706120967865, 0.31716862320899963, 0.320061594247818, 0.17224721610546112, 0.19504345953464508, 0.17018143832683563, 0.12215401232242584, 0.10685435682535172, 0.09132019430398941, 0.09090573340654373, 0.08754515647888184, 0.09939403831958771, 0.12369430810213089, 0.06885674595832825, 0.05675844848155975, 0.0845114216208458, 0.10337208956480026, 0.16415099799633026, 0.11655131727457047, 0.08091039955615997, 0.167461559176445, 0.21618469059467316, 0.41450637578964233, 0.13232867419719696, 0.09030026942491531, 0.10055071115493774, 0.11672989279031754, 0.18320995569229126, 0.18412819504737854, 0.14967644214630127, 0.10955843329429626, 0.17960092425346375, 0.2621815800666809, 0.14694805443286896, 0.07676395773887634, 0.08801233023405075, 0.1541949212551117, 0.19689880311489105, 0.14318104088306427, 0.12083589285612106, 0.13121522963047028, 0.13716672360897064, 0.11783824115991592, 0.3755159080028534, 0.3588804304599762, 0.17610828578472137, 0.1869041919708252, 0.17762476205825806, 0.21244996786117554, 0.1844441443681717, 0.18560785055160522]</t>
+          <t>[0.9944145679473877, 0.8215091824531555, 0.45926666259765625, 0.2000601440668106, 0.3444303572177887, 0.1305474191904068, 0.19154711067676544, 0.36193954944610596, 0.3266333043575287, 0.5579439997673035, 0.6427335739135742, 0.7218968272209167, 0.7433032989501953, 0.7827783226966858, 0.37841686606407166, 0.39597073197364807, 0.741732120513916, 0.4252111613750458, 0.37633171677589417, 0.3999311327934265, 0.3690793514251709, 0.31022077798843384, 0.20529547333717346, 0.23682747781276703, 0.16735324263572693, 0.3334677815437317, 0.3459837734699249, 0.20745372772216797, 0.11316823959350586, 0.3754769563674927, 0.1560879349708557, 0.4973655641078949, 0.2529081404209137, 0.16178524494171143, 0.3180379867553711, 0.12379861623048782, 0.3293294608592987, 0.10267432779073715, 0.1035834327340126, 0.06841342896223068, 0.10339467227458954, 0.04665570333600044, 0.045444559305906296, 0.061445098370313644, 0.07387387007474899, 0.061795685440301895, 0.20662592351436615, 0.08746392279863358, 0.04286841303110123, 0.0409247949719429, 0.06522387266159058, 0.04616566002368927, 0.03158784657716751, 0.050418224185705185, 0.10978739708662033, 0.12043344974517822, 0.024937262758612633, 0.033507395535707474, 0.07562162727117538, 0.1804480403661728, 0.085152268409729, 0.04711490124464035, 0.0286452267318964, 0.2524707317352295, 0.4807080924510956, 0.3366403579711914, 0.4094139635562897, 0.17980720102787018, 0.22555328905582428, 0.08675181865692139, 0.09984138607978821, 0.16958485543727875, 0.1292290836572647, 0.09305566549301147, 0.12243123352527618, 0.08436106145381927, 0.11589132994413376, 0.24198240041732788, 0.3547881841659546, 0.5440226793289185, 0.2998320460319519, 0.276936799287796, 0.37316077947616577, 0.501335859298706, 0.2778206467628479, 0.36188608407974243, 0.28322985768318176, 0.17049741744995117, 0.1036858782172203, 0.058580540120601654, 0.060046322643756866, 0.05011716112494469, 0.07628811150789261, 0.12711593508720398, 0.059184785932302475, 0.04949478805065155, 0.10936081409454346, 0.11946052312850952, 0.24389156699180603, 0.15994533896446228, 0.07390054315328598, 0.22930113971233368, 0.3051599860191345, 0.5919546484947205, 0.1369854211807251, 0.06855442374944687, 0.07114039361476898, 0.09749908000230789, 0.21791434288024902, 0.1886138767004013, 0.12988361716270447, 0.11230427026748657, 0.15770933032035828, 0.2607404887676239, 0.1350141316652298, 0.05927537381649017, 0.06931694597005844, 0.11272753775119781, 0.14868436753749847, 0.14112836122512817, 0.10145153105258942, 0.08829571306705475, 0.11248146742582321, 0.13168001174926758, 0.5474622249603271, 0.5459974408149719, 0.19177138805389404, 0.13786166906356812, 0.139186292886734, 0.18568620085716248, 0.1749253123998642, 0.1765490472316742]</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.9803563356399536</v>
+        <v>0.9944145679473877</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0.7409055999887642</v>
+        <v>0.7678576000034809</v>
       </c>
       <c r="J91" t="n">
-        <v>0.005612921212036092</v>
+        <v>0.005817103030329401</v>
       </c>
     </row>
     <row r="92">
@@ -4205,11 +4205,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[0.22646751999855042, 0.2296653389930725, 0.10978657007217407, 0.09195507317781448, 0.1679525524377823, 0.2092084139585495, 0.11601226031780243, 0.18304164707660675, 0.12698008120059967, 0.06751468777656555, 0.11755646020174026, 0.15117157995700836, 0.299450159072876, 0.19564318656921387, 0.2425156682729721, 0.4370918273925781, 0.973491907119751, 0.9915242195129395, 0.9762886762619019, 0.9612184166908264, 0.9945520758628845, 0.9890150427818298, 0.9940933585166931, 0.9944368600845337, 0.9954782128334045, 0.9961548447608948, 0.9940840601921082, 0.9928345680236816, 0.9960477948188782, 0.9956794381141663, 0.9971576929092407, 0.995866060256958, 0.8543883562088013, 0.5538539886474609, 0.29011645913124084, 0.32467707991600037, 0.2568257749080658, 0.5785941481590271, 0.2610146105289459, 0.36041194200515747, 0.37308794260025024, 0.19437485933303833, 0.17539064586162567, 0.3948821425437927, 0.2814567983150482, 0.5328820943832397, 0.47252288460731506, 0.3022991418838501, 0.2220005840063095, 0.17897525429725647, 0.2424038201570511, 0.22492758929729462, 0.3590310513973236, 0.3829673230648041, 0.5815122723579407, 0.7724981904029846, 0.3652195334434509, 0.4221374988555908, 0.9138820171356201, 0.8611196875572205, 0.9879849553108215, 0.9800255298614502, 0.9867618083953857, 0.9863828420639038, 0.9956837892532349, 0.9968295693397522, 0.9964854717254639, 0.99455726146698, 0.9494085907936096, 0.7383262515068054, 0.43682077527046204, 0.5859419703483582, 0.5269758105278015, 0.38970187306404114, 0.5035240650177002, 0.4481719434261322, 0.36325615644454956, 0.31424880027770996, 0.4713984429836273, 0.3302689790725708, 0.24800890684127808, 0.39592158794403076, 0.33738449215888977, 0.6329233646392822, 0.9358628988265991, 0.954206109046936, 0.9179369211196899, 0.9891364574432373, 0.9879066944122314, 0.9831829071044922, 0.9747762680053711, 0.9736965298652649, 0.9775502681732178, 0.9607709050178528, 0.9816644191741943, 0.961294412612915, 0.9487802386283875, 0.8028787970542908, 0.6729429364204407, 0.7141480445861816, 0.8586395382881165, 0.9815765023231506, 0.9885475635528564, 0.9875999689102173, 0.990196943283081, 0.9280332922935486, 0.4462129771709442, 0.3153107166290283, 0.19612224400043488, 0.2523035407066345, 0.2577560842037201, 0.28231146931648254, 0.3631851077079773, 0.214132159948349, 0.2650355100631714, 0.3367207646369934, 0.16151797771453857, 0.17202258110046387, 0.27603113651275635, 0.16843926906585693, 0.1525193303823471, 0.15492463111877441, 0.1768679916858673, 0.1864013522863388, 0.20180314779281616, 0.13304413855075836, 0.23477797210216522, 0.7731108069419861, 0.9954291582107544, 0.9838694930076599, 0.9691251516342163, 0.9691638946533203]</t>
+          <t>[0.3430290222167969, 0.3537052571773529, 0.10575440526008606, 0.10394006222486496, 0.24182303249835968, 0.334882915019989, 0.09946281462907791, 0.16270795464515686, 0.11721957474946976, 0.0298091359436512, 0.06538281589746475, 0.11276744306087494, 0.34691664576530457, 0.19473685324192047, 0.2677951157093048, 0.7464399337768555, 0.9968075752258301, 0.9980148077011108, 0.9962257146835327, 0.9954759478569031, 0.9987056255340576, 0.9973606467247009, 0.9987192153930664, 0.9986869692802429, 0.998802661895752, 0.9988918900489807, 0.9982319474220276, 0.9976982474327087, 0.9987151622772217, 0.9987571239471436, 0.999309778213501, 0.99886155128479, 0.9840229749679565, 0.8846887350082397, 0.5674883127212524, 0.5651918649673462, 0.3610895872116089, 0.8465452194213867, 0.465049684047699, 0.6308389902114868, 0.5308454632759094, 0.2362333983182907, 0.19141502678394318, 0.6783685684204102, 0.4197257161140442, 0.7258111834526062, 0.7258725166320801, 0.4326987564563751, 0.20314998924732208, 0.1569531261920929, 0.22983069717884064, 0.18372169137001038, 0.5350320935249329, 0.542357861995697, 0.8314197659492493, 0.9696041941642761, 0.7103785872459412, 0.8230578303337097, 0.9882258176803589, 0.9848345518112183, 0.9974446296691895, 0.9958016276359558, 0.9972133040428162, 0.9953371286392212, 0.9988027811050415, 0.9989553689956665, 0.9990096092224121, 0.9988148212432861, 0.9939329028129578, 0.9619536399841309, 0.7052117586135864, 0.9137415289878845, 0.8590351343154907, 0.6776220798492432, 0.8354954123497009, 0.7932136654853821, 0.6016649007797241, 0.4975569248199463, 0.7497326731681824, 0.4152343273162842, 0.30404332280158997, 0.6087450385093689, 0.4308948516845703, 0.9074998497962952, 0.9846397638320923, 0.9908128380775452, 0.9879943132400513, 0.9960979223251343, 0.996069073677063, 0.9944760203361511, 0.991597592830658, 0.9918925762176514, 0.9929530024528503, 0.9895012974739075, 0.9961723685264587, 0.9952601790428162, 0.993656575679779, 0.979935884475708, 0.9464241862297058, 0.9236719012260437, 0.9638705849647522, 0.9966907501220703, 0.9980681538581848, 0.9975048899650574, 0.9969925880432129, 0.9861447811126709, 0.7494493722915649, 0.4572429358959198, 0.2300082892179489, 0.2787269353866577, 0.2425394207239151, 0.3326006829738617, 0.5373972058296204, 0.22030100226402283, 0.2491951435804367, 0.36381128430366516, 0.1729852706193924, 0.14086417853832245, 0.3010329008102417, 0.11151491105556488, 0.08650606125593185, 0.08432526141405106, 0.10554651916027069, 0.11766834557056427, 0.12819430232048035, 0.09155122190713882, 0.447112500667572, 0.9628797173500061, 0.9991207718849182, 0.9962111711502075, 0.9941779375076294, 0.9942033886909485]</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.9971576929092407</v>
+        <v>0.999309778213501</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -4223,10 +4223,10 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0.7289269000175409</v>
+        <v>0.7454798000107985</v>
       </c>
       <c r="J92" t="n">
-        <v>0.00552217348498137</v>
+        <v>0.005647574242506049</v>
       </c>
     </row>
     <row r="93">
@@ -4245,11 +4245,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[0.158019557595253, 0.1702493131160736, 0.23438295722007751, 0.17718301713466644, 0.17175695300102234, 0.2092621922492981, 0.25770479440689087, 0.2662193179130554, 0.14937932789325714, 0.1560792326927185, 0.2272348403930664, 0.3276316821575165, 0.51577228307724, 0.4874517619609833, 0.946386992931366, 0.8282246589660645, 0.9442304968833923, 0.95332270860672, 0.3473132252693176, 0.4941093623638153, 0.24831223487854004, 0.22714151442050934, 0.22923679649829865, 0.2733292877674103, 0.359775573015213, 0.2208205610513687, 0.3764359652996063, 0.518670916557312, 0.4872017800807953, 0.42023777961730957, 0.4097820222377777, 0.3120899498462677, 0.960210919380188, 0.9930254220962524, 0.9895377159118652, 0.9477667808532715, 0.6363433599472046, 0.43096163868904114, 0.41637930274009705, 0.5828477144241333, 0.7970383167266846, 0.739163875579834, 0.6340287923812866, 0.7885643243789673, 0.7508670091629028, 0.7726690173149109, 0.5919811129570007, 0.45349881052970886, 0.46207195520401, 0.3251609802246094, 0.40867042541503906, 0.4591618478298187, 0.8957512974739075, 0.9914453029632568, 0.9927080273628235, 0.9930516481399536, 0.9946770668029785, 0.9942756295204163, 0.9952521324157715, 0.9963045120239258, 0.9971017241477966, 0.9968587160110474, 0.9929680228233337, 0.992813766002655, 0.9838935136795044, 0.9507974982261658, 0.5822468400001526, 0.37976643443107605, 0.33939889073371887, 0.38210809230804443, 0.40281760692596436, 0.4185703694820404, 0.4712510406970978, 0.37880516052246094, 0.45238447189331055, 0.42156466841697693, 0.41850927472114563, 0.468207448720932, 0.42097166180610657, 0.5652248859405518, 0.37097564339637756, 0.464645117521286, 0.27151572704315186, 0.2648884356021881, 0.22855453193187714, 0.40589457750320435, 0.3456115126609802, 0.3560721278190613, 0.24038617312908173, 0.34720736742019653, 0.33111506700515747, 0.30627721548080444, 0.3837449848651886, 0.7531414031982422, 0.8273630738258362, 0.8227059841156006, 0.6123850345611572, 0.7059810757637024, 0.9013538360595703, 0.7806730270385742, 0.782515823841095, 0.9914816617965698, 0.9950364232063293, 0.9893989562988281, 0.9944764971733093, 0.9906262159347534, 0.9816460013389587, 0.9912358522415161, 0.9858497381210327, 0.9069168567657471, 0.6632343530654907, 0.38621658086776733, 0.4036300778388977, 0.3352961838245392, 0.19257326424121857, 0.20595313608646393, 0.317335844039917, 0.39369523525238037, 0.28096824884414673, 0.24279119074344635, 0.19478949904441833, 0.23240478336811066, 0.26325613260269165, 0.2770402431488037, 0.7595809102058411, 0.966296374797821, 0.9778407216072083, 0.891602635383606, 0.46480318903923035, 0.22855347394943237, 0.1863187700510025, 0.18649576604366302]</t>
+          <t>[0.18994520604610443, 0.19417674839496613, 0.28639933466911316, 0.21191968023777008, 0.1623808741569519, 0.20878483355045319, 0.28040027618408203, 0.2882591485977173, 0.12538783252239227, 0.20091655850410461, 0.3654928207397461, 0.39869338274002075, 0.8020619750022888, 0.8027117848396301, 0.9879221320152283, 0.9530482888221741, 0.9792808890342712, 0.9703744053840637, 0.4779777526855469, 0.6944093704223633, 0.3007856607437134, 0.27743175625801086, 0.2866956889629364, 0.42871880531311035, 0.583390474319458, 0.3036979138851166, 0.5793562531471252, 0.7566481232643127, 0.6648365259170532, 0.5886810421943665, 0.5690321922302246, 0.5689719915390015, 0.9954254031181335, 0.9978984594345093, 0.9980879426002502, 0.9908779263496399, 0.8901182413101196, 0.6056627035140991, 0.6293112635612488, 0.7982641458511353, 0.9262872338294983, 0.9368898272514343, 0.868635892868042, 0.9402704834938049, 0.9454718232154846, 0.9602739214897156, 0.8738123178482056, 0.8065643310546875, 0.7498589754104614, 0.5617552399635315, 0.5650006532669067, 0.7930089235305786, 0.9852213263511658, 0.9974448680877686, 0.9984797835350037, 0.9986382126808167, 0.9988341927528381, 0.9988307356834412, 0.9987159967422485, 0.9989732503890991, 0.9992850422859192, 0.9991322159767151, 0.9977089166641235, 0.9972099661827087, 0.9953836798667908, 0.992111086845398, 0.9011045098304749, 0.636345386505127, 0.5763316750526428, 0.5360643267631531, 0.5698480606079102, 0.6569914817810059, 0.7713505029678345, 0.6562567949295044, 0.6707381010055542, 0.6186801195144653, 0.6104912757873535, 0.5901975631713867, 0.5251007676124573, 0.7876275181770325, 0.5932992100715637, 0.73194420337677, 0.5700252056121826, 0.45123937726020813, 0.3831813633441925, 0.5901646614074707, 0.5568014979362488, 0.552161455154419, 0.38730302453041077, 0.5019144415855408, 0.46369799971580505, 0.4395727515220642, 0.6037246584892273, 0.9463973641395569, 0.9484999775886536, 0.9511392712593079, 0.7887049913406372, 0.8783510327339172, 0.9630444049835205, 0.8687679767608643, 0.9278407096862793, 0.9974984526634216, 0.9983991980552673, 0.9956086277961731, 0.9984503984451294, 0.998157799243927, 0.9942806959152222, 0.9976180195808411, 0.9970815777778625, 0.9863597750663757, 0.9025321006774902, 0.563101589679718, 0.5453174710273743, 0.3931225538253784, 0.12922601401805878, 0.1533944457769394, 0.3413659334182739, 0.49849194288253784, 0.2990952134132385, 0.19209542870521545, 0.17191004753112793, 0.22065190970897675, 0.2340182065963745, 0.3036807179450989, 0.9576353430747986, 0.9950546026229858, 0.9943699240684509, 0.9775376319885254, 0.7980682849884033, 0.4047575891017914, 0.34920528531074524, 0.3492983877658844]</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.9971017241477966</v>
+        <v>0.9992850422859192</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0.7256580000102986</v>
+        <v>0.7355075000086799</v>
       </c>
       <c r="J93" t="n">
-        <v>0.00549740909098711</v>
+        <v>0.005572026515217272</v>
       </c>
     </row>
     <row r="94">
@@ -4285,11 +4285,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[0.3908754587173462, 0.523487389087677, 0.9392032027244568, 0.9861344695091248, 0.9844812154769897, 0.9776971340179443, 0.9877045154571533, 0.9821295142173767, 0.9776614308357239, 0.7152628898620605, 0.7065061330795288, 0.4202401638031006, 0.28171396255493164, 0.275168240070343, 0.25393256545066833, 0.3468039035797119, 0.5940759778022766, 0.661510169506073, 0.3797655403614044, 0.34376877546310425, 0.33729949593544006, 0.4941369295120239, 0.4016486406326294, 0.38996705412864685, 0.30841687321662903, 0.2505050003528595, 0.5595102310180664, 0.7632689476013184, 0.9880772829055786, 0.4243643283843994, 0.3234308958053589, 0.5100652575492859, 0.29807981848716736, 0.421122670173645, 0.5237908363342285, 0.6164289712905884, 0.5031448006629944, 0.813485324382782, 0.968468964099884, 0.9875012636184692, 0.9939191341400146, 0.9895790219306946, 0.3765307068824768, 0.29653242230415344, 0.3494494557380676, 0.3353663384914398, 0.2971588969230652, 0.24962155520915985, 0.13120943307876587, 0.1736888289451599, 0.24261686205863953, 0.34114891290664673, 0.32452642917633057, 0.18853577971458435, 0.23106203973293304, 0.22430026531219482, 0.21340055763721466, 0.20486371219158173, 0.3324378728866577, 0.6832463145256042, 0.9655170440673828, 0.9557756781578064, 0.9167731404304504, 0.3635168969631195, 0.214915469288826, 0.4482891857624054, 0.2061147540807724, 0.14548707008361816, 0.21468496322631836, 0.10803864896297455, 0.12653447687625885, 0.07985824346542358, 0.10171380639076233, 0.16506241261959076, 0.11001633107662201, 0.11690448224544525, 0.13193094730377197, 0.14645913243293762, 0.16378459334373474, 0.200025737285614, 0.3655318021774292, 0.1862293928861618, 0.15439487993717194, 0.9564647674560547, 0.12194330245256424, 0.09106312692165375, 0.12111049145460129, 0.12829196453094482, 0.19134992361068726, 0.07114090770483017, 0.13914190232753754, 0.12017043679952621, 0.08766141533851624, 0.21817918121814728, 0.23364099860191345, 0.12357708066701889, 0.25122737884521484, 0.8121038675308228, 0.9905253648757935, 0.8507694602012634, 0.21518036723136902, 0.1352153867483139, 0.12936171889305115, 0.12963572144508362, 0.13160359859466553, 0.1311923861503601, 0.13694413006305695, 0.13103735446929932, 0.11791498214006424, 0.1283256560564041, 0.13350176811218262, 0.13320666551589966, 0.13876815140247345, 0.141649529337883, 0.1269993782043457, 0.1306048184633255, 0.12939569354057312, 0.1254148781299591, 0.13083146512508392, 0.13321256637573242, 0.12780164182186127, 0.12186385691165924, 0.13274803757667542, 0.07150667905807495, 0.08737216889858246, 0.164484903216362, 0.1535191386938095, 0.8028114438056946, 0.26164108514785767, 0.14711995422840118, 0.059340644627809525, 0.059481240808963776]</t>
+          <t>[0.7318917512893677, 0.8746076822280884, 0.989835798740387, 0.9982403516769409, 0.9979707598686218, 0.9976295232772827, 0.9982839226722717, 0.9980968832969666, 0.997001588344574, 0.974511444568634, 0.9524275064468384, 0.7928990125656128, 0.5163629651069641, 0.45968300104141235, 0.3601830005645752, 0.5883749723434448, 0.842126727104187, 0.9330623149871826, 0.7253894209861755, 0.6196295619010925, 0.7054892778396606, 0.7938230037689209, 0.8094379901885986, 0.731947660446167, 0.6097209453582764, 0.5091047883033752, 0.8850048780441284, 0.9826110005378723, 0.997516393661499, 0.7103977203369141, 0.6115418672561646, 0.7598591446876526, 0.505497395992279, 0.6436862349510193, 0.8311052322387695, 0.9113144874572754, 0.7982559204101562, 0.9679529070854187, 0.9954869151115417, 0.9980484247207642, 0.9988571405410767, 0.9983479976654053, 0.8098262548446655, 0.6245961785316467, 0.7044034600257874, 0.7063301205635071, 0.6199151873588562, 0.4515361487865448, 0.18865619599819183, 0.2775431275367737, 0.34709522128105164, 0.6153644323348999, 0.5183539390563965, 0.19938679039478302, 0.31574729084968567, 0.26643604040145874, 0.3268933892250061, 0.3417570888996124, 0.5469771027565002, 0.9101699590682983, 0.9931163787841797, 0.9910333752632141, 0.9918816685676575, 0.8207440376281738, 0.33717748522758484, 0.8378037214279175, 0.3438919484615326, 0.17783324420452118, 0.30050238966941833, 0.1606842428445816, 0.24113960564136505, 0.08395704627037048, 0.1155504509806633, 0.22275258600711823, 0.13198231160640717, 0.08560848236083984, 0.07984883338212967, 0.14462248980998993, 0.14274664223194122, 0.19996865093708038, 0.5119408369064331, 0.21500730514526367, 0.11933143436908722, 0.9886853694915771, 0.15956607460975647, 0.09637589752674103, 0.1505456119775772, 0.13238972425460815, 0.21218997240066528, 0.04708506166934967, 0.16333989799022675, 0.12161651253700256, 0.05920332297682762, 0.22975286841392517, 0.2531934082508087, 0.13476502895355225, 0.2051069140434265, 0.9652243852615356, 0.9973925352096558, 0.9299466609954834, 0.2640138268470764, 0.08896337449550629, 0.0809168666601181, 0.07505742460489273, 0.07687803357839584, 0.07983984053134918, 0.08846688270568848, 0.07762022316455841, 0.07094123214483261, 0.07713145762681961, 0.08265228569507599, 0.08582881093025208, 0.08663859218358994, 0.08852869272232056, 0.07699193060398102, 0.0803212821483612, 0.07820730656385422, 0.07798781991004944, 0.08055596053600311, 0.08061373978853226, 0.07854967564344406, 0.0764593631029129, 0.10586310178041458, 0.05882611870765686, 0.09939058870077133, 0.16899901628494263, 0.17726100981235504, 0.8737534284591675, 0.31799551844596863, 0.23817864060401917, 0.032861072570085526, 0.032898176461458206]</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.9939191341400146</v>
+        <v>0.9988571405410767</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -4303,10 +4303,10 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0.7414351999759674</v>
+        <v>0.7332791999942856</v>
       </c>
       <c r="J94" t="n">
-        <v>0.005616933333151268</v>
+        <v>0.005555145454502163</v>
       </c>
     </row>
     <row r="95">
@@ -4325,11 +4325,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[0.4406815469264984, 0.17183871567249298, 0.2362734079360962, 0.3142257332801819, 0.33994805812835693, 0.3864893317222595, 0.6259795427322388, 0.9272103905677795, 0.7082765102386475, 0.5913246273994446, 0.7567191123962402, 0.8880202770233154, 0.7256577610969543, 0.2029658704996109, 0.20903728902339935, 0.2623341977596283, 0.27869153022766113, 0.17767369747161865, 0.19131994247436523, 0.1764468550682068, 0.2866569757461548, 0.18191862106323242, 0.18938080966472626, 0.19274185597896576, 0.144882470369339, 0.15253986418247223, 0.18714259564876556, 0.16454221308231354, 0.19759751856327057, 0.17267125844955444, 0.15591025352478027, 0.16396212577819824, 0.17579208314418793, 0.14111007750034332, 0.3043885827064514, 0.24641847610473633, 0.255820631980896, 0.2049098163843155, 0.14493319392204285, 0.1941794455051422, 0.3327551782131195, 0.2952488362789154, 0.45815566182136536, 0.985527515411377, 0.9857597947120667, 0.960281491279602, 0.20431311428546906, 0.20466557145118713, 0.1815926730632782, 0.17828205227851868, 0.17015044391155243, 0.12937454879283905, 0.2122361958026886, 0.18958818912506104, 0.18179838359355927, 0.21009095013141632, 0.2168196141719818, 0.22497010231018066, 0.24046829342842102, 0.3321405053138733, 0.45793774724006653, 0.2075703740119934, 0.2187783122062683, 0.23450510203838348, 0.31928750872612, 0.2808864116668701, 0.2796001136302948, 0.23054493963718414, 0.3506786525249481, 0.6226599216461182, 0.6226463317871094, 0.9234647750854492, 0.744381844997406, 0.7625922560691833, 0.558251678943634, 0.30426162481307983, 0.2217329889535904, 0.286810040473938, 0.3649274408817291, 0.5278606414794922, 0.2248014509677887, 0.11727942526340485, 0.12336227297782898, 0.0884028747677803, 0.09780693799257278, 0.12819847464561462, 0.08439549803733826, 0.11196303367614746, 0.18402796983718872, 0.1891738772392273, 0.16114139556884766, 0.127494677901268, 0.16010864078998566, 0.13530756533145905, 0.12071509659290314, 0.1895625740289688, 0.23115885257720947, 0.3818352520465851, 0.5247392058372498, 0.4831464886665344, 0.22060322761535645, 0.2739149332046509, 0.31637099385261536, 0.308207631111145, 0.21031516790390015, 0.27087485790252686, 0.20765182375907898, 0.2717427909374237, 0.5649580359458923, 0.59064781665802, 0.9946027398109436, 0.9918161034584045, 0.994175910949707, 0.9933485388755798, 0.9930045008659363, 0.9953010082244873, 0.9863816499710083, 0.9298902750015259, 0.22082369029521942, 0.3425106108188629, 0.40472978353500366, 0.3907426595687866, 0.21301177144050598, 0.6129554510116577, 0.27376440167427063, 0.8978660702705383, 0.7070250511169434, 0.4861651062965393, 0.2427523285150528, 0.2053428441286087, 0.18257053196430206, 0.18359744548797607]</t>
+          <t>[0.834228515625, 0.1865658462047577, 0.2854596972465515, 0.38087356090545654, 0.48203158378601074, 0.5311720967292786, 0.8005810379981995, 0.9811753630638123, 0.8926623463630676, 0.9174385070800781, 0.9562360048294067, 0.9739364385604858, 0.9088621735572815, 0.22271718084812164, 0.2068750411272049, 0.3087170720100403, 0.340274840593338, 0.15768979489803314, 0.18408726155757904, 0.16765405237674713, 0.35752901434898376, 0.1661880910396576, 0.17769525945186615, 0.23995880782604218, 0.1249992847442627, 0.14942140877246857, 0.1778598129749298, 0.13863982260227203, 0.22821147739887238, 0.18972769379615784, 0.14489281177520752, 0.17216862738132477, 0.14328499138355255, 0.09428324550390244, 0.2663155496120453, 0.2662287950515747, 0.22451119124889374, 0.1548210084438324, 0.09933958947658539, 0.303615927696228, 0.6531856060028076, 0.5383250713348389, 0.78482586145401, 0.9971164464950562, 0.9959279894828796, 0.9942200183868408, 0.25939056277275085, 0.29525917768478394, 0.1755315512418747, 0.12341074645519257, 0.14552728831768036, 0.12163979560136795, 0.26745498180389404, 0.22671060264110565, 0.1637633591890335, 0.26069557666778564, 0.31989210844039917, 0.28255727887153625, 0.3099706470966339, 0.4374937415122986, 0.598644495010376, 0.2649456858634949, 0.2741439640522003, 0.29673224687576294, 0.4301804006099701, 0.3799229562282562, 0.3488515615463257, 0.30601319670677185, 0.5199154615402222, 0.919156551361084, 0.9057577252388, 0.9872495532035828, 0.9552029967308044, 0.9593343138694763, 0.8753989934921265, 0.3869408071041107, 0.24292923510074615, 0.3100995421409607, 0.48257291316986084, 0.77963787317276, 0.35975179076194763, 0.09775730967521667, 0.07552217692136765, 0.05121490731835365, 0.08363599330186844, 0.10493559390306473, 0.051030389964580536, 0.0693320780992508, 0.17709197103977203, 0.16735699772834778, 0.20056559145450592, 0.15457026660442352, 0.20738285779953003, 0.10576499253511429, 0.08772566169500351, 0.22699780762195587, 0.2834780514240265, 0.5518425107002258, 0.737035870552063, 0.6990258693695068, 0.26912692189216614, 0.3298793435096741, 0.3887769877910614, 0.46368348598480225, 0.317182719707489, 0.3437497019767761, 0.23466356098651886, 0.44757503271102905, 0.8617970943450928, 0.8886271119117737, 0.9987984895706177, 0.9981372356414795, 0.9987157583236694, 0.998573899269104, 0.9981081485748291, 0.9989859461784363, 0.9950893521308899, 0.9813168048858643, 0.2129809558391571, 0.37649479508399963, 0.538917064666748, 0.5698584914207458, 0.16616156697273254, 0.8074849843978882, 0.557093620300293, 0.9761309623718262, 0.8769598007202148, 0.5568997263908386, 0.3404836356639862, 0.2601485848426819, 0.2455812394618988, 0.24781082570552826]</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.9953010082244873</v>
+        <v>0.9989859461784363</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0.7812357000075281</v>
+        <v>0.7621664000034798</v>
       </c>
       <c r="J95" t="n">
-        <v>0.005918452272784303</v>
+        <v>0.005773987878814241</v>
       </c>
     </row>
     <row r="96">
@@ -4365,11 +4365,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[0.15364758670330048, 0.18807151913642883, 0.20430506765842438, 0.2513992488384247, 0.28001508116722107, 0.29998472332954407, 0.28254127502441406, 0.4448562562465668, 0.35656461119651794, 0.233868807554245, 0.3988780081272125, 0.38817453384399414, 0.15894320607185364, 0.16953714191913605, 0.119866743683815, 0.2687792181968689, 0.19457828998565674, 0.4577624201774597, 0.352487176656723, 0.31848016381263733, 0.32019591331481934, 0.22464004158973694, 0.21860279142856598, 0.286499947309494, 0.1824648529291153, 0.16923213005065918, 0.08940571546554565, 0.11422188580036163, 0.10186178982257843, 0.10698481649160385, 0.15535689890384674, 0.11224419623613358, 0.1111658439040184, 0.0943680927157402, 0.09561581164598465, 0.0965738296508789, 0.0917356014251709, 0.06847797334194183, 0.07739055156707764, 0.07500386238098145, 0.0943528264760971, 0.12074846029281616, 0.12116677314043045, 0.07308867573738098, 0.1041586771607399, 0.11571694910526276, 0.06652648001909256, 0.06424073129892349, 0.055881157517433167, 0.09139750897884369, 0.1269858181476593, 0.0703248605132103, 0.10454629361629486, 0.07555034756660461, 0.0833287388086319, 0.07104506343603134, 0.1316075325012207, 0.1366826593875885, 0.07051049172878265, 0.1273690164089203, 0.15268969535827637, 0.2057163566350937, 0.07844957709312439, 0.2453535497188568, 0.25003495812416077, 0.21220315992832184, 0.17629319429397583, 0.25590699911117554, 0.20918618142604828, 0.1694849282503128, 0.16646380722522736, 0.18100376427173615, 0.1632254272699356, 0.07236175984144211, 0.1521981656551361, 0.178145170211792, 0.15302307903766632, 0.249741792678833, 0.12612386047840118, 0.15360203385353088, 0.09117502719163895, 0.09100347757339478, 0.18432386219501495, 0.187885120511055, 0.22325846552848816, 0.18861344456672668, 0.18673200905323029, 0.1506039798259735, 0.16990143060684204, 0.13097427785396576, 0.13545328378677368, 0.13292697072029114, 0.15501496195793152, 0.1301119178533554, 0.11837022006511688, 0.15343979001045227, 0.17573392391204834, 0.10089514404535294, 0.05984758585691452, 0.15062299370765686, 0.12554931640625, 0.2630080580711365, 0.19938349723815918, 0.12402214109897614, 0.12954261898994446, 0.19990168511867523, 0.23572541773319244, 0.2661793529987335, 0.24019484221935272, 0.18743181228637695, 0.14177531003952026, 0.14328227937221527, 0.2315608561038971, 0.27364909648895264, 0.26027458906173706, 0.21589170396327972, 0.28130653500556946, 0.2401421219110489, 0.24152423441410065, 0.14187315106391907, 0.27423301339149475, 0.28079524636268616, 0.5578135251998901, 0.5547682642936707, 0.49205541610717773, 0.12879578769207, 0.14054064452648163, 0.08390988409519196, 0.05195104703307152, 0.15073829889297485, 0.2510700523853302, 0.2531684935092926]</t>
+          <t>[0.09573696553707123, 0.16295646131038666, 0.16477277874946594, 0.32562533020973206, 0.47350025177001953, 0.4134896397590637, 0.4219837784767151, 0.6401524543762207, 0.4980193078517914, 0.25723379850387573, 0.69456547498703, 0.7046599984169006, 0.2155688852071762, 0.22837284207344055, 0.1772840917110443, 0.3087155818939209, 0.2523042857646942, 0.5186267495155334, 0.32071971893310547, 0.2980298697948456, 0.3103235960006714, 0.2524075210094452, 0.18001671135425568, 0.2972123324871063, 0.15119042992591858, 0.22034935653209686, 0.079999178647995, 0.0813351646065712, 0.05879064276814461, 0.059581298381090164, 0.16590245068073273, 0.07518026232719421, 0.0681932121515274, 0.06861210614442825, 0.06270249933004379, 0.07256954908370972, 0.06845074146986008, 0.04962952062487602, 0.0854015126824379, 0.0626315250992775, 0.07281733304262161, 0.15941356122493744, 0.1548590213060379, 0.05290847644209862, 0.07766251266002655, 0.12535904347896576, 0.039527926594018936, 0.040447913110256195, 0.034230347722768784, 0.06172608956694603, 0.08770684897899628, 0.05003081634640694, 0.09081534296274185, 0.03684782609343529, 0.04799220710992813, 0.05242140218615532, 0.16737453639507294, 0.12145628035068512, 0.04270525276660919, 0.08790745586156845, 0.14165239036083221, 0.18822799623012543, 0.06363026797771454, 0.29425695538520813, 0.2653247117996216, 0.18903835117816925, 0.2865034341812134, 0.37011104822158813, 0.1998470276594162, 0.15663982927799225, 0.16782188415527344, 0.15876469016075134, 0.14877231419086456, 0.05253506824374199, 0.1288837492465973, 0.18969844281673431, 0.1521652191877365, 0.33132174611091614, 0.1116364374756813, 0.1663423478603363, 0.07159268856048584, 0.06799501925706863, 0.23555457592010498, 0.20941004157066345, 0.3393172323703766, 0.21490541100502014, 0.23777812719345093, 0.18881531059741974, 0.1910722553730011, 0.11566593497991562, 0.1506228893995285, 0.12792937457561493, 0.14964964985847473, 0.10677194595336914, 0.09839808940887451, 0.17762479186058044, 0.17048540711402893, 0.07097037136554718, 0.03560904040932655, 0.18610608577728271, 0.14021864533424377, 0.26600027084350586, 0.24002400040626526, 0.10970470309257507, 0.11343574523925781, 0.17756018042564392, 0.2062239795923233, 0.26649153232574463, 0.2949337363243103, 0.1695057600736618, 0.12340474128723145, 0.10879756510257721, 0.18762218952178955, 0.2534778118133545, 0.24430136382579803, 0.21036234498023987, 0.2778385281562805, 0.22016096115112305, 0.21741783618927002, 0.0974092036485672, 0.22193333506584167, 0.2963868975639343, 0.7787858843803406, 0.7193869948387146, 0.7324545383453369, 0.10206212103366852, 0.1449682116508484, 0.0529196634888649, 0.03329441696405411, 0.14712019264698029, 0.24425077438354492, 0.2472694367170334]</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.5578135251998901</v>
+        <v>0.7787858843803406</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0.746346200001426</v>
+        <v>0.745884499992826</v>
       </c>
       <c r="J96" t="n">
-        <v>0.005654137878798682</v>
+        <v>0.005650640151460803</v>
       </c>
     </row>
     <row r="97">
@@ -4405,11 +4405,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[0.2016032189130783, 0.23204687237739563, 0.20913122594356537, 0.4895564615726471, 0.5482617616653442, 0.29855993390083313, 0.2194768488407135, 0.6451496481895447, 0.6589010953903198, 0.363953560590744, 0.3126637935638428, 0.28991615772247314, 0.24312499165534973, 0.39283832907676697, 0.1766878217458725, 0.1280721127986908, 0.2120891660451889, 0.16242074966430664, 0.2152283787727356, 0.21754704415798187, 0.1410241574048996, 0.2732691764831543, 0.2966231405735016, 0.5463070869445801, 0.5721081495285034, 0.2954622507095337, 0.40032365918159485, 0.4534745216369629, 0.17116059362888336, 0.13411173224449158, 0.15001073479652405, 0.11430247873067856, 0.3639245629310608, 0.46629247069358826, 0.3224409818649292, 0.2213573455810547, 0.14573393762111664, 0.1720280796289444, 0.1293371319770813, 0.13752946257591248, 0.16727054119110107, 0.28521355986595154, 0.2282741218805313, 0.15588027238845825, 0.1288321316242218, 0.10289165377616882, 0.1903959959745407, 0.12769532203674316, 0.17276178300380707, 0.3516687750816345, 0.3370446562767029, 0.3675834834575653, 0.5653032064437866, 0.3747174143791199, 0.21772977709770203, 0.23163461685180664, 0.2571069896221161, 0.2518616318702698, 0.15999019145965576, 0.06982499361038208, 0.2233285754919052, 0.10701669752597809, 0.3795646131038666, 0.12367706745862961, 0.18162301182746887, 0.18702128529548645, 0.2783094644546509, 0.12088346481323242, 0.2813641428947449, 0.19058546423912048, 0.060495831072330475, 0.09794504195451736, 0.1233842596411705, 0.06037285178899765, 0.1735491305589676, 0.08568447083234787, 0.14536389708518982, 0.1386069804430008, 0.17124831676483154, 0.47580674290657043, 0.3974309265613556, 0.8079701066017151, 0.7427403926849365, 0.3811940550804138, 0.3899179995059967, 0.292824387550354, 0.23595893383026123, 0.22594133019447327, 0.16286204755306244, 0.3383225202560425, 0.26098278164863586, 0.5093883872032166, 0.436515748500824, 0.4195089042186737, 0.5560222864151001, 0.36621689796447754, 0.3256635069847107, 0.3044493794441223, 0.251475065946579, 0.41303741931915283, 0.3948790729045868, 0.38492903113365173, 0.35294976830482483, 0.227346271276474, 0.27855414152145386, 0.17201943695545197, 0.25535279512405396, 0.21410982310771942, 0.2559795379638672, 0.2152557224035263, 0.2569776475429535, 0.45419809222221375, 0.23667415976524353, 0.3745901584625244, 0.2297075092792511, 0.21454010903835297, 0.2273900955915451, 0.24404790997505188, 0.2408672422170639, 0.09765800833702087, 0.15646705031394958, 0.1637655794620514, 0.1574212610721588, 0.2754063010215759, 0.3113264739513397, 0.14693740010261536, 0.08537953346967697, 0.08061220496892929, 0.08458883315324783, 0.110270194709301, 0.06287414580583572, 0.06383071839809418]</t>
+          <t>[0.23684559762477875, 0.21690091490745544, 0.18656842410564423, 0.5352007150650024, 0.619356632232666, 0.2605285048484802, 0.20053136348724365, 0.7772044539451599, 0.9262601137161255, 0.60184645652771, 0.46216168999671936, 0.4527168273925781, 0.2998056411743164, 0.6600379943847656, 0.219956174492836, 0.11465482413768768, 0.25685766339302063, 0.4171682596206665, 0.5066489577293396, 0.3834640383720398, 0.2651088237762451, 0.5884848833084106, 0.44150951504707336, 0.9406493306159973, 0.8910385966300964, 0.45499417185783386, 0.6846941113471985, 0.7230080366134644, 0.24147553741931915, 0.14342369139194489, 0.24061112105846405, 0.14799001812934875, 0.6275234818458557, 0.6914600729942322, 0.5373997092247009, 0.2839753329753876, 0.11184500902891159, 0.20648568868637085, 0.1108214259147644, 0.10698241740465164, 0.13333581387996674, 0.33995819091796875, 0.36705419421195984, 0.2285609245300293, 0.1940610557794571, 0.16059087216854095, 0.34242257475852966, 0.10728678852319717, 0.2035403996706009, 0.527020275592804, 0.6001436710357666, 0.6681574583053589, 0.7844550609588623, 0.5522840619087219, 0.36252734065055847, 0.523300290107727, 0.421918123960495, 0.32486942410469055, 0.17494387924671173, 0.06391498446464539, 0.3551298677921295, 0.2050730437040329, 0.583085834980011, 0.1791449338197708, 0.2621390223503113, 0.21496501564979553, 0.3401029407978058, 0.14676639437675476, 0.43956613540649414, 0.3788357973098755, 0.06392211467027664, 0.11491769552230835, 0.20242829620838165, 0.05519222095608711, 0.1758812814950943, 0.06039051339030266, 0.12082746624946594, 0.13662248849868774, 0.18271732330322266, 0.6601712107658386, 0.5441954731941223, 0.9288362264633179, 0.9118241667747498, 0.531643807888031, 0.44306573271751404, 0.2927532196044922, 0.23657380044460297, 0.25305432081222534, 0.16269175708293915, 0.3785804510116577, 0.2765379250049591, 0.5785167217254639, 0.5477617383003235, 0.5944148302078247, 0.7841886281967163, 0.3779415190219879, 0.48536062240600586, 0.3683542013168335, 0.21083737909793854, 0.4814119040966034, 0.4131363034248352, 0.47781941294670105, 0.4603509306907654, 0.1837366819381714, 0.3988015651702881, 0.1893710196018219, 0.3347923755645752, 0.28399911522865295, 0.3357005715370178, 0.36900341510772705, 0.4341806173324585, 0.6896107792854309, 0.24559220671653748, 0.5700410604476929, 0.3784724175930023, 0.43672776222229004, 0.3151419460773468, 0.43449604511260986, 0.3450680077075958, 0.09168460220098495, 0.1848120540380478, 0.16817337274551392, 0.15283137559890747, 0.4623803198337555, 0.5869666337966919, 0.17906832695007324, 0.07327879965305328, 0.0925758108496666, 0.07246489077806473, 0.08141741901636124, 0.04665724188089371, 0.04718312993645668]</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.8079701066017151</v>
+        <v>0.9406493306159973</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
@@ -4423,10 +4423,10 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0.7332784999744035</v>
+        <v>0.7463067999924533</v>
       </c>
       <c r="J97" t="n">
-        <v>0.005555140151321239</v>
+        <v>0.005653839393882222</v>
       </c>
     </row>
     <row r="98">
@@ -4445,11 +4445,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>[0.09381651878356934, 0.10810890793800354, 0.1444263607263565, 0.14208582043647766, 0.18041746318340302, 0.14400933682918549, 0.1701485812664032, 0.1516622006893158, 0.1382853388786316, 0.1574244201183319, 0.1934492588043213, 0.1546819806098938, 0.18447290360927582, 0.21310357749462128, 0.18241354823112488, 0.18918034434318542, 0.14319902658462524, 0.22678300738334656, 0.270250529050827, 0.24120169878005981, 0.23224596679210663, 0.22999794781208038, 0.3020063042640686, 0.26478028297424316, 0.29386675357818604, 0.3160710632801056, 0.27598437666893005, 0.21145077049732208, 0.2209581881761551, 0.17298555374145508, 0.1767156422138214, 0.14230641722679138, 0.12409184128046036, 0.15733546018600464, 0.14719164371490479, 0.17537815868854523, 0.168097585439682, 0.2074766904115677, 0.10369833558797836, 0.1220368966460228, 0.27207258343696594, 0.14234459400177002, 0.08777961879968643, 0.11115231364965439, 0.10394600033760071, 0.20591184496879578, 0.20420409739017487, 0.23803597688674927, 0.21997685730457306, 0.21598580479621887, 0.16291770339012146, 0.17202584445476532, 0.15542984008789062, 0.14602437615394592, 0.19011352956295013, 0.24467943608760834, 0.18311664462089539, 0.16753514111042023, 0.17744016647338867, 0.23508694767951965, 0.20467130839824677, 0.28000351786613464, 0.3542470932006836, 0.5154679417610168, 0.37479540705680847, 0.48197877407073975, 0.4506922960281372, 0.3939361572265625, 0.36119019985198975, 0.3879239559173584, 0.2528783082962036, 0.22700931131839752, 0.2671588063240051, 0.19713462889194489, 0.1822654902935028, 0.211369127035141, 0.25351813435554504, 0.19137363135814667, 0.13476048409938812, 0.13354426622390747, 0.1632673591375351, 0.23564501106739044, 0.23935629427433014, 0.20605677366256714, 0.17973586916923523, 0.14413395524024963, 0.15452292561531067, 0.1976497620344162, 0.23253920674324036, 0.1832578331232071, 0.17759652435779572, 0.21605104207992554, 0.3723742365837097, 0.23206132650375366, 0.24087657034397125, 0.21770599484443665, 0.1891789734363556, 0.15189118683338165, 0.15613973140716553, 0.13424313068389893, 0.13260839879512787, 0.14447279274463654, 0.15306948125362396, 0.21531647443771362, 0.21402187645435333, 0.2590848207473755, 0.21821372210979462, 0.27508705854415894, 0.23448316752910614, 0.22705799341201782, 0.20278866589069366, 0.261576384305954, 0.32413533329963684, 0.2637236714363098, 0.30922985076904297, 0.22102563083171844, 0.27024245262145996, 0.275522917509079, 0.18037182092666626, 0.19215033948421478, 0.19139564037322998, 0.2528635263442993, 0.2446129471063614, 0.20216646790504456, 0.2489333301782608, 0.2570962607860565, 0.25231418013572693, 0.21347308158874512, 0.1711476445198059, 0.20304404199123383, 0.2862931787967682, 0.2856407165527344]</t>
+          <t>[0.04472794011235237, 0.08470573276281357, 0.11725341528654099, 0.10900343209505081, 0.1575300097465515, 0.10207603871822357, 0.11942107230424881, 0.11967667937278748, 0.09610307961702347, 0.10497671365737915, 0.20676252245903015, 0.1240801215171814, 0.14337636530399323, 0.15018722414970398, 0.11738695949316025, 0.13681451976299286, 0.11859701573848724, 0.1798551231622696, 0.21646469831466675, 0.17132142186164856, 0.15326835215091705, 0.17165139317512512, 0.2604798674583435, 0.197245255112648, 0.2161698043346405, 0.2769824266433716, 0.24503107368946075, 0.17042887210845947, 0.1774275004863739, 0.1005500927567482, 0.10808129608631134, 0.09297320246696472, 0.07817541807889938, 0.10567165166139603, 0.09790796786546707, 0.1040859967470169, 0.11371652781963348, 0.15912960469722748, 0.06938352435827255, 0.07844992727041245, 0.29134029150009155, 0.08984285593032837, 0.036394864320755005, 0.056660450994968414, 0.04835614562034607, 0.15267115831375122, 0.1608085185289383, 0.23138444125652313, 0.2006654441356659, 0.1767827421426773, 0.11123593151569366, 0.11647606641054153, 0.10126374661922455, 0.09294518083333969, 0.1284201294183731, 0.20816951990127563, 0.13078448176383972, 0.12267808616161346, 0.11725690215826035, 0.16884320974349976, 0.1455543041229248, 0.2280551642179489, 0.3326006829738617, 0.6200571656227112, 0.37006938457489014, 0.4774223566055298, 0.4148816168308258, 0.35586315393447876, 0.30868279933929443, 0.32263806462287903, 0.21197861433029175, 0.19552376866340637, 0.20583704113960266, 0.1529615819454193, 0.12564143538475037, 0.17607681453227997, 0.21765288710594177, 0.14832454919815063, 0.10474318265914917, 0.0813947468996048, 0.09855874627828598, 0.21378657221794128, 0.2227858603000641, 0.14013424515724182, 0.15524320304393768, 0.12222782522439957, 0.10799431055784225, 0.14153200387954712, 0.21052902936935425, 0.1280062049627304, 0.12685957551002502, 0.14478206634521484, 0.27767011523246765, 0.16057588160037994, 0.20654000341892242, 0.1655794084072113, 0.12276085466146469, 0.08172943443059921, 0.08476460725069046, 0.07425084710121155, 0.06550366431474686, 0.0759650319814682, 0.07221905887126923, 0.13007062673568726, 0.1577414572238922, 0.21407963335514069, 0.17756493389606476, 0.2669975459575653, 0.1902247965335846, 0.17718280851840973, 0.16199752688407898, 0.22339937090873718, 0.2873181998729706, 0.21238647401332855, 0.22668173909187317, 0.1260710060596466, 0.17642685770988464, 0.1886710673570633, 0.11261715739965439, 0.12402843683958054, 0.1317255198955536, 0.21221867203712463, 0.16099843382835388, 0.1318625509738922, 0.1881323903799057, 0.16726817190647125, 0.16192549467086792, 0.13141459226608276, 0.12705828249454498, 0.15298309922218323, 0.2399957925081253, 0.2391958236694336]</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.5154679417610168</v>
+        <v>0.6200571656227112</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0.7642458000045735</v>
+        <v>0.7393041000032099</v>
       </c>
       <c r="J98" t="n">
-        <v>0.005789740909125557</v>
+        <v>0.005600788636387953</v>
       </c>
     </row>
     <row r="99">
@@ -4485,11 +4485,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[0.15565526485443115, 0.23903793096542358, 0.2739221453666687, 0.2644684910774231, 0.2532557249069214, 0.23370732367038727, 0.17892029881477356, 0.20727600157260895, 0.21948185563087463, 0.23517943918704987, 0.158207505941391, 0.12669701874256134, 0.10100922733545303, 0.11037552356719971, 0.12780506908893585, 0.10918449610471725, 0.13369017839431763, 0.12171429395675659, 0.102639339864254, 0.07154934108257294, 0.11633489280939102, 0.0883011594414711, 0.07028340548276901, 0.14035376906394958, 0.15512636303901672, 0.18881697952747345, 0.13586801290512085, 0.15337982773780823, 0.11932802945375443, 0.08809994161128998, 0.08807056397199631, 0.12192127108573914, 0.11602375656366348, 0.10605080425739288, 0.0810270607471466, 0.10597026348114014, 0.14597409963607788, 0.14807091653347015, 0.2238539308309555, 0.2757672965526581, 0.2583547532558441, 0.18296411633491516, 0.24291068315505981, 0.19157440960407257, 0.16763806343078613, 0.1976650208234787, 0.13485178351402283, 0.13650567829608917, 0.0772324949502945, 0.10538475215435028, 0.11593980342149734, 0.12018878757953644, 0.11751840263605118, 0.12011110037565231, 0.14234869182109833, 0.15917271375656128, 0.2552036643028259, 0.18289484083652496, 0.20504146814346313, 0.14211569726467133, 0.23887783288955688, 0.2064075618982315, 0.16918501257896423, 0.20456922054290771, 0.18746234476566315, 0.12199710309505463, 0.12489824742078781, 0.12864883244037628, 0.16795502603054047, 0.14380143582820892, 0.1350039690732956, 0.14031215012073517, 0.13281749188899994, 0.14235970377922058, 0.12100064754486084, 0.19288621842861176, 0.30898043513298035, 0.23875141143798828, 0.21278657019138336, 0.33269473910331726, 0.24975375831127167, 0.1419564038515091, 0.2300940603017807, 0.1884434074163437, 0.13356055319309235, 0.10557372868061066, 0.1443486511707306, 0.11420022696256638, 0.08940842747688293, 0.12073373794555664, 0.1584825962781906, 0.18333789706230164, 0.20482990145683289, 0.3041209280490875, 0.13350535929203033, 0.20380020141601562, 0.15529631078243256, 0.18914254009723663, 0.14126214385032654, 0.12176007777452469, 0.1454997956752777, 0.1473274976015091, 0.13505390286445618, 0.18872316181659698, 0.1471163034439087, 0.12927880883216858, 0.0694512128829956, 0.06691157817840576, 0.06857650727033615, 0.0721425861120224, 0.13917489349842072, 0.15744894742965698, 0.2178362011909485, 0.2712744176387787, 0.20145800709724426, 0.2117643505334854, 0.29843297600746155, 0.2428053468465805, 0.21415753662586212, 0.28199082612991333, 0.25619590282440186, 0.23865841329097748, 0.15361714363098145, 0.1655745655298233, 0.22097167372703552, 0.2961835265159607, 0.30844512581825256, 0.18786026537418365, 0.15436071157455444, 0.15512330830097198, 0.3370884358882904, 0.33629634976387024]</t>
+          <t>[0.09957897663116455, 0.21618445217609406, 0.3009452223777771, 0.2930184006690979, 0.23545067012310028, 0.24597814679145813, 0.14087535440921783, 0.2120819389820099, 0.2344944328069687, 0.3492296040058136, 0.21992413699626923, 0.14400698244571686, 0.1009163036942482, 0.12096551805734634, 0.09762879461050034, 0.08172077685594559, 0.1852884292602539, 0.1935262531042099, 0.12780074775218964, 0.07054174691438675, 0.11041451245546341, 0.059402719140052795, 0.06231016665697098, 0.16631439328193665, 0.18057101964950562, 0.23004984855651855, 0.1303865909576416, 0.15671582520008087, 0.09448543190956116, 0.05515259876847267, 0.06353989243507385, 0.07894650846719742, 0.07433713972568512, 0.06235301494598389, 0.046404384076595306, 0.06560011953115463, 0.09591586142778397, 0.11086884886026382, 0.20653676986694336, 0.2658228278160095, 0.23125120997428894, 0.16404394805431366, 0.20633886754512787, 0.1286466419696808, 0.11566923558712006, 0.16974031925201416, 0.10001742094755173, 0.1283130943775177, 0.05637947842478752, 0.07915523648262024, 0.07790127396583557, 0.09421541541814804, 0.09551353752613068, 0.08344266563653946, 0.11193107068538666, 0.14078347384929657, 0.35049009323120117, 0.16174966096878052, 0.18479764461517334, 0.11179216206073761, 0.23982490599155426, 0.19901394844055176, 0.13351821899414062, 0.1520000398159027, 0.14916926622390747, 0.09061369299888611, 0.09179354459047318, 0.09915735572576523, 0.14085496962070465, 0.08459796756505966, 0.11125481128692627, 0.12812337279319763, 0.09316683560609818, 0.0962757021188736, 0.10050366073846817, 0.1866959035396576, 0.4056459367275238, 0.24821346998214722, 0.15651178359985352, 0.38186219334602356, 0.34480020403862, 0.1683209240436554, 0.24376970529556274, 0.22839494049549103, 0.1632077693939209, 0.11153515428304672, 0.12837161123752594, 0.0781673714518547, 0.055269692093133926, 0.09866370260715485, 0.17136496305465698, 0.239776611328125, 0.1931542158126831, 0.26918458938598633, 0.09030243754386902, 0.17910341918468475, 0.09747359156608582, 0.13134711980819702, 0.09486313909292221, 0.09045133739709854, 0.1145816519856453, 0.09089267998933792, 0.07533998787403107, 0.12245814502239227, 0.09143555909395218, 0.0705445408821106, 0.032970163971185684, 0.03563537821173668, 0.031196661293506622, 0.03849570080637932, 0.09085220098495483, 0.11026496440172195, 0.20672377943992615, 0.312696635723114, 0.1761675924062729, 0.2214871048927307, 0.36690184473991394, 0.26642587780952454, 0.23800110816955566, 0.3064778745174408, 0.25284865498542786, 0.21834270656108856, 0.09620299935340881, 0.11764196306467056, 0.17990510165691376, 0.2937085032463074, 0.24924056231975555, 0.1426277607679367, 0.1429784744977951, 0.13574816286563873, 0.44084370136260986, 0.4402591586112976]</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.3370884358882904</v>
+        <v>0.4408437013626099</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
@@ -4503,10 +4503,10 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0.8670117000001483</v>
+        <v>0.8647912000014912</v>
       </c>
       <c r="J99" t="n">
-        <v>0.006568270454546578</v>
+        <v>0.006551448484859782</v>
       </c>
     </row>
     <row r="100">
@@ -4525,11 +4525,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[0.16119010746479034, 0.14636021852493286, 0.15885047614574432, 0.16889557242393494, 0.19750910997390747, 0.1498107612133026, 0.20811672508716583, 0.16076529026031494, 0.2022833526134491, 0.31086602807044983, 0.39689525961875916, 0.414998859167099, 0.35507068037986755, 0.41741201281547546, 0.30387642979621887, 0.2635708153247833, 0.26053914427757263, 0.27758508920669556, 0.23163804411888123, 0.11851993948221207, 0.12214460968971252, 0.18939271569252014, 0.12412095814943314, 0.10841480642557144, 0.16493095457553864, 0.14517317712306976, 0.13625340163707733, 0.09239424020051956, 0.15022318065166473, 0.2116987705230713, 0.281526118516922, 0.21931789815425873, 0.222001314163208, 0.26416489481925964, 0.2614718973636627, 0.5082132816314697, 0.4073764979839325, 0.39578479528427124, 0.27205878496170044, 0.30855605006217957, 0.40986573696136475, 0.362465500831604, 0.20609959959983826, 0.20547953248023987, 0.13416935503482819, 0.16991062462329865, 0.16233500838279724, 0.16196571290493011, 0.21418918669223785, 0.19160349667072296, 0.203618586063385, 0.24214820563793182, 0.2458200752735138, 0.21856796741485596, 0.22488537430763245, 0.2144642025232315, 0.22122862935066223, 0.18324081599712372, 0.21349099278450012, 0.14993323385715485, 0.26257893443107605, 0.2017182856798172, 0.1988641321659088, 0.21088732779026031, 0.21487212181091309, 0.2313579022884369, 0.17384947836399078, 0.18927845358848572, 0.18097937107086182, 0.19031213223934174, 0.19162821769714355, 0.21762670576572418, 0.2683788239955902, 0.20205102860927582, 0.21324287354946136, 0.20850303769111633, 0.14297530055046082, 0.19187842309474945, 0.12274728715419769, 0.19511418044567108, 0.25797927379608154, 0.17716506123542786, 0.1946280598640442, 0.19419845938682556, 0.3090938925743103, 0.3699658513069153, 0.26959478855133057, 0.20447200536727905, 0.5074368715286255, 0.30552300810813904, 0.3332597315311432, 0.17091476917266846, 0.21146754920482635, 0.5844131708145142, 0.43685564398765564, 0.46177393198013306, 0.4456273317337036, 0.30913230776786804, 0.3301796019077301, 0.29107367992401123, 0.1576666235923767, 0.14491920173168182, 0.1025942713022232, 0.08710793405771255, 0.12276065349578857, 0.158667653799057, 0.14516615867614746, 0.17474272847175598, 0.16169454157352448, 0.19719822704792023, 0.2812073826789856, 0.2540343403816223, 0.14821775257587433, 0.159004807472229, 0.14639635384082794, 0.1415977030992508, 0.2755221426486969, 0.1665145307779312, 0.21672748029232025, 0.1740705817937851, 0.19388431310653687, 0.1795201301574707, 0.2758033275604248, 0.19099999964237213, 0.18216705322265625, 0.18163514137268066, 0.14958961308002472, 0.24563820660114288, 0.24048130214214325, 0.23697657883167267, 0.2372044175863266]</t>
+          <t>[0.1161276325583458, 0.0921269878745079, 0.09217822551727295, 0.09206374734640121, 0.11351309716701508, 0.09834445267915726, 0.18306680023670197, 0.1189953088760376, 0.19127245247364044, 0.3595265746116638, 0.47063615918159485, 0.5058291554450989, 0.49327996373176575, 0.5547998547554016, 0.37600162625312805, 0.3672920763492584, 0.3766254186630249, 0.34244319796562195, 0.2295418083667755, 0.07804930210113525, 0.07329695671796799, 0.1312199980020523, 0.07787575572729111, 0.05054083839058876, 0.10015475749969482, 0.08487550914287567, 0.08319976180791855, 0.05465562269091606, 0.0873631089925766, 0.15226411819458008, 0.2805738151073456, 0.19758208096027374, 0.16210108995437622, 0.28618282079696655, 0.20638856291770935, 0.6159787178039551, 0.37813061475753784, 0.519369900226593, 0.26497796177864075, 0.32134804129600525, 0.48361918330192566, 0.43412962555885315, 0.1856793612241745, 0.18691958487033844, 0.0983261913061142, 0.12028928101062775, 0.10965992510318756, 0.1097339317202568, 0.1562906950712204, 0.12213172763586044, 0.13412420451641083, 0.1920469105243683, 0.2978946268558502, 0.21052873134613037, 0.16437079012393951, 0.16889962553977966, 0.17953786253929138, 0.14985370635986328, 0.19910861551761627, 0.1280490607023239, 0.23726612329483032, 0.17053018510341644, 0.13906028866767883, 0.16366931796073914, 0.1737803965806961, 0.1938077062368393, 0.14799457788467407, 0.15651856362819672, 0.17855307459831238, 0.18007691204547882, 0.2445744425058365, 0.2742728888988495, 0.2851864695549011, 0.17217135429382324, 0.20588195323944092, 0.21920254826545715, 0.10090803354978561, 0.14138288795948029, 0.08676757663488388, 0.186605766415596, 0.3005954325199127, 0.15755410492420197, 0.19557322561740875, 0.2216351479291916, 0.42851176857948303, 0.49031656980514526, 0.3320806920528412, 0.19774781167507172, 0.6047372817993164, 0.24446335434913635, 0.24544647336006165, 0.09109561890363693, 0.1398073136806488, 0.7248541712760925, 0.5800803899765015, 0.5744818449020386, 0.5616285800933838, 0.35328400135040283, 0.4029063582420349, 0.33224770426750183, 0.11806656420230865, 0.09596383571624756, 0.05540657788515091, 0.057524021714925766, 0.06796568632125854, 0.08290881663560867, 0.08728193491697311, 0.14343354105949402, 0.16700606048107147, 0.18128451704978943, 0.23513996601104736, 0.24948635697364807, 0.13486644625663757, 0.12342998385429382, 0.100870780646801, 0.09754058718681335, 0.24395887553691864, 0.11826078593730927, 0.1506609469652176, 0.11642126739025116, 0.15660922229290009, 0.15416646003723145, 0.28539103269577026, 0.15967878699302673, 0.1299993097782135, 0.1396636813879013, 0.14270460605621338, 0.27110907435417175, 0.2662421464920044, 0.30941465497016907, 0.31075921654701233]</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.5844131708145142</v>
+        <v>0.7248541712760925</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0.7157048000080977</v>
+        <v>0.7205699000041932</v>
       </c>
       <c r="J100" t="n">
-        <v>0.005463395419909142</v>
+        <v>0.005500533587818268</v>
       </c>
     </row>
     <row r="101">
@@ -4565,11 +4565,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[0.48638343811035156, 0.7188553810119629, 0.5297799706459045, 0.36678677797317505, 0.43109092116355896, 0.5662091970443726, 0.340322881937027, 0.4471489191055298, 0.4767839014530182, 0.44979214668273926, 0.2798995077610016, 0.3182264566421509, 0.24134501814842224, 0.3848893344402313, 0.4237951934337616, 0.2903250455856323, 0.24167324602603912, 0.32412904500961304, 0.2264578491449356, 0.1666547805070877, 0.20736917853355408, 0.28835541009902954, 0.41470393538475037, 0.3842330574989319, 0.34639355540275574, 0.5587784051895142, 0.7679957151412964, 0.3981901705265045, 0.16801238059997559, 0.21956539154052734, 0.20156912505626678, 0.19086851179599762, 0.41869989037513733, 0.29986101388931274, 0.28726527094841003, 0.304473340511322, 0.2076949179172516, 0.33887311816215515, 0.4240536391735077, 0.40600526332855225, 0.13837742805480957, 0.16291531920433044, 0.16840864717960358, 0.206602543592453, 0.18825218081474304, 0.31135299801826477, 0.30232009291648865, 0.2482680380344391, 0.2529074549674988, 0.17931993305683136, 0.3250483572483063, 0.21914593875408173, 0.17016631364822388, 0.14446699619293213, 0.19966350495815277, 0.1516866385936737, 0.2021636813879013, 0.2725943922996521, 0.3328610956668854, 0.1752062737941742, 0.15446768701076508, 0.15579122304916382, 0.16331705451011658, 0.17090855538845062, 0.11815597862005234, 0.16395525634288788, 0.2992374002933502, 0.2725623548030853, 0.353559672832489, 0.5152347683906555, 0.4752276539802551, 0.32975515723228455, 0.20490826666355133, 0.18314087390899658, 0.3442397713661194, 0.4089970886707306, 0.5896340608596802, 0.2324661761522293, 0.35468319058418274, 0.21580149233341217, 0.17005792260169983, 0.3363193869590759, 0.38728323578834534, 0.21581782400608063, 0.24203932285308838, 0.18134060502052307, 0.20438458025455475, 0.21641641855239868, 0.18215817213058472, 0.34210407733917236, 0.2625405788421631, 0.2118111252784729, 0.16331341862678528, 0.18430635333061218, 0.31998759508132935, 0.44072413444519043, 0.23126383125782013, 0.15674147009849548, 0.16950498521327972, 0.14408092200756073, 0.13887734711170197, 0.153448224067688, 0.12329714745283127, 0.0852605476975441, 0.07499444484710693, 0.06898923218250275, 0.1556854248046875, 0.12893573939800262, 0.14604270458221436, 0.19780555367469788, 0.171675443649292, 0.27541401982307434, 0.24590133130550385, 0.20845597982406616, 0.16126450896263123, 0.4874263405799866, 0.35351622104644775, 0.17147696018218994, 0.14125682413578033, 0.07176215201616287, 0.06144993379712105, 0.11983826756477356, 0.15659594535827637, 0.1486819088459015, 0.09527076780796051, 0.15203945338726044, 0.10328317433595657, 0.17239099740982056, 0.16796156764030457, 0.17777082324028015, 0.2878058850765228, 0.28945639729499817]</t>
+          <t>[0.708635151386261, 0.8536390066146851, 0.7101401686668396, 0.4759325385093689, 0.5818473100662231, 0.731779158115387, 0.520327091217041, 0.6136336922645569, 0.6495398283004761, 0.6113208532333374, 0.31950873136520386, 0.42616575956344604, 0.3772958219051361, 0.48814043402671814, 0.6026936769485474, 0.4453858733177185, 0.423356831073761, 0.4653850793838501, 0.34747931361198425, 0.28148508071899414, 0.2933027744293213, 0.37195464968681335, 0.5685916543006897, 0.5474138259887695, 0.5390469431877136, 0.6516912579536438, 0.8663281798362732, 0.6633525490760803, 0.2633344531059265, 0.3088442087173462, 0.3012508749961853, 0.2702484726905823, 0.6517755389213562, 0.5240567326545715, 0.44297903776168823, 0.5606192350387573, 0.3193778097629547, 0.4864167869091034, 0.5724490284919739, 0.5462904572486877, 0.14762508869171143, 0.19407737255096436, 0.22156481444835663, 0.24573059380054474, 0.24635623395442963, 0.4844265878200531, 0.44222551584243774, 0.3646879196166992, 0.33882278203964233, 0.2361125648021698, 0.494238018989563, 0.36671212315559387, 0.2849366068840027, 0.14843076467514038, 0.23641890287399292, 0.18670141696929932, 0.2646062672138214, 0.36791300773620605, 0.47636303305625916, 0.18422576785087585, 0.1780969351530075, 0.16177619993686676, 0.15836089849472046, 0.1929992437362671, 0.15255558490753174, 0.21285130083560944, 0.41877469420433044, 0.3447495996952057, 0.46348413825035095, 0.6327255368232727, 0.7616064548492432, 0.5716444849967957, 0.4151649475097656, 0.35888081789016724, 0.49575912952423096, 0.6403775811195374, 0.8162378668785095, 0.5049461126327515, 0.5972543358802795, 0.4026360511779785, 0.20973320305347443, 0.40912926197052, 0.4918544888496399, 0.26982226967811584, 0.33253446221351624, 0.22762542963027954, 0.23630613088607788, 0.28805750608444214, 0.1713419258594513, 0.33462828397750854, 0.2872104346752167, 0.23558074235916138, 0.15436503291130066, 0.21309278905391693, 0.3809070885181427, 0.42240944504737854, 0.18386167287826538, 0.11757656186819077, 0.14260847866535187, 0.11632191389799118, 0.10964621603488922, 0.16324064135551453, 0.12216410040855408, 0.06157974898815155, 0.04427751898765564, 0.04267575964331627, 0.12455664575099945, 0.10596618056297302, 0.1625220626592636, 0.2228398621082306, 0.19102606177330017, 0.35711416602134705, 0.26502513885498047, 0.22632256150245667, 0.13850760459899902, 0.6455804109573364, 0.5023383498191833, 0.1879308521747589, 0.15236115455627441, 0.05482485517859459, 0.05507264658808708, 0.14320868253707886, 0.22928988933563232, 0.22012634575366974, 0.10208401083946228, 0.17753732204437256, 0.11306563764810562, 0.27412936091423035, 0.2766466736793518, 0.2394924908876419, 0.4817586839199066, 0.4838601052761078]</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.7679957151412964</v>
+        <v>0.8663281798362732</v>
       </c>
       <c r="F101" t="n">
         <v>1</v>
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0.7504826000076719</v>
+        <v>0.7966177999915089</v>
       </c>
       <c r="J101" t="n">
-        <v>0.005685474242482363</v>
+        <v>0.006034983333269007</v>
       </c>
     </row>
     <row r="102">
@@ -4605,11 +4605,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[0.14217057824134827, 0.3857305347919464, 0.15222935378551483, 0.2672903537750244, 0.1465352475643158, 0.12911444902420044, 0.12620191276073456, 0.09595349431037903, 0.09460102766752243, 0.14070448279380798, 0.12430952489376068, 0.1460421085357666, 0.151643767952919, 0.19468259811401367, 0.16299377381801605, 0.2675877511501312, 0.3034249246120453, 0.22876815497875214, 0.21903295814990997, 0.12237384915351868, 0.1467365324497223, 0.09480789303779602, 0.2956400513648987, 0.3096729516983032, 0.2414887696504593, 0.27469488978385925, 0.2894381880760193, 0.2505280375480652, 0.3794476091861725, 0.4331360161304474, 0.20199324190616608, 0.22379828989505768, 0.3940913677215576, 0.3997659683227539, 0.3889252543449402, 0.32388272881507874, 0.43153807520866394, 0.46780434250831604, 0.550401508808136, 0.28161564469337463, 0.1714732050895691, 0.23035167157649994, 0.22104525566101074, 0.18422859907150269, 0.16278819739818573, 0.18431228399276733, 0.23909267783164978, 0.20767627656459808, 0.15626011788845062, 0.25750014185905457, 0.20018137991428375, 0.269370436668396, 0.43332770466804504, 0.5017645359039307, 0.6042013764381409, 0.8964142799377441, 0.9291161894798279, 0.8885560631752014, 0.3679890036582947, 0.2906721532344818, 0.18072539567947388, 0.12637440860271454, 0.11755314469337463, 0.09763997048139572, 0.07060976326465607, 0.06392596662044525, 0.09963271766901016, 0.07340119779109955, 0.09997794032096863, 0.11720939725637436, 0.07151748239994049, 0.06011529639363289, 0.08150652796030045, 0.10645713657140732, 0.09372533857822418, 0.10977667570114136, 0.10781925916671753, 0.10689464211463928, 0.07007723301649094, 0.09381387382745743, 0.12522704899311066, 0.10367748886346817, 0.10308532416820526, 0.13482512533664703, 0.14926259219646454, 0.10332505404949188, 0.11378426104784012, 0.08566968142986298, 0.06967101991176605, 0.07167904078960419, 0.07561681419610977, 0.12252309918403625, 0.08496648818254471, 0.1270826756954193, 0.10858196765184402, 0.09953329712152481, 0.12355608493089676, 0.2071974277496338, 0.1276344209909439, 0.09243923425674438, 0.14309829473495483, 0.090973861515522, 0.09819402545690536, 0.12090866267681122, 0.13351860642433167, 0.23309509456157684, 0.1910417377948761, 0.26225435733795166, 0.08949824422597885, 0.08925487101078033, 0.1160801500082016, 0.14622697234153748, 0.19237485527992249, 0.1725413203239441, 0.308261513710022, 0.8396430015563965, 0.4841846823692322, 0.5745553970336914, 0.5485029816627502, 0.2794364094734192, 0.27155107259750366, 0.2598683536052704, 0.09672769159078598, 0.15301397442817688, 0.19016262888908386, 0.16656659543514252, 0.35613563656806946, 0.44702771306037903, 0.5481896996498108, 0.8311572074890137, 0.8321688175201416]</t>
+          <t>[0.05780646577477455, 0.318350613117218, 0.10190942138433456, 0.25000786781311035, 0.08361853659152985, 0.05946847423911095, 0.05641002953052521, 0.034133195877075195, 0.036687254905700684, 0.062182895839214325, 0.038081564009189606, 0.06999758630990982, 0.0584992915391922, 0.09265153110027313, 0.09366370737552643, 0.2257610708475113, 0.26413610577583313, 0.15166950225830078, 0.11682631075382233, 0.04878755658864975, 0.0668337419629097, 0.038793839514255524, 0.23768749833106995, 0.25147244334220886, 0.17279216647148132, 0.24309371411800385, 0.22680889070034027, 0.20999480783939362, 0.4073428213596344, 0.46226197481155396, 0.13663458824157715, 0.14034341275691986, 0.45729881525039673, 0.4587194323539734, 0.44235947728157043, 0.35727620124816895, 0.44695016741752625, 0.6324226260185242, 0.6970247030258179, 0.2519163489341736, 0.10396791249513626, 0.1448454111814499, 0.1255520135164261, 0.14736725389957428, 0.10081358999013901, 0.1142035573720932, 0.16808219254016876, 0.14108416438102722, 0.06716762483119965, 0.185519739985466, 0.12147070467472076, 0.2331443578004837, 0.5050799250602722, 0.6150756478309631, 0.6978804469108582, 0.9443145990371704, 0.9649512767791748, 0.9351295828819275, 0.38856738805770874, 0.2697528004646301, 0.1366770714521408, 0.08391861617565155, 0.10321912169456482, 0.084029421210289, 0.0807722806930542, 0.04096686467528343, 0.058077264577150345, 0.04345827177166939, 0.0646936371922493, 0.07707162201404572, 0.036770276725292206, 0.027143925428390503, 0.04422110691666603, 0.06634417921304703, 0.0501711443066597, 0.05359052121639252, 0.05502406507730484, 0.07296297699213028, 0.03646993637084961, 0.05949417129158974, 0.0817815363407135, 0.06664543598890305, 0.07517644762992859, 0.11034850031137466, 0.10261090844869614, 0.07004240900278091, 0.09077712148427963, 0.05908039212226868, 0.03888034448027611, 0.0378066785633564, 0.039995308965444565, 0.06793655455112457, 0.04008036479353905, 0.05793260782957077, 0.056220509111881256, 0.04575338587164879, 0.08763232827186584, 0.17538601160049438, 0.08904272317886353, 0.041510242968797684, 0.13760319352149963, 0.05346979200839996, 0.06260713934898376, 0.09128030389547348, 0.0968371033668518, 0.3935506045818329, 0.18420377373695374, 0.2874338626861572, 0.041485533118247986, 0.053237903863191605, 0.11505567282438278, 0.12130945175886154, 0.16019999980926514, 0.12546849250793457, 0.36993566155433655, 0.9527069926261902, 0.6778732538223267, 0.7884601950645447, 0.6999527812004089, 0.37395864725112915, 0.34179672598838806, 0.34425950050354004, 0.08430566638708115, 0.16149233281612396, 0.3044070899486542, 0.3356395363807678, 0.585672914981842, 0.5704699754714966, 0.7895469665527344, 0.9378140568733215, 0.9383635520935059]</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.9291161894798279</v>
+        <v>0.9649512767791748</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
@@ -4623,10 +4623,10 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0.7492554000054952</v>
+        <v>0.7585247999959392</v>
       </c>
       <c r="J102" t="n">
-        <v>0.005719506870270955</v>
+        <v>0.005790265648823963</v>
       </c>
     </row>
     <row r="103">
@@ -4645,11 +4645,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[0.16217245161533356, 0.16049394011497498, 0.1630132496356964, 0.22631430625915527, 0.1837877333164215, 0.20136064291000366, 0.414424866437912, 0.32271039485931396, 0.18492943048477173, 0.1567615568637848, 0.21829017996788025, 0.41485220193862915, 0.1624843031167984, 0.1557348519563675, 0.15856140851974487, 0.16621261835098267, 0.11673226952552795, 0.13919731974601746, 0.11805777251720428, 0.04309471324086189, 0.0780848041176796, 0.0937025249004364, 0.11915691941976547, 0.08759805560112, 0.0757502093911171, 0.04713265225291252, 0.04631279036402702, 0.07843932509422302, 0.08133985102176666, 0.12369582056999207, 0.19052670896053314, 0.13782121241092682, 0.10071361064910889, 0.0925653874874115, 0.1625448316335678, 0.16858571767807007, 0.174250990152359, 0.10329656302928925, 0.10052124410867691, 0.24515025317668915, 0.18365715444087982, 0.19257794320583344, 0.27439314126968384, 0.26741287112236023, 0.26786983013153076, 0.42099907994270325, 0.22242406010627747, 0.15993700921535492, 0.21562238037586212, 0.1403324007987976, 0.29394620656967163, 0.1547367125749588, 0.09518862515687943, 0.1600971668958664, 0.06618013978004456, 0.049100589007139206, 0.05493476614356041, 0.04737614095211029, 0.050817396491765976, 0.07150640338659286, 0.053496088832616806, 0.13376544415950775, 0.11721653491258621, 0.1403980553150177, 0.19767031073570251, 0.1878899186849594, 0.09339378029108047, 0.057460688054561615, 0.10211320966482162, 0.0841272696852684, 0.11552967876195908, 0.2554825246334076, 0.14579638838768005, 0.2034994661808014, 0.26948997378349304, 0.2636633813381195, 0.16259858012199402, 0.06183534115552902, 0.19510218501091003, 0.06942841410636902, 0.08321980386972427, 0.07528653740882874, 0.06206325441598892, 0.06491012126207352, 0.1003212109208107, 0.06035751849412918, 0.036049194633960724, 0.02913171611726284, 0.041465774178504944, 0.03305158019065857, 0.0522075816988945, 0.2000850886106491, 0.3052879869937897, 0.06756096333265305, 0.27130019664764404, 0.207325741648674, 0.3544383645057678, 0.5503204464912415, 0.6286269426345825, 0.5531745553016663, 0.5483391880989075, 0.4587346315383911, 0.1340535581111908, 0.1487642228603363, 0.567481279373169, 0.2382243275642395, 0.21805503964424133, 0.11641016602516174, 0.10580115765333176, 0.1637723445892334, 0.14602836966514587, 0.10854963958263397, 0.13710033893585205, 0.13268017768859863, 0.0767597034573555, 0.21286725997924805, 0.19574616849422455, 0.2724050283432007, 0.2913212478160858, 0.1251094788312912, 0.14435987174510956, 0.18240520358085632, 0.20378439128398895, 0.17212195694446564, 0.4685104489326477, 0.26336702704429626, 0.11263610422611237, 0.21146483719348907, 0.2883411645889282, 0.4008660614490509, 0.19319333136081696, 0.1931345909833908]</t>
+          <t>[0.1971026360988617, 0.1552562117576599, 0.20632171630859375, 0.3397473692893982, 0.3594324588775635, 0.317994087934494, 0.6414434909820557, 0.4476727843284607, 0.29344531893730164, 0.38040047883987427, 0.3581811785697937, 0.7131392955780029, 0.1827329844236374, 0.13785476982593536, 0.11867816001176834, 0.1726524978876114, 0.11687341332435608, 0.16747935116291046, 0.20365162193775177, 0.06114520505070686, 0.12511123716831207, 0.145229771733284, 0.2440604716539383, 0.12092876434326172, 0.11186901479959488, 0.039875783026218414, 0.0442877821624279, 0.138866126537323, 0.1318880319595337, 0.20096255838871002, 0.35081130266189575, 0.2674214839935303, 0.1465100347995758, 0.15334030985832214, 0.31062963604927063, 0.25494349002838135, 0.28152361512184143, 0.10610107332468033, 0.12068932503461838, 0.4460148215293884, 0.35361719131469727, 0.3259831368923187, 0.44728121161460876, 0.4279358983039856, 0.37417498230934143, 0.6230573654174805, 0.2697184681892395, 0.20643579959869385, 0.28294748067855835, 0.19317838549613953, 0.2741699516773224, 0.14094872772693634, 0.08031173795461655, 0.16823165118694305, 0.04220220446586609, 0.030725989490747452, 0.050463877618312836, 0.035443611443042755, 0.059682447463274, 0.09009043127298355, 0.06740190088748932, 0.17961247265338898, 0.12268977612257004, 0.15620717406272888, 0.24860723316669464, 0.3031165599822998, 0.08513589948415756, 0.03097723238170147, 0.10396382212638855, 0.07022587954998016, 0.10849449783563614, 0.3697061538696289, 0.2083820402622223, 0.23052802681922913, 0.341386079788208, 0.356079638004303, 0.1676665097475052, 0.053433045744895935, 0.3120926022529602, 0.14007627964019775, 0.14603783190250397, 0.08758407086133957, 0.060704901814460754, 0.07045518606901169, 0.1724359691143036, 0.08814756572246552, 0.029140885919332504, 0.021054590120911598, 0.06521546840667725, 0.021902354434132576, 0.055511247366666794, 0.5693511366844177, 0.598173201084137, 0.10457778722047806, 0.5062159895896912, 0.4871612787246704, 0.6796287894248962, 0.6957739591598511, 0.7789598703384399, 0.7426567077636719, 0.6790546178817749, 0.5084341764450073, 0.09457177668809891, 0.11263638734817505, 0.6720996499061584, 0.21812906861305237, 0.17065998911857605, 0.06605228781700134, 0.06607040017843246, 0.11049706488847733, 0.11473142355680466, 0.0935286283493042, 0.12793761491775513, 0.08897702395915985, 0.04023339971899986, 0.17640098929405212, 0.1703360676765442, 0.27117910981178284, 0.2890087366104126, 0.08216214925050735, 0.1290733367204666, 0.13660456240177155, 0.25432276725769043, 0.17574985325336456, 0.568045437335968, 0.40807226300239563, 0.09698692709207535, 0.24127799272537231, 0.33684229850769043, 0.5828050374984741, 0.26508963108062744, 0.2646775543689728]</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.6286269426345825</v>
+        <v>0.7789598703384399</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0.7488137999898754</v>
+        <v>0.7624770000111312</v>
       </c>
       <c r="J103" t="n">
-        <v>0.005672831818105116</v>
+        <v>0.005776340909175236</v>
       </c>
     </row>
     <row r="104">
@@ -4685,11 +4685,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[0.08355867862701416, 0.07267535477876663, 0.0691017135977745, 0.05140315368771553, 0.04381801187992096, 0.04723040759563446, 0.050046373158693314, 0.0720357745885849, 0.06420184671878815, 0.0939294844865799, 0.09869452565908432, 0.08529552817344666, 0.08683566004037857, 0.08795879036188126, 0.10260067880153656, 0.17572350800037384, 0.10857820510864258, 0.14985668659210205, 0.19732573628425598, 0.12207053601741791, 0.11428142338991165, 0.0973699539899826, 0.11495514214038849, 0.1484760344028473, 0.29632872343063354, 0.22811773419380188, 0.14096622169017792, 0.15603084862232208, 0.15730500221252441, 0.09436225146055222, 0.08967471867799759, 0.10157354176044464, 0.12231086194515228, 0.10178928822278976, 0.09200606495141983, 0.08130393922328949, 0.0726834312081337, 0.12256208807229996, 0.14675937592983246, 0.12138690054416656, 0.08930880576372147, 0.09699047356843948, 0.11587023735046387, 0.11110419034957886, 0.14175672829151154, 0.12373221665620804, 0.11886600404977798, 0.13175621628761292, 0.13574662804603577, 0.11280783265829086, 0.1491260826587677, 0.24144713580608368, 0.3245544731616974, 0.1874970644712448, 0.08879434317350388, 0.0694165825843811, 0.08484183996915817, 0.09272616356611252, 0.0919124037027359, 0.09338555485010147, 0.09297887235879898, 0.10038246959447861, 0.15865296125411987, 0.1649383157491684, 0.12358777970075607, 0.10636872053146362, 0.1139417365193367, 0.10990753024816513, 0.0869792178273201, 0.08572383224964142, 0.042961686849594116, 0.06429801881313324, 0.07122810930013657, 0.06830175966024399, 0.057031840085983276, 0.060283079743385315, 0.12342935800552368, 0.13885559141635895, 0.19360163807868958, 0.1158658042550087, 0.08876952528953552, 0.08393389731645584, 0.14610803127288818, 0.2075752168893814, 0.14972908794879913, 0.13496904075145721, 0.08709009736776352, 0.11990197002887726, 0.1109132245182991, 0.11976407468318939, 0.12164890021085739, 0.24032221734523773, 0.1628420054912567, 0.1635347455739975, 0.194737508893013, 0.11843407899141312, 0.1168162152171135, 0.15083913505077362, 0.12577775120735168, 0.11584008485078812, 0.10553152859210968, 0.14410215616226196, 0.14642895758152008, 0.12451249361038208, 0.14861689507961273, 0.13597917556762695, 0.25939151644706726, 0.2169722318649292, 0.27319884300231934, 0.1508747935295105, 0.18272271752357483, 0.24728766083717346, 0.24077311158180237, 0.17888155579566956, 0.14688906073570251, 0.09644884616136551, 0.11291303485631943, 0.12547165155410767, 0.10534174740314484, 0.09833811968564987, 0.0655803233385086, 0.05746304243803024, 0.06639577448368073, 0.06655772775411606]</t>
+          <t>[0.04202171415090561, 0.04339781776070595, 0.03393402323126793, 0.027737420052289963, 0.02017543464899063, 0.02076960727572441, 0.02529078722000122, 0.04716523364186287, 0.040856748819351196, 0.06121401861310005, 0.060631267726421356, 0.050868913531303406, 0.05987025424838066, 0.06838541477918625, 0.08679606765508652, 0.15567687153816223, 0.11648470908403397, 0.14824704825878143, 0.1971340924501419, 0.11232787370681763, 0.1098444014787674, 0.0966208279132843, 0.10815790295600891, 0.12677599489688873, 0.36445149779319763, 0.2643422782421112, 0.1491215080022812, 0.1660594344139099, 0.19012756645679474, 0.09861685335636139, 0.09105579555034637, 0.11363374441862106, 0.1367436796426773, 0.08679238706827164, 0.08388489484786987, 0.05286140739917755, 0.04816334694623947, 0.10290227830410004, 0.13139879703521729, 0.12001055479049683, 0.07248016446828842, 0.07653114944696426, 0.09604830294847488, 0.10117683559656143, 0.15600627660751343, 0.11651208996772766, 0.08656764030456543, 0.08770763128995895, 0.11354733258485794, 0.06798971444368362, 0.11037041991949081, 0.23043984174728394, 0.3820101022720337, 0.22461476922035217, 0.07798396050930023, 0.04333113506436348, 0.057581909000873566, 0.04730808362364769, 0.05910968780517578, 0.06452381610870361, 0.06745830178260803, 0.057823192328214645, 0.11333680897951126, 0.11747066676616669, 0.07086952775716782, 0.05461258068680763, 0.06170426681637764, 0.07351714372634888, 0.05915236473083496, 0.0556490421295166, 0.022013388574123383, 0.038004033267498016, 0.04593389853835106, 0.053971439599990845, 0.034228675067424774, 0.033035267144441605, 0.09987815469503403, 0.20131027698516846, 0.26252591609954834, 0.10477709770202637, 0.07626514881849289, 0.07913988828659058, 0.18514016270637512, 0.23123620450496674, 0.118275485932827, 0.11899023503065109, 0.07927694171667099, 0.13404636085033417, 0.1022828221321106, 0.11423082649707794, 0.12752826511859894, 0.2615441381931305, 0.16770049929618835, 0.18427717685699463, 0.20683877170085907, 0.0953308492898941, 0.1070207729935646, 0.14877299964427948, 0.13676634430885315, 0.10830631852149963, 0.08245078474283218, 0.11835106462240219, 0.11132294684648514, 0.09228135645389557, 0.12694717943668365, 0.11420219391584396, 0.2718713879585266, 0.25295165181159973, 0.36729294061660767, 0.1404469609260559, 0.15495680272579193, 0.2164226770401001, 0.18136318027973175, 0.13269540667533875, 0.11912983655929565, 0.06828176975250244, 0.07907314598560333, 0.08753751963376999, 0.06949788331985474, 0.07322116941213608, 0.03316443786025047, 0.03132334351539612, 0.04001051187515259, 0.04009741544723511]</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.3245544731616974</v>
+        <v>0.3820101022720337</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
@@ -4703,10 +4703,10 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0.720194099994842</v>
+        <v>0.7132092999963788</v>
       </c>
       <c r="J104" t="n">
-        <v>0.005808016935442274</v>
+        <v>0.005751687903196604</v>
       </c>
     </row>
     <row r="105">
@@ -4725,11 +4725,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>[0.05027654021978378, 0.06877978146076202, 0.06440447270870209, 0.13598407804965973, 0.21145066618919373, 0.16609039902687073, 0.2546673119068146, 0.19448111951351166, 0.17299672961235046, 0.07150792330503464, 0.13704682886600494, 0.24673140048980713, 0.1252143383026123, 0.15803559124469757, 0.20045346021652222, 0.13566745817661285, 0.14753024280071259, 0.10746856778860092, 0.08212707936763763, 0.10837741941213608, 0.09751085937023163, 0.07593967020511627, 0.09855014085769653, 0.12316681444644928, 0.08285670727491379, 0.0995788499712944, 0.0842970684170723, 0.11496180295944214, 0.13216173648834229, 0.1048230454325676, 0.13425929844379425, 0.08031850308179855, 0.06406109035015106, 0.07074284553527832, 0.052160780876874924, 0.07755464315414429, 0.1655142605304718, 0.12985610961914062, 0.440152108669281, 0.30389317870140076, 0.4980115592479706, 0.4872467517852783, 0.5681460499763489, 0.4108387529850006, 0.34308597445487976, 0.31573888659477234, 0.45436349511146545, 0.48632869124412537, 0.8002374768257141, 0.7297306060791016, 0.6571534276008606, 0.5812890529632568, 0.5223255157470703, 0.534384548664093, 0.38571876287460327, 0.3262547552585602, 0.5070980787277222, 0.37056151032447815, 0.5301597118377686, 0.41413596272468567, 0.15640538930892944, 0.10927599668502808, 0.10011747479438782, 0.15492090582847595, 0.10980744659900665, 0.13618111610412598, 0.1600847840309143, 0.18217355012893677, 0.2628695070743561, 0.34243449568748474, 0.2511580288410187, 0.1363174170255661, 0.08702660351991653, 0.05748208612203598, 0.08861970901489258, 0.12748000025749207, 0.07115782052278519, 0.09986627846956253, 0.16633109748363495, 0.14019374549388885, 0.088438481092453, 0.14683984220027924, 0.10053343325853348, 0.06001313030719757, 0.06598109751939774, 0.08380229026079178, 0.23586855828762054, 0.1835596114397049, 0.38371700048446655, 0.37919002771377563, 0.22874924540519714, 0.17962518334388733, 0.14774855971336365, 0.20421473681926727, 0.2671315670013428, 0.14797234535217285, 0.20565320551395416, 0.1657305657863617, 0.25121453404426575, 0.19392511248588562, 0.12831559777259827, 0.09215050935745239, 0.10220275819301605, 0.09403170645236969, 0.11818373948335648, 0.2846229076385498, 0.18882721662521362, 0.23992273211479187, 0.22213785350322723, 0.12094678729772568, 0.15677127242088318, 0.12128458172082901, 0.1274433434009552, 0.18156370520591736, 0.10668787360191345, 0.115760937333107, 0.14858192205429077, 0.10378959774971008, 0.24883469939231873, 0.22488601505756378, 0.15349486470222473, 0.22344237565994263, 0.3560132682323456, 0.3093132972717285, 0.3082786202430725]</t>
+          <t>[0.03057890571653843, 0.045082978904247284, 0.0389406681060791, 0.19082854688167572, 0.39681267738342285, 0.26767435669898987, 0.5482391715049744, 0.381540447473526, 0.2962801158428192, 0.10034941136837006, 0.3608248233795166, 0.7951331734657288, 0.155703604221344, 0.23637527227401733, 0.37229645252227783, 0.2166060507297516, 0.1427970826625824, 0.11519408226013184, 0.07008904963731766, 0.10329573601484299, 0.09184448421001434, 0.057246796786785126, 0.08986727893352509, 0.1116921529173851, 0.04647012799978256, 0.0578126460313797, 0.03855494037270546, 0.07567589730024338, 0.10312438756227493, 0.08163873106241226, 0.08135492354631424, 0.02915390022099018, 0.027244649827480316, 0.04681398719549179, 0.025429271161556244, 0.06945855915546417, 0.23045305907726288, 0.15143460035324097, 0.6478567123413086, 0.481869101524353, 0.7688799500465393, 0.8278528451919556, 0.9108724594116211, 0.8215888738632202, 0.627291738986969, 0.501513659954071, 0.7477667927742004, 0.7636393904685974, 0.963039755821228, 0.9512823224067688, 0.8899321556091309, 0.9205350875854492, 0.8947353363037109, 0.8468290567398071, 0.6812354922294617, 0.5001782774925232, 0.8145513534545898, 0.7444955706596375, 0.858030378818512, 0.775876522064209, 0.16733378171920776, 0.09995835274457932, 0.1330549120903015, 0.2816293239593506, 0.14077921211719513, 0.206185445189476, 0.19627879559993744, 0.17308932542800903, 0.37616705894470215, 0.49735212326049805, 0.3739961087703705, 0.15524418652057648, 0.0473313070833683, 0.024536198005080223, 0.0631338581442833, 0.1301373690366745, 0.05390270799398422, 0.08938676863908768, 0.22839553654193878, 0.13766400516033173, 0.09139187633991241, 0.21608060598373413, 0.09025688469409943, 0.0469004362821579, 0.05210936442017555, 0.07773949205875397, 0.4932231903076172, 0.3750711977481842, 0.6947099566459656, 0.7844520211219788, 0.47380998730659485, 0.41551512479782104, 0.22694014012813568, 0.22055716812610626, 0.3926084637641907, 0.1084466278553009, 0.29832756519317627, 0.21045397222042084, 0.4181749224662781, 0.26619499921798706, 0.11240695416927338, 0.06906088441610336, 0.07535456120967865, 0.0737980529665947, 0.14587590098381042, 0.4342247247695923, 0.1547914445400238, 0.2511260509490967, 0.428326278924942, 0.09913427382707596, 0.1913595199584961, 0.11299821734428406, 0.11277357488870621, 0.2180078625679016, 0.11397901177406311, 0.10875813663005829, 0.16008396446704865, 0.07664954662322998, 0.30179959535598755, 0.2911757826805115, 0.15946491062641144, 0.3088148236274719, 0.5602397918701172, 0.42740562558174133, 0.4250030517578125]</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.8002374768257141</v>
+        <v>0.963039755821228</v>
       </c>
       <c r="F105" t="n">
         <v>1</v>
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0.7149379000184126</v>
+        <v>0.7232877999922493</v>
       </c>
       <c r="J105" t="n">
-        <v>0.005719503200147301</v>
+        <v>0.005786302399937995</v>
       </c>
     </row>
     <row r="106">
@@ -4765,11 +4765,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>[0.6680957078933716, 0.8970698714256287, 0.9570227861404419, 0.9493638873100281, 0.6278684139251709, 0.6714502573013306, 0.6054156422615051, 0.5380212664604187, 0.5060473084449768, 0.5321206450462341, 0.7553582191467285, 0.7828653454780579, 0.9227216243743896, 0.9043653607368469, 0.8595306277275085, 0.8642309904098511, 0.9072439670562744, 0.528579831123352, 0.8606526851654053, 0.8743975162506104, 0.9485880732536316, 0.9575590491294861, 0.8855937719345093, 0.893272340297699, 0.8910587430000305, 0.8171961903572083, 0.8169150948524475, 0.888826847076416, 0.9122605323791504, 0.94221031665802, 0.9593594074249268, 0.9134224653244019, 0.8629065752029419, 0.8214428424835205, 0.734428882598877, 0.7494884729385376, 0.829915463924408, 0.8008639216423035, 0.8096151351928711, 0.8336622714996338, 0.7311261892318726, 0.4363645613193512, 0.31629881262779236, 0.48536035418510437, 0.4900718629360199, 0.5798696875572205, 0.4635983407497406, 0.40218549966812134, 0.3936421573162079, 0.6570746302604675, 0.731764018535614, 0.5556633472442627, 0.6641861200332642, 0.8501332402229309, 0.850715160369873, 0.9155845046043396, 0.9514586925506592, 0.8446390628814697, 0.6737934350967407, 0.7883349657058716, 0.7804939150810242, 0.7120994329452515, 0.7834476232528687, 0.6791859269142151, 0.5127044320106506, 0.5127633213996887, 0.6656145453453064, 0.7758961319923401, 0.8035539388656616, 0.7034607529640198, 0.8283169865608215, 0.826091468334198, 0.9222443103790283, 0.9608831405639648, 0.9420517086982727, 0.8991894125938416, 0.9505077004432678, 0.9457112550735474, 0.8897225856781006, 0.8806009292602539, 0.9187192916870117, 0.927474319934845, 0.8208442330360413, 0.7968116402626038, 0.9673182368278503, 0.9648379683494568, 0.9428511261940002, 0.872191309928894, 0.8344735503196716, 0.885238528251648, 0.6866952180862427, 0.8315349221229553, 0.8703462481498718, 0.8262999653816223, 0.7486491203308105, 0.5867249369621277, 0.5815396308898926, 0.4967588782310486, 0.44917887449264526, 0.44416579604148865, 0.45250046253204346, 0.39883601665496826, 0.7061564922332764, 0.9027957320213318, 0.7504475116729736, 0.7073416113853455, 0.75689697265625, 0.8219943642616272, 0.8603281378746033, 0.7455776929855347, 0.7909209728240967, 0.6720440983772278, 0.3083793818950653, 0.23230516910552979, 0.4145377576351166, 0.6813808679580688, 0.8282391428947449, 0.9106783270835876, 0.8149293661117554, 0.792132556438446, 0.8975138664245605, 0.784662127494812, 0.7566734552383423, 0.7608217597007751]</t>
+          <t>[0.7879011631011963, 0.9590907096862793, 0.9860266447067261, 0.9839617013931274, 0.7858990430831909, 0.8174521923065186, 0.781099796295166, 0.6971452236175537, 0.6901680827140808, 0.7743592858314514, 0.9194952249526978, 0.9446622133255005, 0.9838070869445801, 0.9829651713371277, 0.9502938985824585, 0.9455925822257996, 0.9664267301559448, 0.7584805488586426, 0.9591243267059326, 0.9579878449440002, 0.982455313205719, 0.9855213761329651, 0.9594646692276001, 0.9692989587783813, 0.9652952551841736, 0.9340660572052002, 0.9168767333030701, 0.9689263701438904, 0.9766141772270203, 0.9881096482276917, 0.9906527996063232, 0.9795636534690857, 0.9732489585876465, 0.9526588320732117, 0.9204087257385254, 0.8896617293357849, 0.9551740884780884, 0.9471487998962402, 0.9395840167999268, 0.9625002145767212, 0.9470757842063904, 0.7670265436172485, 0.5162599682807922, 0.6912152767181396, 0.7528319954872131, 0.8029335141181946, 0.692905604839325, 0.6238427758216858, 0.5772469639778137, 0.8502106070518494, 0.9088965654373169, 0.7898750305175781, 0.8585412502288818, 0.9511935114860535, 0.942653477191925, 0.9604049324989319, 0.9834100604057312, 0.9493747353553772, 0.9077589511871338, 0.9444867372512817, 0.9356111288070679, 0.8917384743690491, 0.9348880052566528, 0.8760876655578613, 0.7651365399360657, 0.729636549949646, 0.8657819628715515, 0.8985195159912109, 0.9334371089935303, 0.8687911629676819, 0.9434881806373596, 0.9515509009361267, 0.9822489023208618, 0.9905071258544922, 0.9865748286247253, 0.9757478833198547, 0.9895009398460388, 0.9913159608840942, 0.9788724780082703, 0.9784269332885742, 0.9884269833564758, 0.9910212159156799, 0.9782819151878357, 0.9698683619499207, 0.9944479465484619, 0.991769552230835, 0.9864967465400696, 0.9721632599830627, 0.9608281254768372, 0.9658642411231995, 0.9262266755104065, 0.9657341241836548, 0.9710002541542053, 0.9610875844955444, 0.9295862913131714, 0.8710569739341736, 0.8720248937606812, 0.8129256963729858, 0.7932557463645935, 0.8212410807609558, 0.7987949252128601, 0.7165768146514893, 0.90274977684021, 0.9784237742424011, 0.9122437834739685, 0.90400230884552, 0.9409326910972595, 0.9640978574752808, 0.9698430299758911, 0.9244815707206726, 0.9493507146835327, 0.9331888556480408, 0.5823682546615601, 0.38022172451019287, 0.6495716571807861, 0.8961710929870605, 0.9667074680328369, 0.9708396792411804, 0.9377601742744446, 0.9613568782806396, 0.9762651324272156, 0.9509415030479431, 0.9169589281082153, 0.9187971353530884]</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.9673182368278503</v>
+        <v>0.9944479465484619</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
@@ -4783,10 +4783,10 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0.7109545000130311</v>
+        <v>0.7148425000050338</v>
       </c>
       <c r="J106" t="n">
-        <v>0.005733504032363153</v>
+        <v>0.005764858871008337</v>
       </c>
     </row>
     <row r="107">
@@ -4805,11 +4805,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[0.5640469193458557, 0.5579788684844971, 0.6604023575782776, 0.42506879568099976, 0.43152058124542236, 0.39660125970840454, 0.4583386778831482, 0.5502830743789673, 0.6008400321006775, 0.5685908794403076, 0.5148395299911499, 0.6014035940170288, 0.5836783647537231, 0.6666144132614136, 0.648004412651062, 0.6106951832771301, 0.5335837006568909, 0.34332603216171265, 0.5825130343437195, 0.7675455808639526, 0.8440842628479004, 0.8725763559341431, 0.9120576977729797, 0.7580329179763794, 0.8137708902359009, 0.7975704669952393, 0.888601541519165, 0.9226582646369934, 0.8549211025238037, 0.8620016574859619, 0.9224650263786316, 0.9035640358924866, 0.7749115824699402, 0.8981301188468933, 0.8722547888755798, 0.7762162089347839, 0.7318751215934753, 0.9376221299171448, 0.9504401087760925, 0.9321774244308472, 0.8825872540473938, 0.9335448145866394, 0.9201080799102783, 0.9111312031745911, 0.7941275835037231, 0.7704431414604187, 0.5573170185089111, 0.6956523656845093, 0.46109074354171753, 0.4367830455303192, 0.5102512240409851, 0.5284652709960938, 0.5643003582954407, 0.6267961263656616, 0.4758709967136383, 0.784049928188324, 0.6275416612625122, 0.6678125262260437, 0.45277878642082214, 0.52132648229599, 0.3587202727794647, 0.5042284727096558, 0.5366961359977722, 0.6079992651939392, 0.582535445690155, 0.5964832901954651, 0.49220606684684753, 0.5989812016487122, 0.5680541396141052, 0.5198795795440674, 0.4587867558002472, 0.4108524024486542, 0.5164837837219238, 0.31632891297340393, 0.5047643780708313, 0.8591251373291016, 0.9187079071998596, 0.8606725931167603, 0.878061056137085, 0.8205353021621704, 0.8049352169036865, 0.9068019390106201, 0.9276835322380066, 0.94437175989151, 0.9190229177474976, 0.8739891052246094, 0.8558689951896667, 0.7804350852966309, 0.829124391078949, 0.838102400302887, 0.8969466090202332, 0.9178956747055054, 0.9476152062416077, 0.8428764939308167, 0.8583894371986389, 0.7870985865592957, 0.8394448757171631, 0.8609643578529358, 0.8994747996330261, 0.9092970490455627, 0.9146136045455933, 0.9266237616539001, 0.9255653619766235, 0.8618797063827515, 0.8585802316665649, 0.910087525844574, 0.8464716672897339, 0.8329836130142212, 0.8687438368797302, 0.9168425798416138, 0.9282127022743225, 0.9616941213607788, 0.9544995427131653, 0.9647921323776245, 0.9727204442024231, 0.9707611203193665, 0.9272223114967346, 0.949919581413269, 0.9712288975715637, 0.9766508936882019, 0.9617487192153931, 0.9464750289916992, 0.8407344818115234, 0.8399451971054077]</t>
+          <t>[0.4863809645175934, 0.6096915006637573, 0.652658998966217, 0.43653592467308044, 0.4023164212703705, 0.27333498001098633, 0.42728710174560547, 0.5387303829193115, 0.5819807052612305, 0.6198820471763611, 0.5151485800743103, 0.6397444605827332, 0.6231606006622314, 0.7275727391242981, 0.7007686495780945, 0.6416595578193665, 0.545189619064331, 0.3137969672679901, 0.6235110759735107, 0.7128967046737671, 0.8130577802658081, 0.8949613571166992, 0.9292384386062622, 0.7620255351066589, 0.8270816802978516, 0.8184581995010376, 0.8992651700973511, 0.9273855686187744, 0.8377736210823059, 0.872017502784729, 0.9069012403488159, 0.9106507897377014, 0.7400830984115601, 0.8963180184364319, 0.9107804894447327, 0.8178592324256897, 0.7777934074401855, 0.9652613997459412, 0.9646150469779968, 0.9504836797714233, 0.9093261361122131, 0.9614250063896179, 0.9585318565368652, 0.9393974542617798, 0.787797749042511, 0.7935333847999573, 0.6077092289924622, 0.7504044771194458, 0.437927782535553, 0.45693427324295044, 0.5609841346740723, 0.6010441184043884, 0.6720904111862183, 0.7850764393806458, 0.5457931160926819, 0.8895127773284912, 0.7745698690414429, 0.7846146821975708, 0.4193854033946991, 0.4989873170852661, 0.28872808814048767, 0.48304301500320435, 0.5085485577583313, 0.6393738389015198, 0.5923137664794922, 0.653434157371521, 0.5707186460494995, 0.734272837638855, 0.638227641582489, 0.538310170173645, 0.5238588452339172, 0.4620719254016876, 0.5863158106803894, 0.31402549147605896, 0.5584769248962402, 0.8833931088447571, 0.9486849308013916, 0.9007083177566528, 0.9094482660293579, 0.8618162870407104, 0.8654510974884033, 0.9261435270309448, 0.9627054333686829, 0.9742968082427979, 0.9542171359062195, 0.9377865195274353, 0.9264644980430603, 0.8731884360313416, 0.8750916123390198, 0.9091576933860779, 0.929402232170105, 0.9528461694717407, 0.9751912951469421, 0.9036927819252014, 0.9317673444747925, 0.8602910041809082, 0.892643392086029, 0.8951647877693176, 0.9132536053657532, 0.9243543148040771, 0.9278939962387085, 0.9446379542350769, 0.9450544118881226, 0.8690099716186523, 0.8739405870437622, 0.9337769150733948, 0.8823672533035278, 0.8527392745018005, 0.8730811476707458, 0.9290561676025391, 0.9619815349578857, 0.9820513725280762, 0.9824202060699463, 0.9873239994049072, 0.9869396686553955, 0.9847559332847595, 0.9593461155891418, 0.973412275314331, 0.9861509203910828, 0.99017733335495, 0.9833637475967407, 0.9750381112098694, 0.8760054707527161, 0.8762916922569275]</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.9766508936882019</v>
+        <v>0.99017733335495</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0.7139208000153303</v>
+        <v>0.7146575000078883</v>
       </c>
       <c r="J107" t="n">
-        <v>0.005757425806575244</v>
+        <v>0.005763366935547487</v>
       </c>
     </row>
     <row r="108">
@@ -4845,11 +4845,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>[0.43449705839157104, 0.5877841114997864, 0.4053059220314026, 0.42317622900009155, 0.5288193225860596, 0.27842381596565247, 0.4650000333786011, 0.5242090821266174, 0.5807520747184753, 0.3974404036998749, 0.6784148812294006, 0.7921744585037231, 0.822186291217804, 0.7667545080184937, 0.7580811381340027, 0.660571277141571, 0.4724748432636261, 0.20616932213306427, 0.279904842376709, 0.5871272683143616, 0.7977628707885742, 0.8048819899559021, 0.683966338634491, 0.4793986678123474, 0.5120407938957214, 0.5208129286766052, 0.29187270998954773, 0.22148549556732178, 0.2875722050666809, 0.3849717676639557, 0.5799413919448853, 0.1957404911518097, 0.3416686952114105, 0.7644692063331604, 0.7525403499603271, 0.7726514935493469, 0.7257885336875916, 0.7175711989402771, 0.40275269746780396, 0.5002265572547913, 0.27306729555130005, 0.18017174303531647, 0.21009786427021027, 0.34597864747047424, 0.3406907916069031, 0.2127920389175415, 0.08161202073097229, 0.09316088259220123, 0.12428660690784454, 0.0733683779835701, 0.06945555657148361, 0.07811840623617172, 0.06629873812198639, 0.13110502064228058, 0.1256197988986969, 0.1084393635392189, 0.1071888655424118, 0.17829053103923798, 0.20260405540466309, 0.06342767924070358, 0.09795032441616058, 0.06788456439971924, 0.10795404016971588, 0.08579801768064499, 0.06315136700868607, 0.08330482244491577, 0.061300236731767654, 0.09320883452892303, 0.07287244498729706, 0.06865908205509186, 0.1244155764579773, 0.12450339645147324, 0.10708308964967728, 0.10932785272598267, 0.15047456324100494, 0.09342072159051895, 0.06930364668369293, 0.04854366183280945, 0.1122441440820694, 0.15593715012073517, 0.39581942558288574, 0.23605027794837952, 0.31772592663764954, 0.6698852181434631, 0.6003151535987854, 0.5651276707649231, 0.35096776485443115, 0.471393883228302, 0.3684677183628082, 0.241652712225914, 0.3231355845928192, 0.260381281375885, 0.13407644629478455, 0.07293892651796341, 0.08539580553770065, 0.07237303256988525, 0.11407626420259476, 0.14555783569812775, 0.2573569416999817, 0.12730546295642853, 0.10426820069551468, 0.12694285809993744, 0.17609018087387085, 0.12819525599479675, 0.08892233669757843, 0.11452089995145798, 0.29163748025894165, 0.2583364248275757, 0.19527235627174377, 0.10444741696119308, 0.08163275569677353, 0.11499051749706268, 0.08337264508008957, 0.2137688398361206, 0.11818961799144745, 0.10800334066152573, 0.13927190005779266, 0.11834727972745895, 0.30160391330718994, 0.388075053691864, 0.40204158425331116, 0.18597595393657684, 0.26003777980804443, 0.26089730858802795]</t>
+          <t>[0.5020636916160583, 0.7259770631790161, 0.46778279542922974, 0.3842531740665436, 0.6028919816017151, 0.28489479422569275, 0.3973521888256073, 0.4364449083805084, 0.49233853816986084, 0.29813137650489807, 0.6290245056152344, 0.8474942445755005, 0.8356826901435852, 0.8312572836875916, 0.8100876808166504, 0.7378145456314087, 0.5846031904220581, 0.2513408362865448, 0.3936918079853058, 0.7449199557304382, 0.9273138642311096, 0.9422471523284912, 0.8597292900085449, 0.5554904341697693, 0.5812309980392456, 0.6447347402572632, 0.37126219272613525, 0.36715012788772583, 0.5539489388465881, 0.642562985420227, 0.8572150468826294, 0.18447694182395935, 0.31971514225006104, 0.7669739723205566, 0.6929585337638855, 0.7627971172332764, 0.745926558971405, 0.662548840045929, 0.4488491117954254, 0.45848482847213745, 0.19965410232543945, 0.10934042930603027, 0.12525179982185364, 0.2897370159626007, 0.2893522381782532, 0.16480249166488647, 0.05842791870236397, 0.05166690796613693, 0.06603332608938217, 0.037243496626615524, 0.03199097514152527, 0.033075544983148575, 0.023529376834630966, 0.07676254212856293, 0.07708605378866196, 0.04418036341667175, 0.040478311479091644, 0.0780804306268692, 0.10070297867059708, 0.01624864712357521, 0.03926979377865791, 0.02575025148689747, 0.06358804553747177, 0.03615158796310425, 0.02620110474526882, 0.04678332805633545, 0.037540026009082794, 0.0849900022149086, 0.03581118583679199, 0.032095376402139664, 0.08581926673650742, 0.06543055176734924, 0.054448846727609634, 0.06595195084810257, 0.1436454802751541, 0.06600873917341232, 0.028742346912622452, 0.026982109993696213, 0.10952452570199966, 0.18193593621253967, 0.34017202258110046, 0.21494804322719574, 0.35874903202056885, 0.7751704454421997, 0.5800979733467102, 0.6696447730064392, 0.4508613049983978, 0.6752141118049622, 0.41732099652290344, 0.20317940413951874, 0.2961018681526184, 0.3231801688671112, 0.14521397650241852, 0.04921286925673485, 0.06862888485193253, 0.051910705864429474, 0.09581323713064194, 0.13848572969436646, 0.29247239232063293, 0.11056026071310043, 0.09405403584241867, 0.12483637779951096, 0.14799590408802032, 0.13286934792995453, 0.11340855062007904, 0.09594908356666565, 0.29495784640312195, 0.2907540500164032, 0.20504973828792572, 0.08395083248615265, 0.07086456567049026, 0.134322389960289, 0.10242348909378052, 0.3073245882987976, 0.16960039734840393, 0.13876453042030334, 0.16034288704395294, 0.15105116367340088, 0.40471601486206055, 0.782555878162384, 0.6739293932914734, 0.23269768059253693, 0.4163072109222412, 0.41749075055122375]</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.822186291217804</v>
+        <v>0.9422471523284912</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
@@ -4863,10 +4863,10 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0.7160149999835994</v>
+        <v>0.7234846999926958</v>
       </c>
       <c r="J108" t="n">
-        <v>0.00577431451599677</v>
+        <v>0.00583455403219916</v>
       </c>
     </row>
     <row r="109">
@@ -4885,11 +4885,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[0.7326210737228394, 0.8595755100250244, 0.8852493762969971, 0.7078662514686584, 0.8331175446510315, 0.6670463681221008, 0.8274540305137634, 0.8090602159500122, 0.9438679218292236, 0.965884804725647, 0.978423535823822, 0.9622098207473755, 0.7713696360588074, 0.6882720589637756, 0.5524353981018066, 0.6978877782821655, 0.4763520658016205, 0.739837110042572, 0.7433709502220154, 0.6747730374336243, 0.6956341862678528, 0.6888566017150879, 0.831301748752594, 0.732357382774353, 0.7171757221221924, 0.9479827284812927, 0.9084347486495972, 0.9428015351295471, 0.8893198370933533, 0.9070982933044434, 0.8622748255729675, 0.8414914011955261, 0.840913712978363, 0.8945476412773132, 0.8612866401672363, 0.948387086391449, 0.956929624080658, 0.968471884727478, 0.9471617341041565, 0.922818660736084, 0.9302400350570679, 0.9210584759712219, 0.8447088599205017, 0.7000185251235962, 0.8109797835350037, 0.606204628944397, 0.4828357994556427, 0.5276676416397095, 0.710051417350769, 0.7642441391944885, 0.5617888569831848, 0.301145076751709, 0.4117785394191742, 0.37650391459465027, 0.4806179106235504, 0.543337881565094, 0.4604153037071228, 0.4368259608745575, 0.472688227891922, 0.3515576124191284, 0.5878351330757141, 0.7072307467460632, 0.574039876461029, 0.7025874257087708, 0.7485929131507874, 0.8173757791519165, 0.786191999912262, 0.8909800052642822, 0.8507762551307678, 0.7641063928604126, 0.8834178447723389, 0.9103979468345642, 0.9225400686264038, 0.8552054166793823, 0.8947699666023254, 0.9134848117828369, 0.9094887971878052, 0.9334801435470581, 0.8922244906425476, 0.8040938973426819, 0.7211344242095947, 0.7545085549354553, 0.9228993654251099, 0.9531921744346619, 0.973800778388977, 0.9769033789634705, 0.9678571820259094, 0.9488340020179749, 0.9060245752334595, 0.9564058780670166, 0.9497582912445068, 0.9571579694747925, 0.9065141081809998, 0.6013420820236206, 0.7386579513549805, 0.6832659244537354, 0.7932296991348267, 0.8066317439079285, 0.758908212184906, 0.8461655974388123, 0.8288941979408264, 0.6536469459533691, 0.554488480091095, 0.4047873914241791, 0.4207805097103119, 0.4153267741203308, 0.38896802067756653, 0.32577797770500183, 0.5226711630821228, 0.307980477809906, 0.5252184271812439, 0.4948049783706665, 0.49176228046417236, 0.48535820841789246, 0.5452706217765808, 0.8036108613014221, 0.9378745555877686, 0.6970510482788086, 0.8934735655784607, 0.834952712059021, 0.8255571126937866, 0.8959487080574036, 0.9479436278343201, 0.9480034112930298]</t>
+          <t>[0.7549023032188416, 0.8532098531723022, 0.9041739702224731, 0.7024531960487366, 0.8332262635231018, 0.6458287239074707, 0.8241137266159058, 0.7751615643501282, 0.9519034028053284, 0.9776138067245483, 0.9919925928115845, 0.9875526428222656, 0.844954788684845, 0.8026366829872131, 0.7065304517745972, 0.8322855234146118, 0.4739723205566406, 0.8020206093788147, 0.8121644854545593, 0.6099088191986084, 0.6326565146446228, 0.6747232675552368, 0.8876933455467224, 0.8171383142471313, 0.7329628467559814, 0.9722841382026672, 0.925193190574646, 0.9588618874549866, 0.8843627572059631, 0.919187068939209, 0.8567705750465393, 0.8728043437004089, 0.8970071077346802, 0.9391324520111084, 0.9364537000656128, 0.9731646180152893, 0.9788303971290588, 0.9900514483451843, 0.9671046733856201, 0.939590334892273, 0.9525123834609985, 0.9527078866958618, 0.852424681186676, 0.7254670262336731, 0.8415908217430115, 0.5309867858886719, 0.34003472328186035, 0.45980846881866455, 0.7006014585494995, 0.7849628329277039, 0.5270906090736389, 0.1964511126279831, 0.33819395303726196, 0.3296310007572174, 0.48615264892578125, 0.5033650994300842, 0.3413936495780945, 0.3423289358615875, 0.3999410569667816, 0.24853576719760895, 0.5723876953125, 0.7107844948768616, 0.507473886013031, 0.7016198635101318, 0.7481189370155334, 0.7749315500259399, 0.7573807239532471, 0.8959569334983826, 0.7970442771911621, 0.7315333485603333, 0.8970579504966736, 0.9113466739654541, 0.9183343648910522, 0.8234025835990906, 0.9100105166435242, 0.9386613368988037, 0.9338139891624451, 0.9713014364242554, 0.9404758214950562, 0.8557826280593872, 0.7398942708969116, 0.7707191109657288, 0.9517427086830139, 0.9619881510734558, 0.9807274341583252, 0.9849757552146912, 0.9845269918441772, 0.9628729820251465, 0.8969434499740601, 0.9728413820266724, 0.9411923289299011, 0.9563203454017639, 0.9003931283950806, 0.62615567445755, 0.789181649684906, 0.8072563409805298, 0.8677591681480408, 0.8936859369277954, 0.8248128890991211, 0.8672565817832947, 0.8675447106361389, 0.6821100115776062, 0.560052216053009, 0.3885487914085388, 0.5084627866744995, 0.48591071367263794, 0.42421892285346985, 0.3103273808956146, 0.5645524263381958, 0.283837229013443, 0.5507286787033081, 0.4084080159664154, 0.4625732898712158, 0.40155211091041565, 0.44728797674179077, 0.7917907238006592, 0.9424471259117126, 0.6777040362358093, 0.9110701084136963, 0.8588468432426453, 0.87177574634552, 0.9587342143058777, 0.9787135720252991, 0.978723406791687]</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.978423535823822</v>
+        <v>0.9919925928115845</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
@@ -4903,10 +4903,10 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0.7149487999849953</v>
+        <v>0.718904899986228</v>
       </c>
       <c r="J109" t="n">
-        <v>0.005765716128911252</v>
+        <v>0.005797620161179258</v>
       </c>
     </row>
     <row r="110">
@@ -4925,11 +4925,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>[0.1244886964559555, 0.13363869488239288, 0.11456400156021118, 0.08531632274389267, 0.06238921359181404, 0.07762829214334488, 0.05662817507982254, 0.05605972930788994, 0.04473159834742546, 0.049621619284152985, 0.04307158663868904, 0.08443085104227066, 0.0788869708776474, 0.1488931030035019, 0.1456792950630188, 0.08833495527505875, 0.0803353562951088, 0.07081247866153717, 0.04505348950624466, 0.13655409216880798, 0.18449218571186066, 0.28254616260528564, 0.21124351024627686, 0.26206037402153015, 0.13283832371234894, 0.26790520548820496, 0.21599745750427246, 0.15631307661533356, 0.15016254782676697, 0.08532998710870743, 0.1307971328496933, 0.09904021769762039, 0.1511193960905075, 0.22919097542762756, 0.27528107166290283, 0.22955705225467682, 0.313973605632782, 0.18951554596424103, 0.09886010736227036, 0.11191828548908234, 0.15433885157108307, 0.12530863285064697, 0.08268550038337708, 0.11557430773973465, 0.08025459200143814, 0.07446958869695663, 0.07837308198213577, 0.08515533059835434, 0.07030026614665985, 0.06911669671535492, 0.08523286879062653, 0.0876026600599289, 0.09028972685337067, 0.08574618399143219, 0.13399794697761536, 0.11373288929462433, 0.11754131317138672, 0.13674050569534302, 0.18745803833007812, 0.09226403385400772, 0.1081455796957016, 0.10314241796731949, 0.07636713981628418, 0.05396902188658714, 0.032047390937805176, 0.030373239889740944, 0.025727340951561928, 0.030992044135928154, 0.03983018547296524, 0.027816226705908775, 0.03791129216551781, 0.05324900522828102, 0.06281076371669769, 0.04688165709376335, 0.05829552933573723, 0.0806097686290741, 0.08786765486001968, 0.06035240367054939, 0.04974114149808884, 0.04240548238158226, 0.05594264715909958, 0.07283800095319748, 0.09312841296195984, 0.12916457653045654, 0.18077115714550018, 0.055353984236717224, 0.09965929388999939, 0.34570732712745667, 0.27488186955451965, 0.21138125658035278, 0.20150992274284363, 0.3438864052295685, 0.1440977305173874, 0.21456390619277954, 0.42989033460617065, 0.7089939117431641, 0.6917434334754944, 0.6249584555625916, 0.429923415184021, 0.3734937906265259, 0.33065637946128845, 0.30291154980659485, 0.23182730376720428, 0.356300413608551, 0.5408045053482056, 0.5117256045341492, 0.20081180334091187, 0.35262149572372437, 0.20405828952789307, 0.42408668994903564, 0.21728023886680603, 0.24174915254116058, 0.315134733915329, 0.32476696372032166, 0.1967872679233551, 0.418098509311676, 0.2389775812625885, 0.28157368302345276, 0.19020704925060272, 0.18334703147411346, 0.22522902488708496, 0.24009080231189728, 0.10757899284362793, 0.10687436908483505]</t>
+          <t>[0.12242648750543594, 0.1232423260807991, 0.08566814661026001, 0.06865233927965164, 0.039468929171562195, 0.041744109243154526, 0.029108311980962753, 0.029384838417172432, 0.023298880085349083, 0.029020000249147415, 0.024067649617791176, 0.05177445709705353, 0.04423373565077782, 0.11717168986797333, 0.1355437934398651, 0.07196686416864395, 0.06039547175168991, 0.04850522428750992, 0.03245855122804642, 0.10109047591686249, 0.15188932418823242, 0.2179197371006012, 0.2210497111082077, 0.2228282392024994, 0.07967124879360199, 0.23712043464183807, 0.23781415820121765, 0.15071605145931244, 0.1814681887626648, 0.0704260841012001, 0.07977494597434998, 0.0718400627374649, 0.16522501409053802, 0.20235611498355865, 0.20491330325603485, 0.20638491213321686, 0.3345910310745239, 0.20119871199131012, 0.06972730159759521, 0.09299597144126892, 0.12227267026901245, 0.10014237463474274, 0.06866457313299179, 0.07156214118003845, 0.04597409442067146, 0.04172758385539055, 0.041085824370384216, 0.059633225202560425, 0.03673010319471359, 0.03694543614983559, 0.05605437234044075, 0.041640568524599075, 0.05379100516438484, 0.049214817583560944, 0.09554390609264374, 0.07957283407449722, 0.08316213637590408, 0.08929542452096939, 0.15738508105278015, 0.05264712870121002, 0.06827226281166077, 0.0598682165145874, 0.038024645298719406, 0.028964586555957794, 0.015836892649531364, 0.014154436066746712, 0.010686470195651054, 0.014803527854382992, 0.019495896995067596, 0.012920692563056946, 0.021106120198965073, 0.0326477475464344, 0.05061265826225281, 0.026861339807510376, 0.030972795560956, 0.03838561847805977, 0.03750987723469734, 0.026131102815270424, 0.02554565668106079, 0.022676602005958557, 0.042233385145664215, 0.058528002351522446, 0.09014628082513809, 0.10588141530752182, 0.1609003096818924, 0.035455938428640366, 0.10210127383470535, 0.3788280189037323, 0.33307912945747375, 0.24562253057956696, 0.21670877933502197, 0.36562445759773254, 0.14354616403579712, 0.1800854653120041, 0.3142337203025818, 0.7499155402183533, 0.6914184093475342, 0.6396675705909729, 0.3488074243068695, 0.2867780029773712, 0.2714485228061676, 0.21458184719085693, 0.1366724669933319, 0.34092676639556885, 0.520434558391571, 0.44654184579849243, 0.12900790572166443, 0.35916879773139954, 0.19848857820034027, 0.44377100467681885, 0.15940919518470764, 0.26725420355796814, 0.42956236004829407, 0.3754200339317322, 0.16359658539295197, 0.45755019783973694, 0.19207268953323364, 0.23779916763305664, 0.17423295974731445, 0.19542960822582245, 0.2566756010055542, 0.2940977215766907, 0.10073618590831757, 0.09973128139972687]</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.7089939117431641</v>
+        <v>0.7499155402183533</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
@@ -4943,10 +4943,10 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0.7098337000061292</v>
+        <v>0.7136203999980353</v>
       </c>
       <c r="J110" t="n">
-        <v>0.005724465322630074</v>
+        <v>0.005755003225790607</v>
       </c>
     </row>
     <row r="111">
@@ -4965,11 +4965,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[0.09502708911895752, 0.09473638981580734, 0.0920429602265358, 0.06874950230121613, 0.08549325913190842, 0.09225939214229584, 0.10003221035003662, 0.09002234041690826, 0.07747973501682281, 0.09479911625385284, 0.19078600406646729, 0.2364513874053955, 0.32413944602012634, 0.30927541851997375, 0.25509437918663025, 0.40364763140678406, 0.2738228142261505, 0.20124992728233337, 0.22544264793395996, 0.2903027832508087, 0.29406479001045227, 0.23412814736366272, 0.25869131088256836, 0.189988374710083, 0.18192704021930695, 0.1613503247499466, 0.2968251407146454, 0.3405478298664093, 0.39265310764312744, 0.3346516191959381, 0.3494822382926941, 0.5794843435287476, 0.44023844599723816, 0.5279760956764221, 0.37224316596984863, 0.2935551404953003, 0.25726351141929626, 0.3621037006378174, 0.26752686500549316, 0.32213854789733887, 0.23314246535301208, 0.41167759895324707, 0.3172576427459717, 0.5365256667137146, 0.32561689615249634, 0.34131988883018494, 0.2330968976020813, 0.23122939467430115, 0.15534763038158417, 0.16609375178813934, 0.11116264015436172, 0.17328406870365143, 0.13313430547714233, 0.24246622622013092, 0.3411940038204193, 0.2551310062408447, 0.23828710615634918, 0.1249932199716568, 0.13653923571109772, 0.09622335433959961, 0.09865346550941467, 0.0907585471868515, 0.09608251601457596, 0.10893246531486511, 0.11063800752162933, 0.11739403009414673, 0.0939302071928978, 0.09519310295581818, 0.08759390562772751, 0.0833742693066597, 0.06330148130655289, 0.07033093273639679, 0.07376963645219803, 0.06848514825105667, 0.05545244365930557, 0.04437868297100067, 0.048844099044799805, 0.037890952080488205, 0.03597006946802139, 0.03313495218753815, 0.03337103873491287, 0.049828074872493744, 0.053726676851511, 0.0409928597509861, 0.03300987929105759, 0.05463829264044762, 0.05828969553112984, 0.060047511011362076, 0.07236658781766891, 0.10298866033554077, 0.10265781730413437, 0.1799250990152359, 0.1307484656572342, 0.11829651147127151, 0.14200876653194427, 0.09523319453001022, 0.08718133717775345, 0.18671992421150208, 0.11639051139354706, 0.08998294174671173, 0.093974769115448, 0.0839463397860527, 0.1150420680642128, 0.10647666454315186, 0.0820791944861412, 0.08420953899621964, 0.16796137392520905, 0.26624536514282227, 0.16014346480369568, 0.28719228506088257, 0.21817933022975922, 0.22400400042533875, 0.2830100357532501, 0.13981111347675323, 0.12807317078113556, 0.10777781158685684, 0.07199952751398087, 0.08941981196403503, 0.13022543489933014, 0.12816208600997925, 0.15849728882312775, 0.13912880420684814, 0.11965466290712357, 0.11952345073223114]</t>
+          <t>[0.08634606748819351, 0.09515201300382614, 0.08250273764133453, 0.04805135354399681, 0.0533108189702034, 0.06149350479245186, 0.06335242092609406, 0.05668165907263756, 0.037499282509088516, 0.06339795142412186, 0.24012991786003113, 0.25210756063461304, 0.39063727855682373, 0.40662601590156555, 0.31546953320503235, 0.5294936895370483, 0.3397926688194275, 0.21978262066841125, 0.21594934165477753, 0.34073102474212646, 0.2981499433517456, 0.2714219391345978, 0.22906380891799927, 0.14430715143680573, 0.1451093703508377, 0.11979769170284271, 0.32832902669906616, 0.36750540137290955, 0.3639449179172516, 0.3044815957546234, 0.28526800870895386, 0.6058785319328308, 0.42334893345832825, 0.4369279146194458, 0.33618953824043274, 0.2598269581794739, 0.20263653993606567, 0.28671202063560486, 0.178333580493927, 0.27862370014190674, 0.19355115294456482, 0.36271825432777405, 0.238830104470253, 0.4999642074108124, 0.2475939244031906, 0.2929104268550873, 0.1777881383895874, 0.16940423846244812, 0.10080400109291077, 0.1258935183286667, 0.05849022418260574, 0.1223939061164856, 0.07461630553007126, 0.18136566877365112, 0.2752212584018707, 0.22170348465442657, 0.18014320731163025, 0.07254369556903839, 0.09412673860788345, 0.05810055509209633, 0.052555542439222336, 0.04350842162966728, 0.058403972536325455, 0.07921501249074936, 0.0699065774679184, 0.09486133605241776, 0.06216029077768326, 0.07032264769077301, 0.05684664472937584, 0.04856684431433678, 0.0350622795522213, 0.04060379043221474, 0.04059550538659096, 0.03749580681324005, 0.03284037485718727, 0.01858021877706051, 0.022941742092370987, 0.014272432774305344, 0.011740611866116524, 0.009738082066178322, 0.011566482484340668, 0.022203268483281136, 0.028949784114956856, 0.01828821189701557, 0.01575627364218235, 0.04755045473575592, 0.04529707878828049, 0.03695817291736603, 0.042617689818143845, 0.07668434083461761, 0.06448502093553543, 0.16985730826854706, 0.07759847491979599, 0.08722008764743805, 0.09230169653892517, 0.06175709515810013, 0.05517904832959175, 0.1366899460554123, 0.06495287269353867, 0.041757870465517044, 0.05214947089552879, 0.05345658212900162, 0.06769603490829468, 0.05570809915661812, 0.03744541108608246, 0.04481096938252449, 0.1426096111536026, 0.27680718898773193, 0.1547902673482895, 0.2528627812862396, 0.13122345507144928, 0.18587614595890045, 0.2788223624229431, 0.1001671776175499, 0.08478878438472748, 0.06332803517580032, 0.03308386728167534, 0.05597463250160217, 0.11515951156616211, 0.12061402946710587, 0.12959441542625427, 0.12385819107294083, 0.06843078881502151, 0.06842166185379028]</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.5794843435287476</v>
+        <v>0.6058785319328308</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0.7148922999913339</v>
+        <v>0.7188682000123663</v>
       </c>
       <c r="J111" t="n">
-        <v>0.005765260483801079</v>
+        <v>0.005797324193648115</v>
       </c>
     </row>
     <row r="112">
@@ -5005,11 +5005,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>[0.027467234060168266, 0.3464229106903076, 0.18412655591964722, 0.15127046406269073, 0.19620396196842194, 0.4327947497367859, 0.3129131495952606, 0.18693037331104279, 0.049290064722299576, 0.053861428052186966, 0.06387217342853546, 0.178940549492836, 0.37885603308677673, 0.13949079811573029, 0.5420733690261841, 0.41656768321990967, 0.22983317077159882, 0.35446181893348694, 0.3536488711833954, 0.4359503388404846, 0.1467052400112152, 0.14187142252922058, 0.13872991502285004, 0.07424319535493851, 0.20890910923480988, 0.6515465378761292, 0.22080175578594208, 0.08199595659971237, 0.1323699653148651, 0.11687770485877991, 0.07649337500333786, 0.09491539001464844, 0.08067795634269714, 0.14151522517204285, 0.2004948854446411, 0.03443187102675438, 0.041853949427604675, 0.024258295074105263, 0.02675199694931507, 0.018792562186717987, 0.032632436603307724, 0.09982574731111526, 0.2370477169752121, 0.06393075734376907, 0.05284321680665016, 0.10032086074352264, 0.29858431220054626, 0.712120771408081, 0.8146868348121643, 0.5366727113723755, 0.24109481275081635, 0.209906205534935, 0.18356254696846008, 0.17388510704040527, 0.2012336552143097, 0.14082452654838562, 0.14601066708564758, 0.3853769302368164, 0.432081401348114, 0.19795075058937073, 0.08379669487476349, 0.05364617332816124, 0.0564081110060215, 0.025104394182562828, 0.021452661603689194, 0.02804389037191868, 0.02558561973273754, 0.01839643158018589, 0.022236231714487076, 0.023879170417785645, 0.032348018139600754, 0.12433414906263351, 0.19637371599674225, 0.2456144392490387, 0.22489260137081146, 0.0767696350812912, 0.03735554963350296, 0.032159604132175446, 0.036387667059898376, 0.16055943071842194, 0.2801568806171417, 0.24514570832252502, 0.4440158009529114, 0.22040775418281555, 0.09409455955028534, 0.13011214137077332, 0.17913062870502472, 0.10325869172811508, 0.08255063742399216, 0.21689331531524658, 0.22286908328533173, 0.2724842429161072, 0.4767252802848816, 0.3618756830692291, 0.209297314286232, 0.2978091537952423, 0.2514517605304718, 0.6740645170211792, 0.26809999346733093, 0.14846213161945343, 0.09891807287931442, 0.09711193293333054, 0.22420533001422882, 0.25665852427482605, 0.11711619049310684, 0.10201575607061386, 0.3387228548526764, 0.18186256289482117, 0.09161600470542908, 0.29146862030029297, 0.07319686561822891, 0.16323222219944, 0.11505391448736191, 0.23450058698654175, 0.09592166543006897, 0.2683641314506531, 0.14257022738456726, 0.10844708979129791, 0.3947562277317047, 0.22547167539596558, 0.7131346464157104, 0.3056418001651764, 0.15757644176483154, 0.1999252736568451, 0.20057539641857147, 0.5987726449966431, 0.8051724433898926, 0.5068068504333496, 0.6499019265174866, 0.7610219120979309, 0.554421067237854, 0.5771892070770264, 0.17347149550914764, 0.08205514401197433, 0.5827537178993225, 0.25109249353408813, 0.1441410332918167, 0.143909752368927, 0.14387363195419312]</t>
+          <t>[0.028090836480259895, 0.5261196494102478, 0.20254068076610565, 0.263621985912323, 0.2692756950855255, 0.5934189558029175, 0.501064658164978, 0.3613859713077545, 0.0909506157040596, 0.05801505595445633, 0.11067108809947968, 0.2851420044898987, 0.538489043712616, 0.23294858634471893, 0.7050290107727051, 0.6628850698471069, 0.3613322675228119, 0.5990427136421204, 0.5483292937278748, 0.6502158045768738, 0.3313382565975189, 0.34609168767929077, 0.26101329922676086, 0.11009544879198074, 0.3105762302875519, 0.7530758380889893, 0.25841024518013, 0.11892889440059662, 0.24508345127105713, 0.12457617372274399, 0.06541404873132706, 0.10701904445886612, 0.10431407392024994, 0.1993846893310547, 0.3077886998653412, 0.02654252201318741, 0.03586503118276596, 0.020510772243142128, 0.029187411069869995, 0.014215996488928795, 0.027526849880814552, 0.17267394065856934, 0.22348187863826752, 0.04796833544969559, 0.040715742856264114, 0.20800378918647766, 0.5923783183097839, 0.8613228797912598, 0.9137457609176636, 0.7342358827590942, 0.4515446126461029, 0.36181437969207764, 0.20676138997077942, 0.27380043268203735, 0.4359418451786041, 0.2526513934135437, 0.24296234548091888, 0.4797561466693878, 0.5337133407592773, 0.1907345950603485, 0.09761057049036026, 0.06497518718242645, 0.04952256754040718, 0.02066645957529545, 0.019177550449967384, 0.03217565640807152, 0.024577155709266663, 0.018741115927696228, 0.022006435319781303, 0.024484902620315552, 0.03435487300157547, 0.22549743950366974, 0.26482030749320984, 0.34870919585227966, 0.3177892863750458, 0.1037396490573883, 0.052087750285863876, 0.03493770956993103, 0.03627615422010422, 0.20026464760303497, 0.38570743799209595, 0.39648309350013733, 0.5209177732467651, 0.23533189296722412, 0.062210749834775925, 0.18016494810581207, 0.26865461468696594, 0.13301874697208405, 0.08936446160078049, 0.21480093896389008, 0.3110121488571167, 0.5084145069122314, 0.6623371243476868, 0.4550487697124481, 0.3183135390281677, 0.4048689007759094, 0.4440019428730011, 0.6713393330574036, 0.33328527212142944, 0.24788905680179596, 0.12972933053970337, 0.1393226832151413, 0.31524524092674255, 0.38861268758773804, 0.1546357125043869, 0.13482952117919922, 0.45942434668540955, 0.18077996373176575, 0.10894802212715149, 0.3731754720211029, 0.0909317284822464, 0.1777481734752655, 0.1722002923488617, 0.3397125005722046, 0.12273981422185898, 0.4770860970020294, 0.23432646691799164, 0.21095594763755798, 0.5090864896774292, 0.2836461365222931, 0.8000983595848083, 0.3499099612236023, 0.16962683200836182, 0.32233232259750366, 0.22029195725917816, 0.6873424053192139, 0.8702278137207031, 0.5054799318313599, 0.732602059841156, 0.8051111698150635, 0.6879358887672424, 0.7673425078392029, 0.3637728989124298, 0.16718195378780365, 0.8739842772483826, 0.5412716865539551, 0.2906685173511505, 0.23533011972904205, 0.23662349581718445]</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.8146868348121643</v>
+        <v>0.9137457609176636</v>
       </c>
       <c r="F112" t="n">
         <v>1</v>
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0.8031102999811992</v>
+        <v>0.7948365999909583</v>
       </c>
       <c r="J112" t="n">
-        <v>0.005777771942310786</v>
+        <v>0.005718248920798262</v>
       </c>
     </row>
     <row r="113">
@@ -5045,11 +5045,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[0.27111881971359253, 0.24361751973628998, 0.46667829155921936, 0.23464345932006836, 0.16512610018253326, 0.2503323554992676, 0.5104759931564331, 0.29337820410728455, 0.19636546075344086, 0.2511827051639557, 0.17385204136371613, 0.15758153796195984, 0.14226101338863373, 0.17390687763690948, 0.19502189755439758, 0.11102452874183655, 0.1473526656627655, 0.19537119567394257, 0.2743109464645386, 0.13396421074867249, 0.10324741154909134, 0.18593747913837433, 0.14944931864738464, 0.23372790217399597, 0.23620904982089996, 0.29801690578460693, 0.3457331955432892, 0.38674938678741455, 0.4705382287502289, 0.6202392578125, 0.28672826290130615, 0.414597749710083, 0.37649649381637573, 0.21419185400009155, 0.16891171038150787, 0.29842808842658997, 0.3846127986907959, 0.4150107800960541, 0.2585463523864746, 0.47847726941108704, 0.25774115324020386, 0.13915464282035828, 0.11146491020917892, 0.08080939203500748, 0.0706535279750824, 0.08686023950576782, 0.09497664868831635, 0.13262543082237244, 0.18105563521385193, 0.1051080971956253, 0.1396050751209259, 0.07647090405225754, 0.3177150785923004, 0.3315788209438324, 0.25303444266319275, 0.4145030081272125, 0.22387786209583282, 0.3067218065261841, 0.30950772762298584, 0.3586999475955963, 0.6539100408554077, 0.8099549412727356, 0.6853861212730408, 0.298312246799469, 0.34148499369621277, 0.17867200076580048, 0.13947439193725586, 0.20026028156280518, 0.3933177590370178, 0.09383070468902588, 0.0825473889708519, 0.2587701380252838, 0.2549348473548889, 0.30144017934799194, 0.2033182829618454, 0.08388826251029968, 0.07970114797353745, 0.0814225897192955, 0.036195602267980576, 0.04199203848838806, 0.023783881217241287, 0.023984616622328758, 0.08924799412488937, 0.06567125022411346, 0.2571916878223419, 0.09546508640050888, 0.10799284279346466, 0.15898777544498444, 0.22975395619869232, 0.13026419281959534, 0.27428656816482544, 0.09461653977632523, 0.09363488852977753, 0.072305828332901, 0.1780283898115158, 0.15740300714969635, 0.15545563399791718, 0.07901708036661148, 0.07333946228027344, 0.08038195967674255, 0.06907247006893158, 0.05533522367477417, 0.044270459562540054, 0.04983429238200188, 0.1204199492931366, 0.1291787177324295, 0.13827572762966156, 0.1224747970700264, 0.21639014780521393, 0.14813877642154694, 0.2338794767856598, 0.15892480313777924, 0.23812487721443176, 0.24088086187839508, 0.1748102456331253, 0.27006983757019043, 0.1534671038389206, 0.17986427247524261, 0.14003658294677734, 0.1381232589483261, 0.0848168134689331, 0.13742579519748688, 0.11191960424184799, 0.08976412564516068, 0.04460364952683449, 0.034275371581315994, 0.04028407111763954, 0.052404340356588364, 0.04052913188934326, 0.04672345146536827, 0.04507077857851982, 0.04981667920947075, 0.07259740680456161, 0.08240219205617905, 0.10475058853626251, 0.12575513124465942, 0.12322166562080383, 0.13718532025814056, 0.1367124766111374]</t>
+          <t>[0.4175974428653717, 0.28040263056755066, 0.6499019265174866, 0.44166073203086853, 0.28695982694625854, 0.42516133189201355, 0.7393788695335388, 0.48820585012435913, 0.32663998007774353, 0.36810991168022156, 0.30515599250793457, 0.24371978640556335, 0.219929501414299, 0.23352135717868805, 0.24439702928066254, 0.1207171231508255, 0.18946290016174316, 0.24522271752357483, 0.4024144411087036, 0.22584517300128937, 0.14983879029750824, 0.2579653561115265, 0.2835833430290222, 0.43893128633499146, 0.42794740200042725, 0.5673189759254456, 0.5782015919685364, 0.6805415153503418, 0.7781323790550232, 0.8137013912200928, 0.540742814540863, 0.680834949016571, 0.6191408634185791, 0.3568659722805023, 0.33482933044433594, 0.49929988384246826, 0.6175304055213928, 0.5912618637084961, 0.49847444891929626, 0.7206109762191772, 0.38838711380958557, 0.25680458545684814, 0.21058443188667297, 0.15831008553504944, 0.16392341256141663, 0.22117792069911957, 0.24848982691764832, 0.3413997292518616, 0.44496411085128784, 0.3001376986503601, 0.3318805992603302, 0.150686115026474, 0.6454096436500549, 0.6444790959358215, 0.6911885142326355, 0.8105968832969666, 0.5227311253547668, 0.708785891532898, 0.6703796982765198, 0.69961017370224, 0.8786928057670593, 0.942108154296875, 0.8894800543785095, 0.5893962383270264, 0.7498809099197388, 0.4551447629928589, 0.3132876753807068, 0.4310961663722992, 0.7828667163848877, 0.15668520331382751, 0.16901516914367676, 0.5292903184890747, 0.6017336249351501, 0.6270371079444885, 0.43025121092796326, 0.1343492865562439, 0.07878649234771729, 0.08411302417516708, 0.036941032856702805, 0.047379471361637115, 0.022444820031523705, 0.021407851949334145, 0.1415831446647644, 0.13906805217266083, 0.48286667466163635, 0.18776722252368927, 0.2461574673652649, 0.39373141527175903, 0.6155204772949219, 0.2687438428401947, 0.5753042697906494, 0.22070683538913727, 0.22334672510623932, 0.1730361431837082, 0.43843117356300354, 0.35330137610435486, 0.2897440791130066, 0.1871633529663086, 0.12515337765216827, 0.13410133123397827, 0.1042458638548851, 0.08073655515909195, 0.056596655398607254, 0.07130184024572372, 0.18769590556621552, 0.27566954493522644, 0.39485108852386475, 0.29824724793434143, 0.3776053786277771, 0.3959342837333679, 0.6127802729606628, 0.44714072346687317, 0.6752458214759827, 0.4375961720943451, 0.3419490456581116, 0.4497351348400116, 0.2595364451408386, 0.2666183412075043, 0.2196473330259323, 0.1686706244945526, 0.1150529757142067, 0.2582858204841614, 0.21428832411766052, 0.14303967356681824, 0.046109963208436966, 0.03359922766685486, 0.04132077097892761, 0.0738564133644104, 0.04996488615870476, 0.05331500619649887, 0.04230314493179321, 0.04641474410891533, 0.060898762196302414, 0.056642819195985794, 0.10021329671144485, 0.11583725363016129, 0.10140463709831238, 0.12231983244419098, 0.1220923364162445]</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.8099549412727356</v>
+        <v>0.942108154296875</v>
       </c>
       <c r="F113" t="n">
         <v>1</v>
@@ -5063,10 +5063,10 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0.7755127999989782</v>
+        <v>0.7840700000087963</v>
       </c>
       <c r="J113" t="n">
-        <v>0.005579228776971066</v>
+        <v>0.005640791366969758</v>
       </c>
     </row>
     <row r="114">
@@ -5085,11 +5085,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>[0.19083361327648163, 0.1122637540102005, 0.335824579000473, 0.3092329800128937, 0.37390658259391785, 0.40597978234291077, 0.10416693240404129, 0.1652318835258484, 0.10494038462638855, 0.11693111807107925, 0.19784972071647644, 0.17773106694221497, 0.1774616688489914, 0.15404480695724487, 0.1303456574678421, 0.07770986109972, 0.16583815217018127, 0.13642483949661255, 0.15029160678386688, 0.11316215991973877, 0.11500749737024307, 0.12425771355628967, 0.1218845397233963, 0.09187275916337967, 0.07052629441022873, 0.047004278749227524, 0.09592586010694504, 0.15131545066833496, 0.09333740919828415, 0.13353970646858215, 0.16833017766475677, 0.17406205832958221, 0.10349056869745255, 0.09237257391214371, 0.13393203914165497, 0.2247878611087799, 0.2356424629688263, 0.09746692329645157, 0.12145759910345078, 0.1415959894657135, 0.15551334619522095, 0.12601187825202942, 0.14074504375457764, 0.06153825297951698, 0.10992784798145294, 0.07563821226358414, 0.07613823562860489, 0.052122119814157486, 0.04954241216182709, 0.20274734497070312, 0.050540246069431305, 0.0825720801949501, 0.06886724382638931, 0.08199787884950638, 0.04660793021321297, 0.07539495080709457, 0.06313728541135788, 0.07927969098091125, 0.05605664476752281, 0.033526286482810974, 0.04353249818086624, 0.07212286442518234, 0.05457065626978874, 0.05757167190313339, 0.15531368553638458, 0.22884231805801392, 0.3008700907230377, 0.3191711902618408, 0.26823917031288147, 0.4550841748714447, 0.23966112732887268, 0.09951213747262955, 0.09038379043340683, 0.050682660192251205, 0.09890592098236084, 0.15732362866401672, 0.11219951510429382, 0.09846396744251251, 0.07002772390842438, 0.06606163084506989, 0.12477779388427734, 0.1538400501012802, 0.16348934173583984, 0.12130219489336014, 0.11603137850761414, 0.11321883648633957, 0.1027512177824974, 0.14373794198036194, 0.20060552656650543, 0.20526862144470215, 0.10865182429552078, 0.2934189438819885, 0.3609125316143036, 0.24684686958789825, 0.21031756699085236, 0.1772056221961975, 0.1427614688873291, 0.14066436886787415, 0.19329902529716492, 0.10996806621551514, 0.06088415905833244, 0.08710022270679474, 0.07542159408330917, 0.08231449127197266, 0.13287296891212463, 0.17487415671348572, 0.11402933299541473, 0.08412901312112808, 0.0924101397395134, 0.06306019425392151, 0.1027158573269844, 0.05847923830151558, 0.06306719034910202, 0.08444812148809433, 0.05979849025607109, 0.0698385015130043, 0.11055167764425278, 0.06932170689105988, 0.0474805124104023, 0.04511667788028717, 0.06087839603424072, 0.07392983138561249, 0.10930588841438293, 0.0927191823720932, 0.14548259973526, 0.1410980075597763, 0.43684491515159607, 0.24403992295265198, 0.10644520074129105, 0.12984202802181244, 0.11075415462255478, 0.08895561099052429, 0.16151177883148193, 0.13825976848602295, 0.11439608782529831, 0.23162536323070526, 0.14894095063209534, 0.17985564470291138, 0.18363869190216064, 0.18482372164726257]</t>
+          <t>[0.17488475143909454, 0.09280570596456528, 0.39815428853034973, 0.36107680201530457, 0.3735438585281372, 0.47474825382232666, 0.13865108788013458, 0.20242604613304138, 0.11360491812229156, 0.10513658076524734, 0.21340472996234894, 0.23899540305137634, 0.26000624895095825, 0.28025880455970764, 0.21234174072742462, 0.15908104181289673, 0.2963094711303711, 0.21143586933612823, 0.36984843015670776, 0.2147236317396164, 0.18445409834384918, 0.21641473472118378, 0.24537569284439087, 0.1938512623310089, 0.11354157328605652, 0.08197808265686035, 0.19707056879997253, 0.26167744398117065, 0.15828832983970642, 0.18600459396839142, 0.20529529452323914, 0.2629910409450531, 0.14246401190757751, 0.11175354570150375, 0.22472058236598969, 0.3272649645805359, 0.2977699041366577, 0.10272309184074402, 0.12425118684768677, 0.16235946118831635, 0.20335753262043, 0.14229515194892883, 0.17342187464237213, 0.04587353765964508, 0.11214819550514221, 0.08981689810752869, 0.10561403632164001, 0.08745494484901428, 0.07916484773159027, 0.27693432569503784, 0.0605386346578598, 0.102391317486763, 0.11322934925556183, 0.11341690272092819, 0.07976508140563965, 0.1191173642873764, 0.09285135567188263, 0.13449634611606598, 0.053717777132987976, 0.026941563934087753, 0.048531219363212585, 0.12350087612867355, 0.07881509512662888, 0.060502633452415466, 0.26975637674331665, 0.3301377296447754, 0.40408170223236084, 0.36800727248191833, 0.35317084193229675, 0.5422454476356506, 0.3954760730266571, 0.1739906370639801, 0.11341360956430435, 0.05060255527496338, 0.12068374454975128, 0.22352632880210876, 0.1401299685239792, 0.13461370766162872, 0.10001587867736816, 0.08899292349815369, 0.18244187533855438, 0.20985548198223114, 0.2211068570613861, 0.15559172630310059, 0.12760797142982483, 0.12930281460285187, 0.12215828895568848, 0.1546204537153244, 0.2308826744556427, 0.3230806589126587, 0.11228541284799576, 0.34527137875556946, 0.5216938257217407, 0.2502365708351135, 0.22083409130573273, 0.17814995348453522, 0.15039226412773132, 0.18350005149841309, 0.21208544075489044, 0.11360326409339905, 0.06554031372070312, 0.08780650049448013, 0.07482632249593735, 0.09334711730480194, 0.1434505730867386, 0.2021777480840683, 0.11262980103492737, 0.09397600591182709, 0.08703665435314178, 0.049737151712179184, 0.10851044952869415, 0.05902174115180969, 0.05666124448180199, 0.08086753636598587, 0.03712854161858559, 0.04623211920261383, 0.09944930672645569, 0.06427770853042603, 0.03456883132457733, 0.02827281877398491, 0.046246323734521866, 0.06367582082748413, 0.18188640475273132, 0.13670864701271057, 0.2537775933742523, 0.21345701813697815, 0.5858684182167053, 0.2650846540927887, 0.13093994557857513, 0.1645546853542328, 0.17746025323867798, 0.12424478679895401, 0.2054058015346527, 0.1758618950843811, 0.1288185566663742, 0.2508767545223236, 0.1769944578409195, 0.22154109179973602, 0.28693461418151855, 0.2900327742099762]</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.4550841748714447</v>
+        <v>0.5858684182167053</v>
       </c>
       <c r="F114" t="n">
         <v>1</v>
@@ -5103,10 +5103,10 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0.7834495000133757</v>
+        <v>0.7902548999991268</v>
       </c>
       <c r="J114" t="n">
-        <v>0.005596067857238397</v>
+        <v>0.00564467785713662</v>
       </c>
     </row>
     <row r="115">
@@ -5125,11 +5125,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>[0.09584873169660568, 0.5274194478988647, 0.1997448205947876, 0.16841787099838257, 0.5943995714187622, 0.7661555409431458, 0.5537552833557129, 0.24380357563495636, 0.16666574776172638, 0.17212626338005066, 0.16227884590625763, 0.2067333161830902, 0.6846238970756531, 0.34606480598449707, 0.49749988317489624, 0.22315730154514313, 0.2877591550350189, 0.28634941577911377, 0.44023385643959045, 0.27874845266342163, 0.20995591580867767, 0.5022128224372864, 0.38051098585128784, 0.33127278089523315, 0.2544323205947876, 0.28841760754585266, 0.1901865154504776, 0.47627660632133484, 0.36142659187316895, 0.5553813576698303, 0.6527830362319946, 0.47791361808776855, 0.7021596431732178, 0.6849934458732605, 0.6246986389160156, 0.8870594501495361, 0.9267417788505554, 0.8557493686676025, 0.32172176241874695, 0.16219931840896606, 0.06378601491451263, 0.11866285651922226, 0.0666244700551033, 0.19683748483657837, 0.563734233379364, 0.4040733873844147, 0.7525793313980103, 0.8664206862449646, 0.7687783241271973, 0.7113853096961975, 0.5697793364524841, 0.10770738124847412, 0.07022266834974289, 0.09734002500772476, 0.4624873399734497, 0.23198199272155762, 0.23868826031684875, 0.14323388040065765, 0.09932927042245865, 0.3257582485675812, 0.2120908945798874, 0.32664573192596436, 0.2389778196811676, 0.13001590967178345, 0.21862748265266418, 0.11585072427988052, 0.06540970504283905, 0.25238320231437683, 0.39876261353492737, 0.4556080400943756, 0.7429567575454712, 0.8016340136528015, 0.7202860116958618, 0.45077747106552124, 0.5091155171394348, 0.8591757416725159, 0.7943588495254517, 0.705206573009491, 0.6512788534164429, 0.8119787573814392, 0.40839883685112, 0.12952253222465515, 0.2037298083305359, 0.6377769708633423, 0.665034830570221, 0.8868045806884766, 0.8344833254814148, 0.7794061303138733, 0.17273911833763123, 0.594237744808197, 0.5584864020347595, 0.5364688038825989, 0.3158385455608368, 0.73171466588974, 0.7413972616195679, 0.7329585552215576, 0.6388543248176575, 0.7216004133224487, 0.7553253769874573, 0.5396226644515991, 0.48657822608947754, 0.3227386474609375, 0.42115479707717896, 0.3098863959312439, 0.22874222695827484, 0.2695944011211395, 0.22894863784313202, 0.14530354738235474, 0.36674752831459045, 0.4009641110897064, 0.24352580308914185, 0.4263514280319214, 0.35028979182243347, 0.3780692517757416, 0.15954867005348206, 0.36091309785842896, 0.3345857262611389, 0.2986758351325989, 0.43267345428466797, 0.623742938041687, 0.5067234635353088, 0.5050673484802246, 0.5753528475761414, 0.4700367748737335, 0.2913723289966583, 0.15526312589645386, 0.14965622127056122, 0.11015334725379944, 0.10098295658826828, 0.13052648305892944, 0.16354063153266907, 0.1964779794216156, 0.33177173137664795, 0.5920186042785645, 0.6749691963195801, 0.16060887277126312, 0.3313034474849701, 0.14628218114376068, 0.3000872731208801, 0.30049997568130493]</t>
+          <t>[0.1492210328578949, 0.6928759813308716, 0.21125049889087677, 0.2318372130393982, 0.8642976880073547, 0.9083064794540405, 0.8186158537864685, 0.4336598515510559, 0.24137426912784576, 0.2624414563179016, 0.23118919134140015, 0.35233262181282043, 0.8715528249740601, 0.6607030034065247, 0.7180443406105042, 0.42696744203567505, 0.5990045070648193, 0.4917510449886322, 0.7033306956291199, 0.46132123470306396, 0.2835768163204193, 0.7110617160797119, 0.5038019418716431, 0.45555388927459717, 0.28796789050102234, 0.3390038311481476, 0.16218261420726776, 0.6304088234901428, 0.5086509585380554, 0.7734062075614929, 0.8267635703086853, 0.6245845556259155, 0.8613919019699097, 0.8516339659690857, 0.8280274868011475, 0.9525476694107056, 0.9817426204681396, 0.9509738683700562, 0.4617536962032318, 0.21713079512119293, 0.07020050287246704, 0.1635420322418213, 0.07352636009454727, 0.4014093577861786, 0.7759143114089966, 0.6218698024749756, 0.8768683075904846, 0.9121375679969788, 0.8608154058456421, 0.8144609928131104, 0.7032457590103149, 0.14501245319843292, 0.0829273983836174, 0.12274352461099625, 0.6537432074546814, 0.3688892126083374, 0.37184643745422363, 0.19517137110233307, 0.16561222076416016, 0.5606288909912109, 0.3526627719402313, 0.5367985367774963, 0.4240097403526306, 0.20874764025211334, 0.32780030369758606, 0.15000417828559875, 0.05329379439353943, 0.3303113579750061, 0.6334242224693298, 0.7309433817863464, 0.8569222092628479, 0.9134488105773926, 0.9097443222999573, 0.7609063386917114, 0.736223042011261, 0.9569929838180542, 0.9111179113388062, 0.8846982717514038, 0.8331391215324402, 0.9201573729515076, 0.6738603115081787, 0.1451255977153778, 0.22227266430854797, 0.7504523992538452, 0.7741925120353699, 0.9434419274330139, 0.921413242816925, 0.8952409029006958, 0.27886930108070374, 0.6717945337295532, 0.6953487396240234, 0.7042281627655029, 0.3624739348888397, 0.902941882610321, 0.8955829739570618, 0.9149692058563232, 0.7737010717391968, 0.9202203154563904, 0.8982263803482056, 0.7328619360923767, 0.5982055068016052, 0.49222618341445923, 0.6285645365715027, 0.4250613749027252, 0.3100546896457672, 0.45956525206565857, 0.3058440089225769, 0.17794819176197052, 0.5207358002662659, 0.5590440630912781, 0.36919957399368286, 0.6781333684921265, 0.579911470413208, 0.6149800419807434, 0.24315796792507172, 0.5799304842948914, 0.5227935910224915, 0.40038642287254333, 0.6203119158744812, 0.7734875082969666, 0.6570029854774475, 0.6057960987091064, 0.7729512453079224, 0.5645530819892883, 0.3842426538467407, 0.1567278355360031, 0.15554064512252808, 0.09241925179958344, 0.06940825283527374, 0.1036762148141861, 0.13834039866924286, 0.19234760105609894, 0.35933563113212585, 0.8127756714820862, 0.868133544921875, 0.16410216689109802, 0.45446211099624634, 0.20358781516551971, 0.41028764843940735, 0.4111180901527405]</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.9267417788505554</v>
+        <v>0.9817426204681396</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
@@ -5143,10 +5143,10 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>0.7844188000017311</v>
+        <v>0.7953035999962594</v>
       </c>
       <c r="J115" t="n">
-        <v>0.005602991428583794</v>
+        <v>0.005680739999973282</v>
       </c>
     </row>
     <row r="116">
@@ -5165,11 +5165,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[0.28991156816482544, 0.1644015908241272, 0.21290245652198792, 0.25766974687576294, 0.36773139238357544, 0.6961482167243958, 0.5042690634727478, 0.3471706807613373, 0.13870231807231903, 0.303592324256897, 0.20692534744739532, 0.13397720456123352, 0.19110044836997986, 0.3218005299568176, 0.3257999122142792, 0.8207109570503235, 0.7408567667007446, 0.6262974739074707, 0.6371452212333679, 0.5484054088592529, 0.2956068217754364, 0.3459818661212921, 0.26012367010116577, 0.16733494400978088, 0.12316379696130753, 0.11435586959123611, 0.13795632123947144, 0.19311431050300598, 0.29081466794013977, 0.5619369149208069, 0.3291473388671875, 0.5990568995475769, 0.6845912933349609, 0.27920466661453247, 0.24726878106594086, 0.2888239920139313, 0.25142964720726013, 0.20040450990200043, 0.1700914055109024, 0.12430513650178909, 0.07853356003761292, 0.517294704914093, 0.4047941565513611, 0.5629022717475891, 0.31331658363342285, 0.5730966329574585, 0.15771901607513428, 0.2304479330778122, 0.25561925768852234, 0.31384095549583435, 0.22666220366954803, 0.15053340792655945, 0.1318528950214386, 0.11214461177587509, 0.1533825695514679, 0.17687161266803741, 0.16067463159561157, 0.48649850487709045, 0.5841581225395203, 0.6012225151062012, 0.36956310272216797, 0.3469453752040863, 0.17701099812984467, 0.4358268976211548, 0.5060869455337524, 0.6807319521903992, 0.7504022121429443, 0.7441324591636658, 0.6988060474395752, 0.5507588386535645, 0.45457717776298523, 0.21013350784778595, 0.32014012336730957, 0.19173048436641693, 0.3317471742630005, 0.6103690266609192, 0.4754806458950043, 0.6500746011734009, 0.2574818432331085, 0.3613143861293793, 0.6745706796646118, 0.6727237701416016, 0.8386803865432739, 0.7182197570800781, 0.6423706412315369, 0.4405580461025238, 0.5836284160614014, 0.5685696005821228, 0.6965587139129639, 0.776802659034729, 0.46779865026474, 0.40325215458869934, 0.1546994149684906, 0.5147488117218018, 0.3655012249946594, 0.365062952041626, 0.11748935282230377, 0.14636856317520142, 0.21214759349822998, 0.6411706805229187, 0.44534340500831604, 0.1935175657272339, 0.16611994802951813, 0.20551173388957977, 0.263512521982193, 0.656151294708252, 0.4863969087600708, 0.3759337067604065, 0.3268479108810425, 0.10755276679992676, 0.3077050447463989, 0.653412401676178, 0.8058737516403198, 0.6720991730690002, 0.6776438355445862, 0.6332821249961853, 0.7033454775810242, 0.8602389693260193, 0.5255852937698364, 0.1712702214717865, 0.1467467099428177, 0.1706160008907318, 0.22554755210876465, 0.21987704932689667, 0.23294177651405334, 0.6755754351615906, 0.726527750492096, 0.802079975605011, 0.5146338939666748, 0.7924514412879944, 0.7472508549690247, 0.4407133162021637, 0.6393749713897705, 0.7410082221031189, 0.656940221786499, 0.6077176928520203, 0.6987903714179993, 0.7716048359870911, 0.547532320022583, 0.5492722392082214]</t>
+          <t>[0.2267441600561142, 0.06584197282791138, 0.10580597817897797, 0.17267735302448273, 0.21511341631412506, 0.5629692673683167, 0.37886539101600647, 0.19717416167259216, 0.06066112592816353, 0.25142550468444824, 0.12273585796356201, 0.06910118460655212, 0.13974960148334503, 0.2511506974697113, 0.3500043451786041, 0.8885351419448853, 0.74842768907547, 0.6236364245414734, 0.6152374744415283, 0.618789792060852, 0.3835888206958771, 0.3641704320907593, 0.25521141290664673, 0.17482399940490723, 0.11020299047231674, 0.09499231725931168, 0.09319934248924255, 0.2495916783809662, 0.32078367471694946, 0.6403297185897827, 0.3308179974555969, 0.5545235872268677, 0.6101742386817932, 0.18092763423919678, 0.1427992731332779, 0.1403503119945526, 0.15822851657867432, 0.09897573292255402, 0.11672824621200562, 0.07263344526290894, 0.041265442967414856, 0.44322076439857483, 0.3678802251815796, 0.4436779320240021, 0.20300406217575073, 0.5050384402275085, 0.08100388199090958, 0.17899708449840546, 0.21761612594127655, 0.25165173411369324, 0.15474870800971985, 0.10017195343971252, 0.1028919517993927, 0.0811387300491333, 0.12609325349330902, 0.180423766374588, 0.08873457461595535, 0.3158193826675415, 0.4248010218143463, 0.41258740425109863, 0.2380148023366928, 0.30572280287742615, 0.1313828080892563, 0.5516232252120972, 0.7305700182914734, 0.8297234773635864, 0.8955474495887756, 0.9212606549263, 0.8506370186805725, 0.6437996625900269, 0.602080762386322, 0.22588860988616943, 0.39952337741851807, 0.1689273864030838, 0.34723734855651855, 0.7518447041511536, 0.4914306402206421, 0.7599438428878784, 0.2543831169605255, 0.3037661910057068, 0.7171708345413208, 0.7474733591079712, 0.9335740208625793, 0.8626030087471008, 0.7581441402435303, 0.5035402774810791, 0.6226961612701416, 0.7537890672683716, 0.7552275061607361, 0.83439040184021, 0.49272415041923523, 0.5935065746307373, 0.1618848592042923, 0.6857089400291443, 0.4295467436313629, 0.5039008855819702, 0.11858895421028137, 0.1711246371269226, 0.2990655303001404, 0.713532030582428, 0.49116161465644836, 0.17463144659996033, 0.1782650649547577, 0.30150553584098816, 0.3364928960800171, 0.8048158884048462, 0.6425560712814331, 0.5188620090484619, 0.3560994565486908, 0.10279808193445206, 0.564662516117096, 0.8270683884620667, 0.9418495893478394, 0.8685706257820129, 0.8925873041152954, 0.7571372389793396, 0.7429845333099365, 0.9084064960479736, 0.5883505940437317, 0.15779362618923187, 0.18800941109657288, 0.24500645697116852, 0.3758113980293274, 0.4014694094657898, 0.3618481159210205, 0.8947708010673523, 0.9091403484344482, 0.908753514289856, 0.6594700217247009, 0.923154890537262, 0.7981797456741333, 0.47144412994384766, 0.697695791721344, 0.8017038106918335, 0.7521653175354004, 0.6341854929924011, 0.740101158618927, 0.8764857053756714, 0.5537150502204895, 0.5557738542556763]</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.8602389693260193</v>
+        <v>0.9418495893478394</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
@@ -5183,10 +5183,10 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0.7941794999933336</v>
+        <v>0.8149223999935202</v>
       </c>
       <c r="J116" t="n">
-        <v>0.005672710714238097</v>
+        <v>0.005820874285668002</v>
       </c>
     </row>
     <row r="117">
@@ -5205,11 +5205,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[0.15720728039741516, 0.10303846746683121, 0.08547908067703247, 0.23886756598949432, 0.1718694120645523, 0.11814910918474197, 0.11808708310127258, 0.06520911306142807, 0.07592347264289856, 0.06171354278922081, 0.050984837114810944, 0.10894688963890076, 0.2730204164981842, 0.35617485642433167, 0.3138088583946228, 0.3354206681251526, 0.3627956807613373, 0.39551806449890137, 0.39391037821769714, 0.3669714331626892, 0.5179383754730225, 0.5396673083305359, 0.5161982774734497, 0.7180636525154114, 0.7078899145126343, 0.7440524697303772, 0.5448765754699707, 0.3859841525554657, 0.24521465599536896, 0.3849134147167206, 0.3973133862018585, 0.6614106297492981, 0.8016191720962524, 0.5579050779342651, 0.5774739980697632, 0.8261781930923462, 0.6582334637641907, 0.48443424701690674, 0.2575632333755493, 0.353776752948761, 0.45895567536354065, 0.4574090838432312, 0.5505780577659607, 0.4401952922344208, 0.27356457710266113, 0.41969817876815796, 0.4132971167564392, 0.6123175024986267, 0.35257425904273987, 0.38306185603141785, 0.3009009063243866, 0.6176139712333679, 0.5002473592758179, 0.7412247657775879, 0.8131796717643738, 0.7522374987602234, 0.6642534136772156, 0.33809852600097656, 0.6290727853775024, 0.7406856417655945, 0.6636107563972473, 0.8100075125694275, 0.6927196979522705, 0.5620261430740356, 0.5055962800979614, 0.4874126613140106, 0.4754970073699951, 0.2819388806819916, 0.30680155754089355, 0.32381609082221985, 0.6000866889953613, 0.7242715358734131, 0.6025232076644897, 0.37447038292884827, 0.14346224069595337, 0.21930058300495148, 0.13432785868644714, 0.08699623495340347, 0.1000133603811264, 0.1278708577156067, 0.1902509331703186, 0.28655701875686646, 0.16204123198986053, 0.21532826125621796, 0.25864478945732117, 0.2975488603115082, 0.20367120206356049, 0.11390835046768188, 0.11349006742238998, 0.1849868893623352, 0.09328397363424301, 0.24642224609851837, 0.24059249460697174, 0.26951494812965393, 0.38795205950737, 0.4573338031768799, 0.5669968128204346, 0.6877202391624451, 0.5684524774551392, 0.8120257258415222, 0.7644615173339844, 0.591185450553894, 0.6583309769630432, 0.6314074993133545, 0.5305957794189453, 0.3425721228122711, 0.20370587706565857, 0.09867916256189346, 0.20589213073253632, 0.3906911313533783, 0.7437208294868469, 0.6910040378570557, 0.9435014128684998, 0.6845803260803223, 0.6659339070320129, 0.6885148882865906, 0.4750034809112549, 0.4884624183177948, 0.5522381067276001, 0.6518778800964355, 0.8653860092163086, 0.6126129031181335, 0.8388990759849548, 0.7703431248664856, 0.4270572364330292, 0.33288323879241943, 0.35044509172439575, 0.5803921222686768, 0.507045328617096, 0.7464888095855713, 0.71049565076828, 0.5259954929351807, 0.7512974143028259, 0.6272147297859192, 0.6326432824134827, 0.7317332029342651, 0.6598640084266663, 0.5359219312667847, 0.39486193656921387, 0.39397767186164856]</t>
+          <t>[0.11345010995864868, 0.05701925605535507, 0.044107113033533096, 0.17101049423217773, 0.1304299682378769, 0.08536666631698608, 0.09703978151082993, 0.038222264498472214, 0.044956207275390625, 0.029219552874565125, 0.025351157411932945, 0.06961534172296524, 0.2184416949748993, 0.38722050189971924, 0.3215717673301697, 0.35379764437675476, 0.3585376441478729, 0.4998563230037689, 0.46935173869132996, 0.46187475323677063, 0.5773686170578003, 0.6254709959030151, 0.6644101738929749, 0.8614049553871155, 0.7946810126304626, 0.8607223629951477, 0.5851563811302185, 0.32586315274238586, 0.1835584044456482, 0.39480873942375183, 0.44908666610717773, 0.810592770576477, 0.8814395070075989, 0.6530738472938538, 0.6850060224533081, 0.9225925207138062, 0.808093786239624, 0.5969263911247253, 0.1957610696554184, 0.37037405371665955, 0.4166802167892456, 0.4766715168952942, 0.5939652323722839, 0.4832942485809326, 0.25601980090141296, 0.4040236473083496, 0.4341954290866852, 0.7064005136489868, 0.3407594561576843, 0.3648712635040283, 0.3312930166721344, 0.7152405977249146, 0.6220089197158813, 0.7962621450424194, 0.913811206817627, 0.7931577563285828, 0.6669058203697205, 0.19164808094501495, 0.6683955788612366, 0.8195841908454895, 0.8439164757728577, 0.9147802591323853, 0.8581905364990234, 0.6855356097221375, 0.5091018676757812, 0.5264120101928711, 0.5865445733070374, 0.30349844694137573, 0.374785453081131, 0.4220712184906006, 0.7114381194114685, 0.8379825353622437, 0.7480337619781494, 0.45027682185173035, 0.1599089652299881, 0.24265360832214355, 0.1168779581785202, 0.05612419918179512, 0.05939921736717224, 0.07843516021966934, 0.16473323106765747, 0.29397839307785034, 0.1422863006591797, 0.19220781326293945, 0.21247003972530365, 0.21034792065620422, 0.14963391423225403, 0.06820492446422577, 0.07633793354034424, 0.15653635561466217, 0.07031872868537903, 0.24775294959545135, 0.24919237196445465, 0.2677524983882904, 0.4350874722003937, 0.5018048882484436, 0.7362151741981506, 0.7789293527603149, 0.7101325392723083, 0.9050687551498413, 0.7859836220741272, 0.7187333106994629, 0.7864515781402588, 0.6224114894866943, 0.5441120266914368, 0.3758052587509155, 0.1596396118402481, 0.06697244942188263, 0.20842215418815613, 0.46637609601020813, 0.8673072457313538, 0.8179078698158264, 0.9824025630950928, 0.8647109270095825, 0.9032520055770874, 0.8812696933746338, 0.6829315423965454, 0.6220764517784119, 0.6436645984649658, 0.7776675224304199, 0.9475424885749817, 0.777450442314148, 0.9551988840103149, 0.8680458068847656, 0.3990583121776581, 0.2628142237663269, 0.24544019997119904, 0.5970287919044495, 0.5383102297782898, 0.8423861265182495, 0.794356644153595, 0.5815169811248779, 0.8753896951675415, 0.7095354795455933, 0.6979126930236816, 0.8267433643341064, 0.7309030294418335, 0.6089274883270264, 0.416353315114975, 0.41563132405281067]</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.9435014128684998</v>
+        <v>0.9824025630950928</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
@@ -5223,10 +5223,10 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0.7892948999942746</v>
+        <v>0.8065615000086837</v>
       </c>
       <c r="J117" t="n">
-        <v>0.005637820714244819</v>
+        <v>0.005761153571490598</v>
       </c>
     </row>
     <row r="118">
@@ -5245,11 +5245,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[0.726306676864624, 0.7203677892684937, 0.8679282665252686, 0.8961585760116577, 0.8261903524398804, 0.7501673698425293, 0.5837417840957642, 0.6099680662155151, 0.6674925684928894, 0.571686863899231, 0.5616744160652161, 0.7869927883148193, 0.5455507636070251, 0.5818380117416382, 0.5871273875236511, 0.6366336941719055, 0.5459440350532532, 0.4307834208011627, 0.658043384552002, 0.5939230918884277, 0.6783140897750854, 0.8272765874862671, 0.8459596037864685, 0.7811360955238342, 0.7209315299987793, 0.7601415514945984, 0.6774261593818665, 0.8316662311553955, 0.8822728395462036, 0.8544253706932068, 0.8284364938735962, 0.8613629341125488, 0.9138796329498291, 0.8960769176483154, 0.8215457201004028, 0.7263479232788086, 0.7892581224441528, 0.7325056791305542, 0.7980587482452393, 0.890188455581665, 0.8564630746841431, 0.7757688164710999, 0.8096818923950195, 0.7370158433914185, 0.765820324420929, 0.8649023175239563, 0.848823070526123, 0.8392358422279358, 0.7983162999153137, 0.6275324821472168, 0.6605719923973083, 0.7763758897781372, 0.7390084862709045, 0.7735569477081299, 0.6358133554458618, 0.5936739444732666, 0.6899462342262268, 0.7802998423576355, 0.6435002088546753, 0.587626576423645, 0.5453295111656189, 0.4065793454647064, 0.5135066509246826, 0.6500076055526733, 0.7484421133995056, 0.7889494895935059, 0.87092524766922, 0.8136931657791138, 0.7577487230300903, 0.7678824067115784, 0.7983801960945129, 0.9072993993759155, 0.8573073148727417, 0.8413382172584534, 0.5916544198989868, 0.543945848941803, 0.3660181164741516, 0.44054296612739563, 0.39115583896636963, 0.3709675669670105, 0.4178718626499176, 0.40184709429740906, 0.6169612407684326, 0.853687584400177, 0.7782307267189026, 0.7367599010467529, 0.8294939994812012, 0.8552452325820923, 0.8390238285064697, 0.8006425499916077, 0.802210807800293, 0.8751829266548157, 0.8343238234519958, 0.8733677268028259, 0.8310760855674744, 0.8700628280639648, 0.8531558513641357, 0.785853385925293, 0.8397087454795837, 0.8055134415626526, 0.7482991814613342, 0.8759284019470215, 0.9427061080932617, 0.9083359837532043, 0.9031297564506531, 0.8920107483863831, 0.8649809956550598, 0.8173801302909851, 0.8687376379966736, 0.7944139242172241, 0.7496160864830017, 0.7125775814056396, 0.8402319550514221, 0.8679774403572083, 0.8664768934249878, 0.8498307466506958, 0.862743079662323, 0.9230373501777649, 0.9088967442512512, 0.8750736117362976, 0.8834314942359924, 0.7177717685699463, 0.525229275226593, 0.5865664482116699, 0.754988968372345, 0.6797937750816345, 0.6668610572814941, 0.811299204826355, 0.8369617462158203, 0.578764021396637, 0.7518816590309143, 0.7298418879508972, 0.7463542222976685, 0.7583338022232056, 0.7349228262901306, 0.7849047183990479, 0.7164779901504517, 0.8253647685050964, 0.8758519887924194, 0.7714105248451233, 0.603449821472168, 0.4207909107208252, 0.3560328483581543, 0.44534021615982056, 0.4572082757949829, 0.40963050723075867, 0.43090513348579407, 0.38580042123794556, 0.2756095826625824, 0.6795861721038818, 0.6333701014518738, 0.709406316280365, 0.6845935583114624, 0.7421067357063293, 0.6159040927886963, 0.6195680499076843, 0.7829352617263794, 0.7831918597221375]</t>
+          <t>[0.8762223720550537, 0.8668875098228455, 0.9708741307258606, 0.9599568843841553, 0.9246525764465332, 0.8701427578926086, 0.7751668691635132, 0.8291435837745667, 0.8301219940185547, 0.8087698817253113, 0.7830880880355835, 0.9324476718902588, 0.7436054348945618, 0.7370911836624146, 0.7752336263656616, 0.8467041850090027, 0.7982673048973083, 0.6190292835235596, 0.8570027947425842, 0.8725886344909668, 0.8879692554473877, 0.9644588828086853, 0.9752215147018433, 0.9441107511520386, 0.8945579528808594, 0.9176971316337585, 0.8054680228233337, 0.9266968369483948, 0.9569915533065796, 0.9486866593360901, 0.9439536929130554, 0.9634511470794678, 0.9747889637947083, 0.961306095123291, 0.926193356513977, 0.8613520860671997, 0.9131446480751038, 0.8663938641548157, 0.9104098081588745, 0.9565598368644714, 0.9419438242912292, 0.9037232995033264, 0.9275170564651489, 0.8722453117370605, 0.8845130205154419, 0.9491419792175293, 0.9517163634300232, 0.9365915060043335, 0.9161055088043213, 0.8172715902328491, 0.8797994256019592, 0.9231494069099426, 0.8902350068092346, 0.894063413143158, 0.8097074627876282, 0.7824877500534058, 0.8694716691970825, 0.9442422986030579, 0.8924562931060791, 0.8630768656730652, 0.8257853984832764, 0.732426106929779, 0.7262304425239563, 0.8190221190452576, 0.8771756291389465, 0.8940625190734863, 0.9411863088607788, 0.9281378984451294, 0.8910722732543945, 0.9007601141929626, 0.9386578798294067, 0.9645694494247437, 0.9236131310462952, 0.950311005115509, 0.8254388570785522, 0.7747336626052856, 0.604150652885437, 0.6858230829238892, 0.6158729195594788, 0.5205419063568115, 0.616711437702179, 0.6676235198974609, 0.8634433746337891, 0.9673334360122681, 0.8981322050094604, 0.8824432492256165, 0.9463889598846436, 0.9414046406745911, 0.9201124310493469, 0.9182989597320557, 0.9151203632354736, 0.9617171883583069, 0.9382734894752502, 0.9507195949554443, 0.9389709830284119, 0.9564065337181091, 0.9271792769432068, 0.8836343884468079, 0.9296438694000244, 0.9442390203475952, 0.8969677090644836, 0.9425930976867676, 0.9711651802062988, 0.9570260643959045, 0.9613819122314453, 0.9502989053726196, 0.9301935434341431, 0.9088334441184998, 0.9445666074752808, 0.8930385112762451, 0.8530301451683044, 0.8343303799629211, 0.9320187568664551, 0.9589909315109253, 0.9622238874435425, 0.9640266299247742, 0.9577822089195251, 0.9736655950546265, 0.9677878618240356, 0.9477921724319458, 0.958385705947876, 0.8717541694641113, 0.6610011458396912, 0.7411444783210754, 0.867746889591217, 0.8469659090042114, 0.792120099067688, 0.9015822410583496, 0.9124575257301331, 0.7225470542907715, 0.90397709608078, 0.8675845265388489, 0.8830375671386719, 0.8975749611854553, 0.8684446215629578, 0.8765957951545715, 0.8047223091125488, 0.8917586803436279, 0.9437754154205322, 0.8996059894561768, 0.7375661134719849, 0.5371708869934082, 0.5064057111740112, 0.6704987287521362, 0.6792595386505127, 0.6315620541572571, 0.6209547519683838, 0.547964334487915, 0.4206525981426239, 0.8244116902351379, 0.7537668943405151, 0.8647291660308838, 0.8115728497505188, 0.8947161436080933, 0.7594462633132935, 0.7756660580635071, 0.8467249274253845, 0.8469328880310059]</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.9427061080932617</v>
+        <v>0.9752215147018433</v>
       </c>
       <c r="F118" t="n">
         <v>1</v>
@@ -5263,10 +5263,10 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0.8606096000003163</v>
+        <v>0.895009800005937</v>
       </c>
       <c r="J118" t="n">
-        <v>0.005446896202533648</v>
+        <v>0.005664618987379348</v>
       </c>
     </row>
     <row r="119">
@@ -5285,11 +5285,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>[0.45940345525741577, 0.444037526845932, 0.5292460322380066, 0.5737424492835999, 0.6218644380569458, 0.5579704642295837, 0.4420267343521118, 0.3943847715854645, 0.3441329896450043, 0.5832607746124268, 0.5163390636444092, 0.40158817172050476, 0.477312296628952, 0.5628572106361389, 0.5315316319465637, 0.4508938789367676, 0.4178091883659363, 0.415680855512619, 0.48812413215637207, 0.565341591835022, 0.40460005402565, 0.43558943271636963, 0.5330806374549866, 0.5734341144561768, 0.5737506747245789, 0.5550679564476013, 0.605917751789093, 0.6238351464271545, 0.42104387283325195, 0.5195913910865784, 0.5046561360359192, 0.4939013421535492, 0.4889085590839386, 0.5741367936134338, 0.5874459147453308, 0.577484130859375, 0.4684443473815918, 0.37794893980026245, 0.575908899307251, 0.39818572998046875, 0.3047463595867157, 0.30562564730644226, 0.431162029504776, 0.47487351298332214, 0.4390633702278137, 0.5098835825920105, 0.5168994665145874, 0.4524906873703003, 0.39035627245903015, 0.3415554463863373, 0.4053254723548889, 0.468397319316864, 0.43014469742774963, 0.4632430672645569, 0.44992634654045105, 0.4306049942970276, 0.5360667109489441, 0.4983798563480377, 0.508639395236969, 0.4578244388103485, 0.40791961550712585, 0.4993683099746704, 0.41547727584838867, 0.4758940637111664, 0.4066861569881439, 0.45153534412384033, 0.4806673228740692, 0.4201831817626953, 0.4253184199333191, 0.37688130140304565, 0.3983234465122223, 0.4803300201892853, 0.5353229641914368, 0.40318021178245544, 0.46586084365844727, 0.28767403960227966, 0.3658472001552582, 0.3607722520828247, 0.3674674928188324, 0.29552048444747925, 0.254788875579834, 0.25027966499328613, 0.3399641215801239, 0.4766383171081543, 0.5041926503181458, 0.5357874631881714, 0.4704941511154175, 0.4478256404399872, 0.5062986612319946, 0.4814580976963043, 0.40786993503570557, 0.4044618606567383, 0.5279489755630493, 0.41527101397514343, 0.6092680096626282, 0.5732285380363464, 0.5735332369804382, 0.6783525943756104, 0.7115662693977356, 0.5399796366691589, 0.45572906732559204, 0.3755316138267517, 0.37934112548828125, 0.41364946961402893, 0.6289669871330261, 0.8384060263633728, 0.7423489689826965, 0.6919940710067749, 0.7087446451187134, 0.6351213455200195, 0.5220977067947388, 0.6241428852081299, 0.47133785486221313, 0.5807459354400635, 0.523359477519989, 0.5713250637054443, 0.4434991180896759, 0.6104970574378967, 0.5573380589485168, 0.6237816214561462, 0.46340125799179077, 0.5197944641113281, 0.5574356317520142, 0.5141035914421082, 0.43485692143440247, 0.43381449580192566, 0.30462124943733215, 0.36959075927734375, 0.3506738543510437, 0.3234022557735443, 0.39640140533447266, 0.34954801201820374, 0.46307694911956787, 0.5585715174674988, 0.46387210488319397, 0.5117068290710449, 0.5177707672119141, 0.4188680350780487, 0.5381194353103638, 0.6399792432785034, 0.4479900300502777, 0.40034589171409607, 0.3544401526451111, 0.41671961545944214, 0.4771801829338074, 0.440995454788208, 0.5809692740440369, 0.6419137716293335, 0.7126899361610413, 0.6057365536689758, 0.6399823427200317, 0.6302384734153748, 0.6956406235694885, 0.5816349983215332, 0.5969870090484619, 0.7930437922477722, 0.6324552297592163, 0.6288688778877258]</t>
+          <t>[0.5154228210449219, 0.5430923104286194, 0.6138363480567932, 0.6356496810913086, 0.7216467261314392, 0.631799042224884, 0.45016634464263916, 0.39313140511512756, 0.35718291997909546, 0.7346346378326416, 0.6550443768501282, 0.42553243041038513, 0.48306384682655334, 0.5500538945198059, 0.5605084300041199, 0.5303259491920471, 0.5398973822593689, 0.5013198256492615, 0.6325319409370422, 0.7087330222129822, 0.543688952922821, 0.5386695861816406, 0.6591567397117615, 0.7246991395950317, 0.7142773866653442, 0.6944329142570496, 0.7635781168937683, 0.7063390016555786, 0.468262255191803, 0.6131725907325745, 0.56261146068573, 0.589195191860199, 0.5538862347602844, 0.6500322818756104, 0.6396422386169434, 0.6605067849159241, 0.4891379475593567, 0.41717270016670227, 0.6047041416168213, 0.4635169804096222, 0.36802661418914795, 0.3830316662788391, 0.5430358648300171, 0.5994076132774353, 0.5147583484649658, 0.5643162131309509, 0.5631459951400757, 0.4327959418296814, 0.37300652265548706, 0.3508349061012268, 0.4278806149959564, 0.4939440190792084, 0.46376505494117737, 0.5227234959602356, 0.48516902327537537, 0.4796341061592102, 0.5861502885818481, 0.5192339420318604, 0.5127034783363342, 0.3970358073711395, 0.36673635244369507, 0.4822346568107605, 0.3839273750782013, 0.48930755257606506, 0.4032188355922699, 0.4860706031322479, 0.5089343190193176, 0.45792555809020996, 0.4948630928993225, 0.41311588883399963, 0.4083273410797119, 0.5259481072425842, 0.5711469054222107, 0.4577275812625885, 0.4728061258792877, 0.27057406306266785, 0.4124852418899536, 0.424460768699646, 0.4923703670501709, 0.3646305501461029, 0.3013974726200104, 0.3000136613845825, 0.3858935236930847, 0.5606141686439514, 0.5873048305511475, 0.6352158188819885, 0.5293460488319397, 0.520689845085144, 0.5937339663505554, 0.5366582870483398, 0.44799432158470154, 0.43570277094841003, 0.5824072360992432, 0.4307780861854553, 0.6745458841323853, 0.5967530012130737, 0.6358004212379456, 0.7584689259529114, 0.7679426670074463, 0.604237973690033, 0.4465540945529938, 0.3875420093536377, 0.39134472608566284, 0.48472875356674194, 0.7130457162857056, 0.8884416222572327, 0.830963671207428, 0.7834516763687134, 0.7902748584747314, 0.7296308279037476, 0.6181496381759644, 0.7045297622680664, 0.5156009197235107, 0.6353263258934021, 0.5829790234565735, 0.6274809837341309, 0.6036214828491211, 0.7806364297866821, 0.7368477582931519, 0.7874070405960083, 0.6178160309791565, 0.6437886953353882, 0.6988882422447205, 0.6486817598342896, 0.5368891954421997, 0.49930664896965027, 0.3819067180156708, 0.43312811851501465, 0.36477595567703247, 0.3294961154460907, 0.3586706221103668, 0.3816837966442108, 0.5441792607307434, 0.600443959236145, 0.5563274621963501, 0.6150171756744385, 0.6587875485420227, 0.5372593402862549, 0.6544563174247742, 0.6813853979110718, 0.49592164158821106, 0.397985577583313, 0.3415501117706299, 0.452576607465744, 0.515494167804718, 0.5241096615791321, 0.6785692572593689, 0.7733586430549622, 0.8325822353363037, 0.7636651396751404, 0.7510677576065063, 0.7357869744300842, 0.7962202429771423, 0.7132106423377991, 0.7452391386032104, 0.8967810273170471, 0.7458847761154175, 0.7425581216812134]</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.8384060263633728</v>
+        <v>0.8967810273170471</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0.8600307000160683</v>
+        <v>0.8567742000013823</v>
       </c>
       <c r="J119" t="n">
-        <v>0.005443232278582711</v>
+        <v>0.00542262151899609</v>
       </c>
     </row>
     <row r="120">
@@ -5325,11 +5325,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>[0.9980511665344238, 0.9978177547454834, 0.9978051781654358, 0.9982438087463379, 0.9975157976150513, 0.994948148727417, 0.9960525035858154, 0.9962300658226013, 0.9963294863700867, 0.9924407005310059, 0.9793124198913574, 0.9935269355773926, 0.9947180151939392, 0.9976121187210083, 0.9982905983924866, 0.9981765747070312, 0.9981322884559631, 0.997780978679657, 0.9981709718704224, 0.998199462890625, 0.9979799389839172, 0.9981847405433655, 0.9971427321434021, 0.9905423521995544, 0.9943903088569641, 0.9925503730773926, 0.9974449872970581, 0.9979162812232971, 0.9975511431694031, 0.997836172580719, 0.9962043166160583, 0.9937183856964111, 0.9920552372932434, 0.9654901623725891, 0.9973330497741699, 0.9978748559951782, 0.9978785514831543, 0.9979385733604431, 0.9976080656051636, 0.997376561164856, 0.9938495755195618, 0.9897915124893188, 0.9591490030288696, 0.9479799270629883, 0.8794887661933899, 0.7766616940498352, 0.7205860018730164, 0.8954389095306396, 0.8353801965713501, 0.6254969239234924, 0.6760684251785278, 0.5555106997489929, 0.7207992076873779, 0.9470345973968506, 0.9786843657493591, 0.9644730091094971, 0.9858154058456421, 0.9987584352493286, 0.9990904331207275, 0.999042809009552, 0.9990991353988647, 0.9985893368721008, 0.9983199238777161, 0.9986218214035034, 0.9985529780387878, 0.9989888072013855, 0.9989898800849915, 0.9991902709007263, 0.9989578723907471, 0.9987506866455078, 0.9980814456939697, 0.9985767602920532, 0.9980427026748657, 0.9980029463768005, 0.9980645775794983, 0.9984109401702881, 0.9984906911849976, 0.9986434578895569, 0.9982898831367493, 0.9977815747261047, 0.9984582662582397, 0.9990241527557373, 0.9989510774612427, 0.9988848567008972, 0.9988621473312378, 0.9986717700958252, 0.998602569103241, 0.9987422823905945, 0.998218834400177, 0.997535228729248, 0.9980097413063049, 0.9986047148704529, 0.9984846711158752, 0.9973741769790649, 0.9945953488349915, 0.9751018285751343, 0.9909185171127319, 0.9979534149169922, 0.9985003471374512, 0.9980782270431519, 0.9985626339912415, 0.9981485605239868, 0.9962980151176453, 0.9979744553565979, 0.99681156873703, 0.996757447719574, 0.9980748891830444, 0.9984923601150513, 0.9975504279136658, 0.9978607296943665, 0.9965282082557678, 0.9975985884666443, 0.990752100944519, 0.9959118366241455, 0.9957115650177002, 0.9964148998260498, 0.9934043288230896, 0.9865610003471375, 0.9786930084228516, 0.9828773736953735, 0.9952341914176941, 0.9968268275260925, 0.9980934262275696, 0.9978134632110596, 0.998723566532135, 0.9980636239051819, 0.9984846711158752, 0.9987010955810547, 0.9987427592277527, 0.9989192485809326, 0.9987295269966125, 0.9989017248153687, 0.9990000128746033, 0.9986467957496643, 0.998444139957428, 0.9987882971763611, 0.9991570711135864, 0.9993588328361511, 0.999356210231781, 0.9989500641822815, 0.9978834986686707, 0.996585488319397, 0.9967813491821289, 0.998251736164093, 0.9976080656051636, 0.9972608089447021, 0.9963089823722839, 0.9984219074249268, 0.9987609386444092, 0.9986616373062134, 0.9988376498222351, 0.9990780353546143, 0.9985364675521851, 0.9986447691917419, 0.998252809047699, 0.9986457228660583, 0.9987913966178894, 0.9987917542457581]</t>
+          <t>[0.9992201328277588, 0.9989731311798096, 0.999100923538208, 0.999263346195221, 0.9990466237068176, 0.9980390667915344, 0.9985741376876831, 0.9988471269607544, 0.998670220375061, 0.9971926808357239, 0.9904255270957947, 0.9966831803321838, 0.9978964328765869, 0.9990600943565369, 0.9993256330490112, 0.999243974685669, 0.9991833567619324, 0.9990214109420776, 0.9991348385810852, 0.9992274045944214, 0.999211311340332, 0.9993506073951721, 0.9988225102424622, 0.9948350191116333, 0.9970747232437134, 0.9961101412773132, 0.9988551139831543, 0.9991661310195923, 0.9989703893661499, 0.9991656541824341, 0.9980344176292419, 0.9971823692321777, 0.9978475570678711, 0.9913869500160217, 0.998880922794342, 0.9991076588630676, 0.9992221593856812, 0.9992185831069946, 0.9992120265960693, 0.9991317391395569, 0.9983879327774048, 0.9968432188034058, 0.9862789511680603, 0.9779950976371765, 0.9398033022880554, 0.8451803922653198, 0.7368841171264648, 0.9272652268409729, 0.8759853839874268, 0.6767357587814331, 0.7300832271575928, 0.6116260886192322, 0.8378332853317261, 0.9810687899589539, 0.9938331842422485, 0.9919540286064148, 0.9974685907363892, 0.9996695518493652, 0.9997435212135315, 0.9997197985649109, 0.9996312856674194, 0.9993870258331299, 0.9991737008094788, 0.9992852807044983, 0.9992352724075317, 0.9994729161262512, 0.9994896650314331, 0.9996324777603149, 0.9995148181915283, 0.9994282126426697, 0.9991264939308167, 0.9992951154708862, 0.9988816380500793, 0.9990247488021851, 0.9991078972816467, 0.999231219291687, 0.9992610812187195, 0.9992952346801758, 0.9991984963417053, 0.9990573525428772, 0.9992780089378357, 0.9995750784873962, 0.9995635151863098, 0.9995597004890442, 0.9994613528251648, 0.9993882179260254, 0.9993732571601868, 0.9995244741439819, 0.9992795586585999, 0.9989239573478699, 0.9990979433059692, 0.9994403719902039, 0.9993044137954712, 0.998613715171814, 0.997431218624115, 0.9899404644966125, 0.9969966411590576, 0.9990503191947937, 0.999234676361084, 0.9989714622497559, 0.9992266893386841, 0.9991142153739929, 0.9986563920974731, 0.9990125894546509, 0.9986615180969238, 0.9987034797668457, 0.9993354678153992, 0.9994744658470154, 0.998822033405304, 0.9992945194244385, 0.9992634654045105, 0.9993372559547424, 0.9980869293212891, 0.9986730813980103, 0.9988555908203125, 0.9990124702453613, 0.9980371594429016, 0.9971151351928711, 0.9942979216575623, 0.9957892298698425, 0.9984264373779297, 0.998996913433075, 0.9994038343429565, 0.9993276596069336, 0.9995604157447815, 0.9993436932563782, 0.9995974898338318, 0.9996098875999451, 0.9996353387832642, 0.9996633529663086, 0.999462902545929, 0.9995601773262024, 0.9995404481887817, 0.9993411898612976, 0.999218225479126, 0.9993921518325806, 0.9995790123939514, 0.9997103810310364, 0.9997095465660095, 0.9995822310447693, 0.9994600415229797, 0.9991193413734436, 0.9988744854927063, 0.9993796348571777, 0.9992163181304932, 0.9991638660430908, 0.9988412261009216, 0.9994706511497498, 0.9995638728141785, 0.9995254278182983, 0.999630331993103, 0.9996782541275024, 0.999448835849762, 0.9995631575584412, 0.9994617104530334, 0.9994114637374878, 0.9994346499443054, 0.9994350075721741]</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.9993588328361511</v>
+        <v>0.9997435212135315</v>
       </c>
       <c r="F120" t="n">
         <v>1</v>
@@ -5343,10 +5343,10 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0.9152799999865238</v>
+        <v>0.8826637000020128</v>
       </c>
       <c r="J120" t="n">
-        <v>0.005792911392319771</v>
+        <v>0.00558647911393679</v>
       </c>
     </row>
     <row r="121">
@@ -5365,11 +5365,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>[0.9911465048789978, 0.993933379650116, 0.989407479763031, 0.9786287546157837, 0.9700636267662048, 0.9929008483886719, 0.9844769239425659, 0.9891295433044434, 0.9969007968902588, 0.9970887303352356, 0.9955267310142517, 0.9951453804969788, 0.9967740178108215, 0.9901556968688965, 0.9945821166038513, 0.9946033358573914, 0.9855824708938599, 0.9846486449241638, 0.99616539478302, 0.9949963092803955, 0.9945471286773682, 0.9957892298698425, 0.9798153638839722, 0.9964661598205566, 0.9900110363960266, 0.9939175844192505, 0.9773750901222229, 0.9759321212768555, 0.9700666666030884, 0.8981361985206604, 0.7912989854812622, 0.8893739581108093, 0.7730425596237183, 0.9103166460990906, 0.984263002872467, 0.9823764562606812, 0.9781529903411865, 0.9537839293479919, 0.9775031805038452, 0.9491142630577087, 0.8443582653999329, 0.8755531311035156, 0.9400602579116821, 0.9755280613899231, 0.9615066647529602, 0.9804295301437378, 0.9873349666595459, 0.9784441590309143, 0.9512215852737427, 0.9910163879394531, 0.9947302341461182, 0.9948648810386658, 0.9935599565505981, 0.9459915161132812, 0.9850631952285767, 0.9912272095680237, 0.9923560619354248, 0.9926613569259644, 0.9746784567832947, 0.9350733160972595, 0.8812310695648193, 0.9505735039710999, 0.984882652759552, 0.9926778078079224, 0.9962093830108643, 0.9969406127929688, 0.9962050318717957, 0.9974367022514343, 0.9975656270980835, 0.9964002370834351, 0.9973750114440918, 0.9955264925956726, 0.9885846972465515, 0.9850084781646729, 0.990770697593689, 0.99623703956604, 0.9966574907302856, 0.9967464208602905, 0.9957817792892456, 0.9974352717399597, 0.9983970522880554, 0.9980437755584717, 0.9878537654876709, 0.9920130372047424, 0.9847544431686401, 0.9380261301994324, 0.9747065305709839, 0.9182909727096558, 0.9724605679512024, 0.9518782496452332, 0.9347744584083557, 0.9717270731925964, 0.9932147264480591, 0.9907178282737732, 0.9918560981750488, 0.9916948676109314, 0.9918741583824158, 0.9923434853553772, 0.9918760061264038, 0.9851935505867004, 0.9825102686882019, 0.9808837175369263, 0.9778131246566772, 0.9902880191802979, 0.9724953770637512, 0.9864956140518188, 0.9895145893096924, 0.9924110174179077, 0.9866640567779541, 0.9923288226127625, 0.9692013263702393, 0.9886149168014526, 0.9940962791442871, 0.9911954402923584, 0.9891491532325745, 0.9855203032493591, 0.9893463253974915, 0.9899600744247437, 0.9874265193939209, 0.9771978259086609, 0.977088987827301, 0.9748473167419434, 0.904077410697937, 0.9919595122337341, 0.9943183064460754, 0.9945409893989563, 0.9915333390235901, 0.9934797286987305, 0.9956920742988586, 0.9955475330352783, 0.9947454929351807, 0.9869088530540466, 0.9928804636001587, 0.9947604537010193, 0.9966177344322205, 0.9897234439849854, 0.9949737787246704, 0.9912763833999634, 0.9886437654495239, 0.9855043292045593, 0.9501902461051941, 0.9140021800994873, 0.9412842988967896, 0.8874054551124573, 0.8667153120040894, 0.8590921759605408, 0.8669940829277039, 0.9473943114280701, 0.95695561170578, 0.9457404613494873, 0.9702389240264893, 0.9830312728881836, 0.8541817665100098, 0.8825370073318481, 0.7517268061637878, 0.8760068416595459, 0.977249264717102, 0.9773045778274536]</t>
+          <t>[0.9930536150932312, 0.9970850348472595, 0.9936112761497498, 0.9828500151634216, 0.9674407243728638, 0.9966875910758972, 0.9919618964195251, 0.9941288232803345, 0.9987291693687439, 0.9986176490783691, 0.9966850876808167, 0.9970903396606445, 0.9985867738723755, 0.9938247203826904, 0.9969992637634277, 0.9970124959945679, 0.9895695447921753, 0.9910212159156799, 0.9980818033218384, 0.9969481825828552, 0.9969243407249451, 0.9975147247314453, 0.9893859624862671, 0.9984003901481628, 0.9954401254653931, 0.9971627593040466, 0.9852800369262695, 0.9860399961471558, 0.9830297827720642, 0.920612096786499, 0.8386563062667847, 0.9120833277702332, 0.7935279011726379, 0.9185721278190613, 0.986430287361145, 0.9893759489059448, 0.9885870814323425, 0.9769649505615234, 0.9878221154212952, 0.9741575717926025, 0.8607454299926758, 0.8952102661132812, 0.9524679183959961, 0.9825873970985413, 0.9710605144500732, 0.9872986674308777, 0.9879999756813049, 0.9868720769882202, 0.9755622148513794, 0.9967859983444214, 0.997809112071991, 0.9974095225334167, 0.9961007833480835, 0.9662154316902161, 0.9935600757598877, 0.9953599572181702, 0.994629442691803, 0.9963919520378113, 0.9727981686592102, 0.930109977722168, 0.8971794247627258, 0.9789855480194092, 0.9934921860694885, 0.997134804725647, 0.9984904527664185, 0.9988263249397278, 0.9986425042152405, 0.9991067051887512, 0.9990190267562866, 0.9987346529960632, 0.998895525932312, 0.9981898665428162, 0.9968001842498779, 0.9960482716560364, 0.9964590668678284, 0.9989432692527771, 0.9988873600959778, 0.9986863732337952, 0.9979071617126465, 0.9987860321998596, 0.9993661046028137, 0.9993419051170349, 0.9947493672370911, 0.9957757592201233, 0.9908407926559448, 0.9644918441772461, 0.9883553981781006, 0.9593715071678162, 0.9890962243080139, 0.9834533333778381, 0.9806859493255615, 0.9879536628723145, 0.9972810745239258, 0.9950313568115234, 0.9966356158256531, 0.9971606731414795, 0.9969018697738647, 0.9971123933792114, 0.996576726436615, 0.9950549602508545, 0.9936051964759827, 0.9929724931716919, 0.9920401573181152, 0.9960269927978516, 0.9904537200927734, 0.994398295879364, 0.9955093860626221, 0.9967382550239563, 0.9931753277778625, 0.9967952370643616, 0.986283004283905, 0.9958725571632385, 0.9980384707450867, 0.9971066117286682, 0.9969592094421387, 0.9959225654602051, 0.9965806603431702, 0.9958100318908691, 0.9965131878852844, 0.9877679944038391, 0.9813337922096252, 0.9817999601364136, 0.9582527875900269, 0.9972760081291199, 0.9975361824035645, 0.9977066516876221, 0.9965389966964722, 0.9975078105926514, 0.998390793800354, 0.9984758496284485, 0.9983052015304565, 0.9959889054298401, 0.9967570900917053, 0.9978221654891968, 0.9988435506820679, 0.9963690042495728, 0.9977992177009583, 0.9960227012634277, 0.9949015378952026, 0.992816686630249, 0.9802196621894836, 0.9494621157646179, 0.9672992825508118, 0.9011361598968506, 0.9069216251373291, 0.9084142446517944, 0.8915464878082275, 0.9691824913024902, 0.9759523272514343, 0.9751006960868835, 0.9886919260025024, 0.9954022169113159, 0.9222487807273865, 0.9445483088493347, 0.8818106055259705, 0.9512698650360107, 0.9900482892990112, 0.990044891834259]</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.9983970522880554</v>
+        <v>0.9993661046028137</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
@@ -5383,10 +5383,10 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0.9114703999948688</v>
+        <v>0.9281900999922073</v>
       </c>
       <c r="J121" t="n">
-        <v>0.005768799999967524</v>
+        <v>0.005874620886026628</v>
       </c>
     </row>
     <row r="122">
@@ -5405,11 +5405,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>[0.9699720144271851, 0.9906554818153381, 0.9923121333122253, 0.9687096476554871, 0.8924572467803955, 0.958076000213623, 0.9727118611335754, 0.979353129863739, 0.9832385778427124, 0.9844104051589966, 0.9823148250579834, 0.9846937656402588, 0.9943099021911621, 0.9889757633209229, 0.9834722280502319, 0.9890495538711548, 0.9903505444526672, 0.9408503770828247, 0.9565700888633728, 0.9202879667282104, 0.9537983536720276, 0.9562949538230896, 0.9490858316421509, 0.935986340045929, 0.9580925703048706, 0.8238476514816284, 0.9181017875671387, 0.9612553119659424, 0.9097985029220581, 0.8364759087562561, 0.8669512271881104, 0.7926880121231079, 0.6674869060516357, 0.9481927156448364, 0.9261806607246399, 0.9102455377578735, 0.9570341110229492, 0.9801259636878967, 0.9658330678939819, 0.8009768128395081, 0.6791593432426453, 0.7906094789505005, 0.8749732375144958, 0.9293306469917297, 0.8845245838165283, 0.8583664298057556, 0.7516382932662964, 0.7920733690261841, 0.9389370083808899, 0.8188148736953735, 0.8558384776115417, 0.7742490172386169, 0.9158535599708557, 0.8973357677459717, 0.8784139156341553, 0.9644633531570435, 0.9489116072654724, 0.9539632201194763, 0.868078887462616, 0.9181563854217529, 0.8882139921188354, 0.9145466685295105, 0.9169468879699707, 0.8668175935745239, 0.9080122113227844, 0.8877241611480713, 0.9471451640129089, 0.9544700384140015, 0.9116767644882202, 0.9400060176849365, 0.9681798219680786, 0.9771849513053894, 0.9479436874389648, 0.945803701877594, 0.9279001355171204, 0.9063577055931091, 0.8466646075248718, 0.9531655311584473, 0.9602316617965698, 0.9450613260269165, 0.9382378458976746, 0.9199870824813843, 0.6484677195549011, 0.6495382189750671, 0.7211582660675049, 0.7297020554542542, 0.5782940983772278, 0.714970052242279, 0.7660136818885803, 0.8363293409347534, 0.7420672178268433, 0.7048186659812927, 0.6164836883544922, 0.6244444251060486, 0.8303251266479492, 0.9212172627449036, 0.9148975610733032, 0.9293903708457947, 0.9322300553321838, 0.9385496973991394, 0.8986510038375854, 0.8370350003242493, 0.8010663390159607, 0.8047558665275574, 0.8593907952308655, 0.9507706761360168, 0.9004418253898621, 0.8280906677246094, 0.9515851140022278, 0.9727978706359863, 0.9618134498596191, 0.8684934377670288, 0.690800666809082, 0.8274108171463013, 0.7140536904335022, 0.6973967552185059, 0.7921316623687744, 0.7039378881454468, 0.6508729457855225, 0.7928804755210876, 0.759742021560669, 0.6163478493690491, 0.7867984771728516, 0.7664949893951416, 0.7121457457542419, 0.744603157043457, 0.8725100159645081, 0.8283137679100037, 0.7897753715515137, 0.7017677426338196, 0.7305591702461243, 0.5503697991371155, 0.67057204246521, 0.6981617212295532, 0.7562658786773682, 0.885675847530365, 0.8994814157485962, 0.8091930150985718, 0.6573530435562134, 0.7664585113525391, 0.7448953986167908, 0.6746416091918945, 0.6158925294876099, 0.5837700963020325, 0.5321034789085388, 0.7963016033172607, 0.8067066073417664, 0.832621157169342, 0.6275445818901062, 0.54928058385849, 0.6818811297416687, 0.8202721476554871, 0.5117583274841309, 0.5198471546173096, 0.3779042661190033, 0.4635535478591919, 0.46243366599082947]</t>
+          <t>[0.9935652613639832, 0.9959315657615662, 0.9973155856132507, 0.9907676577568054, 0.9467657804489136, 0.9856573343276978, 0.9927329421043396, 0.9944028258323669, 0.9936357736587524, 0.9930942058563232, 0.9919385313987732, 0.9930258989334106, 0.9976171851158142, 0.9964218139648438, 0.9933144450187683, 0.9963521957397461, 0.9970620274543762, 0.9777441620826721, 0.9745826125144958, 0.9597907066345215, 0.9836530685424805, 0.9854251742362976, 0.9775541424751282, 0.9616663455963135, 0.9751276969909668, 0.8792305588722229, 0.9638262987136841, 0.9822511076927185, 0.9498894810676575, 0.9002442955970764, 0.9246612191200256, 0.8482546210289001, 0.7934653162956238, 0.9775921702384949, 0.9710691571235657, 0.9601640701293945, 0.9838877320289612, 0.9932407140731812, 0.9887698888778687, 0.9399279356002808, 0.8169109225273132, 0.9002178311347961, 0.9516893625259399, 0.9702774882316589, 0.940453052520752, 0.9263759851455688, 0.842227578163147, 0.9166386127471924, 0.9781538248062134, 0.9296312928199768, 0.9166865944862366, 0.8771275877952576, 0.9691166877746582, 0.9610707759857178, 0.9500933885574341, 0.9871330261230469, 0.9799627065658569, 0.9803115129470825, 0.933970034122467, 0.9523105025291443, 0.9498878717422485, 0.9514877200126648, 0.9562098383903503, 0.9139501452445984, 0.9486453533172607, 0.9376792311668396, 0.9739073514938354, 0.9809064269065857, 0.9545896053314209, 0.9627853035926819, 0.983730673789978, 0.9891267418861389, 0.9763333201408386, 0.9746814966201782, 0.9610038995742798, 0.9512315988540649, 0.9214426875114441, 0.9805629253387451, 0.9897786974906921, 0.9793052077293396, 0.9755164980888367, 0.9481180310249329, 0.6688261032104492, 0.6062917709350586, 0.7673587203025818, 0.7421509623527527, 0.579807698726654, 0.7210689187049866, 0.8036400079727173, 0.8812004327774048, 0.7619667649269104, 0.7800124287605286, 0.6383662223815918, 0.690616250038147, 0.9033488631248474, 0.9588156342506409, 0.9645741581916809, 0.971732497215271, 0.9710363149642944, 0.9741196632385254, 0.9645755887031555, 0.9095608592033386, 0.8491479158401489, 0.842535674571991, 0.9387505054473877, 0.9821927547454834, 0.9555330276489258, 0.9016868472099304, 0.9785212278366089, 0.9892886877059937, 0.9813753366470337, 0.9345174431800842, 0.7689033150672913, 0.8941052556037903, 0.8076865077018738, 0.788367509841919, 0.8890177607536316, 0.7854544520378113, 0.7143300771713257, 0.8625630736351013, 0.8566006422042847, 0.6907219886779785, 0.8713200092315674, 0.8711751103401184, 0.817229688167572, 0.8474042415618896, 0.924728274345398, 0.8799347281455994, 0.8308935165405273, 0.7289982438087463, 0.8428941369056702, 0.5671897530555725, 0.6943266987800598, 0.7724360227584839, 0.8582687377929688, 0.9562286734580994, 0.9760924577713013, 0.9199244379997253, 0.7722193598747253, 0.8441009521484375, 0.8794543743133545, 0.7769712805747986, 0.7203680276870728, 0.5858890414237976, 0.5075905919075012, 0.8486224412918091, 0.871752917766571, 0.8901976346969604, 0.660762369632721, 0.5361073613166809, 0.7136031985282898, 0.8940842747688293, 0.465912789106369, 0.48910969495773315, 0.32146236300468445, 0.4159949719905853, 0.41407057642936707]</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.9943099021911621</v>
+        <v>0.9976171851158142</v>
       </c>
       <c r="F122" t="n">
         <v>1</v>
@@ -5423,10 +5423,10 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0.9340859999938402</v>
+        <v>0.9004783999989741</v>
       </c>
       <c r="J122" t="n">
-        <v>0.005949592356648664</v>
+        <v>0.005735531210184548</v>
       </c>
     </row>
     <row r="123">
@@ -5445,11 +5445,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>[0.9926767349243164, 0.9836936593055725, 0.9241053462028503, 0.8177990913391113, 0.5181543231010437, 0.4602102041244507, 0.6951979994773865, 0.8780491948127747, 0.9706196784973145, 0.9909509420394897, 0.989825963973999, 0.9893569350242615, 0.8843215703964233, 0.8783373832702637, 0.7288733720779419, 0.7607387900352478, 0.7284233570098877, 0.6754341125488281, 0.4876006543636322, 0.4111008048057556, 0.3811948001384735, 0.3980945348739624, 0.5196287631988525, 0.5639585852622986, 0.7006242275238037, 0.8644760847091675, 0.9329867362976074, 0.9658030271530151, 0.9368856549263, 0.7645297050476074, 0.6233363151550293, 0.9313366413116455, 0.9200682044029236, 0.8661642670631409, 0.8369215726852417, 0.8283610939979553, 0.9277762770652771, 0.9019412994384766, 0.912304699420929, 0.9519585371017456, 0.9572155475616455, 0.8904603123664856, 0.8536018133163452, 0.9077162742614746, 0.8851289749145508, 0.7808929085731506, 0.726402759552002, 0.8664380311965942, 0.8762544393539429, 0.88033127784729, 0.9394374489784241, 0.9655666947364807, 0.8830717206001282, 0.8979374766349792, 0.965986430644989, 0.9073944687843323, 0.8696088790893555, 0.6822673082351685, 0.7756455540657043, 0.8189172744750977, 0.867354154586792, 0.9910880327224731, 0.9931477904319763, 0.9931957721710205, 0.9883981347084045, 0.9787781238555908, 0.8581259846687317, 0.858388364315033, 0.8512104749679565, 0.7091698050498962, 0.709240734577179, 0.6410337686538696, 0.492240309715271, 0.49716347455978394, 0.5542179346084595, 0.6243898868560791, 0.5647732615470886, 0.606038510799408, 0.5449405908584595, 0.6362130641937256, 0.7456156611442566, 0.7471358776092529, 0.6766782999038696, 0.68731290102005, 0.8681249618530273, 0.9851762056350708, 0.9811519980430603, 0.9828048348426819, 0.9505854845046997, 0.9414612650871277, 0.932380199432373, 0.9077194929122925, 0.9416905045509338, 0.9636992812156677, 0.9778313636779785, 0.9868133068084717, 0.9834907054901123, 0.9903220534324646, 0.990196704864502, 0.9849964380264282, 0.9783769845962524, 0.9842224717140198, 0.9820374250411987, 0.9941807389259338, 0.9925057291984558, 0.9878315329551697, 0.9863530397415161, 0.9837976098060608, 0.9787418842315674, 0.7198897004127502, 0.7201220989227295, 0.7928066849708557, 0.7018263936042786, 0.9855820536613464, 0.9939402341842651, 0.9917581677436829, 0.9919156432151794, 0.9720512628555298, 0.9496435523033142, 0.9115646481513977, 0.7962357401847839, 0.7693967223167419, 0.7018178105354309, 0.8577150702476501, 0.6128783226013184, 0.8905102014541626, 0.8654346466064453, 0.8183116316795349, 0.7848230004310608, 0.8468829989433289, 0.7426019310951233, 0.9373295903205872, 0.9779833555221558, 0.9760520458221436, 0.9501230716705322, 0.9454817175865173, 0.9504750967025757, 0.9877002239227295, 0.9877104163169861]</t>
+          <t>[0.9965830445289612, 0.9931378960609436, 0.9493986964225769, 0.9291785359382629, 0.7102441191673279, 0.6344773769378662, 0.9201732873916626, 0.9632026553153992, 0.9913751482963562, 0.997118353843689, 0.996488094329834, 0.9968806505203247, 0.9813490509986877, 0.9699785113334656, 0.8747082948684692, 0.8711711168289185, 0.856401801109314, 0.8703686594963074, 0.708957850933075, 0.5182523727416992, 0.44002747535705566, 0.412029892206192, 0.5535253286361694, 0.5667157173156738, 0.8394063115119934, 0.9675753116607666, 0.9853547811508179, 0.9932330250740051, 0.9918286204338074, 0.9590861797332764, 0.8181369304656982, 0.9865939617156982, 0.9787442088127136, 0.9599799513816833, 0.9228163361549377, 0.8707119822502136, 0.9679713249206543, 0.9523714780807495, 0.9534350037574768, 0.9737444519996643, 0.9782330989837646, 0.901983916759491, 0.8999640345573425, 0.9617711901664734, 0.940424382686615, 0.8595831394195557, 0.7536045908927917, 0.8892662525177002, 0.9136102199554443, 0.8875889182090759, 0.9681844115257263, 0.9807831645011902, 0.895673930644989, 0.9338522553443909, 0.9738097190856934, 0.9561272263526917, 0.9316594004631042, 0.7773557305335999, 0.875843346118927, 0.9246177077293396, 0.9613260626792908, 0.9975743889808655, 0.9977713823318481, 0.9977030158042908, 0.9961918592453003, 0.9949153661727905, 0.9393990635871887, 0.9364998936653137, 0.9340822696685791, 0.7956934571266174, 0.7774196863174438, 0.6681575179100037, 0.5300855040550232, 0.48403069376945496, 0.5431987047195435, 0.5864303112030029, 0.5107656717300415, 0.5183323621749878, 0.4426964521408081, 0.6276723742485046, 0.7619814872741699, 0.6923427581787109, 0.7283015847206116, 0.7441686391830444, 0.8997491598129272, 0.9940529465675354, 0.99302738904953, 0.9934119582176208, 0.9806548357009888, 0.972722589969635, 0.956633448600769, 0.936329185962677, 0.9621047973632812, 0.9762573838233948, 0.9921971559524536, 0.9939901828765869, 0.993988037109375, 0.996380627155304, 0.9960474371910095, 0.9941412806510925, 0.9883734583854675, 0.993593156337738, 0.9886518120765686, 0.9972455501556396, 0.9963865280151367, 0.9920356869697571, 0.9917297959327698, 0.9915022850036621, 0.9921501874923706, 0.8041794300079346, 0.8480557799339294, 0.927310049533844, 0.9011507630348206, 0.9954352974891663, 0.9979885816574097, 0.9957333207130432, 0.9962311387062073, 0.9845753908157349, 0.9666140079498291, 0.9567868709564209, 0.8474329113960266, 0.8073174357414246, 0.707940399646759, 0.9281776547431946, 0.7659779191017151, 0.9683370590209961, 0.937993586063385, 0.9011698365211487, 0.9079903960227966, 0.9324027895927429, 0.8484446406364441, 0.975095808506012, 0.9920445680618286, 0.9886952042579651, 0.9792509078979492, 0.9786205291748047, 0.975982666015625, 0.9912214279174805, 0.9912294149398804]</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.9941807389259338</v>
+        <v>0.9979885816574097</v>
       </c>
       <c r="F123" t="n">
         <v>1</v>
@@ -5463,10 +5463,10 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0.9628446999995504</v>
+        <v>0.9009335999871837</v>
       </c>
       <c r="J123" t="n">
-        <v>0.00692694028776655</v>
+        <v>0.006481536690555278</v>
       </c>
     </row>
     <row r="124">
@@ -5485,11 +5485,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>[0.3192932605743408, 0.185686394572258, 0.2875384986400604, 0.457788348197937, 0.6032339334487915, 0.675197184085846, 0.7651503682136536, 0.9361876249313354, 0.9674995541572571, 0.9902108907699585, 0.9910790324211121, 0.9885596632957458, 0.9859254956245422, 0.9802266359329224, 0.9770713448524475, 0.9765743613243103, 0.9891887903213501, 0.991339385509491, 0.9890615940093994, 0.9940487146377563, 0.9925278425216675, 0.9927545189857483, 0.9855566620826721, 0.9819403290748596, 0.9832080006599426, 0.970930814743042, 0.9788960814476013, 0.9754271507263184, 0.9732534885406494, 0.9523314833641052, 0.8481619954109192, 0.8407024145126343, 0.8526646494865417, 0.9207756519317627, 0.9558594226837158, 0.9851632714271545, 0.9887531995773315, 0.9937241673469543, 0.9921798706054688, 0.9866849780082703, 0.9709283113479614, 0.9501198530197144, 0.9504652619361877, 0.9325910210609436, 0.9615732431411743, 0.9776846766471863, 0.9768487811088562, 0.9699867367744446, 0.9734077453613281, 0.9608165621757507, 0.9411967396736145, 0.9802794456481934, 0.9798665046691895, 0.9783762693405151, 0.944041907787323, 0.9503378868103027, 0.9365349411964417, 0.9401584267616272, 0.9377666711807251, 0.8925452828407288, 0.9632992148399353, 0.9402644634246826, 0.9708330035209656, 0.9563066363334656, 0.9219194650650024, 0.8477829694747925, 0.8839774131774902, 0.8022873997688293, 0.8377052545547485, 0.8335434794425964, 0.9605570435523987, 0.9865476489067078, 0.9860986471176147, 0.9836371541023254, 0.9787102937698364, 0.9551830887794495, 0.9663968682289124, 0.5552486181259155, 0.725829005241394, 0.6303802728652954, 0.7737200260162354, 0.6908149719238281, 0.6119341850280762, 0.8562907576560974, 0.5957850217819214, 0.3807550072669983, 0.5093051195144653, 0.38477835059165955, 0.2624284625053406, 0.22375966608524323, 0.35619473457336426, 0.5160282254219055, 0.3645782470703125, 0.31661561131477356, 0.3173571825027466, 0.3368831276893616, 0.4778590202331543, 0.407214492559433, 0.5500367283821106, 0.43599697947502136, 0.2656724750995636, 0.33969441056251526, 0.3878059387207031, 0.240372896194458, 0.2225751280784607, 0.30782458186149597, 0.32450905442237854, 0.4070027470588684, 0.315256267786026, 0.35334983468055725, 0.2545367479324341, 0.3109915852546692, 0.16242781281471252, 0.19824083149433136, 0.2111014574766159, 0.26634547114372253, 0.44979041814804077, 0.3358769714832306, 0.3343127369880676, 0.6096177101135254, 0.523908257484436, 0.36559975147247314, 0.316889226436615, 0.2834745943546295, 0.3535810112953186, 0.4293355941772461, 0.45923981070518494, 0.48501795530319214, 0.6595455408096313, 0.7875450253486633, 0.6918898224830627, 0.6154285669326782, 0.6547093987464905, 0.6629137992858887, 0.4870505928993225, 0.7927828431129456, 0.6158811450004578, 0.8280927538871765, 0.8283985257148743]</t>
+          <t>[0.4724075198173523, 0.2773779630661011, 0.36366716027259827, 0.5450569987297058, 0.7187544703483582, 0.8810092806816101, 0.9336050152778625, 0.9859399795532227, 0.9933074116706848, 0.9973577857017517, 0.9970486760139465, 0.9964452385902405, 0.9949618577957153, 0.9935423135757446, 0.9940292835235596, 0.9908382296562195, 0.9961215853691101, 0.9965025186538696, 0.9960850477218628, 0.9982086420059204, 0.9967779517173767, 0.9973726272583008, 0.9955666661262512, 0.992983341217041, 0.9912249445915222, 0.9843276143074036, 0.9907033443450928, 0.9920897483825684, 0.9926263689994812, 0.9855837821960449, 0.9320228099822998, 0.9106858372688293, 0.9144715070724487, 0.9600200057029724, 0.9773189425468445, 0.9906683564186096, 0.9938941597938538, 0.996150016784668, 0.9961890578269958, 0.9929959177970886, 0.9859613180160522, 0.9780732989311218, 0.9701287150382996, 0.9749337434768677, 0.9850038290023804, 0.989474892616272, 0.9866804480552673, 0.9835373759269714, 0.984511137008667, 0.9862565398216248, 0.9793092012405396, 0.9915550351142883, 0.9895954728126526, 0.9920988082885742, 0.9797543883323669, 0.9801560640335083, 0.9747726917266846, 0.9800369739532471, 0.9745803475379944, 0.9374649524688721, 0.9783550500869751, 0.9744985103607178, 0.9857637286186218, 0.975893497467041, 0.9640766978263855, 0.9509302973747253, 0.9688593149185181, 0.9333640933036804, 0.9418046474456787, 0.9351611733436584, 0.991030216217041, 0.9965940117835999, 0.9960851669311523, 0.9958125948905945, 0.9926404356956482, 0.9768625497817993, 0.9904735684394836, 0.7260398864746094, 0.8960672616958618, 0.8287879824638367, 0.8633440136909485, 0.7872766852378845, 0.6500263214111328, 0.8884686231613159, 0.6858323216438293, 0.40832802653312683, 0.6032663583755493, 0.5109821557998657, 0.29892563819885254, 0.22040507197380066, 0.3751841187477112, 0.7098878622055054, 0.46492472290992737, 0.38051801919937134, 0.4358299970626831, 0.41125819087028503, 0.5653076171875, 0.4788513779640198, 0.7082025408744812, 0.5610644221305847, 0.21139074862003326, 0.3501739203929901, 0.44029155373573303, 0.2628844976425171, 0.23576250672340393, 0.28414320945739746, 0.2623882293701172, 0.3437497019767761, 0.23012907803058624, 0.2695927619934082, 0.17210128903388977, 0.2521754801273346, 0.12608025968074799, 0.17888307571411133, 0.14831101894378662, 0.2596597671508789, 0.5369215607643127, 0.42872190475463867, 0.4306935667991638, 0.7692368626594543, 0.66922527551651, 0.43356937170028687, 0.45374763011932373, 0.342041015625, 0.44747304916381836, 0.57725590467453, 0.6011233925819397, 0.5785368084907532, 0.7819926738739014, 0.8706892132759094, 0.8183762431144714, 0.7833791971206665, 0.8138127326965332, 0.8858521580696106, 0.7826083898544312, 0.940692126750946, 0.8019261360168457, 0.924788236618042, 0.9249302744865417]</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.9940487146377563</v>
+        <v>0.9982086420059204</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
@@ -5503,10 +5503,10 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0.8091487000056077</v>
+        <v>0.7945208999881288</v>
       </c>
       <c r="J124" t="n">
-        <v>0.005821213669105091</v>
+        <v>0.005715977697756322</v>
       </c>
     </row>
     <row r="125">
@@ -5525,11 +5525,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>[0.6474663615226746, 0.36831167340278625, 0.7038082480430603, 0.5041890740394592, 0.5517863631248474, 0.5427882075309753, 0.7090935707092285, 0.8041205406188965, 0.8718813061714172, 0.6679813861846924, 0.6338297724723816, 0.671902596950531, 0.4702472984790802, 0.4825671911239624, 0.46149399876594543, 0.79417884349823, 0.6925504207611084, 0.8949180841445923, 0.894941508769989, 0.8108655214309692, 0.7129714488983154, 0.7742645740509033, 0.8008373379707336, 0.9475299715995789, 0.9407027959823608, 0.9220307469367981, 0.9665697813034058, 0.9552785158157349, 0.9645283222198486, 0.9553682208061218, 0.9364369511604309, 0.9643356204032898, 0.9737551212310791, 0.9691461324691772, 0.9707574248313904, 0.9677819609642029, 0.941849946975708, 0.9130699038505554, 0.9416114091873169, 0.9854533076286316, 0.9855871200561523, 0.9804571270942688, 0.9564538598060608, 0.9391483068466187, 0.9607765078544617, 0.9790111184120178, 0.9762810468673706, 0.969887912273407, 0.9525007009506226, 0.8701509833335876, 0.8550883531570435, 0.8517735004425049, 0.9191212058067322, 0.9240931272506714, 0.9381601810455322, 0.9283111691474915, 0.8988896608352661, 0.7976828217506409, 0.9491326212882996, 0.871322512626648, 0.9178908467292786, 0.9079204201698303, 0.9168793559074402, 0.8049854040145874, 0.6961562633514404, 0.46759849786758423, 0.4433320462703705, 0.7150900363922119, 0.8955310583114624, 0.9362103939056396, 0.8901491761207581, 0.8443269729614258, 0.8899974822998047, 0.87845778465271, 0.9143263697624207, 0.9397335648536682, 0.9259478449821472, 0.9517594575881958, 0.9779952764511108, 0.9759798049926758, 0.9689467549324036, 0.9825206398963928, 0.9817642569541931, 0.9731983542442322, 0.9767622351646423, 0.9501070380210876, 0.9391389489173889, 0.9546334147453308, 0.9615355134010315, 0.9804742336273193, 0.9813476800918579, 0.9907435774803162, 0.9884610176086426, 0.985734224319458, 0.980032205581665, 0.9684603810310364, 0.9785778522491455, 0.9638424515724182, 0.921003520488739, 0.9827787280082703, 0.9706079363822937, 0.8630988597869873, 0.6981490850448608, 0.8915606737136841, 0.9420010447502136, 0.9545190930366516, 0.8959559798240662, 0.9258518815040588, 0.9715291261672974, 0.9849904179573059, 0.9836201667785645, 0.9759672284126282, 0.9399603009223938, 0.9391617774963379, 0.950809895992279, 0.9817737936973572, 0.9815776944160461, 0.960629940032959, 0.965128481388092, 0.9615744352340698, 0.9628128409385681, 0.9805006980895996, 0.9757165908813477, 0.9634639620780945, 0.9734784364700317, 0.9730821847915649, 0.946675717830658, 0.9610558748245239, 0.9774206280708313, 0.9499325156211853, 0.9615970253944397, 0.9716350436210632, 0.9862901568412781, 0.9886162877082825, 0.9816198348999023, 0.9892072677612305, 0.9833487272262573, 0.9867182374000549, 0.9867092370986938]</t>
+          <t>[0.6679102182388306, 0.31051087379455566, 0.6594811677932739, 0.46357643604278564, 0.5164770483970642, 0.6555973291397095, 0.8193921446800232, 0.8323648571968079, 0.8933582305908203, 0.6695696115493774, 0.7075622081756592, 0.6802385449409485, 0.44547876715660095, 0.456407368183136, 0.5024917721748352, 0.8008483648300171, 0.7766253352165222, 0.9153187274932861, 0.9227773547172546, 0.8256971836090088, 0.7119237780570984, 0.8111411929130554, 0.8311848044395447, 0.9594032168388367, 0.9585853219032288, 0.9465911984443665, 0.9844714999198914, 0.9765997529029846, 0.9848235845565796, 0.9834874272346497, 0.9694238901138306, 0.9829849600791931, 0.9853879809379578, 0.9828816652297974, 0.9829285144805908, 0.9794048070907593, 0.9663136005401611, 0.956734836101532, 0.9702238440513611, 0.9933567643165588, 0.9923851490020752, 0.9864217042922974, 0.9713978171348572, 0.9496076703071594, 0.9818312525749207, 0.9905181527137756, 0.9889358878135681, 0.9854224920272827, 0.972908616065979, 0.8969652056694031, 0.8745993971824646, 0.8892142176628113, 0.934236466884613, 0.9529759287834167, 0.9647037982940674, 0.9584689140319824, 0.930755615234375, 0.8163071274757385, 0.9604818224906921, 0.8685370683670044, 0.9128329753875732, 0.8747560381889343, 0.9037331938743591, 0.7923659682273865, 0.6099945902824402, 0.34399163722991943, 0.33103853464126587, 0.6159294247627258, 0.888752818107605, 0.9505161046981812, 0.9190041422843933, 0.8819552659988403, 0.902266800403595, 0.8977388143539429, 0.9251149892807007, 0.9583501219749451, 0.9498266577720642, 0.969483494758606, 0.9877054691314697, 0.9901623725891113, 0.987855851650238, 0.9919335246086121, 0.9892846941947937, 0.9841644167900085, 0.986645519733429, 0.9681375622749329, 0.955620288848877, 0.972713828086853, 0.9788500666618347, 0.992459237575531, 0.992861807346344, 0.9968246221542358, 0.9950147271156311, 0.9934229254722595, 0.9908313155174255, 0.9855796098709106, 0.9878457188606262, 0.9852543473243713, 0.9596413373947144, 0.9913636445999146, 0.9864826202392578, 0.902880072593689, 0.7081583738327026, 0.8453302979469299, 0.9335589408874512, 0.960427463054657, 0.9183200001716614, 0.938631534576416, 0.9803496599197388, 0.9913451671600342, 0.9920639395713806, 0.9852095246315002, 0.9476225972175598, 0.9632191061973572, 0.9738274216651917, 0.9909404516220093, 0.9925035238265991, 0.9796225428581238, 0.9811074733734131, 0.97091144323349, 0.9771684408187866, 0.9915532469749451, 0.9849569201469421, 0.9758255481719971, 0.9895641803741455, 0.9865545034408569, 0.9654635787010193, 0.9671475291252136, 0.9830910563468933, 0.9592310786247253, 0.9774823784828186, 0.9806888103485107, 0.9936830997467041, 0.9942097663879395, 0.9903120994567871, 0.995334804058075, 0.9935560822486877, 0.9945055842399597, 0.9944977164268494]</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.9907435774803162</v>
+        <v>0.9968246221542358</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
@@ -5543,10 +5543,10 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0.7839961999852676</v>
+        <v>0.7958921000099508</v>
       </c>
       <c r="J125" t="n">
-        <v>0.005640260431548688</v>
+        <v>0.005725842446114754</v>
       </c>
     </row>
     <row r="126">
@@ -5565,11 +5565,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>[0.9518929719924927, 0.9140782952308655, 0.9512917995452881, 0.9451806545257568, 0.8948174118995667, 0.9219355583190918, 0.6395878791809082, 0.6778389811515808, 0.6432117223739624, 0.5203068852424622, 0.4762778580188751, 0.5226588845252991, 0.4289270341396332, 0.517651379108429, 0.7165645956993103, 0.8473920226097107, 0.5046093463897705, 0.5051751136779785, 0.5077366232872009, 0.5241107940673828, 0.5530784726142883, 0.5599561333656311, 0.4118720293045044, 0.7251284718513489, 0.4228940010070801, 0.5199876427650452, 0.41403767466545105, 0.47088053822517395, 0.4719651937484741, 0.6553955078125, 0.5135461091995239, 0.7269443869590759, 0.8568167686462402, 0.9349616765975952, 0.9284057021141052, 0.7500199675559998, 0.6149227619171143, 0.6775168180465698, 0.789131224155426, 0.8033871054649353, 0.8020907044410706, 0.7154849171638489, 0.6838135719299316, 0.8303483128547668, 0.7963225245475769, 0.9076013565063477, 0.8581244349479675, 0.5946085453033447, 0.5763286352157593, 0.6970095038414001, 0.895395040512085, 0.8405857086181641, 0.8343984484672546, 0.9120040535926819, 0.847866415977478, 0.8113370537757874, 0.9355420470237732, 0.7664297819137573, 0.6662995219230652, 0.6065139174461365, 0.4468463361263275, 0.49950364232063293, 0.7213813662528992, 0.800240695476532, 0.8675404787063599, 0.8505591154098511, 0.8012579083442688, 0.9092659950256348, 0.8563323616981506, 0.9360378384590149, 0.8338408470153809, 0.8340533375740051, 0.6690673232078552, 0.8449290990829468, 0.8281325101852417, 0.8176848888397217, 0.8642823100090027, 0.8028977513313293, 0.879828155040741, 0.6967281699180603, 0.6840741634368896, 0.7143824696540833, 0.7906540632247925, 0.5908454656600952, 0.607666015625, 0.8004723191261292, 0.317078560590744, 0.4638335406780243, 0.5885046124458313, 0.5444589257240295, 0.8621709942817688, 0.9208168387413025, 0.9325012564659119, 0.9685142636299133, 0.9222751259803772, 0.9227066040039062, 0.9606351256370544, 0.931610643863678, 0.94185870885849, 0.9713637232780457, 0.9617631435394287, 0.7763471007347107, 0.8462756872177124, 0.9209968447685242, 0.9245684742927551, 0.981208086013794, 0.9225437045097351, 0.6835291981697083, 0.56638503074646, 0.7292653322219849, 0.8017578721046448, 0.7532035112380981, 0.6768174767494202, 0.7679787874221802, 0.9268940687179565, 0.8250473737716675, 0.5152873396873474, 0.6284439563751221, 0.6910986304283142, 0.5361026525497437, 0.4647584855556488, 0.4232177436351776, 0.631656289100647, 0.8194349408149719, 0.8027257919311523, 0.7352639436721802, 0.5124459266662598, 0.3856258988380432, 0.44687125086784363, 0.7869473695755005, 0.8483893871307373, 0.9015715718269348, 0.8230679631233215, 0.8586433529853821, 0.6927741765975952, 0.8606107831001282, 0.7527996301651001, 0.8053601384162903, 0.8055449724197388]</t>
+          <t>[0.9731961488723755, 0.9500123262405396, 0.9723276495933533, 0.9691057205200195, 0.945523202419281, 0.9713802933692932, 0.7089192867279053, 0.8212479948997498, 0.7853884100914001, 0.5879769921302795, 0.5208072662353516, 0.6284569501876831, 0.47632694244384766, 0.6639971733093262, 0.8370475172996521, 0.9031402468681335, 0.6933234930038452, 0.6825245022773743, 0.7072557806968689, 0.5265200138092041, 0.6136879920959473, 0.6050307750701904, 0.39426499605178833, 0.8009142875671387, 0.5477305054664612, 0.6347745060920715, 0.584267795085907, 0.5980137586593628, 0.6233006119728088, 0.7548869252204895, 0.6948792934417725, 0.8597791194915771, 0.8890188932418823, 0.9708759188652039, 0.9802164435386658, 0.8241884112358093, 0.7364671230316162, 0.8425055742263794, 0.8875477910041809, 0.9049339294433594, 0.9081117510795593, 0.8651745915412903, 0.7957016229629517, 0.8841676712036133, 0.8743290305137634, 0.9694515466690063, 0.9348219633102417, 0.6939868927001953, 0.5778883695602417, 0.6423769593238831, 0.9269722104072571, 0.8966071605682373, 0.9161041378974915, 0.9562853574752808, 0.9309478402137756, 0.9023449420928955, 0.9823155999183655, 0.8902174234390259, 0.7842365503311157, 0.6633256673812866, 0.4741285741329193, 0.5774425864219666, 0.8244324922561646, 0.8802059888839722, 0.9479620456695557, 0.9236453175544739, 0.8619839549064636, 0.9513041973114014, 0.8872526288032532, 0.9778347015380859, 0.9175037145614624, 0.9222098588943481, 0.774861216545105, 0.9207095503807068, 0.9089456796646118, 0.8861818313598633, 0.9300245046615601, 0.8632661700248718, 0.9188133478164673, 0.6833371520042419, 0.6306352615356445, 0.6588491201400757, 0.8684387803077698, 0.7107172608375549, 0.7578758597373962, 0.9210991859436035, 0.5018515586853027, 0.6404027938842773, 0.8537361025810242, 0.7514658570289612, 0.9448866248130798, 0.9598311185836792, 0.9637373685836792, 0.9806815981864929, 0.967329740524292, 0.9558684825897217, 0.9825088977813721, 0.9672678112983704, 0.978408694267273, 0.9902647733688354, 0.9903669357299805, 0.9217582941055298, 0.9506067037582397, 0.9732125997543335, 0.9720525145530701, 0.9953356385231018, 0.9859985113143921, 0.8569386005401611, 0.7558953762054443, 0.9002442955970764, 0.929203450679779, 0.9033840298652649, 0.8031610250473022, 0.8843275308609009, 0.9505618810653687, 0.8990652561187744, 0.6454329490661621, 0.7817190289497375, 0.8383898138999939, 0.7633920907974243, 0.6019182801246643, 0.47451040148735046, 0.7564808130264282, 0.8673641085624695, 0.8434783220291138, 0.7800157070159912, 0.6044450402259827, 0.3494827449321747, 0.4201660752296448, 0.7867352366447449, 0.8728305697441101, 0.938471257686615, 0.8349544405937195, 0.9022893309593201, 0.7353960871696472, 0.8968278169631958, 0.8137133121490479, 0.8509854078292847, 0.8514329791069031]</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.9812080860137939</v>
+        <v>0.9953356385231018</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0.7974866000004113</v>
+        <v>0.8004399000055855</v>
       </c>
       <c r="J126" t="n">
-        <v>0.005737313669067707</v>
+        <v>0.00575856043169486</v>
       </c>
     </row>
     <row r="127">
@@ -5605,11 +5605,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[0.8546701669692993, 0.8456923961639404, 0.7370924353599548, 0.453504353761673, 0.323832243680954, 0.3609180748462677, 0.4230523705482483, 0.31974589824676514, 0.4067060947418213, 0.33141323924064636, 0.4252675175666809, 0.6742253303527832, 0.6737815141677856, 0.7595899701118469, 0.8070387840270996, 0.7819885611534119, 0.7626745104789734, 0.7716405391693115, 0.8657279014587402, 0.6261914372444153, 0.648497462272644, 0.8556806445121765, 0.9052889347076416, 0.9420227408409119, 0.9014217257499695, 0.9151268005371094, 0.8583594560623169, 0.8895905017852783, 0.8388682007789612, 0.6869782209396362, 0.5080218315124512, 0.34306126832962036, 0.45060157775878906, 0.3365202248096466, 0.2878575921058655, 0.2882581949234009, 0.23457525670528412, 0.386425256729126, 0.5858234167098999, 0.5556600093841553, 0.5404984354972839, 0.538547158241272, 0.8089615106582642, 0.8568945527076721, 0.6578419208526611, 0.7276023626327515, 0.6462706327438354, 0.6980142593383789, 0.7634185552597046, 0.47751525044441223, 0.573250412940979, 0.7832772731781006, 0.8631649613380432, 0.7579744458198547, 0.7640153765678406, 0.8488959670066833, 0.7001367211341858, 0.5369988083839417, 0.47376370429992676, 0.46487411856651306, 0.5643788576126099, 0.37418133020401, 0.5991084575653076, 0.49167853593826294, 0.6806511878967285, 0.8197382092475891, 0.9118183851242065, 0.7300843596458435, 0.7493635416030884, 0.6230425238609314, 0.5106269717216492, 0.6860473155975342, 0.743328332901001, 0.747757077217102, 0.702765941619873, 0.39512258768081665, 0.6307734251022339, 0.6041864156723022, 0.6875331401824951, 0.6871157288551331, 0.6214650869369507, 0.8985730409622192, 0.5698454976081848, 0.7341488599777222, 0.9173147082328796, 0.7080127000808716, 0.7224834561347961, 0.7841499447822571, 0.6014503240585327, 0.37276703119277954, 0.6453246474266052, 0.6734647750854492, 0.9873637557029724, 0.9262886643409729, 0.9147059321403503, 0.9152994751930237, 0.9334243535995483, 0.8866004943847656, 0.8389272689819336, 0.8475086688995361, 0.8796990513801575, 0.8360431790351868, 0.8288577198982239, 0.6577115654945374, 0.8208746910095215, 0.7144091129302979, 0.6735047698020935, 0.7345350384712219, 0.8004390597343445, 0.6416149139404297, 0.7897326350212097, 0.8208012580871582, 0.9567959308624268, 0.983237087726593, 0.9705791473388672, 0.963320255279541, 0.919593870639801, 0.9173763990402222, 0.9381008744239807, 0.8726037740707397, 0.7611983418464661, 0.8134554624557495, 0.6534372568130493, 0.7340491414070129, 0.7798901200294495, 0.6701973080635071, 0.7405640482902527, 0.6736930012702942, 0.4875509738922119, 0.5626916885375977, 0.6016383767127991, 0.6635259389877319, 0.805385410785675, 0.985413134098053, 0.9657496809959412, 0.9281687140464783, 0.5032525062561035, 0.3389037251472473, 0.3647356331348419, 0.36482134461402893]</t>
+          <t>[0.8717295527458191, 0.8917615413665771, 0.7972515821456909, 0.4242722690105438, 0.25220221281051636, 0.28805088996887207, 0.45393744111061096, 0.3422512710094452, 0.46092477440834045, 0.3393177390098572, 0.4562584459781647, 0.7361212372779846, 0.7739944458007812, 0.8378074169158936, 0.8843837380409241, 0.8687859773635864, 0.8669630885124207, 0.9110330939292908, 0.9390581250190735, 0.7149776220321655, 0.6757118105888367, 0.9436071515083313, 0.9561817049980164, 0.9629032611846924, 0.9484114050865173, 0.9615017771720886, 0.9174637794494629, 0.935341477394104, 0.8807936906814575, 0.784299910068512, 0.5638314485549927, 0.2228013575077057, 0.3052735924720764, 0.18523548543453217, 0.1857692450284958, 0.2030266374349594, 0.17686164379119873, 0.35578545928001404, 0.5276491045951843, 0.5516761541366577, 0.4851847290992737, 0.6286012530326843, 0.8107896447181702, 0.8796314597129822, 0.5602993965148926, 0.6940110921859741, 0.5413312911987305, 0.7117950916290283, 0.8600377440452576, 0.3916359841823578, 0.6340595483779907, 0.9015237092971802, 0.942885160446167, 0.8310526609420776, 0.8652180433273315, 0.920376718044281, 0.758004367351532, 0.5124077200889587, 0.3974290192127228, 0.44488200545310974, 0.6334723830223083, 0.32677799463272095, 0.681634783744812, 0.48861929774284363, 0.7768920063972473, 0.922900378704071, 0.967365562915802, 0.8067954182624817, 0.8039017915725708, 0.6317412853240967, 0.510496199131012, 0.6732943654060364, 0.6982002854347229, 0.8191285133361816, 0.681759774684906, 0.36860257387161255, 0.6777592301368713, 0.5898255705833435, 0.7333273887634277, 0.6145493388175964, 0.65855872631073, 0.9495548605918884, 0.6517987251281738, 0.8037311434745789, 0.9642373919487, 0.806551456451416, 0.7031495571136475, 0.7849616408348083, 0.5292105674743652, 0.3065863847732544, 0.7092702984809875, 0.7020013928413391, 0.9950407147407532, 0.9562495350837708, 0.9548317790031433, 0.9416031837463379, 0.9593819975852966, 0.9291669130325317, 0.9244509935379028, 0.9306831955909729, 0.9614102244377136, 0.9325222969055176, 0.8941646218299866, 0.7928065061569214, 0.9249643683433533, 0.8863437175750732, 0.8227103352546692, 0.9201507568359375, 0.9494473934173584, 0.8697593212127686, 0.9144706130027771, 0.9308995008468628, 0.9906128644943237, 0.9964249730110168, 0.9929632544517517, 0.9932242631912231, 0.975438117980957, 0.9784044623374939, 0.9773387312889099, 0.9445198774337769, 0.8824593424797058, 0.936672568321228, 0.841696560382843, 0.8513917326927185, 0.9132105708122253, 0.8015164136886597, 0.863457977771759, 0.8152036070823669, 0.5752196907997131, 0.7216042876243591, 0.741223156452179, 0.7943222522735596, 0.9004384279251099, 0.9948220252990723, 0.989426851272583, 0.980233371257782, 0.6514537930488586, 0.32423022389411926, 0.42917948961257935, 0.4287959039211273]</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.9873637557029724</v>
+        <v>0.9964249730110168</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
@@ -5623,10 +5623,10 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0.8026577000273392</v>
+        <v>0.810560700003407</v>
       </c>
       <c r="J127" t="n">
-        <v>0.005733269285909565</v>
+        <v>0.005789719285738622</v>
       </c>
     </row>
     <row r="128">
@@ -5645,11 +5645,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>[0.8017244935035706, 0.7284051775932312, 0.6765617728233337, 0.8286394476890564, 0.8410430550575256, 0.7815020084381104, 0.9150844812393188, 0.9383971691131592, 0.9061635732650757, 0.815039873123169, 0.7869384288787842, 0.6124535202980042, 0.5499864816665649, 0.8247500658035278, 0.8007904887199402, 0.8351883888244629, 0.5440239906311035, 0.850330650806427, 0.9827972650527954, 0.997119665145874, 0.9978505373001099, 0.9978785514831543, 0.9981276392936707, 0.9982545971870422, 0.9980505704879761, 0.9975554347038269, 0.9919706583023071, 0.9829829931259155, 0.7019198536872864, 0.8135734796524048, 0.9097201824188232, 0.8568440675735474, 0.9085652828216553, 0.878196656703949, 0.9559835195541382, 0.9968116879463196, 0.9977446794509888, 0.997907280921936, 0.9972538352012634, 0.9868370294570923, 0.8372849225997925, 0.9134175777435303, 0.9639240503311157, 0.9648624658584595, 0.9281612634658813, 0.6102169752120972, 0.7738534212112427, 0.9670975208282471, 0.9391044974327087, 0.9566967487335205, 0.979318380355835, 0.9261689782142639, 0.8414541482925415, 0.8587796688079834, 0.780161440372467, 0.7535427808761597, 0.6713526248931885, 0.7243077158927917, 0.9184565544128418, 0.7788677215576172, 0.9699029326438904, 0.947090744972229, 0.9711626768112183, 0.9701114296913147, 0.9335219860076904, 0.9549266695976257, 0.9652522802352905, 0.9570218920707703, 0.9641056656837463, 0.9777829051017761, 0.9801324009895325, 0.9838410019874573, 0.9551660418510437, 0.8496572375297546, 0.8645026683807373, 0.9815924763679504, 0.9882871508598328, 0.9880523681640625, 0.9932698607444763, 0.9903028607368469, 0.9880908727645874, 0.9936100840568542, 0.9882842302322388, 0.9972406625747681, 0.9987020492553711, 0.9989595413208008, 0.998854398727417, 0.9981854557991028, 0.9959318041801453, 0.9952462315559387, 0.9981405735015869, 0.99857497215271, 0.9980432987213135, 0.9984538555145264, 0.9986761212348938, 0.9836671352386475, 0.9784631133079529, 0.8140671849250793, 0.9665517807006836, 0.9672881364822388, 0.9946617484092712, 0.9850629568099976, 0.9692431092262268, 0.9782691597938538, 0.9766560196876526, 0.9884010553359985, 0.9711827039718628, 0.9407377243041992, 0.9605262279510498, 0.9769192337989807, 0.9602245688438416, 0.9664161205291748, 0.9743306636810303, 0.9836892485618591, 0.9724823832511902, 0.9887657165527344, 0.9846612811088562, 0.9619826674461365, 0.9673421382904053, 0.9789409637451172, 0.9600486159324646, 0.9668775200843811, 0.9844897985458374, 0.9880744814872742, 0.9822869896888733, 0.9825437664985657, 0.9931429624557495, 0.9926920533180237, 0.9927893280982971, 0.9935528039932251, 0.9823033213615417, 0.9600417613983154, 0.9676793217658997, 0.9775862693786621, 0.9860214591026306, 0.9830264449119568, 0.9940518736839294, 0.9933595061302185, 0.9933657050132751]</t>
+          <t>[0.8118966817855835, 0.7091972827911377, 0.6509159803390503, 0.8554034233093262, 0.8537293672561646, 0.7945722937583923, 0.9406031966209412, 0.9716206192970276, 0.9444515109062195, 0.8972620368003845, 0.8722993731498718, 0.7246291637420654, 0.7029675245285034, 0.9267533421516418, 0.9048828482627869, 0.9268348813056946, 0.6022053956985474, 0.9242114424705505, 0.9933063387870789, 0.9989269375801086, 0.9991663694381714, 0.999142050743103, 0.999312162399292, 0.9993082284927368, 0.999254047870636, 0.9990713596343994, 0.9971543550491333, 0.992713987827301, 0.8445774912834167, 0.793099045753479, 0.9342852234840393, 0.847680926322937, 0.9319615364074707, 0.9162313938140869, 0.9890853762626648, 0.9989961981773376, 0.9989774227142334, 0.9991158843040466, 0.998698353767395, 0.9964572787284851, 0.9147244691848755, 0.9480097889900208, 0.9838137626647949, 0.982926607131958, 0.9683690071105957, 0.6468443274497986, 0.8539705872535706, 0.9821301102638245, 0.9737108945846558, 0.979442298412323, 0.991096019744873, 0.9679585099220276, 0.8810023069381714, 0.9001733064651489, 0.8180149793624878, 0.8184213042259216, 0.6349266171455383, 0.675599992275238, 0.9087002277374268, 0.737023115158081, 0.9790531992912292, 0.964926540851593, 0.9858412742614746, 0.9854748249053955, 0.9571546912193298, 0.9777572751045227, 0.9823188185691833, 0.9781336188316345, 0.9849607348442078, 0.9911830425262451, 0.9912133812904358, 0.9935279488563538, 0.9758986234664917, 0.905829131603241, 0.8957492113113403, 0.9907811284065247, 0.9954207539558411, 0.9958333969116211, 0.9975388050079346, 0.9964872598648071, 0.9949583411216736, 0.9978790283203125, 0.996508777141571, 0.9992220401763916, 0.9995633959770203, 0.9996349811553955, 0.9995971322059631, 0.9991925358772278, 0.9983055591583252, 0.9976224303245544, 0.9991514682769775, 0.9993075132369995, 0.9991539716720581, 0.9992904663085938, 0.999515175819397, 0.9944580793380737, 0.9901768565177917, 0.928402841091156, 0.9831326603889465, 0.9769663214683533, 0.9966931343078613, 0.9902106523513794, 0.980430006980896, 0.9799913167953491, 0.9863477945327759, 0.9941440224647522, 0.9800082445144653, 0.9566019773483276, 0.9718361496925354, 0.987091064453125, 0.9729151725769043, 0.9835401177406311, 0.9845929741859436, 0.9910019040107727, 0.9838722348213196, 0.9946626424789429, 0.9911008477210999, 0.978847086429596, 0.9815070629119873, 0.9880649447441101, 0.9797207117080688, 0.9827399253845215, 0.9943035840988159, 0.9944104552268982, 0.9896203279495239, 0.990760326385498, 0.9975702166557312, 0.9970604777336121, 0.9968312382698059, 0.9973016977310181, 0.9935084581375122, 0.9851189255714417, 0.989912211894989, 0.9930376410484314, 0.9943337440490723, 0.9927299618721008, 0.9975023865699768, 0.9969797730445862, 0.9969819188117981]</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.9989595413208008</v>
+        <v>0.9996349811553955</v>
       </c>
       <c r="F128" t="n">
         <v>1</v>
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0.7912332000269089</v>
+        <v>0.7933741999877384</v>
       </c>
       <c r="J128" t="n">
-        <v>0.005692325180049704</v>
+        <v>0.005707728057465744</v>
       </c>
     </row>
     <row r="129">
@@ -5685,11 +5685,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>[0.991907000541687, 0.9940803647041321, 0.9922096729278564, 0.9953057169914246, 0.9949933886528015, 0.9967953562736511, 0.9973605275154114, 0.9972618818283081, 0.9978809952735901, 0.9982393980026245, 0.9956764578819275, 0.993919849395752, 0.9923433661460876, 0.992097020149231, 0.99473637342453, 0.9963064193725586, 0.9930686950683594, 0.9947665929794312, 0.9915909767150879, 0.9910854697227478, 0.993523359298706, 0.9968401193618774, 0.9953086972236633, 0.987951934337616, 0.9773598313331604, 0.9936589598655701, 0.9938685297966003, 0.993192732334137, 0.9957630634307861, 0.9968908429145813, 0.9969205856323242, 0.9963758587837219, 0.9968951940536499, 0.9967004656791687, 0.9971344470977783, 0.9967664480209351, 0.9954764246940613, 0.9944384098052979, 0.9962489008903503, 0.9969095587730408, 0.9978771209716797, 0.9977194666862488, 0.9977228045463562, 0.9962942004203796, 0.9948238134384155, 0.9972749352455139, 0.996620774269104, 0.997562050819397, 0.9980229139328003, 0.9967119693756104, 0.9968731999397278, 0.9967895150184631, 0.9945098161697388, 0.9857712984085083, 0.9747587442398071, 0.9882256984710693, 0.9914469718933105, 0.9924013614654541, 0.9904929995536804, 0.9790295362472534, 0.9814250469207764, 0.9853230714797974, 0.9622135758399963, 0.9867849946022034, 0.9823923707008362, 0.9846243858337402, 0.9873989820480347, 0.9649083018302917, 0.9870885014533997, 0.9876819252967834, 0.9779648780822754, 0.9814414978027344, 0.9582329392433167, 0.9847375750541687, 0.9854936599731445, 0.9922301173210144, 0.9945161938667297, 0.995331346988678, 0.9920530319213867, 0.9912171363830566, 0.9810948371887207, 0.9872335195541382, 0.9843634963035583, 0.9866049885749817, 0.9928333759307861, 0.9954721927642822, 0.9944361448287964, 0.9924522042274475, 0.9850155115127563, 0.988044798374176, 0.9904919266700745, 0.9883415102958679, 0.9936957955360413, 0.9891469478607178, 0.9946106672286987, 0.9804927706718445, 0.9032384753227234, 0.9226537346839905, 0.9712241888046265, 0.9734290838241577, 0.9940915703773499, 0.9915067553520203, 0.9926602244377136, 0.9888262748718262, 0.9722256660461426, 0.9735382199287415, 0.9588363766670227, 0.9263503551483154, 0.9377383589744568, 0.9791257381439209, 0.9792314767837524, 0.9659319519996643, 0.9275158047676086, 0.9491432905197144, 0.9654554724693298, 0.9746844172477722, 0.9830118417739868, 0.9696406722068787, 0.9425276517868042, 0.9578436613082886, 0.9907665252685547, 0.9877219796180725, 0.9864826798439026, 0.9873524904251099, 0.9853197932243347, 0.9880567789077759, 0.9725887179374695, 0.9873570203781128, 0.9639462232589722, 0.948016881942749, 0.9709031581878662, 0.9493637084960938, 0.9861389994621277, 0.9851478934288025, 0.9838206768035889, 0.987153947353363, 0.9869012236595154, 0.9879482388496399, 0.9897087216377258, 0.9897333979606628]</t>
+          <t>[0.9964243769645691, 0.9973132014274597, 0.9958541393280029, 0.9977046847343445, 0.997450053691864, 0.9985495209693909, 0.9987062215805054, 0.9987097978591919, 0.9990515112876892, 0.9992901086807251, 0.9984925985336304, 0.997677743434906, 0.9969018697738647, 0.9969350099563599, 0.9980756044387817, 0.9988206028938293, 0.9972544312477112, 0.9980199337005615, 0.996736466884613, 0.9969654679298401, 0.9975125789642334, 0.998768150806427, 0.9981546998023987, 0.9935279488563538, 0.989673376083374, 0.9977315068244934, 0.9977527260780334, 0.9975257515907288, 0.9983940720558167, 0.998746395111084, 0.9988204836845398, 0.9986051917076111, 0.998729407787323, 0.9985063672065735, 0.9988715052604675, 0.9986687898635864, 0.9979332685470581, 0.9969171285629272, 0.9983851909637451, 0.9987847208976746, 0.9990367889404297, 0.9989964365959167, 0.999075174331665, 0.9985657334327698, 0.9979453682899475, 0.9988141059875488, 0.998586893081665, 0.9990561604499817, 0.9991552829742432, 0.9987731575965881, 0.998728334903717, 0.998703122138977, 0.9979023933410645, 0.9922796487808228, 0.9861159324645996, 0.9935324192047119, 0.9959856867790222, 0.9955630302429199, 0.9955945611000061, 0.9920710921287537, 0.9928252696990967, 0.9935047626495361, 0.9841963648796082, 0.9910456538200378, 0.991579532623291, 0.9902623891830444, 0.9914494156837463, 0.9851104021072388, 0.9926712512969971, 0.9919331669807434, 0.9833272099494934, 0.9862661957740784, 0.9741930961608887, 0.9896377325057983, 0.9917200803756714, 0.9958726763725281, 0.9972614049911499, 0.9980692267417908, 0.9972590208053589, 0.9962180256843567, 0.9895259141921997, 0.9948834776878357, 0.9927685260772705, 0.9945171475410461, 0.9971423745155334, 0.998045802116394, 0.99720698595047, 0.996337890625, 0.9939660429954529, 0.993158757686615, 0.9954470992088318, 0.9946998357772827, 0.99692302942276, 0.9961193799972534, 0.997520387172699, 0.9903506636619568, 0.9284495115280151, 0.9433037638664246, 0.9834774136543274, 0.9853873252868652, 0.9972201585769653, 0.996610701084137, 0.9966205358505249, 0.9946982860565186, 0.9862280488014221, 0.982584536075592, 0.9582633972167969, 0.8882285356521606, 0.9510762095451355, 0.9875312447547913, 0.9877200722694397, 0.978773295879364, 0.9566775560379028, 0.9714238047599792, 0.9803174734115601, 0.9862844944000244, 0.9879321455955505, 0.9757899045944214, 0.9522649049758911, 0.9670596122741699, 0.9944432377815247, 0.9936780333518982, 0.993003785610199, 0.9942179918289185, 0.9927719235420227, 0.99347323179245, 0.981928825378418, 0.9928090572357178, 0.9799013137817383, 0.9570843577384949, 0.9781020283699036, 0.9523855447769165, 0.9905964136123657, 0.9890586733818054, 0.9887006878852844, 0.9918668866157532, 0.9915876984596252, 0.9935560822486877, 0.9951321482658386, 0.9951444268226624]</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.9982393980026245</v>
+        <v>0.9992901086807251</v>
       </c>
       <c r="F129" t="n">
         <v>1</v>
@@ -5703,10 +5703,10 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0.769708100007847</v>
+        <v>0.7805419999931473</v>
       </c>
       <c r="J129" t="n">
-        <v>0.00549791500005605</v>
+        <v>0.005575299999951052</v>
       </c>
     </row>
     <row r="130">
@@ -5725,11 +5725,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>[0.9906516075134277, 0.9909412264823914, 0.9821493029594421, 0.9744190573692322, 0.9547364711761475, 0.9880331754684448, 0.9851272702217102, 0.9909096360206604, 0.994321346282959, 0.99303138256073, 0.9932006001472473, 0.9955182671546936, 0.9957771301269531, 0.9974744915962219, 0.9971290230751038, 0.9967963099479675, 0.9963517189025879, 0.9972219467163086, 0.9946647882461548, 0.9909798502922058, 0.9780687093734741, 0.7760427594184875, 0.5132328867912292, 0.47466009855270386, 0.38099902868270874, 0.8545889258384705, 0.9748185276985168, 0.9938272833824158, 0.9958904981613159, 0.9942703247070312, 0.9721393585205078, 0.960393488407135, 0.9607693552970886, 0.979115903377533, 0.9898977279663086, 0.996906578540802, 0.99680495262146, 0.9964643716812134, 0.9960553646087646, 0.9967141151428223, 0.996479332447052, 0.9980254173278809, 0.9977647066116333, 0.9964922070503235, 0.9922850131988525, 0.9953944683074951, 0.9967496395111084, 0.9975423812866211, 0.9975234866142273, 0.9952489733695984, 0.9941347241401672, 0.9934619665145874, 0.9861896634101868, 0.9002155065536499, 0.9529977440834045, 0.989174485206604, 0.9968396425247192, 0.9965104460716248, 0.9968991279602051, 0.9908150434494019, 0.8980002999305725, 0.8554502725601196, 0.5749543309211731, 0.4192783832550049, 0.4008497893810272, 0.6178610920906067, 0.5242406129837036, 0.3915943205356598, 0.5233126282691956, 0.33448827266693115, 0.5215467810630798, 0.47189807891845703, 0.5991673469543457, 0.398576557636261, 0.34984737634658813, 0.36145925521850586, 0.33405762910842896, 0.7642624974250793, 0.5750719308853149, 0.4566728174686432, 0.4150902330875397, 0.39823830127716064, 0.2589968144893646, 0.39528223872184753, 0.7094576954841614, 0.9264743328094482, 0.9483974575996399, 0.9202682971954346, 0.9409452676773071, 0.9907686114311218, 0.979217529296875, 0.9648449420928955, 0.959282636642456, 0.9715885519981384, 0.9369367361068726, 0.9281554818153381, 0.901333749294281, 0.8067989349365234, 0.6067343354225159, 0.78255295753479, 0.6038673520088196, 0.6279839277267456, 0.7740620374679565, 0.8080447316169739, 0.9192511439323425, 0.9160693287849426, 0.8859697580337524, 0.4754718542098999, 0.7715179324150085, 0.6912540793418884, 0.767263650894165, 0.9447416067123413, 0.9771718382835388, 0.9195356369018555, 0.8609400987625122, 0.8932397961616516, 0.8571181297302246, 0.9386908411979675, 0.8997431993484497, 0.8139439225196838, 0.3758860230445862, 0.328550785779953, 0.335295170545578, 0.2961462736129761, 0.4309096038341522, 0.36409226059913635, 0.3303244411945343, 0.23090827465057373, 0.3007691502571106, 0.254299521446228, 0.3167806565761566, 0.48281019926071167, 0.43567728996276855, 0.5872827172279358, 0.4677804410457611, 0.48583438992500305, 0.8189462423324585, 0.6752391457557678, 0.9006056785583496, 0.900140106678009]</t>
+          <t>[0.991248607635498, 0.992626965045929, 0.9873760938644409, 0.9805518388748169, 0.9720104932785034, 0.9936796426773071, 0.9901251792907715, 0.9963701963424683, 0.9983578324317932, 0.9973853230476379, 0.9979853630065918, 0.9986339211463928, 0.998320996761322, 0.9990575909614563, 0.9988958835601807, 0.998664379119873, 0.9987945556640625, 0.9990717172622681, 0.9974566102027893, 0.9954949617385864, 0.9913060069084167, 0.8720679879188538, 0.6085329055786133, 0.4967305064201355, 0.3750797212123871, 0.9045824408531189, 0.9852628707885742, 0.9970797896385193, 0.9982106685638428, 0.9975505471229553, 0.9881038069725037, 0.9863129258155823, 0.9878089427947998, 0.9926511645317078, 0.9953919649124146, 0.9987504482269287, 0.9985598921775818, 0.998190701007843, 0.9983237385749817, 0.9984365105628967, 0.9981095790863037, 0.9989240765571594, 0.9989375472068787, 0.9980071187019348, 0.9945104122161865, 0.9969911575317383, 0.9978744983673096, 0.9986467957496643, 0.9988586902618408, 0.9983019828796387, 0.9977942705154419, 0.9976678490638733, 0.9952808022499084, 0.9575545787811279, 0.9877492785453796, 0.9973942041397095, 0.9987784028053284, 0.9985900521278381, 0.998213529586792, 0.9953906536102295, 0.9549808502197266, 0.9143732190132141, 0.5821331143379211, 0.2979515790939331, 0.315437912940979, 0.6028455495834351, 0.4862159192562103, 0.3467892110347748, 0.5053445100784302, 0.2845017910003662, 0.591478168964386, 0.5293766856193542, 0.6764203906059265, 0.5045276880264282, 0.39439818263053894, 0.34415683150291443, 0.34692519903182983, 0.7941546440124512, 0.5798379778862, 0.3985252380371094, 0.3512597382068634, 0.33192723989486694, 0.2360464334487915, 0.36495429277420044, 0.8347428441047668, 0.9739152789115906, 0.9872755408287048, 0.9835935235023499, 0.9857855439186096, 0.9958458542823792, 0.9920418858528137, 0.9764680862426758, 0.9817933440208435, 0.9873425960540771, 0.9761701822280884, 0.9727597236633301, 0.9591906070709229, 0.8745083808898926, 0.6695675849914551, 0.821553111076355, 0.6324379444122314, 0.7920644283294678, 0.8956430554389954, 0.8659384250640869, 0.9677354693412781, 0.9568650126457214, 0.9661263823509216, 0.8352237343788147, 0.9125977754592896, 0.8089296817779541, 0.8095948100090027, 0.9671355485916138, 0.9918704032897949, 0.9658337235450745, 0.9258384108543396, 0.9427955150604248, 0.9462801814079285, 0.9780648350715637, 0.966775119304657, 0.9243232607841492, 0.44922080636024475, 0.3535681664943695, 0.33143141865730286, 0.3570970892906189, 0.41467681527137756, 0.3236472010612488, 0.253044068813324, 0.1804715245962143, 0.30566689372062683, 0.2837619185447693, 0.42001307010650635, 0.5754532814025879, 0.49629178643226624, 0.6982982754707336, 0.6625972390174866, 0.552230715751648, 0.8858187794685364, 0.7506247758865356, 0.9146994352340698, 0.914225161075592]</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.9980254173278809</v>
+        <v>0.9990717172622681</v>
       </c>
       <c r="F130" t="n">
         <v>1</v>
@@ -5743,10 +5743,10 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0.787280099990312</v>
+        <v>0.7891822999954456</v>
       </c>
       <c r="J130" t="n">
-        <v>0.005623429285645086</v>
+        <v>0.005637016428538898</v>
       </c>
     </row>
     <row r="131">
@@ -5765,11 +5765,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>[0.998629093170166, 0.9981196522712708, 0.9973275661468506, 0.9964751601219177, 0.9969226717948914, 0.996833860874176, 0.9958115816116333, 0.9951149225234985, 0.9939022064208984, 0.99468994140625, 0.996705949306488, 0.9955899715423584, 0.993833065032959, 0.9959414601325989, 0.9958051443099976, 0.9974768757820129, 0.996978759765625, 0.9966128468513489, 0.995298445224762, 0.9957399368286133, 0.996841549873352, 0.9980497360229492, 0.9982249140739441, 0.9977620840072632, 0.9974205493927002, 0.9980378746986389, 0.9978224039077759, 0.9973539113998413, 0.9969518184661865, 0.9971181154251099, 0.9977001547813416, 0.9971580505371094, 0.9968034029006958, 0.9974051117897034, 0.9972661733627319, 0.9964560866355896, 0.9966417551040649, 0.9966968297958374, 0.9971705079078674, 0.9973441958427429, 0.9972431659698486, 0.9978274703025818, 0.9971742630004883, 0.9965619444847107, 0.9964943528175354, 0.9964304566383362, 0.9970312118530273, 0.997428834438324, 0.9979261159896851, 0.997729480266571, 0.9974972605705261, 0.9977376461029053, 0.9969708919525146, 0.998046875, 0.9985218644142151, 0.9983522891998291, 0.9977719187736511, 0.9955642223358154, 0.9925428628921509, 0.995955228805542, 0.9956450462341309, 0.9948439598083496, 0.9951651096343994, 0.9960336089134216, 0.9959160685539246, 0.9968975782394409, 0.9964578747749329, 0.9971582889556885, 0.9971342086791992, 0.9968827962875366, 0.9972679615020752, 0.9973509311676025, 0.9977321624755859, 0.9968786239624023, 0.9977467656135559, 0.9982174038887024, 0.9984820485115051, 0.9983333945274353, 0.997991681098938, 0.9981929659843445, 0.997506320476532, 0.9974370002746582, 0.9976944327354431, 0.9976640939712524, 0.9974018335342407, 0.9977515339851379, 0.9970647692680359, 0.9969155788421631, 0.996216356754303, 0.9954490065574646, 0.9959191679954529, 0.9962515234947205, 0.9956246018409729, 0.9967979788780212, 0.996436357498169, 0.9951103329658508, 0.9955888986587524, 0.9963437914848328, 0.9951533079147339, 0.9946054816246033, 0.9962218999862671, 0.9960150122642517, 0.9967913031578064, 0.9962314963340759, 0.9976311922073364, 0.9973586201667786, 0.9978159666061401, 0.9980473518371582, 0.9984771609306335, 0.9985104203224182, 0.9982532858848572, 0.9970334768295288, 0.9953450560569763, 0.9947121143341064, 0.9947589039802551, 0.9927985668182373, 0.9957962036132812, 0.9966532588005066, 0.9967262744903564, 0.9957627654075623, 0.9970473647117615, 0.9965524673461914, 0.9943785071372986, 0.994240403175354, 0.9965261816978455, 0.9970646500587463, 0.9962186217308044, 0.9959099292755127, 0.9969018697738647, 0.9965677261352539, 0.997191846370697, 0.9978274703025818, 0.9983944296836853, 0.9982157945632935, 0.9980266690254211, 0.9978739023208618, 0.9977670907974243, 0.9977066516876221, 0.9975641965866089, 0.9975679516792297]</t>
+          <t>[0.9995911717414856, 0.9993902444839478, 0.9989515542984009, 0.9985483288764954, 0.9987527132034302, 0.9988391995429993, 0.9984734654426575, 0.9984594583511353, 0.997780978679657, 0.997945249080658, 0.9987099170684814, 0.9982151985168457, 0.9970828890800476, 0.998197615146637, 0.9984082579612732, 0.9990334510803223, 0.9988497495651245, 0.9985648989677429, 0.9984450936317444, 0.9982278943061829, 0.9988058805465698, 0.9993584752082825, 0.9993255138397217, 0.9991419315338135, 0.9990196228027344, 0.999302864074707, 0.9991869330406189, 0.9990870952606201, 0.9989601373672485, 0.9989961981773376, 0.9991927742958069, 0.998880922794342, 0.9988686442375183, 0.9990689158439636, 0.9990774393081665, 0.9987679123878479, 0.9989174604415894, 0.9988276362419128, 0.999043881893158, 0.999060332775116, 0.9989662170410156, 0.9991162419319153, 0.9989063739776611, 0.9987049102783203, 0.9985494017601013, 0.99843829870224, 0.9989269375801086, 0.9990003705024719, 0.9992157220840454, 0.9991986155509949, 0.9991185069084167, 0.9991921782493591, 0.9990170001983643, 0.9993184804916382, 0.9995003938674927, 0.9994520545005798, 0.9992626309394836, 0.9983214735984802, 0.9970544576644897, 0.9983730316162109, 0.9984832406044006, 0.9980210065841675, 0.9981310963630676, 0.9983653426170349, 0.9985129237174988, 0.9987678527832031, 0.9986562728881836, 0.998873770236969, 0.9989017248153687, 0.9988611936569214, 0.9989664554595947, 0.9989365935325623, 0.9991719722747803, 0.9988927245140076, 0.9992856383323669, 0.9994158744812012, 0.9994567036628723, 0.9993942975997925, 0.999204695224762, 0.999363362789154, 0.9991426467895508, 0.9990909099578857, 0.9991784691810608, 0.9991123080253601, 0.9991419315338135, 0.9993075132369995, 0.999015212059021, 0.9989919066429138, 0.9987271428108215, 0.9984625577926636, 0.9984449744224548, 0.9986348748207092, 0.9985301494598389, 0.9989583492279053, 0.9988129138946533, 0.9981513619422913, 0.9983323216438293, 0.9985653758049011, 0.9981714487075806, 0.9979900121688843, 0.9986011385917664, 0.9986780285835266, 0.9988644123077393, 0.99864262342453, 0.999139666557312, 0.9991087317466736, 0.9991798996925354, 0.9993287324905396, 0.9994584918022156, 0.9994916915893555, 0.9994358420372009, 0.9989933371543884, 0.998457670211792, 0.9983653426170349, 0.9983123540878296, 0.9975550770759583, 0.9985731840133667, 0.9986698627471924, 0.9986900687217712, 0.9984462857246399, 0.998920202255249, 0.9988161325454712, 0.9980272650718689, 0.997914731502533, 0.9988003969192505, 0.9988844990730286, 0.9986466765403748, 0.9984484910964966, 0.9987718462944031, 0.9986754059791565, 0.9989616870880127, 0.9992390871047974, 0.9994264841079712, 0.9993170499801636, 0.9992501139640808, 0.9991512298583984, 0.9991142153739929, 0.9991835951805115, 0.9990391731262207, 0.9990410208702087]</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.998629093170166</v>
+        <v>0.9995911717414856</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
@@ -5783,10 +5783,10 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0.791969899990363</v>
+        <v>0.7943181000009645</v>
       </c>
       <c r="J131" t="n">
-        <v>0.005656927857074022</v>
+        <v>0.005673700714292604</v>
       </c>
     </row>
     <row r="132">
@@ -5805,11 +5805,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>[0.993556797504425, 0.9960227012634277, 0.9959037899971008, 0.9925687909126282, 0.9936023354530334, 0.9955282807350159, 0.9955605268478394, 0.9935385584831238, 0.9890989065170288, 0.6999707221984863, 0.9706156849861145, 0.9859300255775452, 0.9880030155181885, 0.9973452687263489, 0.996709942817688, 0.9970491528511047, 0.9974724650382996, 0.9980789422988892, 0.997538685798645, 0.996986448764801, 0.997051477432251, 0.9969929456710815, 0.9975087642669678, 0.9977565407752991, 0.9975031018257141, 0.9950128197669983, 0.9969590902328491, 0.9946932196617126, 0.9949933886528015, 0.9947916865348816, 0.9950423240661621, 0.9956880211830139, 0.9938331842422485, 0.9937560558319092, 0.9937562942504883, 0.9947133660316467, 0.996776282787323, 0.9967604279518127, 0.9962916374206543, 0.9950088262557983, 0.9924336671829224, 0.9281297922134399, 0.9355670213699341, 0.9934771656990051, 0.9943248629570007, 0.9962878227233887, 0.9944576025009155, 0.9964220523834229, 0.9949849843978882, 0.9929333925247192, 0.9928632378578186, 0.9931949377059937, 0.9929556846618652, 0.99471515417099, 0.9914026856422424, 0.9936890602111816, 0.9899481534957886, 0.9872179627418518, 0.9891698956489563, 0.9963740706443787, 0.9952045679092407, 0.9964956641197205, 0.9967064261436462, 0.9973364472389221, 0.9978000521659851, 0.9947555065155029, 0.9952749013900757, 0.9954373240470886, 0.9968891739845276, 0.9956881403923035, 0.9766685366630554, 0.985443651676178, 0.9944789409637451, 0.9944749474525452, 0.9957489967346191, 0.9958356618881226, 0.9961352348327637, 0.9960368275642395, 0.9958283305168152, 0.994500994682312, 0.9959086179733276, 0.9952191710472107, 0.9926623106002808, 0.9952417612075806, 0.994358241558075, 0.9895882606506348, 0.9859150648117065, 0.9851930141448975, 0.9905965328216553, 0.992506206035614, 0.9933533668518066, 0.9921987652778625, 0.9940341114997864, 0.9953234791755676, 0.9946460723876953, 0.9959070682525635, 0.9940690994262695, 0.9940471649169922, 0.9965083003044128, 0.9972829818725586, 0.9865760803222656, 0.9938993453979492, 0.9922107458114624, 0.9944198727607727, 0.992400050163269, 0.9793278574943542, 0.9922683835029602, 0.9936227202415466, 0.9943006038665771, 0.9957654476165771, 0.9936284422874451, 0.9927462935447693, 0.9927811026573181, 0.9939755797386169, 0.9940475225448608, 0.9963750243186951, 0.9971523284912109, 0.9953064322471619, 0.9956125020980835, 0.9950870871543884, 0.9957093000411987, 0.9945881366729736, 0.9869088530540466, 0.9884176850318909, 0.9898012280464172, 0.9894689321517944, 0.9935070276260376, 0.9932471513748169, 0.9940669536590576, 0.9917368292808533, 0.9723033308982849, 0.9559956192970276, 0.9782010316848755, 0.9774866700172424, 0.9811151623725891, 0.9860484600067139, 0.9928983449935913, 0.9906824827194214, 0.9906765222549438]</t>
+          <t>[0.9974269270896912, 0.9983035326004028, 0.9980669617652893, 0.9964845180511475, 0.9971488118171692, 0.9977912902832031, 0.9976885318756104, 0.9972864389419556, 0.9952492713928223, 0.8969770073890686, 0.9887416958808899, 0.9958617091178894, 0.9956596493721008, 0.9984101057052612, 0.9977376461029053, 0.9980054497718811, 0.9985597729682922, 0.9988963603973389, 0.9983794689178467, 0.9979897737503052, 0.998210072517395, 0.9979413151741028, 0.9983941912651062, 0.998715877532959, 0.9986581802368164, 0.9977891445159912, 0.998651921749115, 0.9974687099456787, 0.9974403381347656, 0.9973370432853699, 0.9976685643196106, 0.9979522228240967, 0.9965943694114685, 0.9971804618835449, 0.9973080158233643, 0.9969040751457214, 0.9980576634407043, 0.9979369640350342, 0.9980769157409668, 0.9968750476837158, 0.9965642094612122, 0.9837746620178223, 0.9874569773674011, 0.9973005652427673, 0.9970585107803345, 0.9981644749641418, 0.9973340034484863, 0.9980196952819824, 0.9974983334541321, 0.9962959885597229, 0.9957889914512634, 0.9962728023529053, 0.9960591793060303, 0.9974154233932495, 0.9960343241691589, 0.997512936592102, 0.9959295392036438, 0.9948052763938904, 0.9954226613044739, 0.9984259605407715, 0.9978955984115601, 0.9984594583511353, 0.9986918568611145, 0.9989194869995117, 0.9991620779037476, 0.9977284073829651, 0.9980060458183289, 0.9975866079330444, 0.9985160231590271, 0.998008668422699, 0.9928926229476929, 0.9965594410896301, 0.9978814721107483, 0.9969291090965271, 0.9981839060783386, 0.997999370098114, 0.9979345798492432, 0.9978106617927551, 0.9975179433822632, 0.9961929321289062, 0.9975473284721375, 0.9971863627433777, 0.9954954385757446, 0.9971354007720947, 0.9959908127784729, 0.9896416068077087, 0.9886850714683533, 0.9896590113639832, 0.992946445941925, 0.9949381351470947, 0.9954202175140381, 0.9943172335624695, 0.9963931441307068, 0.9974996447563171, 0.9966429471969604, 0.9975827932357788, 0.99657142162323, 0.9957940578460693, 0.998087465763092, 0.998623251914978, 0.9957159161567688, 0.997803270816803, 0.9954214692115784, 0.9965006113052368, 0.9947861433029175, 0.9866752028465271, 0.9948470592498779, 0.9959121942520142, 0.9969925880432129, 0.9977905750274658, 0.9967599511146545, 0.9964056015014648, 0.996243953704834, 0.9967091083526611, 0.9969101548194885, 0.9981203675270081, 0.9986873269081116, 0.99770587682724, 0.9972919821739197, 0.9967681169509888, 0.9970664381980896, 0.9961464405059814, 0.9900160431861877, 0.9908457398414612, 0.9932302236557007, 0.9932977557182312, 0.9963886737823486, 0.9963415265083313, 0.9957713484764099, 0.9970580339431763, 0.991969645023346, 0.9841551780700684, 0.9914445281028748, 0.989929735660553, 0.9909496903419495, 0.9927634596824646, 0.9963111281394958, 0.9955204725265503, 0.9955192804336548]</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.9980789422988892</v>
+        <v>0.9991620779037476</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
@@ -5823,10 +5823,10 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0.7762543999997433</v>
+        <v>0.7705600000044797</v>
       </c>
       <c r="J132" t="n">
-        <v>0.005584564028775132</v>
+        <v>0.005543597122334386</v>
       </c>
     </row>
     <row r="133">
@@ -5845,11 +5845,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>[0.9859827160835266, 0.993148148059845, 0.9936420321464539, 0.9952778816223145, 0.9955570101737976, 0.9926848411560059, 0.9933473467826843, 0.9957893490791321, 0.9963171482086182, 0.9948775768280029, 0.9957103729248047, 0.9953891038894653, 0.9925552010536194, 0.9890044331550598, 0.9876260161399841, 0.9773486852645874, 0.9593585133552551, 0.985577404499054, 0.9864969849586487, 0.9838576912879944, 0.9830279350280762, 0.9643722176551819, 0.9657278656959534, 0.9803327322006226, 0.9456092119216919, 0.9784975647926331, 0.9936712980270386, 0.9963800311088562, 0.996326744556427, 0.9967144727706909, 0.9959891438484192, 0.9963584542274475, 0.9974168539047241, 0.9977661371231079, 0.9973968267440796, 0.9968870282173157, 0.9940049052238464, 0.9968562126159668, 0.9979044198989868, 0.9974135756492615, 0.9978341460227966, 0.9970940351486206, 0.995236873626709, 0.9954209923744202, 0.9962384700775146, 0.997495174407959, 0.9963149428367615, 0.9962009787559509, 0.9934315085411072, 0.9959113597869873, 0.9958601593971252, 0.9953598380088806, 0.9948861002922058, 0.9967064261436462, 0.9961756467819214, 0.9798287749290466, 0.9815562963485718, 0.9874157309532166, 0.9794400334358215, 0.9911323189735413, 0.9909946322441101, 0.9904364943504333, 0.9918272495269775, 0.995834231376648, 0.9955846667289734, 0.9953187108039856, 0.9903801679611206, 0.9944124817848206, 0.9945249557495117, 0.9939951300621033, 0.9894648790359497, 0.9813196659088135, 0.9787868857383728, 0.9856430888175964, 0.9818974137306213, 0.9527905583381653, 0.984711766242981, 0.9782537221908569, 0.9782577157020569, 0.9727631211280823, 0.9860884547233582, 0.9938720464706421, 0.9937315583229065, 0.9950855374336243, 0.9964361190795898, 0.9953991770744324, 0.9961917400360107, 0.9958624839782715, 0.9966631531715393, 0.9963082075119019, 0.9945780038833618, 0.9963353872299194, 0.9965193271636963, 0.9960218071937561, 0.9968151450157166, 0.9974856376647949, 0.9967395663261414, 0.9961923360824585, 0.9975640773773193, 0.9974297881126404, 0.9968884587287903, 0.9976100921630859, 0.9973141551017761, 0.9977211356163025, 0.99745112657547, 0.9978628754615784, 0.9971292614936829, 0.994813084602356, 0.9976508021354675, 0.9983806610107422, 0.9983434677124023, 0.9978228807449341, 0.9963523149490356, 0.9972965121269226, 0.9926385879516602, 0.9791046380996704, 0.9728657603263855, 0.9843490719795227, 0.9856594800949097, 0.9810183048248291, 0.9847619533538818, 0.9885225296020508, 0.9748985171318054, 0.9705320000648499, 0.9801374077796936, 0.9725024700164795, 0.9851127862930298, 0.980925977230072, 0.9467287063598633, 0.9228755235671997, 0.9587380290031433, 0.9718918204307556, 0.9766142964363098, 0.9732070565223694, 0.9789713621139526, 0.9699006676673889, 0.9815062284469604, 0.9844792485237122, 0.9745839834213257, 0.9746187329292297]</t>
+          <t>[0.9959636926651001, 0.9970176219940186, 0.9970867037773132, 0.9974516034126282, 0.9968032836914062, 0.995297372341156, 0.9959422945976257, 0.9977983236312866, 0.9982683658599854, 0.9976493716239929, 0.997763991355896, 0.9973509311676025, 0.9960923790931702, 0.9945595860481262, 0.9933504462242126, 0.9890875816345215, 0.9779622554779053, 0.9931665062904358, 0.9943517446517944, 0.9924240112304688, 0.9931681156158447, 0.972079873085022, 0.9769759774208069, 0.9905385971069336, 0.9836057424545288, 0.9919726848602295, 0.997612476348877, 0.9983813762664795, 0.9981157779693604, 0.998534083366394, 0.9979447722434998, 0.9983676075935364, 0.9988681077957153, 0.999096155166626, 0.9990805387496948, 0.99873286485672, 0.9973606467247009, 0.9983991980552673, 0.999103307723999, 0.998891294002533, 0.9990255832672119, 0.998551070690155, 0.9974151849746704, 0.9974358677864075, 0.998289167881012, 0.9988346695899963, 0.9983686804771423, 0.9981789588928223, 0.9976874589920044, 0.9987492561340332, 0.9987502098083496, 0.9986019730567932, 0.9983876943588257, 0.9986400008201599, 0.9985502362251282, 0.9931407570838928, 0.9939747452735901, 0.9954506754875183, 0.9914235472679138, 0.9956573247909546, 0.9951468110084534, 0.9945969581604004, 0.996110737323761, 0.9982023239135742, 0.9980857372283936, 0.9979605674743652, 0.9957818984985352, 0.996925413608551, 0.9975969195365906, 0.9971776008605957, 0.9950449466705322, 0.991596519947052, 0.9890447854995728, 0.9937528967857361, 0.9932176470756531, 0.9828423857688904, 0.9943575263023376, 0.9904988408088684, 0.9862301349639893, 0.9924922585487366, 0.9948220252990723, 0.9975811243057251, 0.9978805780410767, 0.9982637763023376, 0.9984148740768433, 0.9978874325752258, 0.9984560012817383, 0.9980034232139587, 0.9982043504714966, 0.9980630278587341, 0.9981667995452881, 0.9985527396202087, 0.9984855055809021, 0.9977619647979736, 0.9982333183288574, 0.9986465573310852, 0.9983034133911133, 0.9981364011764526, 0.9987918734550476, 0.9987784028053284, 0.9983450174331665, 0.998741090297699, 0.9985764026641846, 0.9988487958908081, 0.9987356066703796, 0.998977780342102, 0.9989479184150696, 0.9979908466339111, 0.99919193983078, 0.9993816614151001, 0.9992401599884033, 0.9991216063499451, 0.9985058307647705, 0.9987378716468811, 0.9965403079986572, 0.9926095604896545, 0.9903087019920349, 0.9929370284080505, 0.9912970066070557, 0.9884330630302429, 0.9897152781486511, 0.9919243454933167, 0.9782456159591675, 0.977495551109314, 0.9868981838226318, 0.9854272603988647, 0.9918980598449707, 0.9903486967086792, 0.9749442934989929, 0.976161539554596, 0.9861443042755127, 0.9911707639694214, 0.9926609992980957, 0.9891596436500549, 0.99137282371521, 0.9903751015663147, 0.9929030537605286, 0.9940935969352722, 0.9862056374549866, 0.9862513542175293]</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.9983806610107422</v>
+        <v>0.9993816614151001</v>
       </c>
       <c r="F133" t="n">
         <v>1</v>
@@ -5863,10 +5863,10 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0.7801446000230499</v>
+        <v>0.7878947999997763</v>
       </c>
       <c r="J133" t="n">
-        <v>0.005572461428736071</v>
+        <v>0.005627819999998402</v>
       </c>
     </row>
     <row r="134">
@@ -5885,11 +5885,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>[0.9695156216621399, 0.9609919190406799, 0.9556835293769836, 0.9813863635063171, 0.9685249924659729, 0.991104006767273, 0.9672580361366272, 0.9665461778640747, 0.8378655910491943, 0.6917843222618103, 0.641036331653595, 0.7734056115150452, 0.6671321988105774, 0.584189236164093, 0.5213311910629272, 0.7815313339233398, 0.7046968340873718, 0.7871131300926208, 0.8164171576499939, 0.7446170449256897, 0.809322714805603, 0.9775046706199646, 0.9298124313354492, 0.9839122891426086, 0.9742429852485657, 0.989797055721283, 0.9919384121894836, 0.9888500571250916, 0.9802793264389038, 0.9658560752868652, 0.9456470608711243, 0.9768298268318176, 0.9715588092803955, 0.9022337198257446, 0.9388982653617859, 0.9333907961845398, 0.8774257898330688, 0.7120445370674133, 0.9131154417991638, 0.7403312921524048, 0.6571267247200012, 0.3316391408443451, 0.5020477175712585, 0.7316707968711853, 0.7623555064201355, 0.8724027872085571, 0.9793888926506042, 0.9894157648086548, 0.9140726923942566, 0.9691609144210815, 0.9875645041465759, 0.9871998429298401, 0.9848035573959351, 0.9946135878562927, 0.9809727668762207, 0.8949570655822754, 0.9053263068199158, 0.8313180208206177, 0.7996155023574829, 0.7497624158859253, 0.8313220143318176, 0.8039210438728333, 0.6652820706367493, 0.8822299242019653, 0.930921196937561, 0.9245486855506897, 0.8896363377571106, 0.9735057950019836, 0.979752779006958, 0.8974626064300537, 0.9817766547203064, 0.9730607867240906, 0.963204562664032, 0.9592921733856201, 0.9272000789642334, 0.9551041126251221, 0.8831908702850342, 0.9460200071334839, 0.9868820309638977, 0.9902798533439636, 0.9938257932662964, 0.9945360422134399, 0.9945873022079468, 0.9945425987243652, 0.9899004101753235, 0.9869588017463684, 0.9878040552139282, 0.9889021515846252, 0.991219699382782, 0.9920252561569214, 0.9914045333862305, 0.9948225021362305, 0.9960953593254089, 0.9957917928695679, 0.9961930513381958, 0.9951013922691345, 0.9913061261177063, 0.9937362670898438, 0.9944731593132019, 0.9954686164855957, 0.9920501112937927, 0.9937223792076111, 0.9875075221061707, 0.9848198890686035, 0.9897398948669434, 0.9928532242774963, 0.9942212104797363, 0.9939325451850891, 0.9949784874916077, 0.9944739937782288, 0.9961761236190796, 0.9953973889350891, 0.9936729669570923, 0.9843040108680725, 0.964090883731842, 0.9440344572067261, 0.862295389175415, 0.6988744139671326, 0.8212413787841797, 0.7832099795341492, 0.8109697103500366, 0.8282209038734436, 0.9125116467475891, 0.8693755269050598, 0.8752224445343018, 0.9544928073883057, 0.9327726364135742, 0.9675135016441345, 0.9559923410415649, 0.9047117829322815, 0.9175914525985718, 0.7435553669929504, 0.5227210521697998, 0.6645536422729492, 0.9204953908920288, 0.9939129948616028, 0.9920862317085266, 0.9930647015571594, 0.9936969876289368, 0.9936878085136414]</t>
+          <t>[0.9872528910636902, 0.9639588594436646, 0.970189094543457, 0.9890784621238708, 0.9712381362915039, 0.9931743741035461, 0.9710507392883301, 0.9827098846435547, 0.9012786746025085, 0.8338334560394287, 0.7543401718139648, 0.8120701313018799, 0.8059768080711365, 0.6901675462722778, 0.6158771514892578, 0.8323851823806763, 0.7821163535118103, 0.8144625425338745, 0.8509172201156616, 0.7679949402809143, 0.8624521493911743, 0.990035891532898, 0.9405824542045593, 0.9883413910865784, 0.9856969118118286, 0.9950188398361206, 0.9958829879760742, 0.9932655096054077, 0.9899120926856995, 0.9781213998794556, 0.9544145464897156, 0.9850283861160278, 0.9838549494743347, 0.9331543445587158, 0.9516410231590271, 0.9496962428092957, 0.9250631928443909, 0.7769284844398499, 0.9358981847763062, 0.7754430770874023, 0.5759401321411133, 0.2694873809814453, 0.5121975541114807, 0.77723628282547, 0.7875207662582397, 0.9317938089370728, 0.9853912591934204, 0.9951357245445251, 0.9738894104957581, 0.9848006963729858, 0.9959651231765747, 0.9956437349319458, 0.994179368019104, 0.9973993301391602, 0.9949042797088623, 0.9697006940841675, 0.9633597135543823, 0.9163767695426941, 0.9024859666824341, 0.862593412399292, 0.9108655452728271, 0.9013178944587708, 0.7713951468467712, 0.960076093673706, 0.9728768467903137, 0.9599849581718445, 0.9499668478965759, 0.9872263073921204, 0.9897763729095459, 0.9357766509056091, 0.9873363375663757, 0.9839668869972229, 0.977835476398468, 0.9834611415863037, 0.9700130820274353, 0.9835624098777771, 0.9302181601524353, 0.9516804218292236, 0.9940780401229858, 0.9960424900054932, 0.9967346787452698, 0.997706413269043, 0.9975717663764954, 0.9978165626525879, 0.9966390132904053, 0.9955859184265137, 0.9940012097358704, 0.9911662936210632, 0.9946840405464172, 0.9958128333091736, 0.9957506656646729, 0.9972571730613708, 0.9978623986244202, 0.997869610786438, 0.9977712631225586, 0.9973214268684387, 0.9946404099464417, 0.9956177473068237, 0.997140645980835, 0.9977898597717285, 0.9950934648513794, 0.9967209696769714, 0.9937216639518738, 0.9923233985900879, 0.9955227375030518, 0.9972831010818481, 0.9975482821464539, 0.997143566608429, 0.9968234300613403, 0.9971940517425537, 0.9980432987213135, 0.9978633522987366, 0.9970188140869141, 0.9908986687660217, 0.9808309674263, 0.9557068347930908, 0.9108415246009827, 0.7534125447273254, 0.8977281451225281, 0.8823084831237793, 0.9083372354507446, 0.9062010645866394, 0.9638732075691223, 0.9500978589057922, 0.9362427592277527, 0.9766311049461365, 0.9661095142364502, 0.9844247102737427, 0.9798575043678284, 0.9518002867698669, 0.95493084192276, 0.9108067750930786, 0.8032556772232056, 0.816433310508728, 0.958945095539093, 0.9975086450576782, 0.9969059824943542, 0.9972199201583862, 0.997602641582489, 0.9975957274436951]</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.9961930513381958</v>
+        <v>0.9980432987213135</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
@@ -5903,10 +5903,10 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0.7875701999873854</v>
+        <v>0.784687200008193</v>
       </c>
       <c r="J134" t="n">
-        <v>0.005625501428481325</v>
+        <v>0.005604908571487093</v>
       </c>
     </row>
     <row r="135">
@@ -5925,11 +5925,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[0.9222580194473267, 0.9216362833976746, 0.9339367747306824, 0.8841102719306946, 0.7903905510902405, 0.8672279119491577, 0.8380573391914368, 0.8985135555267334, 0.9268450140953064, 0.9309054613113403, 0.8500146865844727, 0.9075655937194824, 0.9620406627655029, 0.970562756061554, 0.9724284410476685, 0.9665842652320862, 0.9752066731452942, 0.9556313157081604, 0.9757880568504333, 0.9759465456008911, 0.9528349041938782, 0.9784319400787354, 0.9669796228408813, 0.982941210269928, 0.984150767326355, 0.9762951135635376, 0.9841358661651611, 0.9893295168876648, 0.9895021319389343, 0.9894094467163086, 0.9886773824691772, 0.9681615829467773, 0.965315043926239, 0.9910916686058044, 0.9863809943199158, 0.9858193397521973, 0.9946640729904175, 0.9957579970359802, 0.9939269423484802, 0.9894368648529053, 0.9839582443237305, 0.985651969909668, 0.9710864424705505, 0.9703307151794434, 0.9523704051971436, 0.9785284996032715, 0.956017792224884, 0.9685413241386414, 0.8844633102416992, 0.94010990858078, 0.9745402932167053, 0.957884669303894, 0.965362012386322, 0.9812561869621277, 0.9783832430839539, 0.962561309337616, 0.959761917591095, 0.8976967334747314, 0.861882209777832, 0.7896349430084229, 0.7901273965835571, 0.8133888244628906, 0.6676639318466187, 0.8902105689048767, 0.9167851805686951, 0.9372779726982117, 0.9612433314323425, 0.9528537392616272, 0.9478062987327576, 0.9473769664764404, 0.9797601103782654, 0.9735637903213501, 0.9194615483283997, 0.9415828585624695, 0.9524025321006775, 0.9561958909034729, 0.9538310170173645, 0.9623121619224548, 0.9749441742897034, 0.9825701117515564, 0.9868863224983215, 0.9790967106819153, 0.977372944355011, 0.9727569818496704, 0.9877328872680664, 0.9884276986122131, 0.9863205552101135, 0.9714747667312622, 0.960503339767456, 0.970673143863678, 0.9848383665084839, 0.9893810749053955, 0.9913956522941589, 0.9912097454071045, 0.9869961738586426, 0.9800363183021545, 0.97135990858078, 0.9828965067863464, 0.9911500215530396, 0.990954577922821, 0.9787653088569641, 0.948986828327179, 0.9679194092750549, 0.9677127003669739, 0.9477407932281494, 0.922916829586029, 0.9423164129257202, 0.9763416051864624, 0.9858512282371521, 0.983130156993866, 0.9630243182182312, 0.950762152671814, 0.9500275254249573, 0.9421095848083496, 0.9332732558250427, 0.8767431378364563, 0.8850785493850708, 0.9375357627868652, 0.8620584607124329, 0.8193435668945312, 0.6907884478569031, 0.8838688135147095, 0.8896524906158447, 0.8879854679107666, 0.8771467804908752, 0.9421206116676331, 0.9666547775268555, 0.9493182301521301, 0.9719828963279724, 0.9534074664115906, 0.9603424072265625, 0.9705341458320618, 0.9505195617675781, 0.9578167796134949, 0.9478475451469421, 0.9484280347824097, 0.9641656875610352, 0.9724374413490295, 0.9833081960678101, 0.9833499193191528]</t>
+          <t>[0.9627085328102112, 0.9451518058776855, 0.9531004428863525, 0.8985006809234619, 0.8408107161521912, 0.9092317223548889, 0.8888587355613708, 0.9468407034873962, 0.9653418064117432, 0.9794266223907471, 0.932300329208374, 0.9524964094161987, 0.9887436628341675, 0.9884258508682251, 0.9900272488594055, 0.986427366733551, 0.988187849521637, 0.9785585403442383, 0.9917798638343811, 0.9910998940467834, 0.9803993701934814, 0.9915174245834351, 0.9867319464683533, 0.9932765960693359, 0.9942968487739563, 0.9928420782089233, 0.9944566488265991, 0.9964056015014648, 0.996584415435791, 0.9959585070610046, 0.9954004883766174, 0.9841881990432739, 0.9857168197631836, 0.9961646795272827, 0.9934613704681396, 0.9924014806747437, 0.9978011250495911, 0.9983634352684021, 0.9969879984855652, 0.9947255253791809, 0.9911006093025208, 0.9929561614990234, 0.987058699131012, 0.9887129068374634, 0.9776512980461121, 0.9917172789573669, 0.9858033657073975, 0.9818639755249023, 0.9327261447906494, 0.9702510237693787, 0.9896961450576782, 0.9822316765785217, 0.9843655824661255, 0.9927605390548706, 0.9918467998504639, 0.9846652150154114, 0.9861792325973511, 0.9420409202575684, 0.9201768040657043, 0.8438905477523804, 0.8448373675346375, 0.8835204839706421, 0.789618730545044, 0.9413361549377441, 0.9551809430122375, 0.9717714190483093, 0.9871355891227722, 0.9841815233230591, 0.9836382865905762, 0.9841820597648621, 0.9942112565040588, 0.9913472533226013, 0.9713360667228699, 0.9786683917045593, 0.9828127026557922, 0.9868144989013672, 0.9845343828201294, 0.9884689450263977, 0.9914358258247375, 0.9937545657157898, 0.995465874671936, 0.9926857948303223, 0.9925854802131653, 0.9881397485733032, 0.9957343935966492, 0.9963191747665405, 0.9950957298278809, 0.9887571930885315, 0.9851771593093872, 0.9869078397750854, 0.9901226162910461, 0.9952523708343506, 0.9967268705368042, 0.996758759021759, 0.9949361085891724, 0.9912234544754028, 0.9863224029541016, 0.9923090934753418, 0.9963072538375854, 0.9969856142997742, 0.991306722164154, 0.9767686128616333, 0.9869017004966736, 0.9895879030227661, 0.9838975071907043, 0.9612202048301697, 0.9657906889915466, 0.9923134446144104, 0.9953569769859314, 0.9941294193267822, 0.9853678345680237, 0.977403461933136, 0.9813238978385925, 0.9760988354682922, 0.9780298471450806, 0.9338050484657288, 0.9275079369544983, 0.9660053849220276, 0.9177704453468323, 0.8809004426002502, 0.7880215048789978, 0.9383755326271057, 0.9357388615608215, 0.9461003541946411, 0.9254063963890076, 0.9765887260437012, 0.9900593757629395, 0.9781216382980347, 0.989952027797699, 0.9844448566436768, 0.9867531061172485, 0.9867262840270996, 0.9829716086387634, 0.981773316860199, 0.9803927540779114, 0.981555163860321, 0.9862300157546997, 0.9913749098777771, 0.9955845475196838, 0.9955993890762329]</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.9957579970359802</v>
+        <v>0.9983634352684021</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
@@ -5943,10 +5943,10 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0.7701899999810848</v>
+        <v>0.7754621999920346</v>
       </c>
       <c r="J135" t="n">
-        <v>0.005501357142722035</v>
+        <v>0.005539015714228819</v>
       </c>
     </row>
     <row r="136">
@@ -5965,11 +5965,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[0.9644488096237183, 0.9411373734474182, 0.9325305819511414, 0.8525443077087402, 0.6623399257659912, 0.7651001214981079, 0.9585729241371155, 0.9059382677078247, 0.9660340547561646, 0.9787934422492981, 0.9783340692520142, 0.9778671860694885, 0.982624888420105, 0.9813539981842041, 0.9636796712875366, 0.959845244884491, 0.9835065603256226, 0.9816482067108154, 0.9620563387870789, 0.9572612047195435, 0.978665292263031, 0.9645811319351196, 0.9492275714874268, 0.9790841341018677, 0.9860454201698303, 0.975307285785675, 0.9868412017822266, 0.9907696843147278, 0.98313969373703, 0.9795874357223511, 0.9708191156387329, 0.9794832468032837, 0.977428138256073, 0.9750542044639587, 0.9728246927261353, 0.9801658391952515, 0.9813288450241089, 0.9620538353919983, 0.9678274989128113, 0.9616028666496277, 0.9357056617736816, 0.9415646195411682, 0.962983250617981, 0.9326504468917847, 0.9284018874168396, 0.9555957913398743, 0.9792505502700806, 0.977986752986908, 0.9789303541183472, 0.9480978846549988, 0.9418054223060608, 0.9447875618934631, 0.9711282849311829, 0.9814077019691467, 0.9802212715148926, 0.9774507284164429, 0.9774425029754639, 0.9723543524742126, 0.9504168033599854, 0.9668036103248596, 0.9849504232406616, 0.9737440347671509, 0.9767313003540039, 0.9689977765083313, 0.9522358179092407, 0.9847415089607239, 0.9823999404907227, 0.982885479927063, 0.9439277052879333, 0.9567159414291382, 0.9775076508522034, 0.9842200875282288, 0.981734037399292, 0.9810976982116699, 0.9829849600791931, 0.9767637252807617, 0.9785465598106384, 0.9796257615089417, 0.9784556031227112, 0.9619070887565613, 0.9654725790023804, 0.9534608721733093, 0.9546751379966736, 0.9573132991790771, 0.9609454870223999, 0.9471567869186401, 0.96792072057724, 0.9798548817634583, 0.9797403216362, 0.9852437973022461, 0.9826226234436035, 0.9791690707206726, 0.9719461798667908, 0.9728326201438904, 0.9687483310699463, 0.9721259474754333, 0.9811912178993225, 0.9679821729660034, 0.9695916175842285, 0.9772626757621765, 0.9747660160064697, 0.975300133228302, 0.9792982339859009, 0.9724952578544617, 0.979130208492279, 0.9840080738067627, 0.9786928296089172, 0.9893191456794739, 0.9792652130126953, 0.9718708395957947, 0.9747263193130493, 0.9721755385398865, 0.9838789701461792, 0.985847532749176, 0.9846580028533936, 0.9835313558578491, 0.9862112998962402, 0.9741263389587402, 0.9784401655197144, 0.9747756123542786, 0.9723724126815796, 0.9412952065467834, 0.9684354066848755, 0.9676614999771118, 0.9528766870498657, 0.9695949554443359, 0.9711183905601501, 0.9743832945823669, 0.9768568873405457, 0.983500599861145, 0.9834052324295044, 0.9834052324295044]</t>
+          <t>[0.9861528873443604, 0.9758571982383728, 0.9776304364204407, 0.9252803921699524, 0.7632356286048889, 0.8643314242362976, 0.9846072793006897, 0.9537078142166138, 0.987649142742157, 0.9911717772483826, 0.990401566028595, 0.9903087019920349, 0.9940239787101746, 0.9919089674949646, 0.9819774031639099, 0.9837009310722351, 0.9926906228065491, 0.9910991787910461, 0.9842979907989502, 0.9806046485900879, 0.9903908967971802, 0.9836040139198303, 0.9774808883666992, 0.9922898411750793, 0.9945747256278992, 0.9884981513023376, 0.9947775602340698, 0.9963335990905762, 0.9928185939788818, 0.9913135170936584, 0.9865729808807373, 0.9898313879966736, 0.9889470934867859, 0.9880621433258057, 0.9840487241744995, 0.9894221425056458, 0.9903263449668884, 0.9800613522529602, 0.9821233153343201, 0.9790002703666687, 0.9601154327392578, 0.9634450078010559, 0.9817495346069336, 0.9687525033950806, 0.9681078195571899, 0.9824168682098389, 0.9926590323448181, 0.990242063999176, 0.9927458167076111, 0.9804943799972534, 0.9711663722991943, 0.9828991889953613, 0.9879940748214722, 0.990695595741272, 0.990369975566864, 0.9909952282905579, 0.9919636249542236, 0.9893013834953308, 0.9853319525718689, 0.9850355386734009, 0.9948004484176636, 0.9890201687812805, 0.9901359677314758, 0.9862492680549622, 0.9789217710494995, 0.9927542805671692, 0.9913299083709717, 0.992530882358551, 0.9754782915115356, 0.9798118472099304, 0.9875730872154236, 0.9909515380859375, 0.9916085600852966, 0.9901956915855408, 0.9904906749725342, 0.9868335127830505, 0.9896244406700134, 0.9904010891914368, 0.9899139404296875, 0.9815564155578613, 0.9844463467597961, 0.9755346775054932, 0.9803429245948792, 0.979403555393219, 0.9842304587364197, 0.9751082062721252, 0.9834461808204651, 0.9891114830970764, 0.9920907020568848, 0.9925249218940735, 0.9908750057220459, 0.9876874089241028, 0.984130322933197, 0.9861024618148804, 0.9855738282203674, 0.9873650670051575, 0.9929898977279663, 0.9830947518348694, 0.9870538115501404, 0.9901626110076904, 0.9877879023551941, 0.9899829626083374, 0.9913996458053589, 0.9894163012504578, 0.9908939599990845, 0.9925138354301453, 0.9901450872421265, 0.994828999042511, 0.9916951060295105, 0.9875316023826599, 0.9884030222892761, 0.9882189035415649, 0.9917245507240295, 0.9928128123283386, 0.993096649646759, 0.9906559586524963, 0.9918579459190369, 0.9864872097969055, 0.9916178584098816, 0.9897693395614624, 0.989643931388855, 0.9783790111541748, 0.9853546619415283, 0.9848546981811523, 0.9800671935081482, 0.9841503500938416, 0.9824239015579224, 0.9857024550437927, 0.9907349348068237, 0.9940925240516663, 0.9924293160438538, 0.9924341440200806]</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.9907696843147278</v>
+        <v>0.9963335990905762</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
@@ -5983,10 +5983,10 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0.7674616999865975</v>
+        <v>0.8053902999963611</v>
       </c>
       <c r="J136" t="n">
-        <v>0.005814103787777254</v>
+        <v>0.0061014416666391</v>
       </c>
     </row>
     <row r="137">
@@ -6005,11 +6005,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>[0.9852812886238098, 0.9791785478591919, 0.9795359969139099, 0.9827125072479248, 0.9834271669387817, 0.98807692527771, 0.9848507642745972, 0.9902652502059937, 0.98527991771698, 0.9839036464691162, 0.9857562184333801, 0.9849429130554199, 0.9876593947410583, 0.9898502826690674, 0.990200936794281, 0.988938570022583, 0.9848604798316956, 0.9832051396369934, 0.9713989496231079, 0.969475507736206, 0.979870080947876, 0.9860646724700928, 0.990318775177002, 0.991932213306427, 0.9880654215812683, 0.9841837882995605, 0.9705063104629517, 0.9618417024612427, 0.93205326795578, 0.8812223672866821, 0.964845597743988, 0.9713070392608643, 0.9858905076980591, 0.9713153839111328, 0.9781848192214966, 0.9814594984054565, 0.9801650047302246, 0.9892655611038208, 0.9865902662277222, 0.9891707301139832, 0.9911579489707947, 0.9841995239257812, 0.9894641637802124, 0.9915750622749329, 0.988352358341217, 0.993196964263916, 0.9892957806587219, 0.9923225045204163, 0.9884707927703857, 0.9941296577453613, 0.9907680153846741, 0.9887300133705139, 0.9890230894088745, 0.9864118099212646, 0.9844356179237366, 0.9900534749031067, 0.991115927696228, 0.9839887022972107, 0.990122377872467, 0.9871976971626282, 0.9849094748497009, 0.9861121773719788, 0.9646141529083252, 0.9525162577629089, 0.9732730984687805, 0.955070972442627, 0.9843979477882385, 0.9586518406867981, 0.9911038875579834, 0.9917598366737366, 0.9897346496582031, 0.974277913570404, 0.9841709733009338, 0.9855323433876038, 0.9866082668304443, 0.9760220646858215, 0.9930203557014465, 0.9925776124000549, 0.985454797744751, 0.9920912981033325, 0.9905245900154114, 0.990939736366272, 0.9920023679733276, 0.9905797839164734, 0.9890027046203613, 0.990602970123291, 0.9908616542816162, 0.9896638989448547, 0.9840906262397766, 0.9888527393341064, 0.9899463057518005, 0.9886027574539185, 0.9895738959312439, 0.9844563007354736, 0.9846653342247009, 0.9874782562255859, 0.9897005558013916, 0.9915310144424438, 0.9944143295288086, 0.990202009677887, 0.985880970954895, 0.9833782911300659, 0.9852157831192017, 0.9855868816375732, 0.9852336049079895, 0.9906390905380249, 0.9909734129905701, 0.9706587791442871, 0.9902065396308899, 0.986759603023529, 0.9890557527542114, 0.9849490523338318, 0.9842707514762878, 0.9822676777839661, 0.9909782409667969, 0.9878847002983093, 0.9909030795097351, 0.9924914240837097, 0.9907060265541077, 0.9937921166419983, 0.9879435300827026, 0.9730530977249146, 0.960831880569458, 0.975159764289856, 0.9453296065330505, 0.9670929908752441, 0.9636803269386292, 0.9248268604278564, 0.7306531667709351, 0.8953304290771484, 0.9504235982894897, 0.9500778913497925]</t>
+          <t>[0.9926602244377136, 0.9914612770080566, 0.9916257262229919, 0.9936785101890564, 0.9925712943077087, 0.994650661945343, 0.9928759336471558, 0.9951678514480591, 0.9938322305679321, 0.9935771822929382, 0.9937785267829895, 0.9938096404075623, 0.9945782423019409, 0.9951019287109375, 0.9947127103805542, 0.9956388473510742, 0.9942193031311035, 0.9938560128211975, 0.9894132018089294, 0.9905611872673035, 0.9931464791297913, 0.9942863583564758, 0.9959118366241455, 0.9968949556350708, 0.9956915974617004, 0.995055079460144, 0.9897751808166504, 0.9852541089057922, 0.9717701077461243, 0.9636371731758118, 0.9869378805160522, 0.990670919418335, 0.9939748644828796, 0.9889616370201111, 0.9906214475631714, 0.9927983283996582, 0.9924430251121521, 0.9952285289764404, 0.995235025882721, 0.9965093731880188, 0.9963453412055969, 0.9924730062484741, 0.9948904514312744, 0.9964398741722107, 0.9955997467041016, 0.9973008036613464, 0.9959990978240967, 0.9969387054443359, 0.9950438737869263, 0.997676432132721, 0.9960313439369202, 0.9951266050338745, 0.9957907795906067, 0.9953877329826355, 0.9939481019973755, 0.996023416519165, 0.9964640736579895, 0.9936960339546204, 0.9953659772872925, 0.994293212890625, 0.9939942955970764, 0.9959807395935059, 0.9886524081230164, 0.9817797541618347, 0.9905939102172852, 0.9889509081840515, 0.9951459765434265, 0.988545835018158, 0.996751070022583, 0.9974144697189331, 0.9964146614074707, 0.9889358878135681, 0.9930003881454468, 0.9927428960800171, 0.9936352968215942, 0.9879270195960999, 0.9966967105865479, 0.9966233968734741, 0.9935336112976074, 0.9967545866966248, 0.9961140155792236, 0.9963841438293457, 0.9963022470474243, 0.9963233470916748, 0.9950709342956543, 0.9963144659996033, 0.9964190721511841, 0.9950636029243469, 0.9918429255485535, 0.9946388602256775, 0.9952332377433777, 0.9948582649230957, 0.9957467913627625, 0.9947367310523987, 0.9937585592269897, 0.9953466057777405, 0.995880126953125, 0.9963191747665405, 0.9978783130645752, 0.9965674877166748, 0.9952898025512695, 0.9927048087120056, 0.9943056702613831, 0.9953548908233643, 0.9956610798835754, 0.9967569708824158, 0.9964333772659302, 0.9860572814941406, 0.9963501691818237, 0.9930765628814697, 0.9952940344810486, 0.9920794367790222, 0.9928796887397766, 0.9922546148300171, 0.9962855577468872, 0.99564528465271, 0.9968041181564331, 0.99662846326828, 0.9960249662399292, 0.9975883960723877, 0.9967377781867981, 0.990533709526062, 0.9845021367073059, 0.9899551868438721, 0.9767066240310669, 0.9871358275413513, 0.9887555241584778, 0.9722496867179871, 0.902884840965271, 0.9691557288169861, 0.9780917763710022, 0.9779592752456665]</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.9944143295288086</v>
+        <v>0.9978783130645752</v>
       </c>
       <c r="F137" t="n">
         <v>1</v>
@@ -6023,10 +6023,10 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0.7600144999742042</v>
+        <v>0.7646379999932833</v>
       </c>
       <c r="J137" t="n">
-        <v>0.005757685605865184</v>
+        <v>0.005792712121161238</v>
       </c>
     </row>
     <row r="138">
@@ -6045,11 +6045,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[0.9555357098579407, 0.9807950854301453, 0.9886257648468018, 0.9741293787956238, 0.8674172163009644, 0.8673734664916992, 0.9820625185966492, 0.9839221239089966, 0.9876670837402344, 0.9467580914497375, 0.866930365562439, 0.8702316880226135, 0.9814940690994263, 0.9803736209869385, 0.9677284359931946, 0.9370754957199097, 0.9528602361679077, 0.9739225506782532, 0.9300686120986938, 0.92530757188797, 0.9742053151130676, 0.962913990020752, 0.9735360741615295, 0.731585681438446, 0.9812524914741516, 0.9145768880844116, 0.8509637117385864, 0.9193111062049866, 0.9569175243377686, 0.9673585295677185, 0.9810892939567566, 0.970391571521759, 0.9868359565734863, 0.9445745348930359, 0.9326496124267578, 0.9604141712188721, 0.9669791460037231, 0.9874305725097656, 0.9741504192352295, 0.9752893447875977, 0.9808781147003174, 0.9721864461898804, 0.9440727233886719, 0.9866852760314941, 0.9782078862190247, 0.96357661485672, 0.5280348658561707, 0.7706699371337891, 0.9768168330192566, 0.979377806186676, 0.980608344078064, 0.9368970394134521, 0.7708979845046997, 0.8575569987297058, 0.9805760979652405, 0.9796127080917358, 0.9868386387825012, 0.9831993579864502, 0.9638628363609314, 0.9663888812065125, 0.964870810508728, 0.9687299132347107, 0.9702847003936768, 0.9830935001373291, 0.9881392121315002, 0.974775493144989, 0.9848493337631226, 0.9762083292007446, 0.9854576587677002, 0.9152688384056091, 0.9709639549255371, 0.9705730080604553, 0.9762736558914185, 0.9689186811447144, 0.7600969672203064, 0.8663405179977417, 0.9848508834838867, 0.9809178113937378, 0.9853061437606812, 0.9722256660461426, 0.9668743014335632, 0.9842039942741394, 0.5938555598258972, 0.966292142868042, 0.9612218141555786, 0.9400981664657593, 0.6054686903953552, 0.8506296277046204, 0.9640933275222778, 0.9772955775260925, 0.9779343008995056, 0.983252763748169, 0.9638227224349976, 0.9500160217285156, 0.9552258253097534, 0.9444069862365723, 0.9805629253387451, 0.970066249370575, 0.9879841804504395, 0.974075198173523, 0.9839304089546204, 0.7660084366798401, 0.8923060297966003, 0.8753042817115784, 0.9656267166137695, 0.9741885662078857, 0.9351606369018555, 0.9109935164451599, 0.9759083986282349, 0.9774611592292786, 0.9823262095451355, 0.9527372717857361, 0.9752541780471802, 0.9272231459617615, 0.9694887399673462, 0.9848901629447937, 0.9834068417549133, 0.8770371079444885, 0.9377492666244507, 0.9801220893859863, 0.9264082312583923, 0.6104884147644043, 0.692349374294281, 0.927353024482727, 0.9048982858657837, 0.939774751663208, 0.9723681211471558, 0.9547377824783325, 0.9705402851104736, 0.8878301382064819, 0.9180243611335754, 0.918085515499115]</t>
+          <t>[0.9858229756355286, 0.9945868253707886, 0.995557963848114, 0.993537962436676, 0.9745752811431885, 0.9627412557601929, 0.9946544170379639, 0.9947395920753479, 0.9964385032653809, 0.988766610622406, 0.9687349200248718, 0.967741847038269, 0.9945530295372009, 0.9944467544555664, 0.989120364189148, 0.980881929397583, 0.9911871552467346, 0.9933905601501465, 0.984917938709259, 0.9777260422706604, 0.9929962754249573, 0.9883242845535278, 0.9938847422599792, 0.9291474223136902, 0.9947711825370789, 0.9871238470077515, 0.9665983319282532, 0.9817312955856323, 0.9884015917778015, 0.9925383925437927, 0.9940721392631531, 0.9919742941856384, 0.9963665008544922, 0.9886794686317444, 0.9818292856216431, 0.991351842880249, 0.987454891204834, 0.9961174726486206, 0.9922873973846436, 0.9909874796867371, 0.9938555359840393, 0.9913191199302673, 0.9849081039428711, 0.9954586029052734, 0.9940077066421509, 0.9924492835998535, 0.8544721007347107, 0.9451806545257568, 0.9922289252281189, 0.994792640209198, 0.9950526356697083, 0.9891425967216492, 0.9272996783256531, 0.9570930004119873, 0.9933251738548279, 0.9947721362113953, 0.9959671497344971, 0.9945650100708008, 0.9896865487098694, 0.9896626472473145, 0.9904652833938599, 0.992763340473175, 0.9909794330596924, 0.9944649338722229, 0.9957236051559448, 0.9943795800209045, 0.9953279495239258, 0.9927095174789429, 0.9961547255516052, 0.9855067729949951, 0.9926462173461914, 0.9894026517868042, 0.9917763471603394, 0.991295337677002, 0.9552932977676392, 0.9648226499557495, 0.9938592314720154, 0.9920737743377686, 0.9923168420791626, 0.9875971674919128, 0.9897879362106323, 0.9943556785583496, 0.8899345993995667, 0.9935182929039001, 0.9897420406341553, 0.9838035106658936, 0.856920599937439, 0.9690506458282471, 0.9903173446655273, 0.9936527013778687, 0.9935989379882812, 0.99349445104599, 0.9881658554077148, 0.9853972792625427, 0.9889344573020935, 0.9839760065078735, 0.9919689297676086, 0.9916837215423584, 0.9953389167785645, 0.9925164580345154, 0.9956865906715393, 0.9437387585639954, 0.9773524403572083, 0.984001636505127, 0.9900068044662476, 0.9924256801605225, 0.9852095246315002, 0.9797360897064209, 0.9907475709915161, 0.9924649000167847, 0.9927615523338318, 0.980370283126831, 0.9917739033699036, 0.9772441387176514, 0.9901944994926453, 0.9951377511024475, 0.9946839213371277, 0.9817464351654053, 0.9892534613609314, 0.991736114025116, 0.9852944612503052, 0.8800341486930847, 0.9216271638870239, 0.9780904054641724, 0.9790837168693542, 0.9886426329612732, 0.9913630485534668, 0.9847272634506226, 0.9903117418289185, 0.970179557800293, 0.9778391122817993, 0.9778084754943848]</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.9886257648468018</v>
+        <v>0.9964385032653809</v>
       </c>
       <c r="F138" t="n">
         <v>1</v>
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0.7817198999982793</v>
+        <v>0.7642538000072818</v>
       </c>
       <c r="J138" t="n">
-        <v>0.005922120454532419</v>
+        <v>0.00578980151520668</v>
       </c>
     </row>
     <row r="139">
@@ -6085,11 +6085,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[0.3119770288467407, 0.2759542763233185, 0.5389674305915833, 0.5143251419067383, 0.5388659834861755, 0.6835253834724426, 0.4092769920825958, 0.6953573822975159, 0.4958003759384155, 0.43065738677978516, 0.3175232708454132, 0.21959124505519867, 0.2277982085943222, 0.28762590885162354, 0.4015994966030121, 0.5077856779098511, 0.4367494583129883, 0.3487810790538788, 0.35397040843963623, 0.3039948344230652, 0.5434614419937134, 0.5428241491317749, 0.5505198836326599, 0.655954122543335, 0.5303337574005127, 0.5140466094017029, 0.18381783366203308, 0.47522103786468506, 0.6978850960731506, 0.5272206664085388, 0.670206606388092, 0.7782002687454224, 0.5127061009407043, 0.4068813920021057, 0.3605440557003021, 0.7305470705032349, 0.4416041076183319, 0.37247711420059204, 0.23141269385814667, 0.5275499224662781, 0.8416885137557983, 0.502434253692627, 0.6072392463684082, 0.8744358420372009, 0.662697970867157, 0.5365450382232666, 0.7093026638031006, 0.9401267170906067, 0.9814162254333496, 0.9716619253158569, 0.9671489596366882, 0.8534477353096008, 0.27991849184036255, 0.20664571225643158, 0.5625070333480835, 0.7273293733596802, 0.7179744243621826, 0.5575244426727295, 0.7436690926551819, 0.7600674629211426, 0.9209664463996887, 0.8296058773994446, 0.7095410823822021, 0.5011846423149109, 0.41646620631217957, 0.5659185647964478, 0.5525542497634888, 0.8651953339576721, 0.8899354338645935, 0.8824343681335449, 0.8834753036499023, 0.8981821537017822, 0.7420254349708557, 0.5900781154632568, 0.7401317954063416, 0.5117878317832947, 0.3627054691314697, 0.642620325088501, 0.9805339574813843, 0.9769014716148376, 0.9038391709327698, 0.743375301361084, 0.5436999797821045, 0.854995608329773, 0.65467768907547, 0.5209450721740723, 0.6746715903282166, 0.4025510549545288, 0.7213559746742249, 0.4143223166465759, 0.6569438576698303, 0.5042737126350403, 0.45937174558639526, 0.4585138261318207]</t>
+          <t>[0.45756447315216064, 0.42700034379959106, 0.757048487663269, 0.8022165298461914, 0.8466655611991882, 0.9164186120033264, 0.692435622215271, 0.8830047845840454, 0.8610581755638123, 0.7948299050331116, 0.5851927995681763, 0.42757245898246765, 0.41846609115600586, 0.5301770567893982, 0.6684069633483887, 0.7638124227523804, 0.7347531318664551, 0.5846071243286133, 0.5805776715278625, 0.6764759421348572, 0.7862367630004883, 0.8648990988731384, 0.8806928992271423, 0.9144117832183838, 0.830233097076416, 0.8588077425956726, 0.4120750427246094, 0.8092725872993469, 0.9281623363494873, 0.8755767941474915, 0.9412961006164551, 0.9402629137039185, 0.836650013923645, 0.7958372235298157, 0.7216475009918213, 0.9071358442306519, 0.7128987312316895, 0.667361855506897, 0.4416387975215912, 0.8597633838653564, 0.9599536657333374, 0.7614660859107971, 0.8763478994369507, 0.9716745018959045, 0.9134956002235413, 0.8369559049606323, 0.8891860842704773, 0.9865164756774902, 0.9937952756881714, 0.9915218353271484, 0.990142285823822, 0.9772428870201111, 0.5615150332450867, 0.4611538350582123, 0.8578022122383118, 0.9392659664154053, 0.937956690788269, 0.8887624144554138, 0.9205548763275146, 0.9183019995689392, 0.9845409393310547, 0.9645734429359436, 0.9261713624000549, 0.7987375259399414, 0.720771849155426, 0.850368320941925, 0.8152706027030945, 0.9718035459518433, 0.9718056321144104, 0.9740492105484009, 0.9737504720687866, 0.9750648736953735, 0.9083414673805237, 0.8210979700088501, 0.9288923144340515, 0.7900408506393433, 0.662419319152832, 0.9221625328063965, 0.9962523579597473, 0.9955999851226807, 0.9838312864303589, 0.9212669134140015, 0.7620056867599487, 0.961683988571167, 0.8577467799186707, 0.7842821478843689, 0.9041079878807068, 0.7706297636032104, 0.919676661491394, 0.7279413938522339, 0.897752583026886, 0.803529679775238, 0.7525189518928528, 0.7516397833824158]</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.9814162254333496</v>
+        <v>0.9962523579597473</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0.5436559000227135</v>
+        <v>0.5448580999945989</v>
       </c>
       <c r="J139" t="n">
-        <v>0.005783573404496952</v>
+        <v>0.005796362765899988</v>
       </c>
     </row>
     <row r="140">
@@ -6125,11 +6125,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>[0.18846644461154938, 0.21441684663295746, 0.25918662548065186, 0.47639840841293335, 0.19214950501918793, 0.16631917655467987, 0.26196587085723877, 0.19419743120670319, 0.07104048132896423, 0.08653886616230011, 0.053409066051244736, 0.07502917945384979, 0.11010286957025528, 0.07178275287151337, 0.03780388832092285, 0.045893240720033646, 0.0895991176366806, 0.2484484761953354, 0.13314200937747955, 0.14855033159255981, 0.4780496656894684, 0.14489412307739258, 0.2958291471004486, 0.18978089094161987, 0.22002263367176056, 0.47072920203208923, 0.29311424493789673, 0.21081656217575073, 0.1651255190372467, 0.15633530914783478, 0.5432884097099304, 0.2718222141265869, 0.25568172335624695, 0.16515398025512695, 0.12829923629760742, 0.09426084905862808, 0.2052566260099411, 0.18968820571899414, 0.2763734757900238, 0.45050209760665894, 0.23023056983947754, 0.22155770659446716, 0.41188815236091614, 0.3658120334148407, 0.43792110681533813, 0.2686692774295807, 0.15556670725345612, 0.1908680647611618, 0.21142716705799103, 0.09907025843858719, 0.09364942461252213, 0.06596426665782928, 0.060174934566020966, 0.061183955520391464, 0.045434270054101944, 0.061574116349220276, 0.08995717018842697, 0.05753249675035477, 0.06942064315080643, 0.046470336616039276, 0.12888455390930176, 0.07208210974931717, 0.10405056178569794, 0.050866447389125824, 0.11106903851032257, 0.04146638512611389, 0.05306250602006912, 0.05679525062441826, 0.17499098181724548, 0.1187984049320221, 0.09989061206579208, 0.1668299287557602, 0.3174978196620941, 0.5658562779426575, 0.5500681400299072, 0.7526021599769592, 0.5259264707565308, 0.1798962652683258, 0.19784915447235107, 0.16798539459705353, 0.19830912351608276, 0.37561091780662537, 0.148786723613739, 0.2516067922115326, 0.12403378635644913, 0.15785719454288483, 0.5049422979354858, 0.5792593359947205, 0.31813398003578186, 0.2095309942960739, 0.49141934514045715, 0.06970515102148056, 0.08002365380525589, 0.07991281151771545]</t>
+          <t>[0.1946863979101181, 0.19110654294490814, 0.2798859477043152, 0.5168711543083191, 0.18598321080207825, 0.12885989248752594, 0.24157379567623138, 0.15512582659721375, 0.04918908327817917, 0.07951950281858444, 0.05181565880775452, 0.06914914399385452, 0.1261204183101654, 0.06101088970899582, 0.036940790712833405, 0.03916802629828453, 0.10310271382331848, 0.2805877923965454, 0.14329767227172852, 0.17418968677520752, 0.6341683864593506, 0.21685899794101715, 0.47054314613342285, 0.2715187072753906, 0.3340986669063568, 0.7563666105270386, 0.46585655212402344, 0.31826671957969666, 0.29209965467453003, 0.2976921498775482, 0.7992023229598999, 0.5053905844688416, 0.40579599142074585, 0.2906208038330078, 0.1557275801897049, 0.09117766469717026, 0.23067162930965424, 0.30134695768356323, 0.41269227862358093, 0.7334845066070557, 0.3818484842777252, 0.3275549113750458, 0.6118907332420349, 0.4739018380641937, 0.5509117841720581, 0.4129185378551483, 0.25869449973106384, 0.304508775472641, 0.32943516969680786, 0.09985098242759705, 0.09851866960525513, 0.06312846392393112, 0.04044578969478607, 0.0381062887609005, 0.036027874797582626, 0.05787153169512749, 0.13225801289081573, 0.045894805341959, 0.05995836481451988, 0.029568830505013466, 0.21804343163967133, 0.054828040301799774, 0.0748990997672081, 0.035933639854192734, 0.09276510775089264, 0.020873261615633965, 0.03986084833741188, 0.05766943097114563, 0.23516710102558136, 0.08188631385564804, 0.09820374846458435, 0.1939978450536728, 0.38419297337532043, 0.7188507318496704, 0.781909167766571, 0.8789066076278687, 0.5920611023902893, 0.13956859707832336, 0.23187454044818878, 0.3312291204929352, 0.3343151807785034, 0.5633265972137451, 0.1769614964723587, 0.5548372268676758, 0.136317178606987, 0.27084580063819885, 0.7326821088790894, 0.7810057401657104, 0.5862494707107544, 0.3946389853954315, 0.7753512859344482, 0.06316517293453217, 0.08006974309682846, 0.07997015863656998]</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.7526021599769592</v>
+        <v>0.8789066076278687</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
@@ -6143,10 +6143,10 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0.5405211999895982</v>
+        <v>0.5405510999989929</v>
       </c>
       <c r="J140" t="n">
-        <v>0.005750225531804236</v>
+        <v>0.005750543617010563</v>
       </c>
     </row>
     <row r="141">
@@ -6165,11 +6165,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>[0.5338526964187622, 0.3837289810180664, 0.15908174216747284, 0.2365482747554779, 0.14242307841777802, 0.6249623894691467, 0.6716121435165405, 0.8692550659179688, 0.9065545201301575, 0.8907910585403442, 0.8260492086410522, 0.929512619972229, 0.9588245153427124, 0.9624367952346802, 0.9804686307907104, 0.9544098377227783, 0.92724609375, 0.9167028069496155, 0.9411749839782715, 0.7578171491622925, 0.8505463004112244, 0.5905733704566956, 0.2186945378780365, 0.4338623583316803, 0.1988334059715271, 0.25378063321113586, 0.1258256733417511, 0.17715348303318024, 0.08150654286146164, 0.13869449496269226, 0.37031322717666626, 0.2611042857170105, 0.2109190821647644, 0.3044614791870117, 0.1530769318342209, 0.3239002525806427, 0.27258092164993286, 0.7024965286254883, 0.7760770916938782, 0.8068434000015259, 0.7476532459259033, 0.7347055077552795, 0.9126324653625488, 0.8653584122657776, 0.6689436435699463, 0.7844746112823486, 0.8490589261054993, 0.8505450487136841, 0.4336843192577362, 0.3993312120437622, 0.354764848947525, 0.4253377616405487, 0.21439743041992188, 0.19676463305950165, 0.25620901584625244, 0.20209041237831116, 0.2586037218570709, 0.3426276445388794, 0.7505393624305725, 0.4482717216014862, 0.7434985637664795, 0.9279417991638184, 0.7823292016983032, 0.9397585391998291, 0.5609246492385864, 0.4804190993309021, 0.4148475229740143, 0.4392475187778473, 0.3646481931209564, 0.5255054831504822, 0.2423776537179947, 0.19753986597061157, 0.5506936311721802, 0.30549946427345276, 0.46453988552093506, 0.25134870409965515, 0.14130240678787231, 0.05822845548391342, 0.15768639743328094, 0.17525558173656464, 0.32864144444465637, 0.21425069868564606, 0.6804558634757996, 0.26831695437431335, 0.3602874279022217, 0.5552401542663574, 0.18837380409240723, 0.40178072452545166, 0.3248373866081238, 0.5057332515716553, 0.11922566592693329, 0.08233693987131119, 0.10187896341085434, 0.10212650895118713]</t>
+          <t>[0.8149889707565308, 0.6766899824142456, 0.31096401810646057, 0.5086497664451599, 0.3298690915107727, 0.8307775259017944, 0.8433541059494019, 0.9508881568908691, 0.971128523349762, 0.9764919877052307, 0.94359290599823, 0.9842698574066162, 0.9897245168685913, 0.9930886626243591, 0.9947611689567566, 0.9887478351593018, 0.9827010035514832, 0.9811965227127075, 0.985410213470459, 0.9133585095405579, 0.9557251334190369, 0.8816221952438354, 0.39492136240005493, 0.6874973177909851, 0.4240730106830597, 0.5346164107322693, 0.20868606865406036, 0.3254585564136505, 0.10995476692914963, 0.16817963123321533, 0.5769915580749512, 0.4711361229419708, 0.4164084196090698, 0.648729145526886, 0.2517683506011963, 0.6392199993133545, 0.6189956665039062, 0.8973746299743652, 0.925674319267273, 0.9519980549812317, 0.9273403882980347, 0.9303948879241943, 0.9740089178085327, 0.9602274894714355, 0.8960214257240295, 0.9281479716300964, 0.9534470438957214, 0.9578301906585693, 0.6642441153526306, 0.5854201912879944, 0.6309245824813843, 0.7037568688392639, 0.4155367612838745, 0.2903577387332916, 0.4852631092071533, 0.40380173921585083, 0.5948801040649414, 0.6447994112968445, 0.9193627834320068, 0.7697235941886902, 0.9269124865531921, 0.9744333028793335, 0.8906416296958923, 0.9835046529769897, 0.8444913029670715, 0.8264353275299072, 0.7309914827346802, 0.7567645311355591, 0.6525540947914124, 0.7778186798095703, 0.354021281003952, 0.3811644911766052, 0.8079465627670288, 0.4292076528072357, 0.6240726113319397, 0.45355576276779175, 0.20314201712608337, 0.06995470076799393, 0.1596311777830124, 0.2832601070404053, 0.40177759528160095, 0.24041032791137695, 0.7978659868240356, 0.37830832600593567, 0.6368124485015869, 0.6687825322151184, 0.22169256210327148, 0.7146711349487305, 0.5468655228614807, 0.750203013420105, 0.13212211430072784, 0.06841312348842621, 0.11863675713539124, 0.11890850961208344]</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.9804686307907104</v>
+        <v>0.9947611689567566</v>
       </c>
       <c r="F141" t="n">
         <v>1</v>
@@ -6183,10 +6183,10 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0.544075600017095</v>
+        <v>0.546240099996794</v>
       </c>
       <c r="J141" t="n">
-        <v>0.005788038298054202</v>
+        <v>0.005811064893582915</v>
       </c>
     </row>
     <row r="142">
@@ -6205,11 +6205,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>[0.1462719589471817, 0.11927932500839233, 0.22654764354228973, 0.1631665825843811, 0.23300616443157196, 0.11362745612859726, 0.13910703361034393, 0.14193347096443176, 0.06155122071504593, 0.08345521241426468, 0.08739283680915833, 0.06145045906305313, 0.09718979895114899, 0.06609056890010834, 0.07366664707660675, 0.08439548313617706, 0.062212809920310974, 0.09114579111337662, 0.0813986286520958, 0.13078923523426056, 0.12093993276357651, 0.06138831004500389, 0.08804357051849365, 0.08248841017484665, 0.09801021218299866, 0.11324333399534225, 0.15744628012180328, 0.19787588715553284, 0.16827954351902008, 0.3882729113101959, 0.4684183895587921, 0.5967695713043213, 0.5069310069084167, 0.5843812227249146, 0.5369666814804077, 0.3449273705482483, 0.14879341423511505, 0.10854583978652954, 0.13996043801307678, 0.09090390801429749, 0.10420285910367966, 0.15027612447738647, 0.08912675082683563, 0.08515425771474838, 0.14478370547294617, 0.10311198979616165, 0.10564810037612915, 0.15939071774482727, 0.194062739610672, 0.07852683216333389, 0.09821917861700058, 0.09120134264230728, 0.05174895375967026, 0.12194333970546722, 0.1178496778011322, 0.09479309618473053, 0.21990597248077393, 0.35607489943504333, 0.1865823119878769, 0.2961522042751312, 0.7503702640533447, 0.2883530259132385, 0.3531602621078491, 0.5431057810783386, 0.2942028045654297, 0.16985033452510834, 0.16240620613098145, 0.16231392323970795, 0.10562380403280258, 0.09098842740058899, 0.07441616803407669, 0.051648225635290146, 0.09358742833137512, 0.088467076420784, 0.08860279619693756, 0.14214439690113068, 0.0850730761885643, 0.13122524321079254, 0.10468988865613937, 0.18173840641975403, 0.13968801498413086, 0.1357337236404419, 0.16209661960601807, 0.20197604596614838, 0.27891936898231506, 0.14423701167106628, 0.18306276202201843, 0.1423955261707306, 0.15793287754058838, 0.22856923937797546, 0.13663847744464874, 0.3521648347377777, 0.17795990407466888, 0.17788293957710266]</t>
+          <t>[0.35239502787590027, 0.2794887125492096, 0.5067736506462097, 0.25202643871307373, 0.3741566836833954, 0.15760919451713562, 0.21631766855716705, 0.1826186180114746, 0.06543026864528656, 0.08820195496082306, 0.08266650140285492, 0.050194043666124344, 0.09770342707633972, 0.061680637300014496, 0.0629701018333435, 0.06780300289392471, 0.05949670821428299, 0.0846935510635376, 0.08039958029985428, 0.16861726343631744, 0.1539546102285385, 0.06278110295534134, 0.06820815056562424, 0.07913382351398468, 0.10041005164384842, 0.14028330147266388, 0.15392634272575378, 0.2689896523952484, 0.2608810067176819, 0.6112673878669739, 0.7654103636741638, 0.8262718319892883, 0.7507686018943787, 0.8078076839447021, 0.7172306776046753, 0.6849918365478516, 0.22648614645004272, 0.21361680328845978, 0.3463077247142792, 0.1350564807653427, 0.17346397042274475, 0.21873125433921814, 0.11004871875047684, 0.08472712337970734, 0.24979352951049805, 0.16119834780693054, 0.1342347264289856, 0.2097502499818802, 0.3075973391532898, 0.08491956442594528, 0.13521498441696167, 0.09208068996667862, 0.06532524526119232, 0.12692369520664215, 0.14802776277065277, 0.07934197783470154, 0.3671739399433136, 0.44961482286453247, 0.38530203700065613, 0.4463024139404297, 0.8939561247825623, 0.5156958699226379, 0.5866096019744873, 0.7587969303131104, 0.5026670694351196, 0.29278311133384705, 0.35647037625312805, 0.34277746081352234, 0.14580956101417542, 0.13356488943099976, 0.07663644850254059, 0.05610582232475281, 0.11495433002710342, 0.11057906597852707, 0.09104639291763306, 0.1886386275291443, 0.08745190501213074, 0.1781671792268753, 0.1733611822128296, 0.2769140899181366, 0.23105016350746155, 0.21173244714736938, 0.34094253182411194, 0.4315436780452728, 0.5265457630157471, 0.30937081575393677, 0.3127610683441162, 0.2726951837539673, 0.2682133615016937, 0.34928181767463684, 0.17140348255634308, 0.5595045685768127, 0.35711434483528137, 0.3570866286754608]</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.7503702640533447</v>
+        <v>0.8939561247825623</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
@@ -6223,10 +6223,10 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0.553925199987134</v>
+        <v>0.5436139999947045</v>
       </c>
       <c r="J142" t="n">
-        <v>0.005892821276458872</v>
+        <v>0.005783127659518133</v>
       </c>
     </row>
     <row r="143">
@@ -6245,11 +6245,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>[0.9899469017982483, 0.9850121736526489, 0.9850200414657593, 0.959665060043335, 0.9633831977844238, 0.9640166759490967, 0.9872046709060669, 0.9931957721710205, 0.9912899732589722, 0.9930129647254944, 0.9923306703567505, 0.9912965297698975, 0.989582896232605, 0.9929434657096863, 0.9919602274894714, 0.9927567839622498, 0.9961064457893372, 0.9959651231765747, 0.9851147532463074, 0.9816523194313049, 0.9855985045433044, 0.9907434582710266, 0.9889476299285889, 0.9926849603652954, 0.9918792843818665, 0.9904048442840576, 0.9885385632514954, 0.9864411950111389, 0.9835529327392578, 0.9918319582939148, 0.9866190552711487, 0.9938977360725403, 0.9947304725646973, 0.9938659071922302, 0.9931690692901611, 0.9928035140037537, 0.9939344525337219, 0.9943068623542786, 0.9920533895492554, 0.9939002990722656, 0.9958391189575195, 0.9914377331733704, 0.9898648858070374, 0.9837952852249146, 0.9840542674064636, 0.9288080334663391, 0.9909570217132568, 0.9891073107719421, 0.9833906888961792, 0.9898836016654968, 0.9579155445098877, 0.9626569151878357, 0.9829291105270386, 0.979530394077301, 0.9854480624198914, 0.9911732077598572, 0.9916272163391113, 0.9915937185287476, 0.993883490562439, 0.9940193891525269, 0.9900424480438232, 0.9921419620513916, 0.9925329685211182, 0.9871991276741028, 0.989264726638794, 0.9864180088043213, 0.9866451621055603, 0.991380512714386, 0.9948101043701172, 0.9942089319229126, 0.9895998239517212, 0.9951411485671997, 0.9931598901748657, 0.9906737208366394, 0.9896124005317688, 0.985576331615448, 0.9889758825302124, 0.9914699196815491, 0.9945021867752075, 0.9943880438804626, 0.9951747059822083, 0.995646059513092, 0.9961597919464111, 0.9946532249450684, 0.9951692223548889, 0.9941055774688721, 0.9931389689445496, 0.9905405044555664, 0.9903550148010254, 0.9898906946182251, 0.9924885034561157, 0.9907211065292358, 0.9923768043518066, 0.9894551634788513, 0.989085853099823, 0.9926964044570923, 0.9949933886528015, 0.9959917664527893, 0.9950751662254333, 0.9936738014221191, 0.9861671328544617, 0.9844547510147095, 0.9950047135353088, 0.9864408373832703, 0.9935654997825623, 0.9918943047523499, 0.9917677640914917, 0.9930189251899719, 0.9875560402870178, 0.9813660383224487, 0.9820336699485779, 0.9798364043235779, 0.9768121838569641, 0.9569671750068665, 0.9744390845298767, 0.9895976185798645, 0.9880345463752747, 0.9860444068908691, 0.9800049066543579, 0.9767236709594727, 0.9883298873901367, 0.9891921877861023, 0.9760224223136902, 0.9882805347442627, 0.9947360157966614, 0.9928885102272034, 0.9906964302062988, 0.9930751323699951, 0.9924089908599854, 0.989410936832428, 0.9925835132598877, 0.9931482672691345, 0.9840818643569946, 0.9878877997398376, 0.9908485412597656, 0.9876904487609863, 0.988800048828125, 0.9947376847267151, 0.9947378039360046]</t>
+          <t>[0.9969403743743896, 0.9951884746551514, 0.9949468970298767, 0.9821350574493408, 0.9856941103935242, 0.9861413240432739, 0.9955145716667175, 0.9978049397468567, 0.9973695278167725, 0.9977243542671204, 0.99696284532547, 0.9970833659172058, 0.9964291453361511, 0.9974963068962097, 0.997079610824585, 0.9973899722099304, 0.9986979961395264, 0.9985724687576294, 0.9950112104415894, 0.9940075874328613, 0.9945440292358398, 0.996665894985199, 0.9957889914512634, 0.9975107908248901, 0.9977444410324097, 0.9973326921463013, 0.9957903027534485, 0.9951706528663635, 0.9946554899215698, 0.997364342212677, 0.9961193799972534, 0.9982067346572876, 0.9983306527137756, 0.9979828596115112, 0.9977189898490906, 0.9977546334266663, 0.9980898499488831, 0.9981143474578857, 0.9974373579025269, 0.9979614019393921, 0.9986090064048767, 0.996459424495697, 0.9959070682525635, 0.9930878281593323, 0.9932258725166321, 0.9593397974967957, 0.996444046497345, 0.9960838556289673, 0.9937775135040283, 0.9966819882392883, 0.9833109378814697, 0.982559323310852, 0.9943885207176208, 0.9923368096351624, 0.995090126991272, 0.9967983365058899, 0.9974421262741089, 0.9973847270011902, 0.9980339407920837, 0.9979204535484314, 0.9965608716011047, 0.9971721768379211, 0.9976561069488525, 0.9963512420654297, 0.9962579011917114, 0.9959388971328735, 0.9954712390899658, 0.9972050786018372, 0.9983384609222412, 0.9980915188789368, 0.9966108202934265, 0.9983813762664795, 0.9976054430007935, 0.9971068501472473, 0.9965143799781799, 0.9954434633255005, 0.9964450001716614, 0.9972773194313049, 0.9980186223983765, 0.9983857870101929, 0.9985100626945496, 0.9985815286636353, 0.9987677335739136, 0.9980315566062927, 0.998384952545166, 0.9980323910713196, 0.9977485537528992, 0.9957107305526733, 0.9965862035751343, 0.9961748123168945, 0.9970953464508057, 0.9960392713546753, 0.9973136782646179, 0.9967166781425476, 0.9966498017311096, 0.9975608587265015, 0.9983158111572266, 0.9985364675521851, 0.9984250068664551, 0.9981240630149841, 0.9947500824928284, 0.99326092004776, 0.9983282685279846, 0.9957578778266907, 0.99787437915802, 0.9974800944328308, 0.996924102306366, 0.9976701140403748, 0.9953651428222656, 0.992928683757782, 0.9927247762680054, 0.9922487735748291, 0.990638256072998, 0.9798827767372131, 0.9885590672492981, 0.9965366125106812, 0.9953663349151611, 0.9948036074638367, 0.9932128190994263, 0.992731511592865, 0.9964213371276855, 0.9970314502716064, 0.9922546148300171, 0.996040940284729, 0.9981452226638794, 0.9976578950881958, 0.996817946434021, 0.9980584979057312, 0.9972077012062073, 0.996526300907135, 0.9976207613945007, 0.9973524808883667, 0.9943999648094177, 0.9961737990379333, 0.9968796968460083, 0.9961104989051819, 0.9960825443267822, 0.9982402324676514, 0.9982396364212036]</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.9961597919464111</v>
+        <v>0.9987677335739136</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
@@ -6263,10 +6263,10 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0.8065595999942161</v>
+        <v>0.8042637000035029</v>
       </c>
       <c r="J143" t="n">
-        <v>0.005802587050318102</v>
+        <v>0.005786069784197862</v>
       </c>
     </row>
     <row r="144">
@@ -6285,11 +6285,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>[0.9457011818885803, 0.9885407090187073, 0.9867618083953857, 0.9866781234741211, 0.9876048564910889, 0.9803707599639893, 0.9904876351356506, 0.9938899278640747, 0.9864963889122009, 0.9842379689216614, 0.9887329339981079, 0.9884536862373352, 0.9838288426399231, 0.9375931024551392, 0.9453526139259338, 0.7911926507949829, 0.8807532787322998, 0.9719927906990051, 0.988132894039154, 0.9798616170883179, 0.9852493405342102, 0.9859651327133179, 0.98489910364151, 0.9902779459953308, 0.9932767152786255, 0.992905855178833, 0.9736658930778503, 0.9908213019371033, 0.9920885562896729, 0.9893264770507812, 0.9872204065322876, 0.9869014620780945, 0.9900369644165039, 0.9826222658157349, 0.9891101121902466, 0.9776636362075806, 0.9873578548431396, 0.9849498271942139, 0.9691604375839233, 0.9840514063835144, 0.9780969023704529, 0.9940004348754883, 0.9797234535217285, 0.9848723411560059, 0.9908401370048523, 0.9928324222564697, 0.9917110204696655, 0.9926591515541077, 0.9895097017288208, 0.9888408780097961, 0.98711758852005, 0.9923833012580872, 0.9829422235488892, 0.9850244522094727, 0.9847533702850342, 0.977732241153717, 0.9859057664871216, 0.9829476475715637, 0.9813753366470337, 0.9783440828323364, 0.9431712031364441, 0.9303027987480164, 0.9845471978187561, 0.9820229411125183, 0.9873994588851929, 0.9905446767807007, 0.9892072677612305, 0.9837217926979065, 0.9824771285057068, 0.9794091582298279, 0.9767250418663025, 0.9931036829948425, 0.9917246699333191, 0.9845106601715088, 0.9886660575866699, 0.9898995757102966, 0.9909817576408386, 0.9885513782501221, 0.989300012588501, 0.9834422469139099, 0.9811954498291016, 0.9837833046913147, 0.9886944890022278, 0.9898684024810791, 0.9867138266563416, 0.9856781363487244, 0.9904041290283203, 0.9822362661361694, 0.9864417314529419, 0.9879668354988098, 0.9875303506851196, 0.9941334128379822, 0.992158055305481, 0.9911307096481323, 0.9918748736381531, 0.9867547154426575, 0.9899302124977112, 0.9903541803359985, 0.9884383082389832, 0.9909456968307495, 0.9895659685134888, 0.9902496933937073, 0.9910936951637268, 0.9671269655227661, 0.9140796065330505, 0.948585569858551, 0.9114682674407959, 0.9606912732124329, 0.9809077382087708, 0.9631337523460388, 0.9887211918830872, 0.9920699000358582, 0.9872803092002869, 0.988937258720398, 0.9904457330703735, 0.9818369746208191, 0.9895040988922119, 0.9876058101654053, 0.9735417366027832, 0.982402503490448, 0.9861440658569336, 0.9837540984153748, 0.9921995997428894, 0.9925642609596252, 0.9892789721488953, 0.986055850982666, 0.9669302105903625, 0.9797385931015015, 0.9832742810249329, 0.988009512424469, 0.9876376390457153, 0.9903926849365234, 0.9890778064727783, 0.9880442023277283, 0.9909014701843262, 0.9928429126739502, 0.9940500259399414, 0.9938767552375793, 0.9938836097717285]</t>
+          <t>[0.9828137159347534, 0.9965104460716248, 0.9958117008209229, 0.9951446652412415, 0.9947013854980469, 0.9938639402389526, 0.9969011545181274, 0.9980200529098511, 0.9949104189872742, 0.9950213432312012, 0.9960913062095642, 0.9958139061927795, 0.9953184723854065, 0.9884195327758789, 0.9875870943069458, 0.9482568502426147, 0.9733278751373291, 0.9936142563819885, 0.9962058067321777, 0.9943391680717468, 0.9958376884460449, 0.9961251616477966, 0.9954849481582642, 0.9974783062934875, 0.9973738193511963, 0.9975451827049255, 0.9891552329063416, 0.9970092177391052, 0.9973090887069702, 0.9965820908546448, 0.9956972599029541, 0.9952250719070435, 0.9965397119522095, 0.9935343265533447, 0.9966339468955994, 0.9926508069038391, 0.9959808588027954, 0.9947946667671204, 0.9895545244216919, 0.9935291409492493, 0.9939063191413879, 0.9980635046958923, 0.9915767908096313, 0.9938119649887085, 0.9965572357177734, 0.9974660873413086, 0.9971925616264343, 0.9975322484970093, 0.9956692457199097, 0.9960501790046692, 0.9952164888381958, 0.997040331363678, 0.9946866035461426, 0.9947806000709534, 0.9948951601982117, 0.9937938451766968, 0.9963340759277344, 0.9938487410545349, 0.9945288300514221, 0.9930632710456848, 0.9848273992538452, 0.9802170991897583, 0.9960275888442993, 0.9936140179634094, 0.9947538375854492, 0.9968785047531128, 0.9952397346496582, 0.9946828484535217, 0.9935013651847839, 0.9919672608375549, 0.9900251626968384, 0.9975919723510742, 0.9969443678855896, 0.9945553541183472, 0.9963341951370239, 0.9961326122283936, 0.9966641068458557, 0.9966224431991577, 0.9966637492179871, 0.9955821633338928, 0.9947234392166138, 0.9954089522361755, 0.996590256690979, 0.9966468214988708, 0.9954686164855957, 0.9946923851966858, 0.9967164397239685, 0.9941616654396057, 0.995202898979187, 0.9959189295768738, 0.9953485131263733, 0.9980111122131348, 0.9968039989471436, 0.9972376823425293, 0.9968626499176025, 0.9938878417015076, 0.9955747127532959, 0.9964171648025513, 0.9960110187530518, 0.9960989952087402, 0.9962974190711975, 0.99664306640625, 0.9972860813140869, 0.9901303648948669, 0.9780445694923401, 0.9845539927482605, 0.9680569171905518, 0.9926673769950867, 0.9953938722610474, 0.9919776916503906, 0.9961532950401306, 0.9972338080406189, 0.9960087537765503, 0.9962165951728821, 0.9964718818664551, 0.9922888875007629, 0.9953563809394836, 0.9958065748214722, 0.9903647303581238, 0.9919314980506897, 0.9952189326286316, 0.9945310950279236, 0.9972990155220032, 0.9975900650024414, 0.9964827299118042, 0.9960911870002747, 0.9905602335929871, 0.9936650991439819, 0.9948429465293884, 0.9953094124794006, 0.9960741996765137, 0.996755063533783, 0.9965813755989075, 0.9960882663726807, 0.9970800280570984, 0.9975576400756836, 0.9980176687240601, 0.997819185256958, 0.997820258140564]</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.9941334128379822</v>
+        <v>0.9980635046958923</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
@@ -6303,10 +6303,10 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0.7998592000221834</v>
+        <v>0.8175478000048315</v>
       </c>
       <c r="J144" t="n">
-        <v>0.005754382733972542</v>
+        <v>0.005881638848955623</v>
       </c>
     </row>
     <row r="145">
@@ -6325,11 +6325,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>[0.9874222278594971, 0.9907163381576538, 0.9852976202964783, 0.9890102744102478, 0.9764449000358582, 0.9720990061759949, 0.9801979064941406, 0.976804792881012, 0.989364504814148, 0.9867674708366394, 0.9689818024635315, 0.9786181449890137, 0.9856552481651306, 0.9843109250068665, 0.9901795387268066, 0.978548526763916, 0.9805567264556885, 0.9839327335357666, 0.9844411611557007, 0.9834766387939453, 0.9884955883026123, 0.9867357015609741, 0.9901726245880127, 0.9876965880393982, 0.9886053204536438, 0.9842956066131592, 0.9672027826309204, 0.9767233729362488, 0.9737305641174316, 0.9784073233604431, 0.98336261510849, 0.8346562385559082, 0.8984341025352478, 0.981073260307312, 0.9826138615608215, 0.9904022216796875, 0.9871806502342224, 0.988201916217804, 0.9913665652275085, 0.9870480895042419, 0.9838274717330933, 0.9858732223510742, 0.9848350286483765, 0.9908543825149536, 0.9790372848510742, 0.9610852599143982, 0.9818022847175598, 0.9743261337280273, 0.9654042720794678, 0.975182294845581, 0.9811668992042542, 0.9812189936637878, 0.9648424983024597, 0.9750640988349915, 0.9776456356048584, 0.9820152521133423, 0.9791865348815918, 0.9754074215888977, 0.9642065763473511, 0.9853973984718323, 0.9823708534240723, 0.9845172762870789, 0.9822700619697571, 0.9893701076507568, 0.9878694415092468, 0.986700177192688, 0.9866564273834229, 0.9869945645332336, 0.9853427410125732, 0.9857590198516846, 0.9692520499229431, 0.970310628414154, 0.977549135684967, 0.955052375793457, 0.9426999688148499, 0.8408799171447754, 0.6220477223396301, 0.8255168795585632, 0.9540930986404419, 0.9610933065414429, 0.9441802501678467, 0.9603296518325806, 0.9436847567558289, 0.9563835263252258, 0.9690595865249634, 0.9462713003158569, 0.9868996739387512, 0.9894624352455139, 0.9891084432601929, 0.990571141242981, 0.9745851159095764, 0.9743640422821045, 0.9776847958564758, 0.9638645648956299, 0.9175611138343811, 0.8324975371360779, 0.9755293130874634, 0.9657124280929565, 0.9526886343955994, 0.9721733927726746, 0.9659460783004761, 0.9548285603523254, 0.9682868719100952, 0.9814474582672119, 0.9767572283744812, 0.977977991104126, 0.9675403833389282, 0.9629712104797363, 0.9841867089271545, 0.9877810478210449, 0.9858147501945496, 0.9891493916511536, 0.9902029037475586, 0.9869595170021057, 0.9830469489097595, 0.9734655022621155, 0.9759517908096313, 0.9729974269866943, 0.9441803693771362, 0.9633913636207581, 0.9594041705131531, 0.9774757623672485, 0.9497851729393005, 0.8853161931037903, 0.9788989424705505, 0.9328922033309937, 0.9294292330741882, 0.9608806371688843, 0.9210229516029358, 0.9773336052894592, 0.9840600490570068, 0.9844092726707458, 0.9883586168289185, 0.985867440700531, 0.9702031016349792, 0.9805179834365845, 0.9665353894233704, 0.9810301065444946, 0.9818213582038879, 0.9817711114883423]</t>
+          <t>[0.9955254197120667, 0.9972520470619202, 0.9960069060325623, 0.9961547255516052, 0.9937201738357544, 0.9934426546096802, 0.9937921166419983, 0.9920510649681091, 0.9968761205673218, 0.9962804913520813, 0.9879080653190613, 0.9921355247497559, 0.9946557283401489, 0.9931469559669495, 0.9959327578544617, 0.9916976690292358, 0.9937310218811035, 0.994016170501709, 0.9929724931716919, 0.9917425513267517, 0.9952585101127625, 0.9943807721138, 0.9967796206474304, 0.9956648945808411, 0.9958083629608154, 0.9944692850112915, 0.9826990365982056, 0.9932963252067566, 0.9912394881248474, 0.9928473830223083, 0.9938490986824036, 0.9780644178390503, 0.9774093627929688, 0.9956325888633728, 0.9937193393707275, 0.9966771602630615, 0.9949901700019836, 0.9959853291511536, 0.99708491563797, 0.9956496357917786, 0.9944806098937988, 0.9940233826637268, 0.9940338730812073, 0.9963755011558533, 0.9907910823822021, 0.983534038066864, 0.9913529753684998, 0.9850571751594543, 0.9826650023460388, 0.9892113208770752, 0.9922243356704712, 0.9931849837303162, 0.9820724129676819, 0.9927377104759216, 0.9923251867294312, 0.9942635893821716, 0.9933357238769531, 0.9918395280838013, 0.9873671531677246, 0.9935331344604492, 0.9944327473640442, 0.9944806098937988, 0.9950870871543884, 0.9956653714179993, 0.9953303337097168, 0.994644045829773, 0.9950083494186401, 0.9952412843704224, 0.9947549104690552, 0.99504154920578, 0.990026593208313, 0.9906982779502869, 0.9916090369224548, 0.9868055582046509, 0.9840662479400635, 0.9559304714202881, 0.8424793481826782, 0.9495715498924255, 0.990711510181427, 0.9881075024604797, 0.9841541051864624, 0.9885198473930359, 0.9816681742668152, 0.9832690954208374, 0.9902532696723938, 0.9804688096046448, 0.9945976734161377, 0.9964905381202698, 0.9964269995689392, 0.997168242931366, 0.9910959005355835, 0.9910867810249329, 0.9944366216659546, 0.9885061979293823, 0.9748858213424683, 0.9457663297653198, 0.9924962520599365, 0.9861089587211609, 0.9814426302909851, 0.9906225800514221, 0.9875446557998657, 0.981667160987854, 0.9853876233100891, 0.9921299815177917, 0.9915948510169983, 0.9912240505218506, 0.9878256916999817, 0.98628830909729, 0.9933198690414429, 0.9925360679626465, 0.9949068427085876, 0.9953076243400574, 0.9964606165885925, 0.9951469302177429, 0.9940637946128845, 0.9921278953552246, 0.9920640587806702, 0.9887717366218567, 0.9816858768463135, 0.9877752065658569, 0.9884872436523438, 0.9936113953590393, 0.9909121990203857, 0.9790521860122681, 0.9937877655029297, 0.9825302958488464, 0.9762094616889954, 0.9891436696052551, 0.9768244624137878, 0.9893698692321777, 0.9941868782043457, 0.9947828650474548, 0.9955840706825256, 0.9956564903259277, 0.9909166693687439, 0.9927332401275635, 0.9882310032844543, 0.9946462512016296, 0.9935854077339172, 0.9935722351074219]</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.9913665652275085</v>
+        <v>0.9972520470619202</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
@@ -6343,10 +6343,10 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0.8039571999979671</v>
+        <v>0.8125517999869771</v>
       </c>
       <c r="J145" t="n">
-        <v>0.005742551428556908</v>
+        <v>0.005803941428478408</v>
       </c>
     </row>
     <row r="146">
@@ -6365,11 +6365,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>[0.9113532304763794, 0.9710601568222046, 0.9250155687332153, 0.8998081088066101, 0.9481608867645264, 0.9050317406654358, 0.8125317096710205, 0.26777544617652893, 0.6988301873207092, 0.6349217891693115, 0.6695173382759094, 0.837751030921936, 0.7459697127342224, 0.9012072086334229, 0.7572798728942871, 0.6750190854072571, 0.781170129776001, 0.7532826662063599, 0.8529704809188843, 0.9224995970726013, 0.8606551885604858, 0.7773619890213013, 0.8273394107818604, 0.8057286739349365, 0.8878857493400574, 0.9150151014328003, 0.6391928791999817, 0.6805225610733032, 0.4345116913318634, 0.7825414538383484, 0.5895606279373169, 0.6068446040153503, 0.7837559580802917, 0.5254709720611572, 0.9134788513183594, 0.5526106953620911, 0.9632596969604492, 0.6606985330581665, 0.723873496055603, 0.9396905303001404, 0.8040561079978943, 0.8847306966781616, 0.7497369647026062, 0.6753180027008057, 0.3879392743110657, 0.6914913654327393, 0.6232238411903381, 0.3058978319168091, 0.45260706543922424, 0.21287956833839417, 0.1825990378856659, 0.24434572458267212, 0.6408320665359497, 0.5902453064918518, 0.5933514833450317, 0.34469133615493774, 0.34525763988494873, 0.6210801601409912, 0.564319908618927, 0.726684033870697, 0.6198208928108215, 0.6146726608276367, 0.43911197781562805, 0.48231157660484314, 0.6134296655654907, 0.7387736439704895, 0.6059492826461792, 0.7138682007789612, 0.8938074111938477, 0.8148329257965088, 0.7992666959762573, 0.7372225522994995, 0.8101541996002197, 0.8667029142379761, 0.8351732492446899, 0.8690595626831055, 0.6544644832611084, 0.5282447338104248, 0.8480175137519836, 0.6516357660293579, 0.2577783763408661, 0.3504510521888733, 0.485495388507843, 0.8850660920143127, 0.2929438054561615, 0.48613548278808594, 0.7740257978439331, 0.6684470176696777, 0.8040624260902405, 0.8680746555328369, 0.8199484944343567, 0.899509608745575, 0.7328324317932129, 0.8704564571380615, 0.9308121204376221, 0.9424649477005005, 0.9302676916122437, 0.6987252831459045, 0.8361313343048096, 0.6666664481163025, 0.7164207696914673, 0.9433406591415405, 0.9209567308425903, 0.911525309085846, 0.7962801456451416, 0.3176502287387848, 0.4135788381099701, 0.16099809110164642, 0.2734620273113251, 0.5578808188438416, 0.618263304233551, 0.8735049962997437, 0.8014707565307617, 0.6041982173919678, 0.44106483459472656, 0.6593052744865417, 0.6859594583511353, 0.7662948966026306, 0.7325043678283691, 0.8554530143737793, 0.944187581539154, 0.9383049607276917, 0.47333598136901855, 0.17987924814224243, 0.7940607070922852, 0.8033557534217834, 0.9411531090736389, 0.9173099994659424, 0.9267197847366333, 0.9458972215652466, 0.9569671154022217, 0.8675472140312195, 0.9314668774604797, 0.9409404993057251, 0.7559822201728821, 0.8901380896568298, 0.8455097079277039, 0.8684606552124023, 0.9643127918243408, 0.9641757607460022]</t>
+          <t>[0.9772645235061646, 0.9887385368347168, 0.9764308333396912, 0.9697950482368469, 0.9833683371543884, 0.972732424736023, 0.9409295320510864, 0.5584652423858643, 0.8608095645904541, 0.8768768310546875, 0.91866135597229, 0.9624771475791931, 0.9243162274360657, 0.9777682423591614, 0.9425413608551025, 0.9056104421615601, 0.9495055675506592, 0.9588860869407654, 0.9587765336036682, 0.9812672138214111, 0.9659431576728821, 0.9445617198944092, 0.9423299431800842, 0.9534375667572021, 0.9722959995269775, 0.9733100533485413, 0.9130774736404419, 0.8671455979347229, 0.6490779519081116, 0.9456877708435059, 0.9227507710456848, 0.9130469560623169, 0.9276492595672607, 0.7856011986732483, 0.9706375598907471, 0.8457915782928467, 0.9857418537139893, 0.8896211385726929, 0.9095947742462158, 0.9747430086135864, 0.930942177772522, 0.963064432144165, 0.9235474467277527, 0.9222133755683899, 0.6949709057807922, 0.8818743228912354, 0.8618947863578796, 0.6099985241889954, 0.751924991607666, 0.3981836140155792, 0.2792232036590576, 0.4369446039199829, 0.8968833088874817, 0.8573524951934814, 0.8577739596366882, 0.5882419347763062, 0.5644493699073792, 0.8507258892059326, 0.8195567727088928, 0.9076417088508606, 0.8542725443840027, 0.7867820262908936, 0.5629676580429077, 0.7373479008674622, 0.8621162176132202, 0.9246461391448975, 0.8654373288154602, 0.8577286005020142, 0.9516182541847229, 0.931866466999054, 0.9185609221458435, 0.9191861748695374, 0.9206781387329102, 0.9488620758056641, 0.9217979311943054, 0.9420811533927917, 0.8472455739974976, 0.7927176356315613, 0.9268434643745422, 0.8596598505973816, 0.36430123448371887, 0.6239516139030457, 0.7536033987998962, 0.9567474126815796, 0.5106027126312256, 0.7258243560791016, 0.9282669425010681, 0.8733355402946472, 0.8980835676193237, 0.9453782439231873, 0.9351258277893066, 0.9617476463317871, 0.8819524645805359, 0.9455985426902771, 0.9769712090492249, 0.9846157431602478, 0.9735262393951416, 0.8601387143135071, 0.941061794757843, 0.8807517290115356, 0.8652939796447754, 0.9845024943351746, 0.9567206501960754, 0.971272885799408, 0.9208536148071289, 0.402051717042923, 0.5690101385116577, 0.24576745927333832, 0.46504804491996765, 0.7776070833206177, 0.825624406337738, 0.9377355575561523, 0.9220007658004761, 0.8216097950935364, 0.5863010883331299, 0.8025458455085754, 0.8413410186767578, 0.8865999579429626, 0.8563933372497559, 0.9268068075180054, 0.975326657295227, 0.9681429266929626, 0.6724985837936401, 0.24944466352462769, 0.8802493214607239, 0.8759416937828064, 0.968024730682373, 0.9450960159301758, 0.9735233187675476, 0.9758399128913879, 0.9896039962768555, 0.9573812484741211, 0.9682914614677429, 0.9753977656364441, 0.9015695452690125, 0.9624971151351929, 0.939720869064331, 0.9459764361381531, 0.9867957830429077, 0.9867138266563416]</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.9710601568222046</v>
+        <v>0.9896039962768555</v>
       </c>
       <c r="F146" t="n">
         <v>1</v>
@@ -6383,10 +6383,10 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0.8086477000033483</v>
+        <v>0.8176066000014544</v>
       </c>
       <c r="J146" t="n">
-        <v>0.005776055000023916</v>
+        <v>0.005840047142867531</v>
       </c>
     </row>
     <row r="147">
@@ -6405,11 +6405,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[0.20351062715053558, 0.1754283607006073, 0.09009608626365662, 0.18567565083503723, 0.11855742335319519, 0.1879662126302719, 0.14678624272346497, 0.2048611342906952, 0.22220346331596375, 0.1777571588754654, 0.154869943857193, 0.039928510785102844, 0.16191479563713074, 0.06681978702545166, 0.05431201308965683, 0.05518126115202904, 0.0607040598988533, 0.05415009334683418, 0.04929891601204872, 0.08815062791109085, 0.07099170982837677, 0.048165444284677505, 0.06955777108669281, 0.04544999077916145, 0.056704308837652206, 0.09329821914434433, 0.11040762811899185, 0.2208801805973053, 0.20884786546230316, 0.22393089532852173, 0.3531690239906311, 0.22608233988285065, 0.3543761074542999, 0.23803068697452545, 0.2536676526069641, 0.26620274782180786, 0.5215229392051697, 0.08032079041004181, 0.09455034136772156, 0.06409923732280731, 0.11750593036413193, 0.213936910033226, 0.29822462797164917, 0.3503079116344452, 0.1877860277891159, 0.23354996740818024, 0.17828437685966492, 0.17891526222229004, 0.20435160398483276, 0.19267958402633667, 0.15954169631004333, 0.15593047440052032, 0.22299540042877197, 0.17063067853450775, 0.10353454947471619, 0.18091897666454315, 0.1059083491563797, 0.08673479408025742, 0.08673479408025742]</t>
+          <t>[0.1817270666360855, 0.10992887616157532, 0.039975397288799286, 0.09904662519693375, 0.08930210024118423, 0.1584354192018509, 0.09541425108909607, 0.20429880917072296, 0.19649851322174072, 0.1402551829814911, 0.07959666848182678, 0.022409530356526375, 0.1397654265165329, 0.031041881069540977, 0.024245399981737137, 0.026156773790717125, 0.03698369488120079, 0.032116517424583435, 0.03679674118757248, 0.07915657013654709, 0.04854702949523926, 0.03358202800154686, 0.06171492114663124, 0.025581195950508118, 0.0368829146027565, 0.12979932129383087, 0.15280316770076752, 0.19998320937156677, 0.21372047066688538, 0.1579436957836151, 0.27285730838775635, 0.11612723767757416, 0.23089474439620972, 0.1296577900648117, 0.1830003410577774, 0.2633432447910309, 0.4951944351196289, 0.050483912229537964, 0.06525691598653793, 0.03639443591237068, 0.08185216039419174, 0.1376812607049942, 0.26382774114608765, 0.2660817801952362, 0.16216978430747986, 0.28349947929382324, 0.13903605937957764, 0.12021777778863907, 0.14759929478168488, 0.11518732458353043, 0.1264851987361908, 0.12377931922674179, 0.19785599410533905, 0.16894041001796722, 0.08078180998563766, 0.12507520616054535, 0.07317691296339035, 0.04912484064698219, 0.04912484064698219]</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.5215229392051697</v>
+        <v>0.4951944351196289</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
@@ -6423,10 +6423,10 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0.4600076999922749</v>
+        <v>0.4548559000104433</v>
       </c>
       <c r="J147" t="n">
-        <v>0.007796740677835167</v>
+        <v>0.00770942203407531</v>
       </c>
     </row>
     <row r="148">
@@ -6445,11 +6445,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[0.10040589421987534, 0.0851043164730072, 0.10683717578649521, 0.04950043931603432, 0.08111220598220825, 0.07012985646724701, 0.0809081569314003, 0.09737540781497955, 0.08653993159532547, 0.06896412372589111, 0.06259552389383316, 0.05743587017059326, 0.052341777831315994, 0.23618608713150024, 0.19123221933841705, 0.6134481430053711, 0.44394415616989136, 0.4007587134838104, 0.15993566811084747, 0.22912658751010895, 0.20327763259410858, 0.17204509675502777, 0.1698312908411026, 0.27946680784225464, 0.48268526792526245, 0.31759777665138245, 0.49841901659965515, 0.2256569266319275, 0.41438087821006775, 0.3383021354675293, 0.8226071000099182, 0.4485109746456146, 0.2564665377140045, 0.1490231156349182, 0.08209119737148285, 0.3496110737323761, 0.16079622507095337, 0.11478684842586517, 0.0885004922747612, 0.12821075320243835, 0.1102268397808075, 0.09953271597623825, 0.06938447058200836, 0.09002003818750381, 0.03674822673201561, 0.05094775930047035, 0.04265521466732025, 0.11430452018976212, 0.05829210579395294, 0.7339481115341187, 0.8834103941917419, 0.9502854943275452, 0.8925134539604187, 0.978175938129425, 0.4190574586391449, 0.5306617021560669, 0.866510272026062, 0.9612135887145996, 0.8955706357955933, 0.9623628258705139, 0.9437941908836365, 0.9160107970237732, 0.8050934672355652, 0.9715368747711182, 0.904979407787323, 0.968930721282959, 0.9450976252555847, 0.8189288973808289, 0.9068982005119324, 0.957333505153656, 0.6744304299354553, 0.9519920945167542, 0.9183946251869202, 0.9445798993110657, 0.7852956056594849, 0.9295478463172913, 0.7261720299720764, 0.663158655166626, 0.22632484138011932, 0.43158528208732605, 0.7256779074668884, 0.3610023856163025, 0.41395753622055054, 0.37522420287132263, 0.3463197946548462, 0.43808403611183167, 0.6557519435882568, 0.8807190656661987, 0.9318380355834961, 0.9432973861694336, 0.33512136340141296, 0.5268067717552185, 0.8182264566421509, 0.9303537607192993, 0.9346731901168823, 0.8808030486106873, 0.9478784799575806, 0.9367571473121643, 0.9358413815498352, 0.6119477152824402, 0.8542636036872864, 0.47063690423965454, 0.4411461651325226, 0.9410539865493774, 0.9837395548820496, 0.9068118333816528, 0.9505006074905396, 0.9188312888145447, 0.9087552428245544, 0.980593740940094, 0.733833909034729, 0.5642120242118835, 0.3495089113712311, 0.07804539054632187, 0.23747722804546356, 0.7228731513023376, 0.23649659752845764, 0.23616187274456024]</t>
+          <t>[0.06786853820085526, 0.05310797691345215, 0.05669758468866348, 0.03306211531162262, 0.04873237758874893, 0.032079216092824936, 0.05720033496618271, 0.07342986017465591, 0.06353486329317093, 0.043311044573783875, 0.03904929384589195, 0.04591289907693863, 0.05253935605287552, 0.31974929571151733, 0.2601328194141388, 0.8409728407859802, 0.728192150592804, 0.5826389789581299, 0.1773415058851242, 0.37849166989326477, 0.3436930775642395, 0.3442620038986206, 0.28111615777015686, 0.6016954183578491, 0.5739077925682068, 0.5253227353096008, 0.6573059558868408, 0.40956783294677734, 0.6818079948425293, 0.3786154091358185, 0.9499223828315735, 0.6395614147186279, 0.39346593618392944, 0.1936168074607849, 0.07321131229400635, 0.41528210043907166, 0.12990593910217285, 0.1548893004655838, 0.05440156161785126, 0.17143303155899048, 0.10883559286594391, 0.10084997862577438, 0.045698750764131546, 0.06301788240671158, 0.036631014198064804, 0.03395387902855873, 0.020709922537207603, 0.08212713152170181, 0.05312400683760643, 0.7984758019447327, 0.9507614374160767, 0.9855023622512817, 0.9696922898292542, 0.9934225678443909, 0.6756089329719543, 0.8582853674888611, 0.9771831035614014, 0.9915851354598999, 0.9806795120239258, 0.9920663833618164, 0.9898792505264282, 0.9813692569732666, 0.9591647982597351, 0.9932548403739929, 0.9746698141098022, 0.9925131797790527, 0.988486647605896, 0.9266213774681091, 0.9690666198730469, 0.9917804598808289, 0.9202176332473755, 0.9835468530654907, 0.9839389324188232, 0.9877215027809143, 0.9373761415481567, 0.9872711300849915, 0.9129830598831177, 0.8622509241104126, 0.5436663627624512, 0.7694574594497681, 0.9356821179389954, 0.4969041049480438, 0.6450799107551575, 0.7477957606315613, 0.5183238387107849, 0.6210103631019592, 0.8913372755050659, 0.9566406607627869, 0.9863560199737549, 0.9877932667732239, 0.42490828037261963, 0.8474196791648865, 0.9545246362686157, 0.9839502573013306, 0.9836961030960083, 0.9727253317832947, 0.9870368242263794, 0.9896441698074341, 0.9868850708007812, 0.8607414364814758, 0.9648884534835815, 0.7561261057853699, 0.6565154790878296, 0.9799479246139526, 0.9951553344726562, 0.9732016324996948, 0.9873013496398926, 0.9766228199005127, 0.9844001531600952, 0.9962816834449768, 0.9132153391838074, 0.8260324597358704, 0.6119571328163147, 0.09898832440376282, 0.37255731225013733, 0.9276919364929199, 0.340044230222702, 0.3392457962036133]</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.9837395548820496</v>
+        <v>0.9962816834449768</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
@@ -6463,10 +6463,10 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0.6793164999980945</v>
+        <v>0.6860440999880666</v>
       </c>
       <c r="J148" t="n">
-        <v>0.005756919491509275</v>
+        <v>0.005813933050746327</v>
       </c>
     </row>
     <row r="149">
@@ -6485,11 +6485,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>[0.15928053855895996, 0.2860877513885498, 0.5672767162322998, 0.7149679660797119, 0.8668211698532104, 0.804496169090271, 0.7576514482498169, 0.6212152242660522, 0.5736489295959473, 0.5367578268051147, 0.6246889233589172, 0.5413733124732971, 0.8967490792274475, 0.8965709209442139, 0.9383885264396667, 0.9555667638778687, 0.9547814726829529, 0.9255854487419128, 0.893044114112854, 0.8941212296485901, 0.7922593951225281, 0.7218754887580872, 0.15844199061393738, 0.8562491536140442, 0.6868728399276733, 0.4044215977191925, 0.26395168900489807, 0.36831700801849365, 0.18710629642009735, 0.09437573701143265, 0.13794822990894318, 0.3435899019241333, 0.4048381447792053, 0.25978443026542664, 0.08151090145111084, 0.2552989423274994, 0.14227046072483063, 0.14208751916885376, 0.11636795103549957, 0.1544562429189682, 0.8787299990653992, 0.8804633021354675, 0.9191349148750305, 0.8094048500061035, 0.4764164388179779, 0.2825123965740204, 0.8868913650512695, 0.8900261521339417, 0.8511208295822144, 0.925787627696991, 0.89725661277771, 0.909522294998169, 0.9277543425559998, 0.940934956073761, 0.9187642335891724, 0.947618842124939, 0.9558560252189636, 0.9050827026367188, 0.3156529664993286, 0.15755914151668549, 0.8620131015777588, 0.8747621774673462, 0.14967744052410126, 0.4353450536727905, 0.5928927063941956, 0.3140755891799927, 0.2522803544998169, 0.1201576367020607, 0.11051645129919052, 0.21741582453250885, 0.1701907068490982, 0.1049385666847229, 0.12671232223510742, 0.08256349712610245, 0.12176911532878876, 0.07341010868549347, 0.1563607156276703, 0.8425804376602173, 0.9559468030929565, 0.9248341917991638, 0.7648611068725586, 0.571202278137207, 0.5308321118354797, 0.29898959398269653, 0.7556512951850891, 0.6543051600456238, 0.9055366516113281, 0.8349296450614929, 0.9192375540733337, 0.8435957431793213, 0.8779226541519165, 0.9560456871986389, 0.8718673586845398, 0.8679735660552979, 0.9617658257484436, 0.37469717860221863, 0.28849563002586365, 0.6469727158546448, 0.8997375965118408, 0.7612459659576416, 0.6753584146499634, 0.18144915997982025, 0.18397492170333862, 0.31917881965637207, 0.1580616533756256, 0.09751604497432709, 0.32863301038742065, 0.17630848288536072, 0.43479180335998535, 0.43187662959098816, 0.21276400983333588, 0.33346477150917053, 0.10091651231050491, 0.4524126350879669, 0.46876487135887146, 0.8708041310310364, 0.8148210644721985, 0.8152385950088501]</t>
+          <t>[0.3830501139163971, 0.5710814595222473, 0.8594744205474854, 0.9088535904884338, 0.9725220799446106, 0.9332373142242432, 0.9355795979499817, 0.8147938847541809, 0.8316431641578674, 0.8113217949867249, 0.8803864121437073, 0.8239948749542236, 0.9742567539215088, 0.9761958122253418, 0.9861141443252563, 0.9882949590682983, 0.9907011985778809, 0.983878493309021, 0.980089545249939, 0.9814236760139465, 0.9663251638412476, 0.9345962405204773, 0.16893520951271057, 0.9691368341445923, 0.9382420182228088, 0.591667890548706, 0.4113561511039734, 0.49630722403526306, 0.18012402951717377, 0.1066051796078682, 0.18764939904212952, 0.47378668189048767, 0.5342973470687866, 0.37761950492858887, 0.09583630412817001, 0.40063557028770447, 0.2519165575504303, 0.18429800868034363, 0.13664354383945465, 0.35803651809692383, 0.9807050824165344, 0.9758015871047974, 0.9883967041969299, 0.9756515622138977, 0.8900706768035889, 0.7036265730857849, 0.9888715147972107, 0.9885870814323425, 0.9842619895935059, 0.9884767532348633, 0.980430006980896, 0.9801794290542603, 0.9918243288993835, 0.9913235902786255, 0.9861646294593811, 0.9920883774757385, 0.9914484024047852, 0.9859989881515503, 0.8651078343391418, 0.44151878356933594, 0.9737093448638916, 0.9747991561889648, 0.3341963589191437, 0.7266684174537659, 0.8747250437736511, 0.6636552214622498, 0.6482433080673218, 0.28967753052711487, 0.10630348324775696, 0.45016515254974365, 0.406213641166687, 0.15777507424354553, 0.2042386382818222, 0.11247289180755615, 0.1594848483800888, 0.12665188312530518, 0.43199557065963745, 0.9794123768806458, 0.9874070286750793, 0.9846983551979065, 0.954566478729248, 0.9313479065895081, 0.8954561352729797, 0.7595216035842896, 0.9648557305335999, 0.9345780611038208, 0.9855974316596985, 0.9799287915229797, 0.9878714084625244, 0.9751957058906555, 0.9755595326423645, 0.9907307028770447, 0.9795859456062317, 0.9794121384620667, 0.9932910203933716, 0.7331984639167786, 0.6202294230461121, 0.9241943359375, 0.9776305556297302, 0.9683251976966858, 0.8991636633872986, 0.26717111468315125, 0.30880793929100037, 0.5023968815803528, 0.28359726071357727, 0.20221751928329468, 0.7335989475250244, 0.32114630937576294, 0.7962679266929626, 0.7424719333648682, 0.4458766579627991, 0.6264635920524597, 0.07127995789051056, 0.7248609662055969, 0.756687343120575, 0.9772258400917053, 0.9396704435348511, 0.939825177192688]</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.9617658257484436</v>
+        <v>0.9932910203933716</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
@@ -6503,10 +6503,10 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0.6729739000147674</v>
+        <v>0.6738034000009065</v>
       </c>
       <c r="J149" t="n">
-        <v>0.005703168644192944</v>
+        <v>0.005710198305092428</v>
       </c>
     </row>
     <row r="150">
@@ -6525,11 +6525,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>[0.02828074060380459, 0.028958382084965706, 0.04672246426343918, 0.029386982321739197, 0.03040415793657303, 0.03468995541334152, 0.02400880679488182, 0.0211110170930624, 0.0183295626193285, 0.02591673843562603, 0.04167485237121582, 0.03223779425024986, 0.026250125840306282, 0.0333542674779892, 0.02659103460609913, 0.039204955101013184, 0.07093387842178345, 0.07430785149335861, 0.05779610201716423, 0.07726473361253738, 0.06209881603717804, 0.07669807970523834, 0.0792723000049591, 0.05292407050728798, 0.04208247736096382, 0.032307468354701996, 0.05006368085741997, 0.05281342938542366, 0.0566631443798542, 0.09817767143249512, 0.07686807215213776, 0.07648175954818726, 0.07195451110601425, 0.039375342428684235, 0.06075478717684746, 0.07237089425325394, 0.06592737138271332, 0.05510697513818741, 0.04935036227107048, 0.05382426828145981, 0.042812980711460114, 0.06285245716571808, 0.028141116723418236, 0.09008581936359406, 0.08399863541126251, 0.03903654217720032, 0.03434218466281891, 0.07895316928625107, 0.049556341022253036, 0.05744842067360878, 0.0533636175096035, 0.04946652799844742, 0.12560337781906128, 0.1755555123090744, 0.07432450354099274, 0.04931224510073662, 0.055025145411491394, 0.06111060455441475, 0.0979844406247139, 0.05343518406152725, 0.06775712966918945, 0.04458005726337433, 0.06114283204078674, 0.049512144178152084, 0.0633961632847786, 0.04891684278845787, 0.04378794878721237, 0.05504355952143669, 0.05631299689412117, 0.06717871129512787, 0.11431607604026794, 0.057181671261787415, 0.06863857060670853, 0.06344899535179138, 0.05029328912496567, 0.14238597452640533, 0.07472417503595352, 0.12995682656764984, 0.11309277266263962, 0.26429468393325806, 0.1541072279214859, 0.09541364014148712, 0.18422582745552063, 0.2046695202589035, 0.16835694015026093, 0.18083029985427856, 0.14924198389053345, 0.12060505896806717, 0.17423707246780396, 0.06411933153867722, 0.08890654891729355, 0.04814029857516289, 0.049327485263347626, 0.05924587696790695, 0.03680071979761124, 0.043346110731363297, 0.05213862657546997, 0.04488596320152283, 0.037706807255744934, 0.047054145485162735, 0.035040806978940964, 0.039759814739227295, 0.03134806454181671, 0.02836420387029648, 0.03540128841996193, 0.032919544726610184, 0.031647466123104095, 0.03569493442773819, 0.05067750811576843, 0.039059437811374664, 0.051018375903367996, 0.051305387169122696, 0.13625267148017883, 0.04372444376349449, 0.05491654947400093, 0.04337458312511444, 0.1029101014137268, 0.10441075265407562]</t>
+          <t>[0.010276694782078266, 0.009498504921793938, 0.013515349477529526, 0.010156652890145779, 0.008812258020043373, 0.011924232356250286, 0.009195984341204166, 0.0067540425807237625, 0.005597387906163931, 0.008645379915833473, 0.013172557577490807, 0.011668347753584385, 0.009824389591813087, 0.009576886892318726, 0.009063834324479103, 0.014717277139425278, 0.03252168372273445, 0.03377154469490051, 0.027623245492577553, 0.027754781767725945, 0.025791557505726814, 0.036890629678964615, 0.048095688223838806, 0.023320699110627174, 0.013014321215450764, 0.012628289870917797, 0.020643750205636024, 0.03493039682507515, 0.032121263444423676, 0.08278857171535492, 0.0439179427921772, 0.037765055894851685, 0.04363030567765236, 0.011844640597701073, 0.0312338974326849, 0.024679135531187057, 0.020977167412638664, 0.019414065405726433, 0.017287477850914, 0.018036525696516037, 0.024202248081564903, 0.027857810258865356, 0.014985292218625546, 0.059058114886283875, 0.057546768337488174, 0.02988225594162941, 0.01708550937473774, 0.049763984978199005, 0.027287550270557404, 0.02417869307100773, 0.021283816546201706, 0.01992110162973404, 0.04550827294588089, 0.08038850128650665, 0.03391106799244881, 0.016041094437241554, 0.023283127695322037, 0.027315091341733932, 0.05577828362584114, 0.020323844626545906, 0.02726050280034542, 0.01420897338539362, 0.02591884136199951, 0.0185212604701519, 0.023803673684597015, 0.014972880482673645, 0.015366697683930397, 0.02376861870288849, 0.02061818167567253, 0.025424307212233543, 0.050898972898721695, 0.023648085072636604, 0.030210381373763084, 0.02655802108347416, 0.020774349570274353, 0.07471310347318649, 0.02695319801568985, 0.04848681762814522, 0.05364576354622841, 0.11680387705564499, 0.0631602555513382, 0.05357208475470543, 0.10800458490848541, 0.11045325547456741, 0.06730519980192184, 0.09709779173135757, 0.08325064927339554, 0.07520558685064316, 0.08624254912137985, 0.03328626602888107, 0.05368773266673088, 0.030130160972476006, 0.026243502274155617, 0.02911008894443512, 0.015108220279216766, 0.015943605452775955, 0.02298189327120781, 0.020288554951548576, 0.01487256120890379, 0.020102843642234802, 0.015212084166705608, 0.017906203866004944, 0.014164373278617859, 0.011047554202377796, 0.014659225940704346, 0.014699786901473999, 0.013154643587768078, 0.014248864725232124, 0.021757248789072037, 0.014331028796732426, 0.017396582290530205, 0.021976586431264877, 0.07166888564825058, 0.019933590665459633, 0.024523498490452766, 0.02038033865392208, 0.058751948177814484, 0.05968153476715088]</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.2642946839332581</v>
+        <v>0.116803877055645</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
@@ -6543,10 +6543,10 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0.6808747000177391</v>
+        <v>0.6798865999880945</v>
       </c>
       <c r="J150" t="n">
-        <v>0.005770124576421518</v>
+        <v>0.005761750847356733</v>
       </c>
     </row>
     <row r="151">
@@ -6565,11 +6565,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>[0.995471715927124, 0.9945453405380249, 0.9950804710388184, 0.9947507977485657, 0.993916928768158, 0.9905431866645813, 0.993855893611908, 0.9943603873252869, 0.994936466217041, 0.9923624992370605, 0.9918649792671204, 0.9919547438621521, 0.9892269372940063, 0.9906326532363892, 0.988740861415863, 0.9830428957939148, 0.9911250472068787, 0.9930033087730408, 0.9899999499320984, 0.9913860559463501, 0.9935261011123657, 0.988970160484314, 0.9924680590629578, 0.9925334453582764, 0.9905667901039124, 0.9925912618637085, 0.990830659866333, 0.9936822652816772, 0.9914364218711853, 0.9845666289329529, 0.9892092347145081, 0.9942789077758789, 0.9914698004722595, 0.9877418279647827, 0.9913936257362366, 0.9943291544914246, 0.9930705428123474, 0.9930071830749512, 0.9941933751106262, 0.9921516180038452, 0.9912466406822205, 0.9877128601074219, 0.9852730631828308, 0.9927697777748108, 0.9872838258743286, 0.992554247379303, 0.9921942949295044, 0.9948896169662476, 0.9936491847038269, 0.9896560907363892, 0.9870589971542358, 0.9860868453979492, 0.9196786880493164, 0.9549957513809204, 0.9516640901565552, 0.9721390008926392, 0.9651251435279846, 0.9665288329124451, 0.9783995747566223, 0.9128970503807068, 0.9672494530677795, 0.9758968353271484, 0.9791877865791321, 0.9894380569458008, 0.9904630780220032, 0.9927622675895691, 0.9936593174934387, 0.9927090406417847, 0.9876791834831238, 0.9938156604766846, 0.9890472292900085, 0.99216228723526, 0.9886043071746826, 0.9374775290489197, 0.9828821420669556, 0.989615797996521, 0.9882936477661133, 0.9676769971847534, 0.9701904058456421, 0.981622040271759, 0.9821885228157043, 0.9814566373825073, 0.9837825894355774, 0.9935587048530579, 0.9909436106681824, 0.9932370781898499, 0.9936416745185852, 0.9894896149635315, 0.9923321008682251, 0.9878419637680054, 0.9570522308349609, 0.9650382995605469, 0.9629688858985901, 0.9419334530830383, 0.9772493839263916, 0.9509612321853638, 0.9558094143867493, 0.9547488689422607, 0.9262967109680176, 0.950171709060669, 0.977134644985199, 0.9660364985466003, 0.9726314544677734, 0.9624791145324707, 0.9862486720085144, 0.9804131388664246, 0.9915359020233154, 0.9875378608703613, 0.9884743094444275, 0.9924261569976807, 0.9847225546836853, 0.9885762333869934, 0.9887767434120178, 0.9857268929481506, 0.987489640712738, 0.9826342463493347, 0.974854588508606, 0.988243579864502, 0.9882617592811584]</t>
+          <t>[0.998717188835144, 0.9983822107315063, 0.9985141158103943, 0.9987016916275024, 0.9981614947319031, 0.9970057606697083, 0.9980351328849792, 0.9979960918426514, 0.9984229803085327, 0.9968869090080261, 0.9968011379241943, 0.9967235922813416, 0.9959506988525391, 0.9967178702354431, 0.9954038858413696, 0.993067741394043, 0.9963657855987549, 0.9974421262741089, 0.9963828325271606, 0.9968796968460083, 0.9974134564399719, 0.996541440486908, 0.9976997971534729, 0.9973213076591492, 0.9964450001716614, 0.9972736239433289, 0.9967833757400513, 0.9974402189254761, 0.9961361289024353, 0.9906219244003296, 0.9942911863327026, 0.9972993731498718, 0.995754599571228, 0.9941871166229248, 0.9962058067321777, 0.9975689053535461, 0.9971582889556885, 0.9972599744796753, 0.997973620891571, 0.9969944953918457, 0.9963446259498596, 0.9961487054824829, 0.9941723942756653, 0.9979414343833923, 0.9954518675804138, 0.9972463846206665, 0.9974842071533203, 0.9983558058738708, 0.9975300431251526, 0.9967613816261292, 0.9962947964668274, 0.9955161213874817, 0.9715742468833923, 0.9775844216346741, 0.9731857180595398, 0.987431526184082, 0.9856312274932861, 0.9868598580360413, 0.9929620623588562, 0.9574548006057739, 0.9815945625305176, 0.9867754578590393, 0.993449866771698, 0.9965761303901672, 0.9971889853477478, 0.9978110194206238, 0.9979493021965027, 0.9976935982704163, 0.9949873685836792, 0.9979735016822815, 0.9963515996932983, 0.996895432472229, 0.9962142109870911, 0.9742861986160278, 0.9927740097045898, 0.9962003827095032, 0.9954767823219299, 0.9876114726066589, 0.989316463470459, 0.991923987865448, 0.9923785924911499, 0.9923413991928101, 0.9942471981048584, 0.997768759727478, 0.9973050355911255, 0.9969700574874878, 0.9978281855583191, 0.9958128333091736, 0.9973044395446777, 0.9960175156593323, 0.9845172762870789, 0.9898359179496765, 0.987704873085022, 0.9694637656211853, 0.9914076924324036, 0.9808887839317322, 0.9842877388000488, 0.9865198135375977, 0.9705697298049927, 0.9777456521987915, 0.9900071620941162, 0.9861776828765869, 0.9933464527130127, 0.9804036617279053, 0.9961788654327393, 0.9929342269897461, 0.9971388578414917, 0.9948481321334839, 0.9949842691421509, 0.9966852068901062, 0.9900561571121216, 0.995919406414032, 0.9961962699890137, 0.9954715967178345, 0.9963908791542053, 0.994770348072052, 0.9905746579170227, 0.9952448010444641, 0.9952437281608582]</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.995471715927124</v>
+        <v>0.998717188835144</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -6583,10 +6583,10 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0.6804210999980569</v>
+        <v>0.6821649999910733</v>
       </c>
       <c r="J151" t="n">
-        <v>0.005717824369731571</v>
+        <v>0.005732478991521624</v>
       </c>
     </row>
     <row r="152">
@@ -6605,11 +6605,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>[0.9964687824249268, 0.9970815777778625, 0.9968403577804565, 0.9970638155937195, 0.995613694190979, 0.9946174025535583, 0.997134804725647, 0.9969596862792969, 0.9956608414649963, 0.9964978694915771, 0.9949766993522644, 0.9971626400947571, 0.9954654574394226, 0.9945003986358643, 0.9959312081336975, 0.9941620230674744, 0.9977439641952515, 0.9962354302406311, 0.9956437349319458, 0.9949459433555603, 0.993904173374176, 0.9935989379882812, 0.993216335773468, 0.9930209517478943, 0.9947993755340576, 0.9965415596961975, 0.9923285841941833, 0.9890079498291016, 0.99444580078125, 0.9964210987091064, 0.9953558444976807, 0.9962387084960938, 0.9966652989387512, 0.9958359003067017, 0.989899218082428, 0.9949158430099487, 0.9946617484092712, 0.9953319430351257, 0.995164155960083, 0.9952667951583862, 0.9948768019676208, 0.9946364760398865, 0.9945341348648071, 0.9949802756309509, 0.9954870343208313, 0.9952095150947571, 0.9962806105613708, 0.9951252341270447, 0.9936190247535706, 0.9914345741271973, 0.9929470419883728, 0.9928393363952637, 0.9949098229408264, 0.995349109172821, 0.996086597442627, 0.9936973452568054, 0.9899739027023315, 0.9906999468803406, 0.993190586566925, 0.9964931607246399, 0.9956614375114441, 0.9961056113243103, 0.9913330674171448, 0.9896827936172485, 0.9914884567260742, 0.9938139915466309, 0.9960929751396179, 0.9964278340339661, 0.9963615536689758, 0.9928672313690186, 0.9928508996963501, 0.9909591674804688, 0.9929364323616028, 0.9916493892669678, 0.9952802658081055, 0.995101273059845, 0.9956153631210327, 0.9958771467208862, 0.9942165613174438, 0.9948288798332214, 0.993694007396698, 0.992253839969635, 0.9952859282493591, 0.993043065071106, 0.9913823008537292, 0.9922142624855042, 0.9885163307189941, 0.9871804118156433, 0.9918206930160522, 0.9944941401481628, 0.9937682151794434, 0.9961647987365723, 0.9919771552085876, 0.9887095093727112, 0.9667990803718567, 0.9744837880134583, 0.9913173913955688, 0.9929308891296387, 0.992431640625, 0.9890678524971008, 0.98885577917099, 0.9848746657371521, 0.9924226403236389, 0.9915492534637451, 0.9924010038375854, 0.9874568581581116, 0.9931508302688599, 0.9888606667518616, 0.9915293455123901, 0.9904058575630188, 0.9910486936569214, 0.9923416376113892, 0.994648277759552, 0.9931463003158569, 0.991640567779541, 0.9876803159713745, 0.9878900647163391, 0.9879970550537109]</t>
+          <t>[0.9986289739608765, 0.9990324974060059, 0.9989307522773743, 0.9990562796592712, 0.9985277652740479, 0.9980893731117249, 0.9989390969276428, 0.9989389777183533, 0.9983768463134766, 0.9986289739608765, 0.9981600642204285, 0.998852014541626, 0.998106837272644, 0.9979156851768494, 0.9980934262275696, 0.9974156618118286, 0.9991944432258606, 0.9986431002616882, 0.998616099357605, 0.9985675811767578, 0.9971835017204285, 0.9975622892379761, 0.9972303509712219, 0.9972236156463623, 0.9983097314834595, 0.9989140033721924, 0.9973616003990173, 0.9964354038238525, 0.9981354475021362, 0.9988241791725159, 0.9984679818153381, 0.9986578226089478, 0.998784601688385, 0.9984506368637085, 0.9958628416061401, 0.9981743097305298, 0.9980871677398682, 0.9985308647155762, 0.9983571171760559, 0.9984568357467651, 0.9985589385032654, 0.9980365633964539, 0.998298704624176, 0.9985826015472412, 0.9986172914505005, 0.9983761310577393, 0.9987269043922424, 0.9984394907951355, 0.9976492524147034, 0.9973112344741821, 0.9977626800537109, 0.9977304339408875, 0.9985007047653198, 0.9986327290534973, 0.9987591505050659, 0.9982414245605469, 0.9972532391548157, 0.9970197081565857, 0.9977491497993469, 0.9989653825759888, 0.9985995888710022, 0.9986950755119324, 0.9966568946838379, 0.9963647723197937, 0.9969999194145203, 0.9977141618728638, 0.9986433386802673, 0.9985744953155518, 0.998794436454773, 0.9975761771202087, 0.9974551796913147, 0.9966398477554321, 0.9972255825996399, 0.9973441958427429, 0.9984768033027649, 0.9984626770019531, 0.9985578656196594, 0.9986497759819031, 0.9980928301811218, 0.9984637498855591, 0.9980289340019226, 0.9975578784942627, 0.9986361861228943, 0.9981169700622559, 0.9972921013832092, 0.9972609281539917, 0.9966723918914795, 0.995716392993927, 0.9975402355194092, 0.9983673691749573, 0.9980019927024841, 0.9986248016357422, 0.9975121021270752, 0.9962478280067444, 0.9881919026374817, 0.9908499717712402, 0.997015118598938, 0.9977082014083862, 0.9977728724479675, 0.9966362714767456, 0.9955234527587891, 0.9947102069854736, 0.9968133568763733, 0.9962034821510315, 0.9968171715736389, 0.9944561123847961, 0.9978885054588318, 0.9965119957923889, 0.9972198009490967, 0.9972858428955078, 0.997427761554718, 0.9971298575401306, 0.9982542395591736, 0.9977418184280396, 0.9976867437362671, 0.9969527721405029, 0.9969812035560608, 0.997010350227356]</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.9977439641952515</v>
+        <v>0.9991944432258606</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
@@ -6623,10 +6623,10 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0.6777659999788739</v>
+        <v>0.6666707999975188</v>
       </c>
       <c r="J152" t="n">
-        <v>0.005743779660837914</v>
+        <v>0.005649752542351854</v>
       </c>
     </row>
     <row r="153">
@@ -6645,11 +6645,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>[0.9509617686271667, 0.9733567833900452, 0.9809767603874207, 0.981022298336029, 0.9735572338104248, 0.9873156547546387, 0.9900619983673096, 0.9943218231201172, 0.984264075756073, 0.9900021553039551, 0.991908073425293, 0.9938561320304871, 0.9919776916503906, 0.9902196526527405, 0.9896880984306335, 0.9827470779418945, 0.958930492401123, 0.9774426221847534, 0.9849389791488647, 0.9937459230422974, 0.985740602016449, 0.9927186965942383, 0.9859920144081116, 0.9797138571739197, 0.9737817645072937, 0.9792848825454712, 0.9680510759353638, 0.9872682690620422, 0.9816268682479858, 0.9882797002792358, 0.9945283532142639, 0.992703914642334, 0.9889000654220581, 0.9797142148017883, 0.9834972620010376, 0.9896608591079712, 0.9871200323104858, 0.9928804636001587, 0.9887977242469788, 0.9828474521636963, 0.9858177304267883, 0.9931017160415649, 0.9956525564193726, 0.994886577129364, 0.9961600303649902, 0.9950301647186279, 0.9940821528434753, 0.9740498661994934, 0.9722048044204712, 0.991949200630188, 0.9902551770210266, 0.9935142993927002, 0.990267813205719, 0.9841564297676086, 0.9881125092506409, 0.9891953468322754, 0.9847509860992432, 0.9760596752166748, 0.9779647588729858, 0.9871397614479065, 0.992577850818634, 0.9889679551124573, 0.9901975393295288, 0.9905146360397339, 0.9863668084144592, 0.993517279624939, 0.9914230704307556, 0.9798459410667419, 0.9839116930961609, 0.9856168627738953, 0.9852262139320374, 0.9720255732536316, 0.9938495755195618, 0.9957122802734375, 0.9928752183914185, 0.9944998025894165, 0.9956444501876831, 0.9947056174278259, 0.9929348826408386, 0.9903361797332764, 0.9909917116165161, 0.9914733171463013, 0.9935226440429688, 0.9724609851837158, 0.925772488117218, 0.9798324108123779, 0.9906110167503357, 0.9916390776634216, 0.9916045069694519, 0.9906744360923767, 0.9941722750663757, 0.9887213110923767, 0.9944654107093811, 0.9928880333900452, 0.9873499274253845, 0.984956681728363, 0.9947646856307983, 0.9884838461875916, 0.9895175099372864, 0.9686812162399292, 0.9408870935440063, 0.9071956872940063, 0.9836146235466003, 0.9896719455718994, 0.9860073328018188, 0.9939554333686829, 0.9945969581604004, 0.9954004883766174, 0.9877503514289856, 0.96860271692276, 0.971459686756134, 0.9406535029411316, 0.9924288392066956, 0.9604434370994568, 0.967941164970398, 0.9604692459106445, 0.962920069694519, 0.9629421830177307]</t>
+          <t>[0.9847400784492493, 0.9932534098625183, 0.995206892490387, 0.996717631816864, 0.9954943656921387, 0.9977339506149292, 0.998100221157074, 0.9986976385116577, 0.9967214465141296, 0.9977722764015198, 0.9979327917098999, 0.9984311461448669, 0.9976441264152527, 0.9973911046981812, 0.9979283809661865, 0.9962704181671143, 0.9902005791664124, 0.9947623610496521, 0.9960389137268066, 0.9986655712127686, 0.995907187461853, 0.9984336495399475, 0.9971375465393066, 0.996057391166687, 0.9944084286689758, 0.9946359992027283, 0.9901958107948303, 0.9969678521156311, 0.9956623911857605, 0.9975287318229675, 0.9986962676048279, 0.9984719157218933, 0.9974825978279114, 0.9958258867263794, 0.9957122802734375, 0.9974865913391113, 0.9966861605644226, 0.9980820417404175, 0.9965266585350037, 0.9936913251876831, 0.9959741234779358, 0.9981409311294556, 0.9987874627113342, 0.9984830021858215, 0.9990542531013489, 0.9986396431922913, 0.9984725117683411, 0.9924600720405579, 0.9933484196662903, 0.9979538917541504, 0.997765302658081, 0.9981770515441895, 0.9965240359306335, 0.995669960975647, 0.9969310760498047, 0.9969229102134705, 0.9941719174385071, 0.9932752847671509, 0.9932356476783752, 0.9960623383522034, 0.9978277087211609, 0.9964286684989929, 0.9969655871391296, 0.9971423745155334, 0.996037483215332, 0.9983330368995667, 0.9975384473800659, 0.9931786060333252, 0.9950196743011475, 0.9962045550346375, 0.995933473110199, 0.9946948885917664, 0.9981671571731567, 0.9988194108009338, 0.9977834820747375, 0.9986392855644226, 0.9989449381828308, 0.998443067073822, 0.998291552066803, 0.9980438947677612, 0.997859537601471, 0.9981319308280945, 0.9986286163330078, 0.9902604222297668, 0.9714965224266052, 0.9949828386306763, 0.9975460171699524, 0.9982649683952332, 0.9977282881736755, 0.9979981780052185, 0.9982342720031738, 0.9973088502883911, 0.9984020590782166, 0.998104453086853, 0.997019350528717, 0.9963942170143127, 0.9985815286636353, 0.9975699782371521, 0.9973764419555664, 0.9862810373306274, 0.9713546633720398, 0.9503779411315918, 0.9965229034423828, 0.997527539730072, 0.9961079955101013, 0.9979279041290283, 0.9984728693962097, 0.9985326528549194, 0.9971030354499817, 0.9928597211837769, 0.9938080906867981, 0.9813738465309143, 0.998354971408844, 0.9855883121490479, 0.99321448802948, 0.9895422458648682, 0.9895719289779663, 0.9895336031913757]</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.9961600303649902</v>
+        <v>0.9990542531013489</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
@@ -6663,10 +6663,10 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0.6708817000035197</v>
+        <v>0.6870151000039186</v>
       </c>
       <c r="J153" t="n">
-        <v>0.005685438135623048</v>
+        <v>0.005822161864439989</v>
       </c>
     </row>
     <row r="154">
@@ -6685,11 +6685,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>[0.9782969951629639, 0.9758502840995789, 0.9797729253768921, 0.9914476871490479, 0.9930437803268433, 0.9935116171836853, 0.9895973801612854, 0.9872844219207764, 0.9725089073181152, 0.9840452671051025, 0.9849253296852112, 0.9876074194908142, 0.9925305247306824, 0.9850537180900574, 0.9824836850166321, 0.9890623688697815, 0.9705628752708435, 0.9578301906585693, 0.9341179728507996, 0.9682535529136658, 0.9889531135559082, 0.972123384475708, 0.951166570186615, 0.9806467294692993, 0.9690167903900146, 0.9533941149711609, 0.9767246842384338, 0.9756217002868652, 0.9519779682159424, 0.9613672494888306, 0.924523651599884, 0.9551928639411926, 0.9559652209281921, 0.767743706703186, 0.9339815974235535, 0.9199339151382446, 0.9111588001251221, 0.9591193199157715, 0.9432836174964905, 0.9751439094543457, 0.9537712335586548, 0.9820257425308228, 0.9857465028762817, 0.9840039610862732, 0.9889538288116455, 0.99186110496521, 0.9843800067901611, 0.9682350158691406, 0.9913808703422546, 0.993176281452179, 0.9915218353271484, 0.9726534485816956, 0.9445242285728455, 0.7428818345069885, 0.6499685645103455, 0.8442237377166748, 0.9475212097167969, 0.8872295618057251, 0.9400286674499512, 0.955223798751831, 0.9221726655960083, 0.9487781524658203, 0.9871819019317627, 0.9852761030197144, 0.9823581576347351, 0.9855806231498718, 0.9884137511253357, 0.991662859916687, 0.9768303632736206, 0.9921342134475708, 0.9819062948226929, 0.9845702052116394, 0.9915841817855835, 0.979438304901123, 0.9837174415588379, 0.9904447197914124, 0.993218719959259, 0.9958921670913696, 0.99407958984375, 0.995079517364502, 0.9949448704719543, 0.9956490397453308, 0.9920170307159424, 0.9883303642272949, 0.9966717958450317, 0.9883911609649658, 0.9926354289054871, 0.993410050868988, 0.9942430853843689, 0.9877690672874451, 0.9906162619590759, 0.9864056706428528, 0.989625871181488, 0.9951169490814209, 0.9872322082519531, 0.9926030039787292, 0.9854260683059692, 0.9293917417526245, 0.9503228068351746, 0.9658406376838684, 0.9658060669898987, 0.9836264252662659, 0.9666357636451721, 0.9685191512107849, 0.9896152019500732, 0.9853851199150085, 0.9832536578178406, 0.9909555315971375, 0.9871103763580322, 0.9899246692657471, 0.9899643063545227, 0.9854288697242737, 0.9919978976249695, 0.9918845891952515, 0.9924690127372742, 0.9935304522514343, 0.9914692044258118, 0.9877840876579285, 0.9878217577934265]</t>
+          <t>[0.9903209805488586, 0.9882772564888, 0.9885731935501099, 0.9969252943992615, 0.9975103139877319, 0.9977692365646362, 0.995894193649292, 0.9957203269004822, 0.990815281867981, 0.994945228099823, 0.9954941272735596, 0.9955663084983826, 0.9976727366447449, 0.9946461319923401, 0.9937969446182251, 0.9965421557426453, 0.9878519773483276, 0.9793710708618164, 0.9444341659545898, 0.9830620288848877, 0.9962711334228516, 0.9926304817199707, 0.9885931015014648, 0.9949687123298645, 0.9902352690696716, 0.9855178594589233, 0.9929942488670349, 0.9927611351013184, 0.9798269271850586, 0.984298586845398, 0.9667090177536011, 0.9815037250518799, 0.9867542386054993, 0.880773663520813, 0.9732227921485901, 0.9575322866439819, 0.9564577341079712, 0.9830601811408997, 0.9792202711105347, 0.9903426170349121, 0.9875197410583496, 0.9942069053649902, 0.9961101412773132, 0.9956225752830505, 0.9967535138130188, 0.9975706934928894, 0.9955688118934631, 0.989585816860199, 0.9971657395362854, 0.9980260133743286, 0.9976599216461182, 0.9911547899246216, 0.9734881520271301, 0.8038689494132996, 0.656796932220459, 0.8543024659156799, 0.9747939705848694, 0.9275583624839783, 0.962831437587738, 0.9789365530014038, 0.9551088213920593, 0.9812201261520386, 0.9941250085830688, 0.9940693378448486, 0.9936944842338562, 0.9947996139526367, 0.9962169528007507, 0.9975893497467041, 0.9931238293647766, 0.9977843165397644, 0.9952892065048218, 0.9947159886360168, 0.997961163520813, 0.994333028793335, 0.9951303005218506, 0.9974664449691772, 0.998364269733429, 0.9990313053131104, 0.9985660910606384, 0.998568058013916, 0.9987435936927795, 0.9989153146743774, 0.9978761672973633, 0.996821403503418, 0.9991065859794617, 0.9962961077690125, 0.9977826476097107, 0.9981195330619812, 0.998538613319397, 0.9973716735839844, 0.9969655871391296, 0.9950945377349854, 0.9962887763977051, 0.9984184503555298, 0.9963232278823853, 0.9977298378944397, 0.9960980415344238, 0.9642878174781799, 0.9767237901687622, 0.9894941449165344, 0.9857045412063599, 0.9934845566749573, 0.9898113012313843, 0.9908024072647095, 0.9972997307777405, 0.996878981590271, 0.9962904453277588, 0.9976381063461304, 0.996525228023529, 0.99671870470047, 0.9965104460716248, 0.9947683811187744, 0.9972623586654663, 0.9966616630554199, 0.997177004814148, 0.9976868629455566, 0.9967918992042542, 0.995793342590332, 0.9958057403564453]</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.9966717958450317</v>
+        <v>0.9991065859794617</v>
       </c>
       <c r="F154" t="n">
         <v>1</v>
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0.6772284999897238</v>
+        <v>0.6910762000043178</v>
       </c>
       <c r="J154" t="n">
-        <v>0.005690995798232973</v>
+        <v>0.005807363025246368</v>
       </c>
     </row>
     <row r="155">
@@ -6725,11 +6725,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[0.9925082325935364, 0.9911717772483826, 0.9871261715888977, 0.9813535213470459, 0.9859613180160522, 0.9735139608383179, 0.9883714318275452, 0.9875009059906006, 0.9847140908241272, 0.9887773394584656, 0.9846402406692505, 0.9771161079406738, 0.9781771898269653, 0.9866488575935364, 0.991027295589447, 0.9900045990943909, 0.9834403991699219, 0.9746233820915222, 0.9473488330841064, 0.9816889762878418, 0.9844433069229126, 0.9847036600112915, 0.9856739640235901, 0.987877368927002, 0.9779810309410095, 0.9865891933441162, 0.9927698969841003, 0.9885213375091553, 0.9857324957847595, 0.9845499992370605, 0.9582275748252869, 0.9889430999755859, 0.9904876351356506, 0.9863921403884888, 0.9859536290168762, 0.9863704442977905, 0.9831052422523499, 0.9843723773956299, 0.982322633266449, 0.9720598459243774, 0.9627763628959656, 0.986201822757721, 0.9798554182052612, 0.9799563884735107, 0.9859697818756104, 0.9882518649101257, 0.9774072170257568, 0.9877931475639343, 0.9835699200630188, 0.992207944393158, 0.9841588735580444, 0.9865520000457764, 0.9671647548675537, 0.9701603651046753, 0.9634997248649597, 0.9775131344795227, 0.9807668924331665, 0.9897854924201965, 0.9831225275993347, 0.9920336604118347, 0.9840137362480164, 0.9871038794517517, 0.9832947254180908, 0.9886932969093323, 0.986153244972229, 0.9900285601615906, 0.9859234094619751, 0.9780603051185608, 0.9863656759262085, 0.970874011516571, 0.9867998361587524, 0.9920634627342224, 0.9898040294647217, 0.9863868951797485, 0.984184980392456, 0.9840302467346191, 0.9807613492012024, 0.9682818055152893, 0.9727492332458496, 0.9710354208946228, 0.962460994720459, 0.9076303839683533, 0.9485357999801636, 0.9772729277610779, 0.9824537038803101, 0.9741029143333435, 0.9697468280792236, 0.9586079120635986, 0.9868086576461792, 0.9826005101203918, 0.9937856197357178, 0.9919176697731018, 0.9814069271087646, 0.972162663936615, 0.9653915762901306, 0.9731854200363159, 0.896828830242157, 0.9332268238067627, 0.9586876630783081, 0.9748227596282959, 0.9765126705169678, 0.9799846410751343, 0.9825595617294312, 0.9841799736022949, 0.9856430888175964, 0.9707217216491699, 0.9764126539230347, 0.9780756831169128, 0.9274879097938538, 0.988211452960968, 0.9724284410476685, 0.9670476913452148, 0.9912996888160706, 0.9834187030792236, 0.9827494621276855, 0.9840167760848999, 0.9878941178321838, 0.9879980087280273]</t>
+          <t>[0.9977602958679199, 0.997832715511322, 0.9968103766441345, 0.994117259979248, 0.9964655637741089, 0.9916816353797913, 0.9965381622314453, 0.9969913959503174, 0.9954649806022644, 0.9962708950042725, 0.9948284029960632, 0.992725133895874, 0.9941675662994385, 0.9965692758560181, 0.997260570526123, 0.9973399043083191, 0.9933006763458252, 0.9893515706062317, 0.9672585725784302, 0.993619978427887, 0.993759036064148, 0.9939550757408142, 0.995400607585907, 0.9960123300552368, 0.990123450756073, 0.9954724907875061, 0.9979239702224731, 0.9965914487838745, 0.9941733479499817, 0.9940478801727295, 0.9857099056243896, 0.9959591031074524, 0.9976947903633118, 0.9966862797737122, 0.9963377714157104, 0.9959359169006348, 0.9943707585334778, 0.9946013689041138, 0.9926142692565918, 0.9882854223251343, 0.9871318340301514, 0.995876669883728, 0.9949477910995483, 0.9942787885665894, 0.9957640171051025, 0.9966365098953247, 0.9915071725845337, 0.9966918230056763, 0.996232807636261, 0.9980267882347107, 0.996239185333252, 0.9962213039398193, 0.9883891344070435, 0.9895703792572021, 0.9864771366119385, 0.9932457804679871, 0.9929995536804199, 0.9966903924942017, 0.9948346614837646, 0.9975816011428833, 0.9946820139884949, 0.9959296584129333, 0.9955379962921143, 0.9969421029090881, 0.9957981705665588, 0.9970359802246094, 0.9960002303123474, 0.9920544624328613, 0.9966294169425964, 0.9920287728309631, 0.9966038465499878, 0.9983037710189819, 0.9977040886878967, 0.9967226386070251, 0.995898425579071, 0.9952090382575989, 0.9945624470710754, 0.9893733859062195, 0.9930248260498047, 0.9918181896209717, 0.9896575808525085, 0.9632742404937744, 0.9849200248718262, 0.9940788745880127, 0.9949087500572205, 0.9915144443511963, 0.9897840619087219, 0.9881711006164551, 0.9962388277053833, 0.9960916638374329, 0.9981281161308289, 0.9979854822158813, 0.9957513809204102, 0.9931053519248962, 0.9895276427268982, 0.9941344857215881, 0.9509938359260559, 0.9821984171867371, 0.9872958064079285, 0.9935376048088074, 0.9933344125747681, 0.9955561757087708, 0.995572566986084, 0.9959490299224854, 0.9967654943466187, 0.9907897710800171, 0.9935824275016785, 0.9951731562614441, 0.9759536981582642, 0.9973546266555786, 0.9940699338912964, 0.9909265041351318, 0.9980736970901489, 0.9959279894828796, 0.9960638880729675, 0.9964150190353394, 0.9968259334564209, 0.9968528151512146]</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.9937856197357178</v>
+        <v>0.9983037710189819</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
@@ -6743,10 +6743,10 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0.6716516999877058</v>
+        <v>0.6973737999942387</v>
       </c>
       <c r="J155" t="n">
-        <v>0.005691963559217846</v>
+        <v>0.005909947457578293</v>
       </c>
     </row>
     <row r="156">
@@ -6765,11 +6765,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>[0.1499342918395996, 0.1551622450351715, 0.31918802857398987, 0.22686274349689484, 0.18866775929927826, 0.18060070276260376, 0.29426345229148865, 0.12102290987968445, 0.14945948123931885, 0.17703048884868622, 0.24585409462451935, 0.2974366843700409, 0.28321748971939087, 0.19679617881774902, 0.5930903553962708, 0.86737060546875, 0.9348114132881165, 0.9885987043380737, 0.9060333967208862, 0.9774399995803833, 0.8004797101020813, 0.8919265270233154, 0.9158813953399658, 0.8158630728721619, 0.9187266230583191, 0.8986979722976685, 0.9467704892158508, 0.8810989856719971, 0.8354004621505737, 0.6686575412750244, 0.8292884230613708, 0.44619157910346985, 0.6743130683898926, 0.5331467390060425, 0.4545384645462036, 0.5856667757034302, 0.6724700331687927, 0.3951297104358673, 0.4335385262966156, 0.7507231831550598, 0.5096256136894226, 0.938266396522522, 0.9835301041603088, 0.9238982200622559, 0.6594114899635315, 0.5716655850410461, 0.248665913939476, 0.548332929611206, 0.8310490846633911, 0.5504961609840393, 0.2542800009250641, 0.29374581575393677, 0.34104958176612854, 0.3321601152420044, 0.49054357409477234, 0.5617078542709351, 0.466283917427063, 0.913956880569458, 0.6546512246131897, 0.5923805832862854, 0.3435816764831543, 0.7419683337211609, 0.684432327747345, 0.6026294827461243, 0.3682497441768646, 0.3729213774204254, 0.41567397117614746, 0.3996443450450897, 0.25948700308799744, 0.31174778938293457, 0.17620885372161865, 0.41825711727142334, 0.4358014762401581, 0.30141928791999817, 0.296867698431015, 0.5509291291236877, 0.8695819973945618, 0.6070290803909302, 0.5999870300292969, 0.8371206521987915, 0.6250707507133484, 0.6951043009757996, 0.33125898241996765, 0.45067352056503296, 0.5141551494598389, 0.4856710433959961, 0.3583150804042816, 0.2635229527950287, 0.2376696765422821, 0.2795748710632324, 0.5178597569465637, 0.4015597105026245, 0.449195921421051, 0.6040491461753845, 0.7589510083198547, 0.854263424873352, 0.5083388686180115, 0.30533528327941895, 0.2298184633255005, 0.2489120364189148, 0.6064725518226624, 0.6197502017021179, 0.5479443669319153, 0.6392905116081238, 0.8288506269454956, 0.8947047591209412, 0.6333979964256287, 0.6270162463188171, 0.36133500933647156, 0.6084648370742798, 0.43670520186424255, 0.37440451979637146, 0.3584902584552765, 0.4470919370651245, 0.4491654932498932, 0.3495880663394928, 0.8204249739646912, 0.39058393239974976, 0.42086517810821533, 0.6213067770004272, 0.7241525650024414, 0.7414465546607971, 0.6361663341522217, 0.5584716200828552, 0.4577425718307495, 0.3703049421310425, 0.2680315673351288, 0.34020328521728516, 0.594345211982727, 0.44068393111228943, 0.31238412857055664, 0.521488606929779, 0.5219423770904541, 0.3809840679168701, 0.37730857729911804, 0.4920179545879364, 0.3316202163696289, 0.26658034324645996, 0.5493882298469543, 0.55014568567276]</t>
+          <t>[0.09847507625818253, 0.10508567094802856, 0.3951401710510254, 0.2972005605697632, 0.26641717553138733, 0.22153432667255402, 0.39377444982528687, 0.11693194508552551, 0.1697472184896469, 0.21790166199207306, 0.24667993187904358, 0.49154216051101685, 0.4729418158531189, 0.19252201914787292, 0.6930496692657471, 0.9486773014068604, 0.9837930798530579, 0.9968156218528748, 0.9707616567611694, 0.9948306679725647, 0.9485780000686646, 0.9720162153244019, 0.9805363416671753, 0.956030011177063, 0.9736695289611816, 0.9695221185684204, 0.98470139503479, 0.9672828912734985, 0.9348094463348389, 0.8289939761161804, 0.9596543312072754, 0.6183205842971802, 0.8445525765419006, 0.7306166887283325, 0.7127281427383423, 0.7936877608299255, 0.8831141591072083, 0.5370014905929565, 0.6071513891220093, 0.9286926984786987, 0.6932429075241089, 0.9812976121902466, 0.9970384836196899, 0.9800695180892944, 0.8173471093177795, 0.7379348278045654, 0.31992653012275696, 0.7720968127250671, 0.9714817404747009, 0.8309882879257202, 0.41350820660591125, 0.556132435798645, 0.5007212162017822, 0.5135779976844788, 0.7034749388694763, 0.7437262535095215, 0.5750481486320496, 0.975911557674408, 0.8438087105751038, 0.8134123682975769, 0.4317079782485962, 0.9312183856964111, 0.9136310815811157, 0.800008237361908, 0.6193527579307556, 0.5935952067375183, 0.6391258239746094, 0.6303234696388245, 0.3610522747039795, 0.389801025390625, 0.19887137413024902, 0.4377754032611847, 0.4987139105796814, 0.3406080901622772, 0.39895641803741455, 0.7211183905601501, 0.974799394607544, 0.7954654693603516, 0.8405386209487915, 0.9527917504310608, 0.8262434601783752, 0.8617635369300842, 0.38777413964271545, 0.6403863430023193, 0.7384620904922485, 0.7404821515083313, 0.4883432388305664, 0.39797115325927734, 0.3389029800891876, 0.4767923951148987, 0.8317016959190369, 0.6100776791572571, 0.6554493308067322, 0.8269321322441101, 0.9060108065605164, 0.9749667644500732, 0.745927631855011, 0.498970627784729, 0.29927316308021545, 0.3487144112586975, 0.8763749003410339, 0.8755072355270386, 0.7915822863578796, 0.8711705803871155, 0.9573398232460022, 0.9728298783302307, 0.86017906665802, 0.9134958982467651, 0.6628807187080383, 0.8796653151512146, 0.6771438121795654, 0.6603525876998901, 0.5954810976982117, 0.6456649303436279, 0.6548575758934021, 0.5147725343704224, 0.9475982785224915, 0.6526563763618469, 0.6231946349143982, 0.8093305826187134, 0.8900169134140015, 0.9107219576835632, 0.8501442670822144, 0.8317853212356567, 0.7272075414657593, 0.5551244020462036, 0.5228391885757446, 0.5868779420852661, 0.8833602666854858, 0.7721508145332336, 0.4580194056034088, 0.7767192125320435, 0.7984016537666321, 0.5787540078163147, 0.5293511152267456, 0.6365258097648621, 0.35513508319854736, 0.2954709827899933, 0.7315692901611328, 0.7317618727684021]</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.9885987043380737</v>
+        <v>0.9970384836196899</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
@@ -6783,10 +6783,10 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0.7949522999988403</v>
+        <v>0.8173366999981226</v>
       </c>
       <c r="J156" t="n">
-        <v>0.005678230714277431</v>
+        <v>0.005838119285700876</v>
       </c>
     </row>
     <row r="157">
@@ -6805,11 +6805,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>[0.26330530643463135, 0.2722378671169281, 0.3420853912830353, 0.27325862646102905, 0.24310533702373505, 0.3408757448196411, 0.28875330090522766, 0.39885178208351135, 0.25299888849258423, 0.17647454142570496, 0.2006259560585022, 0.2226271629333496, 0.2602876126766205, 0.31076961755752563, 0.26310622692108154, 0.18499642610549927, 0.20742496848106384, 0.21523569524288177, 0.2469881772994995, 0.24115976691246033, 0.20358283817768097, 0.22835782170295715, 0.2814178168773651, 0.27318528294563293, 0.2189081311225891, 0.1601266711950302, 0.14584963023662567, 0.1665658950805664, 0.18035157024860382, 0.13673976063728333, 0.16287003457546234, 0.17676493525505066, 0.22785833477973938, 0.36234068870544434, 0.3419649600982666, 0.30157023668289185, 0.2818681299686432, 0.2895166277885437, 0.33067068457603455, 0.29588010907173157, 0.3040122985839844, 0.34926581382751465, 0.3779582679271698, 0.36923837661743164, 0.3210271894931793, 0.29127904772758484, 0.31371378898620605, 0.3738512396812439, 0.3743451237678528, 0.3774871826171875, 0.3843221962451935, 0.37156981229782104, 0.25973668694496155, 0.24078761041164398, 0.13520008325576782, 0.1737716794013977, 0.1363123208284378, 0.1409471184015274, 0.17264701426029205, 0.17418226599693298, 0.2149125635623932, 0.21337436139583588, 0.1427614688873291, 0.10929728299379349, 0.09543165564537048, 0.09967880696058273, 0.1682344675064087, 0.12308105826377869, 0.12883029878139496, 0.13710914552211761, 0.1530010849237442, 0.12781822681427002, 0.132831871509552, 0.1511789709329605, 0.1789395958185196, 0.1723177433013916, 0.19740672409534454, 0.23332710564136505, 0.19443610310554504, 0.17206928133964539, 0.16081519424915314, 0.16358309984207153, 0.14876094460487366, 0.16802120208740234, 0.12651486694812775, 0.19983641803264618, 0.21820664405822754, 0.3299897313117981, 0.20849962532520294, 0.2520095705986023, 0.23130972683429718, 0.25459781289100647, 0.18585185706615448, 0.2044377326965332, 0.24162018299102783, 0.20188190042972565, 0.2101089507341385, 0.18537020683288574, 0.18192791938781738, 0.22474387288093567, 0.23307731747627258, 0.23014089465141296, 0.20305846631526947, 0.17793713510036469, 0.21226675808429718, 0.20609211921691895, 0.1882205307483673, 0.2128836214542389, 0.21596303582191467, 0.21648643910884857, 0.24439550936222076, 0.24164189398288727, 0.21880872547626495, 0.26955482363700867, 0.2610261142253876, 0.23878243565559387, 0.20310010015964508, 0.16519318521022797, 0.16920258104801178, 0.20433321595191956, 0.17643821239471436, 0.1985386461019516, 0.1998899281024933, 0.2715131342411041, 0.26381877064704895, 0.23043766617774963, 0.24270962178707123, 0.21782153844833374, 0.2621985971927643, 0.2858453691005707, 0.2702992260456085, 0.3160451054573059, 0.38602834939956665, 0.32096877694129944, 0.30043622851371765, 0.24473357200622559, 0.2885167896747589, 0.26699477434158325, 0.2678466737270355]</t>
+          <t>[0.25291359424591064, 0.26431524753570557, 0.35972708463668823, 0.22584760189056396, 0.12195183336734772, 0.3932968080043793, 0.2567891776561737, 0.5829379558563232, 0.21689963340759277, 0.11567998677492142, 0.16814664006233215, 0.20793049037456512, 0.26389363408088684, 0.31893229484558105, 0.28775352239608765, 0.19441817700862885, 0.24879023432731628, 0.2233656495809555, 0.215688094496727, 0.18124306201934814, 0.12198654562234879, 0.22728680074214935, 0.34453651309013367, 0.25305992364883423, 0.16099703311920166, 0.10823996365070343, 0.0938587412238121, 0.12211965024471283, 0.15822851657867432, 0.121918223798275, 0.15721425414085388, 0.1526702344417572, 0.20815809071063995, 0.3016979992389679, 0.2867005467414856, 0.23645448684692383, 0.2105434387922287, 0.19036388397216797, 0.2088976800441742, 0.18352240324020386, 0.18440204858779907, 0.22049885988235474, 0.27375954389572144, 0.2432609498500824, 0.20614618062973022, 0.18801642954349518, 0.24186547100543976, 0.27778908610343933, 0.2654399573802948, 0.25419509410858154, 0.26659026741981506, 0.27753087878227234, 0.18161062896251678, 0.20453931391239166, 0.10014903545379639, 0.16248153150081635, 0.0844336524605751, 0.08365634083747864, 0.10887739062309265, 0.11565548181533813, 0.15947198867797852, 0.18459194898605347, 0.10749588906764984, 0.09023283421993256, 0.04895545914769173, 0.06260781735181808, 0.11957845091819763, 0.0886186957359314, 0.11708766222000122, 0.08582662045955658, 0.10143440961837769, 0.09075848758220673, 0.09780752658843994, 0.0962115004658699, 0.1112051010131836, 0.11202885210514069, 0.1727948635816574, 0.2273106426000595, 0.17873847484588623, 0.11156512051820755, 0.08891382068395615, 0.09000135213136673, 0.07970557361841202, 0.11398069560527802, 0.09599832445383072, 0.18371306359767914, 0.15606404840946198, 0.25848591327667236, 0.14956574141979218, 0.20745205879211426, 0.15841352939605713, 0.1946222186088562, 0.13435380160808563, 0.156077578663826, 0.172170951962471, 0.13960571587085724, 0.1640058308839798, 0.11795701831579208, 0.11363483965396881, 0.15118443965911865, 0.15898627042770386, 0.1527491956949234, 0.13603799045085907, 0.09514907747507095, 0.15344148874282837, 0.13616850972175598, 0.17200693488121033, 0.19174151122570038, 0.18332740664482117, 0.17412349581718445, 0.19925865530967712, 0.1969985067844391, 0.19707618653774261, 0.2677898705005646, 0.18433688580989838, 0.16664330661296844, 0.12979891896247864, 0.10312093049287796, 0.13066552579402924, 0.15461166203022003, 0.12076130509376526, 0.13020946085453033, 0.12901122868061066, 0.2003319412469864, 0.1824444830417633, 0.1630433201789856, 0.1625053882598877, 0.2020062655210495, 0.23954907059669495, 0.24279755353927612, 0.22822757065296173, 0.23709416389465332, 0.29381856322288513, 0.24573642015457153, 0.21967819333076477, 0.17283281683921814, 0.19117441773414612, 0.16610035300254822, 0.1664716899394989]</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.3988517820835114</v>
+        <v>0.5829379558563232</v>
       </c>
       <c r="F157" t="n">
         <v>1</v>
@@ -6823,10 +6823,10 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0.7928413999907207</v>
+        <v>0.7984355000080541</v>
       </c>
       <c r="J157" t="n">
-        <v>0.005703894963962019</v>
+        <v>0.005744140287827727</v>
       </c>
     </row>
     <row r="158">
@@ -6845,11 +6845,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>[0.22690849006175995, 0.19750376045703888, 0.131769597530365, 0.09607715159654617, 0.10329609364271164, 0.11672266572713852, 0.1956922709941864, 0.23724399507045746, 0.5599690079689026, 0.6128485798835754, 0.5237860679626465, 0.7117225527763367, 0.6827926635742188, 0.46379509568214417, 0.4868394136428833, 0.5879318118095398, 0.4533213675022125, 0.4576150178909302, 0.3750256597995758, 0.3590923249721527, 0.32887405157089233, 0.42253413796424866, 0.5342307686805725, 0.5170581340789795, 0.30680495500564575, 0.31243571639060974, 0.4338687062263489, 0.38437163829803467, 0.35210010409355164, 0.3298128843307495, 0.38599884510040283, 0.5108580589294434, 0.42887431383132935, 0.42561590671539307, 0.41593673825263977, 0.3675882816314697, 0.38650864362716675, 0.4032288193702698, 0.35498398542404175, 0.5870696902275085, 0.5498637557029724, 0.7854297161102295, 0.6837459206581116, 0.6988145709037781, 0.5671162605285645, 0.619949996471405, 0.4547913670539856, 0.3329237699508667, 0.26214709877967834, 0.23232769966125488, 0.21801723539829254, 0.25163036584854126, 0.4166717827320099, 0.3216456174850464, 0.21855700016021729, 0.22200198471546173, 0.22066636383533478, 0.1639808863401413, 0.2513876259326935, 0.11307334899902344, 0.10624400526285172, 0.13104572892189026, 0.1385236233472824, 0.2197379767894745, 0.26809170842170715, 0.4497329592704773, 0.44876569509506226, 0.29345986247062683, 0.2957214117050171, 0.43689239025115967, 0.5790352821350098, 0.35892149806022644, 0.324034720659256, 0.36574363708496094, 0.31401327252388, 0.37862932682037354, 0.3771973252296448, 0.38446760177612305, 0.25895240902900696, 0.42106038331985474, 0.420120507478714, 0.3966004252433777, 0.43403738737106323, 0.38000139594078064, 0.3707391321659088, 0.3702150285243988, 0.36916372179985046, 0.4781949818134308, 0.5054939985275269, 0.4321615993976593, 0.37548378109931946, 0.469643235206604, 0.4723740220069885, 0.4962610900402069, 0.4829948842525482, 0.43258121609687805, 0.43679168820381165, 0.4311363101005554, 0.3333251178264618, 0.39640945196151733, 0.337544322013855, 0.357831209897995, 0.4150787591934204, 0.5476718544960022, 0.3901335895061493, 0.2583939731121063, 0.2843070328235626, 0.295580118894577, 0.3435876965522766, 0.18996037542819977, 0.17140929400920868, 0.14202375710010529, 0.1647414267063141, 0.15182237327098846, 0.1687646359205246, 0.25135698914527893, 0.289622038602829, 0.33567187190055847, 0.29252153635025024, 0.2827090322971344, 0.4018051326274872, 0.2446913868188858, 0.16762235760688782, 0.18163765966892242, 0.12428843230009079, 0.2081170678138733, 0.21965934336185455, 0.22167149186134338, 0.2565368115901947, 0.2388414591550827, 0.20002736151218414, 0.2656501829624176, 0.2614838480949402, 0.19019509851932526, 0.16804875433444977, 0.16319261491298676, 0.15750209987163544, 0.18150748312473297, 0.18141542375087738]</t>
+          <t>[0.12275106459856033, 0.10593835264444351, 0.06303571164608002, 0.04132542759180069, 0.04659169539809227, 0.05465756729245186, 0.09075069427490234, 0.21434898674488068, 0.6101680994033813, 0.5957323312759399, 0.4306359887123108, 0.7260245084762573, 0.6980610489845276, 0.3354083299636841, 0.30412012338638306, 0.42935746908187866, 0.3367142677307129, 0.4425496459007263, 0.3062528669834137, 0.2691827118396759, 0.24241048097610474, 0.3504200875759125, 0.57666015625, 0.4934897720813751, 0.248416006565094, 0.2456718236207962, 0.4539248049259186, 0.4159901738166809, 0.26183342933654785, 0.1808222532272339, 0.1876114159822464, 0.47412756085395813, 0.23991042375564575, 0.26673272252082825, 0.3779168426990509, 0.2860924005508423, 0.4054817855358124, 0.3622175455093384, 0.30338191986083984, 0.7652750611305237, 0.6657379269599915, 0.8749513030052185, 0.7963208556175232, 0.8373706340789795, 0.791805624961853, 0.8322448134422302, 0.555074155330658, 0.2567545175552368, 0.16691270470619202, 0.13547565042972565, 0.12001247704029083, 0.172952800989151, 0.47859904170036316, 0.3689512014389038, 0.19028902053833008, 0.2776810824871063, 0.21833854913711548, 0.11437084525823593, 0.19109639525413513, 0.099744513630867, 0.09937133640050888, 0.12481294572353363, 0.14382202923297882, 0.2581232488155365, 0.2968272864818573, 0.3885933458805084, 0.3754349648952484, 0.2396121621131897, 0.28666236996650696, 0.44687947630882263, 0.7096163034439087, 0.4835154116153717, 0.361992746591568, 0.3997476100921631, 0.27660152316093445, 0.2821788191795349, 0.30279573798179626, 0.3498866856098175, 0.25831231474876404, 0.35811683535575867, 0.3266507089138031, 0.3189324140548706, 0.3655332028865814, 0.2895640432834625, 0.2615421712398529, 0.274888277053833, 0.20736762881278992, 0.3097449243068695, 0.3597224950790405, 0.3408347964286804, 0.2889847457408905, 0.3240791857242584, 0.3090716302394867, 0.32810869812965393, 0.34089231491088867, 0.26021668314933777, 0.2908257246017456, 0.27694013714790344, 0.20798300206661224, 0.2683623731136322, 0.22905899584293365, 0.30507054924964905, 0.320900559425354, 0.5753059983253479, 0.4275466799736023, 0.26325276494026184, 0.2664986550807953, 0.2973688542842865, 0.29407238960266113, 0.17274101078510284, 0.14672663807868958, 0.10562000423669815, 0.1465293914079666, 0.17620724439620972, 0.16208316385746002, 0.23767389357089996, 0.23633815348148346, 0.3184347152709961, 0.2639803886413574, 0.2884398400783539, 0.42042356729507446, 0.15434987843036652, 0.1026831865310669, 0.1323738843202591, 0.09125269949436188, 0.1491769403219223, 0.15534165501594543, 0.16360166668891907, 0.20434819161891937, 0.1939597725868225, 0.1659454107284546, 0.2781842350959778, 0.3167915940284729, 0.17372360825538635, 0.1387176513671875, 0.14755186438560486, 0.14099542796611786, 0.1517784148454666, 0.15164288878440857]</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.7854297161102295</v>
+        <v>0.8749513030052185</v>
       </c>
       <c r="F158" t="n">
         <v>1</v>
@@ -6863,10 +6863,10 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0.7981398999982048</v>
+        <v>0.7994342000019969</v>
       </c>
       <c r="J158" t="n">
-        <v>0.005742013669051833</v>
+        <v>0.005751325179870481</v>
       </c>
     </row>
     <row r="159">
@@ -6885,11 +6885,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>[0.2614881098270416, 0.6458774209022522, 0.4102002680301666, 0.6489753127098083, 0.852648138999939, 0.4743754267692566, 0.4198351204395294, 0.43271005153656006, 0.8196370601654053, 0.5736655592918396, 0.36682888865470886, 0.4318317472934723, 0.34381192922592163, 0.2286521941423416, 0.13159164786338806, 0.3316423296928406, 0.5307182669639587, 0.6647301316261292, 0.4664793312549591, 0.3004106879234314, 0.16350987553596497, 0.1862158477306366, 0.19956088066101074, 0.1971088945865631, 0.20819680392742157, 0.17986738681793213, 0.25177431106567383, 0.3869799077510834, 0.37235790491104126, 0.2662169635295868, 0.2726846933364868, 0.24077020585536957, 0.27761414647102356, 0.2029995173215866, 0.30431684851646423, 0.31139662861824036, 0.27680838108062744, 0.23471921682357788, 0.24587057530879974, 0.4972420036792755, 0.3907972276210785, 0.5966936349868774, 0.6711203455924988, 0.6284399628639221, 0.644853949546814, 0.4299525320529938, 0.3395148515701294, 0.21341916918754578, 0.24571716785430908, 0.1313094198703766, 0.07995960861444473, 0.1465231329202652, 0.12446743249893188, 0.13791584968566895, 0.1336570382118225, 0.1240859180688858, 0.1569434255361557, 0.1405779868364334, 0.23371058702468872, 0.38113248348236084, 0.18128305673599243, 0.24861381947994232, 0.18423840403556824, 0.11234638839960098, 0.11148635298013687, 0.16809408366680145, 0.2270679622888565, 0.3430987596511841, 0.35384929180145264, 0.19306662678718567, 0.1617492288351059, 0.2084828019142151, 0.16998083889484406, 0.2727508246898651, 0.2724810838699341, 0.2440570890903473, 0.32949990034103394, 0.3717898428440094, 0.2393743246793747, 0.17368648946285248, 0.18988335132598877, 0.24196192622184753, 0.27460741996765137, 0.26283666491508484, 0.19875659048557281, 0.17518696188926697, 0.2511839270591736, 0.26442426443099976, 0.2318749874830246, 0.39673858880996704, 0.30565759539604187, 0.29317203164100647, 0.3232239782810211, 0.35699519515037537, 0.33746710419654846, 0.3972816467285156, 0.35443970561027527, 0.23067137598991394, 0.3242987096309662, 0.3842255175113678, 0.38149937987327576, 0.3261915147304535, 0.312864750623703, 0.2929028868675232, 0.2939600944519043, 0.2980862855911255, 0.2742382884025574, 0.29407376050949097, 0.2451079934835434, 0.23702703416347504, 0.17393648624420166, 0.13799245655536652, 0.16378971934318542, 0.20649534463882446, 0.22593161463737488, 0.2660875618457794, 0.32244208455085754, 0.3337412476539612, 0.34437817335128784, 0.22153620421886444, 0.30407145619392395, 0.4130300283432007, 0.3490737974643707, 0.3614911735057831, 0.4330427348613739, 0.49460577964782715, 0.4944388270378113, 0.44134649634361267, 0.3841940760612488, 0.4355742335319519, 0.35063496232032776, 0.25187575817108154, 0.24058584868907928, 0.2951045632362366, 0.28777602314949036, 0.3713388741016388, 0.43941956758499146, 0.2438765913248062, 0.3620384931564331, 0.3818523585796356, 0.36701536178588867, 0.43840673565864563, 0.2828235626220703, 0.41462042927742004, 0.3624221980571747, 0.32954755425453186, 0.4619138240814209, 0.3646324872970581, 0.4021582305431366, 0.2996220886707306, 0.3140028715133667, 0.2661127746105194, 0.37970006465911865, 0.37590348720550537, 0.24538171291351318, 0.20588438212871552, 0.2505117952823639, 0.24922479689121246]</t>
+          <t>[0.18306846916675568, 0.5566754341125488, 0.271337628364563, 0.5429299473762512, 0.8366808295249939, 0.4117313027381897, 0.44120773673057556, 0.47292327880859375, 0.9222703576087952, 0.7280980944633484, 0.4057473838329315, 0.498909592628479, 0.3950514793395996, 0.20701716840267181, 0.0767875611782074, 0.3418853282928467, 0.7831735014915466, 0.8486183881759644, 0.5221260190010071, 0.25081053376197815, 0.14811743795871735, 0.20897938311100006, 0.25571903586387634, 0.1805965155363083, 0.2478935271501541, 0.19626741111278534, 0.30889829993247986, 0.5384314656257629, 0.5581392049789429, 0.33464041352272034, 0.30477145314216614, 0.2425672560930252, 0.3069678843021393, 0.20095251500606537, 0.386164128780365, 0.4313570261001587, 0.3511965274810791, 0.2574317753314972, 0.30691400170326233, 0.6703555583953857, 0.5077683925628662, 0.7849141955375671, 0.8466457724571228, 0.81553715467453, 0.783321738243103, 0.5152348279953003, 0.5194615721702576, 0.29955247044563293, 0.42184245586395264, 0.20086121559143066, 0.07909411936998367, 0.19184821844100952, 0.1480206698179245, 0.13875150680541992, 0.11134234070777893, 0.0893445536494255, 0.14759580790996552, 0.1019793152809143, 0.21298322081565857, 0.3960663974285126, 0.1600550413131714, 0.24071481823921204, 0.1653415709733963, 0.079842209815979, 0.07968198508024216, 0.13256603479385376, 0.21627645194530487, 0.41569533944129944, 0.4564172923564911, 0.17611046135425568, 0.14255616068840027, 0.2551061511039734, 0.1866752654314041, 0.36078760027885437, 0.30293819308280945, 0.23455816507339478, 0.3237670660018921, 0.37983471155166626, 0.2428692877292633, 0.15996570885181427, 0.20696330070495605, 0.23986630141735077, 0.27571114897727966, 0.2846200168132782, 0.23367711901664734, 0.16468988358974457, 0.254978209733963, 0.24658063054084778, 0.22238604724407196, 0.41441455483436584, 0.4012887179851532, 0.3497326076030731, 0.32131150364875793, 0.3973924219608307, 0.42508676648139954, 0.5267173051834106, 0.4946773052215576, 0.2407640963792801, 0.3705672323703766, 0.5189242959022522, 0.49104297161102295, 0.3569730520248413, 0.3679220974445343, 0.3585916757583618, 0.2719841003417969, 0.2965433597564697, 0.2443544566631317, 0.2959877550601959, 0.23767848312854767, 0.2159179151058197, 0.14692625403404236, 0.09012771397829056, 0.0907311961054802, 0.1464749127626419, 0.17067819833755493, 0.2553215026855469, 0.40814560651779175, 0.39712220430374146, 0.4872468411922455, 0.28715214133262634, 0.39372989535331726, 0.5573862195014954, 0.4332325756549835, 0.4489741921424866, 0.5566350817680359, 0.6210191249847412, 0.5742327570915222, 0.527346670627594, 0.39758825302124023, 0.5122070908546448, 0.4252254068851471, 0.29727351665496826, 0.2991182804107666, 0.3526259958744049, 0.34068062901496887, 0.5221533179283142, 0.5522025227546692, 0.30569547414779663, 0.44688475131988525, 0.4363701641559601, 0.4534909427165985, 0.519391655921936, 0.2993760406970978, 0.5517587065696716, 0.4267035722732544, 0.3876829147338867, 0.5395270586013794, 0.34032341837882996, 0.4183759391307831, 0.3037490248680115, 0.29666680097579956, 0.2522144019603729, 0.3453592360019684, 0.37249138951301575, 0.24537315964698792, 0.23282136023044586, 0.27910998463630676, 0.2774660289287567]</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.852648138999939</v>
+        <v>0.9222703576087952</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -6903,10 +6903,10 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0.8655241999949794</v>
+        <v>0.875555999999051</v>
       </c>
       <c r="J159" t="n">
-        <v>0.005478001265791009</v>
+        <v>0.005541493670880069</v>
       </c>
     </row>
     <row r="160">
@@ -6925,11 +6925,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[0.13009099662303925, 0.11013147234916687, 0.11386209726333618, 0.07906537503004074, 0.10755555331707001, 0.052258241921663284, 0.087738536298275, 0.07636526226997375, 0.05809015408158302, 0.03655866160988808, 0.047569528222084045, 0.10833709686994553, 0.11119020730257034, 0.09556945413351059, 0.06857790052890778, 0.08006364852190018, 0.09866084158420563, 0.21433782577514648, 0.17790351808071136, 0.1910681575536728, 0.24533195793628693, 0.07874982804059982, 0.09891268610954285, 0.16395561397075653, 0.08960852026939392, 0.11252561211585999, 0.2165132761001587, 0.11781737953424454, 0.11795726418495178, 0.18087275326251984, 0.13622182607650757, 0.07577655464410782, 0.1293669492006302, 0.09364477545022964, 0.0965169370174408, 0.12625260651111603, 0.11837562918663025, 0.14724314212799072, 0.13807235658168793, 0.15222212672233582, 0.1390833705663681, 0.08681195229291916, 0.14092637598514557, 0.3300454020500183, 0.21972352266311646, 0.13171759247779846, 0.18442687392234802, 0.21180276572704315, 0.23252978920936584, 0.16348478198051453, 0.12155646085739136, 0.13634856045246124, 0.20358829200267792, 0.11480586230754852, 0.17748725414276123, 0.11660218238830566, 0.12347494065761566, 0.13612079620361328, 0.08366166800260544, 0.09509695321321487, 0.09030698239803314, 0.1397642344236374, 0.1294415444135666, 0.09109707921743393, 0.09038279205560684, 0.11720027774572372, 0.05912666395306587, 0.12302644550800323, 0.12399007380008698, 0.11856236308813095, 0.12733785808086395, 0.12024053931236267, 0.08311913162469864, 0.13429374992847443, 0.20651130378246307, 0.23452866077423096, 0.21351392567157745, 0.16528408229351044, 0.17678770422935486, 0.1970525085926056, 0.1636074334383011, 0.179731547832489, 0.2137349396944046, 0.2111186683177948, 0.24110214412212372, 0.1640167534351349, 0.19443368911743164, 0.15965595841407776, 0.1561247706413269, 0.18195250630378723, 0.18266665935516357, 0.2077435702085495, 0.19693103432655334, 0.1972353607416153, 0.2653786242008209, 0.20746353268623352, 0.28618326783180237, 0.2578788697719574, 0.2914327383041382, 0.26947852969169617, 0.3983919322490692, 0.2706473767757416, 0.22973370552062988, 0.27121004462242126, 0.2558310627937317, 0.2297941893339157, 0.25953054428100586, 0.30967915058135986, 0.24855360388755798, 0.2675417363643646, 0.2676030695438385, 0.1369457244873047, 0.21711871027946472, 0.2488730400800705, 0.3772011399269104, 0.32599812746047974, 0.18670375645160675, 0.17891819775104523, 0.19662733376026154, 0.3006635308265686, 0.17125719785690308, 0.2075512558221817, 0.24056246876716614, 0.17067696154117584, 0.10983897000551224, 0.14783214032649994, 0.18059366941452026, 0.17247605323791504, 0.13754022121429443, 0.0955880880355835, 0.10892201960086823, 0.12599064409732819, 0.19156458973884583, 0.22964370250701904, 0.4439302980899811, 0.37083232402801514, 0.6048893332481384, 0.4113766849040985, 0.22302155196666718, 0.12075407803058624, 0.12505552172660828, 0.165320485830307, 0.16446241736412048, 0.14120857417583466, 0.22390830516815186, 0.21916569769382477, 0.18853360414505005, 0.2116730809211731, 0.21023094654083252, 0.22773703932762146, 0.2294636368751526, 0.4925938844680786, 0.33590441942214966, 0.30092552304267883, 0.24693231284618378, 0.34254127740859985, 0.21500593423843384, 0.21377576887607574]</t>
+          <t>[0.19076819717884064, 0.10725624859333038, 0.07525711506605148, 0.0606105700135231, 0.09287485480308533, 0.04700276628136635, 0.07934241741895676, 0.05382120609283447, 0.04533705860376358, 0.03199226036667824, 0.02942589484155178, 0.06308270990848541, 0.07703801989555359, 0.061222612857818604, 0.04089975729584694, 0.047824256122112274, 0.05341597646474838, 0.14008784294128418, 0.13426239788532257, 0.18283675611019135, 0.32010969519615173, 0.08059679716825485, 0.08361177891492844, 0.12592707574367523, 0.0575510710477829, 0.06921935081481934, 0.16669757664203644, 0.06746567785739899, 0.07116443663835526, 0.10070568323135376, 0.08513066172599792, 0.04500758275389671, 0.11937681585550308, 0.07339725643396378, 0.07083794474601746, 0.09651830047369003, 0.08231870830059052, 0.097083181142807, 0.07584895193576813, 0.11521416157484055, 0.0935022234916687, 0.04848109930753708, 0.08585969358682632, 0.37771931290626526, 0.17307309806346893, 0.07283495366573334, 0.09438062459230423, 0.13682498037815094, 0.1690312922000885, 0.10279010236263275, 0.09685015678405762, 0.09739463031291962, 0.16046449542045593, 0.08668393641710281, 0.17960591614246368, 0.08329124748706818, 0.08264151215553284, 0.07858922332525253, 0.03526938334107399, 0.05686167627573013, 0.055240698158741, 0.06697429716587067, 0.07554690539836884, 0.056200914084911346, 0.08220136165618896, 0.08132398128509521, 0.03413920849561691, 0.08599334210157394, 0.08765241503715515, 0.07838183641433716, 0.09407038241624832, 0.08251133561134338, 0.06111212074756622, 0.12706279754638672, 0.10084053128957748, 0.13551583886146545, 0.12447159737348557, 0.07961824536323547, 0.11797374486923218, 0.1222982108592987, 0.10279466211795807, 0.12386070936918259, 0.17076736688613892, 0.19125081598758698, 0.19217246770858765, 0.11082020401954651, 0.12655366957187653, 0.12145795673131943, 0.11146078258752823, 0.11438871920108795, 0.12682844698429108, 0.15212100744247437, 0.1324467808008194, 0.15439580380916595, 0.19737586379051208, 0.12224148213863373, 0.20738650858402252, 0.1624431610107422, 0.1661594659090042, 0.16741475462913513, 0.3254436254501343, 0.16456201672554016, 0.12394155561923981, 0.15643292665481567, 0.13128840923309326, 0.12600116431713104, 0.1833316832780838, 0.22127403318881989, 0.14051266014575958, 0.1369287371635437, 0.18032272160053253, 0.07087811827659607, 0.11262193322181702, 0.13094675540924072, 0.3292430639266968, 0.2605874836444855, 0.12669548392295837, 0.13728468120098114, 0.20950336754322052, 0.19936241209506989, 0.10803715139627457, 0.1240348294377327, 0.12874555587768555, 0.10534366220235825, 0.06647820770740509, 0.10520048439502716, 0.16795997321605682, 0.1396414339542389, 0.11339415609836578, 0.06245758384466171, 0.06867163628339767, 0.10804779827594757, 0.19272524118423462, 0.2367689311504364, 0.48795434832572937, 0.3682487905025482, 0.6528937816619873, 0.4856497347354889, 0.19485804438591003, 0.07625382393598557, 0.08656259626150131, 0.167040154337883, 0.1665399819612503, 0.10624899715185165, 0.21140314638614655, 0.20718741416931152, 0.1757740080356598, 0.19390660524368286, 0.21300005912780762, 0.25449511408805847, 0.32229384779930115, 0.6309439539909363, 0.26591259241104126, 0.320387065410614, 0.23994940519332886, 0.4108578860759735, 0.1853676736354828, 0.18419621884822845]</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.6048893332481384</v>
+        <v>0.6528937816619873</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
@@ -6943,10 +6943,10 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0.8745445999957155</v>
+        <v>0.8547075000096811</v>
       </c>
       <c r="J160" t="n">
-        <v>0.005535092405036174</v>
+        <v>0.005409541139301779</v>
       </c>
     </row>
     <row r="161">
@@ -6965,11 +6965,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[0.3087516129016876, 0.3984932601451874, 0.7100411057472229, 0.9522226452827454, 0.9749746918678284, 0.9614744782447815, 0.8327475190162659, 0.7556595206260681, 0.38992634415626526, 0.7324272394180298, 0.6586992144584656, 0.6808829307556152, 0.7750946879386902, 0.895092785358429, 0.3914567828178406, 0.6010988354682922, 0.38890981674194336, 0.6712498068809509, 0.6998119950294495, 0.5144016742706299, 0.42445191740989685, 0.45159658789634705, 0.41650015115737915, 0.2555686831474304, 0.12155092507600784, 0.1134636178612709, 0.18131083250045776, 0.5292491316795349, 0.6156347990036011, 0.3432694971561432, 0.605434238910675, 0.7338753342628479, 0.6088356971740723, 0.571652352809906, 0.6884060502052307, 0.9289806485176086, 0.7955835461616516, 0.7969701886177063, 0.40839630365371704, 0.5690734386444092, 0.5011923909187317, 0.602266252040863, 0.2732420563697815, 0.27158796787261963, 0.32945382595062256, 0.2976243197917938, 0.4375036060810089, 0.24900250136852264, 0.17151442170143127, 0.17421774566173553, 0.16978926956653595, 0.4009834825992584, 0.3877759277820587, 0.5515449643135071, 0.6646637320518494, 0.4958946406841278, 0.19735300540924072, 0.4154649078845978, 0.36932799220085144, 0.33491215109825134, 0.22640061378479004, 0.38938620686531067, 0.47330325841903687, 0.576798141002655, 0.36938291788101196, 0.19251230359077454, 0.2815629541873932, 0.5640424489974976, 0.4009801149368286, 0.5949750542640686, 0.4997366666793823, 0.4812547564506531, 0.44779619574546814, 0.2754531502723694, 0.4168674647808075, 0.3730365037918091, 0.3102584183216095, 0.6420122385025024, 0.8454705476760864, 0.7812221050262451, 0.9149185419082642, 0.6538534164428711, 0.3172120451927185, 0.3640936017036438, 0.39200159907341003, 0.6860895156860352, 0.6271769404411316, 0.4894506335258484, 0.42305898666381836, 0.6970139145851135, 0.4877440333366394, 0.29933199286460876, 0.3569968640804291, 0.2701369822025299, 0.3328610360622406, 0.3620268702507019, 0.1977725476026535, 0.1538129448890686, 0.2462693303823471, 0.40032869577407837, 0.2351793497800827, 0.2162713259458542, 0.30427539348602295, 0.29330602288246155, 0.27637457847595215, 0.3981459140777588, 0.2023976594209671, 0.3611489236354828, 0.41868841648101807, 0.6116112470626831, 0.47360995411872864, 0.3182200491428375, 0.13492751121520996, 0.172303706407547, 0.2140868455171585, 0.33166229724884033, 0.5362704992294312, 0.46905800700187683, 0.46957916021347046, 0.39407461881637573, 0.37375712394714355, 0.4581093192100525, 0.47318899631500244, 0.3329789936542511, 0.1982291042804718, 0.38952401280403137, 0.5125323534011841, 0.556233286857605, 0.46381235122680664, 0.46866440773010254, 0.35004180669784546, 0.3508515954017639, 0.43987905979156494, 0.5691128969192505, 0.40460216999053955, 0.3041015565395355, 0.35484376549720764, 0.36497753858566284, 0.3583187460899353, 0.42260193824768066, 0.27022430300712585, 0.21398748457431793, 0.17552058398723602, 0.16468782722949982, 0.30595827102661133, 0.31631115078926086, 0.28492602705955505, 0.5103694200515747, 0.5353085994720459, 0.547497034072876, 0.47881460189819336, 0.7578667402267456, 0.6975745558738708, 0.6623952388763428, 0.8760237693786621, 0.8256293535232544, 0.826924741268158]</t>
+          <t>[0.5436273813247681, 0.6012374758720398, 0.8617350459098816, 0.9896681308746338, 0.9944526553153992, 0.991698145866394, 0.9621677994728088, 0.9161292314529419, 0.5476341843605042, 0.8144470453262329, 0.7388778328895569, 0.8431345820426941, 0.9179880619049072, 0.9511400461196899, 0.4499327838420868, 0.7482452988624573, 0.47483330965042114, 0.7385919690132141, 0.8232943415641785, 0.6509825587272644, 0.5711888670921326, 0.6126493811607361, 0.6222131252288818, 0.3733629286289215, 0.12877674400806427, 0.10184851288795471, 0.1851925104856491, 0.6975293755531311, 0.6839309334754944, 0.35861727595329285, 0.6463481783866882, 0.8220277428627014, 0.690312922000885, 0.6969910860061646, 0.8105988502502441, 0.9655365943908691, 0.8855593800544739, 0.8823437690734863, 0.35507434606552124, 0.6063264012336731, 0.4770973324775696, 0.5866978168487549, 0.20910686254501343, 0.20229096710681915, 0.2267758995294571, 0.17789168655872345, 0.39227724075317383, 0.20774103701114655, 0.12742550671100616, 0.12245506048202515, 0.11778581887483597, 0.3744282126426697, 0.45417729020118713, 0.6223676204681396, 0.7577629089355469, 0.5175175666809082, 0.16210795938968658, 0.5132488012313843, 0.4872453510761261, 0.4052639901638031, 0.21394824981689453, 0.4337120056152344, 0.522833526134491, 0.5506331920623779, 0.32585546374320984, 0.17668506503105164, 0.2536327838897705, 0.550937831401825, 0.4093821942806244, 0.7016856670379639, 0.586976170539856, 0.6007036566734314, 0.5659447908401489, 0.27941247820854187, 0.4347003996372223, 0.40872591733932495, 0.3523465394973755, 0.7511258721351624, 0.9110845923423767, 0.8557179570198059, 0.9594354629516602, 0.7953593134880066, 0.3759368360042572, 0.4563310444355011, 0.7174619436264038, 0.8997824788093567, 0.7819295525550842, 0.6000524759292603, 0.5714866518974304, 0.8157439827919006, 0.6395866870880127, 0.42926281690597534, 0.5805577635765076, 0.4470877945423126, 0.5384441614151001, 0.5819677710533142, 0.25283685326576233, 0.1637696772813797, 0.3096451759338379, 0.5765949487686157, 0.30506181716918945, 0.2924240231513977, 0.44178417325019836, 0.439845472574234, 0.4626031219959259, 0.4684064984321594, 0.263613760471344, 0.582923948764801, 0.7289425730705261, 0.7685490846633911, 0.6992787718772888, 0.42164871096611023, 0.14160791039466858, 0.16503027081489563, 0.17767204344272614, 0.3572062849998474, 0.5801264643669128, 0.5072551369667053, 0.529535174369812, 0.4184238910675049, 0.39888492226600647, 0.5487164258956909, 0.6065337657928467, 0.34586670994758606, 0.19916245341300964, 0.5016301274299622, 0.6525984406471252, 0.6099205613136292, 0.44770610332489014, 0.5512497425079346, 0.422850638628006, 0.41033291816711426, 0.5462697148323059, 0.6535006761550903, 0.480114221572876, 0.33146190643310547, 0.3405369520187378, 0.34319087862968445, 0.3518778681755066, 0.4712109863758087, 0.23759682476520538, 0.17832626402378082, 0.12139318883419037, 0.13976405560970306, 0.33426329493522644, 0.3408653736114502, 0.3181782066822052, 0.5796689987182617, 0.6080942749977112, 0.6955482363700867, 0.6146340370178223, 0.9151119589805603, 0.8711109161376953, 0.8258991241455078, 0.956683874130249, 0.941586971282959, 0.9424304366111755]</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.9749746918678284</v>
+        <v>0.9944526553153992</v>
       </c>
       <c r="F161" t="n">
         <v>1</v>
@@ -6983,10 +6983,10 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0.8880705999908969</v>
+        <v>0.8952187999966554</v>
       </c>
       <c r="J161" t="n">
-        <v>0.005656500636884693</v>
+        <v>0.005702030573227105</v>
       </c>
     </row>
     <row r="162">
@@ -7005,11 +7005,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>[0.15248015522956848, 0.1911889910697937, 0.2542654275894165, 0.17268073558807373, 0.15790924429893494, 0.1518479287624359, 0.2282756268978119, 0.20861482620239258, 0.3905608654022217, 0.13791508972644806, 0.13611175119876862, 0.13666647672653198, 0.1221257895231247, 0.3805989921092987, 0.3847186863422394, 0.2540103793144226, 0.10131389647722244, 0.1224147230386734, 0.16998372972011566, 0.08870749920606613, 0.16597209870815277, 0.19182336330413818, 0.22401444613933563, 0.24766987562179565, 0.28875693678855896, 0.2499171793460846, 0.3248186409473419, 0.3063438832759857, 0.2377333790063858, 0.18653245270252228, 0.15665203332901, 0.14164917171001434, 0.1517823338508606, 0.10233678668737411, 0.09858621656894684, 0.20684567093849182, 0.11218241602182388, 0.2776782214641571, 0.2863565683364868, 0.17004191875457764, 0.2443406879901886, 0.2526640295982361, 0.21066494286060333, 0.25654351711273193, 0.2304341197013855, 0.35975250601768494, 0.49536940455436707, 0.4655027985572815, 0.18152575194835663, 0.1768091768026352, 0.18108858168125153, 0.2194046527147293, 0.23925113677978516, 0.18251949548721313, 0.17552879452705383, 0.5376554131507874, 0.5995243191719055, 0.5059330463409424, 0.44356033205986023, 0.2675836682319641, 0.1352379024028778, 0.15551452338695526, 0.1850534826517105, 0.2222410887479782, 0.2095903605222702, 0.1866699606180191, 0.1595010906457901, 0.14749978482723236, 0.0912163034081459, 0.12397007644176483, 0.09274160861968994, 0.06377009302377701, 0.08603522926568985, 0.1281128227710724, 0.11490282416343689, 0.12426227331161499, 0.15475934743881226, 0.25917649269104004, 0.3413943350315094, 0.3570430278778076, 0.24497263133525848, 0.08183889836072922, 0.13562944531440735, 0.10662893950939178, 0.10302694886922836, 0.15218788385391235, 0.17788664996623993, 0.272996187210083, 0.31563910841941833, 0.2376922070980072, 0.2661987245082855, 0.21573799848556519, 0.2366936057806015, 0.18247222900390625, 0.230753093957901, 0.360898494720459, 0.2947893440723419, 0.3007068634033203, 0.3437851667404175, 0.2998766601085663, 0.3244388997554779, 0.5719375014305115, 0.7149218320846558, 0.678001344203949, 0.47738394141197205, 0.4898591935634613, 0.7785617113113403, 0.4286307096481323, 0.43790483474731445, 0.47745028138160706, 0.6529319882392883, 0.4813273847103119, 0.34094518423080444, 0.5302010774612427, 0.5575960874557495, 0.7443830966949463, 0.6090407371520996, 0.41683444380760193, 0.412911057472229, 0.4195788502693176, 0.3589044213294983, 0.43916839361190796, 0.3591082990169525, 0.547441840171814, 0.5475276112556458, 0.6663726568222046, 0.5566949844360352, 0.511847734451294, 0.548856258392334, 0.3936324715614319, 0.4200648367404938, 0.4808100163936615, 0.8279834985733032, 0.7822991013526917, 0.8684741854667664, 0.8626623153686523, 0.9400750994682312, 0.8884504437446594, 0.7206647396087646, 0.8477311134338379, 0.8445225358009338, 0.820253849029541, 0.8914778828620911, 0.828362226486206, 0.7148556709289551, 0.7367296814918518, 0.6333155035972595, 0.6385038495063782]</t>
+          <t>[0.14272888004779816, 0.21158723533153534, 0.33772653341293335, 0.12194322049617767, 0.1239076554775238, 0.10294324159622192, 0.19234350323677063, 0.17464233934879303, 0.4043940007686615, 0.08897518366575241, 0.16142506897449493, 0.10471946746110916, 0.10757660865783691, 0.3923402428627014, 0.45927995443344116, 0.26043209433555603, 0.07861509174108505, 0.08620046079158783, 0.09665773808956146, 0.04440642148256302, 0.10563896596431732, 0.11537192016839981, 0.12212497740983963, 0.16917969286441803, 0.21556659042835236, 0.17903777956962585, 0.36562326550483704, 0.25292879343032837, 0.1819802224636078, 0.10145232081413269, 0.07344385981559753, 0.07458697259426117, 0.09792932868003845, 0.06092062219977379, 0.05055806040763855, 0.14142970740795135, 0.05811072140932083, 0.24698756635189056, 0.21010783314704895, 0.08357707411050797, 0.18203900754451752, 0.22009338438510895, 0.14925704896450043, 0.2432110607624054, 0.23849602043628693, 0.394649475812912, 0.6723079681396484, 0.7230561375617981, 0.15737220644950867, 0.14092592895030975, 0.15972153842449188, 0.1641569882631302, 0.23428206145763397, 0.11678909510374069, 0.08591442555189133, 0.5353589653968811, 0.6173850297927856, 0.5848738551139832, 0.5593137741088867, 0.24842342734336853, 0.06866180151700974, 0.09861744940280914, 0.10667427629232407, 0.12602798640727997, 0.11695320159196854, 0.10088089108467102, 0.08665183931589127, 0.09528211504220963, 0.05802764371037483, 0.09115515649318695, 0.033891767263412476, 0.024726686999201775, 0.02503601647913456, 0.04117654263973236, 0.03791816532611847, 0.05297739803791046, 0.06444593518972397, 0.1523301601409912, 0.4695901870727539, 0.4413573145866394, 0.23753811419010162, 0.054892398416996, 0.09843989461660385, 0.0814083069562912, 0.05929325893521309, 0.095599465072155, 0.10567042231559753, 0.21093159914016724, 0.20748157799243927, 0.13531336188316345, 0.20055976510047913, 0.1555970311164856, 0.19943052530288696, 0.12787258625030518, 0.17541326582431793, 0.3239400386810303, 0.22337916493415833, 0.25061362981796265, 0.31239864230155945, 0.32041141390800476, 0.27655306458473206, 0.4795190989971161, 0.7102302312850952, 0.6336554884910583, 0.3172893822193146, 0.38181546330451965, 0.7891809344291687, 0.3023262023925781, 0.31048208475112915, 0.44158297777175903, 0.6395328640937805, 0.3996144235134125, 0.25244805216789246, 0.47734495997428894, 0.5509417057037354, 0.7707850337028503, 0.5881972312927246, 0.3207314908504486, 0.27808818221092224, 0.2785879969596863, 0.19436430931091309, 0.3075813949108124, 0.2606302797794342, 0.531177282333374, 0.5157876014709473, 0.6618438363075256, 0.40221521258354187, 0.38251274824142456, 0.5347589254379272, 0.333303838968277, 0.31097185611724854, 0.43622714281082153, 0.8971501588821411, 0.8417699337005615, 0.9037482142448425, 0.9354239702224731, 0.9803352355957031, 0.9157792925834656, 0.8000479936599731, 0.891471803188324, 0.9127185344696045, 0.851775050163269, 0.9174047708511353, 0.874773383140564, 0.7503504753112793, 0.7558402419090271, 0.6186468005180359, 0.6222804188728333]</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.9400750994682312</v>
+        <v>0.9803352355957031</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0.8095250999904238</v>
+        <v>0.8200388999975985</v>
       </c>
       <c r="J162" t="n">
-        <v>0.005469764189124485</v>
+        <v>0.005540803378362152</v>
       </c>
     </row>
     <row r="163">
@@ -7045,11 +7045,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>[0.04399057477712631, 0.049091801047325134, 0.03898867964744568, 0.03672460466623306, 0.035460975021123886, 0.03167664632201195, 0.01962359994649887, 0.02340933494269848, 0.04515915736556053, 0.027828648686408997, 0.042013391852378845, 0.0532866045832634, 0.027576444670557976, 0.037397898733615875, 0.06729372590780258, 0.04957954213023186, 0.10406260937452316, 0.029513273388147354, 0.028374800458550453, 0.03696626424789429, 0.04045579209923744, 0.030762560665607452, 0.028460578992962837, 0.023076947778463364, 0.02660614624619484, 0.06534154713153839, 0.06821411848068237, 0.04565133899450302, 0.051179077476263046, 0.05497898906469345, 0.08007075637578964, 0.11097467690706253, 0.08135025948286057, 0.11919234693050385, 0.06338214129209518, 0.2060391902923584, 0.16283054649829865, 0.16615858674049377, 0.202259361743927, 0.09907666593790054, 0.10008437931537628, 0.20243629813194275, 0.17339235544204712, 0.07798153162002563, 0.03188035264611244, 0.02759227156639099, 0.03613970801234245, 0.046320654451847076, 0.05636872351169586, 0.049749840050935745, 0.06729122251272202, 0.033835217356681824, 0.05750424787402153, 0.028069032356142998, 0.02700687386095524, 0.029166119173169136, 0.015153790824115276, 0.015677735209465027, 0.014753046445548534, 0.017621129751205444, 0.022355997934937477, 0.027293650433421135, 0.02671586349606514, 0.02175755240023136, 0.019740920513868332, 0.009944603778421879, 0.010766076855361462, 0.01674291305243969, 0.009576561860740185, 0.009861634112894535, 0.010917352512478828, 0.018864169716835022, 0.024622684344649315, 0.040531281381845474, 0.06111068278551102, 0.03652788698673248, 0.01913277804851532, 0.019495220854878426, 0.019435154274106026, 0.01722458191215992, 0.018052613362669945, 0.028970515355467796, 0.020854825153946877, 0.023042945191264153, 0.023162024095654488, 0.030633537098765373, 0.03580908849835396, 0.028016772121191025, 0.030459394678473473, 0.020907972007989883, 0.021496634930372238, 0.03046441823244095, 0.013159596361219883, 0.01329744141548872, 0.012949086725711823, 0.016475506126880646, 0.037619978189468384, 0.032709453254938126, 0.0252913199365139, 0.05607595667243004, 0.04661379009485245, 0.08087322115898132, 0.04606145620346069, 0.027945732697844505, 0.019211530685424805, 0.016212282702326775, 0.02441565692424774, 0.032723989337682724, 0.03317350521683693, 0.027288664132356644, 0.02622814103960991, 0.06213504821062088, 0.05365510657429695, 0.03272388502955437, 0.025080498307943344, 0.03173475340008736, 0.045507654547691345, 0.04710576683282852, 0.0434749461710453, 0.042484138160943985, 0.03792551904916763, 0.04865723475813866, 0.04888400062918663, 0.04150933772325516, 0.053815387189388275, 0.04321464151144028, 0.05815182998776436, 0.044177986681461334, 0.0409390889108181, 0.03650329262018204, 0.024972986429929733, 0.04654990881681442, 0.03401632979512215, 0.042123887687921524, 0.042170435190200806, 0.05366789549589157, 0.041057996451854706, 0.05073380470275879, 0.04110408201813698, 0.04782359302043915, 0.055993013083934784, 0.09203080832958221, 0.09131067991256714, 0.04350952431559563, 0.10407257080078125, 0.1553965061903, 0.0691731870174408, 0.0696352869272232]</t>
+          <t>[0.04392293840646744, 0.05201750248670578, 0.028987783938646317, 0.02910267747938633, 0.0294137354940176, 0.02553529664874077, 0.013138392008841038, 0.01722431741654873, 0.029990313574671745, 0.020754503086209297, 0.03644023463129997, 0.05468851700425148, 0.020771749317646027, 0.039301685988903046, 0.09596867859363556, 0.04916423559188843, 0.13072530925273895, 0.029095396399497986, 0.02443331852555275, 0.03711298108100891, 0.032935526221990585, 0.022888991981744766, 0.017893094569444656, 0.01337533351033926, 0.01599912904202938, 0.04321428760886192, 0.04701774939894676, 0.035710081458091736, 0.040183983743190765, 0.037367742508649826, 0.06417310237884521, 0.07797457277774811, 0.041925448924303055, 0.07898786664009094, 0.03654394671320915, 0.1881169080734253, 0.13930568099021912, 0.1876605749130249, 0.25955691933631897, 0.08147722482681274, 0.07985714823007584, 0.19355018436908722, 0.21287435293197632, 0.08802022784948349, 0.023281767964363098, 0.02327634021639824, 0.035916492342948914, 0.04354894906282425, 0.05000784993171692, 0.03887448087334633, 0.05971508473157883, 0.025948213413357735, 0.0426161102950573, 0.01966279186308384, 0.0208437517285347, 0.01761455275118351, 0.009313827380537987, 0.010571925900876522, 0.008856568485498428, 0.011958935298025608, 0.01780756004154682, 0.017992544919252396, 0.014423890970647335, 0.011714421212673187, 0.012593341991305351, 0.005561757367104292, 0.004848250187933445, 0.007817117497324944, 0.004826800897717476, 0.004597521387040615, 0.0050413296557962894, 0.010095423087477684, 0.01304013840854168, 0.02610352262854576, 0.03776531293988228, 0.022237829864025116, 0.01098349317908287, 0.011288420297205448, 0.011780585162341595, 0.011482222005724907, 0.009984555654227734, 0.012716599740087986, 0.008606921881437302, 0.012360689230263233, 0.013984768651425838, 0.021493500098586082, 0.02315518632531166, 0.015102026052772999, 0.023590087890625, 0.013704719953238964, 0.011072886176407337, 0.015910079702734947, 0.006048110313713551, 0.005886442959308624, 0.006700536236166954, 0.010084624402225018, 0.029676461592316628, 0.027891457080841064, 0.0203170757740736, 0.04195033758878708, 0.03263641893863678, 0.06140206381678581, 0.037732984870672226, 0.02779443934559822, 0.011498171836137772, 0.010355481877923012, 0.014405307359993458, 0.016810178756713867, 0.01994723454117775, 0.01644151099026203, 0.01488153450191021, 0.058842726051807404, 0.04848115146160126, 0.028152531012892723, 0.016958635300397873, 0.025720732286572456, 0.04595312103629112, 0.0386178232729435, 0.031593795865774155, 0.030695948749780655, 0.02729111723601818, 0.030808506533503532, 0.034095197916030884, 0.030505480244755745, 0.046168357133865356, 0.033323489129543304, 0.03882010653614998, 0.029334528371691704, 0.027058390900492668, 0.024040717631578445, 0.015517482534050941, 0.03613484278321266, 0.023736685514450073, 0.028755320236086845, 0.03224743530154228, 0.048665035516023636, 0.030620798468589783, 0.035015854984521866, 0.02323717251420021, 0.026625528931617737, 0.03165995329618454, 0.06540431827306747, 0.06478708237409592, 0.04505234211683273, 0.09209492057561874, 0.15583649277687073, 0.05507909506559372, 0.05578294396400452]</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.2060391902923584</v>
+        <v>0.259556919336319</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
@@ -7063,10 +7063,10 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0.8107490999973379</v>
+        <v>0.8056995999941137</v>
       </c>
       <c r="J163" t="n">
-        <v>0.005478034459441472</v>
+        <v>0.005443916216176444</v>
       </c>
     </row>
     <row r="164">
@@ -7085,11 +7085,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>[0.21664057672023773, 0.19670112431049347, 0.6305539011955261, 0.22429369390010834, 0.26754847168922424, 0.1372963935136795, 0.33002349734306335, 0.2861540913581848, 0.19912627339363098, 0.217274010181427, 0.1711849421262741, 0.16749727725982666, 0.25759467482566833, 0.17882603406906128, 0.21192234754562378, 0.32372793555259705, 0.42507848143577576, 0.6960855722427368, 0.3633239269256592, 0.7100428342819214, 0.6954083442687988, 0.6491029262542725, 0.6116392016410828, 0.6143487691879272, 0.3458169102668762, 0.21818098425865173, 0.13185276091098785, 0.11936912685632706, 0.13243210315704346, 0.31262221932411194, 0.6371258497238159, 0.48684996366500854, 0.18906879425048828, 0.11133977025747299, 0.20655739307403564, 0.13300155103206635, 0.12837903201580048, 0.09083010256290436, 0.05040659382939339, 0.10979776829481125, 0.15630702674388885, 0.09592631459236145, 0.10341779887676239, 0.6543247103691101, 0.4801478683948517, 0.4061729609966278, 0.27170607447624207, 0.29640132188796997, 0.1263066679239273, 0.23484255373477936, 0.0713958591222763, 0.11169140040874481, 0.059905752539634705, 0.08593011647462845, 0.11322461068630219, 0.15384182333946228, 0.08899402618408203, 0.5799911618232727, 0.6967805027961731, 0.9249204993247986, 0.9196036458015442, 0.8654269576072693, 0.934968888759613, 0.8660590648651123, 0.9069358706474304, 0.6742255687713623, 0.7967284917831421, 0.9100968837738037, 0.613753616809845, 0.5685727000236511, 0.6026370525360107, 0.9101172685623169, 0.970183253288269, 0.9613416790962219, 0.9405245184898376, 0.904701828956604, 0.9764288663864136, 0.9725966453552246, 0.9024359583854675, 0.9146053791046143, 0.8444297909736633, 0.9122037887573242, 0.93001389503479, 0.9754331707954407, 0.9014892578125, 0.8118932843208313, 0.46297094225883484, 0.9498260021209717, 0.9774772524833679, 0.9710562229156494, 0.9584956169128418, 0.9807546138763428, 0.935997486114502, 0.9600296020507812, 0.9334510564804077, 0.7924719452857971, 0.8040909171104431, 0.6786312460899353, 0.8371815085411072, 0.6205817461013794, 0.535445511341095, 0.7115488052368164, 0.6798074245452881, 0.7325575947761536, 0.9041731953620911, 0.44809868931770325, 0.5101123452186584, 0.12548047304153442, 0.08199001103639603, 0.059999980032444, 0.07298237830400467, 0.1636725515127182, 0.19887566566467285, 0.2741495370864868, 0.15081331133842468, 0.10685259848833084, 0.10582928359508514, 0.12726928293704987, 0.07948053628206253, 0.0964883491396904, 0.19218511879444122, 0.2030690312385559, 0.12641958892345428, 0.11226591467857361, 0.12323330342769623, 0.11727580428123474, 0.09480869770050049, 0.10204459726810455, 0.1335732638835907, 0.08869937062263489, 0.11120999604463577, 0.11186099797487259, 0.12866072356700897, 0.09018919616937637, 0.165408656001091, 0.1872737556695938, 0.11163537204265594, 0.2433963418006897, 0.22814323008060455, 0.1943766325712204, 0.12261663377285004, 0.12419982254505157, 0.0841241180896759, 0.09252730011940002, 0.1789066195487976, 0.1349095106124878, 0.19739516079425812, 0.19742974638938904]</t>
+          <t>[0.17851875722408295, 0.13116298615932465, 0.5367304086685181, 0.15091024339199066, 0.2558753788471222, 0.1149434894323349, 0.45335865020751953, 0.3614813983440399, 0.20985053479671478, 0.2158406674861908, 0.16657552123069763, 0.16416579484939575, 0.25448042154312134, 0.12676718831062317, 0.20431578159332275, 0.32169628143310547, 0.4587128460407257, 0.7291492223739624, 0.3834059536457062, 0.6951319575309753, 0.6767845749855042, 0.7272499799728394, 0.6168350577354431, 0.6357287764549255, 0.3892437517642975, 0.2828756868839264, 0.12645582854747772, 0.12315413355827332, 0.277499258518219, 0.6325485110282898, 0.9233828186988831, 0.826570987701416, 0.36106225848197937, 0.16216382384300232, 0.47317659854888916, 0.13385125994682312, 0.10816296190023422, 0.07698043435811996, 0.032040152698755264, 0.13524621725082397, 0.1711130142211914, 0.16958703100681305, 0.20904669165611267, 0.9031974673271179, 0.7468416690826416, 0.7781985402107239, 0.723986029624939, 0.7576310038566589, 0.21424946188926697, 0.4293040335178375, 0.06559253484010696, 0.1448197215795517, 0.055749259889125824, 0.07582876831293106, 0.08253951370716095, 0.1147589161992073, 0.06376971304416656, 0.5796594619750977, 0.780154824256897, 0.9312788844108582, 0.9445674419403076, 0.9043133854866028, 0.9503042101860046, 0.8508458137512207, 0.9376135468482971, 0.6873424649238586, 0.7411028146743774, 0.907832145690918, 0.7347888946533203, 0.6374596357345581, 0.7112158536911011, 0.9388838410377502, 0.9862396121025085, 0.9743282794952393, 0.9364914298057556, 0.9017135500907898, 0.9850620031356812, 0.9822235107421875, 0.9127845764160156, 0.923535943031311, 0.8899663090705872, 0.9580988883972168, 0.9761738181114197, 0.9917057752609253, 0.9436021447181702, 0.8703046441078186, 0.5116474032402039, 0.9670194983482361, 0.9840822219848633, 0.9816639423370361, 0.931533694267273, 0.9850416779518127, 0.9563551545143127, 0.9759954810142517, 0.9362148642539978, 0.6243314146995544, 0.7014238238334656, 0.5613588690757751, 0.84624183177948, 0.636740505695343, 0.5647204518318176, 0.7286397218704224, 0.8104672431945801, 0.7884955406188965, 0.9594435691833496, 0.5809723734855652, 0.4920031726360321, 0.09877566993236542, 0.05499952659010887, 0.036068547517061234, 0.055811405181884766, 0.18717093765735626, 0.2871696650981903, 0.40007147192955017, 0.1556791067123413, 0.15137971937656403, 0.10945845395326614, 0.14860638976097107, 0.04763583838939667, 0.054217707365751266, 0.12545600533485413, 0.12990012764930725, 0.07482952624559402, 0.05427955463528633, 0.06738916039466858, 0.0749991312623024, 0.05155814811587334, 0.06798771768808365, 0.06358323246240616, 0.03780580312013626, 0.06343887746334076, 0.06732907146215439, 0.09346862137317657, 0.054344795644283295, 0.13289596140384674, 0.14109624922275543, 0.07673971354961395, 0.2950843870639801, 0.28046491742134094, 0.25219669938087463, 0.12544305622577667, 0.13292211294174194, 0.07012556493282318, 0.06329543143510818, 0.1461016684770584, 0.12098725140094757, 0.20599202811717987, 0.20644497871398926]</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.9807546138763428</v>
+        <v>0.9917057752609253</v>
       </c>
       <c r="F164" t="n">
         <v>1</v>
@@ -7103,10 +7103,10 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0.8118169000081252</v>
+        <v>0.8029865000135032</v>
       </c>
       <c r="J164" t="n">
-        <v>0.005485249324379224</v>
+        <v>0.005425584459550698</v>
       </c>
     </row>
     <row r="165">
@@ -7125,11 +7125,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>[0.23516632616519928, 0.28919875621795654, 0.39109864830970764, 0.45169082283973694, 0.15458974242210388, 0.48586946725845337, 0.418195903301239, 0.255035936832428, 0.3626544177532196, 0.18515628576278687, 0.31862932443618774, 0.32195034623146057, 0.7460941672325134, 0.1785450279712677, 0.40565428137779236, 0.4529374837875366, 0.24072138965129852, 0.4184357523918152, 0.27655768394470215, 0.46963995695114136, 0.38136255741119385, 0.6144235134124756, 0.3805655837059021, 0.5732990503311157, 0.24737706780433655, 0.3713842034339905, 0.17529655992984772, 0.40321436524391174, 0.2806054949760437, 0.4103606045246124, 0.337342232465744, 0.2607503831386566, 0.7669154405593872, 0.2774212956428528, 0.3942076861858368, 0.6551235318183899, 0.3179064393043518, 0.27208852767944336, 0.6335567235946655, 0.4401647448539734, 0.4831326901912689, 0.35600268840789795, 0.43076565861701965, 0.7246155738830566, 0.47314074635505676, 0.6128858327865601, 0.5989389419555664, 0.2532810568809509, 0.49152064323425293, 0.3778267800807953, 0.45101937651634216, 0.516319215297699, 0.324203222990036, 0.21480797231197357, 0.6415378451347351, 0.7047663927078247, 0.5205175280570984, 0.7575254440307617, 0.840449333190918, 0.6942314505577087, 0.48296481370925903, 0.28498589992523193, 0.2524747848510742, 0.24359045922756195, 0.3072148859500885, 0.2760396897792816, 0.20238597691059113, 0.20272192358970642, 0.1917678713798523, 0.15726347267627716, 0.20907793939113617, 0.14907819032669067, 0.17217695713043213, 0.33612608909606934, 0.2654857039451599, 0.3630838990211487, 0.3029906451702118, 0.3087862432003021, 0.4027153253555298, 0.5034712553024292, 0.3121299743652344, 0.2819927930831909, 0.2589119076728821, 0.34134531021118164, 0.12557773292064667, 0.21885636448860168, 0.23207907378673553, 0.2313789278268814, 0.2602442502975464, 0.29827821254730225, 0.11999206244945526, 0.17279767990112305, 0.13578878343105316, 0.10050195455551147, 0.15318037569522858, 0.12777705490589142, 0.2135259062051773, 0.28098729252815247, 0.22370222210884094, 0.35139748454093933, 0.3335711658000946, 0.31448400020599365, 0.26159992814064026, 0.15673239529132843, 0.19480067491531372, 0.46333014965057373, 0.46118757128715515]</t>
+          <t>[0.19729694724082947, 0.30266574025154114, 0.3835918605327606, 0.4902556240558624, 0.13025829195976257, 0.4799045920372009, 0.5025025010108948, 0.2583750784397125, 0.4063553512096405, 0.1819603443145752, 0.3301312327384949, 0.2678786516189575, 0.7440614104270935, 0.1976308524608612, 0.5400459170341492, 0.5363430380821228, 0.29118648171424866, 0.5331052541732788, 0.3450334370136261, 0.6548319458961487, 0.5135507583618164, 0.7572671175003052, 0.5231307148933411, 0.6221490502357483, 0.26905322074890137, 0.30724388360977173, 0.10649393498897552, 0.3419472873210907, 0.26279371976852417, 0.3874596357345581, 0.3042430579662323, 0.28508904576301575, 0.859597384929657, 0.24514760076999664, 0.4752851724624634, 0.7992297410964966, 0.40215933322906494, 0.48123010993003845, 0.8148194551467896, 0.7133877277374268, 0.7117574214935303, 0.6386304497718811, 0.7561886310577393, 0.9220541715621948, 0.7237985730171204, 0.8881374001502991, 0.863209068775177, 0.5005595684051514, 0.7791147232055664, 0.6753844022750854, 0.757116436958313, 0.7202101945877075, 0.4067651033401489, 0.3189137279987335, 0.8708903193473816, 0.8770162463188171, 0.6470986604690552, 0.922206699848175, 0.9264302253723145, 0.8157954216003418, 0.6035376191139221, 0.3612698018550873, 0.3568314015865326, 0.35045912861824036, 0.47806915640830994, 0.4587559998035431, 0.45382067561149597, 0.32115307450294495, 0.3150998651981354, 0.23392920196056366, 0.28979650139808655, 0.21281692385673523, 0.33580896258354187, 0.6891501545906067, 0.4200769066810608, 0.6190322637557983, 0.6129826903343201, 0.6352995038032532, 0.5659138560295105, 0.7866871356964111, 0.43846869468688965, 0.37295907735824585, 0.28934451937675476, 0.5609648823738098, 0.1520623117685318, 0.31236010789871216, 0.29104214906692505, 0.37647318840026855, 0.4491274058818817, 0.40300726890563965, 0.14942117035388947, 0.16316404938697815, 0.18509644269943237, 0.10282190889120102, 0.1270621120929718, 0.12343879044055939, 0.2774028480052948, 0.3592131435871124, 0.2744460999965668, 0.5360010862350464, 0.5334887504577637, 0.43206101655960083, 0.36187997460365295, 0.19218431413173676, 0.2661256194114685, 0.7131639719009399, 0.7113739252090454]</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.840449333190918</v>
+        <v>0.9264302253723145</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
@@ -7143,10 +7143,10 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0.6126724999921862</v>
+        <v>0.6441780000022845</v>
       </c>
       <c r="J165" t="n">
-        <v>0.005725911214880245</v>
+        <v>0.006020355140208267</v>
       </c>
     </row>
     <row r="166">
@@ -7165,11 +7165,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>[0.3552647829055786, 0.3829749524593353, 0.5054700374603271, 0.5720641613006592, 0.6575667262077332, 0.30191928148269653, 0.31475067138671875, 0.4131568372249603, 0.2973020076751709, 0.4958062469959259, 0.44399839639663696, 0.4472742974758148, 0.3267022967338562, 0.48382043838500977, 0.2941758930683136, 0.3704404830932617, 0.2865409553050995, 0.18209782242774963, 0.22256630659103394, 0.44527313113212585, 0.26856353878974915, 0.2452116310596466, 0.07529626786708832, 0.14595262706279755, 0.12554965913295746, 0.11170701682567596, 0.130857914686203, 0.17717456817626953, 0.1667751967906952, 0.18022143840789795, 0.1176498532295227, 0.2788037657737732, 0.32160159945487976, 0.3326212465763092, 0.23935717344284058, 0.31208428740501404, 0.4701123535633087, 0.3912261426448822, 0.2988249957561493, 0.43844136595726013, 0.5121573805809021, 0.35525041818618774, 0.31484442949295044, 0.395707368850708, 0.29645267128944397, 0.4323722720146179, 0.46564608812332153, 0.41006478667259216, 0.21326424181461334, 0.29443517327308655, 0.3224267065525055, 0.4114076793193817, 0.25608524680137634, 0.42558443546295166, 0.15536651015281677, 0.20679162442684174, 0.39546558260917664, 0.3390701413154602, 0.21747152507305145, 0.14819470047950745, 0.11467251926660538, 0.1876690536737442, 0.2833947539329529, 0.2877388000488281, 0.23932385444641113, 0.134954571723938, 0.127938374876976, 0.1656152307987213, 0.0929153561592102, 0.12980365753173828, 0.11820585280656815, 0.27911776304244995, 0.39687299728393555, 0.40918007493019104, 0.1974048912525177, 0.4577220380306244, 0.14566288888454437, 0.17579872906208038, 0.44161027669906616, 0.35219985246658325, 0.35905900597572327, 0.6109108924865723, 0.5655292272567749, 0.6999000310897827, 0.27558183670043945, 0.47607117891311646, 0.41719692945480347, 0.29484260082244873, 0.625372052192688, 0.4096094071865082, 0.24565882980823517, 0.24555261433124542, 0.19182957708835602, 0.11951012909412384, 0.20612049102783203, 0.3073750436306, 0.13432657718658447, 0.23282748460769653, 0.12139426171779633, 0.2852853238582611, 0.31199777126312256, 0.2431427240371704, 0.1840514838695526, 0.3361973166465759, 0.1563522219657898, 0.13191208243370056, 0.1321811079978943]</t>
+          <t>[0.4471466541290283, 0.4067174196243286, 0.5509100556373596, 0.5842562317848206, 0.7379425764083862, 0.2784079909324646, 0.4905351996421814, 0.6374900937080383, 0.3592706024646759, 0.625373899936676, 0.5399059653282166, 0.4963567554950714, 0.4082576334476471, 0.5576809048652649, 0.3700234889984131, 0.43337491154670715, 0.47018808126449585, 0.1832398623228073, 0.21186284720897675, 0.41185012459754944, 0.2680402994155884, 0.2518393099308014, 0.07218408584594727, 0.15645542740821838, 0.1305938959121704, 0.11510128527879715, 0.11277686804533005, 0.17495645582675934, 0.1292538195848465, 0.14582057297229767, 0.08321389555931091, 0.33759307861328125, 0.3648078739643097, 0.3272671699523926, 0.19060081243515015, 0.3069908618927002, 0.6079554557800293, 0.5278634428977966, 0.4176650643348694, 0.5737417340278625, 0.7111687660217285, 0.4140591323375702, 0.28126397728919983, 0.42303141951560974, 0.3204589784145355, 0.5161861181259155, 0.5719277262687683, 0.5398761034011841, 0.30376389622688293, 0.3466290533542633, 0.3820187449455261, 0.527025580406189, 0.29705649614334106, 0.5570772886276245, 0.1376246064901352, 0.19448481500148773, 0.5169782638549805, 0.4591524302959442, 0.2695907950401306, 0.17572668194770813, 0.17553271353244781, 0.2553330957889557, 0.3368092179298401, 0.3787583112716675, 0.2637273371219635, 0.13288041949272156, 0.11775001883506775, 0.17569798231124878, 0.08226372301578522, 0.1338421106338501, 0.13347481191158295, 0.27085137367248535, 0.3966464698314667, 0.4982391595840454, 0.20717395842075348, 0.6017864346504211, 0.12765470147132874, 0.22477200627326965, 0.5360131859779358, 0.4169888496398926, 0.47211596369743347, 0.6683340668678284, 0.706128716468811, 0.8570877313613892, 0.43471670150756836, 0.6292608976364136, 0.6780484318733215, 0.3786849081516266, 0.651160478591919, 0.4879727065563202, 0.31558918952941895, 0.3412710726261139, 0.20694544911384583, 0.14737552404403687, 0.29998311400413513, 0.5527722835540771, 0.20114240050315857, 0.25549787282943726, 0.13732407987117767, 0.3646540343761444, 0.3743557929992676, 0.2640111446380615, 0.19571134448051453, 0.42470473051071167, 0.14704997837543488, 0.15901432931423187, 0.15924206376075745]</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.6999000310897827</v>
+        <v>0.8570877313613892</v>
       </c>
       <c r="F166" t="n">
         <v>1</v>
@@ -7183,10 +7183,10 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0.6106130999978632</v>
+        <v>0.6145302000077209</v>
       </c>
       <c r="J166" t="n">
-        <v>0.005706664485961338</v>
+        <v>0.005743272897268419</v>
       </c>
     </row>
     <row r="167">
@@ -7205,11 +7205,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>[0.063850536942482, 0.1845620572566986, 0.18890151381492615, 0.1808719038963318, 0.09850779920816422, 0.14025220274925232, 0.22924163937568665, 0.25336524844169617, 0.20790618658065796, 0.12817499041557312, 0.23778527975082397, 0.15704065561294556, 0.13883662223815918, 0.1495007574558258, 0.1891072392463684, 0.12394127249717712, 0.1350872814655304, 0.20052847266197205, 0.41467785835266113, 0.239727184176445, 0.2045462429523468, 0.1950273960828781, 0.11633232235908508, 0.13793306052684784, 0.10972796380519867, 0.17372147738933563, 0.1756332814693451, 0.1487763226032257, 0.15179303288459778, 0.164228156208992, 0.26612022519111633, 0.2341783493757248, 0.10721264034509659, 0.16927580535411835, 0.16327759623527527, 0.1736433506011963, 0.1957235187292099, 0.12218142300844193, 0.15221288800239563, 0.18499979376792908, 0.2110186219215393, 0.15402181446552277, 0.1466558873653412, 0.11510743200778961, 0.09853918105363846, 0.11278168112039566, 0.11134661734104156, 0.08141955733299255, 0.1813517063856125, 0.2664293348789215, 0.23028670251369476, 0.11098451167345047, 0.11454234272241592, 0.12759682536125183, 0.12720924615859985, 0.4233925938606262, 0.34145569801330566, 0.373272567987442, 0.32479792833328247, 0.2643144726753235, 0.14683273434638977, 0.2424195259809494, 0.1619102507829666, 0.2094891369342804, 0.35461685061454773, 0.38078123331069946, 0.35013547539711, 0.14401189982891083, 0.337115615606308, 0.1350361406803131, 0.18525710701942444, 0.22298561036586761, 0.06988460570573807, 0.1503710299730301, 0.12408638000488281, 0.11089646071195602, 0.12564493715763092, 0.12001632153987885, 0.20473554730415344, 0.1310795247554779, 0.1290116161108017, 0.17699523270130157, 0.15433742105960846, 0.07108892500400543, 0.10463280975818634, 0.13064676523208618, 0.24026146531105042, 0.1519390344619751, 0.16591289639472961, 0.20462940633296967, 0.14636211097240448, 0.19033487141132355, 0.20559623837471008, 0.172425776720047, 0.20114079117774963, 0.15636926889419556, 0.13856801390647888, 0.08659983426332474, 0.13242320716381073, 0.06794589757919312, 0.11200966686010361, 0.12389478832483292, 0.18870046734809875, 0.0835001990199089, 0.09436801820993423, 0.106207475066185, 0.1058550700545311]</t>
+          <t>[0.06267031282186508, 0.31619593501091003, 0.30047938227653503, 0.22895629703998566, 0.08872554451227188, 0.18564829230308533, 0.43257227540016174, 0.45158591866493225, 0.33315297961235046, 0.1705361306667328, 0.47912463545799255, 0.21232472360134125, 0.1679181605577469, 0.26995816826820374, 0.2859974503517151, 0.1705809235572815, 0.18373697996139526, 0.306169718503952, 0.7417321801185608, 0.45881885290145874, 0.35267868638038635, 0.2941712737083435, 0.14337483048439026, 0.1905680149793625, 0.14772763848304749, 0.22407478094100952, 0.2615159749984741, 0.24612031877040863, 0.22028996050357819, 0.23411105573177338, 0.3800012171268463, 0.4525679647922516, 0.11569935828447342, 0.2312997579574585, 0.3409333825111389, 0.1860732138156891, 0.2213842272758484, 0.12732677161693573, 0.2099294513463974, 0.295563668012619, 0.44653481245040894, 0.23892831802368164, 0.25706109404563904, 0.2033652514219284, 0.14602738618850708, 0.17235428094863892, 0.15365912020206451, 0.10173339396715164, 0.2879053056240082, 0.46424999833106995, 0.48035410046577454, 0.1658109575510025, 0.13986772298812866, 0.1765076071023941, 0.21250788867473602, 0.7897600531578064, 0.5708892941474915, 0.6473724246025085, 0.49922582507133484, 0.43896111845970154, 0.2138894945383072, 0.3980741500854492, 0.17785018682479858, 0.35312363505363464, 0.5326567888259888, 0.48658445477485657, 0.4191237986087799, 0.133444145321846, 0.33466964960098267, 0.1366831213235855, 0.213328018784523, 0.24238921701908112, 0.07951520383358002, 0.22623692452907562, 0.1426069140434265, 0.1778738796710968, 0.18874047696590424, 0.09880824387073517, 0.26828721165657043, 0.13868121802806854, 0.13851360976696014, 0.19583067297935486, 0.19579538702964783, 0.055560652166604996, 0.10131403058767319, 0.11043189465999603, 0.18529704213142395, 0.14995765686035156, 0.2179732322692871, 0.2189914435148239, 0.19781023263931274, 0.2760375738143921, 0.3225473463535309, 0.21931777894496918, 0.24634596705436707, 0.1946868598461151, 0.15107502043247223, 0.09244298189878464, 0.12943506240844727, 0.0682193711400032, 0.12356416881084442, 0.1279364824295044, 0.2333691120147705, 0.08271535485982895, 0.08779969066381454, 0.12488112598657608, 0.12422651052474976]</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.4233925938606262</v>
+        <v>0.7897600531578064</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
@@ -7223,10 +7223,10 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>0.6198249000008218</v>
+        <v>0.6129575000086334</v>
       </c>
       <c r="J167" t="n">
-        <v>0.005792756074774036</v>
+        <v>0.005728574766435826</v>
       </c>
     </row>
     <row r="168">
@@ -7245,11 +7245,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>[0.08199542760848999, 0.07025081664323807, 0.07332092523574829, 0.04992204159498215, 0.0568666011095047, 0.05979650095105171, 0.07451561093330383, 0.10708452761173248, 0.07337424159049988, 0.08993291109800339, 0.16443637013435364, 0.12697380781173706, 0.1567062884569168, 0.2224828600883484, 0.2404695302248001, 0.1608593463897705, 0.14586587250232697, 0.19741858541965485, 0.1254054754972458, 0.12831410765647888, 0.09414725750684738, 0.08399690687656403, 0.10032038390636444, 0.07909619808197021, 0.09310030937194824, 0.09327467530965805, 0.09867575764656067, 0.12599870562553406, 0.09282256662845612, 0.06810829043388367, 0.11383093893527985, 0.09894229471683502, 0.12206684798002243, 0.23442324995994568, 0.1847575157880783, 0.24075642228126526, 0.24089108407497406, 0.12439614534378052, 0.10352293401956558, 0.07776311039924622, 0.07559407502412796, 0.10769739001989365, 0.15378527343273163, 0.20207619667053223, 0.1940285563468933, 0.19240231812000275, 0.11081978678703308, 0.3080322742462158, 0.10416897386312485, 0.21158096194267273, 0.15004315972328186, 0.11699847131967545, 0.11553916335105896, 0.16577968001365662, 0.10057104378938675, 0.10969633609056473, 0.47304201126098633, 0.1530153900384903, 0.18686914443969727, 0.21191810071468353, 0.10895104706287384, 0.21036271750926971, 0.1984095573425293, 0.08830168098211288, 0.09660620987415314, 0.08673607558012009, 0.10064030438661575, 0.18163752555847168, 0.23090258240699768, 0.16157713532447815, 0.10389429330825806, 0.10915616899728775, 0.19892029464244843, 0.1608026623725891, 0.18067462742328644, 0.104871466755867, 0.20170696079730988, 0.09936776012182236, 0.08378269523382187, 0.13758981227874756, 0.12232043594121933, 0.11845336109399796, 0.06913050264120102, 0.0861419290304184, 0.09302119165658951, 0.08842257410287857, 0.1070333793759346, 0.11692994087934494, 0.21820354461669922, 0.13020043075084686, 0.18576468527317047, 0.24606111645698547, 0.21023023128509521, 0.15528692305088043, 0.22868090867996216, 0.19196705520153046, 0.1773354411125183, 0.1270860731601715, 0.16099856793880463, 0.11658665537834167, 0.16584092378616333, 0.19883717596530914, 0.23126600682735443, 0.134735107421875, 0.10974224656820297, 0.19067546725273132, 0.19067546725273132]</t>
+          <t>[0.05904919281601906, 0.04602640122175217, 0.047765035182237625, 0.022851604968309402, 0.03191814944148064, 0.04637850448489189, 0.04729538410902023, 0.06669972091913223, 0.042315829545259476, 0.0575188472867012, 0.2090362310409546, 0.15564335882663727, 0.1853908896446228, 0.43304890394210815, 0.36980998516082764, 0.1987471729516983, 0.1759714037179947, 0.3970445990562439, 0.10072311758995056, 0.07807189971208572, 0.07629194110631943, 0.054488178342580795, 0.06925854086875916, 0.06291837245225906, 0.06469427049160004, 0.06579342484474182, 0.08772005140781403, 0.09078587591648102, 0.065289705991745, 0.03645548224449158, 0.11529020220041275, 0.10255581885576248, 0.1356063187122345, 0.30291587114334106, 0.26076263189315796, 0.304123193025589, 0.3575916588306427, 0.16613155603408813, 0.11962328851222992, 0.05135215446352959, 0.05509332939982414, 0.1131812185049057, 0.14323648810386658, 0.22000472247600555, 0.15884718298912048, 0.15094316005706787, 0.09320948272943497, 0.4001298248767853, 0.08842981606721878, 0.2086697220802307, 0.12384288012981415, 0.11598508059978485, 0.09542566537857056, 0.12471167743206024, 0.08869265764951706, 0.06847506016492844, 0.654620885848999, 0.15175504982471466, 0.13884244859218597, 0.2726163864135742, 0.07986878603696823, 0.2363622784614563, 0.1559617519378662, 0.06135472282767296, 0.06059660017490387, 0.06226891651749611, 0.08426536619663239, 0.2131258249282837, 0.38284048438072205, 0.2227707803249359, 0.09851185977458954, 0.08702550083398819, 0.1975812166929245, 0.1440022587776184, 0.2699997127056122, 0.15141205489635468, 0.25129401683807373, 0.10368569940328598, 0.0824308767914772, 0.11471723765134811, 0.11920833587646484, 0.1348503679037094, 0.0639440268278122, 0.06482702493667603, 0.06806592643260956, 0.06032475084066391, 0.08737298101186752, 0.12565040588378906, 0.2723637521266937, 0.17401520907878876, 0.2124956250190735, 0.34674474596977234, 0.266997754573822, 0.1552206426858902, 0.28052157163619995, 0.20345939695835114, 0.15745344758033752, 0.10579176992177963, 0.16654673218727112, 0.08472304046154022, 0.14354121685028076, 0.20163603127002716, 0.2098831683397293, 0.1054048240184784, 0.07134880870580673, 0.15652434527873993, 0.15652434527873993]</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.4730420112609863</v>
+        <v>0.654620885848999</v>
       </c>
       <c r="F168" t="n">
         <v>1</v>
@@ -7263,10 +7263,10 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0.6233656000113115</v>
+        <v>0.6213512999966042</v>
       </c>
       <c r="J168" t="n">
-        <v>0.005825846729077678</v>
+        <v>0.005807021495295366</v>
       </c>
     </row>
     <row r="169">
@@ -7285,11 +7285,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>[0.936204731464386, 0.9610986113548279, 0.8884927034378052, 0.893954873085022, 0.7483052015304565, 0.8743320107460022, 0.8090115189552307, 0.35852330923080444, 0.6162660121917725, 0.49025028944015503, 0.4600866734981537, 0.6747020483016968, 0.6740124225616455, 0.6872972249984741, 0.12777090072631836, 0.18444094061851501, 0.312478244304657, 0.4001893699169159, 0.2544324994087219, 0.41539594531059265, 0.4012993574142456, 0.19716079533100128, 0.17179755866527557, 0.47255128622055054, 0.41513702273368835, 0.6941257119178772, 0.41019880771636963, 0.3992845416069031, 0.7131460905075073, 0.7547534108161926, 0.2998293340206146, 0.4645358622074127, 0.44350627064704895, 0.5823323130607605, 0.3818295896053314, 0.34913164377212524, 0.5149435997009277, 0.31179866194725037, 0.2961095869541168, 0.37126967310905457, 0.4921598732471466, 0.42509448528289795, 0.5461621880531311, 0.5861655473709106, 0.32736343145370483, 0.34138596057891846, 0.3469254970550537, 0.3282335102558136, 0.39712563157081604, 0.34200403094291687, 0.2811637818813324, 0.41030001640319824, 0.5172759294509888, 0.38996702432632446, 0.6345087289810181, 0.4970482587814331, 0.24737821519374847, 0.5250159502029419, 0.3020603656768799, 0.5109112858772278, 0.491127073764801, 0.44939619302749634, 0.35983604192733765, 0.4984697997570038, 0.6366467475891113, 0.7204744815826416, 0.8307287693023682, 0.708042323589325, 0.7583262324333191, 0.755486786365509, 0.7017344832420349, 0.7474573254585266, 0.7422470450401306, 0.8226925730705261, 0.379820317029953, 0.3596864938735962, 0.534863293170929, 0.5452262759208679, 0.2765524685382843, 0.4817260205745697, 0.34683191776275635, 0.49042603373527527, 0.6505025625228882, 0.5345520973205566, 0.39502736926078796, 0.5508894324302673, 0.5821394324302673, 0.5403921008110046, 0.6839329600334167, 0.5516477823257446, 0.602094829082489, 0.5722250938415527, 0.5884056091308594, 0.6325284838676453, 0.7073758840560913, 0.8412135243415833, 0.7318853735923767, 0.716131865978241, 0.8281087279319763, 0.7399083971977234, 0.7305378913879395, 0.8296590447425842, 0.7973370552062988, 0.880713701248169, 0.7079006433486938, 0.7506966590881348, 0.7492684721946716]</t>
+          <t>[0.9814274907112122, 0.9916552305221558, 0.9753893613815308, 0.9742622971534729, 0.922736644744873, 0.9579731822013855, 0.9063587188720703, 0.5959190130233765, 0.8335158228874207, 0.7571813464164734, 0.7359914183616638, 0.9342098832130432, 0.9144258499145508, 0.8670427203178406, 0.16687071323394775, 0.2822656035423279, 0.5172451734542847, 0.783922553062439, 0.40894249081611633, 0.5791295170783997, 0.5069428086280823, 0.29064539074897766, 0.20870821177959442, 0.7576329708099365, 0.7732094526290894, 0.8372501134872437, 0.5711610317230225, 0.37016764283180237, 0.8443273305892944, 0.9177676439285278, 0.38081634044647217, 0.6119701862335205, 0.6014613509178162, 0.7420105934143066, 0.5054530501365662, 0.5080440640449524, 0.770228385925293, 0.3940716087818146, 0.38407012820243835, 0.5200538039207458, 0.6804443001747131, 0.5144706964492798, 0.6239182353019714, 0.686453104019165, 0.3349245488643646, 0.3606005609035492, 0.4879377782344818, 0.40821751952171326, 0.48550182580947876, 0.37864336371421814, 0.3603580892086029, 0.521645724773407, 0.639066219329834, 0.42208316922187805, 0.7835164070129395, 0.5997623801231384, 0.3201335370540619, 0.7092182636260986, 0.33650660514831543, 0.7254308462142944, 0.7655076384544373, 0.6204862594604492, 0.4333956837654114, 0.7460289597511292, 0.8191536664962769, 0.928654134273529, 0.9253399968147278, 0.8628291487693787, 0.9058223366737366, 0.884013831615448, 0.8275161981582642, 0.8342305421829224, 0.8258883953094482, 0.9076224565505981, 0.43647855520248413, 0.4390179514884949, 0.6137825846672058, 0.7404836416244507, 0.5279790759086609, 0.7578651905059814, 0.4350978434085846, 0.6588200330734253, 0.8206251859664917, 0.7258905172348022, 0.4795655906200409, 0.7101237773895264, 0.6873462200164795, 0.654245138168335, 0.8041492700576782, 0.6002613306045532, 0.7027737498283386, 0.7431697249412537, 0.7869225740432739, 0.8267886638641357, 0.8501643538475037, 0.8990896344184875, 0.8706036806106567, 0.8694575428962708, 0.9519590735435486, 0.9114041924476624, 0.9023895859718323, 0.958349883556366, 0.9520494937896729, 0.9700581431388855, 0.8824253678321838, 0.9028370976448059, 0.901962161064148]</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.9610986113548279</v>
+        <v>0.9916552305221558</v>
       </c>
       <c r="F169" t="n">
         <v>1</v>
@@ -7303,10 +7303,10 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>0.6114837999921292</v>
+        <v>0.6133836000080919</v>
       </c>
       <c r="J169" t="n">
-        <v>0.00571480186908532</v>
+        <v>0.005732557009421419</v>
       </c>
     </row>
     <row r="170">
@@ -7325,11 +7325,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>[0.086921826004982, 0.2741166353225708, 0.2362174689769745, 0.23873980343341827, 0.37965163588523865, 0.2332746386528015, 0.18480956554412842, 0.2115745097398758, 0.26592910289764404, 0.16555237770080566, 0.32956430315971375, 0.19362396001815796, 0.25839853286743164, 0.17479564249515533, 0.10130669921636581, 0.15097090601921082, 0.22670304775238037, 0.08850623667240143, 0.10793460160493851, 0.1405608057975769, 0.0858321413397789, 0.14706416428089142, 0.17152895033359528, 0.12092490494251251, 0.07093692570924759, 0.10505414754152298, 0.1375444084405899, 0.08519750088453293, 0.084562748670578, 0.06971282511949539, 0.10169902443885803, 0.1406950056552887, 0.0928317978978157, 0.13107191026210785, 0.09412204474210739, 0.13301429152488708, 0.19214540719985962, 0.14692464470863342, 0.10971573740243912, 0.12555262446403503, 0.0861935093998909, 0.05912448465824127, 0.1319846510887146, 0.10668788850307465, 0.10179661214351654, 0.23105907440185547, 0.3969819247722626, 0.09589686244726181, 0.3178972005844116, 0.1807107925415039, 0.2679358720779419, 0.3431548476219177, 0.2491914927959442, 0.17344070971012115, 0.12858960032463074, 0.2256574183702469, 0.10307160764932632, 0.17323361337184906, 0.14445865154266357, 0.1673225462436676, 0.14139123260974884, 0.11224526911973953, 0.08661561459302902, 0.09223539382219315, 0.09305623918771744, 0.11683046072721481, 0.11798936128616333, 0.11741890758275986, 0.11835058778524399, 0.0609302818775177, 0.08396703004837036, 0.17419064044952393, 0.13980016112327576, 0.13204450905323029, 0.08950137346982956, 0.06451074779033661, 0.13529576361179352, 0.2134878784418106, 0.12163963168859482, 0.08001081645488739, 0.1841626614332199, 0.20318570733070374, 0.43567630648612976, 0.12157205492258072, 0.15195351839065552, 0.18653008341789246, 0.20600956678390503, 0.13392934203147888, 0.11775609105825424, 0.19809578359127045, 0.15426814556121826, 0.1226096823811531, 0.07968410104513168, 0.11400994658470154, 0.09332914650440216, 0.10337281227111816, 0.12992343306541443, 0.18274326622486115, 0.10589347779750824, 0.09233564883470535, 0.11556676775217056, 0.07294067740440369, 0.08476389199495316, 0.0989394411444664, 0.09127265959978104, 0.09497927129268646, 0.09484473615884781]</t>
+          <t>[0.11484383791685104, 0.3114781081676483, 0.22840705513954163, 0.32937049865722656, 0.5622819662094116, 0.33155253529548645, 0.34347227215766907, 0.22514791786670685, 0.35167938470840454, 0.23531001806259155, 0.43730467557907104, 0.27815818786621094, 0.3497507870197296, 0.2823168635368347, 0.14624767005443573, 0.19423019886016846, 0.3054359555244446, 0.1413811594247818, 0.14042147994041443, 0.17851564288139343, 0.10936622321605682, 0.2024313062429428, 0.2625119388103485, 0.13872255384922028, 0.06596609205007553, 0.1141391173005104, 0.22469858825206757, 0.1376112848520279, 0.09525518864393234, 0.09513292461633682, 0.12901964783668518, 0.1762891262769699, 0.08721719682216644, 0.14770299196243286, 0.10818800330162048, 0.16527198255062103, 0.20933298766613007, 0.16311636567115784, 0.1053754910826683, 0.14782753586769104, 0.09773173183202744, 0.07174725085496902, 0.14028578996658325, 0.09698084741830826, 0.11872579902410507, 0.3013550937175751, 0.598589301109314, 0.10246157646179199, 0.4600205719470978, 0.20181229710578918, 0.4460724890232086, 0.5399990677833557, 0.3123002052307129, 0.20345571637153625, 0.18995395302772522, 0.2930791974067688, 0.14676807820796967, 0.25393617153167725, 0.1360529065132141, 0.30926430225372314, 0.2830859124660492, 0.14166975021362305, 0.12680238485336304, 0.13386978209018707, 0.10618560016155243, 0.13240180909633636, 0.11655828356742859, 0.10473074018955231, 0.16072770953178406, 0.05308650806546211, 0.05339065194129944, 0.170490100979805, 0.10813242942094803, 0.10751806944608688, 0.07849136739969254, 0.06704698503017426, 0.12957939505577087, 0.2724571228027344, 0.1121634766459465, 0.09737842530012131, 0.2987954020500183, 0.28186991810798645, 0.5706611275672913, 0.1342138946056366, 0.14536410570144653, 0.19227322936058044, 0.21961316466331482, 0.19291062653064728, 0.12259165942668915, 0.18671159446239471, 0.17502516508102417, 0.12195569276809692, 0.06441140174865723, 0.09072646498680115, 0.05916038900613785, 0.08422872424125671, 0.15920060873031616, 0.199789360165596, 0.11620309948921204, 0.07372526079416275, 0.10778319835662842, 0.07099542021751404, 0.09468144178390503, 0.07473514974117279, 0.0608837716281414, 0.07062682509422302, 0.07053183764219284]</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.4356763064861298</v>
+        <v>0.598589301109314</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -7343,10 +7343,10 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>0.6205130000016652</v>
+        <v>0.6087971000088146</v>
       </c>
       <c r="J170" t="n">
-        <v>0.005799186915903413</v>
+        <v>0.005689692523446865</v>
       </c>
     </row>
     <row r="171">
@@ -7365,11 +7365,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>[0.26924368739128113, 0.29986849427223206, 0.22894921898841858, 0.19056038558483124, 0.262789249420166, 0.30053597688674927, 0.4524264633655548, 0.21655124425888062, 0.3578615188598633, 0.1777389794588089, 0.6362059116363525, 0.14097048342227936, 0.2927761971950531, 0.26055973768234253, 0.285172700881958, 0.17823158204555511, 0.16784140467643738, 0.2964012324810028, 0.2438632994890213, 0.35370633006095886, 0.18588341772556305, 0.15701544284820557, 0.2401682436466217, 0.21872441470623016, 0.20890362560749054, 0.16980710625648499, 0.14189288020133972, 0.29107919335365295, 0.15383389592170715, 0.2179337590932846, 0.30692577362060547, 0.6210157871246338, 0.42690330743789673, 0.24653562903404236, 0.35905423760414124, 0.4121274948120117, 0.5474298000335693, 0.547757089138031, 0.6991705298423767, 0.8212441205978394, 0.8195977807044983, 0.9450939893722534, 0.699715793132782, 0.9533605575561523, 0.8611994385719299, 0.957996666431427, 0.947536289691925, 0.9852955341339111, 0.977952778339386, 0.9332549571990967, 0.9641602635383606, 0.9693374037742615, 0.98041832447052, 0.9669674634933472, 0.1257355511188507, 0.09387326240539551, 0.9090299010276794, 0.1332092434167862, 0.07488168030977249, 0.12313779443502426, 0.158169686794281, 0.11436548829078674, 0.11456229537725449, 0.1573553830385208, 0.14694057404994965, 0.15762682259082794, 0.13711944222450256, 0.22440984845161438, 0.10306397825479507, 0.11701274663209915, 0.13465341925621033, 0.1485709547996521, 0.15789775550365448, 0.12359987944364548, 0.12771698832511902, 0.1639372855424881, 0.15789376199245453, 0.13546885550022125, 0.15273834764957428, 0.23852777481079102, 0.21094419062137604, 0.12227755039930344, 0.2929501533508301, 0.1057734563946724, 0.13681578636169434, 0.14243362843990326, 0.194499209523201, 0.3158157765865326, 0.17740502953529358, 0.27176710963249207, 0.9487054347991943, 0.9573411345481873, 0.9802564382553101, 0.9118797779083252, 0.1386476457118988, 0.15687967836856842, 0.07986079156398773, 0.15223202109336853, 0.5456541776657104, 0.8814271092414856, 0.9450270533561707, 0.8956117033958435, 0.737943708896637, 0.2824530303478241, 0.19358184933662415, 0.8851523995399475, 0.8852855563163757]</t>
+          <t>[0.36351123452186584, 0.33489492535591125, 0.33320218324661255, 0.2636987566947937, 0.4145890474319458, 0.4023074209690094, 0.7298449277877808, 0.32875126600265503, 0.5573313236236572, 0.25954458117485046, 0.8136649131774902, 0.1830611526966095, 0.4911711513996124, 0.38176482915878296, 0.3679920434951782, 0.21834717690944672, 0.1820048838853836, 0.3130393624305725, 0.20371806621551514, 0.3780205249786377, 0.13854633271694183, 0.14238031208515167, 0.29547902941703796, 0.2165163904428482, 0.22754579782485962, 0.18917785584926605, 0.10822387784719467, 0.4662656784057617, 0.16981548070907593, 0.26541250944137573, 0.592781126499176, 0.8218475580215454, 0.7164598703384399, 0.30018317699432373, 0.4425620436668396, 0.49158427119255066, 0.6805627346038818, 0.7011286020278931, 0.8703023791313171, 0.9495068192481995, 0.9682029485702515, 0.9864804148674011, 0.8719097375869751, 0.9849083423614502, 0.9576898217201233, 0.9888544082641602, 0.9797152280807495, 0.9957744479179382, 0.9928037524223328, 0.9848533868789673, 0.9900036454200745, 0.988167941570282, 0.9952945113182068, 0.9899799823760986, 0.11635573208332062, 0.06489068269729614, 0.9774593710899353, 0.10391980409622192, 0.053749993443489075, 0.1170962005853653, 0.16899245977401733, 0.09650717675685883, 0.07610150426626205, 0.12444672733545303, 0.10947173088788986, 0.1216769590973854, 0.18401074409484863, 0.37550270557403564, 0.09616374224424362, 0.09942236542701721, 0.11345242708921432, 0.1257418990135193, 0.09977319836616516, 0.10890477895736694, 0.11084595322608948, 0.16273604333400726, 0.13634732365608215, 0.11026374995708466, 0.12023794651031494, 0.27258867025375366, 0.22012987732887268, 0.09679234027862549, 0.3090142011642456, 0.0908118411898613, 0.1099817156791687, 0.1033603772521019, 0.1813591867685318, 0.3851986825466156, 0.1610940843820572, 0.3419611155986786, 0.9866213798522949, 0.9908314347267151, 0.9950632452964783, 0.9891741275787354, 0.15247060358524323, 0.18096977472305298, 0.07101578265428543, 0.25956323742866516, 0.899292528629303, 0.9747087955474854, 0.9911407828330994, 0.9844200015068054, 0.9342441558837891, 0.40038734674453735, 0.33929693698883057, 0.9801056981086731, 0.9801245927810669]</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.9852955341339111</v>
+        <v>0.9957744479179382</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -7383,10 +7383,10 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0.7688650999916717</v>
+        <v>0.7349670999974478</v>
       </c>
       <c r="J171" t="n">
-        <v>0.007185655140109081</v>
+        <v>0.006868851401845307</v>
       </c>
     </row>
     <row r="172">
@@ -7405,11 +7405,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>[0.13498714566230774, 0.14364270865917206, 0.11796680092811584, 0.2901827394962311, 0.5993327498435974, 0.37951600551605225, 0.2914009988307953, 0.23337428271770477, 0.1597488820552826, 0.1736346334218979, 0.18935509026050568, 0.11235056072473526, 0.11092747747898102, 0.225663959980011, 0.11138814687728882, 0.20576809346675873, 0.0940069779753685, 0.09848949313163757, 0.09570338577032089, 0.15581035614013672, 0.17707176506519318, 0.14784546196460724, 0.5424813032150269, 0.7717249989509583, 0.15318135917186737, 0.13177497684955597, 0.18515855073928833, 0.1989704668521881, 0.1289616823196411, 0.21867305040359497, 0.1668512374162674, 0.1025579497218132, 0.1312890201807022, 0.13453538715839386, 0.19652393460273743, 0.22121255099773407, 0.22052797675132751, 0.19155198335647583, 0.09194658696651459, 0.09443004429340363, 0.09477001428604126, 0.07483221590518951, 0.15581831336021423, 0.10706498473882675, 0.17567703127861023, 0.15847444534301758, 0.14110395312309265, 0.06281908601522446, 0.06833108514547348, 0.1315583884716034, 0.11120235919952393, 0.18370121717453003, 0.1413617879152298, 0.21160316467285156, 0.2160971611738205, 0.1368023008108139, 0.15588046610355377, 0.05850968509912491, 0.31984299421310425, 0.9171632528305054, 0.7288475036621094, 0.3009737730026245, 0.06586520373821259, 0.06725987792015076, 0.11524243652820587, 0.1540503203868866, 0.13308271765708923, 0.23551182448863983, 0.08299912512302399, 0.16728127002716064, 0.4055584967136383, 0.7641268372535706, 0.9789532423019409, 0.9755394458770752, 0.9557577967643738, 0.42502260208129883, 0.10175219923257828, 0.23117491602897644, 0.23273096978664398, 0.20187559723854065, 0.11464260518550873, 0.1199851781129837, 0.16716305911540985, 0.9492865800857544, 0.8606910109519958, 0.777315080165863, 0.1685432493686676, 0.13956470787525177, 0.08020871877670288, 0.20203351974487305, 0.35840436816215515, 0.10830948501825333, 0.1282740831375122, 0.09417163580656052, 0.08872915059328079, 0.1598685383796692, 0.16661673784255981, 0.23425020277500153, 0.1169930025935173, 0.1523917019367218, 0.13866738975048065, 0.12787000834941864, 0.5620437264442444, 0.43980419635772705, 0.557105541229248, 0.7095133066177368, 0.709122359752655]</t>
+          <t>[0.16654106974601746, 0.19507937133312225, 0.19965235888957977, 0.5368275046348572, 0.8870436549186707, 0.6047313809394836, 0.47813400626182556, 0.37080493569374084, 0.17623919248580933, 0.32716238498687744, 0.3634335994720459, 0.10253997892141342, 0.10311798751354218, 0.30823183059692383, 0.09345902502536774, 0.28132763504981995, 0.0721137598156929, 0.07033919543027878, 0.07089711725711823, 0.19456599652767181, 0.3708653450012207, 0.13699530065059662, 0.7835211753845215, 0.9091347455978394, 0.15317076444625854, 0.14491969347000122, 0.19230911135673523, 0.2528550624847412, 0.1376233994960785, 0.2990066409111023, 0.19411322474479675, 0.13820870220661163, 0.15125174820423126, 0.11327696591615677, 0.2631981074810028, 0.33938151597976685, 0.2907842993736267, 0.26863205432891846, 0.08672026544809341, 0.0852682888507843, 0.06746339797973633, 0.07377401739358902, 0.19255848228931427, 0.10550196468830109, 0.22045737504959106, 0.1446378082036972, 0.12853233516216278, 0.057195257395505905, 0.07702062278985977, 0.14128075540065765, 0.09165966510772705, 0.16346688568592072, 0.15748311579227448, 0.2675586938858032, 0.4255446791648865, 0.14303439855575562, 0.187885120511055, 0.047376394271850586, 0.8007729053497314, 0.9889163970947266, 0.9227180480957031, 0.5954239964485168, 0.07556257396936417, 0.0596708320081234, 0.11157627403736115, 0.2716924846172333, 0.13367871940135956, 0.33402279019355774, 0.07411836087703705, 0.14572599530220032, 0.4505661725997925, 0.9124758839607239, 0.9944409728050232, 0.9949990510940552, 0.9902877807617188, 0.8581295609474182, 0.12991391122341156, 0.29654327034950256, 0.31467148661613464, 0.2005407065153122, 0.10857964307069778, 0.08792006224393845, 0.19337689876556396, 0.9910571575164795, 0.9705439209938049, 0.9499529600143433, 0.20779064297676086, 0.0958733782172203, 0.059563759714365005, 0.21002642810344696, 0.41740718483924866, 0.10027071088552475, 0.08775673806667328, 0.07502153515815735, 0.05203403905034065, 0.16260142624378204, 0.13115961849689484, 0.24137504398822784, 0.13198454678058624, 0.1356002688407898, 0.1082557961344719, 0.14190977811813354, 0.8508334159851074, 0.7095776200294495, 0.8423023819923401, 0.9477723836898804, 0.947715699672699]</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.9789532423019409</v>
+        <v>0.9949990510940552</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -7423,10 +7423,10 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0.6102542000007816</v>
+        <v>0.621160200011218</v>
       </c>
       <c r="J172" t="n">
-        <v>0.005703310280381136</v>
+        <v>0.005805235514123533</v>
       </c>
     </row>
     <row r="173">
@@ -7445,11 +7445,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>[0.3600578308105469, 0.3150142729282379, 0.22358007729053497, 0.24515652656555176, 0.1798015534877777, 0.215554878115654, 0.18258126080036163, 0.33439525961875916, 0.47382649779319763, 0.952006459236145, 0.46763506531715393, 0.43597355484962463, 0.6816192865371704, 0.655288815498352, 0.420598566532135, 0.4246966242790222, 0.5108025074005127, 0.6017350554466248, 0.22969792783260345, 0.17412708699703217, 0.2948663532733917, 0.826350212097168, 0.6202804446220398, 0.39747923612594604, 0.45948803424835205, 0.1515052169561386, 0.1264515370130539, 0.1966988742351532, 0.14191804826259613, 0.12274058908224106, 0.17440165579319, 0.195257306098938, 0.30612486600875854, 0.5361357927322388, 0.46126726269721985, 0.3235357701778412, 0.3735335171222687, 0.2831193208694458, 0.19940127432346344, 0.28351911902427673, 0.3372145891189575, 0.2528837025165558, 0.19299782812595367, 0.3730418384075165, 0.3126472234725952, 0.44989439845085144, 0.2404872477054596, 0.1362578421831131, 0.20251521468162537, 0.3356088399887085, 0.146667942404747, 0.22592583298683167, 0.2654133439064026, 0.25965604186058044, 0.20538319647312164, 0.3818323612213135, 0.4150274097919464, 0.645236611366272, 0.5088565945625305, 0.4893821179866791, 0.3281708061695099, 0.4112035036087036, 0.29292088747024536, 0.3946761190891266, 0.33830374479293823, 0.3232511878013611, 0.1728559136390686, 0.7888837456703186, 0.5264487266540527, 0.29171499609947205, 0.18739858269691467, 0.5433604121208191, 0.26881280541419983, 0.3032872974872589, 0.22752322256565094, 0.15100747346878052, 0.4019660949707031, 0.22631065547466278, 0.5552467703819275, 0.2892639636993408, 0.4437223970890045, 0.5076242089271545, 0.34715425968170166, 0.27196040749549866, 0.11944334208965302, 0.1312636286020279, 0.1424150913953781, 0.27822405099868774, 0.2576111853122711, 0.25755926966667175, 0.4380137026309967, 0.3422243297100067, 0.21688605844974518, 0.45101073384284973, 0.3535776436328888, 0.577548086643219, 0.20588117837905884, 0.2975884675979614, 0.2378702014684677, 0.499327689409256, 0.4091750383377075, 0.44823867082595825, 0.4307187497615814, 0.23842938244342804, 0.33321312069892883, 0.22293464839458466, 0.2236022800207138]</t>
+          <t>[0.2825128734111786, 0.29147401452064514, 0.2041703462600708, 0.2189895510673523, 0.2075733244419098, 0.1796501874923706, 0.20257797837257385, 0.4493136703968048, 0.5627838373184204, 0.9903914928436279, 0.5789218544960022, 0.48574191331863403, 0.8335404992103577, 0.785502016544342, 0.42471835017204285, 0.5464068055152893, 0.5870423316955566, 0.6908634901046753, 0.1908213347196579, 0.2011738419532776, 0.3352433443069458, 0.9640966653823853, 0.7203680276870728, 0.40364447236061096, 0.48188966512680054, 0.1674148440361023, 0.08035454899072647, 0.15876781940460205, 0.08664119988679886, 0.07397787272930145, 0.18834656476974487, 0.27109453082084656, 0.31023114919662476, 0.551645040512085, 0.4623197317123413, 0.3107738196849823, 0.40280404686927795, 0.28673702478408813, 0.18873724341392517, 0.29432496428489685, 0.31034818291664124, 0.2685926556587219, 0.1505860537290573, 0.40070173144340515, 0.3324379622936249, 0.48278042674064636, 0.2557646632194519, 0.13397644460201263, 0.17782318592071533, 0.32339054346084595, 0.1728358119726181, 0.1942867785692215, 0.31012704968452454, 0.2657460868358612, 0.11502522230148315, 0.41300830245018005, 0.48949703574180603, 0.7226213812828064, 0.5292250514030457, 0.4310530424118042, 0.36986637115478516, 0.4148198664188385, 0.303467333316803, 0.40023869276046753, 0.425374835729599, 0.5374717116355896, 0.21384818851947784, 0.9361333847045898, 0.6887365579605103, 0.2397642731666565, 0.2155730426311493, 0.5779423117637634, 0.40346336364746094, 0.2927243113517761, 0.19891275465488434, 0.14995968341827393, 0.33935853838920593, 0.18525688350200653, 0.5998699069023132, 0.3713659346103668, 0.4642907679080963, 0.5454632043838501, 0.28382375836372375, 0.18455733358860016, 0.08331195265054703, 0.06930751353502274, 0.07369691878557205, 0.19452205300331116, 0.16347934305667877, 0.15343548357486725, 0.3053983449935913, 0.23971819877624512, 0.16837769746780396, 0.34729817509651184, 0.2831727862358093, 0.5850512981414795, 0.14242799580097198, 0.2119753211736679, 0.20451226830482483, 0.39297226071357727, 0.31596851348876953, 0.39838436245918274, 0.40992966294288635, 0.1633748710155487, 0.2726728320121765, 0.2156037539243698, 0.21616105735301971]</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.952006459236145</v>
+        <v>0.9903914928436279</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
@@ -7463,10 +7463,10 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>0.6073994000034872</v>
+        <v>0.6141155999939656</v>
       </c>
       <c r="J173" t="n">
-        <v>0.005676629906574647</v>
+        <v>0.005739398130784725</v>
       </c>
     </row>
     <row r="174">
@@ -7485,11 +7485,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>[0.14342662692070007, 0.0983731672167778, 0.20770324766635895, 0.09362304955720901, 0.3574533462524414, 0.3691222369670868, 0.5274742245674133, 0.44894304871559143, 0.4015088677406311, 0.590132474899292, 0.3261720836162567, 0.385752409696579, 0.3270137906074524, 0.441078245639801, 0.35710644721984863, 0.42247384786605835, 0.2199251502752304, 0.4700024724006653, 0.21396251022815704, 0.23551702499389648, 0.3123090863227844, 0.305614709854126, 0.47602930665016174, 0.40567710995674133, 0.37904712557792664, 0.6789432168006897, 0.18496476113796234, 0.3120511472225189, 0.3728247284889221, 0.33365800976753235, 0.4399612545967102, 0.3634158968925476, 0.6000930666923523, 0.4848768413066864, 0.17878101766109467, 0.31895893812179565, 0.27634093165397644, 0.1539851874113083, 0.1721424162387848, 0.22654326260089874, 0.24240130186080933, 0.38458043336868286, 0.19915829598903656, 0.08850293606519699, 0.1609732210636139, 0.3733219504356384, 0.3237711787223816, 0.386568158864975, 0.3109072148799896, 0.2658511698246002, 0.2812826633453369, 0.2633124887943268, 0.4510748088359833, 0.5291513204574585, 0.4124801456928253, 0.4594370126724243, 0.08190816640853882, 0.13589493930339813, 0.1605536788702011, 0.18948286771774292, 0.28877970576286316, 0.31166258454322815, 0.5785421133041382, 0.3055667281150818, 0.3842599391937256, 0.43106919527053833, 0.4617353081703186, 0.6075273156166077, 0.2571597993373871, 0.26045748591423035, 0.662023663520813, 0.29015618562698364, 0.5633388757705688, 0.520194947719574, 0.1533174067735672, 0.2289581149816513, 0.1078558936715126, 0.26054495573043823, 0.0987975001335144, 0.1637876331806183, 0.2604275941848755, 0.28136691451072693, 0.16850100457668304, 0.27036523818969727, 0.1518537551164627, 0.3027518689632416, 0.345699667930603, 0.37929126620292664, 0.1734994798898697, 0.290609210729599, 0.4526483714580536, 0.4515601098537445, 0.3774610459804535, 0.7526047825813293, 0.9151102304458618, 0.8903139233589172, 0.9105618000030518, 0.8841977715492249, 0.7698754072189331, 0.8824771642684937, 0.6249334216117859, 0.700659453868866, 0.6737497448921204, 0.7881255149841309, 0.6590081453323364, 0.7484300136566162, 0.7486684918403625]</t>
+          <t>[0.18296028673648834, 0.08419670164585114, 0.23479294776916504, 0.08620806783437729, 0.48229536414146423, 0.45137161016464233, 0.743693470954895, 0.5279976725578308, 0.5104427933692932, 0.7236259579658508, 0.3671059012413025, 0.3966711163520813, 0.309181272983551, 0.5100434422492981, 0.3914443850517273, 0.5052708387374878, 0.26904502511024475, 0.5320690870285034, 0.3270585238933563, 0.40600404143333435, 0.455014705657959, 0.6104832291603088, 0.6440186500549316, 0.5671409368515015, 0.53786301612854, 0.7746796011924744, 0.25414788722991943, 0.4189486801624298, 0.5010672211647034, 0.3975796401500702, 0.5101759433746338, 0.4221469461917877, 0.7080481052398682, 0.682915210723877, 0.1773824244737625, 0.3797377347946167, 0.38324230909347534, 0.22485099732875824, 0.2499297857284546, 0.24743051826953888, 0.21945390105247498, 0.3600197732448578, 0.22164829075336456, 0.08557923883199692, 0.16335667669773102, 0.4150049090385437, 0.4241233766078949, 0.5109882354736328, 0.2696422338485718, 0.23087744414806366, 0.2433355152606964, 0.26374536752700806, 0.5271063446998596, 0.5722588300704956, 0.37333911657333374, 0.470668226480484, 0.10181228816509247, 0.1768026053905487, 0.20356078445911407, 0.2414751499891281, 0.346035361289978, 0.3059524893760681, 0.5873182415962219, 0.2833780348300934, 0.4813908040523529, 0.5044925212860107, 0.5634769797325134, 0.6712042093276978, 0.2656020522117615, 0.3517434597015381, 0.8702462315559387, 0.40657809376716614, 0.8249977827072144, 0.7660332322120667, 0.23151850700378418, 0.35528844594955444, 0.09951666742563248, 0.3124733567237854, 0.15850694477558136, 0.18867556750774384, 0.3180503249168396, 0.3203848898410797, 0.18434984982013702, 0.2869568169116974, 0.14240695536136627, 0.4017163813114166, 0.42783284187316895, 0.4821433126926422, 0.14063219726085663, 0.29510146379470825, 0.4131646156311035, 0.468580037355423, 0.3592473864555359, 0.7230525016784668, 0.9422056674957275, 0.899175226688385, 0.9443678259849548, 0.9301228523254395, 0.7557739615440369, 0.9278184771537781, 0.6855046153068542, 0.7726290225982666, 0.7257868051528931, 0.8666440844535828, 0.7394982576370239, 0.8213107585906982, 0.8215346932411194]</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.9151102304458618</v>
+        <v>0.9443678259849548</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -7503,10 +7503,10 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0.6164204000087921</v>
+        <v>0.6178707999933977</v>
       </c>
       <c r="J174" t="n">
-        <v>0.005760938317839178</v>
+        <v>0.005774493457882221</v>
       </c>
     </row>
     <row r="175">
@@ -7525,11 +7525,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>[0.8252660036087036, 0.9386723637580872, 0.8528136610984802, 0.8026539087295532, 0.6198254823684692, 0.7589552402496338, 0.7826398611068726, 0.6460456252098083, 0.7582231163978577, 0.7259753346443176, 0.6624168157577515, 0.4770227372646332, 0.4269287884235382, 0.6265233755111694, 0.9170132279396057, 0.8702690601348877, 0.7455049157142639, 0.33576834201812744, 0.46449893712997437, 0.49597588181495667, 0.4227173924446106, 0.5333483219146729, 0.34870266914367676, 0.24856975674629211, 0.3686022460460663, 0.5657227635383606, 0.35125091671943665, 0.2631824016571045, 0.7500124573707581, 0.6075654625892639, 0.7736853957176208, 0.7592175602912903, 0.8427165746688843, 0.5689298510551453, 0.6471392512321472, 0.7864235043525696, 0.6213626265525818, 0.3086082339286804, 0.2726004123687744, 0.31156817078590393, 0.21332907676696777, 0.22880205512046814, 0.23621559143066406, 0.45552873611450195, 0.888900637626648, 0.838310182094574, 0.9166795611381531, 0.9295932054519653, 0.8851315975189209, 0.9474645853042603, 0.9429036378860474, 0.7285167574882507, 0.7120225429534912, 0.6039985418319702, 0.3660863935947418, 0.44867873191833496, 0.8235154151916504, 0.5373408198356628, 0.2937834560871124, 0.34974798560142517, 0.23334653675556183, 0.29059481620788574, 0.33846843242645264, 0.3651839792728424, 0.414879709482193, 0.19367048144340515, 0.33246639370918274, 0.29846176505088806, 0.31800591945648193, 0.47752645611763, 0.23475460708141327, 0.274684876203537, 0.3339928090572357, 0.45178642868995667, 0.3733760416507721, 0.34748324751853943, 0.3535717725753784, 0.5311962962150574, 0.36373379826545715, 0.45885342359542847, 0.351270467042923, 0.4884471297264099, 0.4541090130805969, 0.27831146121025085, 0.2847563326358795, 0.32387787103652954, 0.23971900343894958, 0.6673615574836731, 0.4929524064064026, 0.6835672855377197, 0.5698401927947998, 0.6053780317306519, 0.7061352133750916, 0.6952661871910095, 0.5041556358337402, 0.5870400667190552, 0.7680425047874451, 0.4463406205177307, 0.40646782517433167, 0.359794020652771, 0.31084227561950684, 0.1542045772075653, 0.09387452155351639, 0.3675377666950226, 0.23982572555541992, 0.1280403435230255, 0.1278444081544876]</t>
+          <t>[0.8689690828323364, 0.9626343250274658, 0.886868953704834, 0.879092812538147, 0.6845524907112122, 0.8058143258094788, 0.7698920965194702, 0.7139037847518921, 0.8442661166191101, 0.7833755016326904, 0.7187399864196777, 0.6271835565567017, 0.595790684223175, 0.6387724876403809, 0.9590361714363098, 0.8902404308319092, 0.7654528021812439, 0.4502328634262085, 0.46441811323165894, 0.43778908252716064, 0.41362589597702026, 0.4685533046722412, 0.4241344928741455, 0.21010324358940125, 0.45241644978523254, 0.646739661693573, 0.3728577196598053, 0.27378207445144653, 0.823799192905426, 0.7277314066886902, 0.8313902616500854, 0.7870804071426392, 0.913719654083252, 0.6196901798248291, 0.6722527146339417, 0.7947579622268677, 0.6731338500976562, 0.23813726007938385, 0.2581931948661804, 0.33758795261383057, 0.20305974781513214, 0.25989410281181335, 0.2884674370288849, 0.5662077069282532, 0.9363176226615906, 0.9205757975578308, 0.9585078954696655, 0.9664602279663086, 0.9197425842285156, 0.961149275302887, 0.9647721648216248, 0.8482963442802429, 0.7760376930236816, 0.6347519755363464, 0.33792468905448914, 0.4603257179260254, 0.9053429365158081, 0.7001855373382568, 0.30727383494377136, 0.3418094217777252, 0.1778198629617691, 0.2389727085828781, 0.2806550860404968, 0.36302319169044495, 0.4672781527042389, 0.22452545166015625, 0.37315839529037476, 0.2555636167526245, 0.29407599568367004, 0.42148134112358093, 0.23364809155464172, 0.23741380870342255, 0.28252723813056946, 0.3521714508533478, 0.23283085227012634, 0.23369549214839935, 0.23902906477451324, 0.44050243496894836, 0.2730107307434082, 0.35994604229927063, 0.260012686252594, 0.3601910173892975, 0.3816125690937042, 0.20520253479480743, 0.21880508959293365, 0.27724847197532654, 0.2088809460401535, 0.7882576584815979, 0.642510175704956, 0.8281246423721313, 0.7593743801116943, 0.798031210899353, 0.862639307975769, 0.8436691164970398, 0.6606594324111938, 0.7296082973480225, 0.8262432217597961, 0.37349191308021545, 0.4376651644706726, 0.5827946662902832, 0.3823825716972351, 0.17360183596611023, 0.06111713498830795, 0.4586060047149658, 0.22373737394809723, 0.13023726642131805, 0.1298830509185791]</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.9474645853042603</v>
+        <v>0.9664602279663086</v>
       </c>
       <c r="F175" t="n">
         <v>1</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0.6063355999940541</v>
+        <v>0.6125904000073206</v>
       </c>
       <c r="J175" t="n">
-        <v>0.00566668785041172</v>
+        <v>0.005725143925302062</v>
       </c>
     </row>
     <row r="176">
@@ -7565,11 +7565,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>[0.5879988670349121, 0.4860047996044159, 0.652662456035614, 0.4427299499511719, 0.25457075238227844, 0.1711248755455017, 0.35669010877609253, 0.4633810222148895, 0.3713987171649933, 0.3738294839859009, 0.1946733444929123, 0.22543026506900787, 0.2822287976741791, 0.6228189468383789, 0.48106247186660767, 0.40196338295936584, 0.4156322479248047, 0.3086177110671997, 0.23347073793411255, 0.33310654759407043, 0.25261643528938293, 0.2310849130153656, 0.29476165771484375, 0.26305249333381653, 0.4199898838996887, 0.3090047538280487, 0.25389277935028076, 0.22038350999355316, 0.19356033205986023, 0.2563507854938507, 0.19698117673397064, 0.3348430395126343, 0.35686078667640686, 0.3299046754837036, 0.20846273005008698, 0.25966915488243103, 0.24089045822620392, 0.23836632072925568, 0.22150211036205292, 0.18111184239387512, 0.16523152589797974, 0.11293140798807144, 0.14043660461902618, 0.2771783769130707, 0.2534586787223816, 0.26337841153144836, 0.2718808054924011, 0.6030865907669067, 0.3189323842525482, 0.5414759516716003, 0.6072476506233215, 0.43665218353271484, 0.28701040148735046, 0.6628741025924683, 0.5311295986175537, 0.7173821926116943, 0.49167704582214355, 0.36635735630989075, 0.5463891625404358, 0.5567727088928223, 0.4253370463848114, 0.5538256168365479, 0.6821181774139404, 0.5062380433082581, 0.5299616456031799, 0.8375664353370667, 0.7789127230644226, 0.7722945213317871, 0.8937753438949585, 0.6831135153770447, 0.5275131464004517, 0.48064061999320984, 0.809887170791626, 0.6042901277542114, 0.6934636831283569, 0.5084532499313354, 0.4678005278110504, 0.5694429278373718, 0.3890511691570282, 0.32862523198127747, 0.4217848777770996, 0.5420841574668884, 0.4706363081932068, 0.6079290509223938, 0.6482555270195007, 0.5685115456581116, 0.3035110533237457, 0.525482177734375, 0.3102337718009949, 0.7650384306907654, 0.8731257319450378, 0.7005950212478638, 0.7649747133255005, 0.5683197975158691, 0.8589454293251038, 0.451742947101593, 0.877056360244751, 0.8714200258255005, 0.7264330983161926, 0.8690714836120605, 0.9037855863571167, 0.8408514261245728, 0.9325448274612427, 0.758133590221405, 0.6912319660186768, 0.8417089581489563, 0.841529369354248]</t>
+          <t>[0.533939003944397, 0.3839680850505829, 0.6097666025161743, 0.40829628705978394, 0.1929628700017929, 0.11265900731086731, 0.36465856432914734, 0.3567732274532318, 0.32995739579200745, 0.3468223810195923, 0.12399494647979736, 0.20413552224636078, 0.1888662427663803, 0.6183751821517944, 0.40097567439079285, 0.3769860565662384, 0.289650559425354, 0.21445105969905853, 0.15403883159160614, 0.22417575120925903, 0.14838789403438568, 0.17341117560863495, 0.2414756566286087, 0.19787414371967316, 0.3009271025657654, 0.23559871315956116, 0.15206685662269592, 0.12579300999641418, 0.14434252679347992, 0.18361879885196686, 0.1343388557434082, 0.2548098564147949, 0.28872230648994446, 0.2689337134361267, 0.13681288063526154, 0.2054053246974945, 0.18668261170387268, 0.19940975308418274, 0.112171471118927, 0.10675783455371857, 0.07227672636508942, 0.05645833909511566, 0.07992508262395859, 0.18600423634052277, 0.15662196278572083, 0.17359304428100586, 0.1704505831003189, 0.6212773323059082, 0.2527228593826294, 0.5689368844032288, 0.5890966653823853, 0.5358616709709167, 0.27414295077323914, 0.7288075089454651, 0.5517974495887756, 0.7809127569198608, 0.4842902719974518, 0.3706813156604767, 0.5776662230491638, 0.7378807067871094, 0.5192636251449585, 0.600172758102417, 0.7456828951835632, 0.5577191710472107, 0.5767683982849121, 0.8477765321731567, 0.7989916205406189, 0.774092972278595, 0.9174011945724487, 0.6594357490539551, 0.38002410531044006, 0.3022618591785431, 0.7141776084899902, 0.4521975517272949, 0.6980805397033691, 0.4723566174507141, 0.46173202991485596, 0.5292912721633911, 0.37717482447624207, 0.23680217564105988, 0.34384167194366455, 0.5867304801940918, 0.5170097947120667, 0.6254573464393616, 0.6901080012321472, 0.578632652759552, 0.2574227452278137, 0.5129444003105164, 0.2829241454601288, 0.7241470217704773, 0.8557952642440796, 0.6389449834823608, 0.6569989323616028, 0.41106078028678894, 0.7728983163833618, 0.2721952795982361, 0.8376950621604919, 0.8188906908035278, 0.5283728241920471, 0.7916948199272156, 0.8664578199386597, 0.8740753531455994, 0.9549857378005981, 0.7768537402153015, 0.5439861416816711, 0.8150883316993713, 0.8149280548095703]</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.9325448274612427</v>
+        <v>0.9549857378005981</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0.610692200018093</v>
+        <v>0.6128739999985555</v>
       </c>
       <c r="J176" t="n">
-        <v>0.00570740373848685</v>
+        <v>0.005727794392509864</v>
       </c>
     </row>
     <row r="177">
@@ -7605,11 +7605,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>[0.3353518545627594, 0.5279012322425842, 0.40300533175468445, 0.6565911173820496, 0.29249057173728943, 0.23346398770809174, 0.229927659034729, 0.6871031522750854, 0.6467479467391968, 0.4591198265552521, 0.70790696144104, 0.3979201912879944, 0.6225866675376892, 0.5559556484222412, 0.31478285789489746, 0.18151819705963135, 0.2977200448513031, 0.6572537422180176, 0.5289723873138428, 0.5144801139831543, 0.7105193138122559, 0.5898645520210266, 0.8105207085609436, 0.4067869186401367, 0.6173802614212036, 0.41411885619163513, 0.40980643033981323, 0.29226064682006836, 0.2638714015483856, 0.19823256134986877, 0.518090009689331, 0.4053180515766144, 0.2828611135482788, 0.20786592364311218, 0.26884737610816956, 0.24851295351982117, 0.25852715969085693, 0.3363657593727112, 0.30782437324523926, 0.7180934548377991, 0.6813973784446716, 0.8156436681747437, 0.6423614621162415, 0.8390435576438904, 0.9643235206604004, 0.9464887976646423, 0.8595031499862671, 0.7278364896774292, 0.5702888369560242, 0.7640675902366638, 0.7850434184074402, 0.8905637264251709, 0.8649089932441711, 0.8688328266143799, 0.9033335447311401, 0.7694133520126343, 0.8737181425094604, 0.6859065294265747, 0.5651614665985107, 0.5558710098266602, 0.42501455545425415, 0.8979310393333435, 0.8628812432289124, 0.7046945095062256, 0.8923551440238953, 0.6804236173629761, 0.6639642119407654, 0.7305001616477966, 0.43199872970581055, 0.7833642363548279, 0.9011563062667847, 0.8207623958587646, 0.8256309628486633, 0.6945732235908508, 0.8046521544456482, 0.893046498298645, 0.6792305111885071, 0.588413417339325, 0.7172494530677795, 0.8161236047744751, 0.7378715872764587, 0.5054560899734497, 0.3108499050140381, 0.5212295651435852, 0.7110731601715088, 0.5882359147071838, 0.48501119017601013, 0.6696205735206604, 0.5659303665161133, 0.4095647633075714, 0.673962414264679, 0.6122061014175415, 0.7463552951812744, 0.706472635269165, 0.5550062656402588, 0.3534829020500183, 0.923033595085144, 0.6318076252937317, 0.6956555247306824, 0.6108490228652954, 0.9035715460777283, 0.6809314489364624, 0.7682824730873108, 0.4977222681045532, 0.7972796559333801, 0.607409656047821, 0.6089553833007812]</t>
+          <t>[0.5051920413970947, 0.6280717253684998, 0.5147111415863037, 0.7952287197113037, 0.3461701273918152, 0.2170712649822235, 0.22676879167556763, 0.7442561388015747, 0.6826770305633545, 0.40435728430747986, 0.7638270258903503, 0.5073992609977722, 0.6940130591392517, 0.5125266909599304, 0.5206567049026489, 0.20756201446056366, 0.34119805693626404, 0.7567157745361328, 0.6174035668373108, 0.541643500328064, 0.756983757019043, 0.595293402671814, 0.8778150677680969, 0.4719531238079071, 0.7618927955627441, 0.6358399391174316, 0.4752398133277893, 0.3537806570529938, 0.2623383104801178, 0.22580373287200928, 0.6485146284103394, 0.4525529444217682, 0.23124520480632782, 0.2905954420566559, 0.36708691716194153, 0.31622669100761414, 0.49658799171447754, 0.2906593680381775, 0.33456748723983765, 0.8379706144332886, 0.6419959664344788, 0.8596288561820984, 0.6830365657806396, 0.8520223498344421, 0.9716683030128479, 0.9537776708602905, 0.8971664905548096, 0.7766314744949341, 0.5361049175262451, 0.7656269669532776, 0.776909589767456, 0.8850757479667664, 0.9236432313919067, 0.9219067096710205, 0.9490129351615906, 0.8038088083267212, 0.8733128905296326, 0.6797471642494202, 0.5794503092765808, 0.6506136059761047, 0.48590022325515747, 0.922110378742218, 0.922121524810791, 0.7620015144348145, 0.9258827567100525, 0.8024151921272278, 0.6036761999130249, 0.796999454498291, 0.4771532416343689, 0.8175129890441895, 0.9382010698318481, 0.8558423519134521, 0.8412575721740723, 0.774198591709137, 0.8959479331970215, 0.9519983530044556, 0.7505666017532349, 0.5970386266708374, 0.8212502598762512, 0.8593213558197021, 0.7291929125785828, 0.5431146025657654, 0.3847784996032715, 0.606007993221283, 0.803378164768219, 0.5627126097679138, 0.5202355980873108, 0.7206094264984131, 0.7481541633605957, 0.38680022954940796, 0.6145713925361633, 0.4860724210739136, 0.7571786642074585, 0.7770336866378784, 0.7031740546226501, 0.4972161054611206, 0.9785248637199402, 0.6756446361541748, 0.6557060480117798, 0.6760751605033875, 0.8995543718338013, 0.5895622968673706, 0.5812963247299194, 0.39567747712135315, 0.8179382681846619, 0.6011906266212463, 0.6027799248695374]</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.9643235206604004</v>
+        <v>0.9785248637199402</v>
       </c>
       <c r="F177" t="n">
         <v>1</v>
@@ -7623,10 +7623,10 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0.6369555999990553</v>
+        <v>0.6146884999907343</v>
       </c>
       <c r="J177" t="n">
-        <v>0.005952856074757526</v>
+        <v>0.005744752336362002</v>
       </c>
     </row>
     <row r="178">
@@ -7645,11 +7645,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[0.11355727165937424, 0.17967882752418518, 0.20560163259506226, 0.31506431102752686, 0.15968762338161469, 0.13893510401248932, 0.1641707569360733, 0.19867752492427826, 0.14108721911907196, 0.15068677067756653, 0.09463422745466232, 0.12675318121910095, 0.1862889528274536, 0.1531096249818802, 0.1343403309583664, 0.17487727105617523, 0.15174640715122223, 0.23436087369918823, 0.22730086743831635, 0.4553419351577759, 0.8858991265296936, 0.8698504567146301, 0.5328748226165771, 0.7782496213912964, 0.43264201283454895, 0.3595786988735199, 0.7566012740135193, 0.40422868728637695, 0.7712466716766357, 0.2927232086658478, 0.842842698097229, 0.5141112804412842, 0.35724076628685, 0.8406206965446472, 0.6724637746810913, 0.8990883827209473, 0.9286165237426758, 0.7678383588790894, 0.8538975715637207, 0.5762606859207153, 0.3573486804962158, 0.13711655139923096, 0.12202023714780807, 0.1451907753944397, 0.24931006133556366, 0.7985372543334961, 0.5413846969604492, 0.318793922662735, 0.22435836493968964, 0.19382710754871368, 0.14823079109191895, 0.19182473421096802, 0.1392301768064499, 0.18875348567962646, 0.1842079609632492, 0.16064998507499695, 0.21055327355861664, 0.16743947565555573, 0.1789514422416687, 0.12357357144355774, 0.11478640884160995, 0.14285597205162048, 0.1160946786403656, 0.18137675523757935, 0.15287785232067108, 0.12123484164476395, 0.13420633971691132, 0.11309052258729935, 0.19757701456546783, 0.129985511302948, 0.1494145691394806, 0.17320755124092102, 0.12096655368804932, 0.10502028465270996, 0.23142459988594055, 0.14360269904136658, 0.17179054021835327, 0.23085938394069672, 0.36031562089920044, 0.3456902801990509, 0.6537923216819763, 0.3803659677505493, 0.16249200701713562, 0.14465303719043732, 0.113980732858181, 0.1423206627368927, 0.09246077388525009, 0.10083417594432831, 0.12047920376062393, 0.15587392449378967, 0.11409825831651688, 0.1871422678232193, 0.21437783539295197, 0.17637549340724945, 0.1144300252199173, 0.16770756244659424, 0.16306172311306, 0.1160464808344841, 0.10940834134817123, 0.20701070129871368, 0.1941363513469696, 0.14932075142860413, 0.1966710239648819, 0.18938815593719482, 0.16652528941631317, 0.23614901304244995, 0.10872960835695267, 0.14903871715068817, 0.23105043172836304, 0.4354913532733917, 0.35076919198036194, 0.15855740010738373, 0.21324139833450317, 0.3774512708187103, 0.2730327248573303, 0.2222619205713272, 0.5266947746276855, 0.27451369166374207, 0.34964877367019653, 0.27834534645080566, 0.3678646981716156, 0.5604864358901978, 0.5524091720581055, 0.6602475047111511, 0.5398083925247192, 0.46781274676322937, 0.23202945291996002, 0.14939089119434357, 0.14756473898887634, 0.5714291930198669, 0.6695536971092224, 0.8272068500518799, 0.6554117202758789, 0.6692076325416565, 0.9019131064414978, 0.7118180394172668, 0.14319990575313568, 0.2837323248386383, 0.17849740386009216, 0.17988361418247223]</t>
+          <t>[0.10422098636627197, 0.15118983387947083, 0.13861697912216187, 0.24482354521751404, 0.1032097265124321, 0.09697087109088898, 0.1331906020641327, 0.17036868631839752, 0.10783204436302185, 0.11360035836696625, 0.08440972864627838, 0.10696540027856827, 0.1468406617641449, 0.12302602082490921, 0.08770322799682617, 0.11883813142776489, 0.10965101420879364, 0.18377526104450226, 0.13474595546722412, 0.5419679880142212, 0.9032056331634521, 0.9300602674484253, 0.49537193775177, 0.79440838098526, 0.6596471667289734, 0.40186747908592224, 0.7942624688148499, 0.4558086395263672, 0.7772361040115356, 0.21943579614162445, 0.9002922177314758, 0.7104314565658569, 0.40314236283302307, 0.8355542421340942, 0.751828670501709, 0.9406006932258606, 0.9482866525650024, 0.8650305867195129, 0.9429181218147278, 0.7710373997688293, 0.6025800108909607, 0.10155989974737167, 0.1040351390838623, 0.1188262403011322, 0.28359344601631165, 0.8911558985710144, 0.6712700724601746, 0.26315435767173767, 0.17601868510246277, 0.1441265344619751, 0.10895068943500519, 0.14829108119010925, 0.11761225014925003, 0.15334196388721466, 0.15208442509174347, 0.11020322144031525, 0.1768779456615448, 0.12674064934253693, 0.10389364510774612, 0.08762674778699875, 0.08345311880111694, 0.12485557794570923, 0.1015375629067421, 0.15239466726779938, 0.11437704414129257, 0.07045765221118927, 0.09834782034158707, 0.08347710222005844, 0.16657611727714539, 0.09724407643079758, 0.12885214388370514, 0.14468036592006683, 0.10524187982082367, 0.07104331254959106, 0.21407435834407806, 0.11027450859546661, 0.10186517238616943, 0.22724950313568115, 0.30160263180732727, 0.30741602182388306, 0.7430912852287292, 0.39869424700737, 0.1467554271221161, 0.1409558355808258, 0.0785573422908783, 0.1088666096329689, 0.05968606472015381, 0.05726657435297966, 0.07427696883678436, 0.09699316322803497, 0.07508482038974762, 0.17457737028598785, 0.1760094314813614, 0.1964576244354248, 0.09671733528375626, 0.13365237414836884, 0.1009630560874939, 0.10170300304889679, 0.06566005200147629, 0.15292516350746155, 0.1411026269197464, 0.11682111769914627, 0.17395977675914764, 0.18053089082241058, 0.17675763368606567, 0.23731505870819092, 0.10106410086154938, 0.1024298444390297, 0.20863616466522217, 0.5853601098060608, 0.49066612124443054, 0.1348632425069809, 0.15358883142471313, 0.45487290620803833, 0.37038978934288025, 0.28110185265541077, 0.6834542155265808, 0.30182310938835144, 0.3216773569583893, 0.24201996624469757, 0.42112162709236145, 0.8048332333564758, 0.7223497629165649, 0.7914227843284607, 0.7619465589523315, 0.6738710403442383, 0.32025146484375, 0.11016472429037094, 0.13241071999073029, 0.8420835137367249, 0.815850019454956, 0.8840480446815491, 0.8395631909370422, 0.8142417073249817, 0.9654676914215088, 0.929530680179596, 0.1381898671388626, 0.2615019381046295, 0.20564229786396027, 0.2076403796672821]</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.9286165237426758</v>
+        <v>0.9654676914215088</v>
       </c>
       <c r="F178" t="n">
         <v>1</v>
@@ -7663,10 +7663,10 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0.7871264000132214</v>
+        <v>0.8108607000031043</v>
       </c>
       <c r="J178" t="n">
-        <v>0.005622331428665867</v>
+        <v>0.005791862142879316</v>
       </c>
     </row>
     <row r="179">
@@ -7685,11 +7685,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[0.08862543106079102, 0.11376439779996872, 0.06183219328522682, 0.07805231213569641, 0.06483900547027588, 0.05090915784239769, 0.09484633058309555, 0.11540188640356064, 0.1356508880853653, 0.09847892075777054, 0.07667209208011627, 0.2327321618795395, 0.0846562534570694, 0.12223965674638748, 0.08681857585906982, 0.07704797387123108, 0.0754433199763298, 0.05232473835349083, 0.07025407254695892, 0.05442342162132263, 0.05174551531672478, 0.16943024098873138, 0.07926898449659348, 0.09268857538700104, 0.09869859367609024, 0.08580940216779709, 0.11778545379638672, 0.07149948179721832, 0.0654141753911972, 0.11729834973812103, 0.08618055284023285, 0.09193290024995804, 0.10946475714445114, 0.15775591135025024, 0.14162702858448029, 0.29270973801612854, 0.13380827009677887, 0.0797608271241188, 0.05841018259525299, 0.09371668845415115, 0.07557819038629532, 0.11426892131567001, 0.0859920009970665, 0.12031621485948563, 0.058211736381053925, 0.054813846945762634, 0.05259030684828758, 0.10007696598768234, 0.05415420979261398, 0.049206871539354324, 0.08094175159931183, 0.10881534218788147, 0.07391002774238586, 0.09254737943410873, 0.042444925755262375, 0.13759534060955048, 0.0817098617553711, 0.10365612059831619, 0.1024712398648262, 0.075760118663311, 0.19809289276599884, 0.17972074449062347, 0.10188419371843338, 0.13235531747341156, 0.08597590774297714, 0.1304449439048767, 0.07351451367139816, 0.10207480937242508, 0.10081607848405838, 0.06316925585269928, 0.15972372889518738, 0.10965230315923691, 0.07466010749340057, 0.05092083662748337, 0.05249815061688423, 0.08826835453510284, 0.07682324945926666, 0.07779058814048767, 0.08939177542924881, 0.10782039165496826, 0.09769482165575027, 0.12332532554864883, 0.19963999092578888, 0.1385337859392166, 0.0903613492846489, 0.07480226457118988, 0.10639793425798416, 0.096126489341259, 0.11363529413938522, 0.09599053859710693, 0.06952952593564987, 0.05139951780438423, 0.09301073104143143, 0.1116623729467392, 0.07916352897882462, 0.09262566268444061, 0.17915290594100952, 0.15186922252178192, 0.12867483496665955, 0.05908892676234245, 0.12084560841321945, 0.15499445796012878, 0.15954217314720154, 0.161680668592453, 0.14817187190055847, 0.10234522074460983, 0.12514416873455048, 0.15553462505340576, 0.0754530131816864, 0.06410516798496246, 0.0859353095293045, 0.12425690144300461, 0.11443504691123962, 0.080301433801651, 0.042911406606435776, 0.04867548868060112, 0.0765482559800148, 0.0862392783164978, 0.04967396333813667, 0.07730969786643982, 0.05333741754293442, 0.03887062892317772, 0.07928385585546494, 0.05402069911360741, 0.13067348301410675, 0.058535415679216385, 0.29938560724258423, 0.11017278581857681, 0.07346035540103912, 0.04491904005408287, 0.05005507543683052, 0.049046892672777176, 0.049758292734622955, 0.049910858273506165, 0.04862543195486069, 0.04978860914707184, 0.04870890825986862, 0.04925425350666046, 0.0484655499458313, 0.030713163316249847, 0.0538700632750988, 0.06813959777355194, 0.038120780140161514, 0.0682140663266182, 0.07516664266586304, 0.1426457166671753, 0.19531233608722687, 0.038267288357019424, 0.05202876031398773, 0.049433860927820206, 0.05059487372636795, 0.049826811999082565, 0.050931043922901154, 0.05167386680841446, 0.050903674215078354, 0.051162365823984146, 0.050552427768707275, 0.05070926621556282]</t>
+          <t>[0.10068798065185547, 0.1339448094367981, 0.05212670937180519, 0.05530589818954468, 0.05634208396077156, 0.04170892760157585, 0.07299008220434189, 0.09743110090494156, 0.14149664342403412, 0.07818549126386642, 0.06094490736722946, 0.1811041533946991, 0.05342720076441765, 0.11669421941041946, 0.07158559560775757, 0.07000300288200378, 0.06489977240562439, 0.03705278038978577, 0.05802221968770027, 0.03212285414338112, 0.030070491135120392, 0.17150169610977173, 0.0655650794506073, 0.08103391528129578, 0.07184138149023056, 0.08566601574420929, 0.09029051661491394, 0.06570349633693695, 0.07228414714336395, 0.10208941251039505, 0.07136580348014832, 0.055617302656173706, 0.08921656757593155, 0.14756910502910614, 0.15662206709384918, 0.3098562955856323, 0.09022773057222366, 0.04952862858772278, 0.04271131753921509, 0.06589757651090622, 0.052057623863220215, 0.12933969497680664, 0.09476080536842346, 0.1220867857336998, 0.069355309009552, 0.04199482128024101, 0.05840699002146721, 0.12766224145889282, 0.06990101933479309, 0.04542006552219391, 0.1090332642197609, 0.09350766986608505, 0.06262298673391342, 0.06745380163192749, 0.03792908787727356, 0.119234599173069, 0.09373858571052551, 0.11124134063720703, 0.11251603066921234, 0.08708837628364563, 0.1730889230966568, 0.22931204736232758, 0.08900116384029388, 0.16495281457901, 0.09488695114850998, 0.1359580010175705, 0.07893012464046478, 0.10905540734529495, 0.09527069330215454, 0.05638844892382622, 0.1977783441543579, 0.08868104219436646, 0.057195037603378296, 0.041785839945077896, 0.054295703768730164, 0.08398424088954926, 0.0787765309214592, 0.07222406566143036, 0.08348424732685089, 0.09598129242658615, 0.09845615923404694, 0.1302807331085205, 0.23091621696949005, 0.12136443704366684, 0.08052346855401993, 0.06735386699438095, 0.10672168433666229, 0.07084707915782928, 0.11536788940429688, 0.07379961013793945, 0.05492570623755455, 0.04210272431373596, 0.07583297789096832, 0.11277448385953903, 0.053477369248867035, 0.07780078798532486, 0.2150043398141861, 0.20397573709487915, 0.17080913484096527, 0.06122509390115738, 0.1392214596271515, 0.22684846818447113, 0.21305540204048157, 0.22991541028022766, 0.20296579599380493, 0.15242895483970642, 0.2178422212600708, 0.18223600089550018, 0.0823100283741951, 0.06317269057035446, 0.08707673102617264, 0.10674018412828445, 0.10896110534667969, 0.06803435832262039, 0.0390046052634716, 0.04936143755912781, 0.10229993611574173, 0.08687906712293625, 0.05035823583602905, 0.08991976827383041, 0.05089844763278961, 0.038177136331796646, 0.058052681386470795, 0.03578827157616615, 0.1343502402305603, 0.05231554061174393, 0.49000322818756104, 0.1369822472333908, 0.0614425428211689, 0.025653984397649765, 0.029838191345334053, 0.02961704321205616, 0.02997477352619171, 0.029903985559940338, 0.029135610908269882, 0.029936933889985085, 0.029341701418161392, 0.029602207243442535, 0.028709761798381805, 0.015182971954345703, 0.024236084893345833, 0.03371937945485115, 0.02307712845504284, 0.03258124738931656, 0.03512756526470184, 0.0966811329126358, 0.13962477445602417, 0.018270643427968025, 0.031126979738473892, 0.029230205342173576, 0.030666103586554527, 0.03009188547730446, 0.030567720532417297, 0.031272757798433304, 0.03031715750694275, 0.03011006861925125, 0.029620179906487465, 0.02978677488863468]</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.2993856072425842</v>
+        <v>0.490003228187561</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0.8615677999914624</v>
+        <v>0.8728838999959407</v>
       </c>
       <c r="J179" t="n">
-        <v>0.005452960759439635</v>
+        <v>0.005524581645543929</v>
       </c>
     </row>
     <row r="180">
@@ -7725,11 +7725,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[0.16969642043113708, 0.22941255569458008, 0.22477620840072632, 0.1689499318599701, 0.15062011778354645, 0.18344993889331818, 0.14545099437236786, 0.11968743056058884, 0.10313893854618073, 0.15214136242866516, 0.17771820724010468, 0.25276070833206177, 0.2593576908111572, 0.21729928255081177, 0.17239929735660553, 0.25606417655944824, 0.2927282154560089, 0.20453907549381256, 0.19887883961200714, 0.24145454168319702, 0.25333213806152344, 0.23197507858276367, 0.22696660459041595, 0.1388108730316162, 0.14827494323253632, 0.16983571648597717, 0.14227239787578583, 0.15746428072452545, 0.18550097942352295, 0.18011058866977692, 0.2204548865556717, 0.20883366465568542, 0.17495115101337433, 0.1357250064611435, 0.18217533826828003, 0.17301055788993835, 0.16430452466011047, 0.21454612910747528, 0.22045549750328064, 0.13429653644561768, 0.10152699798345566, 0.08084410429000854, 0.13034223020076752, 0.14223799109458923, 0.14542821049690247, 0.14884644746780396, 0.14623792469501495, 0.18512040376663208, 0.1771267056465149, 0.1987050175666809, 0.2991209328174591, 0.15954913198947906, 0.2947240471839905, 0.26909831166267395, 0.37063896656036377, 0.25327375531196594, 0.2544946074485779, 0.2381073534488678, 0.30385082960128784, 0.30914023518562317, 0.3964504301548004, 0.27350443601608276, 0.30401039123535156, 0.3259079158306122, 0.28610149025917053, 0.3070841431617737, 0.27747952938079834, 0.4211891293525696, 0.3827276825904846, 0.3454088270664215, 0.3028290867805481, 0.18166792392730713, 0.3851224482059479, 0.3335994780063629, 0.3176114857196808, 0.36118969321250916, 0.241946280002594, 0.27829843759536743, 0.3009352385997772, 0.26899462938308716, 0.2510984241962433, 0.2639085054397583, 0.2264215648174286, 0.18520864844322205, 0.19481688737869263, 0.17115136981010437, 0.17738571763038635, 0.2401321977376938, 0.19328099489212036, 0.214554563164711, 0.228128582239151, 0.29801812767982483, 0.21306677162647247, 0.21035408973693848, 0.16369953751564026, 0.2518022954463959, 0.23577557504177094, 0.19504329562187195, 0.25088945031166077, 0.3412107527256012, 0.30457979440689087, 0.3061022460460663, 0.3378894329071045, 0.31007710099220276, 0.29135218262672424, 0.2690957188606262, 0.32255759835243225, 0.2496642768383026, 0.19444848597049713, 0.17477867007255554, 0.24432501196861267, 0.1893760859966278, 0.1825253665447235, 0.5402811169624329, 0.35355812311172485, 0.312918096780777, 0.6156601905822754, 0.3957959711551666, 0.5164508819580078, 0.22715459764003754, 0.2150094360113144, 0.25812703371047974, 0.37588784098625183, 0.6103333830833435, 0.28725042939186096, 0.4155963361263275, 0.3316475749015808, 0.25921881198883057, 0.37305402755737305, 0.30075603723526, 0.46837636828422546, 0.3703811764717102, 0.22077451646327972, 0.15610815584659576, 0.33858752250671387, 0.8345250487327576, 0.8137643337249756, 0.2926991283893585, 0.19772332906723022, 0.1876554638147354, 0.16255149245262146, 0.24399854242801666, 0.31446558237075806, 0.27192482352256775, 0.2961585223674774, 0.18751437962055206, 0.13569428026676178, 0.1547524631023407, 0.1877022534608841, 0.21568702161312103, 0.28057047724723816, 0.1983523964881897, 0.23536501824855804, 0.3026137053966522, 0.12525956332683563, 0.1603516936302185, 0.2521606683731079, 0.25229641795158386]</t>
+          <t>[0.13708725571632385, 0.18850292265415192, 0.16050444543361664, 0.10437103360891342, 0.09938308596611023, 0.1251106709241867, 0.10477294772863388, 0.08838111162185669, 0.06961467117071152, 0.1043892577290535, 0.1265963613986969, 0.19540949165821075, 0.23576466739177704, 0.14484407007694244, 0.12399929761886597, 0.2002546340227127, 0.2263687252998352, 0.13439393043518066, 0.1426602452993393, 0.1488475650548935, 0.1765073835849762, 0.1954783946275711, 0.1929650604724884, 0.09558982402086258, 0.12611453235149384, 0.17275184392929077, 0.1390129029750824, 0.10363612323999405, 0.1408955603837967, 0.11714354902505875, 0.19081465899944305, 0.17949773371219635, 0.11611557751893997, 0.08624078333377838, 0.14377987384796143, 0.1339164823293686, 0.1278017908334732, 0.18580642342567444, 0.21023941040039062, 0.11964352428913116, 0.08922296017408371, 0.06824417412281036, 0.11798472702503204, 0.1275676041841507, 0.16638773679733276, 0.15984904766082764, 0.13737031817436218, 0.17190684378147125, 0.1850859671831131, 0.1735447347164154, 0.2943509519100189, 0.1256207376718521, 0.25281432271003723, 0.22630202770233154, 0.27928081154823303, 0.1833704262971878, 0.16007879376411438, 0.18494947254657745, 0.25612345337867737, 0.2780568301677704, 0.29761579632759094, 0.16964301466941833, 0.1970497965812683, 0.24188090860843658, 0.21696837246418, 0.21161560714244843, 0.18898433446884155, 0.3448910415172577, 0.3182542622089386, 0.26236391067504883, 0.27256903052330017, 0.12446283549070358, 0.3283315896987915, 0.24468576908111572, 0.20090040564537048, 0.24868838489055634, 0.1372203379869461, 0.18040110170841217, 0.2507798969745636, 0.19608615338802338, 0.16585582494735718, 0.1783742755651474, 0.15337541699409485, 0.13697859644889832, 0.15435592830181122, 0.13320934772491455, 0.13918103277683258, 0.21099154651165009, 0.16939179599285126, 0.14812646806240082, 0.17619873583316803, 0.24203188717365265, 0.18981485068798065, 0.15073725581169128, 0.13457509875297546, 0.20748856663703918, 0.1556623876094818, 0.1276414543390274, 0.17661736905574799, 0.24864022433757782, 0.22797226905822754, 0.2817875146865845, 0.26877379417419434, 0.2364964336156845, 0.2112436294555664, 0.16252709925174713, 0.25761890411376953, 0.22510430216789246, 0.17491750419139862, 0.14927463233470917, 0.20224367082118988, 0.140855073928833, 0.12335798144340515, 0.6807729005813599, 0.427228182554245, 0.32690146565437317, 0.7528830766677856, 0.48048797249794006, 0.6044485569000244, 0.24913977086544037, 0.20456553995609283, 0.3038000464439392, 0.39550647139549255, 0.6456908583641052, 0.3228849172592163, 0.46707820892333984, 0.3390463590621948, 0.2564053535461426, 0.4421442747116089, 0.3424210548400879, 0.5864483714103699, 0.3758500814437866, 0.24608266353607178, 0.1391727328300476, 0.36690858006477356, 0.8818710446357727, 0.8707895874977112, 0.34200337529182434, 0.12803292274475098, 0.1325434148311615, 0.1053561419248581, 0.1707087904214859, 0.23482808470726013, 0.23072607815265656, 0.2563289701938629, 0.13006971776485443, 0.09942896664142609, 0.11426012963056564, 0.13038937747478485, 0.16265659034252167, 0.20430678129196167, 0.13903048634529114, 0.17279033362865448, 0.25390228629112244, 0.09714221954345703, 0.13526061177253723, 0.1886737197637558, 0.1887175738811493]</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.8345250487327576</v>
+        <v>0.8818710446357727</v>
       </c>
       <c r="F180" t="n">
         <v>1</v>
@@ -7743,10 +7743,10 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0.891771599999629</v>
+        <v>0.9032248000003165</v>
       </c>
       <c r="J180" t="n">
-        <v>0.005644124050630563</v>
+        <v>0.005716612658229851</v>
       </c>
     </row>
     <row r="181">
@@ -7765,11 +7765,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>[0.09337593615055084, 0.11027143895626068, 0.06723890453577042, 0.061036914587020874, 0.09635304659605026, 0.11301787197589874, 0.1438456028699875, 0.11023884266614914, 0.11651717126369476, 0.08039557188749313, 0.10043410211801529, 0.07788015902042389, 0.06575672328472137, 0.09803679585456848, 0.1723356395959854, 0.09902177006006241, 0.09317789226770401, 0.1022811308503151, 0.1372057944536209, 0.14161072671413422, 0.08743789792060852, 0.10451391339302063, 0.17553740739822388, 0.19930347800254822, 0.16023750603199005, 0.1431751400232315, 0.09734870493412018, 0.12413933873176575, 0.0703810527920723, 0.2553013861179352, 0.14876267313957214, 0.07737398892641068, 0.1444443017244339, 0.3640100657939911, 0.32815709710121155, 0.36334487795829773, 0.34599852561950684, 0.16501717269420624, 0.12527474761009216, 0.060740772634744644, 0.17757630348205566, 0.15431168675422668, 0.20336659252643585, 0.2246556133031845, 0.09518346190452576, 0.13486632704734802, 0.19172361493110657, 0.15542244911193848, 0.09697696566581726, 0.1163482815027237, 0.09377747029066086, 0.0540471225976944, 0.04888433218002319, 0.08876600861549377, 0.09940072149038315, 0.05149432644248009, 0.09614577889442444, 0.046941351145505905, 0.03576595336198807, 0.04370572045445442, 0.034014876931905746, 0.05524302273988724, 0.08150459825992584, 0.2215299755334854, 0.21083255112171173, 0.10906244069337845, 0.11336316913366318, 0.21855521202087402, 0.18575550615787506, 0.1455114781856537, 0.08618586510419846, 0.10351895540952682, 0.06510798633098602, 0.12093203514814377, 0.16384564340114594, 0.1392696648836136, 0.1981680691242218, 0.10749734193086624, 0.13278862833976746, 0.08585235476493835, 0.11035391688346863, 0.06837687641382217, 0.07167979329824448, 0.11875554919242859, 0.19902582466602325, 0.07884114235639572, 0.052162300795316696, 0.058756209909915924, 0.05049204081296921, 0.054763492196798325, 0.06886500865221024, 0.06545744836330414, 0.08286026865243912, 0.1360253095626831, 0.11584999412298203, 0.05831295624375343, 0.064734548330307, 0.07225204259157181, 0.11869998276233673, 0.11711734533309937, 0.07950252294540405, 0.12197957932949066, 0.09095414727926254, 0.09201306104660034, 0.09360306710004807, 0.08014117181301117, 0.09598080068826675, 0.09385938942432404, 0.14221495389938354, 0.09268338233232498, 0.08617116510868073, 0.06403836607933044, 0.09074264764785767, 0.06319119036197662, 0.06310403347015381, 0.07191388309001923, 0.11043442785739899, 0.26569733023643494, 0.07172023504972458, 0.0618710070848465, 0.06217465549707413, 0.062349654734134674, 0.07335556298494339, 0.08141899853944778, 0.04241636022925377, 0.06500042974948883, 0.10143602639436722, 0.1016930639743805, 0.11212406307458878, 0.04565756022930145, 0.04196830466389656, 0.04151062294840813, 0.06111875921487808, 0.060067787766456604, 0.08677302300930023, 0.11129685491323471, 0.1478606015443802, 0.11200150102376938, 0.14028030633926392, 0.1132035180926323, 0.04672451317310333, 0.02912939339876175, 0.03592085838317871, 0.0259853545576334, 0.03063015826046467, 0.037634462118148804, 0.045164622366428375, 0.08937885612249374, 0.05926600471138954, 0.06491114944219589, 0.04319437965750694, 0.05260007455945015, 0.02746051363646984, 0.03190304711461067, 0.03625482693314552, 0.05582776293158531, 0.05652144178748131]</t>
+          <t>[0.05135349929332733, 0.062298085540533066, 0.030093049630522728, 0.02920813485980034, 0.07008117437362671, 0.08002699166536331, 0.10254722088575363, 0.07746902853250504, 0.06916478276252747, 0.056306205689907074, 0.05986090376973152, 0.056293923407793045, 0.049820028245449066, 0.0622846893966198, 0.12671524286270142, 0.08864711225032806, 0.061821356415748596, 0.07769826054573059, 0.10165191441774368, 0.1083299070596695, 0.05833170562982559, 0.08182630687952042, 0.15790241956710815, 0.16624149680137634, 0.13968981802463531, 0.13075608015060425, 0.07746431231498718, 0.0854567214846611, 0.034931834787130356, 0.2233094424009323, 0.12414271384477615, 0.06695970147848129, 0.12173067778348923, 0.3842821717262268, 0.3162011206150055, 0.4098004400730133, 0.3562319874763489, 0.12559184432029724, 0.06508130580186844, 0.03579183295369148, 0.13543462753295898, 0.08457072824239731, 0.13005457818508148, 0.17938311398029327, 0.05961773917078972, 0.07086005806922913, 0.13586227595806122, 0.14304515719413757, 0.06247721612453461, 0.0932203009724617, 0.07517823576927185, 0.04548113793134689, 0.03438633680343628, 0.09166895598173141, 0.07783845067024231, 0.03401076793670654, 0.07395832985639572, 0.02908354066312313, 0.02533867210149765, 0.021339720115065575, 0.018048446625471115, 0.03270108252763748, 0.05659213662147522, 0.18119440972805023, 0.18900740146636963, 0.07317306846380234, 0.07836999744176865, 0.1489112824201584, 0.10768146067857742, 0.09466006606817245, 0.039030421525239944, 0.05479332059621811, 0.028851915150880814, 0.07171385735273361, 0.11193478107452393, 0.08418441563844681, 0.17623084783554077, 0.06519634276628494, 0.1201503649353981, 0.05836279317736626, 0.07450123131275177, 0.04319775104522705, 0.05322219803929329, 0.07652535289525986, 0.1280425786972046, 0.07275361567735672, 0.027024418115615845, 0.0323905386030674, 0.021599695086479187, 0.024306057021021843, 0.033422552049160004, 0.03514473885297775, 0.05140100419521332, 0.0958445817232132, 0.06478389352560043, 0.03724605590105057, 0.033615559339523315, 0.03943578153848648, 0.08101722598075867, 0.10782179236412048, 0.05177425593137741, 0.0938100516796112, 0.08423052728176117, 0.07101252675056458, 0.04636410251259804, 0.044827114790678024, 0.051844995468854904, 0.06762965023517609, 0.1116957813501358, 0.07206839323043823, 0.06283833086490631, 0.03914285823702812, 0.08963165432214737, 0.03242379054427147, 0.03292500972747803, 0.0342036709189415, 0.0740332379937172, 0.2483089715242386, 0.04946499317884445, 0.036993358284235, 0.04279637709259987, 0.03492264822125435, 0.04286257177591324, 0.05006280168890953, 0.023969508707523346, 0.03723945468664169, 0.07729616016149521, 0.061785757541656494, 0.07495995610952377, 0.02090391516685486, 0.014531128108501434, 0.01759909652173519, 0.025836151093244553, 0.022621387615799904, 0.04123661294579506, 0.048326194286346436, 0.08295701444149017, 0.051332928240299225, 0.08284886926412582, 0.05614185705780983, 0.026385655626654625, 0.01121509075164795, 0.019702047109603882, 0.013141229748725891, 0.015269049443304539, 0.018252627924084663, 0.030039994046092033, 0.0647122710943222, 0.04885964095592499, 0.04330185055732727, 0.02365092560648918, 0.034952662885189056, 0.011045417748391628, 0.011875889264047146, 0.017064502462744713, 0.035409826785326004, 0.03613816574215889]</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.3640100657939911</v>
+        <v>0.4098004400730133</v>
       </c>
       <c r="F181" t="n">
         <v>1</v>
@@ -7783,10 +7783,10 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>0.8766490999842063</v>
+        <v>0.8750880000006873</v>
       </c>
       <c r="J181" t="n">
-        <v>0.005583752229198766</v>
+        <v>0.00557380891720183</v>
       </c>
     </row>
     <row r="182">
@@ -7805,11 +7805,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>[0.5464667081832886, 0.6747269034385681, 0.6530781984329224, 0.4408714175224304, 0.4545506536960602, 0.4018869400024414, 0.458808034658432, 0.535179078578949, 0.42064139246940613, 0.35110780596733093, 0.3760862648487091, 0.3294858932495117, 0.22910656034946442, 0.3273317813873291, 0.4666908085346222, 0.41429412364959717, 0.27351534366607666, 0.3457234799861908, 0.38309451937675476, 0.4299597442150116, 0.46023431420326233, 0.2990231513977051, 0.32221850752830505, 0.39433950185775757, 0.5778977870941162, 0.4649619162082672, 0.3928273618221283, 0.39604654908180237, 0.34725379943847656, 0.3922770023345947, 0.3753044009208679, 0.38269898295402527, 0.38121718168258667, 0.4025770127773285, 0.354959100484848, 0.37895533442497253, 0.4364151954650879, 0.3009302318096161, 0.2594867944717407, 0.20630547404289246, 0.3453982472419739, 0.4761035144329071, 0.4738696813583374, 0.3274381458759308, 0.2272518277168274, 0.21851606667041779, 0.2689802050590515, 0.3555687963962555, 0.2910473048686981, 0.4826979339122772, 0.20971618592739105, 0.1929248422384262, 0.2023376077413559, 0.5322181582450867, 0.3466815650463104, 0.3934449255466461, 0.29065436124801636, 0.4286022186279297, 0.6474500894546509, 0.5336798429489136, 0.3923497796058655, 0.2499341517686844, 0.2974400818347931, 0.2234460562467575, 0.33602383732795715, 0.40268799662590027, 0.5299814343452454, 0.4737747311592102, 0.4476315677165985, 0.5489780902862549, 0.5588296055793762, 0.4858652949333191, 0.3307461142539978, 0.44845858216285706, 0.37679657340049744, 0.29028987884521484, 0.44890543818473816, 0.35724902153015137, 0.4310707151889801, 0.430075079202652, 0.47376537322998047, 0.7413015365600586, 0.6052525639533997, 0.4550367295742035, 0.3056574761867523, 0.35069260001182556, 0.289878249168396, 0.26229599118232727, 0.34852728247642517, 0.2922372817993164, 0.24111399054527283, 0.5199228525161743, 0.5447576642036438, 0.3796199858188629, 0.38757434487342834, 0.1593823879957199, 0.2590271234512329, 0.2998190224170685, 0.4033096730709076, 0.3769696354866028, 0.28272125124931335, 0.22872239351272583, 0.3914983868598938, 0.38533544540405273, 0.5583888292312622, 0.30658042430877686, 0.48908013105392456, 0.28531089425086975, 0.3106871545314789, 0.40767067670822144, 0.5765764117240906, 0.4263647794723511, 0.33375903964042664, 0.15797454118728638, 0.2156767100095749, 0.2853371202945709, 0.4037342667579651, 0.47135213017463684, 0.3067760169506073, 0.590857744216919, 0.4958420991897583, 0.4030371904373169, 0.4312981963157654, 0.2865063548088074, 0.2581912577152252, 0.3546169698238373, 0.40444332361221313, 0.32827794551849365, 0.376140832901001, 0.27043938636779785, 0.21601799130439758, 0.14196939766407013, 0.207325741648674, 0.2929264307022095, 0.46470463275909424, 0.24968189001083374, 0.32462841272354126, 0.3318954110145569, 0.2463310956954956, 0.34748268127441406, 0.408910870552063, 0.2880804240703583, 0.26428744196891785, 0.2748110294342041, 0.21979627013206482, 0.2804930806159973, 0.32276615500450134, 0.4269365966320038, 0.25138533115386963, 0.23642592132091522, 0.2592369318008423, 0.3122175335884094, 0.26704490184783936, 0.18693801760673523, 0.24753326177597046, 0.33541837334632874, 0.360228955745697, 0.358274906873703]</t>
+          <t>[0.5476347208023071, 0.8161311149597168, 0.7718794941902161, 0.4870467185974121, 0.5759700536727905, 0.4325143098831177, 0.47096654772758484, 0.5949423313140869, 0.4424082636833191, 0.3396836519241333, 0.40202558040618896, 0.32451358437538147, 0.2119871973991394, 0.3552931845188141, 0.47761449217796326, 0.39388689398765564, 0.19745178520679474, 0.2872454822063446, 0.4161646068096161, 0.48272308707237244, 0.3812297582626343, 0.17550893127918243, 0.22609150409698486, 0.35551026463508606, 0.7173341512680054, 0.5641512274742126, 0.44926419854164124, 0.447249174118042, 0.3961327075958252, 0.33586642146110535, 0.33731624484062195, 0.40289750695228577, 0.44944527745246887, 0.5047058463096619, 0.39249658584594727, 0.4439660310745239, 0.5126069784164429, 0.24626050889492035, 0.19844244420528412, 0.1471680998802185, 0.2910009026527405, 0.4723122715950012, 0.4290452301502228, 0.32347726821899414, 0.1995573341846466, 0.16593042016029358, 0.2110048532485962, 0.295945942401886, 0.25166118144989014, 0.5388672351837158, 0.18875883519649506, 0.16801320016384125, 0.19754984974861145, 0.6454991698265076, 0.36579185724258423, 0.5505953431129456, 0.33156847953796387, 0.49941474199295044, 0.7319362163543701, 0.6115483045578003, 0.5575945377349854, 0.33170440793037415, 0.25479573011398315, 0.20639245212078094, 0.35204821825027466, 0.48797255754470825, 0.6020154356956482, 0.5221994519233704, 0.5345068573951721, 0.6428167819976807, 0.6980988383293152, 0.5821040272712708, 0.39510393142700195, 0.5200144052505493, 0.518648624420166, 0.3388696312904358, 0.5687949061393738, 0.4090701937675476, 0.4964430332183838, 0.46452510356903076, 0.5704647898674011, 0.8783980011940002, 0.7663065195083618, 0.5813855528831482, 0.2994658946990967, 0.38950636982917786, 0.31834667921066284, 0.2614459991455078, 0.42364948987960815, 0.271180659532547, 0.1835102140903473, 0.5856333374977112, 0.6471938490867615, 0.4127897024154663, 0.4526437819004059, 0.15791483223438263, 0.2944549322128296, 0.34960809350013733, 0.43970614671707153, 0.35993674397468567, 0.3145105540752411, 0.22670483589172363, 0.40429988503456116, 0.3507104218006134, 0.5581305027008057, 0.23782987892627716, 0.521814227104187, 0.3112906813621521, 0.31787240505218506, 0.44725948572158813, 0.6550028920173645, 0.3457222580909729, 0.2676088809967041, 0.11062857508659363, 0.15040548145771027, 0.21176780760288239, 0.47587624192237854, 0.4389466941356659, 0.31253883242607117, 0.6129452586174011, 0.6088868379592896, 0.3757440745830536, 0.4718463122844696, 0.24774610996246338, 0.2559889554977417, 0.5146491527557373, 0.5134806036949158, 0.367745965719223, 0.355450302362442, 0.2411954551935196, 0.19388256967067719, 0.12752468883991241, 0.1706603616476059, 0.2696293890476227, 0.45927053689956665, 0.20410402119159698, 0.31676867604255676, 0.43529343605041504, 0.3174590468406677, 0.36185553669929504, 0.5141581892967224, 0.29354140162467957, 0.25706946849823, 0.2152136266231537, 0.1717008650302887, 0.24064496159553528, 0.34366726875305176, 0.4606003165245056, 0.21382544934749603, 0.1982288509607315, 0.22222772240638733, 0.30848634243011475, 0.2331698089838028, 0.14674831926822662, 0.2273377627134323, 0.4097451865673065, 0.38912448287010193, 0.385660320520401]</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.7413015365600586</v>
+        <v>0.8783980011940002</v>
       </c>
       <c r="F182" t="n">
         <v>1</v>
@@ -7823,10 +7823,10 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>0.8962256000086199</v>
+        <v>0.8977956000017002</v>
       </c>
       <c r="J182" t="n">
-        <v>0.00567231392410519</v>
+        <v>0.005682250632922154</v>
       </c>
     </row>
     <row r="183">
@@ -7845,11 +7845,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[0.14316792786121368, 0.2175876945257187, 0.23224595189094543, 0.42817798256874084, 0.36736899614334106, 0.2667410969734192, 0.20879283547401428, 0.2862180769443512, 0.09627342224121094, 0.1389714777469635, 0.06800971180200577, 0.10330252349376678, 0.09113352000713348, 0.15316902101039886, 0.12405772507190704, 0.11414945870637894, 0.18648499250411987, 0.13334667682647705, 0.23516137897968292, 0.10459544509649277, 0.36289578676223755, 0.4801149368286133, 0.41196227073669434, 0.1781550645828247, 0.11444135010242462, 0.05873677507042885, 0.0941174253821373, 0.1868933141231537, 0.14668424427509308, 0.15365895628929138, 0.19359159469604492, 0.15487484633922577, 0.14963218569755554, 0.1855030506849289, 0.1348131150007248, 0.12767156958580017, 0.23612600564956665, 0.638796865940094, 0.7211172580718994, 0.8481791615486145, 0.8240430355072021, 0.750888466835022, 0.3576063811779022, 0.13840080797672272, 0.13213025033473969, 0.15473444759845734, 0.24428364634513855, 0.26468631625175476, 0.14172540605068207, 0.09404225647449493, 0.15725114941596985, 0.22076672315597534, 0.24035640060901642, 0.12657411396503448, 0.153311625123024, 0.1713995784521103, 0.10387105494737625, 0.19796214997768402, 0.10603592544794083, 0.1835509091615677, 0.19440554082393646, 0.17564572393894196, 0.11329042911529541, 0.1255011409521103, 0.20377835631370544, 0.3589823246002197, 0.1728077083826065, 0.1543494611978531, 0.10345590859651566, 0.07914631813764572, 0.13400572538375854, 0.20760774612426758, 0.35504645109176636, 0.9206023812294006, 0.9840325713157654, 0.9692191481590271, 0.963698148727417, 0.8506287336349487, 0.8780285120010376, 0.18593642115592957, 0.08683621138334274, 0.06996287405490875, 0.09345690160989761, 0.14324243366718292, 0.1689034402370453, 0.1960461139678955, 0.12990745902061462, 0.10477440059185028, 0.10701309889554977, 0.45174872875213623, 0.7908601760864258, 0.716305673122406, 0.5813379883766174, 0.3893144726753235, 0.08651144057512283, 0.08069802820682526, 0.15192638337612152, 0.17217357456684113, 0.13104824721813202, 0.10482127964496613, 0.1305488646030426, 0.07119178771972656, 0.07791547477245331, 0.09510038048028946, 0.07579673081636429, 0.06350662559270859, 0.04488476365804672, 0.09075281769037247, 0.22703330218791962, 0.21510092914104462, 0.13458772003650665, 0.13157933950424194, 0.18026533722877502, 0.24498912692070007, 0.3451291620731354, 0.29913458228111267, 0.19342158734798431, 0.3361769914627075, 0.3112824261188507, 0.34939295053482056, 0.4249626100063324, 0.2019786834716797, 0.35652050375938416, 0.42854639887809753, 0.20913100242614746, 0.29567044973373413, 0.2963636815547943, 0.3221201002597809, 0.3662554919719696, 0.18591593205928802, 0.17112210392951965, 0.5423673391342163, 0.2531059980392456, 0.36903437972068787, 0.19456937909126282, 0.6749743819236755, 0.2774793207645416, 0.1523970663547516, 0.1546216607093811, 0.28197920322418213, 0.10743240267038345, 0.12927208840847015, 0.08378234505653381, 0.0806138664484024, 0.20495487749576569, 0.27223095297813416, 0.06683516502380371, 0.16124677658081055, 0.03835737332701683, 0.028928665444254875, 0.022491440176963806, 0.03472590446472168, 0.027298202738165855, 0.02166525460779667, 0.06851090490818024, 0.219278022646904, 0.054199203848838806, 0.05383560433983803]</t>
+          <t>[0.23076961934566498, 0.3808441460132599, 0.3958183825016022, 0.6553170084953308, 0.6074837446212769, 0.5323089957237244, 0.33363592624664307, 0.42500942945480347, 0.12889455258846283, 0.1692492812871933, 0.057670313864946365, 0.1295885443687439, 0.1483183205127716, 0.3534771502017975, 0.2801564931869507, 0.16730336844921112, 0.2774210274219513, 0.15515120327472687, 0.2884689271450043, 0.11797602474689484, 0.552206814289093, 0.6411606669425964, 0.5927756428718567, 0.26170337200164795, 0.13460582494735718, 0.09968835115432739, 0.13489510118961334, 0.3131672143936157, 0.17013733088970184, 0.27047255635261536, 0.3903365135192871, 0.2661839723587036, 0.209432914853096, 0.3175550103187561, 0.27712270617485046, 0.17406536638736725, 0.4110267162322998, 0.8448786735534668, 0.939117431640625, 0.9760885238647461, 0.9492590427398682, 0.91771399974823, 0.7126665711402893, 0.2966606914997101, 0.19989502429962158, 0.27198100090026855, 0.5159038305282593, 0.6008198261260986, 0.30843809247016907, 0.1549656242132187, 0.40866199135780334, 0.5245956182479858, 0.632394015789032, 0.3149223327636719, 0.44877395033836365, 0.4364652931690216, 0.22782498598098755, 0.4781947433948517, 0.18993283808231354, 0.4441666007041931, 0.5585172176361084, 0.47178128361701965, 0.22200942039489746, 0.23967081308364868, 0.3771562874317169, 0.6792199015617371, 0.4142003357410431, 0.29818210005760193, 0.22304202616214752, 0.13832926750183105, 0.2776263952255249, 0.5213227868080139, 0.6655154824256897, 0.9890871047973633, 0.9966202974319458, 0.9954861998558044, 0.9953591227531433, 0.9314759373664856, 0.9555107951164246, 0.2577269971370697, 0.1097579374909401, 0.11181767284870148, 0.1560407280921936, 0.24852631986141205, 0.35782796144485474, 0.41907596588134766, 0.24008528888225555, 0.17565493285655975, 0.17779305577278137, 0.7156872153282166, 0.8380842208862305, 0.8728980422019958, 0.759645402431488, 0.6388858556747437, 0.12461109459400177, 0.1269935965538025, 0.25764206051826477, 0.41040924191474915, 0.2539431154727936, 0.1616131216287613, 0.21201662719249725, 0.11698821932077408, 0.1318410485982895, 0.2517714202404022, 0.1702059954404831, 0.13772284984588623, 0.0792190358042717, 0.2131321281194687, 0.44316306710243225, 0.3643856644630432, 0.27725398540496826, 0.3341444134712219, 0.3188120722770691, 0.3517116606235504, 0.5135446190834045, 0.3922763764858246, 0.2819308638572693, 0.5419186949729919, 0.41113829612731934, 0.67952561378479, 0.6380892992019653, 0.46927300095558167, 0.7384450435638428, 0.6523889303207397, 0.346498042345047, 0.5133509635925293, 0.49102646112442017, 0.5373365879058838, 0.5149630904197693, 0.37339991331100464, 0.22117270529270172, 0.8120450377464294, 0.4312233328819275, 0.6550455689430237, 0.34934884309768677, 0.9159054756164551, 0.7283560633659363, 0.5210387110710144, 0.4017830491065979, 0.4718059003353119, 0.2673359811306, 0.18319475650787354, 0.18232585489749908, 0.15003050863742828, 0.3657931089401245, 0.4814281761646271, 0.11008825898170471, 0.2867749035358429, 0.0498407743871212, 0.024428103119134903, 0.011987133882939816, 0.01959250308573246, 0.015704791992902756, 0.015419691801071167, 0.05841681361198425, 0.24287500977516174, 0.03737717494368553, 0.03710189461708069]</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.9840325713157654</v>
+        <v>0.9966202974319458</v>
       </c>
       <c r="F183" t="n">
         <v>1</v>
@@ -7863,10 +7863,10 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>0.8825098999950569</v>
+        <v>0.8865413000021363</v>
       </c>
       <c r="J183" t="n">
-        <v>0.005585505696171247</v>
+        <v>0.00561102088608947</v>
       </c>
     </row>
     <row r="184">
@@ -7885,11 +7885,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>[0.1948021948337555, 0.14534500241279602, 0.17224621772766113, 0.1747387945652008, 0.17132064700126648, 0.22231058776378632, 0.14585335552692413, 0.1655476689338684, 0.15683403611183167, 0.15590350329875946, 0.24606044590473175, 0.18471863865852356, 0.19913098216056824, 0.19861529767513275, 0.18997977674007416, 0.22375456988811493, 0.23321431875228882, 0.18637628853321075, 0.17423561215400696, 0.17904652655124664, 0.14454467594623566, 0.23607304692268372, 0.22099219262599945, 0.2808578908443451, 0.3176683485507965, 0.2486967295408249, 0.17925041913986206, 0.15046100318431854, 0.15388593077659607, 0.14794105291366577, 0.1521589159965515, 0.18327857553958893, 0.18577435612678528, 0.1441032737493515, 0.16765959560871124, 0.14710064232349396, 0.1453598588705063, 0.17136400938034058, 0.1873684972524643, 0.19667626917362213, 0.1656082570552826, 0.16206121444702148, 0.18087054789066315, 0.1377713978290558, 0.1761816442012787, 0.15672066807746887, 0.18085284531116486, 0.15063278377056122, 0.16808000206947327, 0.17143261432647705, 0.16133303940296173, 0.19255095720291138, 0.1723976731300354, 0.17957502603530884, 0.2158740907907486, 0.18994028866291046, 0.25047317147254944, 0.14925311505794525, 0.16416119039058685, 0.08061869442462921, 0.052095673978328705, 0.0544271394610405, 0.030215181410312653, 0.029870713129639626, 0.018816420808434486, 0.018609989434480667, 0.021235289052128792, 0.016922907903790474, 0.01864069513976574, 0.016082679852843285, 0.017106352373957634, 0.015637055039405823, 0.020151570439338684, 0.0170840285718441, 0.02251984365284443, 0.024558931589126587, 0.03336857631802559, 0.04777154326438904, 0.036726441234350204, 0.052110642194747925, 0.02702218107879162, 0.024258365854620934, 0.032742902636528015, 0.036895524710416794, 0.029864590615034103, 0.021943330764770508, 0.024115530773997307, 0.022914474830031395, 0.02176089398562908, 0.019382698461413383, 0.0187795702368021, 0.036405909806489944, 0.017352232709527016, 0.017507975921034813, 0.02467222698032856, 0.032946862280368805, 0.022036390379071236, 0.04593838378787041, 0.04089142382144928, 0.02587076835334301, 0.022151140496134758, 0.018590813502669334, 0.032868001610040665, 0.03553151711821556, 0.024620242416858673, 0.019687756896018982, 0.018826860934495926, 0.02170688472688198, 0.02600327506661415, 0.020045768469572067, 0.012516164220869541, 0.018996112048625946, 0.023289965465664864, 0.023683059960603714, 0.024571172893047333, 0.03573712706565857, 0.053796958178281784, 0.03651861101388931, 0.030853604897856712, 0.0264898668974638, 0.026737656444311142, 0.025452561676502228, 0.035508960485458374, 0.022569043561816216, 0.022566018626093864, 0.03416234254837036, 0.0346791110932827, 0.036088280379772186, 0.026084963232278824, 0.02699240855872631, 0.02741328254342079, 0.035823576152324677, 0.039568815380334854, 0.04132847860455513, 0.058045681565999985, 0.050643932074308395, 0.048900533467531204, 0.037353456020355225, 0.031242813915014267, 0.025911366567015648, 0.01916736178100109, 0.022909920662641525, 0.03002294898033142, 0.022855738177895546, 0.03221144527196884, 0.02638930454850197, 0.03234173357486725, 0.040172237902879715, 0.04312850534915924, 0.0343937948346138, 0.02949254773557186, 0.03819286450743675, 0.03780815750360489, 0.035118646919727325, 0.038034405559301376, 0.04726402088999748, 0.053283967077732086, 0.05320792272686958]</t>
+          <t>[0.16787895560264587, 0.1368538737297058, 0.14353010058403015, 0.10566113889217377, 0.10140441358089447, 0.1435537338256836, 0.07275813072919846, 0.10474447906017303, 0.10472818464040756, 0.0926428884267807, 0.16073085367679596, 0.09664851427078247, 0.11978497356176376, 0.12966372072696686, 0.1255968064069748, 0.14627142250537872, 0.14927467703819275, 0.11002961546182632, 0.11312330514192581, 0.10794290155172348, 0.09712180495262146, 0.15473781526088715, 0.15428072214126587, 0.20506006479263306, 0.2174244374036789, 0.15629617869853973, 0.110022634267807, 0.09344889223575592, 0.11625345051288605, 0.1078537181019783, 0.12726059556007385, 0.1577002853155136, 0.1164821982383728, 0.07795941829681396, 0.07990336418151855, 0.07618032395839691, 0.07339715212583542, 0.09268468618392944, 0.09450484812259674, 0.11753469705581665, 0.08730021864175797, 0.08326511085033417, 0.0977129265666008, 0.07424085587263107, 0.11404416710138321, 0.10300178080797195, 0.12475870549678802, 0.09657183289527893, 0.10344509780406952, 0.10205483436584473, 0.09154536575078964, 0.12771758437156677, 0.10786361247301102, 0.09663321822881699, 0.1423204392194748, 0.11434541642665863, 0.20166648924350739, 0.08654134720563889, 0.10215207189321518, 0.03873056918382645, 0.02396772801876068, 0.026664473116397858, 0.013910920359194279, 0.012931966222822666, 0.0072903819382190704, 0.00818951241672039, 0.00922065507620573, 0.0071058450266718864, 0.006745030637830496, 0.005963750649243593, 0.005782213527709246, 0.0053261215798556805, 0.010079990141093731, 0.007596124894917011, 0.0070747802965343, 0.009506667964160442, 0.012260410003364086, 0.021559683606028557, 0.01290202233940363, 0.02269069105386734, 0.008871836587786674, 0.00820110272616148, 0.012966102920472622, 0.018180537968873978, 0.01555144228041172, 0.010039559565484524, 0.009299767203629017, 0.00941819790750742, 0.008383742533624172, 0.00746770529076457, 0.008120720274746418, 0.01865256205201149, 0.00800678413361311, 0.007588601671159267, 0.012269379571080208, 0.019250059500336647, 0.009490557946264744, 0.03546259552240372, 0.027933713048696518, 0.01629163697361946, 0.008946009911596775, 0.008150325156748295, 0.017205340787768364, 0.01660691201686859, 0.009455282241106033, 0.007239905185997486, 0.006846509873867035, 0.0070458510890603065, 0.014235816895961761, 0.007103675976395607, 0.003802492283284664, 0.005716852843761444, 0.007845889776945114, 0.010889367200434208, 0.011244041845202446, 0.01576114073395729, 0.03513355553150177, 0.016171995550394058, 0.013672626577317715, 0.013088235631585121, 0.013309797272086143, 0.0116849010810256, 0.017274465411901474, 0.00970069132745266, 0.008805730380117893, 0.014000223018229008, 0.013606581836938858, 0.016188140958547592, 0.010226077400147915, 0.009661617688834667, 0.010431029833853245, 0.015639545395970345, 0.018597643822431564, 0.014990226365625858, 0.026860641315579414, 0.02662135288119316, 0.02668965607881546, 0.01767546683549881, 0.010729269124567509, 0.008123637177050114, 0.005946163088083267, 0.006966958288103342, 0.010173575952649117, 0.007759955711662769, 0.011761304922401905, 0.008971376344561577, 0.00937987957149744, 0.014512531459331512, 0.023429054766893387, 0.014593984931707382, 0.010026644915342331, 0.01253434643149376, 0.012138665653765202, 0.009911816567182541, 0.013215010054409504, 0.016984770074486732, 0.01838277094066143, 0.018379107117652893]</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.3176683485507965</v>
+        <v>0.2174244374036789</v>
       </c>
       <c r="F184" t="n">
         <v>1</v>
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0.8953618999803439</v>
+        <v>0.8936979999998584</v>
       </c>
       <c r="J184" t="n">
-        <v>0.005666847468230024</v>
+        <v>0.005656316455695307</v>
       </c>
     </row>
     <row r="185">
@@ -7925,11 +7925,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>[0.47659802436828613, 0.3833426237106323, 0.6561436057090759, 0.8480191230773926, 0.8132688403129578, 0.7204906940460205, 0.6910720467567444, 0.7804213166236877, 0.8354895710945129, 0.657951831817627, 0.6760607957839966, 0.6621544361114502, 0.7841116189956665, 0.8107293844223022, 0.9010392427444458, 0.4976176917552948, 0.6072433590888977, 0.565264880657196, 0.6898950338363647, 0.6852825284004211, 0.4836789071559906, 0.43804457783699036, 0.42869576811790466, 0.5029734373092651, 0.495302677154541, 0.41304877400398254, 0.5998691320419312, 0.5119662880897522, 0.5782229900360107, 0.5091269612312317, 0.5237326622009277, 0.5054318308830261, 0.5795755386352539, 0.6375926733016968, 0.7213718295097351, 0.6781504154205322, 0.5443453788757324, 0.733990490436554, 0.6909064054489136, 0.5828725099563599, 0.5241186022758484, 0.46136534214019775, 0.6609146595001221, 0.6334195137023926, 0.8121454119682312, 0.6714568138122559, 0.5430713891983032, 0.8556302785873413, 0.7090886235237122, 0.45842260122299194, 0.783145546913147, 0.499716579914093, 0.3322787582874298, 0.4714660048484802, 0.6010261178016663, 0.7614315748214722, 0.5630694031715393, 0.5734395980834961, 0.6525953412055969, 0.6355999708175659, 0.45078763365745544, 0.42487138509750366, 0.41053512692451477, 0.4426739811897278, 0.6293489336967468, 0.7340879440307617, 0.8391342163085938, 0.9417095184326172, 0.8540236353874207, 0.6870829463005066, 0.8341330289840698, 0.5825661420822144, 0.49980443716049194, 0.40063104033470154, 0.5648406744003296, 0.5195313096046448, 0.40561923384666443, 0.5485188364982605, 0.42561423778533936, 0.5660080313682556, 0.6515658497810364, 0.518021285533905, 0.6661432981491089, 0.8388673663139343, 0.6090654730796814, 0.4078811705112457, 0.5809992551803589, 0.4988446831703186, 0.5859439969062805, 0.8335752487182617, 0.8070865869522095, 0.7097387909889221, 0.6240230202674866, 0.5796563029289246, 0.41370707750320435, 0.4864838123321533, 0.38411208987236023, 0.662316620349884, 0.5382547974586487, 0.3874581456184387, 0.6361099481582642, 0.4999227225780487, 0.5553163886070251, 0.6391578912734985, 0.7571984529495239, 0.5787386298179626, 0.479748398065567, 0.3726612329483032, 0.2922510504722595, 0.3722219169139862, 0.463514506816864, 0.5549138784408569, 0.7009922862052917, 0.6796969175338745, 0.7076447606086731, 0.6110702753067017, 0.5687743425369263, 0.6141003966331482, 0.6666499972343445, 0.5969908237457275, 0.7134323120117188, 0.7746766209602356, 0.7430493235588074, 0.7431161999702454, 0.5807141661643982, 0.5223112106323242, 0.3987685441970825, 0.523460865020752, 0.45897379517555237, 0.473418653011322, 0.4063968062400818, 0.46294909715652466, 0.4375064969062805, 0.5033033490180969, 0.5720462203025818, 0.5578204989433289, 0.6831856369972229, 0.6290736794471741, 0.42971792817115784, 0.5633721351623535, 0.6638152003288269, 0.7354435920715332, 0.5836519002914429, 0.6504139304161072, 0.3650634288787842, 0.4490346312522888, 0.44573134183883667, 0.4515214264392853]</t>
+          <t>[0.6350026726722717, 0.4984828531742096, 0.7433066368103027, 0.8822021484375, 0.8926948308944702, 0.801188588142395, 0.8387717008590698, 0.8862543106079102, 0.9563570022583008, 0.763908863067627, 0.8029710650444031, 0.7670120000839233, 0.824809730052948, 0.884219229221344, 0.9485445022583008, 0.6199913620948792, 0.7218878269195557, 0.6476695537567139, 0.7922655344009399, 0.7894197702407837, 0.5785818099975586, 0.5657331347465515, 0.47793954610824585, 0.5342558026313782, 0.5176081657409668, 0.4374018609523773, 0.6695670485496521, 0.5551303625106812, 0.6581515073776245, 0.5413013100624084, 0.5628183484077454, 0.506409764289856, 0.5735613703727722, 0.6874488592147827, 0.7788748741149902, 0.7770482301712036, 0.6127194166183472, 0.7913313508033752, 0.7132488489151001, 0.6813752055168152, 0.5757250785827637, 0.5569577217102051, 0.7192370891571045, 0.6564551591873169, 0.8463940620422363, 0.7503434419631958, 0.6569899320602417, 0.8764474987983704, 0.7530995607376099, 0.533218264579773, 0.8259240388870239, 0.48047903180122375, 0.3734718859195709, 0.55014967918396, 0.6466459631919861, 0.8232702016830444, 0.6467423439025879, 0.5689752697944641, 0.714473307132721, 0.7311200499534607, 0.5523326992988586, 0.5286176204681396, 0.43539175391197205, 0.49739590287208557, 0.7387216091156006, 0.7444908618927002, 0.8864393830299377, 0.95773845911026, 0.8998819589614868, 0.6810342073440552, 0.8236176371574402, 0.6496866941452026, 0.5944851636886597, 0.4180411696434021, 0.6211238503456116, 0.5968326330184937, 0.4823434054851532, 0.6515902280807495, 0.5648825764656067, 0.7149691581726074, 0.7802255153656006, 0.5726166367530823, 0.6950491070747375, 0.8950206637382507, 0.6184836626052856, 0.5215342044830322, 0.6492380499839783, 0.4812367260456085, 0.5960286855697632, 0.8444250822067261, 0.7839159965515137, 0.7184125185012817, 0.5838707089424133, 0.6417158842086792, 0.39406853914260864, 0.5259508490562439, 0.36182236671447754, 0.7347139716148376, 0.6555640697479248, 0.5187758207321167, 0.6984725594520569, 0.5666269659996033, 0.6067080497741699, 0.6848462224006653, 0.7777649760246277, 0.6226043701171875, 0.5353096127510071, 0.40099260210990906, 0.33593425154685974, 0.47698765993118286, 0.5613228678703308, 0.6482261419296265, 0.759630560874939, 0.726438045501709, 0.7366639971733093, 0.6492918729782104, 0.5802755951881409, 0.6732338070869446, 0.6930547952651978, 0.7238306403160095, 0.7832525372505188, 0.799344539642334, 0.7637068033218384, 0.7859520316123962, 0.6844278573989868, 0.5978652834892273, 0.4889317750930786, 0.5661059021949768, 0.4881928265094757, 0.434375137090683, 0.42801398038864136, 0.48479434847831726, 0.4732435345649719, 0.5496236681938171, 0.5364667177200317, 0.5045973062515259, 0.6668530702590942, 0.7016012072563171, 0.4234791696071625, 0.5784035325050354, 0.7024577856063843, 0.7386296391487122, 0.6133027076721191, 0.7127516865730286, 0.42721980810165405, 0.4945489466190338, 0.4563412070274353, 0.46497589349746704]</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.9417095184326172</v>
+        <v>0.95773845911026</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
@@ -7943,10 +7943,10 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0.8241593999846373</v>
+        <v>0.8659509999997681</v>
       </c>
       <c r="J185" t="n">
-        <v>0.005568644594490793</v>
+        <v>0.005851020270268703</v>
       </c>
     </row>
     <row r="186">
@@ -7965,11 +7965,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>[0.2165273278951645, 0.16827742755413055, 0.19950804114341736, 0.17993643879890442, 0.2542724311351776, 0.2415854036808014, 0.18179725110530853, 0.20207683742046356, 0.1565842181444168, 0.2094057947397232, 0.15937456488609314, 0.16330721974372864, 0.19647105038166046, 0.18870669603347778, 0.13221412897109985, 0.23349739611148834, 0.2264888435602188, 0.305332213640213, 0.4182435870170593, 0.4199223220348358, 0.38669124245643616, 0.6390580534934998, 0.29780739545822144, 0.40689370036125183, 0.34960490465164185, 0.2703694701194763, 0.42927655577659607, 0.8131725788116455, 0.7002996802330017, 0.442972868680954, 0.7879759669303894, 0.5294756293296814, 0.6048508882522583, 0.5372310876846313, 0.5921444892883301, 0.9688855409622192, 0.838663637638092, 0.44757726788520813, 0.6601852178573608, 0.3341750502586365, 0.3229674994945526, 0.24373453855514526, 0.2197265475988388, 0.17039182782173157, 0.15085071325302124, 0.3027038872241974, 0.2011616975069046, 0.18502140045166016, 0.1588427871465683, 0.2513483464717865, 0.20220915973186493, 0.1827092468738556, 0.10121317207813263, 0.15011104941368103, 0.16549353301525116, 0.11103744804859161, 0.11811359971761703, 0.1173611432313919, 0.10818352550268173, 0.19235853850841522, 0.153993159532547, 0.17283394932746887, 0.11583058536052704, 0.10542494058609009, 0.11604905128479004, 0.17448320984840393, 0.14528754353523254, 0.1739022582769394, 0.1416015475988388, 0.14586646854877472, 0.09486117213964462, 0.0978010967373848, 0.22467420995235443, 0.22495295107364655, 0.10457053780555725, 0.10111705213785172, 0.1714194416999817, 0.1640990972518921, 0.3021724224090576, 0.18801112473011017, 0.18846163153648376, 0.16444851458072662, 0.17003099620342255, 0.10596547275781631, 0.10017607361078262, 0.12667612731456757, 0.2570685148239136, 0.21485845744609833, 0.18066337704658508, 0.15662291646003723, 0.22028277814388275, 0.18553785979747772, 0.22418390214443207, 0.1714247316122055, 0.17525053024291992, 0.18111754953861237, 0.1375616192817688, 0.12989087402820587, 0.18561400473117828, 0.1756017804145813, 0.09737281501293182, 0.16897739470005035, 0.18851259350776672, 0.14564773440361023, 0.1864912062883377, 0.14989158511161804, 0.1381809115409851, 0.2385103553533554, 0.18476900458335876, 0.12024702876806259, 0.14725804328918457, 0.19284161925315857, 0.15955370664596558, 0.15521585941314697, 0.1100882962346077, 0.15850064158439636, 0.11104623228311539, 0.16871251165866852, 0.14112037420272827, 0.2536049485206604, 0.22969962656497955, 0.2132141888141632, 0.19946542382240295, 0.2168792337179184, 0.16324420273303986, 0.18255643546581268, 0.16981267929077148, 0.1159435287117958, 0.2623876631259918, 0.13644884526729584, 0.15866133570671082, 0.2175462394952774, 0.23966991901397705, 0.32729625701904297, 0.37439221143722534, 0.2145216166973114, 0.20368163287639618, 0.2143435925245285, 0.2648905813694, 0.38716280460357666, 0.34388336539268494, 0.3333393335342407, 0.44628244638442993, 0.3683873116970062, 0.631840705871582, 0.5199052691459656, 0.2936865985393524, 0.2942759096622467]</t>
+          <t>[0.2532796561717987, 0.17437808215618134, 0.17387230694293976, 0.1706215739250183, 0.26777100563049316, 0.2621751129627228, 0.16229115426540375, 0.21954119205474854, 0.15684197843074799, 0.2472364753484726, 0.15206298232078552, 0.1669176071882248, 0.20296968519687653, 0.18488098680973053, 0.1470261961221695, 0.26824310421943665, 0.24830710887908936, 0.37107396125793457, 0.5001501441001892, 0.45325013995170593, 0.43084731698036194, 0.7226957082748413, 0.28634291887283325, 0.47245562076568604, 0.4565800130367279, 0.27315038442611694, 0.70863938331604, 0.9024907350540161, 0.7490826845169067, 0.5261572003364563, 0.8795578479766846, 0.5066288709640503, 0.6192300319671631, 0.5196388363838196, 0.5646418929100037, 0.9858761429786682, 0.9433913826942444, 0.521477997303009, 0.7579826712608337, 0.31830617785453796, 0.382690966129303, 0.25253695249557495, 0.19726444780826569, 0.14999960362911224, 0.12372656911611557, 0.31986328959465027, 0.1494712382555008, 0.13835616409778595, 0.11185398697853088, 0.22373901307582855, 0.22633780539035797, 0.21198305487632751, 0.0930987223982811, 0.1082204207777977, 0.12112927436828613, 0.07863835990428925, 0.09404481202363968, 0.08513785153627396, 0.07284557074308395, 0.17908386886119843, 0.13293761014938354, 0.12619690597057343, 0.07982713729143143, 0.06934951990842819, 0.06985611468553543, 0.11177872866392136, 0.1062215194106102, 0.13952794671058655, 0.1140059232711792, 0.1286800354719162, 0.05426477640867233, 0.07933522015810013, 0.26311635971069336, 0.21216806769371033, 0.07795406132936478, 0.0695621445775032, 0.15616802871227264, 0.16559569537639618, 0.340618759393692, 0.17239907383918762, 0.19580379128456116, 0.1618061363697052, 0.13771627843379974, 0.06414291262626648, 0.06613430380821228, 0.09048527479171753, 0.20351232588291168, 0.16402870416641235, 0.15879124402999878, 0.10497159510850906, 0.17505553364753723, 0.1549322009086609, 0.17619137465953827, 0.14855189621448517, 0.1358329802751541, 0.16712743043899536, 0.08638464659452438, 0.09851454198360443, 0.1754896640777588, 0.16946400701999664, 0.07845965027809143, 0.17392320930957794, 0.20949524641036987, 0.1442788690328598, 0.159086212515831, 0.11675579845905304, 0.11852502077817917, 0.17217715084552765, 0.1366121470928192, 0.0790054202079773, 0.08388877660036087, 0.11334457248449326, 0.08657952398061752, 0.11486995220184326, 0.07707562297582626, 0.10826994478702545, 0.08429733663797379, 0.11987435817718506, 0.0805453360080719, 0.19860754907131195, 0.18521520495414734, 0.1495785266160965, 0.15720407664775848, 0.2205045074224472, 0.13592161238193512, 0.1498643308877945, 0.13465616106987, 0.07005736231803894, 0.1737213432788849, 0.09986542910337448, 0.15498526394367218, 0.18891538679599762, 0.17870333790779114, 0.2718004286289215, 0.3501082956790924, 0.20048218965530396, 0.17283934354782104, 0.1926879584789276, 0.2806076109409332, 0.35397496819496155, 0.35186874866485596, 0.3189045190811157, 0.43527936935424805, 0.3772716820240021, 0.7565921545028687, 0.49402448534965515, 0.2556472718715668, 0.2555113136768341]</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.9688855409622192</v>
+        <v>0.9858761429786682</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
@@ -7983,10 +7983,10 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0.8363964000018314</v>
+        <v>0.8247342999966349</v>
       </c>
       <c r="J186" t="n">
-        <v>0.005651327027039401</v>
+        <v>0.005572529054031317</v>
       </c>
     </row>
     <row r="187">
@@ -8005,11 +8005,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>[0.8888189196586609, 0.68812495470047, 0.3215300738811493, 0.36625462770462036, 0.6096142530441284, 0.913507342338562, 0.6742600798606873, 0.41754719614982605, 0.27246201038360596, 0.27075403928756714, 0.5039594769477844, 0.44177109003067017, 0.44426536560058594, 0.414078027009964, 0.3713131248950958, 0.6465985178947449, 0.551360547542572, 0.45843634009361267, 0.400813490152359, 0.5496399402618408, 0.5137523412704468, 0.4947528839111328, 0.4635665714740753, 0.482721745967865, 0.3887954652309418, 0.3232036530971527, 0.42750924825668335, 0.6030945181846619, 0.641110897064209, 0.5787002444267273, 0.7300145626068115, 0.33773815631866455, 0.4021097719669342, 0.9887005686759949, 0.9950953722000122, 0.9899717569351196, 0.9262719750404358, 0.630988359451294, 0.5093967318534851, 0.5042929649353027, 0.2968248128890991, 0.31246277689933777, 0.35360246896743774, 0.3559018075466156, 0.34020406007766724, 0.23406870663166046, 0.33561867475509644, 0.2579682469367981, 0.18937070667743683, 0.23956866562366486, 0.38112980127334595, 0.23817822337150574, 0.1825508028268814, 0.16014978289604187, 0.19550104439258575, 0.15869128704071045, 0.31748485565185547, 0.5115562677383423, 0.5545098781585693, 0.36852794885635376, 0.33889472484588623, 0.5383409261703491, 0.2721453011035919, 0.24803362786769867, 0.27718642354011536, 0.32222503423690796, 0.3307822048664093, 0.33940744400024414, 0.3260652720928192, 0.36574476957321167, 0.36297720670700073, 0.37262940406799316, 0.3895300030708313, 0.3773682117462158, 0.3556649386882782, 0.541452169418335, 0.5536832809448242, 0.5376256704330444, 0.42525553703308105, 0.32678255438804626, 0.27349036931991577, 0.4081030488014221, 0.5131693482398987, 0.44851815700531006, 0.33530932664871216, 0.28502145409584045, 0.5088462233543396, 0.4180102050304413, 0.3608977198600769, 0.41141244769096375, 0.30521291494369507, 0.19777478277683258, 0.25124648213386536, 0.3006618022918701, 0.3646305203437805, 0.2587638795375824, 0.40214258432388306, 0.23235571384429932, 0.2882140874862671, 0.3194981813430786, 0.31749892234802246, 0.3271614611148834, 0.2944306433200836, 0.4505496025085449, 0.2541225552558899, 0.316716730594635, 0.9356673955917358, 0.9678165316581726, 0.8197485208511353, 0.6348930597305298, 0.5831928253173828, 0.8563216328620911, 0.8696666359901428, 0.9806367754936218, 0.9913255572319031, 0.9887479543685913, 0.97571861743927, 0.28930720686912537, 0.35587984323501587, 0.3378104865550995, 0.34951063990592957, 0.2740471363067627, 0.28090527653694153, 0.392916738986969, 0.33434805274009705, 0.40776297450065613, 0.44861680269241333, 0.12287496030330658, 0.26145139336586, 0.3174700140953064, 0.28334328532218933, 0.3946305811405182, 0.3878817558288574, 0.32992202043533325, 0.39736348390579224, 0.47660723328590393, 0.5153949856758118, 0.36318734288215637, 0.3175978660583496, 0.4943561851978302, 0.3878166675567627, 0.287293940782547, 0.24415835738182068, 0.38429439067840576, 0.35434964299201965, 0.3807535171508789, 0.3341332972049713, 0.333915650844574]</t>
+          <t>[0.9489450454711914, 0.7283658981323242, 0.2342892736196518, 0.3160933554172516, 0.7131392955780029, 0.9716596603393555, 0.7737684845924377, 0.410065621137619, 0.20087558031082153, 0.22637851536273956, 0.4799756407737732, 0.45769569277763367, 0.324293851852417, 0.316417396068573, 0.2302316576242447, 0.6523206830024719, 0.6016343832015991, 0.44879141449928284, 0.4108288586139679, 0.5791568160057068, 0.5183647871017456, 0.4515184462070465, 0.49897500872612, 0.4450807571411133, 0.3995736837387085, 0.24462416768074036, 0.417967826128006, 0.679802417755127, 0.6404533386230469, 0.6089453101158142, 0.7748901844024658, 0.299105703830719, 0.4258318245410919, 0.9967124462127686, 0.9980344176292419, 0.9965571165084839, 0.9818150401115417, 0.7023178935050964, 0.6951252222061157, 0.6736027598381042, 0.3143320381641388, 0.32649505138397217, 0.3719293177127838, 0.3138165771961212, 0.3098134696483612, 0.29338958859443665, 0.27623340487480164, 0.2649711072444916, 0.15683495998382568, 0.20082947611808777, 0.43670597672462463, 0.2615002691745758, 0.1656467616558075, 0.1287124902009964, 0.1440972238779068, 0.13187171518802643, 0.33278024196624756, 0.5073415040969849, 0.6180427074432373, 0.4650041460990906, 0.29882746934890747, 0.5464348793029785, 0.2800731360912323, 0.2416800856590271, 0.27299508452415466, 0.2985208034515381, 0.36574962735176086, 0.3515728712081909, 0.3048856556415558, 0.4256347119808197, 0.37724417448043823, 0.37035518884658813, 0.46782657504081726, 0.4867156445980072, 0.31541481614112854, 0.4953327476978302, 0.5767012238502502, 0.4925810992717743, 0.3597590923309326, 0.25023168325424194, 0.19100530445575714, 0.37251734733581543, 0.5165640711784363, 0.3652002811431885, 0.2948389947414398, 0.1843492090702057, 0.4257964491844177, 0.3952767550945282, 0.37396013736724854, 0.5096549391746521, 0.3555468022823334, 0.1965712159872055, 0.24789950251579285, 0.3005439043045044, 0.37494245171546936, 0.23774413764476776, 0.38947391510009766, 0.2569100558757782, 0.25102463364601135, 0.35633888840675354, 0.2889401912689209, 0.31293997168540955, 0.29904547333717346, 0.4880555272102356, 0.16040609776973724, 0.25060102343559265, 0.9860245585441589, 0.9920737743377686, 0.890320360660553, 0.7142893671989441, 0.6120614409446716, 0.9639960527420044, 0.9538372159004211, 0.9930043816566467, 0.9970480799674988, 0.9966501593589783, 0.9914259910583496, 0.22027380764484406, 0.29944029450416565, 0.28125354647636414, 0.29567399621009827, 0.17992863059043884, 0.22201186418533325, 0.42028969526290894, 0.2701554596424103, 0.38487210869789124, 0.4571375846862793, 0.1162818968296051, 0.19829699397087097, 0.33191657066345215, 0.30924779176712036, 0.3447812795639038, 0.5434083938598633, 0.4794987440109253, 0.4773671329021454, 0.646276593208313, 0.5987356901168823, 0.3777922987937927, 0.37816253304481506, 0.45531776547431946, 0.31158748269081116, 0.2923804819583893, 0.1748378425836563, 0.4161333441734314, 0.36209022998809814, 0.3264787793159485, 0.35463324189186096, 0.3537554442882538]</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.9950953722000122</v>
+        <v>0.9980344176292419</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
@@ -8023,10 +8023,10 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0.8107602999953087</v>
+        <v>0.8246953999914695</v>
       </c>
       <c r="J187" t="n">
-        <v>0.005478110135103438</v>
+        <v>0.005572266216158577</v>
       </c>
     </row>
     <row r="188">
@@ -8045,11 +8045,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>[0.49563077092170715, 0.5003822445869446, 0.6553587913513184, 0.6271681189537048, 0.45489054918289185, 0.6731821298599243, 0.5201720595359802, 0.5475452542304993, 0.5734719038009644, 0.6468680500984192, 0.7113109230995178, 0.6056843996047974, 0.6493133902549744, 0.7180235981941223, 0.5461147427558899, 0.6519788503646851, 0.6448953747749329, 0.6161765456199646, 0.6930453181266785, 0.5178925395011902, 0.4690614938735962, 0.5993368625640869, 0.6695401072502136, 0.6012433767318726, 0.6626995205879211, 0.4738105535507202, 0.5595694780349731, 0.4333818852901459, 0.4172159731388092, 0.5008003115653992, 0.5305825471878052, 0.47567516565322876, 0.5078535676002502, 0.5123125910758972, 0.7650882601737976, 0.6420814990997314, 0.7685720920562744, 0.6754212379455566, 0.6117851734161377, 0.37734413146972656, 0.596802830696106, 0.6901031732559204, 0.588416337966919, 0.5393050909042358, 0.6543954610824585, 0.690517008304596, 0.5992543697357178, 0.6017091274261475, 0.7174140810966492, 0.741352379322052, 0.5571843981742859, 0.5353874564170837, 0.6284761428833008, 0.6104264855384827, 0.6057812571525574, 0.6539325714111328, 0.498283326625824, 0.5523988008499146, 0.48010364174842834, 0.42668086290359497, 0.5235000252723694, 0.4998978078365326, 0.39645689725875854, 0.5638368725776672, 0.43939730525016785, 0.44845345616340637, 0.46888434886932373, 0.3544209897518158, 0.4341760575771332, 0.5523067712783813, 0.628174364566803, 0.574506402015686, 0.6509631872177124, 0.5880573987960815, 0.48243096470832825, 0.40941452980041504, 0.5586761236190796, 0.4515349268913269, 0.33154597878456116, 0.3709243834018707, 0.3755377531051636, 0.36534005403518677, 0.3218042552471161, 0.3601551353931427, 0.43099910020828247, 0.4167052209377289, 0.5192171335220337, 0.4695424735546112, 0.32731977105140686, 0.4379824697971344, 0.49130892753601074, 0.5043707489967346, 0.5131139159202576, 0.4894644021987915, 0.6816453337669373, 0.576553225517273, 0.6074491143226624, 0.5430874228477478, 0.5284190773963928, 0.4573725759983063, 0.49812251329421997, 0.3680022954940796, 0.5196208357810974, 0.4360959529876709, 0.4500272870063782, 0.5805664658546448, 0.7447907328605652, 0.8568528294563293, 0.7060376405715942, 0.7331376075744629, 0.5340331196784973, 0.33888015151023865, 0.5315733551979065, 0.4086833894252777, 0.5383618474006653, 0.5197821855545044, 0.7046425342559814, 0.6215464472770691, 0.5111742615699768, 0.43765324354171753, 0.34162211418151855, 0.3126627802848816, 0.5617702007293701, 0.6323332190513611, 0.6503960490226746, 0.6562804579734802, 0.5623415112495422, 0.6290187835693359, 0.6367501020431519, 0.50221186876297, 0.4896373748779297, 0.5812436938285828, 0.529434323310852, 0.5128306746482849, 0.6370845437049866, 0.4067651927471161, 0.7226616144180298, 0.6969326138496399, 0.5194101333618164, 0.574216902256012, 0.5236642956733704, 0.6042765974998474, 0.5939840078353882, 0.5941684246063232, 0.5651957392692566, 0.6933102607727051, 0.4754782021045685, 0.4763311445713043]</t>
+          <t>[0.4261000454425812, 0.45643743872642517, 0.701400637626648, 0.5836098194122314, 0.395656019449234, 0.6864675879478455, 0.48372989892959595, 0.533859372138977, 0.5347569584846497, 0.6419994831085205, 0.7499486207962036, 0.7292278409004211, 0.6929243803024292, 0.7301262021064758, 0.5358296632766724, 0.6852086782455444, 0.6953810453414917, 0.6238651275634766, 0.7435794472694397, 0.5469558835029602, 0.4324178695678711, 0.6687492728233337, 0.6307457685470581, 0.6410362124443054, 0.6884765625, 0.4815925359725952, 0.5897186994552612, 0.33797726035118103, 0.3442157506942749, 0.5189258456230164, 0.4811415672302246, 0.5014381408691406, 0.4868682324886322, 0.45744913816452026, 0.8224118947982788, 0.7557092905044556, 0.8910108804702759, 0.8294761180877686, 0.6809940338134766, 0.35637331008911133, 0.6612231135368347, 0.7772877812385559, 0.6222555637359619, 0.5394266843795776, 0.7429795861244202, 0.7816020250320435, 0.5915343761444092, 0.6743432283401489, 0.8286950588226318, 0.7959427833557129, 0.6116303205490112, 0.5307661294937134, 0.6595634818077087, 0.5772713422775269, 0.5522941946983337, 0.65788733959198, 0.3929424583911896, 0.5340259075164795, 0.40893691778182983, 0.3388608694076538, 0.4712626338005066, 0.45045581459999084, 0.4312114715576172, 0.5967450141906738, 0.3876851201057434, 0.34276920557022095, 0.3499871790409088, 0.27285945415496826, 0.32146477699279785, 0.4089386463165283, 0.6016785502433777, 0.46513086557388306, 0.5680171847343445, 0.4923023283481598, 0.30341535806655884, 0.28204429149627686, 0.4370986223220825, 0.3382759392261505, 0.19070696830749512, 0.20856010913848877, 0.2039848268032074, 0.26815348863601685, 0.2162238210439682, 0.21070948243141174, 0.2907558083534241, 0.2750453054904938, 0.3319952189922333, 0.279886394739151, 0.14879395067691803, 0.30467459559440613, 0.3394346833229065, 0.33730635046958923, 0.391727477312088, 0.29219087958335876, 0.6120203733444214, 0.440542072057724, 0.4523063600063324, 0.4239594340324402, 0.3529532849788666, 0.3423013389110565, 0.344316303730011, 0.26066792011260986, 0.381708562374115, 0.25006425380706787, 0.2580718994140625, 0.43207913637161255, 0.7648447155952454, 0.8809602856636047, 0.5562697052955627, 0.7169277667999268, 0.44168707728385925, 0.20327810943126678, 0.39182254672050476, 0.2696630656719208, 0.44747722148895264, 0.3382602632045746, 0.6198126673698425, 0.5822322368621826, 0.41969698667526245, 0.2648559808731079, 0.17492300271987915, 0.179146409034729, 0.46710270643234253, 0.5421537756919861, 0.5783328413963318, 0.585399866104126, 0.4946799874305725, 0.4906637966632843, 0.5424814820289612, 0.3296598792076111, 0.34614992141723633, 0.5346007943153381, 0.31813937425613403, 0.33687201142311096, 0.5822232365608215, 0.28592249751091003, 0.6817874908447266, 0.6412913203239441, 0.4232414662837982, 0.5146769285202026, 0.4305403232574463, 0.46366816759109497, 0.47248411178588867, 0.4645954966545105, 0.42604875564575195, 0.6367549896240234, 0.3750734329223633, 0.3760731518268585]</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.8568528294563293</v>
+        <v>0.8910108804702759</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
@@ -8063,10 +8063,10 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0.8375767999968957</v>
+        <v>0.8366014000057476</v>
       </c>
       <c r="J188" t="n">
-        <v>0.005659302702681728</v>
+        <v>0.005652712162200997</v>
       </c>
     </row>
     <row r="189">
@@ -8085,11 +8085,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>[0.6668978333473206, 0.6785879135131836, 0.5118348002433777, 0.5923603773117065, 0.5259461402893066, 0.4795980155467987, 0.7088667750358582, 0.6506129503250122, 0.6415628790855408, 0.7974593639373779, 0.6439209580421448, 0.8354043364524841, 0.8203824162483215, 0.8549313545227051, 0.8088228106498718, 0.6466156840324402, 0.5921877026557922, 0.4230157434940338, 0.5600636601448059, 0.5197939872741699, 0.6958613395690918, 0.5587453246116638, 0.613739550113678, 0.4296092092990875, 0.8019533157348633, 0.5774748921394348, 0.6171260476112366, 0.7433098554611206, 0.8099764585494995, 0.6209680438041687, 0.8366747498512268, 0.6123373508453369, 0.6005593538284302, 0.5020536780357361, 0.5348448157310486, 0.5264386534690857, 0.5669978857040405, 0.7125898003578186, 0.6367560029029846, 0.7446345686912537, 0.884288489818573, 0.6815529465675354, 0.6255328059196472, 0.54927659034729, 0.5020275115966797, 0.68753582239151, 0.7879140973091125, 0.6046857237815857, 0.7322654128074646, 0.6083078384399414, 0.7211399078369141, 0.4397636353969574, 0.37195828557014465, 0.7099140286445618, 0.8058084845542908, 0.8433375954627991, 0.9319083094596863, 0.94317626953125, 0.8279002904891968, 0.701595664024353, 0.890543520450592, 0.9431428909301758, 0.8024924993515015, 0.7649390697479248, 0.45510590076446533, 0.7228858470916748, 0.9707895517349243, 0.9806745648384094, 0.834180474281311, 0.6687331795692444, 0.850503146648407, 0.7595229148864746, 0.8707857131958008, 0.7490972280502319, 0.650654673576355, 0.7222469449043274, 0.6621201038360596, 0.4763621985912323, 0.5024021863937378, 0.4879890978336334, 0.6179797649383545, 0.5628566741943359, 0.5848477482795715, 0.42691367864608765, 0.4324715733528137, 0.538071870803833, 0.5009931921958923, 0.4123471975326538, 0.37337473034858704, 0.4555562436580658, 0.6412180662155151, 0.5615133047103882, 0.5670429468154907, 0.7211530208587646, 0.5888211131095886, 0.5115587115287781, 0.4842063784599304, 0.35461655259132385, 0.4692523777484894, 0.5303980708122253, 0.42106345295906067, 0.4773431122303009, 0.4617880880832672, 0.28846073150634766, 0.3543321490287781, 0.3467687666416168, 0.3155156075954437, 0.37603959441185, 0.4901222884654999, 0.5763469934463501, 0.35638630390167236, 0.2873595654964447, 0.3407248854637146, 0.4239010810852051, 0.43227618932724, 0.44925910234451294, 0.623115599155426, 0.5809019804000854, 0.7545150518417358, 0.7993288636207581, 0.7638821005821228, 0.44228801131248474, 0.3374009430408478, 0.3473320007324219, 0.3481665849685669, 0.29727232456207275, 0.2896769940853119, 0.4152764678001404, 0.4636238217353821, 0.4693385362625122, 0.407682865858078, 0.29428431391716003, 0.4024619460105896, 0.3432401120662689, 0.31294187903404236, 0.5592871308326721, 0.45265495777130127, 0.6072699427604675, 0.4593062400817871, 0.4245177209377289, 0.4545137584209442, 0.3289429545402527, 0.48510417342185974, 0.7612550258636475, 0.3213956356048584, 0.3840161859989166, 0.4262120723724365, 0.42847689986228943]</t>
+          <t>[0.6477283239364624, 0.6496179103851318, 0.4392421543598175, 0.5080945491790771, 0.40050551295280457, 0.37823057174682617, 0.6985934972763062, 0.6912915110588074, 0.6926002502441406, 0.8030041456222534, 0.6473970413208008, 0.8807712197303772, 0.8644602298736572, 0.9047286510467529, 0.8218457102775574, 0.6540640592575073, 0.651970624923706, 0.4120212197303772, 0.5463888049125671, 0.5266494154930115, 0.7361481189727783, 0.5227315425872803, 0.5419535636901855, 0.41504600644111633, 0.9323498606681824, 0.6167882084846497, 0.6475664377212524, 0.8961707353591919, 0.8748966455459595, 0.688484787940979, 0.9182091355323792, 0.647861123085022, 0.6795842051506042, 0.6146191954612732, 0.5910159945487976, 0.5315092206001282, 0.5662702322006226, 0.8206058740615845, 0.6618766188621521, 0.828636646270752, 0.9527976512908936, 0.8131784200668335, 0.6363075375556946, 0.5928472876548767, 0.544679582118988, 0.8373686671257019, 0.8927193880081177, 0.6945886015892029, 0.7693652510643005, 0.7159551382064819, 0.8236817717552185, 0.5223124027252197, 0.409262478351593, 0.8323575258255005, 0.9301953911781311, 0.9443999528884888, 0.9794791340827942, 0.9810438752174377, 0.8544789552688599, 0.7188917994499207, 0.9625778794288635, 0.9628903269767761, 0.9220603108406067, 0.8924539089202881, 0.4795302748680115, 0.7662471532821655, 0.9877759218215942, 0.9921827912330627, 0.9357984662055969, 0.8354290127754211, 0.9448493719100952, 0.8681788444519043, 0.939121425151825, 0.8553783297538757, 0.8004221320152283, 0.8356606960296631, 0.7886796593666077, 0.47647571563720703, 0.5619959831237793, 0.5243909955024719, 0.7282242178916931, 0.6565195322036743, 0.6835194826126099, 0.523611307144165, 0.5107889771461487, 0.6634390354156494, 0.7065436244010925, 0.5289154648780823, 0.33866024017333984, 0.5852205753326416, 0.7410376071929932, 0.5812305212020874, 0.6228527426719666, 0.8080927729606628, 0.6600475907325745, 0.614062488079071, 0.5315205454826355, 0.36822310090065, 0.4877587854862213, 0.561125636100769, 0.44259896874427795, 0.5644672513008118, 0.5104910135269165, 0.30917778611183167, 0.3762814700603485, 0.35658612847328186, 0.31696265935897827, 0.4143435060977936, 0.6207008957862854, 0.6696931719779968, 0.4249742329120636, 0.2745863199234009, 0.4245227575302124, 0.5800109505653381, 0.6129924654960632, 0.5896576046943665, 0.7838743925094604, 0.8048601150512695, 0.9117974042892456, 0.9316093325614929, 0.9519410133361816, 0.44437652826309204, 0.42374593019485474, 0.4501556158065796, 0.3586232662200928, 0.338784784078598, 0.33350828289985657, 0.4916844666004181, 0.5356382131576538, 0.5612514019012451, 0.4798564314842224, 0.27373024821281433, 0.41766443848609924, 0.31981950998306274, 0.34430769085884094, 0.7658647298812866, 0.5312594771385193, 0.7920547127723694, 0.5136709213256836, 0.4432082772254944, 0.5223479270935059, 0.30066606402397156, 0.7243356108665466, 0.902192234992981, 0.3246694505214691, 0.4356161653995514, 0.4643263518810272, 0.4671209156513214]</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.9806745648384094</v>
+        <v>0.9921827912330627</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
@@ -8103,10 +8103,10 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0.8346497000020463</v>
+        <v>0.8367441000009421</v>
       </c>
       <c r="J189" t="n">
-        <v>0.005639525000013826</v>
+        <v>0.005653676351357717</v>
       </c>
     </row>
     <row r="190">
@@ -8125,11 +8125,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[0.9973224997520447, 0.997365415096283, 0.9960892200469971, 0.9976146221160889, 0.9962981343269348, 0.9959281086921692, 0.9900134801864624, 0.9709384441375732, 0.9886552095413208, 0.990598738193512, 0.976693332195282, 0.9869104027748108, 0.9868786931037903, 0.9835213422775269, 0.9846422076225281, 0.9916864037513733, 0.9913376569747925, 0.9957279562950134, 0.9939627051353455, 0.9946998357772827, 0.9957082271575928, 0.9956491589546204, 0.9961277842521667, 0.9911535382270813, 0.9932195544242859, 0.989703357219696, 0.996584415435791, 0.9971379041671753, 0.996934175491333, 0.9941049814224243, 0.9964990615844727, 0.9973194003105164, 0.9975002408027649, 0.9973840117454529, 0.9969019889831543, 0.9915364980697632, 0.9955111742019653, 0.9945195317268372, 0.9931380152702332, 0.9962462782859802, 0.9969690442085266, 0.9934271574020386, 0.9917808175086975, 0.9968498349189758, 0.9966890215873718, 0.9949754476547241, 0.9929981231689453, 0.995465099811554, 0.9961403012275696, 0.9974144697189331, 0.9978445768356323, 0.9950495362281799, 0.9910838603973389, 0.9920061230659485, 0.9958953857421875, 0.9938966631889343, 0.9965247511863708, 0.9972698092460632, 0.9972175359725952, 0.9961052536964417, 0.9957641363143921, 0.9929571151733398, 0.9940839409828186, 0.9924581050872803, 0.9830916523933411, 0.990676760673523, 0.9823669195175171, 0.9935605525970459, 0.9970417618751526, 0.997344434261322, 0.9945088028907776, 0.9956939220428467, 0.9949969053268433, 0.9959282279014587, 0.9959425330162048, 0.9971891045570374, 0.9967060685157776, 0.9978973865509033, 0.9956064820289612, 0.9946483969688416, 0.996735155582428, 0.9914442896842957, 0.9831655025482178, 0.9575597047805786, 0.9694924354553223, 0.974704384803772, 0.9926281571388245, 0.9923351407051086, 0.9952623844146729, 0.9956334233283997, 0.9964748024940491, 0.9936419129371643, 0.9922420978546143, 0.9788088202476501, 0.9942777752876282, 0.993750274181366, 0.9894124865531921, 0.99082350730896, 0.990500271320343, 0.9918547868728638, 0.9906063079833984, 0.993008017539978, 0.9598311185836792, 0.979718804359436, 0.9604390263557434, 0.9689707159996033, 0.9694010019302368, 0.9464784264564514, 0.953280508518219, 0.9809548854827881, 0.9431770443916321, 0.9376041293144226, 0.9156354665756226, 0.9507474303245544, 0.9883129000663757, 0.992770254611969, 0.9892226457595825, 0.9852818846702576, 0.9893191456794739, 0.9919242262840271, 0.9910354614257812, 0.9892998933792114, 0.9934019446372986, 0.9913158416748047, 0.9897275567054749, 0.9934250116348267, 0.987508237361908, 0.9895830154418945, 0.9933823347091675, 0.9944260120391846, 0.9952458739280701, 0.9904028177261353, 0.9921280145645142, 0.9949638843536377, 0.988200306892395, 0.991955578327179, 0.995025098323822, 0.9929335117340088, 0.994378387928009, 0.9927641749382019, 0.9860206246376038, 0.9919871091842651, 0.9936177730560303, 0.9892059564590454, 0.9923551082611084, 0.994716465473175, 0.9961771965026855, 0.996161937713623]</t>
+          <t>[0.9990980625152588, 0.9991449117660522, 0.998835027217865, 0.9993119239807129, 0.9985373020172119, 0.9983561635017395, 0.9963542222976685, 0.986858606338501, 0.9951156377792358, 0.9969513416290283, 0.9894803762435913, 0.9954155683517456, 0.9954540729522705, 0.9952133893966675, 0.9953495860099792, 0.9970898032188416, 0.997073769569397, 0.9984921216964722, 0.9976510405540466, 0.9983397722244263, 0.9982748031616211, 0.9981592297554016, 0.9985402822494507, 0.9969364404678345, 0.9978289008140564, 0.9965726137161255, 0.998822033405304, 0.9989867806434631, 0.9990744590759277, 0.998380184173584, 0.9987119436264038, 0.9990527033805847, 0.9991377592086792, 0.9989857077598572, 0.9990468621253967, 0.9974260926246643, 0.9984869956970215, 0.9984935522079468, 0.9979337453842163, 0.998941957950592, 0.9990449547767639, 0.9982775449752808, 0.9979370832443237, 0.9992197751998901, 0.9989581108093262, 0.9984142780303955, 0.9976233839988708, 0.9985645413398743, 0.9986955523490906, 0.999054491519928, 0.9992959499359131, 0.9982169270515442, 0.9967737793922424, 0.9970738887786865, 0.9985780715942383, 0.9979315996170044, 0.9986631870269775, 0.999103307723999, 0.9989751577377319, 0.9988260865211487, 0.99854576587677, 0.9963260293006897, 0.9973576664924622, 0.9969736337661743, 0.9920094013214111, 0.9965988993644714, 0.9935693740844727, 0.9979396462440491, 0.9988695979118347, 0.9990004897117615, 0.9978251457214355, 0.9983482360839844, 0.9977140426635742, 0.9984760880470276, 0.998225748538971, 0.9989481568336487, 0.9986360669136047, 0.9992384910583496, 0.9984768033027649, 0.9982274174690247, 0.9988308548927307, 0.99764084815979, 0.9956995248794556, 0.9842738509178162, 0.9858303666114807, 0.9917152523994446, 0.9976498484611511, 0.9971332550048828, 0.998096764087677, 0.998336136341095, 0.9988521337509155, 0.9981721639633179, 0.9978125095367432, 0.9960047602653503, 0.9980632662773132, 0.9978142976760864, 0.9964643716812134, 0.9963973164558411, 0.9964465498924255, 0.9969574213027954, 0.997405469417572, 0.9980496168136597, 0.9844733476638794, 0.9935025572776794, 0.9904227256774902, 0.9897410869598389, 0.989456832408905, 0.9843889474868774, 0.9858312606811523, 0.9947474598884583, 0.9781096577644348, 0.9777161478996277, 0.9504382610321045, 0.9823592305183411, 0.9963154196739197, 0.9974746108055115, 0.997162401676178, 0.9961704611778259, 0.9969868063926697, 0.9978066086769104, 0.9960324168205261, 0.9962000250816345, 0.9974328875541687, 0.9972367286682129, 0.9958446621894836, 0.9975270628929138, 0.9965376853942871, 0.9967324733734131, 0.997734785079956, 0.998274564743042, 0.9985558390617371, 0.9972630739212036, 0.9974225759506226, 0.9981908202171326, 0.9968534111976624, 0.9974020719528198, 0.9978809952735901, 0.9972707629203796, 0.9980583786964417, 0.998356282711029, 0.9960100650787354, 0.9973209500312805, 0.9979454874992371, 0.9963316321372986, 0.9978944659233093, 0.9984434247016907, 0.9987084865570068, 0.9986990690231323]</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.9978973865509033</v>
+        <v>0.9993119239807129</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0.8328033999714535</v>
+        <v>0.8317931000055978</v>
       </c>
       <c r="J190" t="n">
-        <v>0.005627049999807118</v>
+        <v>0.005620223648686471</v>
       </c>
     </row>
     <row r="191">
@@ -8165,11 +8165,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>[0.9839072227478027, 0.9934970140457153, 0.9893306493759155, 0.9837324023246765, 0.9790188074111938, 0.989188551902771, 0.9833658337593079, 0.9824687242507935, 0.987504780292511, 0.994009256362915, 0.9835341572761536, 0.9808987379074097, 0.9696907997131348, 0.8888015151023865, 0.9721664190292358, 0.9704000949859619, 0.9368402361869812, 0.9686740636825562, 0.9520755410194397, 0.9125200510025024, 0.9765991568565369, 0.9848504066467285, 0.9614588022232056, 0.9196536540985107, 0.8191989064216614, 0.977807879447937, 0.958869993686676, 0.9887630939483643, 0.9957022070884705, 0.9953488707542419, 0.981086015701294, 0.9753550291061401, 0.9809498190879822, 0.921860933303833, 0.9820206761360168, 0.9767336845397949, 0.9470261335372925, 0.8533390760421753, 0.9420801997184753, 0.9593074321746826, 0.9056034088134766, 0.9550706148147583, 0.9249427318572998, 0.9096733927726746, 0.9804556369781494, 0.8356881737709045, 0.9619226455688477, 0.942753791809082, 0.9552231431007385, 0.9810760021209717, 0.9899271726608276, 0.9888383150100708, 0.9394250512123108, 0.9770679473876953, 0.9740282893180847, 0.9401717185974121, 0.981866717338562, 0.9256027340888977, 0.9848878383636475, 0.9706937074661255, 0.9879429936408997, 0.9686146974563599, 0.9929229021072388, 0.99101722240448, 0.9860183000564575, 0.9850389957427979, 0.9865078926086426, 0.977580189704895, 0.9857438206672668, 0.9807227253913879, 0.9857090711593628, 0.9904308915138245, 0.989538311958313, 0.9936429262161255, 0.9971897006034851, 0.9911156892776489, 0.992358386516571, 0.9833155870437622, 0.9878482818603516, 0.9949501752853394, 0.9757886528968811, 0.9667668342590332, 0.9457935690879822, 0.9691405296325684, 0.9972328543663025, 0.9971867203712463, 0.9901387691497803, 0.9935205578804016, 0.9914596080780029, 0.9836357235908508, 0.9912023544311523, 0.9883350133895874, 0.9752485156059265, 0.9891448616981506, 0.9898077845573425, 0.9733378291130066, 0.9765114188194275, 0.9870331287384033, 0.9875353574752808, 0.9856144785881042, 0.9925150275230408, 0.9937168955802917, 0.984533429145813, 0.9669398069381714, 0.9860214591026306, 0.9814168810844421, 0.9763819575309753, 0.9835220575332642, 0.9925829172134399, 0.9948738217353821, 0.9965775609016418, 0.9961197376251221, 0.995373547077179, 0.9836994409561157, 0.9812297821044922, 0.9943700432777405, 0.994847297668457, 0.9966957569122314, 0.9956058859825134, 0.9946979284286499, 0.9832533001899719, 0.9790170788764954, 0.9944756627082825, 0.9953165054321289, 0.9923406839370728, 0.9961721301078796, 0.9953407049179077, 0.9860170483589172, 0.9952592253684998, 0.9949538111686707, 0.9951590895652771, 0.9969280362129211, 0.9923427700996399, 0.9499444365501404, 0.9700342416763306, 0.9843259453773499, 0.9892799258232117, 0.9477787017822266, 0.9965717792510986, 0.9967634677886963, 0.9962363839149475, 0.9951321482658386, 0.9826562404632568, 0.993029773235321, 0.9936577677726746, 0.9855436086654663, 0.9859904050827026, 0.9859387278556824]</t>
+          <t>[0.9945975542068481, 0.9983227849006653, 0.9969131946563721, 0.995576024055481, 0.993720293045044, 0.9968830943107605, 0.995609700679779, 0.9971020817756653, 0.9973047971725464, 0.9980834722518921, 0.9949057102203369, 0.9921848177909851, 0.9930427074432373, 0.9669607877731323, 0.9916638135910034, 0.9922797679901123, 0.9753035306930542, 0.9929594993591309, 0.986194372177124, 0.9690329432487488, 0.9913320541381836, 0.9960505366325378, 0.9904622435569763, 0.978198766708374, 0.9475052356719971, 0.9932471513748169, 0.9856771230697632, 0.9965331554412842, 0.9986456036567688, 0.9985376596450806, 0.9922800064086914, 0.9886077046394348, 0.9921330809593201, 0.932244598865509, 0.9921253323554993, 0.986703634262085, 0.9815930724143982, 0.9016566872596741, 0.9758980870246887, 0.978554904460907, 0.9400709271430969, 0.9835118651390076, 0.9733769297599792, 0.9713148474693298, 0.9931004047393799, 0.9149091243743896, 0.9909420609474182, 0.9799980521202087, 0.9848195314407349, 0.9958702921867371, 0.9965600371360779, 0.9955452680587769, 0.9775067567825317, 0.9937673807144165, 0.9942957758903503, 0.983311653137207, 0.9945468902587891, 0.9804943799972534, 0.994868278503418, 0.9922459721565247, 0.9960871934890747, 0.9885687828063965, 0.9976340532302856, 0.9975366592407227, 0.9959012866020203, 0.9963634610176086, 0.9948176741600037, 0.9943055510520935, 0.994306743144989, 0.9960787892341614, 0.9960930943489075, 0.9970076680183411, 0.9974907636642456, 0.9981728792190552, 0.9992825388908386, 0.9979402422904968, 0.9971452355384827, 0.9945477843284607, 0.9968510270118713, 0.9988445043563843, 0.9944896697998047, 0.9898925423622131, 0.9810382723808289, 0.9900099635124207, 0.9991176724433899, 0.9990500807762146, 0.9973742961883545, 0.9979630708694458, 0.9964503049850464, 0.9926103949546814, 0.9968218803405762, 0.9947698712348938, 0.9894657135009766, 0.9947816729545593, 0.9966983199119568, 0.9842284917831421, 0.9888622164726257, 0.9950630068778992, 0.9941115975379944, 0.9950162768363953, 0.9968679547309875, 0.9979637861251831, 0.9948806762695312, 0.9851089119911194, 0.9958193302154541, 0.9947655200958252, 0.9938610792160034, 0.9963028430938721, 0.9978920817375183, 0.99858558177948, 0.9988465309143066, 0.9988503456115723, 0.998604953289032, 0.9958641529083252, 0.9952377080917358, 0.9983335137367249, 0.99793541431427, 0.9986466765403748, 0.998612642288208, 0.9979242086410522, 0.9929211735725403, 0.9907674193382263, 0.9982183575630188, 0.9984820485115051, 0.9977533221244812, 0.9986189603805542, 0.9985113739967346, 0.9960485100746155, 0.9987481832504272, 0.9984614849090576, 0.9984961748123169, 0.9990180730819702, 0.9983441829681396, 0.9787693023681641, 0.9922704696655273, 0.9960218071937561, 0.9970417618751526, 0.9799274206161499, 0.9989344477653503, 0.99892657995224, 0.9989138841629028, 0.9984498023986816, 0.9953573346138, 0.9976181387901306, 0.9981129169464111, 0.9967723488807678, 0.9954285621643066, 0.9953889846801758]</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.9972328543663025</v>
+        <v>0.9992825388908386</v>
       </c>
       <c r="F191" t="n">
         <v>1</v>
@@ -8183,10 +8183,10 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0.8421594999963418</v>
+        <v>0.8401670000021113</v>
       </c>
       <c r="J191" t="n">
-        <v>0.005690266891867174</v>
+        <v>0.00567680405406832</v>
       </c>
     </row>
     <row r="192">
@@ -8205,11 +8205,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>[0.31618669629096985, 0.3739197552204132, 0.255977988243103, 0.303554892539978, 0.48763978481292725, 0.35629868507385254, 0.21739058196544647, 0.268908828496933, 0.3964880406856537, 0.40438517928123474, 0.396806538105011, 0.3340516984462738, 0.3214011788368225, 0.29444658756256104, 0.37139272689819336, 0.31548067927360535, 0.5182763934135437, 0.5585142374038696, 0.4918714761734009, 0.3774527609348297, 0.4792281985282898, 0.3385211229324341, 0.4517425000667572, 0.3620665371417999, 0.43773019313812256, 0.40009739995002747, 0.4902913272380829, 0.4010964334011078, 0.33608847856521606, 0.29200682044029236, 0.2862190008163452, 0.3865900933742523, 0.3283248841762543, 0.25406524538993835, 0.35168027877807617, 0.1721295416355133, 0.28241851925849915, 0.4513665735721588, 0.41134947538375854, 0.4434979259967804, 0.3501327633857727, 0.4062145948410034, 0.5055769085884094, 0.4738072454929352, 0.3436715602874756, 0.22680416703224182, 0.342344731092453, 0.2832278907299042, 0.33471283316612244, 0.41809725761413574, 0.235834538936615, 0.21393710374832153, 0.2535075843334198, 0.21289081871509552, 0.2700587213039398, 0.25238585472106934, 0.24915245175361633, 0.2617510259151459, 0.27501845359802246, 0.36653998494148254, 0.33478599786758423, 0.270565390586853, 0.3223866820335388, 0.2883288264274597, 0.24502867460250854, 0.247192844748497, 0.2020999789237976, 0.16608841717243195, 0.25882667303085327, 0.33009839057922363, 0.2705795168876648, 0.30889981985092163, 0.3197966516017914, 0.2782812714576721, 0.34741437435150146, 0.3563232719898224, 0.43379801511764526, 0.45024508237838745, 0.46629104018211365, 0.34633609652519226, 0.5246996879577637, 0.4780617356300354, 0.37668290734291077, 0.3825222849845886, 0.31399625539779663, 0.4750339090824127, 0.4072398543357849, 0.3153384327888489, 0.3374274969100952, 0.434182733297348, 0.47180378437042236, 0.3958725929260254, 0.24551327526569366, 0.2787288427352905, 0.27626368403434753, 0.2699345648288727, 0.3773638606071472, 0.3669430613517761, 0.28548741340637207, 0.4932904839515686, 0.3206970989704132, 0.3272087872028351, 0.3622421622276306, 0.3487365245819092, 0.3001345098018646, 0.21581268310546875, 0.35645759105682373, 0.31139829754829407, 0.353183776140213, 0.2516200542449951, 0.3284466862678528, 0.32249411940574646, 0.30085188150405884, 0.36435094475746155, 0.4089910387992859, 0.5940925478935242, 0.5728296637535095, 0.3358212113380432, 0.41483333706855774, 0.9305431246757507, 0.4601457417011261, 0.33449995517730713, 0.33463054895401]</t>
+          <t>[0.20781418681144714, 0.22920480370521545, 0.16085703670978546, 0.1622740477323532, 0.38129812479019165, 0.21922709047794342, 0.13096649944782257, 0.1697610765695572, 0.34366682171821594, 0.3448125422000885, 0.3427305817604065, 0.23782791197299957, 0.2331046611070633, 0.20031283795833588, 0.2721301317214966, 0.2025197297334671, 0.4547025263309479, 0.5150978565216064, 0.40354546904563904, 0.25333815813064575, 0.396060585975647, 0.2333081066608429, 0.4533463418483734, 0.2314009815454483, 0.35586273670196533, 0.29857343435287476, 0.42266646027565, 0.315815269947052, 0.24763216078281403, 0.1803363710641861, 0.22393853962421417, 0.2950398325920105, 0.23378099501132965, 0.16237927973270416, 0.27343031764030457, 0.11427772045135498, 0.2091013342142105, 0.4060801565647125, 0.3486873507499695, 0.46147581934928894, 0.3178022503852844, 0.3544858694076538, 0.5119422078132629, 0.4476705491542816, 0.25833797454833984, 0.15673790872097015, 0.2847912907600403, 0.2255428284406662, 0.26204046607017517, 0.34382694959640503, 0.14740833640098572, 0.12229739874601364, 0.15584369003772736, 0.11978192627429962, 0.17896884679794312, 0.13504911959171295, 0.13917867839336395, 0.16685937345027924, 0.1964675635099411, 0.22951368987560272, 0.26387494802474976, 0.2041764110326767, 0.25721248984336853, 0.20845122635364532, 0.18084605038166046, 0.16239939630031586, 0.14360308647155762, 0.08036337047815323, 0.16091132164001465, 0.23267480731010437, 0.1546502262353897, 0.21883723139762878, 0.2555108964443207, 0.18536922335624695, 0.24396222829818726, 0.26923486590385437, 0.35859015583992004, 0.37111908197402954, 0.40194714069366455, 0.295522540807724, 0.48386484384536743, 0.3880179524421692, 0.2819201648235321, 0.31781572103500366, 0.21799041330814362, 0.3885783553123474, 0.31851768493652344, 0.19734109938144684, 0.21048755943775177, 0.32366690039634705, 0.4140337407588959, 0.27001941204071045, 0.13927483558654785, 0.17380523681640625, 0.1740960329771042, 0.1484895497560501, 0.22328616678714752, 0.18904659152030945, 0.17246399819850922, 0.4444028437137604, 0.19468744099140167, 0.17852725088596344, 0.2063635140657425, 0.22571620345115662, 0.19215376675128937, 0.11320918053388596, 0.27769607305526733, 0.20743687450885773, 0.2701805830001831, 0.124856136739254, 0.17846283316612244, 0.18041977286338806, 0.15206362307071686, 0.24490945041179657, 0.2531619369983673, 0.5187615156173706, 0.5378040075302124, 0.21484674513339996, 0.3020603656768799, 0.9708045125007629, 0.36955997347831726, 0.19829094409942627, 0.1977018266916275]</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.9305431246757507</v>
+        <v>0.9708045125007629</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
@@ -8223,10 +8223,10 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0.6977288000052795</v>
+        <v>0.7044992000010097</v>
       </c>
       <c r="J192" t="n">
-        <v>0.005672591869961622</v>
+        <v>0.005727635772365933</v>
       </c>
     </row>
     <row r="193">
@@ -8245,11 +8245,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[0.3282028138637543, 0.3723659813404083, 0.34188583493232727, 0.4978947341442108, 0.48129862546920776, 0.3097350001335144, 0.34711408615112305, 0.38337358832359314, 0.2909375727176666, 0.3009921610355377, 0.3445816934108734, 0.44405949115753174, 0.3126353621482849, 0.4770737886428833, 0.312028706073761, 0.5715607404708862, 0.5552741289138794, 0.7376859188079834, 0.8034754395484924, 0.7116551995277405, 0.633242130279541, 0.623401403427124, 0.6062328815460205, 0.5285154581069946, 0.4958772361278534, 0.4951876699924469, 0.5928967595100403, 0.5128719806671143, 0.47235408425331116, 0.43441858887672424, 0.4929247498512268, 0.4997754693031311, 0.4256233870983124, 0.4834630489349365, 0.5586130023002625, 0.39101359248161316, 0.4865725636482239, 0.3087581992149353, 0.34417712688446045, 0.4461437165737152, 0.30495789647102356, 0.3899269998073578, 0.6224309802055359, 0.5632350444793701, 0.6167314648628235, 0.5687815546989441, 0.5469978451728821, 0.6106154918670654, 0.5120903253555298, 0.9761788845062256, 0.6997030377388, 0.5534253120422363, 0.6033391356468201, 0.6376330852508545, 0.7126246094703674, 0.6750889420509338, 0.7014499306678772, 0.6992899179458618, 0.7566260695457458, 0.7169391512870789, 0.7570490837097168, 0.6272087693214417, 0.6281865239143372, 0.536044716835022, 0.5035986304283142, 0.6735666394233704, 0.7870703339576721, 0.6780241131782532, 0.8327139616012573, 0.5638933777809143, 0.4471019208431244, 0.5253971815109253, 0.6542447209358215, 0.6838505864143372, 0.6619367599487305, 0.6579122543334961, 0.8634365200996399, 0.7871745824813843, 0.6232227683067322, 0.5930739641189575, 0.5161977410316467, 0.48354992270469666, 0.582050085067749, 0.530483067035675, 0.4288521111011505, 0.42156845331192017, 0.48420998454093933, 0.26178985834121704, 0.2818823456764221, 0.36801907420158386, 0.42083004117012024, 0.35522621870040894, 0.3801145553588867, 0.5408876538276672, 0.45166563987731934, 0.793232262134552, 0.4500671923160553, 0.5941489338874817, 0.39342308044433594, 0.3815840184688568, 0.316419780254364, 0.289438396692276, 0.4588601887226105, 0.418723464012146, 0.32547274231910706, 0.42629754543304443, 0.5275567173957825, 0.340909868478775, 0.3387475609779358, 0.29832378029823303, 0.37245649099349976, 0.3450690805912018, 0.46735212206840515, 0.46326297521591187, 0.545657753944397, 0.2960110306739807, 0.3666771650314331, 0.442998468875885, 0.3254576027393341, 0.37950870394706726, 0.41439059376716614, 0.4094564914703369, 0.442130446434021, 0.531506359577179, 0.3821326196193695, 0.5236568450927734, 0.6466238498687744, 0.5514952540397644, 0.46815234422683716, 0.43958383798599243, 0.37233835458755493, 0.49028685688972473, 0.49735188484191895, 0.36893439292907715, 0.36752718687057495, 0.4709368050098419, 0.39686867594718933, 0.5133777856826782, 0.3832724392414093, 0.6462063193321228, 0.563553512096405, 0.5462313890457153, 0.48213550448417664, 0.36017856001853943, 0.29899466037750244, 0.32341495156288147, 0.7100810408592224, 0.7083469033241272]</t>
+          <t>[0.2840230464935303, 0.28001028299331665, 0.2596462666988373, 0.4522803723812103, 0.4910820424556732, 0.18376150727272034, 0.2469790279865265, 0.3189581036567688, 0.16256359219551086, 0.16442923247814178, 0.2517615854740143, 0.3337586224079132, 0.16758203506469727, 0.35609641671180725, 0.22547104954719543, 0.44302138686180115, 0.5224601626396179, 0.7478794455528259, 0.8783266544342041, 0.7416753768920898, 0.57301265001297, 0.6418508887290955, 0.5978623032569885, 0.5182362198829651, 0.37218034267425537, 0.46308454871177673, 0.5248973369598389, 0.492854505777359, 0.42152443528175354, 0.33356887102127075, 0.3763386309146881, 0.4203179180622101, 0.2900475859642029, 0.3953227400779724, 0.5497564077377319, 0.23802760243415833, 0.3784845769405365, 0.1372060626745224, 0.18928484618663788, 0.2567247450351715, 0.15440663695335388, 0.21820342540740967, 0.5444732308387756, 0.464387446641922, 0.5242425203323364, 0.4260762333869934, 0.4193885922431946, 0.4891478419303894, 0.3817301094532013, 0.991038978099823, 0.6413162350654602, 0.4187484383583069, 0.5443330407142639, 0.6274110078811646, 0.7294400334358215, 0.7295043468475342, 0.7384642362594604, 0.7730534672737122, 0.8474400043487549, 0.8390039205551147, 0.8506531715393066, 0.5788453817367554, 0.6125013828277588, 0.4088650047779083, 0.45863717794418335, 0.7671701908111572, 0.8373976349830627, 0.7769346237182617, 0.8724257946014404, 0.5306045413017273, 0.30096757411956787, 0.4757191836833954, 0.6771376729011536, 0.613061785697937, 0.6211265921592712, 0.7014035582542419, 0.9237450957298279, 0.8581705689430237, 0.6591954827308655, 0.5799238681793213, 0.40616926550865173, 0.4146651327610016, 0.5216217041015625, 0.47992900013923645, 0.26332318782806396, 0.3321751356124878, 0.4532870054244995, 0.1735372692346573, 0.15975071489810944, 0.3006531894207001, 0.3102043569087982, 0.26280882954597473, 0.3249991536140442, 0.5571731925010681, 0.435403972864151, 0.9419721961021423, 0.38591355085372925, 0.6003463864326477, 0.262429803609848, 0.21075552701950073, 0.16129760444164276, 0.13653390109539032, 0.2746584415435791, 0.2429475337266922, 0.17285729944705963, 0.23859412968158722, 0.36778950691223145, 0.18703608214855194, 0.17552800476551056, 0.1524198353290558, 0.22418256103992462, 0.17766261100769043, 0.3113403916358948, 0.30430641770362854, 0.3430421054363251, 0.13373517990112305, 0.20188793540000916, 0.2657638490200043, 0.16498124599456787, 0.23603293299674988, 0.21320514380931854, 0.2636212408542633, 0.2823151648044586, 0.44936391711235046, 0.22310949862003326, 0.42389124631881714, 0.7068320512771606, 0.5359428524971008, 0.4576161503791809, 0.41190463304519653, 0.28538087010383606, 0.42236563563346863, 0.4576762020587921, 0.3140588700771332, 0.261067658662796, 0.3575502634048462, 0.25973984599113464, 0.4020894467830658, 0.2706541121006012, 0.6636111736297607, 0.5502743721008301, 0.34377291798591614, 0.2890007793903351, 0.19506481289863586, 0.14584662020206451, 0.1377994269132614, 0.6126103401184082, 0.6097545623779297]</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.9761788845062256</v>
+        <v>0.991038978099823</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
@@ -8263,10 +8263,10 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>0.8361179000057746</v>
+        <v>0.8596495000092546</v>
       </c>
       <c r="J193" t="n">
-        <v>0.005649445270309287</v>
+        <v>0.005808442567630098</v>
       </c>
     </row>
     <row r="194">
@@ -8285,11 +8285,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>[0.9517889618873596, 0.8280121088027954, 0.8639274835586548, 0.9127832055091858, 0.7809464335441589, 0.8286288976669312, 0.6239066123962402, 0.6998723149299622, 0.6120560169219971, 0.5391631126403809, 0.45562559366226196, 0.690983235836029, 0.5576699376106262, 0.5535421967506409, 0.5363370776176453, 0.5882150530815125, 0.543869137763977, 0.37333908677101135, 0.41188254952430725, 0.41721782088279724, 0.4344334900379181, 0.395876944065094, 0.43078717589378357, 0.4125286936759949, 0.29446813464164734, 0.2508751153945923, 0.3400017023086548, 0.33427679538726807, 0.4230601489543915, 0.27807116508483887, 0.41151270270347595, 0.6037578582763672, 0.6467525362968445, 0.41315340995788574, 0.3628666400909424, 0.6577573418617249, 0.9258337020874023, 0.8287160992622375, 0.7444550395011902, 0.4325149357318878, 0.5664580464363098, 0.7636725306510925, 0.8771178722381592, 0.9414657950401306, 0.9622971415519714, 0.9382410645484924, 0.8833404183387756, 0.8723250031471252, 0.7039626240730286, 0.8107495307922363, 0.8845179080963135, 0.6443844437599182, 0.5041736960411072, 0.6264439225196838, 0.7393265962600708, 0.8010798692703247, 0.8097593188285828, 0.895210325717926, 0.9672287702560425, 0.9153406023979187, 0.9113923907279968, 0.8600590825080872, 0.8549801707267761, 0.9702396988868713, 0.8966226577758789, 0.8532669544219971, 0.8007469773292542, 0.8446054458618164, 0.9311448931694031, 0.9202370047569275, 0.8918229341506958, 0.8927227854728699, 0.892667293548584, 0.9019436240196228, 0.4420805871486664, 0.650788426399231, 0.8617504239082336, 0.44382795691490173, 0.777867317199707, 0.4953717589378357, 0.4144209921360016, 0.4590415358543396, 0.7065685391426086, 0.6643486618995667, 0.5160254240036011, 0.3780384957790375, 0.4493492841720581, 0.5143615007400513, 0.7011257410049438, 0.7208349704742432, 0.4775562584400177, 0.42220520973205566, 0.6385155320167542, 0.7871062755584717, 0.7508097290992737, 0.7937597632408142, 0.8199406862258911, 0.735862135887146, 0.9550031423568726, 0.9372684359550476, 0.8019808530807495, 0.9341247081756592, 0.9053658843040466, 0.6383503675460815, 0.9278033971786499, 0.9540339708328247, 0.9586338400840759, 0.8458430767059326, 0.6305270195007324, 0.8440353274345398, 0.9340063333511353, 0.8790760040283203, 0.8457646369934082, 0.888457715511322, 0.9099339246749878, 0.9071658253669739, 0.8221319913864136, 0.7999411225318909, 0.944644570350647, 0.7494493722915649, 0.8552302718162537, 0.9231586456298828, 0.9120782613754272, 0.8697771430015564, 0.9177644848823547, 0.8852037191390991, 0.8291699886322021, 0.7926455140113831, 0.9302767515182495, 0.9831740260124207, 0.9552940726280212, 0.7873513102531433, 0.8190184235572815, 0.9249700307846069, 0.9158163070678711, 0.7110714912414551, 0.4920685291290283, 0.584452748298645, 0.7860583066940308, 0.9233513474464417, 0.9193968176841736, 0.9284292459487915, 0.8293380737304688, 0.9322750568389893, 0.9213675856590271, 0.8142967820167542, 0.9518017768859863, 0.9517706632614136]</t>
+          <t>[0.9716389775276184, 0.8966149091720581, 0.9333692789077759, 0.9037190079689026, 0.7421113848686218, 0.8435224294662476, 0.6053490042686462, 0.685484766960144, 0.5905654430389404, 0.42252016067504883, 0.3202362060546875, 0.498363733291626, 0.4904384911060333, 0.5261806845664978, 0.47733888030052185, 0.5705358982086182, 0.47780075669288635, 0.3176533281803131, 0.37522223591804504, 0.39609137177467346, 0.4299952983856201, 0.34700503945350647, 0.4089527428150177, 0.33237069845199585, 0.17406414449214935, 0.16614693403244019, 0.2247050702571869, 0.24057994782924652, 0.3535628914833069, 0.24733830988407135, 0.3517642617225647, 0.5288832187652588, 0.5776936411857605, 0.3215174674987793, 0.2731349468231201, 0.5807242393493652, 0.9074087142944336, 0.8609868884086609, 0.7030044198036194, 0.41824400424957275, 0.4431268870830536, 0.8539794683456421, 0.9267616271972656, 0.973365306854248, 0.9824153780937195, 0.9532487392425537, 0.888687014579773, 0.9205515384674072, 0.6976408362388611, 0.8483409285545349, 0.9433696269989014, 0.6739310026168823, 0.36592793464660645, 0.5839994549751282, 0.683116614818573, 0.8420169949531555, 0.7992435693740845, 0.8855471014976501, 0.9795284271240234, 0.9441623687744141, 0.9499678015708923, 0.9199031591415405, 0.913933515548706, 0.9761261940002441, 0.9220334887504578, 0.8870470523834229, 0.7787058353424072, 0.8320869207382202, 0.9311079978942871, 0.9357551336288452, 0.9254134297370911, 0.9573882222175598, 0.9210565090179443, 0.9272300004959106, 0.34923747181892395, 0.6232532262802124, 0.8501003384590149, 0.3223018944263458, 0.805846095085144, 0.37164637446403503, 0.3706902265548706, 0.4316098690032959, 0.7691867351531982, 0.6507379412651062, 0.46036091446876526, 0.26829758286476135, 0.4133777618408203, 0.44432052969932556, 0.637925386428833, 0.6923526525497437, 0.3800429701805115, 0.3512146770954132, 0.5469812154769897, 0.8110541105270386, 0.8310348391532898, 0.7706153988838196, 0.856695830821991, 0.7767054438591003, 0.9716211557388306, 0.9647147059440613, 0.8930409550666809, 0.963755190372467, 0.8995423316955566, 0.5809981226921082, 0.9655478000640869, 0.9760313630104065, 0.9794473648071289, 0.8548017144203186, 0.636424720287323, 0.8527766466140747, 0.9507322311401367, 0.8777996301651001, 0.9160873293876648, 0.9095020890235901, 0.9309360384941101, 0.9020999073982239, 0.7910531163215637, 0.7824804186820984, 0.9616512656211853, 0.6992937922477722, 0.8181012272834778, 0.9234479069709778, 0.9297052621841431, 0.8502181768417358, 0.9531309008598328, 0.8652539849281311, 0.8184751868247986, 0.7848314046859741, 0.9204667210578918, 0.986149787902832, 0.9616453051567078, 0.7220937013626099, 0.8245749473571777, 0.9337595105171204, 0.92264324426651, 0.6669072508811951, 0.35371100902557373, 0.6166543364524841, 0.8323296904563904, 0.9122695922851562, 0.919369637966156, 0.9302150011062622, 0.82881098985672, 0.9062244296073914, 0.9228847622871399, 0.7672798037528992, 0.9542990326881409, 0.9542994499206543]</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.9831740260124207</v>
+        <v>0.986149787902832</v>
       </c>
       <c r="F194" t="n">
         <v>1</v>
@@ -8303,10 +8303,10 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0.8337490000121761</v>
+        <v>0.8478521000070032</v>
       </c>
       <c r="J194" t="n">
-        <v>0.00563343918927146</v>
+        <v>0.005728730405452724</v>
       </c>
     </row>
     <row r="195">
@@ -8325,11 +8325,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>[0.16294407844543457, 0.17023886740207672, 0.12320534139871597, 0.27840980887413025, 0.10666254907846451, 0.11432953178882599, 0.14115814864635468, 0.2080293744802475, 0.24117760360240936, 0.18687662482261658, 0.1614641696214676, 0.13281333446502686, 0.23748505115509033, 0.321113646030426, 0.4594927728176117, 0.3822286128997803, 0.3183879554271698, 0.20274971425533295, 0.23839950561523438, 0.23423588275909424, 0.417971134185791, 0.44888532161712646, 0.39972424507141113, 0.2839508056640625, 0.2163819670677185, 0.29589706659317017, 0.2751777470111847, 0.27727147936820984, 0.3762373924255371, 0.2033015489578247, 0.12203650921583176, 0.08091969043016434, 0.19802358746528625, 0.22270014882087708, 0.2658699154853821, 0.15175765752792358, 0.29460379481315613, 0.18024389445781708, 0.12285744398832321, 0.17006395757198334, 0.14443543553352356, 0.13976533710956573, 0.20329990983009338, 0.16015654802322388, 0.17157205939292908, 0.20520082116127014, 0.13942597806453705, 0.10473573952913284, 0.17278873920440674, 0.18327286839485168, 0.09567402303218842, 0.11870238184928894, 0.11064361780881882, 0.1360933780670166, 0.11462808400392532, 0.13771642744541168, 0.13190922141075134, 0.10769475251436234, 0.15357501804828644, 0.1162821501493454, 0.23292845487594604, 0.21548514068126678, 0.27998867630958557, 0.15752212703227997, 0.11389389634132385, 0.12330804765224457, 0.14034339785575867, 0.14444765448570251, 0.1117769405245781, 0.24779267609119415, 0.14227089285850525, 0.09148611128330231, 0.20117568969726562, 0.18212087452411652, 0.22724907100200653, 0.3531045913696289, 0.21764454245567322, 0.18596984446048737, 0.2680245637893677, 0.1756567358970642, 0.21842116117477417, 0.2815033197402954, 0.24162887036800385, 0.22041656076908112, 0.41136112809181213, 0.39367207884788513, 0.42406126856803894, 0.253924161195755, 0.4220077395439148, 0.20269855856895447, 0.17638252675533295, 0.33991679549217224, 0.35507822036743164, 0.3875894546508789, 0.2228870838880539, 0.4356193244457245, 0.32841306924819946, 0.22289298474788666, 0.25590038299560547, 0.2967011630535126, 0.1736537665128708, 0.27386409044265747, 0.43450960516929626, 0.33656081557273865, 0.21466515958309174, 0.2750297486782074, 0.22256560623645782, 0.2540130913257599, 0.34397372603416443, 0.36155086755752563, 0.26465094089508057, 0.21396023035049438, 0.18873931467533112, 0.30931586027145386, 0.1315932422876358, 0.24586813151836395, 0.17067566514015198, 0.20786528289318085, 0.3488461375236511, 0.19569386541843414, 0.2569495141506195, 0.31687498092651367, 0.2587980628013611, 0.26732900738716125, 0.24750833213329315, 0.18432089686393738, 0.19847173988819122, 0.14517034590244293, 0.1614411622285843, 0.22487689554691315, 0.31649935245513916, 0.27283775806427, 0.14861567318439484, 0.27882590889930725, 0.35848164558410645, 0.42447617650032043, 0.33069080114364624, 0.1792573779821396, 0.10692215710878372, 0.31936654448509216, 0.2534756660461426, 0.2713056802749634, 0.2625238597393036, 0.2473577857017517, 0.27515751123428345, 0.18858332931995392, 0.13999824225902557, 0.1397615671157837]</t>
+          <t>[0.08693738281726837, 0.10530918836593628, 0.05569598078727722, 0.14878299832344055, 0.06278534978628159, 0.07117988169193268, 0.07407636940479279, 0.08724794536828995, 0.13342130184173584, 0.12414520978927612, 0.07838136702775955, 0.08870293200016022, 0.13325943052768707, 0.2176697850227356, 0.46708837151527405, 0.4095151126384735, 0.26029521226882935, 0.14563694596290588, 0.1584566831588745, 0.14992131292819977, 0.4330887496471405, 0.3165428340435028, 0.3037269115447998, 0.28570443391799927, 0.1636466085910797, 0.2727583646774292, 0.2296549677848816, 0.20632706582546234, 0.3332480192184448, 0.1487811654806137, 0.09253013879060745, 0.043482743203639984, 0.14188608527183533, 0.17051520943641663, 0.19704844057559967, 0.08511435240507126, 0.23198926448822021, 0.11965851485729218, 0.06990021467208862, 0.08074430376291275, 0.07589622586965561, 0.06302390247583389, 0.10030782222747803, 0.0967429056763649, 0.10102321207523346, 0.15438814461231232, 0.09244715422391891, 0.057111773639917374, 0.10958480834960938, 0.1083029955625534, 0.042853184044361115, 0.07079806923866272, 0.0791095420718193, 0.0876668393611908, 0.06815440207719803, 0.0903007835149765, 0.07947291433811188, 0.07829384505748749, 0.10425657778978348, 0.07098807394504547, 0.1447153091430664, 0.12232893705368042, 0.16304390132427216, 0.08154943585395813, 0.06796734035015106, 0.07437872886657715, 0.08872336149215698, 0.09223893284797668, 0.06867921352386475, 0.15385733544826508, 0.07369115203619003, 0.06035817787051201, 0.16324371099472046, 0.11582952737808228, 0.1575227677822113, 0.277387410402298, 0.15532298386096954, 0.11857547610998154, 0.16071262955665588, 0.10747938603162766, 0.14209051430225372, 0.17980703711509705, 0.1740182340145111, 0.11470223218202591, 0.30141085386276245, 0.22510235011577606, 0.30412766337394714, 0.11958608031272888, 0.2557043731212616, 0.12029663473367691, 0.10805406421422958, 0.19032320380210876, 0.21506771445274353, 0.24261991679668427, 0.12302523851394653, 0.3083898425102234, 0.1689775139093399, 0.16175468266010284, 0.15655119717121124, 0.20910649001598358, 0.09442535787820816, 0.1653556078672409, 0.3316449224948883, 0.1831544190645218, 0.09994207322597504, 0.15176694095134735, 0.1447787880897522, 0.2154303938150406, 0.24516992270946503, 0.21271966397762299, 0.17965470254421234, 0.12865972518920898, 0.13297249376773834, 0.2741376459598541, 0.07704991102218628, 0.14614678919315338, 0.09770390391349792, 0.12485536932945251, 0.17356005311012268, 0.0951332375407219, 0.1312926560640335, 0.199129119515419, 0.17875389754772186, 0.17749819159507751, 0.17540927231311798, 0.11938965320587158, 0.0913575068116188, 0.07501035928726196, 0.08948040008544922, 0.1514008641242981, 0.20253153145313263, 0.15167784690856934, 0.07974298298358917, 0.15052425861358643, 0.20183685421943665, 0.26147109270095825, 0.1902969479560852, 0.0712212547659874, 0.05624186247587204, 0.22497637569904327, 0.17165426909923553, 0.1660935878753662, 0.14700694382190704, 0.12120510637760162, 0.15711261332035065, 0.0735151469707489, 0.059593357145786285, 0.059490155428647995]</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.4594927728176117</v>
+        <v>0.467088371515274</v>
       </c>
       <c r="F195" t="n">
         <v>1</v>
@@ -8343,10 +8343,10 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0.9331300999911036</v>
+        <v>1.088010200008284</v>
       </c>
       <c r="J195" t="n">
-        <v>0.006304933108047997</v>
+        <v>0.007351420270326245</v>
       </c>
     </row>
     <row r="196">
@@ -8365,11 +8365,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[0.14341852068901062, 0.16428795456886292, 0.10045496374368668, 0.1509101241827011, 0.1406387984752655, 0.11985942721366882, 0.11435814201831818, 0.2056475579738617, 0.17459487915039062, 0.17260806262493134, 0.11394844949245453, 0.17085044085979462, 0.2998175621032715, 0.2605297565460205, 0.4128822982311249, 0.252612829208374, 0.2183573693037033, 0.25780126452445984, 0.19618403911590576, 0.19385908544063568, 0.2704766094684601, 0.21371115744113922, 0.21903936564922333, 0.23909986019134521, 0.20624315738677979, 0.14932702481746674, 0.1387757509946823, 0.2664458453655243, 0.15115609765052795, 0.26283735036849976, 0.2741749882698059, 0.297303706407547, 0.4613593518733978, 0.1807478666305542, 0.2511270046234131, 0.2193552404642105, 0.22358688712120056, 0.20442084968090057, 0.16561834514141083, 0.3412356674671173, 0.31619516015052795, 0.24815496802330017, 0.24551737308502197, 0.2074889987707138, 0.286257266998291, 0.2825179100036621, 0.23786436021327972, 0.2067043036222458, 0.16216915845870972, 0.24182137846946716, 0.21137382090091705, 0.09333281219005585, 0.09937210381031036, 0.20740453898906708, 0.1883687973022461, 0.16857437789440155, 0.10161629319190979, 0.18691837787628174, 0.20435069501399994, 0.26891812682151794, 0.3742496371269226, 0.23689711093902588, 0.137990802526474, 0.23348106443881989, 0.21940471231937408, 0.3039242923259735, 0.21199920773506165, 0.1777893453836441, 0.17798982560634613, 0.17532062530517578, 0.174470454454422, 0.21571394801139832, 0.26616641879081726, 0.19808295369148254, 0.23307181894779205, 0.14943374693393707, 0.1743442267179489, 0.27550622820854187, 0.2262493073940277, 0.3350023627281189, 0.2840659022331238, 0.25482577085494995, 0.19855614006519318, 0.16745303571224213, 0.23389844596385956, 0.23632217943668365, 0.219549298286438, 0.318209707736969, 0.20512007176876068, 0.14983464777469635, 0.17685642838478088, 0.17651855945587158, 0.26246535778045654, 0.19293397665023804, 0.1442742496728897, 0.166860431432724, 0.145052969455719, 0.1421044021844864, 0.1969832330942154, 0.14725381135940552, 0.25233012437820435, 0.19272342324256897, 0.25182339549064636, 0.20462363958358765, 0.3279699981212616, 0.17589013278484344, 0.1207699179649353, 0.09778580069541931, 0.2288784235715866, 0.2897004783153534, 0.07871714234352112, 0.10443234443664551, 0.17573775351047516, 0.15095919370651245, 0.19779302179813385, 0.19416634738445282, 0.1699444204568863, 0.15765728056430817, 0.16643847525119781, 0.20977459847927094, 0.2200329303741455, 0.1884550005197525, 0.20063239336013794, 0.26618343591690063, 0.32094913721084595, 0.3156753480434418, 0.13690829277038574, 0.12303388118743896, 0.20317696034908295, 0.23199641704559326, 0.2467915564775467, 0.22959719598293304, 0.2505050003528595, 0.22149647772312164, 0.22214290499687195, 0.21717867255210876, 0.2711138427257538, 0.14870263636112213, 0.20565837621688843, 0.1497603952884674, 0.31401583552360535, 0.23927919566631317, 0.23092952370643616, 0.27961745858192444, 0.34318476915359497, 0.3634112477302551, 0.202609583735466, 0.20184719562530518]</t>
+          <t>[0.11573949456214905, 0.10986053198575974, 0.06097893789410591, 0.12469878792762756, 0.0826810672879219, 0.0645488053560257, 0.06839127093553543, 0.13838034868240356, 0.10778246074914932, 0.10147708654403687, 0.06687092781066895, 0.10143750160932541, 0.2404610961675644, 0.14721636474132538, 0.2632858157157898, 0.13974736630916595, 0.10980049520730972, 0.12425181269645691, 0.08879435807466507, 0.08929305523633957, 0.15554378926753998, 0.1494790017604828, 0.11084290593862534, 0.1507720947265625, 0.11486779153347015, 0.06695511192083359, 0.07163618505001068, 0.16556426882743835, 0.09189645200967789, 0.15368591248989105, 0.1754942387342453, 0.24086037278175354, 0.3758969008922577, 0.0879804939031601, 0.1248750239610672, 0.11881580948829651, 0.097519151866436, 0.09097740799188614, 0.06611799448728561, 0.1289810985326767, 0.1971215158700943, 0.12856025993824005, 0.11573250591754913, 0.09247373789548874, 0.16415554285049438, 0.1350071281194687, 0.1275295615196228, 0.131002739071846, 0.057678624987602234, 0.10386721789836884, 0.09802359342575073, 0.035833656787872314, 0.033657122403383255, 0.09703905135393143, 0.0760556161403656, 0.06607157737016678, 0.04441310465335846, 0.07724294811487198, 0.1158691868185997, 0.14568649232387543, 0.20022454857826233, 0.1272006332874298, 0.055554695427417755, 0.1326906830072403, 0.11771669238805771, 0.1856997013092041, 0.11313187330961227, 0.0811118558049202, 0.07998031377792358, 0.07525909692049026, 0.08309794217348099, 0.12297716736793518, 0.14152216911315918, 0.1008409783244133, 0.1286911517381668, 0.05821369215846062, 0.1005130335688591, 0.16789405047893524, 0.10040811449289322, 0.21236495673656464, 0.19814921915531158, 0.11625555157661438, 0.07351946830749512, 0.05430329963564873, 0.0929214283823967, 0.12251344323158264, 0.1065119281411171, 0.1604895293712616, 0.10272194445133209, 0.07313919067382812, 0.07224870473146439, 0.08119896054267883, 0.11236164718866348, 0.08871304988861084, 0.06094258651137352, 0.10506802052259445, 0.09296007454395294, 0.057662252336740494, 0.09924770891666412, 0.06876492500305176, 0.1134776696562767, 0.10177471488714218, 0.15728048980236053, 0.09580396115779877, 0.1908361315727234, 0.11033468693494797, 0.07936733961105347, 0.06170669570565224, 0.1483718752861023, 0.14109516143798828, 0.040558114647865295, 0.05771936848759651, 0.09222584217786789, 0.08174178004264832, 0.10362877696752548, 0.12177616357803345, 0.08342279493808746, 0.0764128714799881, 0.09360968321561813, 0.1373579353094101, 0.1463172733783722, 0.10603202134370804, 0.11260569095611572, 0.2366068959236145, 0.2271350473165512, 0.22179432213306427, 0.09346091002225876, 0.059953123331069946, 0.11072570085525513, 0.12117443233728409, 0.12539348006248474, 0.12042012810707092, 0.14617466926574707, 0.1358909010887146, 0.12424641847610474, 0.12937049567699432, 0.2008063793182373, 0.08323215693235397, 0.12614430487155914, 0.09127824753522873, 0.21818530559539795, 0.13992200791835785, 0.12918783724308014, 0.19360414147377014, 0.21067661046981812, 0.3057781755924225, 0.12245210260152817, 0.12197396904230118]</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.4613593518733978</v>
+        <v>0.3758969008922577</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -8383,10 +8383,10 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0.8337041000195313</v>
+        <v>0.8734355000051437</v>
       </c>
       <c r="J196" t="n">
-        <v>0.005633135810942779</v>
+        <v>0.005901591216250971</v>
       </c>
     </row>
     <row r="197">
@@ -8405,11 +8405,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>[0.21797208487987518, 0.3505933880805969, 0.37244749069213867, 0.3910776972770691, 0.22825869917869568, 0.31252527236938477, 0.3670293092727661, 0.30972835421562195, 0.34180209040641785, 0.22722366452217102, 0.31466877460479736, 0.17487990856170654, 0.20990067720413208, 0.10990925878286362, 0.1308515965938568, 0.08068852126598358, 0.19405560195446014, 0.17151781916618347, 0.21794715523719788, 0.1740187555551529, 0.1071581095457077, 0.16245076060295105, 0.10270953178405762, 0.18551023304462433, 0.2778565287590027, 0.28179192543029785, 0.25420981645584106, 0.3709825575351715, 0.20997218787670135, 0.19203509390354156, 0.23786920309066772, 0.3661116361618042, 0.24072466790676117, 0.2192402482032776, 0.11304883658885956, 0.3153473734855652, 0.10913996398448944, 0.19564224779605865, 0.14573584496974945, 0.09802235662937164, 0.12229545414447784, 0.14081425964832306, 0.1229090616106987, 0.11126568913459778, 0.1267455816268921, 0.21833090484142303, 0.1435828059911728, 0.1513233631849289, 0.08601986616849899, 0.13273537158966064, 0.11261536180973053, 0.10458597540855408, 0.15268756449222565, 0.2344036102294922, 0.16083350777626038, 0.15304292738437653, 0.1727733612060547, 0.1591145098209381, 0.21523313224315643, 0.13367760181427002, 0.09191331267356873, 0.17070899903774261, 0.1490786373615265, 0.10424698144197464, 0.15432588756084442, 0.18428368866443634, 0.14359618723392487, 0.27204814553260803, 0.187421053647995, 0.30467498302459717, 0.21903100609779358, 0.27808427810668945, 0.3456761837005615, 0.2872384190559387, 0.5484668612480164, 0.4139312207698822, 0.34038087725639343, 0.2801940441131592, 0.2407357394695282, 0.2676566243171692, 0.45212820172309875, 0.2308131754398346, 0.15806733071804047, 0.33667391538619995, 0.251413494348526, 0.19684617221355438, 0.19997060298919678, 0.472100168466568, 0.34686940908432007, 0.27698642015457153, 0.5552538633346558, 0.4194774031639099, 0.3207637667655945, 0.38606923818588257, 0.4205670654773712, 0.45475712418556213, 0.261146605014801, 0.3437827527523041, 0.4323810040950775, 0.18064500391483307, 0.2948372960090637, 0.3176862895488739, 0.2821807861328125, 0.3813745975494385, 0.3468945026397705, 0.2760157287120819, 0.1943855583667755, 0.5414842367172241, 0.5323810577392578, 0.5554302930831909, 0.42764079570770264, 0.3580239415168762, 0.39515647292137146, 0.3529709279537201, 0.16079288721084595, 0.4614613354206085, 0.29428091645240784, 0.29544246196746826, 0.2671336233615875, 0.2581261992454529, 0.27635514736175537, 0.33031269907951355, 0.18889449536800385, 0.2914523184299469, 0.27558356523513794, 0.33819615840911865, 0.49150124192237854, 0.21577255427837372, 0.29458367824554443, 0.2179454267024994, 0.21642762422561646, 0.1840568333864212, 0.2175142914056778, 0.232650488615036, 0.20496703684329987, 0.2170332670211792, 0.2697296142578125, 0.2652764320373535, 0.45544782280921936, 0.37186193466186523, 0.4288952946662903, 0.4205307066440582, 0.39552897214889526, 0.5830929279327393, 0.4091368317604065, 0.39591798186302185, 0.3216691315174103, 0.31955239176750183]</t>
+          <t>[0.15399539470672607, 0.35961729288101196, 0.2655980885028839, 0.3133760094642639, 0.16477178037166595, 0.23685535788536072, 0.2193286418914795, 0.16928789019584656, 0.20639732480049133, 0.14133284986019135, 0.18658480048179626, 0.08128409832715988, 0.07776618003845215, 0.0509846955537796, 0.04717031493782997, 0.02969164401292801, 0.09009623527526855, 0.08733022212982178, 0.14291252195835114, 0.10674767941236496, 0.07439669966697693, 0.09443915635347366, 0.05820458382368088, 0.07324853539466858, 0.1627543717622757, 0.1136295273900032, 0.09233811497688293, 0.2114962637424469, 0.1118113175034523, 0.10376512259244919, 0.1459917426109314, 0.3597105145454407, 0.18161535263061523, 0.12897326052188873, 0.0482863187789917, 0.26648640632629395, 0.05043927580118179, 0.12050818651914597, 0.06665898114442825, 0.04255241900682449, 0.0531182624399662, 0.06476078182458878, 0.07169181853532791, 0.05730679631233215, 0.061181098222732544, 0.1308562308549881, 0.062322575598955154, 0.0602637454867363, 0.0374995581805706, 0.06999944895505905, 0.07084226608276367, 0.05304184556007385, 0.09018204361200333, 0.11591878533363342, 0.08734340965747833, 0.0830334946513176, 0.08645734190940857, 0.07067570090293884, 0.07434002310037613, 0.056932080537080765, 0.043580908328294754, 0.10420867055654526, 0.0841711238026619, 0.0727062001824379, 0.06681796908378601, 0.0967186838388443, 0.06992132216691971, 0.12591800093650818, 0.07070355117321014, 0.10751812160015106, 0.08731264621019363, 0.127618208527565, 0.16299773752689362, 0.12534978985786438, 0.3158099949359894, 0.2819076478481293, 0.22278587520122528, 0.14522913098335266, 0.11977407336235046, 0.13312861323356628, 0.2686598002910614, 0.09409169107675552, 0.07473581284284592, 0.15727317333221436, 0.15093742311000824, 0.09740811586380005, 0.09565288573503494, 0.2943037450313568, 0.30414944887161255, 0.20371854305267334, 0.4424874484539032, 0.33409419655799866, 0.279257595539093, 0.3502933979034424, 0.32301902770996094, 0.35895073413848877, 0.17485396564006805, 0.16767413914203644, 0.3395869731903076, 0.07606720924377441, 0.17228367924690247, 0.20352181792259216, 0.22361217439174652, 0.2727225124835968, 0.2188934087753296, 0.16070102155208588, 0.09300234168767929, 0.4413091838359833, 0.4082944393157959, 0.4692226052284241, 0.34147948026657104, 0.24073350429534912, 0.29067111015319824, 0.24569405615329742, 0.08643105626106262, 0.31907233595848083, 0.19178853929042816, 0.16458460688591003, 0.16095910966396332, 0.15457186102867126, 0.18083348870277405, 0.18966664373874664, 0.11025233566761017, 0.20649291574954987, 0.17214398086071014, 0.21092915534973145, 0.3280569612979889, 0.13131414353847504, 0.16196700930595398, 0.11763749271631241, 0.12848511338233948, 0.1294020414352417, 0.1472977101802826, 0.1272270381450653, 0.09193641692399979, 0.11519071459770203, 0.15095745027065277, 0.14176100492477417, 0.3094860315322876, 0.18773484230041504, 0.29841163754463196, 0.2644979655742645, 0.22565115988254547, 0.3445375859737396, 0.2593863010406494, 0.19214759767055511, 0.16431768238544464, 0.1636572927236557]</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.5830929279327393</v>
+        <v>0.4692226052284241</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -8423,10 +8423,10 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>0.8299684000085108</v>
+        <v>0.8368627000018023</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0056078945946521</v>
+        <v>0.00565447770271488</v>
       </c>
     </row>
     <row r="198">
@@ -8445,11 +8445,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>[0.1457521915435791, 0.16756410896778107, 0.17155204713344574, 0.23538732528686523, 0.23885218799114227, 0.2647634744644165, 0.39873045682907104, 0.3625113368034363, 0.36073943972587585, 0.13567695021629333, 0.28090909123420715, 0.2076805680990219, 0.3249202072620392, 0.19668450951576233, 0.2179999053478241, 0.28652554750442505, 0.3046078085899353, 0.1604597419500351, 0.21898895502090454, 0.2223728746175766, 0.2581087052822113, 0.7152085304260254, 0.9605925679206848, 0.9846363067626953, 0.9789775609970093, 0.9806962609291077, 0.9742333292961121, 0.977458655834198, 0.902887225151062, 0.9608664512634277, 0.7755292654037476, 0.29478365182876587, 0.22382083535194397, 0.22070512175559998, 0.2630017101764679, 0.30587080121040344, 0.3678808808326721, 0.3170018494129181, 0.28052324056625366, 0.18951377272605896, 0.3316199779510498, 0.31566712260246277, 0.2977231442928314, 0.2735946774482727, 0.30499324202537537, 0.21600835025310516, 0.45602330565452576, 0.31347495317459106, 0.2743140459060669, 0.24308393895626068, 0.25030872225761414, 0.25603386759757996, 0.21751004457473755, 0.3082917034626007, 0.24392536282539368, 0.2911744713783264, 0.20141759514808655, 0.37573251128196716, 0.28925514221191406, 0.8051900863647461, 0.9587990045547485, 0.8974370360374451, 0.6958309412002563, 0.9663151502609253, 0.931823194026947, 0.9561712741851807, 0.9730361700057983, 0.9488393664360046, 0.6259077191352844, 0.5724659562110901, 0.7936952710151672, 0.35752299427986145, 0.30098527669906616, 0.4583829343318939, 0.29868948459625244, 0.1852133572101593, 0.21827442944049835, 0.5191860198974609, 0.30560919642448425, 0.37875232100486755, 0.7266631126403809, 0.6791581511497498, 0.6550273895263672, 0.6057074069976807, 0.7098554372787476, 0.6255631446838379, 0.6183897852897644, 0.43157514929771423, 0.2703086733818054, 0.228267639875412, 0.2069355547428131, 0.1952333301305771, 0.20863878726959229, 0.28730759024620056, 0.343300461769104, 0.2705804705619812, 0.3127303123474121, 0.5099193453788757, 0.3437117040157318, 0.2513313889503479, 0.3921055793762207, 0.39390653371810913, 0.24706627428531647, 0.40077489614486694, 0.44276776909828186, 0.3570394814014435, 0.28433436155319214, 0.2884351313114166, 0.1393250674009323, 0.22023028135299683, 0.24563050270080566, 0.29510965943336487, 0.17525462806224823, 0.2929062247276306, 0.28575414419174194, 0.305501788854599, 0.21414801478385925, 0.38213691115379333, 0.3164534866809845, 0.29004207253456116, 0.3603259325027466, 0.3237408697605133, 0.33963683247566223, 0.40988585352897644, 0.4438682794570923, 0.47587648034095764, 0.44633951783180237, 0.2658424377441406, 0.34936806559562683, 0.275937020778656, 0.3641669750213623, 0.17322233319282532, 0.31584861874580383, 0.4073041081428528, 0.2363617718219757, 0.41672736406326294, 0.38334715366363525, 0.3217432200908661, 0.2998945415019989, 0.3982198238372803, 0.5407145023345947, 0.351287841796875, 0.47848668694496155, 0.48629385232925415, 0.6258530020713806, 0.5683106184005737, 0.3970397412776947, 0.40093106031417847]</t>
+          <t>[0.06413735449314117, 0.06666133552789688, 0.06086624041199684, 0.12326604872941971, 0.1417921632528305, 0.18939398229122162, 0.260439932346344, 0.2360408902168274, 0.22542108595371246, 0.07914569228887558, 0.19496385753154755, 0.13111308217048645, 0.2723594009876251, 0.1398800164461136, 0.14884242415428162, 0.20290134847164154, 0.21628035604953766, 0.0907774567604065, 0.11216152459383011, 0.12111057341098785, 0.1568918377161026, 0.7548022866249084, 0.9844532608985901, 0.9926953315734863, 0.9781604409217834, 0.9938207268714905, 0.9823389649391174, 0.9863319396972656, 0.9139963984489441, 0.9686785340309143, 0.7212278842926025, 0.1451379954814911, 0.08403965085744858, 0.08323559165000916, 0.11209119111299515, 0.20229856669902802, 0.16490264236927032, 0.18465107679367065, 0.1416076123714447, 0.09660153090953827, 0.18567511439323425, 0.17603133618831635, 0.16832534968852997, 0.14410914480686188, 0.14050832390785217, 0.10884526371955872, 0.28725144267082214, 0.21213150024414062, 0.1667831838130951, 0.1307874321937561, 0.153754323720932, 0.12896080315113068, 0.09751436859369278, 0.17197361588478088, 0.12807469069957733, 0.15229347348213196, 0.10365690290927887, 0.2531581521034241, 0.14695918560028076, 0.7969624996185303, 0.966819703578949, 0.8713164925575256, 0.5034680366516113, 0.9731251001358032, 0.9452275633811951, 0.975042462348938, 0.9846636652946472, 0.9756165742874146, 0.5461891889572144, 0.49706247448921204, 0.8107567429542542, 0.25482413172721863, 0.1773560345172882, 0.3809117376804352, 0.1928585320711136, 0.09906116873025894, 0.11636380106210709, 0.4007868766784668, 0.20770306885242462, 0.2097410261631012, 0.6487520933151245, 0.4914752244949341, 0.5831518173217773, 0.5468849539756775, 0.6374339461326599, 0.49802640080451965, 0.5063418745994568, 0.29762646555900574, 0.1296011209487915, 0.1388702392578125, 0.12718474864959717, 0.11924052983522415, 0.08520076423883438, 0.15772616863250732, 0.20624682307243347, 0.14188484847545624, 0.18859322369098663, 0.3339215815067291, 0.21073339879512787, 0.151722252368927, 0.27622824907302856, 0.257127970457077, 0.18611831963062286, 0.25972238183021545, 0.33396539092063904, 0.2383313924074173, 0.16989120841026306, 0.20144107937812805, 0.07334903627634048, 0.1284392774105072, 0.10847016423940659, 0.14717310667037964, 0.08067777007818222, 0.15821579098701477, 0.15098892152309418, 0.18506048619747162, 0.150973841547966, 0.27136698365211487, 0.1799786537885666, 0.14901548624038696, 0.1785985231399536, 0.19323085248470306, 0.20979368686676025, 0.3060580790042877, 0.28639310598373413, 0.3501587212085724, 0.3301887810230255, 0.18105724453926086, 0.2748994529247284, 0.17275254428386688, 0.24976937472820282, 0.09000026434659958, 0.16479845345020294, 0.25930914282798767, 0.11962556093931198, 0.3577246069908142, 0.22785113751888275, 0.17315024137496948, 0.17788873612880707, 0.27301669120788574, 0.4294416904449463, 0.1784311830997467, 0.33011284470558167, 0.3740954101085663, 0.5072829723358154, 0.47826480865478516, 0.25488200783729553, 0.25904712080955505]</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.9846363067626953</v>
+        <v>0.9938207268714905</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -8463,10 +8463,10 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>0.8399128000019118</v>
+        <v>0.8856814000027953</v>
       </c>
       <c r="J198" t="n">
-        <v>0.005675086486499404</v>
+        <v>0.005984333783802671</v>
       </c>
     </row>
     <row r="199">
@@ -8485,11 +8485,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[0.9040245413780212, 0.8873627185821533, 0.8460617065429688, 0.94284987449646, 0.8511403799057007, 0.8888676166534424, 0.955331027507782, 0.9650593996047974, 0.9449490904808044, 0.896609902381897, 0.9348152875900269, 0.9662550687789917, 0.9672229886054993, 0.9531800746917725, 0.9740735292434692, 0.9545585513114929, 0.9748236536979675, 0.9823881983757019, 0.9863522052764893, 0.982393741607666, 0.8884277939796448, 0.5720704197883606, 0.754580557346344, 0.7236822247505188, 0.667178750038147, 0.7850335836410522, 0.7201754450798035, 0.6372477412223816, 0.8288143873214722, 0.8020853400230408, 0.4844043254852295, 0.7006862759590149, 0.8176766037940979, 0.8467527031898499, 0.8441844582557678, 0.8903340101242065, 0.7750828266143799, 0.5991896390914917, 0.7471739053726196, 0.7871571779251099, 0.7198375463485718, 0.7006386518478394, 0.7876369953155518, 0.8976706862449646, 0.9535147547721863, 0.9429726004600525, 0.981894314289093, 0.9743168354034424, 0.9455812573432922, 0.9291748404502869, 0.9178285598754883, 0.9732115864753723, 0.9739454984664917, 0.9737754464149475, 0.9656841158866882, 0.8065357208251953, 0.8172483444213867, 0.8665566444396973, 0.9324324727058411, 0.7670742869377136, 0.7061475515365601, 0.8771830201148987, 0.8335661292076111, 0.6562793254852295, 0.7778339982032776, 0.7860057353973389, 0.8354052901268005, 0.9288290143013, 0.9245837926864624, 0.7830324172973633, 0.856437623500824, 0.8963881134986877, 0.9323453903198242, 0.7864562273025513, 0.7321535348892212, 0.9288400411605835, 0.9883841276168823, 0.9935751557350159, 0.9898825287818909, 0.986448347568512, 0.9900817275047302, 0.9906248450279236, 0.984247088432312, 0.978708803653717, 0.9795876741409302, 0.9797848463058472, 0.9661230444908142, 0.9643338322639465, 0.9832301735877991, 0.9790151119232178, 0.9664621353149414, 0.9665781259536743, 0.9817050695419312, 0.9882583022117615, 0.9827805757522583, 0.9794825911521912, 0.9678224921226501, 0.963110089302063, 0.9754776954650879, 0.8566961288452148, 0.8624271154403687, 0.9156277775764465, 0.9513183236122131, 0.9597097635269165, 0.9730687737464905, 0.954695999622345, 0.8681860566139221, 0.9015617370605469, 0.9677931070327759, 0.9925621151924133, 0.995470404624939, 0.9904511570930481, 0.9907591342926025, 0.9900396466255188, 0.9824252724647522, 0.9728223085403442, 0.9572566747665405, 0.9823206663131714, 0.977575421333313, 0.9760688543319702, 0.9801411032676697, 0.9846363067626953, 0.952497124671936, 0.9753075838088989, 0.9879730939865112, 0.9590749144554138, 0.9210988879203796, 0.9734030961990356, 0.972801685333252, 0.9824250340461731, 0.9775465130805969, 0.9782844185829163, 0.964965283870697, 0.9567089676856995, 0.9711220860481262, 0.9765273332595825, 0.9618138670921326, 0.9757576584815979, 0.9491438269615173, 0.965949535369873, 0.9820955991744995, 0.972545325756073, 0.9302423000335693, 0.9524713754653931, 0.9345406889915466, 0.8924378752708435, 0.9223531484603882, 0.8843979239463806, 0.8856936097145081]</t>
+          <t>[0.9340245723724365, 0.8804327845573425, 0.8376191854476929, 0.9567177891731262, 0.8678449392318726, 0.9140751957893372, 0.9742512106895447, 0.9716432094573975, 0.9470060467720032, 0.9238002896308899, 0.9463858604431152, 0.9730552434921265, 0.9729312062263489, 0.9589707255363464, 0.9866482615470886, 0.9681774377822876, 0.982147216796875, 0.9854522347450256, 0.9939796924591064, 0.9871665835380554, 0.8952942490577698, 0.562889814376831, 0.8354314565658569, 0.7859678864479065, 0.7306258678436279, 0.8020920157432556, 0.7520860433578491, 0.6907004714012146, 0.8790897130966187, 0.8312408924102783, 0.5331926941871643, 0.8271742463111877, 0.8946921825408936, 0.9017758965492249, 0.8718544840812683, 0.9362452626228333, 0.8698045015335083, 0.6825737953186035, 0.7929997444152832, 0.8129485249519348, 0.7452722787857056, 0.7259373664855957, 0.7924060821533203, 0.9315654635429382, 0.9662908911705017, 0.941490113735199, 0.9872400164604187, 0.9868134260177612, 0.9626063704490662, 0.9415290951728821, 0.9372022747993469, 0.9825243353843689, 0.982110321521759, 0.9795830845832825, 0.9794961810112, 0.7835948467254639, 0.908851146697998, 0.9468226432800293, 0.9459018111228943, 0.7853215932846069, 0.6575362682342529, 0.883217453956604, 0.8101505041122437, 0.5996257066726685, 0.773296058177948, 0.7829797863960266, 0.8814369440078735, 0.9310929179191589, 0.9546334743499756, 0.8161267638206482, 0.88111412525177, 0.9439103007316589, 0.9545100927352905, 0.8041241765022278, 0.7585216164588928, 0.9585294723510742, 0.993313729763031, 0.9966369867324829, 0.9929206967353821, 0.9895960688591003, 0.9927167296409607, 0.9926829934120178, 0.9883827567100525, 0.9791322946548462, 0.9870772361755371, 0.9877039194107056, 0.9784954190254211, 0.9692920446395874, 0.9872413873672485, 0.9850100874900818, 0.9773039221763611, 0.9727502465248108, 0.9832198023796082, 0.9916263818740845, 0.9892269372940063, 0.9865580201148987, 0.9759835600852966, 0.9737537503242493, 0.9834732413291931, 0.8642781972885132, 0.8779323697090149, 0.9404543042182922, 0.9592657089233398, 0.9733108282089233, 0.9780555963516235, 0.9613433480262756, 0.8818135857582092, 0.9192972183227539, 0.9705150723457336, 0.9966347813606262, 0.9978669285774231, 0.9949479103088379, 0.9952249526977539, 0.9922648668289185, 0.9846552610397339, 0.9762005805969238, 0.9683545827865601, 0.9875633716583252, 0.9818931818008423, 0.9785882234573364, 0.9857682585716248, 0.987725555896759, 0.9561090469360352, 0.9753565788269043, 0.991792619228363, 0.9647219181060791, 0.91974937915802, 0.9816867113113403, 0.9767052531242371, 0.9889811277389526, 0.9811076521873474, 0.9873626232147217, 0.9789354205131531, 0.9723479151725769, 0.98325115442276, 0.9833778142929077, 0.9663581252098083, 0.9830278158187866, 0.9709739685058594, 0.9791847467422485, 0.9865738749504089, 0.9866357445716858, 0.9485048055648804, 0.9539257287979126, 0.9418136477470398, 0.8969956040382385, 0.9671776294708252, 0.8854260444641113, 0.8879253268241882]</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.995470404624939</v>
+        <v>0.9978669285774231</v>
       </c>
       <c r="F199" t="n">
         <v>1</v>
@@ -8503,10 +8503,10 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>0.8524402999901213</v>
+        <v>0.8849776999995811</v>
       </c>
       <c r="J199" t="n">
-        <v>0.005721075838859875</v>
+        <v>0.0059394476510039</v>
       </c>
     </row>
     <row r="200">
@@ -8525,11 +8525,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>[0.9416458606719971, 0.9174118041992188, 0.9026466608047485, 0.9639307260513306, 0.8659554123878479, 0.9687777757644653, 0.9369694590568542, 0.5338360667228699, 0.3316366672515869, 0.8941194415092468, 0.7916785478591919, 0.8606233596801758, 0.8400371670722961, 0.9411082863807678, 0.7799515128135681, 0.6701366305351257, 0.6224254965782166, 0.5808168053627014, 0.9533336758613586, 0.808169960975647, 0.9475568532943726, 0.944094181060791, 0.4909346103668213, 0.8209994435310364, 0.8248443603515625, 0.8851698637008667, 0.9359897971153259, 0.944963812828064, 0.9171456098556519, 0.946896493434906, 0.7330186367034912, 0.9281206727027893, 0.7621863484382629, 0.29124557971954346, 0.33510348200798035, 0.3381977081298828, 0.2710031569004059, 0.16131629049777985, 0.2161005139350891, 0.3375895321369171, 0.6184259653091431, 0.8731772899627686, 0.6709727048873901, 0.8588964343070984, 0.7852404713630676, 0.9453334212303162, 0.7057487368583679, 0.7919237017631531, 0.9564530849456787, 0.9295663833618164, 0.9502387642860413, 0.9735553860664368, 0.8557636737823486, 0.7908498644828796, 0.6597871780395508, 0.8811476230621338, 0.5940167307853699, 0.6230065226554871, 0.5163845419883728, 0.6835001707077026, 0.8525205850601196, 0.920242965221405, 0.9415410161018372, 0.9094600677490234, 0.5524881482124329, 0.9349631071090698, 0.8696936368942261, 0.9798446893692017, 0.977185070514679, 0.9491369128227234, 0.7738300561904907, 0.5343627333641052, 0.8603404760360718, 0.9587867259979248, 0.6196741461753845, 0.23987682163715363, 0.21260230243206024, 0.3848501443862915, 0.6795136332511902, 0.609694242477417, 0.3579210042953491, 0.34667378664016724, 0.796286404132843, 0.8367135524749756, 0.637502133846283, 0.6780927181243896, 0.4932469427585602, 0.8900207281112671, 0.9191164970397949, 0.9339696168899536, 0.9697499871253967, 0.9640384912490845, 0.9786866307258606, 0.9439769983291626, 0.9285707473754883, 0.845992922782898, 0.9276478290557861, 0.9348510503768921, 0.9326097965240479, 0.8899921178817749, 0.7593965530395508, 0.9548158049583435, 0.9678001403808594, 0.9423675537109375, 0.8778797388076782, 0.7307177186012268, 0.44148609042167664, 0.43648761510849, 0.679479718208313, 0.9756390452384949, 0.9896203279495239, 0.9666026830673218, 0.9432758688926697, 0.9016236066818237, 0.8403674960136414, 0.9653260111808777, 0.9492665529251099, 0.9812739491462708, 0.9661415219306946, 0.9807315468788147, 0.9686403870582581, 0.9805041551589966, 0.968107283115387, 0.9794005751609802, 0.9713709354400635, 0.9362484216690063, 0.9460235834121704, 0.6900531649589539, 0.5892504453659058, 0.7012060880661011, 0.4641059637069702, 0.9046244621276855, 0.9253693222999573, 0.8398736119270325, 0.6153980493545532, 0.9634661674499512, 0.9294862747192383, 0.9257517457008362, 0.9078497290611267, 0.7580115795135498, 0.31668031215667725, 0.3515239357948303, 0.411834716796875, 0.8180035352706909, 0.8118311762809753, 0.5931703448295593, 0.43679627776145935, 0.44206759333610535]</t>
+          <t>[0.979949951171875, 0.9764266014099121, 0.9696783423423767, 0.9824879765510559, 0.9182539582252502, 0.9883139133453369, 0.9760949611663818, 0.72499680519104, 0.4705639183521271, 0.9688974022865295, 0.9146930575370789, 0.9452134966850281, 0.9314688444137573, 0.982288122177124, 0.9065679907798767, 0.7900002598762512, 0.8245250582695007, 0.7539616227149963, 0.9816395044326782, 0.9157741069793701, 0.9813843965530396, 0.9815956950187683, 0.7138248085975647, 0.8881404399871826, 0.9032095074653625, 0.9452227354049683, 0.9759475588798523, 0.9708220362663269, 0.9578409194946289, 0.9743768572807312, 0.8019365072250366, 0.9620270133018494, 0.7588150501251221, 0.2932741045951843, 0.2983079254627228, 0.2761497497558594, 0.24615944921970367, 0.1422414630651474, 0.24878177046775818, 0.3452758491039276, 0.7246596217155457, 0.9202390909194946, 0.7641538381576538, 0.9390742778778076, 0.8764870762825012, 0.9765483736991882, 0.8449822068214417, 0.840104341506958, 0.9837628602981567, 0.9679447412490845, 0.9828831553459167, 0.990746021270752, 0.9061076641082764, 0.8925639390945435, 0.7828397154808044, 0.9343945980072021, 0.7107622623443604, 0.7667872905731201, 0.5940961837768555, 0.8474022150039673, 0.9502978324890137, 0.9685055613517761, 0.980568528175354, 0.9755889177322388, 0.6698825359344482, 0.9655358195304871, 0.9331318736076355, 0.9882190227508545, 0.9872697591781616, 0.9736468195915222, 0.897607684135437, 0.666313886642456, 0.9430034756660461, 0.9824147820472717, 0.7121464610099792, 0.2372550517320633, 0.18539252877235413, 0.39445698261260986, 0.6449909806251526, 0.6891487240791321, 0.3828701376914978, 0.4343903362751007, 0.9072378873825073, 0.9212360978126526, 0.8070405721664429, 0.8241817951202393, 0.5373196601867676, 0.9558715224266052, 0.964954137802124, 0.9729622602462769, 0.9888821244239807, 0.98567134141922, 0.9900510907173157, 0.9744712114334106, 0.9817686080932617, 0.9099554419517517, 0.9746968746185303, 0.9707453846931458, 0.9700642228126526, 0.9477362632751465, 0.868506669998169, 0.9862228035926819, 0.9898890852928162, 0.9820391535758972, 0.957197368144989, 0.9112824201583862, 0.512132465839386, 0.46900954842567444, 0.7943826913833618, 0.9928594827651978, 0.9966195821762085, 0.9901736974716187, 0.9767756462097168, 0.9520682692527771, 0.8974791765213013, 0.9830756187438965, 0.9797002673149109, 0.9924706220626831, 0.9894412755966187, 0.9936955571174622, 0.98869788646698, 0.9923821091651917, 0.9892738461494446, 0.991759717464447, 0.9860725402832031, 0.9648953080177307, 0.976527988910675, 0.8261412978172302, 0.712062656879425, 0.8693138957023621, 0.5637755393981934, 0.9565100073814392, 0.9663597941398621, 0.9195281267166138, 0.7384397387504578, 0.9811745882034302, 0.9731305241584778, 0.9636982679367065, 0.9586684703826904, 0.8723458051681519, 0.25065574049949646, 0.3743136525154114, 0.3934844434261322, 0.9078139662742615, 0.8750550746917725, 0.759418785572052, 0.48601728677749634, 0.4949977993965149]</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.9896203279495239</v>
+        <v>0.9966195821762085</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -8543,10 +8543,10 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>0.8611995999817736</v>
+        <v>0.8479203000024427</v>
       </c>
       <c r="J200" t="n">
-        <v>0.005818916216093065</v>
+        <v>0.005729191216232721</v>
       </c>
     </row>
     <row r="201">
@@ -8565,11 +8565,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>[0.6682085990905762, 0.640846312046051, 0.6639375686645508, 0.8032940626144409, 0.4186606705188751, 0.5929401516914368, 0.5679075717926025, 0.8441184163093567, 0.9177871942520142, 0.5072022676467896, 0.590832531452179, 0.6126171350479126, 0.675548791885376, 0.6479969620704651, 0.6241936087608337, 0.5776591300964355, 0.44689834117889404, 0.5657476782798767, 0.710512638092041, 0.9054027199745178, 0.9520066976547241, 0.9698407053947449, 0.9791222214698792, 0.985600471496582, 0.9845536947250366, 0.9845046997070312, 0.9829440712928772, 0.9885993003845215, 0.9717544317245483, 0.955601692199707, 0.9623104333877563, 0.9754776358604431, 0.9631701111793518, 0.9818003177642822, 0.9759287238121033, 0.9845096468925476, 0.9915146827697754, 0.985889196395874, 0.9889167547225952, 0.9840764403343201, 0.9594532251358032, 0.8530531525611877, 0.5886632204055786, 0.48255211114883423, 0.35567325353622437, 0.48225146532058716, 0.5641596913337708, 0.6162257194519043, 0.30662626028060913, 0.4571460485458374, 0.3923710882663727, 0.4825632572174072, 0.6283094882965088, 0.7739545702934265, 0.7304960489273071, 0.8542868494987488, 0.9212737083435059, 0.9542562365531921, 0.9551687240600586, 0.9822887182235718, 0.9825780987739563, 0.9835131764411926, 0.980628490447998, 0.9861351251602173, 0.41244378685951233, 0.23983532190322876, 0.24710598587989807, 0.19259309768676758, 0.23220796883106232, 0.2815207540988922, 0.24789507687091827, 0.31567689776420593, 0.21514903008937836, 0.2970083951950073, 0.24057520925998688, 0.29633820056915283, 0.2908437252044678, 0.5316823124885559, 0.5462180972099304, 0.5240460634231567, 0.7311035394668579, 0.8593482375144958, 0.6364816427230835, 0.5713391900062561, 0.5709598064422607, 0.6654872894287109, 0.6330891847610474, 0.8906229138374329, 0.919013500213623, 0.9209095239639282, 0.8884690999984741, 0.9071747660636902, 0.806138277053833, 0.8723800182342529, 0.6544831991195679, 0.7995723485946655, 0.7752408385276794, 0.5598582625389099, 0.9362056851387024, 0.8821588158607483, 0.9269807934761047, 0.8990895748138428, 0.865725576877594, 0.8215161561965942, 0.6626392006874084, 0.6698484420776367, 0.7457667589187622, 0.7392883896827698, 0.8846887350082397, 0.8776084184646606, 0.7486230731010437, 0.7072295546531677, 0.9015086889266968, 0.9205518364906311, 0.9793182611465454, 0.9624865055084229, 0.5341134667396545, 0.45680034160614014, 0.7625479698181152, 0.39837485551834106, 0.8823922276496887, 0.9932971596717834, 0.9942787885665894, 0.992737352848053, 0.8670523762702942, 0.6681184768676758, 0.3047202527523041, 0.4808812737464905, 0.6540156006813049, 0.4591878652572632, 0.2751428782939911, 0.4682683050632477, 0.8832160234451294, 0.503821611404419, 0.947869598865509, 0.7581062316894531, 0.7676001191139221, 0.88831627368927, 0.3826695680618286, 0.23000110685825348, 0.40404805541038513, 0.2426033616065979, 0.23586122691631317, 0.2895312011241913, 0.17068231105804443, 0.7429788112640381, 0.18929040431976318, 0.18896861374378204]</t>
+          <t>[0.7902952432632446, 0.7426127791404724, 0.7934328317642212, 0.8860057592391968, 0.48999306559562683, 0.7284684777259827, 0.6202021241188049, 0.9397357702255249, 0.9640859365463257, 0.5199066400527954, 0.7374317646026611, 0.7562906742095947, 0.7692302465438843, 0.7278153300285339, 0.7551875114440918, 0.6998715996742249, 0.5618715882301331, 0.708901047706604, 0.7782332301139832, 0.9545015096664429, 0.9770984649658203, 0.9841042757034302, 0.9904363751411438, 0.9942208528518677, 0.993712842464447, 0.9942255616188049, 0.9929674863815308, 0.9963322281837463, 0.9918814301490784, 0.9845298528671265, 0.9830962419509888, 0.9896774291992188, 0.986628532409668, 0.9925927519798279, 0.9910160303115845, 0.9955275654792786, 0.9975152015686035, 0.9947782754898071, 0.9959698915481567, 0.9930009841918945, 0.9802058935165405, 0.8841279745101929, 0.6781987547874451, 0.4694030284881592, 0.32370468974113464, 0.5906214118003845, 0.6509659886360168, 0.744966447353363, 0.3325675129890442, 0.5225203633308411, 0.3978227972984314, 0.5704371333122253, 0.7715623378753662, 0.8800868988037109, 0.8186892867088318, 0.9276542067527771, 0.9595110416412354, 0.9818227291107178, 0.9797605872154236, 0.9920266270637512, 0.9924103021621704, 0.9940261840820312, 0.9942675232887268, 0.9951966404914856, 0.4541544020175934, 0.23673291504383087, 0.2941969633102417, 0.30902859568595886, 0.35073745250701904, 0.39825165271759033, 0.39562755823135376, 0.4685053527355194, 0.26734569668769836, 0.374956876039505, 0.28792479634284973, 0.3947764039039612, 0.4414125382900238, 0.7230408191680908, 0.7142762541770935, 0.6790252923965454, 0.8371187448501587, 0.9264290928840637, 0.8055378794670105, 0.673903226852417, 0.7250430583953857, 0.7856118679046631, 0.7932403087615967, 0.9474472403526306, 0.9392129778862, 0.9747307896614075, 0.9482728242874146, 0.9604119658470154, 0.8693031072616577, 0.9305843114852905, 0.7928094863891602, 0.9163781404495239, 0.9164758324623108, 0.7078053951263428, 0.9814549088478088, 0.9550213813781738, 0.9741454720497131, 0.9680929780006409, 0.9556930065155029, 0.9205618500709534, 0.8324017524719238, 0.8306787610054016, 0.8671240210533142, 0.859859049320221, 0.9310574531555176, 0.9380435943603516, 0.8394428491592407, 0.8570234179496765, 0.9315595626831055, 0.9533960819244385, 0.9892936944961548, 0.9844953417778015, 0.6959437131881714, 0.5889749526977539, 0.9287436604499817, 0.3731246888637543, 0.94290691614151, 0.996229350566864, 0.9970852732658386, 0.9954450130462646, 0.9515642523765564, 0.8854881525039673, 0.447214812040329, 0.678605318069458, 0.8062535524368286, 0.5875281095504761, 0.2672000527381897, 0.5710622072219849, 0.9458891749382019, 0.5467894077301025, 0.9851261377334595, 0.8961108326911926, 0.9307752251625061, 0.9592386484146118, 0.4354810416698456, 0.20213449001312256, 0.43298253417015076, 0.2243412286043167, 0.23127590119838715, 0.3590960204601288, 0.15482594072818756, 0.8186191916465759, 0.16634632647037506, 0.1652374118566513]</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.9942787885665894</v>
+        <v>0.9975152015686035</v>
       </c>
       <c r="F201" t="n">
         <v>1</v>
@@ -8583,10 +8583,10 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0.8604655000090133</v>
+        <v>0.8475403999909759</v>
       </c>
       <c r="J201" t="n">
-        <v>0.005813956081141982</v>
+        <v>0.00572662432426335</v>
       </c>
     </row>
     <row r="202">
@@ -8605,11 +8605,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[0.990231454372406, 0.9842128753662109, 0.9767962694168091, 0.9815930724143982, 0.989730715751648, 0.9784924387931824, 0.9842700958251953, 0.8729166984558105, 0.6587564945220947, 0.8164875507354736, 0.7735131978988647, 0.7981330156326294, 0.7370958924293518, 0.8160136938095093, 0.7828630805015564, 0.8787828683853149, 0.9506397843360901, 0.8075263500213623, 0.8555463552474976, 0.9560956358909607, 0.9405121803283691, 0.8647611737251282, 0.9267466068267822, 0.9922009110450745, 0.9936136603355408, 0.9910829067230225, 0.9596216082572937, 0.9923170804977417, 0.9879621863365173, 0.9881303310394287, 0.9936316609382629, 0.9894728064537048, 0.9843856692314148, 0.9569463729858398, 0.9404692053794861, 0.9310535192489624, 0.9920044541358948, 0.9538713693618774, 0.8739726543426514, 0.48260486125946045, 0.29051071405410767, 0.5800515413284302, 0.610166072845459, 0.8507121801376343, 0.4031035900115967, 0.21333017945289612, 0.22399361431598663, 0.30102044343948364, 0.44920313358306885, 0.5693628191947937, 0.9080070853233337, 0.9799984097480774, 0.988390326499939, 0.9896316528320312, 0.9876958131790161, 0.9534525275230408, 0.9275369644165039, 0.9845356345176697, 0.9820411205291748, 0.992435872554779, 0.9847698211669922, 0.9906360507011414, 0.9956074357032776, 0.993611752986908, 0.9885168075561523, 0.988272488117218, 0.9924421310424805, 0.9929777979850769, 0.8743004202842712, 0.9444026947021484, 0.8219102025032043, 0.9749046564102173, 0.9647349715232849, 0.9815868735313416, 0.9925365447998047, 0.9922041893005371, 0.9245908260345459, 0.4371075928211212, 0.21036000549793243, 0.3605159521102905, 0.275010883808136, 0.24989965558052063, 0.31473755836486816, 0.7565591931343079, 0.8560121059417725, 0.8127695918083191, 0.9913924932479858, 0.9914326667785645, 0.9940581321716309, 0.9934579730033875, 0.9929986000061035, 0.99471116065979, 0.9805254340171814, 0.9906993508338928, 0.9833163619041443, 0.5853604078292847, 0.9434224963188171, 0.9665477275848389, 0.9526013135910034, 0.7273311614990234, 0.29431265592575073, 0.23183517158031464, 0.23920652270317078, 0.6901529431343079, 0.2260228842496872, 0.1794569492340088, 0.2284691482782364, 0.4485512673854828, 0.9866147637367249, 0.989618718624115, 0.9869416356086731, 0.988673985004425, 0.9914137125015259, 0.9932193160057068, 0.9927589893341064, 0.9885210990905762, 0.9933924078941345, 0.9870951771736145, 0.9936549663543701, 0.9920561909675598, 0.9925083518028259, 0.9956474900245667, 0.9882808327674866, 0.9333845376968384, 0.8977704048156738, 0.9171084761619568, 0.931568443775177, 0.8445651531219482, 0.9712660312652588, 0.9897806644439697, 0.9632042050361633, 0.9633881449699402]</t>
+          <t>[0.9944106936454773, 0.9927599430084229, 0.986718475818634, 0.9874696731567383, 0.9951673746109009, 0.9899145364761353, 0.9918409585952759, 0.9170728921890259, 0.6746829152107239, 0.8159970641136169, 0.8251798152923584, 0.8370957970619202, 0.7838549613952637, 0.8817314505577087, 0.8431493043899536, 0.9122328758239746, 0.9652014374732971, 0.8359375, 0.8375234603881836, 0.9744938611984253, 0.954310417175293, 0.8906663060188293, 0.9703584313392639, 0.9974049925804138, 0.9978246688842773, 0.9962570667266846, 0.9843116402626038, 0.9971235394477844, 0.9946331977844238, 0.9937426447868347, 0.9974822402000427, 0.9941508173942566, 0.9930770397186279, 0.9749523401260376, 0.9619484543800354, 0.9259076714515686, 0.995206892490387, 0.9661869406700134, 0.9206961393356323, 0.5400049686431885, 0.3237406611442566, 0.6341657042503357, 0.5846340656280518, 0.8370498418807983, 0.2730046808719635, 0.15548670291900635, 0.1991853415966034, 0.26882898807525635, 0.47904491424560547, 0.6319822669029236, 0.953214704990387, 0.985517680644989, 0.9956016540527344, 0.9942434430122375, 0.9959641695022583, 0.9805217981338501, 0.958094596862793, 0.9937121868133545, 0.9919964671134949, 0.9973356127738953, 0.9931802749633789, 0.9935089945793152, 0.9981688261032104, 0.9968330264091492, 0.9936675429344177, 0.9932535290718079, 0.9966387748718262, 0.9966276288032532, 0.9326069355010986, 0.9733276963233948, 0.9030479788780212, 0.9889862537384033, 0.9864373803138733, 0.992713987827301, 0.9965565204620361, 0.9956647753715515, 0.957014799118042, 0.5362541675567627, 0.19018998742103577, 0.34994250535964966, 0.2760200798511505, 0.22202497720718384, 0.2546348571777344, 0.7907938361167908, 0.9170838594436646, 0.8737698197364807, 0.9953218102455139, 0.9956905245780945, 0.9974150657653809, 0.9971586465835571, 0.9973898530006409, 0.9977263808250427, 0.9867115020751953, 0.9945717453956604, 0.9938369393348694, 0.6941620707511902, 0.9698541760444641, 0.9796513915061951, 0.977999746799469, 0.800942599773407, 0.287288635969162, 0.20635981857776642, 0.2224508672952652, 0.8022217154502869, 0.2746860086917877, 0.2108048051595688, 0.20231857895851135, 0.45130786299705505, 0.9956616759300232, 0.995965838432312, 0.9948095083236694, 0.9961026906967163, 0.9964984655380249, 0.9971470236778259, 0.997368335723877, 0.9946489930152893, 0.9971895813941956, 0.9937918782234192, 0.9971967935562134, 0.9959403276443481, 0.9972102046012878, 0.9983165264129639, 0.9955782294273376, 0.961462676525116, 0.9566035866737366, 0.9452713131904602, 0.968110978603363, 0.893490195274353, 0.991134524345398, 0.995387613773346, 0.984474778175354, 0.9845571517944336]</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.9956474900245667</v>
+        <v>0.9983165264129639</v>
       </c>
       <c r="F202" t="n">
         <v>1</v>
@@ -8623,10 +8623,10 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>0.8216706000093836</v>
+        <v>0.7366385999921476</v>
       </c>
       <c r="J202" t="n">
-        <v>0.006224777272798361</v>
+        <v>0.005580595454485967</v>
       </c>
     </row>
     <row r="203">
@@ -8645,11 +8645,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>[0.7038679122924805, 0.743465006351471, 0.835896372795105, 0.8718513250350952, 0.8213250041007996, 0.8902541995048523, 0.8749312162399292, 0.9270691871643066, 0.8695123195648193, 0.8179774880409241, 0.7311487197875977, 0.7152353525161743, 0.7376858592033386, 0.9707719087600708, 0.602790355682373, 0.8302119970321655, 0.7440780997276306, 0.8228408098220825, 0.7262693047523499, 0.8918848037719727, 0.8123668432235718, 0.8735669255256653, 0.8417271971702576, 0.933338463306427, 0.8532964587211609, 0.7482612133026123, 0.8099451065063477, 0.8186261653900146, 0.629074215888977, 0.7370558977127075, 0.7763475775718689, 0.7862428426742554, 0.8303657174110413, 0.8856856822967529, 0.7345722317695618, 0.7303597331047058, 0.8204991817474365, 0.8977653384208679, 0.7667359709739685, 0.8880085349082947, 0.9389848709106445, 0.9118390083312988, 0.8715046644210815, 0.9249420166015625, 0.9263992309570312, 0.9146665334701538, 0.8771243691444397, 0.8475666642189026, 0.8884454965591431, 0.9231563210487366, 0.877069354057312, 0.94792240858078, 0.9045408964157104, 0.9427107572555542, 0.9424663186073303, 0.9163461327552795, 0.8758155107498169, 0.9423304796218872, 0.9479601979255676, 0.9301568865776062, 0.9169609546661377, 0.9090771675109863, 0.8916923999786377, 0.945146918296814, 0.9002837538719177, 0.9354619383811951, 0.9554268717765808, 0.8943844437599182, 0.7893356680870056, 0.6012007594108582, 0.8207045197486877, 0.9173792004585266, 0.9406471848487854, 0.9010536074638367, 0.9036046862602234, 0.9546947479248047, 0.9458332061767578, 0.95572829246521, 0.9451526403427124, 0.9566265940666199, 0.9413211345672607, 0.9473977088928223, 0.9012436270713806, 0.9192073345184326, 0.9639227390289307, 0.9613645076751709, 0.9526277780532837, 0.9264962077140808, 0.881206750869751, 0.9457557797431946, 0.8858872652053833, 0.9631483554840088, 0.9471269845962524, 0.9631788730621338, 0.9448524713516235, 0.9266752600669861, 0.9592627882957458, 0.9518435597419739, 0.964181661605835, 0.9355534315109253, 0.9582955837249756, 0.905951201915741, 0.8007330298423767, 0.77671879529953, 0.8456419110298157, 0.876137375831604, 0.8692687749862671, 0.8055508732795715, 0.9076630473136902, 0.9079146981239319, 0.9014915823936462, 0.9304291605949402, 0.9225850105285645, 0.9265068769454956, 0.8321688175201416, 0.8492969870567322, 0.942497730255127, 0.9224046468734741, 0.9065189361572266, 0.8417147994041443, 0.8727054595947266, 0.8959457278251648, 0.7706210017204285, 0.821999192237854, 0.8109013438224792, 0.8967991471290588, 0.8578877449035645, 0.8039076328277588, 0.9224116206169128, 0.9150644540786743, 0.8763931393623352, 0.8759822249412537]</t>
+          <t>[0.8734670281410217, 0.8576264381408691, 0.9270898103713989, 0.8971623778343201, 0.8940196633338928, 0.9517745971679688, 0.9484214782714844, 0.9661679267883301, 0.9438610076904297, 0.9039144515991211, 0.8670117259025574, 0.8024590015411377, 0.763464629650116, 0.9900334477424622, 0.6671186089515686, 0.8973865509033203, 0.8526768088340759, 0.8494514226913452, 0.7626656889915466, 0.9380967020988464, 0.8303330540657043, 0.9181848764419556, 0.8933939337730408, 0.9596860408782959, 0.9125751256942749, 0.8610060214996338, 0.9162346124649048, 0.8901623487472534, 0.7655718326568604, 0.8098843693733215, 0.8990041017532349, 0.8683740496635437, 0.9084237217903137, 0.9512545466423035, 0.8496484756469727, 0.8255935907363892, 0.8627638220787048, 0.9226043224334717, 0.8210946321487427, 0.9197364449501038, 0.9628223776817322, 0.9459234476089478, 0.9204149842262268, 0.9647061228752136, 0.9616188406944275, 0.9547340273857117, 0.9112259745597839, 0.9095856547355652, 0.9231019616127014, 0.9481646418571472, 0.933850884437561, 0.9701930284500122, 0.9366832971572876, 0.9720487594604492, 0.9654259085655212, 0.9480101466178894, 0.93047034740448, 0.9711691737174988, 0.9803669452667236, 0.9628507494926453, 0.9500784873962402, 0.9436116218566895, 0.9289625287055969, 0.9752781391143799, 0.9345053434371948, 0.9634064435958862, 0.9751232266426086, 0.9491739869117737, 0.925014853477478, 0.7444886565208435, 0.8645310401916504, 0.9335460066795349, 0.9600951075553894, 0.9460639357566833, 0.9576695561408997, 0.9810953736305237, 0.9741398096084595, 0.9735497236251831, 0.9748610258102417, 0.9729287028312683, 0.9615936279296875, 0.9691952466964722, 0.9587233662605286, 0.9691197872161865, 0.9852419495582581, 0.9831122756004333, 0.9798178672790527, 0.9604944586753845, 0.9027748107910156, 0.967642605304718, 0.9259711503982544, 0.9799165725708008, 0.9649595022201538, 0.9809771180152893, 0.9620484113693237, 0.9693246483802795, 0.9870949387550354, 0.9839032888412476, 0.9850224852561951, 0.9736460447311401, 0.9816036224365234, 0.9436039328575134, 0.8758910894393921, 0.8243653774261475, 0.9089717864990234, 0.930459201335907, 0.9445810317993164, 0.908565878868103, 0.9548637866973877, 0.9679267406463623, 0.9522204399108887, 0.9661294221878052, 0.9452019929885864, 0.9672954678535461, 0.9042405486106873, 0.9019989967346191, 0.9633271098136902, 0.9504697918891907, 0.9203109741210938, 0.8546896576881409, 0.9199937582015991, 0.9430580735206604, 0.8760583400726318, 0.8686637878417969, 0.8935902714729309, 0.9490336179733276, 0.9141243100166321, 0.8536971211433411, 0.9608151316642761, 0.9465637803077698, 0.9191402792930603, 0.9189546704292297]</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.9707719087600708</v>
+        <v>0.9900334477424622</v>
       </c>
       <c r="F203" t="n">
         <v>1</v>
@@ -8663,10 +8663,10 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>0.7406123999971896</v>
+        <v>0.7395792000024812</v>
       </c>
       <c r="J203" t="n">
-        <v>0.005610699999978709</v>
+        <v>0.005602872727291525</v>
       </c>
     </row>
     <row r="204">
@@ -8685,11 +8685,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[0.94808030128479, 0.8415405750274658, 0.5738882422447205, 0.3419264256954193, 0.3971436023712158, 0.5256309509277344, 0.6337292194366455, 0.45340728759765625, 0.4563366174697876, 0.8047764301300049, 0.9251225590705872, 0.9337239861488342, 0.8822069764137268, 0.9621705412864685, 0.9363736510276794, 0.8934406638145447, 0.9279152154922485, 0.9396345615386963, 0.8980385065078735, 0.9393267631530762, 0.8967970013618469, 0.8695048689842224, 0.9124826192855835, 0.9447673559188843, 0.8996438980102539, 0.5977408289909363, 0.817625105381012, 0.831694483757019, 0.7988607287406921, 0.7170625329017639, 0.479588121175766, 0.9625815153121948, 0.8180649876594543, 0.9359927773475647, 0.8033194541931152, 0.8052844405174255, 0.6592600345611572, 0.8521592617034912, 0.8370674848556519, 0.8016433715820312, 0.8582105040550232, 0.7524235844612122, 0.5965011715888977, 0.5761454105377197, 0.6561679840087891, 0.7629983425140381, 0.6948450803756714, 0.7836140990257263, 0.8739878535270691, 0.9130356311798096, 0.9486440420150757, 0.9432426691055298, 0.9365357756614685, 0.9452592730522156, 0.946438729763031, 0.9383642077445984, 0.9067602753639221, 0.8953299522399902, 0.7298786640167236, 0.8168104290962219, 0.830876350402832, 0.927012026309967, 0.9118927121162415, 0.959276556968689, 0.9545558094978333, 0.9594957232475281, 0.9402995705604553, 0.9551200270652771, 0.9227964282035828, 0.871968686580658, 0.4301498830318451, 0.4117834270000458, 0.3294946849346161, 0.3622052073478699, 0.4364317059516907, 0.25217199325561523, 0.330962210893631, 0.9734598398208618, 0.9359415173530579, 0.9532971382141113, 0.9506621956825256, 0.962743878364563, 0.9155803918838501, 0.9444902539253235, 0.921983003616333, 0.8627821207046509, 0.8766388297080994, 0.9110033512115479, 0.8899252414703369, 0.9175159335136414, 0.8976667523384094, 0.7135345935821533, 0.6230548620223999, 0.8163247108459473, 0.699962854385376, 0.8024893999099731, 0.7551636099815369, 0.8022347688674927, 0.6560362577438354, 0.6388596296310425, 0.7020255327224731, 0.7539768815040588, 0.7517006397247314, 0.9413624405860901, 0.7915507555007935, 0.8840202689170837, 0.8819599151611328, 0.8713743686676025, 0.716485857963562, 0.7686688303947449, 0.42875298857688904, 0.8501123785972595, 0.8166546821594238, 0.8671937584877014, 0.8912683725357056, 0.9272716045379639, 0.9158067107200623, 0.9321305155754089, 0.9277080297470093, 0.6706449389457703, 0.7934689521789551, 0.7930553555488586, 0.7694752812385559, 0.8902323842048645, 0.7657240033149719, 0.6646103262901306, 0.7258882522583008, 0.7686014771461487, 0.6683100461959839, 0.8686777949333191, 0.7342982292175293, 0.733983039855957]</t>
+          <t>[0.9824166297912598, 0.9556829333305359, 0.7475935816764832, 0.5074577927589417, 0.5564978122711182, 0.6858975887298584, 0.7856870889663696, 0.6433292627334595, 0.6520912647247314, 0.9451601505279541, 0.9773016571998596, 0.9823908805847168, 0.9677563905715942, 0.9864383935928345, 0.9760910868644714, 0.9592182040214539, 0.9779620170593262, 0.9840098023414612, 0.9756494760513306, 0.9835530519485474, 0.9649102091789246, 0.9271800518035889, 0.9710779190063477, 0.9852913618087769, 0.9671084880828857, 0.684264600276947, 0.9111705422401428, 0.939694344997406, 0.9324379563331604, 0.8668660521507263, 0.6311585903167725, 0.988135576248169, 0.922966480255127, 0.9832822680473328, 0.9066864848136902, 0.9333352446556091, 0.8527650237083435, 0.9495607614517212, 0.9411685466766357, 0.9074221849441528, 0.9512567520141602, 0.900178849697113, 0.7281214594841003, 0.8039333820343018, 0.8799604773521423, 0.9142266511917114, 0.8590065836906433, 0.9152490496635437, 0.9629477858543396, 0.9796639680862427, 0.9845104813575745, 0.9834453463554382, 0.9836627244949341, 0.9859617352485657, 0.9863640666007996, 0.9807813167572021, 0.9725766777992249, 0.9599902629852295, 0.8647664189338684, 0.9191842675209045, 0.9417919516563416, 0.9710140824317932, 0.9672311544418335, 0.9884926676750183, 0.9887781739234924, 0.9867101311683655, 0.9746792316436768, 0.9805226922035217, 0.9679166078567505, 0.9392366409301758, 0.6526473164558411, 0.7524765729904175, 0.561284065246582, 0.6303560137748718, 0.7889979481697083, 0.4615408778190613, 0.535451352596283, 0.9932639598846436, 0.9872933626174927, 0.9900681972503662, 0.9899564981460571, 0.9896883964538574, 0.9834260940551758, 0.9875168204307556, 0.981468141078949, 0.9574824571609497, 0.9659062623977661, 0.9794635772705078, 0.9727062582969666, 0.9818036556243896, 0.9677931070327759, 0.9172733426094055, 0.8106421232223511, 0.9500864744186401, 0.9085472822189331, 0.9414074420928955, 0.8776631951332092, 0.9278689622879028, 0.8964851498603821, 0.8589853644371033, 0.8918277621269226, 0.9162648320198059, 0.909369707107544, 0.9837707281112671, 0.9227508306503296, 0.9535412192344666, 0.9641531705856323, 0.9641512036323547, 0.9264600276947021, 0.9578047394752502, 0.6779133677482605, 0.9610856175422668, 0.9425711631774902, 0.947624683380127, 0.970431387424469, 0.9834396243095398, 0.9825566411018372, 0.9861627221107483, 0.9820935726165771, 0.8879927396774292, 0.9328152537345886, 0.9310300946235657, 0.9189355373382568, 0.9681215882301331, 0.9073777794837952, 0.8466894626617432, 0.8839918375015259, 0.9175708293914795, 0.8188673853874207, 0.9539040327072144, 0.9201783537864685, 0.9198923707008362]</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.9734598398208618</v>
+        <v>0.9932639598846436</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
@@ -8703,10 +8703,10 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>0.7825185999972746</v>
+        <v>0.7508769999985816</v>
       </c>
       <c r="J204" t="n">
-        <v>0.005928171212100565</v>
+        <v>0.005688462121201375</v>
       </c>
     </row>
     <row r="205">
@@ -8725,11 +8725,11 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[0.9659536480903625, 0.9518682360649109, 0.8568020462989807, 0.7434371113777161, 0.7551423907279968, 0.8542123436927795, 0.5907872319221497, 0.6892023682594299, 0.878801703453064, 0.9465699791908264, 0.9614663124084473, 0.9709879755973816, 0.941460907459259, 0.9522327780723572, 0.786737322807312, 0.7863730788230896, 0.6055734157562256, 0.7175196409225464, 0.6281349658966064, 0.6491754055023193, 0.8542553186416626, 0.6558056473731995, 0.4229431450366974, 0.9070550799369812, 0.8599827289581299, 0.9201954007148743, 0.9665552973747253, 0.9226544499397278, 0.9391851425170898, 0.9532316327095032, 0.9658674597740173, 0.98476243019104, 0.9734954237937927, 0.9813830256462097, 0.8775234222412109, 0.7481043934822083, 0.6258748769760132, 0.573775589466095, 0.5828057527542114, 0.7746216058731079, 0.9430736303329468, 0.9778253436088562, 0.9523765444755554, 0.9630352258682251, 0.969620406627655, 0.973530650138855, 0.9529428482055664, 0.9300875067710876, 0.892619252204895, 0.9271238446235657, 0.796790361404419, 0.9503472447395325, 0.9491568207740784, 0.847581148147583, 0.6581550240516663, 0.7588021159172058, 0.6818427443504333, 0.4580228626728058, 0.7579516172409058, 0.8644148707389832, 0.9228484034538269, 0.986950695514679, 0.9719946384429932, 0.9754276871681213, 0.9586973786354065, 0.9861627221107483, 0.9759545922279358, 0.9480101466178894, 0.8327744007110596, 0.9634283185005188, 0.935275673866272, 0.9087051749229431, 0.7618231773376465, 0.510552704334259, 0.8052533268928528, 0.8878709077835083, 0.9024149775505066, 0.9468148350715637, 0.953484296798706, 0.9731228351593018, 0.9770470857620239, 0.9732944965362549, 0.9630133509635925, 0.9439710378646851, 0.78380286693573, 0.9125734567642212, 0.8274913430213928, 0.8589282035827637, 0.866972029209137, 0.9229512810707092, 0.8879914879798889, 0.8695465922355652, 0.7883241772651672, 0.8094637989997864, 0.7272191643714905, 0.7274592518806458, 0.6957672238349915, 0.7966163754463196, 0.903421938419342, 0.858801543712616, 0.9180642366409302, 0.9515381455421448, 0.9587625861167908, 0.980631947517395, 0.9806926846504211, 0.9804840683937073, 0.9586289525032043, 0.9084175229072571, 0.5831248760223389, 0.7875671982765198, 0.5716658234596252, 0.6448299288749695, 0.8825699687004089, 0.9484066963195801, 0.9575476050376892, 0.9483621120452881, 0.9618016481399536, 0.6279873847961426, 0.7992863655090332, 0.9333891272544861, 0.9342368245124817, 0.976455807685852, 0.9708870649337769, 0.9700456857681274, 0.9799010753631592, 0.9875253438949585, 0.94439697265625, 0.7817463874816895, 0.8400054574012756, 0.9453880786895752, 0.9070811867713928, 0.9069148898124695]</t>
+          <t>[0.9923877716064453, 0.9869961738586426, 0.9624840021133423, 0.8806396722793579, 0.906952440738678, 0.951038122177124, 0.685806930065155, 0.8356127142906189, 0.9563586115837097, 0.9857880473136902, 0.9904041290283203, 0.9920490384101868, 0.9841909408569336, 0.9859262108802795, 0.9481925368309021, 0.9226283431053162, 0.8127566576004028, 0.8756363987922668, 0.884371817111969, 0.8825090527534485, 0.959694504737854, 0.8241541981697083, 0.6225612163543701, 0.969506561756134, 0.94899582862854, 0.9748069047927856, 0.9917502999305725, 0.9732971787452698, 0.9813885688781738, 0.9849807024002075, 0.9873926043510437, 0.9950862526893616, 0.9922710657119751, 0.9944608211517334, 0.9665459394454956, 0.9132577776908875, 0.7900674939155579, 0.7178017497062683, 0.7944917678833008, 0.9219884872436523, 0.9850349426269531, 0.993319034576416, 0.9851239323616028, 0.9892452955245972, 0.9904436469078064, 0.9909533262252808, 0.9865875840187073, 0.9788835048675537, 0.9653763771057129, 0.981765627861023, 0.9358416795730591, 0.9830517768859863, 0.9850248098373413, 0.9445040225982666, 0.8534946441650391, 0.8768004775047302, 0.8424469232559204, 0.6281419992446899, 0.8983617424964905, 0.9555143713951111, 0.972255289554596, 0.9960616230964661, 0.9917293190956116, 0.9931527376174927, 0.9901189804077148, 0.9962020516395569, 0.9938522577285767, 0.9858571290969849, 0.928197979927063, 0.9864417314529419, 0.9784895777702332, 0.9658287167549133, 0.9067211747169495, 0.7359943985939026, 0.9216734170913696, 0.9563441276550293, 0.9688220620155334, 0.9867353439331055, 0.9881513118743896, 0.9924913048744202, 0.9926468133926392, 0.9915574789047241, 0.9902634620666504, 0.9807714819908142, 0.9174373745918274, 0.9690797328948975, 0.9202083349227905, 0.9413917064666748, 0.9503782987594604, 0.9765796065330505, 0.9606242179870605, 0.9666747450828552, 0.9269075393676758, 0.9471908211708069, 0.8780423998832703, 0.8507607579231262, 0.8768470287322998, 0.9264861941337585, 0.9686809182167053, 0.9390955567359924, 0.9709308743476868, 0.9864928126335144, 0.9881601333618164, 0.9951068162918091, 0.9951500296592712, 0.9952099919319153, 0.9909805655479431, 0.9746803641319275, 0.7444232702255249, 0.9144473671913147, 0.7475385069847107, 0.8327792882919312, 0.9555612802505493, 0.9823019504547119, 0.9850257039070129, 0.9772329926490784, 0.984102189540863, 0.7299283146858215, 0.8671772480010986, 0.9783468246459961, 0.977780282497406, 0.9920435547828674, 0.9889569878578186, 0.9900715351104736, 0.991004467010498, 0.9952287673950195, 0.9839135408401489, 0.9235053062438965, 0.9435263872146606, 0.9873688817024231, 0.9655742645263672, 0.9655627012252808]</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.9875253438949585</v>
+        <v>0.9962020516395569</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
@@ -8743,10 +8743,10 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0.7636425999808125</v>
+        <v>0.7491245999990497</v>
       </c>
       <c r="J205" t="n">
-        <v>0.005785171211975852</v>
+        <v>0.005675186363629165</v>
       </c>
     </row>
     <row r="206">
@@ -8765,11 +8765,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>[0.9655112624168396, 0.9900615215301514, 0.9907782077789307, 0.9906952381134033, 0.9843164682388306, 0.9866518974304199, 0.9690366387367249, 0.9709354043006897, 0.9572822451591492, 0.9769445657730103, 0.9669350385665894, 0.952192485332489, 0.9458138942718506, 0.9669873118400574, 0.9286326169967651, 0.9715738892555237, 0.9825810790061951, 0.9774123430252075, 0.9767988920211792, 0.9734765291213989, 0.2463548630475998, 0.2615119516849518, 0.2956373691558838, 0.8487692475318909, 0.9801425933837891, 0.9864134788513184, 0.9852560758590698, 0.9883081316947937, 0.9919252991676331, 0.9926304817199707, 0.9936611652374268, 0.9954032897949219, 0.9930504560470581, 0.9909255504608154, 0.9952387809753418, 0.9949139356613159, 0.9923607707023621, 0.9813169240951538, 0.965901792049408, 0.9650633931159973, 0.9198763370513916, 0.4978346824645996, 0.5870973467826843, 0.9791197180747986, 0.9499667286872864, 0.9868115782737732, 0.9802781939506531, 0.9309886693954468, 0.9747048020362854, 0.9784650802612305, 0.9815160036087036, 0.9905248284339905, 0.9854186773300171, 0.9817642569541931, 0.978410542011261, 0.9832181930541992, 0.991375744342804, 0.9592157006263733, 0.9749192595481873, 0.989066481590271, 0.9867686629295349, 0.9706500172615051, 0.8177444934844971, 0.9074167609214783, 0.49523451924324036, 0.7742051482200623, 0.8313674330711365, 0.7250470519065857, 0.9542708992958069, 0.9325163960456848, 0.7937431931495667, 0.2762196362018585, 0.7263314127922058, 0.9591535329818726, 0.9724404811859131, 0.9857681393623352, 0.9641954898834229, 0.9674836993217468, 0.9479992985725403, 0.985069990158081, 0.9680278301239014, 0.9140959978103638, 0.9777506589889526, 0.7791267037391663, 0.7051089406013489, 0.7984473705291748, 0.7477725148200989, 0.9828318953514099, 0.9830689430236816, 0.9765111804008484, 0.9806458353996277, 0.988874077796936, 0.9835196137428284, 0.9831005334854126, 0.9887479543685913, 0.9859452843666077, 0.9786392450332642, 0.9847314357757568, 0.918335497379303, 0.9864439368247986, 0.9746609926223755, 0.9873766899108887, 0.9857922196388245, 0.978959858417511, 0.4568213224411011, 0.8840979933738708, 0.7337131500244141, 0.3248184621334076, 0.6995021104812622, 0.3175896108150482, 0.9378775954246521, 0.7995576858520508, 0.2161678522825241, 0.22662022709846497, 0.7941970825195312, 0.9033814072608948, 0.935732901096344, 0.9754481315612793, 0.9455382227897644, 0.8873106241226196, 0.9235913753509521, 0.812343180179596, 0.8980178236961365, 0.9524229764938354, 0.9755993485450745, 0.9795412421226501, 0.9833716750144958, 0.9906595945358276, 0.9831722974777222, 0.9854674339294434, 0.9856420159339905]</t>
+          <t>[0.9911312460899353, 0.9964359998703003, 0.9971091151237488, 0.9968348145484924, 0.9944809675216675, 0.9958956241607666, 0.9913627505302429, 0.9918421506881714, 0.9900730848312378, 0.9952034950256348, 0.9913429021835327, 0.9841924905776978, 0.9835764765739441, 0.9911755323410034, 0.9848973155021667, 0.9903916120529175, 0.9939165711402893, 0.9908740520477295, 0.9951797723770142, 0.9928556680679321, 0.2581574022769928, 0.31329166889190674, 0.3674185276031494, 0.9603304266929626, 0.991999089717865, 0.9958218336105347, 0.9956753849983215, 0.9945650100708008, 0.997208297252655, 0.9976569414138794, 0.9981661438941956, 0.9982934594154358, 0.9979362487792969, 0.9972798824310303, 0.998365581035614, 0.998394787311554, 0.9973552227020264, 0.9922361969947815, 0.9912163019180298, 0.9921214580535889, 0.9838795065879822, 0.6842090487480164, 0.8996830582618713, 0.9940699338912964, 0.9817811250686646, 0.9968308806419373, 0.9950660467147827, 0.9859976768493652, 0.9953771829605103, 0.995853066444397, 0.9955892562866211, 0.9976608753204346, 0.996459424495697, 0.9952486157417297, 0.9945936799049377, 0.995337724685669, 0.9976211190223694, 0.9918688535690308, 0.9931907057762146, 0.9964715242385864, 0.9964231848716736, 0.9912393689155579, 0.8728122115135193, 0.975114643573761, 0.7038148045539856, 0.9408491253852844, 0.9565845131874084, 0.8601256608963013, 0.9888062477111816, 0.9878344535827637, 0.9540773630142212, 0.4084530472755432, 0.9060443639755249, 0.9914947748184204, 0.9932942390441895, 0.9959356784820557, 0.9926583170890808, 0.9926000833511353, 0.9879282116889954, 0.9956658482551575, 0.9922343492507935, 0.9805623292922974, 0.9947978258132935, 0.9332683682441711, 0.8511456251144409, 0.9068539142608643, 0.9005801677703857, 0.9934788942337036, 0.9950798749923706, 0.9944924116134644, 0.9947059750556946, 0.9970013499259949, 0.9954713582992554, 0.9945124387741089, 0.9969112277030945, 0.9960564374923706, 0.9951788187026978, 0.9962244033813477, 0.9797096252441406, 0.9964022636413574, 0.993510901927948, 0.9948797225952148, 0.9962946772575378, 0.9950811862945557, 0.5451401472091675, 0.9643819332122803, 0.9203478693962097, 0.47756868600845337, 0.8905576467514038, 0.4809955656528473, 0.9850738048553467, 0.9420765042304993, 0.3306673765182495, 0.2941107749938965, 0.9521869421005249, 0.9714879393577576, 0.9798491597175598, 0.9893782734870911, 0.9837160110473633, 0.974269449710846, 0.9797574877738953, 0.9076738953590393, 0.949252724647522, 0.9840510487556458, 0.9944798946380615, 0.9907076358795166, 0.9955217838287354, 0.9972846508026123, 0.9954214692115784, 0.9957044720649719, 0.9957346320152283]</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.9954032897949219</v>
+        <v>0.998394787311554</v>
       </c>
       <c r="F206" t="n">
         <v>1</v>
@@ -8783,10 +8783,10 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0.7532396999886259</v>
+        <v>0.7414269000000786</v>
       </c>
       <c r="J206" t="n">
-        <v>0.005749921373958976</v>
+        <v>0.005659747328244875</v>
       </c>
     </row>
     <row r="207">
@@ -8805,11 +8805,11 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>[0.9863545298576355, 0.9901753067970276, 0.9917530417442322, 0.9947505593299866, 0.9866361021995544, 0.9921677708625793, 0.9927380681037903, 0.9602437615394592, 0.9709150791168213, 0.6140620708465576, 0.7612804174423218, 0.7331968545913696, 0.8077887892723083, 0.7400698661804199, 0.7142893075942993, 0.9814576506614685, 0.9493041634559631, 0.7189856171607971, 0.8944188952445984, 0.9724600911140442, 0.9798058867454529, 0.9771851897239685, 0.9304367899894714, 0.9266397356987, 0.36694490909576416, 0.3833709955215454, 0.8850417733192444, 0.27448976039886475, 0.939844012260437, 0.9762235283851624, 0.9757247567176819, 0.9859906435012817, 0.9903042912483215, 0.9890124797821045, 0.9847434759140015, 0.9844212532043457, 0.9680725336074829, 0.9778599739074707, 0.9832106828689575, 0.9918079972267151, 0.9746734499931335, 0.987282395362854, 0.9481607675552368, 0.9854395985603333, 0.9928950667381287, 0.992424488067627, 0.990978479385376, 0.9789701104164124, 0.9085904955863953, 0.31543391942977905, 0.38172754645347595, 0.38748249411582947, 0.48704099655151367, 0.7522875070571899, 0.8829095363616943, 0.9246070981025696, 0.9441547393798828, 0.8047459125518799, 0.9604743123054504, 0.9802467823028564, 0.9617961645126343, 0.7773692011833191, 0.5526068806648254, 0.6398125290870667, 0.7685971856117249, 0.20966409146785736, 0.5973708033561707, 0.9801151752471924, 0.9803051948547363, 0.9881953001022339, 0.9915927648544312, 0.992124617099762, 0.9916219711303711, 0.9871771335601807, 0.9680851697921753, 0.9917513728141785, 0.985615611076355, 0.9864742159843445, 0.9650510549545288, 0.30826643109321594, 0.3215741813182831, 0.3484368324279785, 0.7103273272514343, 0.8974459171295166, 0.45627325773239136, 0.8299980163574219, 0.7339393496513367, 0.9571769833564758, 0.9375101327896118, 0.9671434760093689, 0.9554442763328552, 0.9669276475906372, 0.9635186195373535, 0.9758508205413818, 0.9294208884239197, 0.45198991894721985, 0.44791120290756226, 0.6173328161239624, 0.643711507320404, 0.3679697811603546, 0.7439303994178772, 0.9084609150886536, 0.3576867878437042, 0.9595720767974854, 0.9852771162986755, 0.9916180968284607, 0.9929788708686829, 0.9862646460533142, 0.9838536977767944, 0.9838685393333435, 0.9762651324272156, 0.9868528246879578, 0.9745585322380066, 0.8132065534591675, 0.1317116767168045, 0.2811448872089386, 0.8783917427062988, 0.26025453209877014, 0.41079264879226685, 0.7585163116455078, 0.7820073962211609, 0.8842392563819885, 0.7219430208206177, 0.9277914762496948, 0.8296041488647461, 0.5727665424346924, 0.6020246744155884, 0.9489255547523499, 0.907696008682251, 0.7338659167289734, 0.8592103123664856, 0.8532323241233826]</t>
+          <t>[0.9961110949516296, 0.9968942403793335, 0.9969460368156433, 0.9980068802833557, 0.9944994449615479, 0.995334804058075, 0.9978938698768616, 0.9783144593238831, 0.9861347079277039, 0.6895714402198792, 0.8876199722290039, 0.8849806785583496, 0.8911060690879822, 0.8923786878585815, 0.8479688167572021, 0.9924276471138, 0.9832442402839661, 0.856205403804779, 0.9485070705413818, 0.9879094958305359, 0.991447925567627, 0.9883500337600708, 0.9775306582450867, 0.9680194854736328, 0.5984695553779602, 0.41500529646873474, 0.9486231207847595, 0.2691235840320587, 0.9664384126663208, 0.9922349452972412, 0.990476131439209, 0.993594229221344, 0.9955742359161377, 0.9960252046585083, 0.9956925511360168, 0.9955708384513855, 0.9911363124847412, 0.9944720268249512, 0.9959883093833923, 0.9976798892021179, 0.9937871694564819, 0.9963890314102173, 0.9901167750358582, 0.9974060654640198, 0.9969107508659363, 0.9974793791770935, 0.9963864088058472, 0.9911941885948181, 0.9664109945297241, 0.514678955078125, 0.4821763038635254, 0.5825782418251038, 0.6985753774642944, 0.881048858165741, 0.9493522047996521, 0.9659332633018494, 0.9631306529045105, 0.9005733132362366, 0.9839445948600769, 0.9897164702415466, 0.9767323136329651, 0.8755614757537842, 0.7601358294487, 0.8213733434677124, 0.8341643810272217, 0.264583021402359, 0.747972309589386, 0.9931942224502563, 0.9908813238143921, 0.9951359629631042, 0.9976679682731628, 0.9966476559638977, 0.9979377388954163, 0.9977082014083862, 0.9953715205192566, 0.9984515905380249, 0.9968934059143066, 0.9943832159042358, 0.9890868663787842, 0.37525513768196106, 0.4829995334148407, 0.4933408200740814, 0.76677405834198, 0.9427621364593506, 0.5660906434059143, 0.9016236066818237, 0.831226646900177, 0.974467933177948, 0.9814000129699707, 0.9869378805160522, 0.9777621626853943, 0.986645519733429, 0.9840323328971863, 0.9911537766456604, 0.9649876952171326, 0.5864543318748474, 0.5791791677474976, 0.738253653049469, 0.7714731097221375, 0.48580870032310486, 0.8745882511138916, 0.9571560025215149, 0.5142624974250793, 0.9849079847335815, 0.9957693815231323, 0.9982428550720215, 0.998498797416687, 0.9961643218994141, 0.9942557215690613, 0.9952101111412048, 0.9921201467514038, 0.9957265853881836, 0.9883650541305542, 0.9152947664260864, 0.2087453007698059, 0.40172600746154785, 0.9318997859954834, 0.3377111852169037, 0.5594479441642761, 0.8474496006965637, 0.8829036355018616, 0.9284882545471191, 0.863309919834137, 0.9656469821929932, 0.9218877553939819, 0.7301316261291504, 0.7392306923866272, 0.9788171648979187, 0.9692631363868713, 0.8229947686195374, 0.9271705746650696, 0.9233881235122681]</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.9947505593299866</v>
+        <v>0.998498797416687</v>
       </c>
       <c r="F207" t="n">
         <v>1</v>
@@ -8823,10 +8823,10 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0.7471390000137035</v>
+        <v>0.7483864000096219</v>
       </c>
       <c r="J207" t="n">
-        <v>0.005660143939497753</v>
+        <v>0.005669593939466832</v>
       </c>
     </row>
     <row r="208">
@@ -8845,11 +8845,11 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[0.9230399131774902, 0.7619237303733826, 0.6782746911048889, 0.7379143238067627, 0.8983935713768005, 0.7177907228469849, 0.757709801197052, 0.6374289393424988, 0.7052974700927734, 0.939888060092926, 0.9229304194450378, 0.9429439902305603, 0.9105506539344788, 0.7520571351051331, 0.9010086059570312, 0.9341159462928772, 0.8420997858047485, 0.9806941747665405, 0.9095129370689392, 0.9153043627738953, 0.9650171995162964, 0.9783182144165039, 0.8632722496986389, 0.8573524951934814, 0.9000431299209595, 0.9387101531028748, 0.9759519100189209, 0.9686151146888733, 0.9379057288169861, 0.9651283621788025, 0.9268528819084167, 0.9816308617591858, 0.9694265723228455, 0.9301435947418213, 0.9445520043373108, 0.9111862778663635, 0.9796791076660156, 0.7789005041122437, 0.9484175443649292, 0.9822019934654236, 0.7658166289329529, 0.8396310210227966, 0.8162873387336731, 0.8477820158004761, 0.9293447732925415, 0.9524363875389099, 0.9860565662384033, 0.8649271130561829, 0.9414254426956177, 0.9599452018737793, 0.9427915215492249, 0.9846646189689636, 0.9144153594970703, 0.8715141415596008, 0.914659857749939, 0.9852601289749146, 0.9619181156158447, 0.9547937512397766, 0.9138211607933044, 0.9228761196136475, 0.914806604385376, 0.8467237949371338, 0.9109374284744263, 0.9178669452667236, 0.9534590244293213, 0.9697818160057068, 0.7450444102287292, 0.8154343366622925, 0.9662888050079346, 0.9795687198638916, 0.8795313835144043, 0.8624398112297058, 0.849703848361969, 0.9418854713439941, 0.9211980104446411, 0.9730058312416077, 0.9883620142936707, 0.868068516254425, 0.8201503157615662, 0.8904550075531006, 0.9565035700798035, 0.9594008922576904, 0.9637806415557861, 0.8697723150253296, 0.9414188861846924, 0.7241065502166748, 0.988513171672821, 0.6972493529319763, 0.845881462097168, 0.9846349358558655, 0.9436329007148743, 0.9715517163276672, 0.9650586247444153, 0.8453655242919922, 0.859078586101532, 0.8869258165359497, 0.9074732065200806, 0.866024374961853, 0.9087982773780823, 0.8613151907920837, 0.876885175704956, 0.908149003982544, 0.8034868240356445, 0.789758563041687, 0.629017174243927, 0.7302043437957764, 0.986503005027771, 0.6287739872932434, 0.7224716544151306, 0.6462579369544983, 0.6558433771133423, 0.9896780252456665, 0.9941999912261963, 0.992672860622406, 0.9926409125328064, 0.9926770925521851, 0.9733669757843018, 0.734736442565918, 0.638418972492218, 0.9850921034812927, 0.970475435256958, 0.6926265358924866, 0.9272230267524719, 0.7235845923423767, 0.7298758029937744, 0.4363172948360443, 0.7095032930374146, 0.7129920125007629, 0.44785571098327637, 0.26215627789497375, 0.34963494539260864, 0.35152000188827515]</t>
+          <t>[0.9836751818656921, 0.9122085571289062, 0.8420896530151367, 0.9407004714012146, 0.9740350246429443, 0.889388918876648, 0.8446094393730164, 0.7411844730377197, 0.7678701281547546, 0.9837216734886169, 0.9718502163887024, 0.9827491044998169, 0.9662167429924011, 0.8462502360343933, 0.9747085571289062, 0.9748353362083435, 0.9119715690612793, 0.9946179986000061, 0.9682518839836121, 0.9709239602088928, 0.9892606735229492, 0.9938631057739258, 0.9035651087760925, 0.9057173132896423, 0.9390057921409607, 0.9778044819831848, 0.9932848215103149, 0.9916540384292603, 0.9703080654144287, 0.9875344038009644, 0.9661198258399963, 0.9953781366348267, 0.983361542224884, 0.9632799625396729, 0.9716430902481079, 0.9417834877967834, 0.992798924446106, 0.8647158741950989, 0.9755818843841553, 0.993678867816925, 0.7332906723022461, 0.9013239741325378, 0.9066128134727478, 0.8962007761001587, 0.9484764337539673, 0.9769449234008789, 0.9963105320930481, 0.9170815348625183, 0.9661645889282227, 0.9874323606491089, 0.9766592979431152, 0.9965149164199829, 0.9421855807304382, 0.9192522764205933, 0.9362120628356934, 0.9957801103591919, 0.9889881014823914, 0.983364462852478, 0.9511035680770874, 0.9601799249649048, 0.950288712978363, 0.8926622867584229, 0.9495612382888794, 0.9761679768562317, 0.986190676689148, 0.9922254085540771, 0.8188294768333435, 0.8698924779891968, 0.9908754825592041, 0.994666337966919, 0.9537944793701172, 0.9042096734046936, 0.9258084893226624, 0.9705760478973389, 0.9564165472984314, 0.9878679513931274, 0.9964536428451538, 0.9441561102867126, 0.8559683561325073, 0.8988562226295471, 0.9766210913658142, 0.9869107604026794, 0.9857237935066223, 0.9329145550727844, 0.9662950038909912, 0.734298825263977, 0.9972999691963196, 0.7609111666679382, 0.949492335319519, 0.9950466156005859, 0.9788931012153625, 0.9920936226844788, 0.9876165986061096, 0.9273923635482788, 0.9242068529129028, 0.9553108215332031, 0.9636471271514893, 0.948918879032135, 0.9687731862068176, 0.9389671683311462, 0.9542349576950073, 0.9678244590759277, 0.910325825214386, 0.900507390499115, 0.7304036021232605, 0.8047908544540405, 0.9959639310836792, 0.663720428943634, 0.7223169803619385, 0.5969957113265991, 0.6889567375183105, 0.99577397108078, 0.9978795051574707, 0.9974020719528198, 0.9969310760498047, 0.9971363544464111, 0.9928953051567078, 0.795559287071228, 0.6456717848777771, 0.9940366744995117, 0.9920171499252319, 0.8022252321243286, 0.9673640727996826, 0.8133461475372314, 0.833101749420166, 0.5574257969856262, 0.7471158504486084, 0.8362870216369629, 0.3934404253959656, 0.19054140150547028, 0.29283905029296875, 0.29841530323028564]</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.9941999912261963</v>
+        <v>0.9978795051574707</v>
       </c>
       <c r="F208" t="n">
         <v>1</v>
@@ -8863,10 +8863,10 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>0.7431601999851409</v>
+        <v>0.7475566000066465</v>
       </c>
       <c r="J208" t="n">
-        <v>0.005630001515038946</v>
+        <v>0.005663307575807928</v>
       </c>
     </row>
     <row r="209">
@@ -8885,11 +8885,11 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[0.8010825514793396, 0.9173219203948975, 0.9159213900566101, 0.9643532633781433, 0.9725599884986877, 0.9871110916137695, 0.971540629863739, 0.960494875907898, 0.8070947527885437, 0.9580647349357605, 0.9842759370803833, 0.976269006729126, 0.9544191956520081, 0.9489342570304871, 0.5938472747802734, 0.7104038596153259, 0.8023119568824768, 0.726681649684906, 0.9763950109481812, 0.9865531325340271, 0.9847438931465149, 0.9865269064903259, 0.9807565808296204, 0.8380793929100037, 0.9155570864677429, 0.9639395475387573, 0.9836280345916748, 0.990806519985199, 0.9868679046630859, 0.9552967548370361, 0.8239161968231201, 0.9080119132995605, 0.9204515814781189, 0.7457638382911682, 0.8351439237594604, 0.7645167708396912, 0.807919979095459, 0.9008456468582153, 0.8244268894195557, 0.8213050961494446, 0.9497535228729248, 0.8958273530006409, 0.961723268032074, 0.8692734837532043, 0.856320321559906, 0.9289060831069946, 0.958013117313385, 0.9797623753547668, 0.9835283756256104, 0.9794330596923828, 0.9723697900772095, 0.972855806350708, 0.966163694858551, 0.968360960483551, 0.9106419682502747, 0.6028854250907898, 0.7700550556182861, 0.8967124819755554, 0.8358049392700195, 0.890091598033905, 0.947537362575531, 0.9832496047019958, 0.9617440104484558, 0.9105744361877441, 0.8517571687698364, 0.9675371646881104, 0.9769033789634705, 0.9689647555351257, 0.8601932525634766, 0.820807158946991, 0.7016687989234924, 0.7752718925476074, 0.9032764434814453, 0.9051588773727417, 0.8840306997299194, 0.8553599119186401, 0.9105975031852722, 0.7791726589202881, 0.7720869183540344, 0.8891444206237793, 0.8179108500480652, 0.8328679800033569, 0.9481753706932068, 0.9327897429466248, 0.9593913555145264, 0.9844052195549011, 0.9288966059684753, 0.9820079207420349, 0.9906342029571533, 0.9842460751533508, 0.9770939946174622, 0.954407274723053, 0.9398927092552185, 0.9804702997207642, 0.9738735556602478, 0.9737781286239624, 0.9681403636932373, 0.9785764813423157, 0.9768873453140259, 0.9842590689659119, 0.9510107636451721, 0.9619148969650269, 0.9653608202934265, 0.9667697548866272, 0.7763756513595581, 0.8649271130561829, 0.7203981280326843, 0.955226719379425, 0.9689288139343262, 0.9741218090057373, 0.9458738565444946, 0.905823826789856, 0.7462705373764038, 0.781223475933075, 0.554268479347229, 0.7776862978935242, 0.676899790763855, 0.7482268214225769, 0.7964100241661072, 0.8651708364486694, 0.7563345432281494, 0.9708356261253357, 0.945831835269928, 0.9821711778640747, 0.9880842566490173, 0.9809873104095459, 0.9656074047088623, 0.9775165319442749, 0.9841528534889221, 0.9938623905181885, 0.9912633895874023, 0.9912055134773254]</t>
+          <t>[0.9241428375244141, 0.966799259185791, 0.9636145830154419, 0.9848292469978333, 0.9934425354003906, 0.9958886504173279, 0.992049515247345, 0.9816576242446899, 0.9355837106704712, 0.9860426783561707, 0.9970334768295288, 0.9948284029960632, 0.9893548488616943, 0.9915346503257751, 0.790704607963562, 0.8764144778251648, 0.9427091479301453, 0.9129559397697449, 0.9958584904670715, 0.9974870681762695, 0.9962194561958313, 0.9957874417304993, 0.993700385093689, 0.9360360503196716, 0.9745323657989502, 0.9893303513526917, 0.9943987727165222, 0.9979994893074036, 0.9971548318862915, 0.9893293976783752, 0.9330536723136902, 0.9605315327644348, 0.9688572287559509, 0.8644703030586243, 0.9327001571655273, 0.8522283434867859, 0.8980494141578674, 0.952153205871582, 0.9244347214698792, 0.9385120868682861, 0.9847704172134399, 0.946906328201294, 0.9870556592941284, 0.9634270071983337, 0.958641767501831, 0.971481204032898, 0.9780413508415222, 0.9906339645385742, 0.9925353527069092, 0.9904462099075317, 0.9903941750526428, 0.9858978986740112, 0.9840266704559326, 0.9880982041358948, 0.959852397441864, 0.7416275143623352, 0.901260256767273, 0.9625832438468933, 0.9005011916160583, 0.9352648258209229, 0.9728124141693115, 0.9934782981872559, 0.9885852932929993, 0.9601095914840698, 0.8684015870094299, 0.9774296283721924, 0.9789101481437683, 0.982161819934845, 0.8846017718315125, 0.8027175068855286, 0.7941463589668274, 0.8594932556152344, 0.9627110958099365, 0.9322770833969116, 0.9317772388458252, 0.9018093347549438, 0.9464043974876404, 0.8399616479873657, 0.8629611730575562, 0.9223130941390991, 0.9092305898666382, 0.9199899435043335, 0.9600712060928345, 0.9734658002853394, 0.9761480093002319, 0.9930718541145325, 0.9538645148277283, 0.9890043139457703, 0.9966161847114563, 0.9933725595474243, 0.9915607571601868, 0.9751228094100952, 0.9578959345817566, 0.9926955699920654, 0.9879063367843628, 0.9901440143585205, 0.9840261936187744, 0.9871102571487427, 0.9919050931930542, 0.9881076216697693, 0.9785939455032349, 0.9759465456008911, 0.9820553660392761, 0.9808771014213562, 0.8342852592468262, 0.922152042388916, 0.8048460483551025, 0.9770902395248413, 0.9857016801834106, 0.986349880695343, 0.9789797067642212, 0.9461004137992859, 0.7891809344291687, 0.7843918204307556, 0.5369349718093872, 0.7811405062675476, 0.6967838406562805, 0.7527870535850525, 0.8531225919723511, 0.8653603196144104, 0.8870740532875061, 0.9832047820091248, 0.9686751961708069, 0.993558943271637, 0.9950147271156311, 0.9905549883842468, 0.9820259213447571, 0.9881032109260559, 0.9886658191680908, 0.996091902256012, 0.9952784776687622, 0.9952111840248108]</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.9938623905181885</v>
+        <v>0.9979994893074036</v>
       </c>
       <c r="F209" t="n">
         <v>1</v>
@@ -8903,10 +8903,10 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0.7533624999923632</v>
+        <v>0.7690442000020994</v>
       </c>
       <c r="J209" t="n">
-        <v>0.005707291666608812</v>
+        <v>0.005826092424258329</v>
       </c>
     </row>
     <row r="210">
@@ -8925,11 +8925,11 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[0.9366701245307922, 0.935012936592102, 0.9264723062515259, 0.9742684364318848, 0.9848635792732239, 0.958995521068573, 0.9833125472068787, 0.9149585366249084, 0.8485206365585327, 0.7230760455131531, 0.624299168586731, 0.8759718537330627, 0.9749795198440552, 0.9596129059791565, 0.831277072429657, 0.8071226477622986, 0.861395537853241, 0.7129406929016113, 0.7588437795639038, 0.8757942914962769, 0.8704608678817749, 0.6413756608963013, 0.9270549416542053, 0.8517282009124756, 0.9611865878105164, 0.9441747069358826, 0.8203787207603455, 0.9017146229743958, 0.8779870867729187, 0.5952978134155273, 0.6644371151924133, 0.8263505697250366, 0.6972729563713074, 0.796177089214325, 0.6972643136978149, 0.8709705471992493, 0.7037951946258545, 0.8102832436561584, 0.6853570342063904, 0.9211496710777283, 0.9307422041893005, 0.9243416786193848, 0.5480133891105652, 0.8082660436630249, 0.36829009652137756, 0.7736430764198303, 0.8111215829849243, 0.7267423272132874, 0.9017389416694641, 0.8546168804168701, 0.6951983571052551, 0.7817819714546204, 0.8693932890892029, 0.861923098564148, 0.6039867997169495, 0.6000322699546814, 0.5019382238388062, 0.8828854560852051, 0.8513458967208862, 0.8426995277404785, 0.7181520462036133, 0.583323061466217, 0.761102020740509, 0.7377809882164001, 0.5895013809204102, 0.8604801297187805, 0.8298684358596802, 0.9039198756217957, 0.6590626239776611, 0.7630939483642578, 0.6582552194595337, 0.9000836610794067, 0.6256108283996582, 0.8744974732398987, 0.4480936825275421, 0.739969789981842, 0.6151847839355469, 0.7300866842269897, 0.702467143535614, 0.9244985580444336, 0.7818058729171753, 0.7790753245353699, 0.8823702335357666, 0.5736622214317322, 0.2850908637046814, 0.23633217811584473, 0.3653305768966675, 0.7353131175041199, 0.8771442174911499, 0.9375290870666504, 0.866902768611908, 0.8424725532531738, 0.8971982598304749, 0.8932249546051025, 0.8863046169281006, 0.8103712201118469, 0.9155240654945374, 0.8507559895515442, 0.7895826101303101, 0.872786819934845, 0.9228900074958801, 0.9175600409507751, 0.8650693893432617, 0.9638281464576721, 0.91704922914505, 0.8754407167434692, 0.8657533526420593, 0.8493294715881348, 0.8936832547187805, 0.9548478722572327, 0.8781114816665649, 0.8531290292739868, 0.9161681532859802, 0.8838925361633301, 0.8180525898933411, 0.9243972301483154, 0.7924519777297974, 0.9030366539955139, 0.6256680488586426, 0.9013748168945312, 0.914070725440979, 0.9208357930183411, 0.8590279221534729, 0.8791938424110413, 0.7646580338478088, 0.6613788604736328, 0.6133936047554016, 0.7928164005279541, 0.7477424144744873, 0.8925029039382935, 0.842632532119751, 0.8443171977996826]</t>
+          <t>[0.9437255263328552, 0.9207635521888733, 0.8828974366188049, 0.9849013686180115, 0.9939191341400146, 0.9749705791473389, 0.9930843114852905, 0.936061441898346, 0.8859553337097168, 0.7293194532394409, 0.5754991769790649, 0.8934867978096008, 0.9890778660774231, 0.9868339896202087, 0.8671498894691467, 0.7176052927970886, 0.8005117177963257, 0.6340043544769287, 0.4753108322620392, 0.7371401786804199, 0.8328922986984253, 0.47675299644470215, 0.9077634215354919, 0.7885171175003052, 0.9666343927383423, 0.9311006665229797, 0.7588294148445129, 0.8893970251083374, 0.9038650393486023, 0.4632653594017029, 0.6876010894775391, 0.8465065360069275, 0.6886683106422424, 0.797591507434845, 0.6577116250991821, 0.8674497008323669, 0.6273107528686523, 0.8134452104568481, 0.6132329106330872, 0.930733323097229, 0.9662994742393494, 0.955778956413269, 0.5071203708648682, 0.7553774118423462, 0.293224036693573, 0.8376331925392151, 0.8699684143066406, 0.8067269921302795, 0.9545533061027527, 0.91855388879776, 0.7778633832931519, 0.8612493872642517, 0.9363836646080017, 0.9311596751213074, 0.7675297856330872, 0.6973822116851807, 0.628011167049408, 0.9455317258834839, 0.9168206453323364, 0.919753909111023, 0.7878368496894836, 0.6993637084960938, 0.8070253729820251, 0.7792051434516907, 0.6371965408325195, 0.8569142818450928, 0.8592983484268188, 0.9250138998031616, 0.6741548776626587, 0.818472146987915, 0.7772624492645264, 0.9427149891853333, 0.7134493589401245, 0.9457666873931885, 0.46660536527633667, 0.8467263579368591, 0.6016594767570496, 0.7512630820274353, 0.6207436919212341, 0.951017439365387, 0.7988961935043335, 0.7820112705230713, 0.9416659474372864, 0.555055558681488, 0.24846795201301575, 0.23102207481861115, 0.4013105034828186, 0.7849268317222595, 0.9327831864356995, 0.9700353741645813, 0.8996903300285339, 0.8484674096107483, 0.9129796624183655, 0.9145580530166626, 0.9221964478492737, 0.8538011908531189, 0.9515509009361267, 0.8855873346328735, 0.7969672679901123, 0.9027029275894165, 0.9478651881217957, 0.9551703929901123, 0.9049912095069885, 0.981396496295929, 0.9450477957725525, 0.8965332508087158, 0.9225559234619141, 0.8441174626350403, 0.9094832539558411, 0.9726797342300415, 0.9203895330429077, 0.8963152170181274, 0.9594843983650208, 0.9302783012390137, 0.8647447824478149, 0.962594747543335, 0.8649548292160034, 0.9428179860115051, 0.7324954271316528, 0.933975875377655, 0.9444220662117004, 0.948365330696106, 0.8736676573753357, 0.9261506795883179, 0.8196888566017151, 0.7271206974983215, 0.6559111475944519, 0.8080350160598755, 0.8034073710441589, 0.8991761207580566, 0.8698967099189758, 0.8713495135307312]</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.9848635792732239</v>
+        <v>0.9939191341400146</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
@@ -8943,10 +8943,10 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>0.7444671999837738</v>
+        <v>0.7492876000032993</v>
       </c>
       <c r="J210" t="n">
-        <v>0.005639903030180104</v>
+        <v>0.005676421212146207</v>
       </c>
     </row>
     <row r="211">
@@ -8965,11 +8965,11 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[0.9852693676948547, 0.9770488142967224, 0.9675880074501038, 0.98977130651474, 0.9921064376831055, 0.9890195727348328, 0.9799330234527588, 0.9894919395446777, 0.9945630431175232, 0.9951836466789246, 0.9839426279067993, 0.983041524887085, 0.9871188402175903, 0.9196300506591797, 0.9415391087532043, 0.9847803115844727, 0.9706032872200012, 0.8873377442359924, 0.9842207431793213, 0.9673261642456055, 0.9631266593933105, 0.9883059859275818, 0.9843515157699585, 0.9825485944747925, 0.9688146710395813, 0.9712656736373901, 0.9679082036018372, 0.971949577331543, 0.9396065473556519, 0.8643592000007629, 0.8966779708862305, 0.830830991268158, 0.9756485819816589, 0.8891512155532837, 0.936495304107666, 0.8993685245513916, 0.8974343538284302, 0.7565219402313232, 0.9749769568443298, 0.845503568649292, 0.968963086605072, 0.8056582808494568, 0.7959717512130737, 0.8671079874038696, 0.6644077301025391, 0.8980880975723267, 0.40188542008399963, 0.7588142156600952, 0.7833314538002014, 0.8901514410972595, 0.9566256403923035, 0.9143170118331909, 0.8300827741622925, 0.16743727028369904, 0.8348947763442993, 0.9757444858551025, 0.9876139163970947, 0.9594182372093201, 0.9553719162940979, 0.8739184737205505, 0.4972781836986542, 0.46071484684944153, 0.8319351077079773, 0.4615614712238312, 0.4833790063858032, 0.6037479639053345, 0.5947285294532776, 0.8757285475730896, 0.6045646071434021, 0.402747243642807, 0.8474861979484558, 0.8657413721084595, 0.9385290145874023, 0.9312657117843628, 0.8002572655677795, 0.9136542677879333, 0.9072746634483337, 0.795442521572113, 0.9139415621757507, 0.9261603951454163, 0.8388595581054688, 0.8230748176574707, 0.913349986076355, 0.8550461530685425, 0.6844059824943542, 0.8012400269508362, 0.9296994209289551, 0.960826575756073, 0.8598151803016663, 0.7852209210395813, 0.9108920693397522, 0.9252297878265381, 0.8909948468208313, 0.9373919367790222, 0.9569294452667236, 0.9746358394622803, 0.9724299907684326, 0.9553306102752686, 0.9431667327880859, 0.9330343008041382, 0.9020237326622009, 0.8437036871910095, 0.8693554401397705, 0.8605185747146606, 0.9173843264579773, 0.9433220028877258, 0.9162394404411316, 0.9447920322418213, 0.9038676619529724, 0.9474215507507324, 0.9785863757133484, 0.909182608127594, 0.7939007878303528, 0.9703606963157654, 0.9480767846107483, 0.9165737628936768, 0.9634146094322205, 0.9704350233078003, 0.8872170448303223, 0.931584358215332, 0.9140394330024719, 0.8773027062416077, 0.5263396501541138, 0.7053343057632446, 0.7632196545600891, 0.8435109257698059, 0.7971014380455017, 0.8814089894294739, 0.7480726838111877, 0.8389475345611572, 0.6000165939331055, 0.6037665605545044]</t>
+          <t>[0.9945238828659058, 0.9884259700775146, 0.9779832363128662, 0.9951003193855286, 0.9971043467521667, 0.9967213273048401, 0.9919008016586304, 0.9960179924964905, 0.9984232187271118, 0.9985176920890808, 0.9932611584663391, 0.9926174283027649, 0.9945744872093201, 0.9479826092720032, 0.9809412360191345, 0.9910727143287659, 0.985145092010498, 0.9157370328903198, 0.9927219748497009, 0.9837756752967834, 0.9823737144470215, 0.9949939846992493, 0.99318528175354, 0.9878227710723877, 0.9839863777160645, 0.9913129210472107, 0.9901188611984253, 0.9912478923797607, 0.9721392393112183, 0.9120219349861145, 0.9467862844467163, 0.9184226393699646, 0.9899535775184631, 0.9478724598884583, 0.9778136014938354, 0.942462682723999, 0.9503373503684998, 0.833399772644043, 0.9867814183235168, 0.8972237706184387, 0.9853242039680481, 0.8502470254898071, 0.8627994060516357, 0.9261475205421448, 0.8122695088386536, 0.9503785967826843, 0.5207470059394836, 0.8692708611488342, 0.8924892544746399, 0.9608400464057922, 0.9864583611488342, 0.9563012719154358, 0.8979188203811646, 0.2843734622001648, 0.8757985830307007, 0.9869306087493896, 0.995183527469635, 0.9749141931533813, 0.9629178643226624, 0.8889336585998535, 0.413855642080307, 0.2650509476661682, 0.7814732789993286, 0.35450199246406555, 0.430193692445755, 0.5647533535957336, 0.5725867748260498, 0.9000567197799683, 0.5023008584976196, 0.39392974972724915, 0.8779582381248474, 0.8855000734329224, 0.9455503821372986, 0.9491005539894104, 0.865727961063385, 0.9539474844932556, 0.9370898604393005, 0.8749292492866516, 0.9448662996292114, 0.9313478469848633, 0.8333980441093445, 0.8286377191543579, 0.9177343845367432, 0.8597971796989441, 0.5478583574295044, 0.7381365299224854, 0.9511721730232239, 0.9762604832649231, 0.8863784670829773, 0.8310336470603943, 0.9208760261535645, 0.9357828497886658, 0.9129194021224976, 0.969021201133728, 0.9802199006080627, 0.9893059134483337, 0.9854009747505188, 0.9811766743659973, 0.9699170589447021, 0.9539899230003357, 0.9326710104942322, 0.9124335050582886, 0.9150285124778748, 0.8907148241996765, 0.9482928514480591, 0.9717413783073425, 0.9678138494491577, 0.9751912951469421, 0.9611075520515442, 0.9767807722091675, 0.9920418858528137, 0.9438913464546204, 0.8376288414001465, 0.983384370803833, 0.9720850586891174, 0.9564244747161865, 0.9832667112350464, 0.9916184544563293, 0.9261170625686646, 0.9485081434249878, 0.9372592568397522, 0.8553223609924316, 0.44216388463974, 0.5929863452911377, 0.6104909181594849, 0.8697301149368286, 0.7704041004180908, 0.84572434425354, 0.660186231136322, 0.8078352212905884, 0.49609631299972534, 0.5032128095626831]</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.9951836466789246</v>
+        <v>0.9985176920890808</v>
       </c>
       <c r="F211" t="n">
         <v>1</v>
@@ -8983,10 +8983,10 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>0.7429031000065152</v>
+        <v>0.7444633999984944</v>
       </c>
       <c r="J211" t="n">
-        <v>0.005628053787928146</v>
+        <v>0.005639874242412837</v>
       </c>
     </row>
     <row r="212">
@@ -9005,11 +9005,11 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>[0.9204664826393127, 0.956975519657135, 0.9553551077842712, 0.9640820622444153, 0.9233741164207458, 0.8807679414749146, 0.9304876923561096, 0.7427972555160522, 0.39896446466445923, 0.554760217666626, 0.5337320566177368, 0.6121662855148315, 0.4876590669155121, 0.5456328392028809, 0.45163264870643616, 0.586052417755127, 0.5388274788856506, 0.570015013217926, 0.42529794573783875, 0.390437513589859, 0.4789953827857971, 0.5444682240486145, 0.48861128091812134, 0.6093844175338745, 0.7311111092567444, 0.5592229962348938, 0.4592836797237396, 0.41046378016471863, 0.6619031429290771, 0.7158430218696594, 0.9160206913948059, 0.9459349513053894, 0.9136644005775452, 0.9345000386238098, 0.9571737051010132, 0.965993344783783, 0.9744155406951904, 0.9824774861335754, 0.9839850068092346, 0.9832198023796082, 0.9782067537307739, 0.9767658710479736, 0.9133962988853455, 0.8732962012290955, 0.91808021068573, 0.8324824571609497, 0.8254044055938721, 0.7526082992553711, 0.7618570327758789, 0.5448948740959167, 0.5007041692733765, 0.3979284465312958, 0.3943205177783966, 0.5490718483924866, 0.5116575360298157, 0.32857978343963623, 0.330945760011673, 0.3874107599258423, 0.2934609055519104, 0.25886791944503784, 0.3656909763813019, 0.5027145743370056, 0.65584796667099, 0.6351352334022522, 0.9098069071769714, 0.9224206805229187, 0.8145158290863037, 0.584019660949707, 0.4733896553516388, 0.5750851035118103, 0.6447455883026123, 0.7064982056617737, 0.7729863524436951, 0.9275848269462585, 0.8279119729995728, 0.8188138604164124, 0.7368071675300598, 0.9332126975059509, 0.8970969915390015, 0.6937563419342041, 0.6871214509010315, 0.9551067352294922, 0.9555988311767578, 0.7669876217842102, 0.7672256827354431, 0.8329966068267822, 0.5088186264038086, 0.6521198749542236, 0.47325026988983154, 0.4481159448623657, 0.40850958228111267, 0.35199010372161865, 0.42873623967170715, 0.42644527554512024, 0.4400951862335205, 0.513837456703186, 0.47553038597106934, 0.4642845094203949, 0.43543216586112976, 0.5436565279960632, 0.4606495499610901, 0.4149382412433624, 0.3224693238735199, 0.5038354992866516, 0.39350295066833496, 0.5493461489677429, 0.6309368014335632, 0.6474677324295044, 0.6497340798377991, 0.7860515117645264, 0.8419466018676758, 0.9542785882949829, 0.8908587098121643, 0.955288827419281, 0.9391617774963379, 0.9750217199325562, 0.9750806093215942, 0.9658215045928955, 0.9325070977210999, 0.9189508557319641, 0.7502959966659546, 0.8654897809028625, 0.9258970618247986, 0.8995038866996765, 0.733406126499176, 0.6021770238876343, 0.552665114402771, 0.3986794948577881, 0.4705180525779724, 0.37696588039398193, 0.4063495397567749, 0.40728291869163513]</t>
+          <t>[0.9630554914474487, 0.9836177825927734, 0.9811422228813171, 0.9851309657096863, 0.946567952632904, 0.8843836784362793, 0.9420124888420105, 0.7798231840133667, 0.3995027542114258, 0.6129943132400513, 0.4863957166671753, 0.7217907309532166, 0.5141381025314331, 0.6779381036758423, 0.41258126497268677, 0.5456810593605042, 0.5242302417755127, 0.5012612342834473, 0.35051605105400085, 0.32434988021850586, 0.3863193094730377, 0.48405662178993225, 0.5359417200088501, 0.6537199020385742, 0.7535094022750854, 0.5444555282592773, 0.4299016296863556, 0.39447903633117676, 0.7234455943107605, 0.7506744861602783, 0.9310296773910522, 0.9485462307929993, 0.9226280450820923, 0.9393714666366577, 0.9693925976753235, 0.9754250645637512, 0.983504056930542, 0.9890122413635254, 0.9934072494506836, 0.9908666610717773, 0.9876984357833862, 0.987253725528717, 0.9110243320465088, 0.8809905648231506, 0.931385338306427, 0.8006517887115479, 0.8104777336120605, 0.7758726477622986, 0.8147726058959961, 0.49192142486572266, 0.49296993017196655, 0.4099702537059784, 0.4123654067516327, 0.6143265962600708, 0.5426251888275146, 0.31297677755355835, 0.3347339332103729, 0.3677279055118561, 0.26476308703422546, 0.22851835191249847, 0.29997676610946655, 0.5032025575637817, 0.6750641465187073, 0.570772647857666, 0.8760350942611694, 0.9068852663040161, 0.7807673811912537, 0.460548460483551, 0.36989590525627136, 0.4914504587650299, 0.6217260956764221, 0.6657923460006714, 0.6944372653961182, 0.9527378678321838, 0.8768473863601685, 0.8375342488288879, 0.8130694031715393, 0.9527126550674438, 0.9332101345062256, 0.7706964015960693, 0.7836169600486755, 0.9796060919761658, 0.9828335046768188, 0.8500086069107056, 0.8323917984962463, 0.8695425987243652, 0.45180952548980713, 0.6174513101577759, 0.4174111783504486, 0.39970389008522034, 0.3780251443386078, 0.39034759998321533, 0.4150535762310028, 0.38321948051452637, 0.36917945742607117, 0.46515312790870667, 0.4059406518936157, 0.3931518495082855, 0.3689905107021332, 0.49930086731910706, 0.4585341215133667, 0.3570343255996704, 0.29816025495529175, 0.4782775044441223, 0.3177942931652069, 0.5473902821540833, 0.6492508053779602, 0.6970614194869995, 0.6055521965026855, 0.7309483885765076, 0.8456822633743286, 0.9632466435432434, 0.9220932722091675, 0.9625736474990845, 0.9477081298828125, 0.9723960757255554, 0.9755580425262451, 0.9762019515037537, 0.9466602206230164, 0.943267822265625, 0.8569734692573547, 0.9113954901695251, 0.9611380100250244, 0.9280882477760315, 0.722112238407135, 0.569596529006958, 0.47239163517951965, 0.32974332571029663, 0.5078023076057434, 0.37971946597099304, 0.39451634883880615, 0.3957475423812866]</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.9839850068092346</v>
+        <v>0.9934072494506836</v>
       </c>
       <c r="F212" t="n">
         <v>1</v>
@@ -9023,10 +9023,10 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0.7587701999873389</v>
+        <v>0.7623284000001149</v>
       </c>
       <c r="J212" t="n">
-        <v>0.005748259090813173</v>
+        <v>0.005775215151516022</v>
       </c>
     </row>
     <row r="213">
@@ -9045,11 +9045,11 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>[0.4146915376186371, 0.6285884380340576, 0.6579232811927795, 0.2636934518814087, 0.19176837801933289, 0.14284703135490417, 0.09114495664834976, 0.07270736992359161, 0.23390166461467743, 0.17461124062538147, 0.11076202988624573, 0.12987838685512543, 0.11390721797943115, 0.13194696605205536, 0.08341012895107269, 0.08302685618400574, 0.059203583747148514, 0.04546768590807915, 0.11469873785972595, 0.16893339157104492, 0.24798156321048737, 0.3282300531864166, 0.22061899304389954, 0.6498240232467651, 0.4599132239818573, 0.1066678911447525, 0.19276632368564606, 0.3292692005634308, 0.38021761178970337, 0.3247992992401123, 0.4627242088317871, 0.20349088311195374, 0.327921062707901, 0.15888823568820953, 0.11629853397607803, 0.08861341327428818, 0.09687935560941696, 0.3191356956958771, 0.06708022207021713, 0.11174864321947098, 0.063034787774086, 0.05793767794966698, 0.0643531009554863, 0.06328186392784119, 0.07725431770086288, 0.059857405722141266, 0.07312911748886108, 0.06778319180011749, 0.0829285979270935, 0.06398655474185944, 0.0567193441092968, 0.04842378944158554, 0.05827993527054787, 0.0565967932343483, 0.06360315531492233, 0.12144944816827774, 0.14460158348083496, 0.16010095179080963, 0.2573964595794678, 0.456385999917984, 0.08673964440822601, 0.2144860178232193, 0.11970551311969757, 0.11475496739149094, 0.13422276079654694, 0.27095457911491394, 0.35533761978149414, 0.319131463766098, 0.23423267900943756, 0.2831633687019348, 0.4521310031414032, 0.2626005709171295, 0.4874997138977051, 0.21177563071250916, 0.4714216887950897, 0.2952204942703247, 0.4580663740634918, 0.19969160854816437, 0.2983504831790924, 0.1907644420862198, 0.12429828941822052, 0.0822678655385971, 0.16161787509918213, 0.06289538741111755, 0.07115846872329712, 0.10489604622125626, 0.06636880338191986, 0.0864734798669815, 0.0952804684638977, 0.2660364806652069, 0.6277163028717041, 0.11089956760406494, 0.059134453535079956, 0.05473259836435318, 0.09480515867471695, 0.13822734355926514, 0.15673181414604187, 0.260586142539978, 0.1779567301273346, 0.1483936607837677, 0.1331593245267868, 0.22097551822662354, 0.35560840368270874, 0.18626706302165985, 0.16830185055732727, 0.12695035338401794, 0.11978285014629364, 0.18739326298236847, 0.10606752336025238, 0.12465009093284607, 0.14934788644313812, 0.14501957595348358, 0.133270263671875, 0.12212435156106949, 0.09112408012151718, 0.08262073248624802, 0.04319164156913757, 0.058874115347862244, 0.10259842127561569, 0.07249607890844345, 0.07303308695554733, 0.06809093058109283, 0.0795597955584526, 0.10484003275632858, 0.19005592167377472, 0.44813552498817444, 0.045918285846710205, 0.024501973763108253, 0.04109344258904457, 0.07913937419652939, 0.08028274029493332]</t>
+          <t>[0.5360084176063538, 0.7874987125396729, 0.8447243571281433, 0.46780717372894287, 0.28913265466690063, 0.1478322148323059, 0.09546736627817154, 0.07857687026262283, 0.29637372493743896, 0.19068986177444458, 0.11406648904085159, 0.13285408914089203, 0.10460253059864044, 0.14893746376037598, 0.07100887596607208, 0.07826228439807892, 0.050685666501522064, 0.0541541613638401, 0.13282504677772522, 0.24454432725906372, 0.3804847300052643, 0.30911922454833984, 0.22809496521949768, 0.7111957669258118, 0.560233473777771, 0.1138070821762085, 0.1938609480857849, 0.3507500886917114, 0.5094709396362305, 0.43490496277809143, 0.5584924221038818, 0.2647382318973541, 0.4315785765647888, 0.23415370285511017, 0.11665745079517365, 0.07567506283521652, 0.09876910597085953, 0.41210636496543884, 0.060252901166677475, 0.09698992967605591, 0.048403844237327576, 0.04506197199225426, 0.061753563582897186, 0.06798623502254486, 0.06872542947530746, 0.0425797700881958, 0.05061629042029381, 0.05657093599438667, 0.057744912803173065, 0.045355793088674545, 0.037271175533533096, 0.03191022947430611, 0.0344795361161232, 0.046475883573293686, 0.0803259015083313, 0.16404278576374054, 0.16792379319667816, 0.1708335429430008, 0.3442663848400116, 0.5762103796005249, 0.12772133946418762, 0.3458767533302307, 0.14648331701755524, 0.0943094789981842, 0.1167624443769455, 0.36516645550727844, 0.5410224199295044, 0.5298200249671936, 0.35429564118385315, 0.39489269256591797, 0.5417844653129578, 0.3313416838645935, 0.6272886991500854, 0.28629714250564575, 0.6416401267051697, 0.36797410249710083, 0.5281455516815186, 0.18250395357608795, 0.3587847352027893, 0.18929243087768555, 0.13022881746292114, 0.08059363812208176, 0.16299550235271454, 0.051221273839473724, 0.06707632541656494, 0.11800262331962585, 0.0651119276881218, 0.07955318689346313, 0.10910153388977051, 0.34562814235687256, 0.8289315104484558, 0.13117817044258118, 0.060506999492645264, 0.04233212769031525, 0.1374644935131073, 0.2282988280057907, 0.1869790107011795, 0.31257185339927673, 0.20543505251407623, 0.22284100949764252, 0.17703349888324738, 0.29862669110298157, 0.5823763012886047, 0.21189936995506287, 0.19197238981723785, 0.11754090338945389, 0.11503605544567108, 0.18653611838817596, 0.117315873503685, 0.11336913704872131, 0.1628706157207489, 0.1612764596939087, 0.14616471529006958, 0.10459969937801361, 0.07169543951749802, 0.07581284642219543, 0.03410140797495842, 0.05138813704252243, 0.10312855243682861, 0.05630437657237053, 0.059966713190078735, 0.07090764492750168, 0.09369777888059616, 0.12247353047132492, 0.2610958218574524, 0.6384047269821167, 0.034448519349098206, 0.016080843284726143, 0.04162382334470749, 0.09605365991592407, 0.09735871106386185]</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.6579232811927795</v>
+        <v>0.8447243571281433</v>
       </c>
       <c r="F213" t="n">
         <v>1</v>
@@ -9063,10 +9063,10 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0.7421052000136115</v>
+        <v>0.7396761999989394</v>
       </c>
       <c r="J213" t="n">
-        <v>0.005664925190943599</v>
+        <v>0.005646383206098774</v>
       </c>
     </row>
     <row r="214">
@@ -9085,11 +9085,11 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>[0.556315541267395, 0.41651028394699097, 0.3004623353481293, 0.2919415235519409, 0.266717791557312, 0.4072217643260956, 0.36671534180641174, 0.35807740688323975, 0.7410940527915955, 0.8097066879272461, 0.8465436697006226, 0.796281635761261, 0.6714411377906799, 0.6091596484184265, 0.6227630376815796, 0.6566957235336304, 0.5399393439292908, 0.38472041487693787, 0.319182813167572, 0.3373313546180725, 0.4090777337551117, 0.458468496799469, 0.44259190559387207, 0.7423357963562012, 0.6866419911384583, 0.7619271874427795, 0.6421666741371155, 0.5163742303848267, 0.48354509472846985, 0.45270273089408875, 0.36531999707221985, 0.4108489453792572, 0.367771714925766, 0.3279516100883484, 0.2522922158241272, 0.28965702652931213, 0.2922249734401703, 0.3443096876144409, 0.5215104222297668, 0.648392915725708, 0.6191698908805847, 0.6220364570617676, 0.3861418664455414, 0.4447723925113678, 0.4115616977214813, 0.37153077125549316, 0.370624303817749, 0.7902863025665283, 0.5893653631210327, 0.4805821478366852, 0.23473066091537476, 0.26973220705986023, 0.30118870735168457, 0.2599824070930481, 0.16139355301856995, 0.1751420646905899, 0.19700545072555542, 0.19920207560062408, 0.2489587515592575, 0.3877059817314148, 0.340697318315506, 0.3848155438899994, 0.3957640528678894, 0.4684048295021057, 0.5343932509422302, 0.45948460698127747, 0.42625975608825684, 0.36390483379364014, 0.48288920521736145, 0.37854501605033875, 0.4334501326084137, 0.2703322768211365, 0.18800079822540283, 0.16837576031684875, 0.16003674268722534, 0.13769303262233734, 0.18273310363292694, 0.25802624225616455, 0.27408263087272644, 0.4707430899143219, 0.30890777707099915, 0.26101312041282654, 0.27162840962409973, 0.5351290702819824, 0.4963853657245636, 0.5118606686592102, 0.6176972389221191, 0.6523934602737427, 0.35473760962486267, 0.4832533597946167, 0.32968655228614807, 0.3693266808986664, 0.3858247399330139, 0.43465274572372437, 0.34998980164527893, 0.33729565143585205, 0.38944292068481445, 0.43677669763565063, 0.2955763041973114, 0.23456533253192902, 0.25795555114746094, 0.3596271872520447, 0.3298593759536743, 0.3255675435066223, 0.39063704013824463, 0.33330395817756653, 0.45069265365600586, 0.4267108738422394, 0.2910096049308777, 0.2264583259820938, 0.29025670886039734, 0.4247809648513794, 0.5212390422821045, 0.6312742233276367, 0.5482730865478516, 0.635398268699646, 0.3413510322570801, 0.31135404109954834, 0.4074190855026245, 0.566786527633667, 0.5084440112113953, 0.36322811245918274, 0.21070311963558197, 0.2857052981853485, 0.270379900932312, 0.3312734365463257, 0.29608696699142456, 0.2871452271938324, 0.6037598252296448, 0.6827114820480347, 0.6219897866249084, 0.5484569072723389, 0.3102850317955017, 0.4044547379016876, 0.366022527217865, 0.37520632147789, 0.36264246702194214, 0.5080928206443787, 0.3277059495449066, 0.3124196231365204, 0.2520636320114136, 0.15511196851730347, 0.19333098828792572, 0.41968318819999695, 0.4663889408111572, 0.4835209250450134, 0.4454984962940216, 0.4236751198768616, 0.35715919733047485, 0.30281102657318115, 0.23621885478496552, 0.37001797556877136, 0.5869860053062439, 0.4610944092273712, 0.44306424260139465, 0.5783195495605469, 0.5741609930992126]</t>
+          <t>[0.6775517463684082, 0.5477333068847656, 0.4018899202346802, 0.34858790040016174, 0.289604127407074, 0.4804123640060425, 0.4231450855731964, 0.44199901819229126, 0.8384367227554321, 0.8783190250396729, 0.913979709148407, 0.8905833959579468, 0.8015519976615906, 0.734332263469696, 0.7346487045288086, 0.742830753326416, 0.6168085336685181, 0.4310095012187958, 0.3228611648082733, 0.3791540265083313, 0.4325188398361206, 0.4871889650821686, 0.47779718041419983, 0.7732630372047424, 0.731079638004303, 0.8208923935890198, 0.6776378750801086, 0.5057409405708313, 0.4704834818840027, 0.4766439199447632, 0.4425448477268219, 0.5090364217758179, 0.3831944465637207, 0.31961697340011597, 0.23769602179527283, 0.28376609086990356, 0.27294406294822693, 0.3426204323768616, 0.5754744410514832, 0.7034111022949219, 0.6529667973518372, 0.6684571504592896, 0.37717097997665405, 0.4303896725177765, 0.37715673446655273, 0.34609276056289673, 0.3389635980129242, 0.8328770995140076, 0.6438595056533813, 0.5320899486541748, 0.20849312841892242, 0.23066946864128113, 0.2621668577194214, 0.25894153118133545, 0.15512575209140778, 0.19151724874973297, 0.23326867818832397, 0.18920205533504486, 0.24030256271362305, 0.4206691086292267, 0.3429130017757416, 0.38884755969047546, 0.3955276906490326, 0.5273248553276062, 0.6218339204788208, 0.43003344535827637, 0.3629087507724762, 0.2973783612251282, 0.4328552484512329, 0.2907266318798065, 0.363192617893219, 0.23387137055397034, 0.14727045595645905, 0.12419402599334717, 0.11180104315280914, 0.08623013645410538, 0.10816721618175507, 0.21825675666332245, 0.27329331636428833, 0.531477689743042, 0.271805077791214, 0.18912158906459808, 0.20273253321647644, 0.6851581335067749, 0.5970537662506104, 0.628077507019043, 0.7085838317871094, 0.7408130168914795, 0.3329858183860779, 0.48868393898010254, 0.35931140184402466, 0.4353095591068268, 0.4576345980167389, 0.45537519454956055, 0.3410371243953705, 0.3387242555618286, 0.3940185606479645, 0.4619521200656891, 0.24132201075553894, 0.20980560779571533, 0.22158515453338623, 0.3213514983654022, 0.2765491008758545, 0.3068917393684387, 0.4052729308605194, 0.3368574380874634, 0.4368859827518463, 0.48295286297798157, 0.34578248858451843, 0.255461186170578, 0.35253965854644775, 0.4957007169723511, 0.6052401065826416, 0.6582421660423279, 0.5854700803756714, 0.7141885161399841, 0.36500388383865356, 0.32949715852737427, 0.4495748281478882, 0.6206549406051636, 0.5152208209037781, 0.39690685272216797, 0.251228392124176, 0.30091914534568787, 0.25488558411598206, 0.3212812840938568, 0.2892787754535675, 0.2873351275920868, 0.6480466723442078, 0.7762137651443481, 0.7103402018547058, 0.6525012254714966, 0.3402565121650696, 0.49710625410079956, 0.42085522413253784, 0.4160868227481842, 0.3606273829936981, 0.5448462963104248, 0.33865728974342346, 0.3591514527797699, 0.3566453456878662, 0.18257392942905426, 0.21954895555973053, 0.5520119667053223, 0.5859596729278564, 0.5492112040519714, 0.48971667885780334, 0.45955657958984375, 0.3539840579032898, 0.32522040605545044, 0.24607263505458832, 0.42695170640945435, 0.6335164308547974, 0.5172187685966492, 0.5166803002357483, 0.6785226464271545, 0.6737381815910339]</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.8465436697006226</v>
+        <v>0.913979709148407</v>
       </c>
       <c r="F214" t="n">
         <v>1</v>
@@ -9103,10 +9103,10 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>0.8876197999925353</v>
+        <v>0.9239092999923741</v>
       </c>
       <c r="J214" t="n">
-        <v>0.005653629299315511</v>
+        <v>0.005884772611416396</v>
       </c>
     </row>
     <row r="215">
@@ -9125,11 +9125,11 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>[0.28427886962890625, 0.33018621802330017, 0.262841135263443, 0.24572138488292694, 0.22702942788600922, 0.18233099579811096, 0.14840486645698547, 0.17787477374076843, 0.09340451657772064, 0.08743171393871307, 0.09846917539834976, 0.1419926881790161, 0.147461399435997, 0.19024665653705597, 0.1674230843782425, 0.13589619100093842, 0.10054423660039902, 0.1171509400010109, 0.14355851709842682, 0.15923137962818146, 0.15167956054210663, 0.16417768597602844, 0.22181662917137146, 0.21643470227718353, 0.18496549129486084, 0.1456858366727829, 0.0885218158364296, 0.0703548863530159, 0.06214826926589012, 0.13807664811611176, 0.22107626497745514, 0.2377297282218933, 0.2659716010093689, 0.25380033254623413, 0.18268521130084991, 0.09854723513126373, 0.0758601576089859, 0.061963364481925964, 0.07174032926559448, 0.07338797301054001, 0.06973813474178314, 0.10738897323608398, 0.1254701465368271, 0.14711977541446686, 0.22616076469421387, 0.31391048431396484, 0.26586097478866577, 0.48702743649482727, 0.37866663932800293, 0.5090963840484619, 0.6205416321754456, 0.4478577673435211, 0.4166986644268036, 0.3228934109210968, 0.3342898190021515, 0.35142162442207336, 0.2291983813047409, 0.18003667891025543, 0.15251712501049042, 0.24663132429122925, 0.23871071636676788, 0.2147025167942047, 0.2546471059322357, 0.23835010826587677, 0.3240946829319, 0.18064691126346588, 0.1597641557455063, 0.1640138030052185, 0.23384343087673187, 0.25739026069641113, 0.3460250496864319, 0.17015999555587769, 0.14051425457000732, 0.1553920954465866, 0.2698861062526703, 0.2866179943084717, 0.26880505681037903, 0.4157983660697937, 0.34082111716270447, 0.27841916680336, 0.17908582091331482, 0.18636146187782288, 0.13060592114925385, 0.16626034677028656, 0.2081797868013382, 0.1742682009935379, 0.10040003806352615, 0.10401183366775513, 0.1316843032836914, 0.10545577853918076, 0.056296080350875854, 0.0535675510764122, 0.05425981059670448, 0.06118325516581535, 0.06860248744487762, 0.09193185716867447, 0.08653741329908371, 0.0982368141412735, 0.07187257707118988, 0.08025602996349335, 0.12752476334571838, 0.15083284676074982, 0.14562110602855682, 0.13774162530899048, 0.17622818052768707, 0.22493627667427063, 0.22669680416584015, 0.15326343476772308, 0.16264565289020538, 0.21458370983600616, 0.3129127025604248, 0.2524670362472534, 0.19867537915706635, 0.17285773158073425, 0.13246028125286102, 0.12644819915294647, 0.1690952479839325, 0.2099154144525528, 0.24481482803821564, 0.3563232719898224, 0.37754857540130615, 0.24554604291915894, 0.27846071124076843, 0.12924398481845856, 0.08171238750219345, 0.11168614774942398, 0.09635239839553833, 0.12467807531356812, 0.1453212946653366, 0.1333847939968109, 0.17243534326553345, 0.10873419046401978, 0.13493287563323975, 0.11252427101135254, 0.10223667323589325, 0.101990707218647, 0.139694482088089, 0.165839284658432, 0.189486563205719, 0.20082512497901917, 0.18811918795108795, 0.1925317645072937, 0.1528576910495758, 0.13222546875476837, 0.13320708274841309, 0.15359680354595184, 0.16236573457717896, 0.14088581502437592, 0.12557947635650635, 0.11661508679389954, 0.11594289541244507, 0.15980491042137146, 0.2321588546037674, 0.17684535682201385, 0.1539594978094101, 0.23061034083366394, 0.23319709300994873]</t>
+          <t>[0.25616416335105896, 0.3009548485279083, 0.31959861516952515, 0.30173259973526, 0.2642274498939514, 0.18320085108280182, 0.12116041034460068, 0.19218742847442627, 0.0858636125922203, 0.07206748425960541, 0.06884358078241348, 0.12341385334730148, 0.13057538866996765, 0.19831131398677826, 0.1587553471326828, 0.12832200527191162, 0.08510487526655197, 0.10806877911090851, 0.15731938183307648, 0.23404373228549957, 0.2366553097963333, 0.26613032817840576, 0.3801470100879669, 0.34280699491500854, 0.2828819155693054, 0.21494613587856293, 0.12648557126522064, 0.07955620437860489, 0.05456214398145676, 0.19568896293640137, 0.2968038022518158, 0.36954936385154724, 0.4103057384490967, 0.36607399582862854, 0.23040097951889038, 0.11820010840892792, 0.08608043938875198, 0.06540841609239578, 0.07764003425836563, 0.07837120443582535, 0.0749475508928299, 0.18440397083759308, 0.21747975051403046, 0.2822859287261963, 0.37624040246009827, 0.49828919768333435, 0.4191887676715851, 0.6343024373054504, 0.5229299664497375, 0.6967846155166626, 0.8178282976150513, 0.6322956681251526, 0.5852368474006653, 0.5130038261413574, 0.510826587677002, 0.5300906300544739, 0.35142815113067627, 0.29026538133621216, 0.21409355103969574, 0.3821905553340912, 0.36838674545288086, 0.32304561138153076, 0.28610241413116455, 0.291321724653244, 0.3992742896080017, 0.16859284043312073, 0.1441686451435089, 0.15124748647212982, 0.23024144768714905, 0.24734656512737274, 0.3686518967151642, 0.18665660917758942, 0.13922645151615143, 0.14586926996707916, 0.2818870544433594, 0.29133665561676025, 0.2783215343952179, 0.6045235991477966, 0.5300441980361938, 0.46890464425086975, 0.22666847705841064, 0.21943068504333496, 0.12619589269161224, 0.18683147430419922, 0.24182964861392975, 0.19009855389595032, 0.08713710308074951, 0.09252025187015533, 0.11300203204154968, 0.10135827213525772, 0.052759330719709396, 0.05246848985552788, 0.05394895002245903, 0.06825409084558487, 0.07502281665802002, 0.1008416935801506, 0.09091822803020477, 0.12474828213453293, 0.07416490465402603, 0.11866322159767151, 0.25046026706695557, 0.24070003628730774, 0.24196884036064148, 0.21002623438835144, 0.4290761947631836, 0.5326923131942749, 0.5201862454414368, 0.3235512673854828, 0.3412403464317322, 0.45306023955345154, 0.6974018812179565, 0.6245616674423218, 0.4402334690093994, 0.4023059606552124, 0.22829337418079376, 0.19159097969532013, 0.29680144786834717, 0.34298792481422424, 0.402432918548584, 0.637037992477417, 0.5966378450393677, 0.4339030981063843, 0.504021167755127, 0.18081539869308472, 0.09622658789157867, 0.16575606167316437, 0.13013258576393127, 0.18935801088809967, 0.23691412806510925, 0.2276194840669632, 0.3139527142047882, 0.14883700013160706, 0.1996033638715744, 0.17571154236793518, 0.13835997879505157, 0.1580512374639511, 0.20170648396015167, 0.3339789807796478, 0.3973942697048187, 0.39778152108192444, 0.32479143142700195, 0.30550819635391235, 0.2010413557291031, 0.18828600645065308, 0.21129648387432098, 0.2378675490617752, 0.1631951928138733, 0.14909227192401886, 0.15203993022441864, 0.1606416404247284, 0.15342193841934204, 0.238873690366745, 0.2782341241836548, 0.2135395109653473, 0.1682395190000534, 0.3209848403930664, 0.3236578106880188]</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.6205416321754456</v>
+        <v>0.8178282976150513</v>
       </c>
       <c r="F215" t="n">
         <v>1</v>
@@ -9143,10 +9143,10 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>0.889687299990328</v>
+        <v>0.8783588000078453</v>
       </c>
       <c r="J215" t="n">
-        <v>0.00566679808911037</v>
+        <v>0.00559464203826653</v>
       </c>
     </row>
     <row r="216">
@@ -9165,11 +9165,11 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>[0.5032080411911011, 0.5657616257667542, 0.5504007339477539, 0.44954347610473633, 0.44118136167526245, 0.5270428657531738, 0.7778405547142029, 0.8517393469810486, 0.7348660826683044, 0.4007191061973572, 0.3694322109222412, 0.33162128925323486, 0.31808680295944214, 0.3302505910396576, 0.3875371515750885, 0.25568297505378723, 0.25319305062294006, 0.30181336402893066, 0.814547061920166, 0.8444936275482178, 0.9272977709770203, 0.8999289870262146, 0.7289579510688782, 0.5613017678260803, 0.5960475206375122, 0.6398539543151855, 0.5743148326873779, 0.7145616412162781, 0.5261250138282776, 0.6349430084228516, 0.9276424050331116, 0.9178235530853271, 0.9336904287338257, 0.35388556122779846, 0.37948381900787354, 0.3130134642124176, 0.3369066119194031, 0.3337560296058655, 0.3265356123447418, 0.6385740637779236, 0.6161845326423645, 0.6073035001754761, 0.8526386022567749, 0.7388686537742615, 0.44811996817588806, 0.8046611547470093, 0.8292021751403809, 0.7917636632919312, 0.5102419257164001, 0.46986982226371765, 0.6936949491500854, 0.6023245453834534, 0.5019095540046692, 0.5392163395881653, 0.6935384273529053, 0.6622458100318909, 0.6331769227981567, 0.77509605884552, 0.7692556977272034, 0.55939120054245, 0.7273959517478943, 0.8016024827957153, 0.7471556663513184, 0.8977851271629333, 0.8876600861549377, 0.8185662627220154, 0.8450226187705994, 0.6887096762657166, 0.516361653804779, 0.6386779546737671, 0.6157186031341553, 0.6034231185913086, 0.6871654391288757, 0.5771781802177429, 0.48771119117736816, 0.42283689975738525, 0.41811543703079224, 0.49545007944107056, 0.7630285620689392, 0.8411967158317566, 0.8649076819419861, 0.5863513350486755, 0.5906853675842285, 0.6768603920936584, 0.7427149415016174, 0.7228149771690369, 0.5712814331054688, 0.4420609772205353, 0.34495100378990173, 0.44872599840164185, 0.4994017779827118, 0.5415032505989075, 0.5510023832321167, 0.4579475522041321, 0.327706903219223, 0.46064963936805725, 0.6893070936203003, 0.8175562024116516, 0.8556678295135498, 0.9297715425491333, 0.7874288558959961, 0.7356650829315186, 0.5175395607948303, 0.4202682673931122, 0.28110331296920776, 0.2690707743167877, 0.24368929862976074, 0.25542154908180237, 0.22868973016738892, 0.3116148114204407, 0.4436541795730591, 0.5578122138977051, 0.5293020606040955, 0.5926717519760132, 0.6163175106048584, 0.5163472294807434, 0.4974365234375, 0.4602321684360504, 0.5761098265647888, 0.6682960987091064, 0.7598422169685364, 0.7790704369544983, 0.7973278164863586, 0.31282225251197815, 0.19276878237724304, 0.13679145276546478, 0.1469237506389618, 0.21296028792858124, 0.41258981823921204, 0.6392155289649963, 0.47929129004478455, 0.4070011079311371, 0.393886923789978, 0.5336540341377258, 0.36860179901123047, 0.2910163104534149, 0.485029399394989, 0.4931889772415161, 0.2729334831237793, 0.2635430097579956, 0.28132253885269165, 0.7435826063156128, 0.6818468570709229, 0.5847369432449341, 0.5343644022941589, 0.598913311958313, 0.5289687514305115, 0.8116304278373718, 0.6031075716018677, 0.5406988263130188, 0.4242878258228302, 0.4806598424911499, 0.43671005964279175, 0.2862430512905121, 0.29349932074546814, 0.1941099762916565, 0.18403775990009308]</t>
+          <t>[0.8785428404808044, 0.9337272047996521, 0.9311488270759583, 0.8054493069648743, 0.6907193064689636, 0.7468171715736389, 0.9109531044960022, 0.967396080493927, 0.9350063800811768, 0.665033221244812, 0.5651264190673828, 0.5260913372039795, 0.552021861076355, 0.5250904560089111, 0.6761505603790283, 0.5263392329216003, 0.48978251218795776, 0.5644439458847046, 0.963602602481842, 0.9719545245170593, 0.9873147010803223, 0.9840072989463806, 0.9419159293174744, 0.8510381579399109, 0.8791992664337158, 0.8924232125282288, 0.851969301700592, 0.9191232323646545, 0.7447693347930908, 0.8782796859741211, 0.9905084371566772, 0.9870691299438477, 0.9896361231803894, 0.6354501843452454, 0.6162435412406921, 0.515694797039032, 0.5660120248794556, 0.5927104353904724, 0.5972992181777954, 0.9513161778450012, 0.9516633749008179, 0.9498668909072876, 0.9887064695358276, 0.9784120917320251, 0.8855999112129211, 0.9841716885566711, 0.9862843751907349, 0.9820277690887451, 0.9185633659362793, 0.8885974884033203, 0.9724292159080505, 0.9265847206115723, 0.8165766000747681, 0.8553743362426758, 0.9083231091499329, 0.9001109004020691, 0.8737390637397766, 0.9630119204521179, 0.9694859385490417, 0.9234082698822021, 0.9535834789276123, 0.9700755476951599, 0.9575979709625244, 0.9908457398414612, 0.9868501424789429, 0.9764971137046814, 0.9878298044204712, 0.9675622582435608, 0.9142964482307434, 0.9358956813812256, 0.8664994239807129, 0.8740823864936829, 0.9052174091339111, 0.8561828136444092, 0.8072751760482788, 0.7300668358802795, 0.7024717330932617, 0.8392146825790405, 0.9543402791023254, 0.9628381729125977, 0.9638118743896484, 0.8728740811347961, 0.8560740351676941, 0.9077223539352417, 0.9361092448234558, 0.9085883498191833, 0.7766805291175842, 0.72395920753479, 0.575724184513092, 0.7106543779373169, 0.7894987463951111, 0.8359604477882385, 0.8364005088806152, 0.7791194319725037, 0.6244823932647705, 0.7543692588806152, 0.9108403325080872, 0.9272727370262146, 0.9222866296768188, 0.9796567559242249, 0.9377734065055847, 0.9311250448226929, 0.8214439153671265, 0.7388604283332825, 0.5839648842811584, 0.5560145378112793, 0.3907354474067688, 0.42089974880218506, 0.39394131302833557, 0.5686923265457153, 0.7638803720474243, 0.9125219583511353, 0.885841965675354, 0.9126924872398376, 0.8670454025268555, 0.823711097240448, 0.8160013556480408, 0.8021330237388611, 0.8714777827262878, 0.9188122749328613, 0.970116376876831, 0.9659435153007507, 0.9625048637390137, 0.7780939936637878, 0.4954136610031128, 0.2920258641242981, 0.2951831519603729, 0.4112122654914856, 0.7464964985847473, 0.8950818777084351, 0.7228804230690002, 0.5669876337051392, 0.7402922511100769, 0.8840887546539307, 0.7350493669509888, 0.5928672552108765, 0.7617241740226746, 0.7582514882087708, 0.4618395268917084, 0.4582585394382477, 0.49572426080703735, 0.9634806513786316, 0.9495893716812134, 0.9124666452407837, 0.8547980189323425, 0.8366023302078247, 0.70561283826828, 0.9401354789733887, 0.8273758292198181, 0.7096896767616272, 0.5540097951889038, 0.6013509631156921, 0.5323227047920227, 0.3005129396915436, 0.3285559117794037, 0.16512638330459595, 0.15503567457199097]</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.9336904287338257</v>
+        <v>0.9908457398414612</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
@@ -9183,10 +9183,10 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0.8837744999909773</v>
+        <v>0.8824340999999549</v>
       </c>
       <c r="J216" t="n">
-        <v>0.00562913694261769</v>
+        <v>0.005620599363057038</v>
       </c>
     </row>
     <row r="217">
@@ -9205,11 +9205,11 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>[0.1990785449743271, 0.2233106940984726, 0.1835828721523285, 0.16493672132492065, 0.1438749134540558, 0.2609046995639801, 0.3333292603492737, 0.3143672049045563, 0.2596489191055298, 0.1881176084280014, 0.1541406661272049, 0.1635752022266388, 0.18442906439304352, 0.17416757345199585, 0.19881893694400787, 0.2021559327840805, 0.1570865660905838, 0.1272619068622589, 0.16589199006557465, 0.19905529916286469, 0.1039007306098938, 0.13367533683776855, 0.13614575564861298, 0.20008552074432373, 0.16526740789413452, 0.14513744413852692, 0.21231932938098907, 0.18818582594394684, 0.16659489274024963, 0.16674509644508362, 0.14936359226703644, 0.16366346180438995, 0.13639870285987854, 0.15928618609905243, 0.14926932752132416, 0.16200515627861023, 0.1794862598180771, 0.17291951179504395, 0.13355034589767456, 0.17875878512859344, 0.2144310176372528, 0.16696970164775848, 0.20358064770698547, 0.258723646402359, 0.08754462748765945, 0.09590844064950943, 0.10685649514198303, 0.15541726350784302, 0.1916717290878296, 0.16288605332374573, 0.13622435927391052, 0.12421992421150208, 0.11132471263408661, 0.07821524143218994, 0.08957500010728836, 0.09538581222295761, 0.08368177711963654, 0.06553716957569122, 0.0842028334736824, 0.07260871678590775, 0.09345444291830063, 0.09338384866714478, 0.09967721998691559, 0.107060007750988, 0.12057840079069138, 0.09721250832080841, 0.10389776527881622, 0.10064226388931274, 0.13461707532405853, 0.10975529253482819, 0.0869775339961052, 0.075997494161129, 0.07410088181495667, 0.0695204883813858, 0.11371985822916031, 0.11939225345849991, 0.11803306639194489, 0.08737871795892715, 0.08001863211393356, 0.09825177490711212, 0.0908372551202774, 0.09137775003910065, 0.09867922961711884, 0.1008845716714859, 0.10753562301397324, 0.07858745008707047, 0.0763201117515564, 0.09202152490615845, 0.11937257647514343, 0.17209556698799133, 0.2532687485218048, 0.2558949589729309, 0.21827739477157593, 0.15688574314117432, 0.09866786003112793, 0.2471766471862793, 0.2456749975681305, 0.22589825093746185, 0.25559791922569275, 0.22646339237689972, 0.19772833585739136, 0.18437255918979645, 0.1712363064289093, 0.15480507910251617, 0.19918981194496155, 0.2019958198070526, 0.2068374902009964, 0.19902443885803223, 0.1922309249639511, 0.2527099847793579, 0.25036314129829407]</t>
+          <t>[0.3267759680747986, 0.35402849316596985, 0.32545003294944763, 0.24276567995548248, 0.18487465381622314, 0.483446329832077, 0.5539867281913757, 0.5250269174575806, 0.5044275522232056, 0.319635808467865, 0.2241157591342926, 0.21744193136692047, 0.2544930875301361, 0.23721402883529663, 0.39796769618988037, 0.43987756967544556, 0.374629408121109, 0.2292058914899826, 0.28129076957702637, 0.36526283621788025, 0.17625261843204498, 0.20246192812919617, 0.20507310330867767, 0.3144616186618805, 0.22605964541435242, 0.1872098296880722, 0.3123156726360321, 0.2696438133716583, 0.25522634387016296, 0.3086646795272827, 0.20565570890903473, 0.23068735003471375, 0.20605088770389557, 0.24800921976566315, 0.2357105165719986, 0.3058669865131378, 0.304244726896286, 0.2761070430278778, 0.1938782036304474, 0.2827896475791931, 0.36021265387535095, 0.3306565582752228, 0.4006238281726837, 0.4404275715351105, 0.09586098045110703, 0.11184467375278473, 0.14076711237430573, 0.24029666185379028, 0.31959888339042664, 0.22416092455387115, 0.15880738198757172, 0.13998465240001678, 0.12136895954608917, 0.0689295157790184, 0.0851403996348381, 0.10080144554376602, 0.09677929431200027, 0.060358595103025436, 0.10809465497732162, 0.08008872717618942, 0.10623016953468323, 0.10588803887367249, 0.10057985782623291, 0.1064264103770256, 0.1250656396150589, 0.12449961155653, 0.11292189359664917, 0.09229068458080292, 0.12860599160194397, 0.10241415351629257, 0.08107852190732956, 0.07460632920265198, 0.06548001617193222, 0.06017795205116272, 0.13126789033412933, 0.12942039966583252, 0.1197509616613388, 0.10202359408140182, 0.08638937026262283, 0.10749432444572449, 0.09214861690998077, 0.07923797518014908, 0.08370985835790634, 0.11300995200872421, 0.15136590600013733, 0.09236515313386917, 0.08805957436561584, 0.11145448684692383, 0.15507127344608307, 0.31912484765052795, 0.4482353925704956, 0.4439939260482788, 0.4603275954723358, 0.3314058184623718, 0.1507100760936737, 0.4426537752151489, 0.34647274017333984, 0.27767327427864075, 0.3502162992954254, 0.32363417744636536, 0.2858707308769226, 0.25727611780166626, 0.23707637190818787, 0.20974496006965637, 0.34821853041648865, 0.32627880573272705, 0.28315332531929016, 0.2517860233783722, 0.2616804242134094, 0.34453216195106506, 0.3412206172943115]</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.3333292603492737</v>
+        <v>0.5539867281913757</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
@@ -9223,10 +9223,10 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>0.6320604000065941</v>
+        <v>0.6260937000042759</v>
       </c>
       <c r="J217" t="n">
-        <v>0.005694237837897244</v>
+        <v>0.005640483783822306</v>
       </c>
     </row>
     <row r="218">
@@ -9245,11 +9245,11 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>[0.11133893579244614, 0.13393598794937134, 0.16044895350933075, 0.1302434802055359, 0.21453426778316498, 0.34640780091285706, 0.3731687068939209, 0.3038787841796875, 0.32518962025642395, 0.3904118835926056, 0.5909573435783386, 0.5997433662414551, 0.6129576563835144, 0.413900762796402, 0.4185580313205719, 0.4568162262439728, 0.5993873476982117, 0.5894161462783813, 0.4622385501861572, 0.47429361939430237, 0.5623399019241333, 0.738447904586792, 0.6867930889129639, 0.429398775100708, 0.2628151774406433, 0.4890153408050537, 0.5465200543403625, 0.6309487223625183, 0.6033772826194763, 0.5522685647010803, 0.4163661599159241, 0.42381739616394043, 0.5006954669952393, 0.5319193601608276, 0.4272420108318329, 0.30793046951293945, 0.3245989978313446, 0.33006685972213745, 0.3355056345462799, 0.35101982951164246, 0.45394015312194824, 0.37883901596069336, 0.3830345869064331, 0.3977096378803253, 0.4136584997177124, 0.4806174039840698, 0.3589908480644226, 0.28463172912597656, 0.21523454785346985, 0.18351039290428162, 0.21105538308620453, 0.17066942155361176, 0.20334245264530182, 0.2660313546657562, 0.2314111441373825, 0.191775843501091, 0.2171521931886673, 0.22201944887638092, 0.2279711663722992, 0.2270277887582779, 0.18843704462051392, 0.18645170331001282, 0.19902557134628296, 0.2683912515640259, 0.20762880146503448, 0.2373591959476471, 0.27083712816238403, 0.25557607412338257, 0.2633697986602783, 0.21687214076519012, 0.38763684034347534, 0.3260423541069031, 0.3080403208732605, 0.24897883832454681, 0.26755717396736145, 0.28612929582595825, 0.2840450406074524, 0.37113675475120544, 0.35692402720451355, 0.35643142461776733, 0.4559516906738281, 0.47095444798469543, 0.40031489729881287, 0.3838808238506317, 0.37385836243629456, 0.2440473437309265, 0.19002313911914825, 0.1639663577079773, 0.23365715146064758, 0.20947709679603577, 0.2384428083896637, 0.2249920815229416, 0.25073760747909546, 0.25203442573547363, 0.2636733055114746, 0.28014135360717773, 0.2845843434333801, 0.31940731406211853, 0.30454641580581665, 0.29073771834373474, 0.4181653559207916, 0.37524279952049255, 0.2684127688407898, 0.2114151418209076, 0.15342289209365845, 0.1564009040594101, 0.18899555504322052, 0.1628914773464203, 0.14940738677978516, 0.14753079414367676, 0.14784754812717438]</t>
+          <t>[0.177936390042305, 0.19656437635421753, 0.19024164974689484, 0.13701261579990387, 0.27946680784225464, 0.5255036354064941, 0.5644409656524658, 0.3107542395591736, 0.3354108929634094, 0.44874098896980286, 0.7628014087677002, 0.7132277488708496, 0.6954824924468994, 0.4424428939819336, 0.4572523236274719, 0.5123004913330078, 0.6177254915237427, 0.578691303730011, 0.4541687071323395, 0.5592384338378906, 0.6585034728050232, 0.8535125255584717, 0.8272929191589355, 0.639182448387146, 0.3624708652496338, 0.651047945022583, 0.7129996418952942, 0.8050037622451782, 0.7226204872131348, 0.6250374913215637, 0.450812429189682, 0.48190590739250183, 0.5887685418128967, 0.6345162391662598, 0.47731223702430725, 0.3602984547615051, 0.3850477933883667, 0.4365783631801605, 0.4740564823150635, 0.4861869513988495, 0.5325593948364258, 0.4427814781665802, 0.45559582114219666, 0.5479923486709595, 0.5592668652534485, 0.5714766383171082, 0.3889702558517456, 0.2659118175506592, 0.20725490152835846, 0.18781790137290955, 0.20987726747989655, 0.1570928394794464, 0.2908766567707062, 0.42975786328315735, 0.39463427662849426, 0.20525288581848145, 0.24481552839279175, 0.2717323899269104, 0.3175421953201294, 0.27745577692985535, 0.23066392540931702, 0.2037261575460434, 0.22009491920471191, 0.2768900692462921, 0.23494520783424377, 0.2532213032245636, 0.2849801182746887, 0.26956862211227417, 0.274993360042572, 0.20823796093463898, 0.37956327199935913, 0.3018925189971924, 0.3026348948478699, 0.2585468292236328, 0.28372710943222046, 0.3148869574069977, 0.32880041003227234, 0.453067421913147, 0.4291498064994812, 0.437360942363739, 0.5759819746017456, 0.623480498790741, 0.5993624925613403, 0.5892950892448425, 0.583530068397522, 0.3400305211544037, 0.24134647846221924, 0.19473370909690857, 0.3347802460193634, 0.27289852499961853, 0.3269180953502655, 0.2787044048309326, 0.2619423270225525, 0.24650689959526062, 0.334615558385849, 0.3544848561286926, 0.36170002818107605, 0.40785062313079834, 0.3709234595298767, 0.33366379141807556, 0.5615950226783752, 0.48048073053359985, 0.34982144832611084, 0.2636760473251343, 0.158980593085289, 0.15985392034053802, 0.17751476168632507, 0.14998000860214233, 0.14705434441566467, 0.14050491154193878, 0.140566885471344]</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.738447904586792</v>
+        <v>0.8535125255584717</v>
       </c>
       <c r="F218" t="n">
         <v>1</v>
@@ -9263,10 +9263,10 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>0.6246449000027496</v>
+        <v>0.6324388000066392</v>
       </c>
       <c r="J218" t="n">
-        <v>0.005627431531556303</v>
+        <v>0.005697646846906659</v>
       </c>
     </row>
     <row r="219">
@@ -9285,11 +9285,11 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>[0.14988009631633759, 0.1786554455757141, 0.17434167861938477, 0.17994016408920288, 0.27869126200675964, 0.21342772245407104, 0.15810032188892365, 0.12874077260494232, 0.1208624392747879, 0.14737269282341003, 0.14829395711421967, 0.1436699628829956, 0.12908534705638885, 0.13031388819217682, 0.09475265443325043, 0.09846527874469757, 0.1297227144241333, 0.1345473825931549, 0.13264822959899902, 0.1111418679356575, 0.10789203643798828, 0.11101248860359192, 0.09456247091293335, 0.1181325912475586, 0.1468295305967331, 0.198469877243042, 0.1846546083688736, 0.1919136941432953, 0.21110764145851135, 0.1742779016494751, 0.14313434064388275, 0.0994168296456337, 0.1037907749414444, 0.09907632321119308, 0.16165803372859955, 0.2303253561258316, 0.2616323232650757, 0.3498459756374359, 0.37451377511024475, 0.3496060073375702, 0.39094021916389465, 0.36014387011528015, 0.30354994535446167, 0.3626761734485626, 0.2939317524433136, 0.35115405917167664, 0.34272971749305725, 0.37849634885787964, 0.2893955409526825, 0.26812994480133057, 0.21669164299964905, 0.18500474095344543, 0.23204204440116882, 0.2324991673231125, 0.2697083353996277, 0.5280970931053162, 0.6525937914848328, 0.6251599788665771, 0.24161413311958313, 0.1636364758014679, 0.14753331243991852, 0.16613027453422546, 0.15694725513458252, 0.16422103345394135, 0.20380933582782745, 0.18507736921310425, 0.20005103945732117, 0.18210618197917938, 0.20775964856147766, 0.26796382665634155, 0.20248861610889435, 0.1945931762456894, 0.15254302322864532, 0.18386436998844147, 0.24102407693862915, 0.22605504095554352, 0.1951935738325119, 0.17665088176727295, 0.18988636136054993, 0.15495392680168152, 0.17239244282245636, 0.19266416132450104, 0.1328941285610199, 0.14464429020881653, 0.12172088027000427, 0.13859885931015015, 0.17731714248657227, 0.20617587864398956, 0.20861639082431793, 0.17330724000930786, 0.15104645490646362, 0.2680950462818146, 0.2804112434387207, 0.4047153890132904, 0.2993710935115814, 0.27900993824005127, 0.18148939311504364, 0.27094918489456177, 0.24840368330478668, 0.2929108440876007, 0.28263798356056213, 0.32627543807029724, 0.25676071643829346, 0.13739775121212006, 0.14854200184345245, 0.10650242865085602, 0.17907504737377167, 0.2153482288122177, 0.2244674116373062, 0.21710453927516937, 0.21631285548210144]</t>
+          <t>[0.11141536384820938, 0.16870228946208954, 0.16018664836883545, 0.1725488156080246, 0.2795332074165344, 0.20131553709506989, 0.14963267743587494, 0.14091695845127106, 0.12434568256139755, 0.14852510392665863, 0.15340743958950043, 0.13332173228263855, 0.132211834192276, 0.08074028789997101, 0.05925162136554718, 0.05835595726966858, 0.12671560049057007, 0.1426440179347992, 0.12527218461036682, 0.08194588124752045, 0.08657906949520111, 0.0844283178448677, 0.06848011165857315, 0.1029064804315567, 0.15700732171535492, 0.20088088512420654, 0.20783403515815735, 0.19035084545612335, 0.21335041522979736, 0.16843219101428986, 0.11118220537900925, 0.08954555541276932, 0.10798277705907822, 0.10574056953191757, 0.1675521731376648, 0.2697392702102661, 0.29473474621772766, 0.35884737968444824, 0.4398985803127289, 0.39833080768585205, 0.3623051941394806, 0.31160807609558105, 0.23573514819145203, 0.3812578022480011, 0.3362449109554291, 0.41322454810142517, 0.37671294808387756, 0.42566078901290894, 0.2996369004249573, 0.23858067393302917, 0.16914574801921844, 0.15375152230262756, 0.21909938752651215, 0.24336674809455872, 0.2958838939666748, 0.6631248593330383, 0.8140859603881836, 0.7777839303016663, 0.27517592906951904, 0.19390133023262024, 0.1375344842672348, 0.1670830100774765, 0.15790735185146332, 0.16202381253242493, 0.24022485315799713, 0.18765458464622498, 0.2051531821489334, 0.1875336617231369, 0.25141292810440063, 0.298959881067276, 0.22884368896484375, 0.21668080985546112, 0.15219734609127045, 0.21473322808742523, 0.2631509602069855, 0.2632162272930145, 0.20422877371311188, 0.1757183074951172, 0.1884515881538391, 0.14347048103809357, 0.17073258757591248, 0.20270252227783203, 0.13181288540363312, 0.14229412376880646, 0.1029289960861206, 0.11589255183935165, 0.1482115536928177, 0.18953441083431244, 0.24132774770259857, 0.16967172920703888, 0.13868236541748047, 0.2869410812854767, 0.29598137736320496, 0.49375414848327637, 0.47218450903892517, 0.4742446839809418, 0.27259740233421326, 0.4320466220378876, 0.3833315968513489, 0.48347270488739014, 0.4529605209827423, 0.5573881268501282, 0.4292311668395996, 0.22624997794628143, 0.2156946212053299, 0.15260475873947144, 0.21699286997318268, 0.24964284896850586, 0.24462226033210754, 0.25514090061187744, 0.2534278631210327]</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.6525937914848328</v>
+        <v>0.8140859603881836</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
@@ -9303,10 +9303,10 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>0.73124480000115</v>
+        <v>0.7266069000033895</v>
       </c>
       <c r="J219" t="n">
-        <v>0.006587790991001351</v>
+        <v>0.006546008108138644</v>
       </c>
     </row>
     <row r="220">
@@ -9325,11 +9325,11 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[0.4793408513069153, 0.43408969044685364, 0.5333877801895142, 0.5273703932762146, 0.43073874711990356, 0.3345482051372528, 0.4688824713230133, 0.5546296238899231, 0.4952314794063568, 0.5759430527687073, 0.4599279463291168, 0.6786899566650391, 0.6243626475334167, 0.6597087383270264, 0.6479607820510864, 0.594845712184906, 0.6069049835205078, 0.7089173793792725, 0.740210235118866, 0.7656576037406921, 0.42762088775634766, 0.385734498500824, 0.3388005197048187, 0.6346786022186279, 0.5257208347320557, 0.5000702142715454, 0.47666117548942566, 0.49551254510879517, 0.4935228228569031, 0.32229748368263245, 0.17816036939620972, 0.2693670392036438, 0.22042620182037354, 0.3300611078739166, 0.4040689170360565, 0.30032622814178467, 0.3588590621948242, 0.4429691731929779, 0.5077796578407288, 0.3967064619064331, 0.2942522466182709, 0.40424686670303345, 0.4814860224723816, 0.5078073740005493, 0.5663297176361084, 0.4364226758480072, 0.3860001862049103, 0.4170786440372467, 0.5170855522155762, 0.4953538477420807, 0.42183834314346313, 0.5570491552352905, 0.4978310763835907, 0.45168668031692505, 0.4276444613933563, 0.46832332015037537, 0.2901938855648041, 0.27256596088409424, 0.26896098256111145, 0.40564796328544617, 0.38655537366867065, 0.36085861921310425, 0.24491432309150696, 0.2681849002838135, 0.28039929270744324, 0.5570589900016785, 0.5970517992973328, 0.5486286282539368, 0.397953599691391, 0.46023353934288025, 0.42279481887817383, 0.5788785815238953, 0.5273798704147339, 0.6418880820274353, 0.7638132572174072, 0.8301600813865662, 0.7145028710365295, 0.5887957811355591, 0.6248213052749634, 0.6942596435546875, 0.6972991228103638, 0.7394535541534424, 0.7950266599655151, 0.8515943288803101, 0.8326406478881836, 0.6289278268814087, 0.38416075706481934, 0.4869789779186249, 0.3719952404499054, 0.3974529206752777, 0.4574283957481384, 0.36744076013565063, 0.3072494864463806, 0.25576943159103394, 0.37750717997550964, 0.4356653690338135, 0.3374618589878082, 0.31085002422332764, 0.3214028477668762, 0.2802642285823822, 0.2637265920639038, 0.39883503317832947, 0.37607282400131226, 0.3251964747905731, 0.2553543448448181, 0.2641715407371521, 0.23234084248542786, 0.3521087169647217, 0.2922808825969696, 0.3344258666038513, 0.347329705953598]</t>
+          <t>[0.45773258805274963, 0.41900938749313354, 0.5576534867286682, 0.5568290948867798, 0.4713883101940155, 0.35561075806617737, 0.4982352554798126, 0.5877860188484192, 0.46006762981414795, 0.5719115138053894, 0.36958250403404236, 0.6062477827072144, 0.5373371839523315, 0.6463000774383545, 0.6083889007568359, 0.5622526407241821, 0.6053345203399658, 0.7199148535728455, 0.7447722554206848, 0.7714300751686096, 0.3723878562450409, 0.3249552249908447, 0.3183225393295288, 0.662010908126831, 0.532939076423645, 0.46514198184013367, 0.3659811317920685, 0.4231970012187958, 0.44987988471984863, 0.23911522328853607, 0.10475204139947891, 0.17869490385055542, 0.14978697896003723, 0.23097223043441772, 0.32138678431510925, 0.23854033648967743, 0.30842503905296326, 0.4207116365432739, 0.4779280424118042, 0.3425280749797821, 0.2596342861652374, 0.4456344544887543, 0.4951969087123871, 0.4405857026576996, 0.5372439026832581, 0.4201997220516205, 0.3737460672855377, 0.4305605888366699, 0.5153626203536987, 0.4612705111503601, 0.3842422664165497, 0.5017560720443726, 0.4319154620170593, 0.4334947168827057, 0.4466734528541565, 0.489363431930542, 0.29546210169792175, 0.24863213300704956, 0.21961194276809692, 0.33050838112831116, 0.37292590737342834, 0.3289628326892853, 0.164204940199852, 0.1636122316122055, 0.18964481353759766, 0.5655634999275208, 0.6124124526977539, 0.5232865810394287, 0.29085901379585266, 0.36613529920578003, 0.3396454453468323, 0.5576636791229248, 0.4700686037540436, 0.6060095429420471, 0.7568017244338989, 0.8484475016593933, 0.648927628993988, 0.5762311816215515, 0.6267461180686951, 0.7073784470558167, 0.6644383072853088, 0.7065337896347046, 0.7643831372261047, 0.7815411686897278, 0.7853040099143982, 0.5000134706497192, 0.4076397716999054, 0.46017777919769287, 0.35151058435440063, 0.3036203384399414, 0.3780971169471741, 0.2969125211238861, 0.22969599068164825, 0.21843446791172028, 0.374912828207016, 0.48521262407302856, 0.3381734788417816, 0.260555624961853, 0.28548818826675415, 0.2414090633392334, 0.23439323902130127, 0.3767549991607666, 0.2884526252746582, 0.23365318775177002, 0.18430694937705994, 0.18332526087760925, 0.19057418406009674, 0.3306989371776581, 0.2866133451461792, 0.3284648060798645, 0.3452385365962982]</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.8515943288803101</v>
+        <v>0.8484475016593933</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>0.6283885999873746</v>
+        <v>0.635102200001711</v>
       </c>
       <c r="J220" t="n">
-        <v>0.005661158558444817</v>
+        <v>0.005721641441456856</v>
       </c>
     </row>
     <row r="221">
@@ -9365,11 +9365,11 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>[0.739700973033905, 0.6738100051879883, 0.4588678777217865, 0.47668758034706116, 0.5242978930473328, 0.5669423937797546, 0.4369911253452301, 0.38773229718208313, 0.3387219309806824, 0.3302692174911499, 0.6059697866439819, 0.6737924218177795, 0.39667829871177673, 0.22662808001041412, 0.20478612184524536, 0.3262198567390442, 0.27872464060783386, 0.3016136586666107, 0.4145045578479767, 0.38629651069641113, 0.4503009617328644, 0.3351726233959198, 0.37150195240974426, 0.4680979251861572, 0.9524192810058594, 0.9699299335479736, 0.9758426547050476, 0.9349179267883301, 0.7850785851478577, 0.7358501553535461, 0.6916593313217163, 0.6067531108856201, 0.6600921750068665, 0.47805583477020264, 0.3130256235599518, 0.4457249939441681, 0.5085121393203735, 0.5953394770622253, 0.46664106845855713, 0.4135720133781433, 0.4369967579841614, 0.3276439905166626, 0.16761617362499237, 0.27009516954421997, 0.37000539898872375, 0.47741779685020447, 0.5332164168357849, 0.4761926829814911, 0.6099342107772827, 0.5764855742454529, 0.50600266456604, 0.4264373481273651, 0.47161397337913513, 0.3867851495742798, 0.33463865518569946, 0.3776637613773346, 0.6954944729804993, 0.968299388885498, 0.9721646904945374, 0.9552263021469116, 0.8116673231124878, 0.7402058243751526, 0.7482633590698242, 0.8349655270576477, 0.7959454655647278, 0.842331051826477, 0.8792065382003784, 0.8972077369689941, 0.877814769744873, 0.89695143699646, 0.8577582240104675, 0.8358070254325867, 0.7907956838607788, 0.6779783368110657, 0.622015118598938, 0.7060126662254333, 0.7303353548049927, 0.6304114460945129, 0.6353137493133545, 0.7880654335021973, 0.9220501184463501, 0.9166483283042908, 0.942925751209259, 0.9607167840003967, 0.9220668077468872, 0.8823522329330444, 0.8795896768569946, 0.9075674414634705, 0.9207381010055542, 0.9194434881210327, 0.8560113310813904, 0.785459041595459, 0.7667140960693359, 0.9209731221199036, 0.9302567839622498, 0.9555877447128296, 0.950127363204956, 0.9555565118789673, 0.931159496307373, 0.9313074946403503, 0.940555214881897, 0.9440761208534241, 0.9329103827476501, 0.9396615028381348, 0.9577396512031555, 0.9531074166297913, 0.9345166087150574, 0.9539642930030823, 0.9760460257530212, 0.9639707207679749, 0.9640222191810608]</t>
+          <t>[0.8141801357269287, 0.763638436794281, 0.5206531882286072, 0.5178110003471375, 0.5450198650360107, 0.4740734398365021, 0.35381755232810974, 0.3562808632850647, 0.3127577304840088, 0.3212883472442627, 0.5873793959617615, 0.6753231287002563, 0.4319170415401459, 0.24496212601661682, 0.18080779910087585, 0.28842970728874207, 0.27280092239379883, 0.2842569649219513, 0.32065731287002563, 0.2738087475299835, 0.3648068308830261, 0.25937002897262573, 0.36766529083251953, 0.5516709685325623, 0.9796779155731201, 0.9862543344497681, 0.9881635308265686, 0.9532790780067444, 0.8476274609565735, 0.8226533532142639, 0.8013976216316223, 0.7003642320632935, 0.7501435279846191, 0.5338665246963501, 0.36162880063056946, 0.46493589878082275, 0.5397510528564453, 0.6657840013504028, 0.5321982502937317, 0.4688931107521057, 0.5075368881225586, 0.414471298456192, 0.24014151096343994, 0.3882555365562439, 0.5042118430137634, 0.608363687992096, 0.6825315952301025, 0.6073575615882874, 0.7242330312728882, 0.6813459396362305, 0.5847252607345581, 0.5027362108230591, 0.5362215638160706, 0.4027590751647949, 0.4695601165294647, 0.5764051675796509, 0.8704929351806641, 0.9874710440635681, 0.9910950660705566, 0.9861832857131958, 0.9192480444908142, 0.890900731086731, 0.8961488008499146, 0.8821832537651062, 0.8378819823265076, 0.8702148199081421, 0.9133183360099792, 0.9318621158599854, 0.9119240641593933, 0.9480958580970764, 0.9239929914474487, 0.9078361988067627, 0.865256667137146, 0.7796287536621094, 0.7223674654960632, 0.8010358810424805, 0.8131593465805054, 0.7223997116088867, 0.7567422986030579, 0.9026011228561401, 0.9782325029373169, 0.9736036658287048, 0.9816036224365234, 0.9876183271408081, 0.9529851675033569, 0.9149957895278931, 0.9142348170280457, 0.9391389489173889, 0.949486494064331, 0.9525284767150879, 0.9146185517311096, 0.8630980849266052, 0.8394955396652222, 0.9343112707138062, 0.9506292343139648, 0.9664126634597778, 0.9563118815422058, 0.969670295715332, 0.9536755084991455, 0.9503442645072937, 0.9525935053825378, 0.9570804238319397, 0.9489258527755737, 0.9508076310157776, 0.9647670388221741, 0.9668678045272827, 0.9539663791656494, 0.9652396440505981, 0.9785752296447754, 0.9641162753105164, 0.964148998260498]</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.9760460257530212</v>
+        <v>0.9910950660705566</v>
       </c>
       <c r="F221" t="n">
         <v>1</v>
@@ -9383,10 +9383,10 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>0.6268313000036869</v>
+        <v>0.6342980000044918</v>
       </c>
       <c r="J221" t="n">
-        <v>0.005647128828862044</v>
+        <v>0.005714396396436863</v>
       </c>
     </row>
     <row r="222">
@@ -9405,11 +9405,11 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>[0.5768318772315979, 0.5863565802574158, 0.7222880125045776, 0.8099846243858337, 0.678163468837738, 0.44709789752960205, 0.29497861862182617, 0.4006486237049103, 0.7119479775428772, 0.5271731615066528, 0.4386095106601715, 0.30954334139823914, 0.3957025706768036, 0.3121417462825775, 0.09653789550065994, 0.06811688095331192, 0.1641378253698349, 0.41369783878326416, 0.30859267711639404, 0.6678739786148071, 0.7393059730529785, 0.5068371295928955, 0.2744809091091156, 0.13123106956481934, 0.21560966968536377, 0.379489928483963, 0.14861750602722168, 0.1421772688627243, 0.21432006359100342, 0.10157289355993271, 0.08828314393758774, 0.08470392227172852, 0.1780579388141632, 0.1528290957212448, 0.18190045654773712, 0.17380483448505402, 0.22234314680099487, 0.17431582510471344, 0.1597626805305481, 0.1440855860710144, 0.11773575842380524, 0.13742317259311676, 0.2057783305644989, 0.21072758734226227, 0.42684024572372437, 0.3373727798461914, 0.2171238511800766, 0.21403883397579193, 0.1449935883283615, 0.13193124532699585, 0.17040260136127472, 0.3494601547718048, 0.5622971653938293, 0.7585409879684448, 0.7666922211647034, 0.8135225176811218, 0.6162201762199402, 0.5777621269226074, 0.5959720611572266, 0.2647533118724823, 0.34904739260673523, 0.4942808747291565, 0.8136866092681885, 0.7051477432250977, 0.7470231652259827, 0.7547349333763123, 0.7392899990081787, 0.5142870545387268, 0.28472355008125305, 0.5837117433547974, 0.7193732857704163, 0.8144888281822205, 0.6507525444030762, 0.5635284781455994, 0.4555816948413849, 0.30216050148010254, 0.26970353722572327, 0.2407812625169754, 0.29372820258140564, 0.432754248380661, 0.4022085666656494, 0.340909868478775, 0.27296826243400574, 0.21630027890205383, 0.25756582617759705, 0.2546650171279907, 0.360612154006958, 0.5410130023956299, 0.45078516006469727, 0.5140665769577026, 0.7214182615280151, 0.8352317214012146, 0.8817713856697083, 0.5534911751747131, 0.3937802016735077, 0.49123719334602356, 0.351571649312973, 0.4171292781829834, 0.6267951726913452, 0.49607154726982117, 0.47346246242523193, 0.7998794913291931, 0.9221243858337402, 0.7918786406517029, 0.5113115310668945, 0.5702280402183533, 0.514077365398407, 0.3730314373970032, 0.25575485825538635, 0.17545831203460693, 0.1681031435728073]</t>
+          <t>[0.608744204044342, 0.6228259205818176, 0.7542929649353027, 0.8873730301856995, 0.7969362139701843, 0.500252902507782, 0.3226168155670166, 0.4441187381744385, 0.7815199494361877, 0.605357825756073, 0.5401894450187683, 0.37391939759254456, 0.4925191104412079, 0.4010186791419983, 0.13736885786056519, 0.08254767954349518, 0.30406275391578674, 0.6015518307685852, 0.4940474331378937, 0.8008420467376709, 0.814528226852417, 0.6482791900634766, 0.4156610667705536, 0.23802193999290466, 0.37784263491630554, 0.5470661520957947, 0.20016930997371674, 0.2288895845413208, 0.36465904116630554, 0.1766110211610794, 0.13534744083881378, 0.12296147644519806, 0.3157132863998413, 0.2897557318210602, 0.32284966111183167, 0.30519479513168335, 0.364835262298584, 0.2772347629070282, 0.22976121306419373, 0.2019823044538498, 0.14338435232639313, 0.1350546032190323, 0.2394794523715973, 0.21565547585487366, 0.4946686923503876, 0.38719791173934937, 0.244743213057518, 0.24292299151420593, 0.2150997817516327, 0.16747692227363586, 0.24063488841056824, 0.47183990478515625, 0.6728421449661255, 0.8476648330688477, 0.8867141008377075, 0.9046364426612854, 0.7016616463661194, 0.665195107460022, 0.6802361011505127, 0.32476183772087097, 0.39042434096336365, 0.48120778799057007, 0.8610522747039795, 0.7756873369216919, 0.8513532876968384, 0.8342936038970947, 0.8166317343711853, 0.6475253701210022, 0.43872714042663574, 0.7677253484725952, 0.8509072661399841, 0.8935033679008484, 0.812951385974884, 0.7339409589767456, 0.5617958903312683, 0.390862375497818, 0.3492700755596161, 0.28900542855262756, 0.4321669638156891, 0.6027394533157349, 0.46486184000968933, 0.4549589455127716, 0.38721925020217896, 0.3391931354999542, 0.41656985878944397, 0.40770936012268066, 0.5850459933280945, 0.7723854184150696, 0.6866883039474487, 0.6712438464164734, 0.8229050040245056, 0.8644775152206421, 0.9170694947242737, 0.6718246340751648, 0.620750904083252, 0.5537739992141724, 0.3574530780315399, 0.44719359278678894, 0.7195942401885986, 0.5688095688819885, 0.5235645174980164, 0.9146214723587036, 0.9706124067306519, 0.8968286514282227, 0.6151143908500671, 0.7172377109527588, 0.6399387717247009, 0.5518873333930969, 0.47610533237457275, 0.32148313522338867, 0.31121230125427246]</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.9221243858337402</v>
+        <v>0.9706124067306519</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
@@ -9423,10 +9423,10 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>0.6347359000064898</v>
+        <v>0.6178323000058299</v>
       </c>
       <c r="J222" t="n">
-        <v>0.005718341441499909</v>
+        <v>0.005566056756809278</v>
       </c>
     </row>
     <row r="223">
@@ -9445,11 +9445,11 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>[0.2226448357105255, 0.21704013645648956, 0.3215957581996918, 0.30808553099632263, 0.31867650151252747, 0.3160227835178375, 0.4557705223560333, 0.4640401601791382, 0.36906152963638306, 0.29310083389282227, 0.20601855218410492, 0.254831999540329, 0.24514712393283844, 0.24055130779743195, 0.1786165088415146, 0.2500423789024353, 0.21578280627727509, 0.19802334904670715, 0.1326344907283783, 0.10154301673173904, 0.06198188662528992, 0.11548440903425217, 0.11206097155809402, 0.10166662931442261, 0.2530823051929474, 0.2613101303577423, 0.22892634570598602, 0.16259047389030457, 0.1633872240781784, 0.17261599004268646, 0.18011371791362762, 0.19036465883255005, 0.2065548598766327, 0.15526224672794342, 0.10431767255067825, 0.12060622125864029, 0.16501134634017944, 0.16182002425193787, 0.19215257465839386, 0.14264127612113953, 0.14517687261104584, 0.16968604922294617, 0.24922655522823334, 0.268103688955307, 0.2829861342906952, 0.3497714698314667, 0.3492361307144165, 0.3489150404930115, 0.2481459528207779, 0.2822854518890381, 0.28594616055488586, 0.28496935963630676, 0.23357298970222473, 0.17906136810779572, 0.1296909749507904, 0.2125549465417862, 0.18907882273197174, 0.10629186779260635, 0.08918638527393341, 0.08557821065187454, 0.07618074119091034, 0.0783933699131012, 0.08015201985836029, 0.16098152101039886, 0.18841911852359772, 0.19894565641880035, 0.18171024322509766, 0.2008526623249054, 0.19243474304676056, 0.188391774892807, 0.17657096683979034, 0.18211482465267181, 0.12200243026018143, 0.11346519738435745, 0.1296524852514267, 0.20179538428783417, 0.25709274411201477, 0.2805969715118408, 0.2948441207408905, 0.2741474211215973, 0.21289785206317902, 0.18305669724941254, 0.14968085289001465, 0.15785834193229675, 0.190900519490242, 0.18383632600307465, 0.2114633470773697, 0.1876111775636673, 0.14949415624141693, 0.13506102561950684, 0.13554301857948303, 0.13253596425056458, 0.1149296686053276, 0.13905106484889984, 0.12498736381530762, 0.11950725317001343, 0.1342000514268875, 0.12771174311637878, 0.14458537101745605, 0.09858013689517975, 0.10913276672363281, 0.1032092273235321, 0.11093074083328247, 0.12679177522659302, 0.12779255211353302, 0.14779996871948242, 0.16193971037864685, 0.18339578807353973, 0.185243159532547, 0.18094386160373688, 0.14169630408287048, 0.07798605412244797, 0.06726600229740143, 0.06696842610836029, 0.1303211748600006, 0.12967388331890106, 0.12481942027807236, 0.13001668453216553, 0.10596641898155212, 0.11597717553377151, 0.13174079358577728, 0.17346487939357758, 0.15745879709720612, 0.15209442377090454, 0.1076785996556282, 0.1139732226729393, 0.11962749809026718, 0.11788471788167953, 0.12090324610471725, 0.15138468146324158, 0.15314768254756927]</t>
+          <t>[0.39716219902038574, 0.35369887948036194, 0.5247842669487, 0.4339699447154999, 0.40663692355155945, 0.3784140348434448, 0.5034490823745728, 0.5400242209434509, 0.39763402938842773, 0.33181431889533997, 0.22699074447155, 0.27068015933036804, 0.27851375937461853, 0.24269898235797882, 0.22202132642269135, 0.35160714387893677, 0.343390554189682, 0.2646300792694092, 0.1307588666677475, 0.08851451426744461, 0.04892867058515549, 0.08267314732074738, 0.0811966210603714, 0.07360615581274033, 0.22044402360916138, 0.2718696892261505, 0.24244917929172516, 0.13978761434555054, 0.1398112028837204, 0.1494489312171936, 0.24166519939899445, 0.24365320801734924, 0.24580375850200653, 0.20577478408813477, 0.14264366030693054, 0.16844138503074646, 0.2107343077659607, 0.18688111007213593, 0.2548794746398926, 0.22253459692001343, 0.18276409804821014, 0.2888207733631134, 0.34453728795051575, 0.351590096950531, 0.38147222995758057, 0.46808943152427673, 0.4695558249950409, 0.4952731430530548, 0.32920050621032715, 0.3395403325557709, 0.33308225870132446, 0.3825204372406006, 0.26058390736579895, 0.18668542802333832, 0.1536608189344406, 0.317253440618515, 0.2922249138355255, 0.11690448224544525, 0.08550228923559189, 0.07001172751188278, 0.06487180292606354, 0.0708000436425209, 0.07146215438842773, 0.14864134788513184, 0.16942118108272552, 0.20053191483020782, 0.16532990336418152, 0.21697503328323364, 0.19970566034317017, 0.2009773552417755, 0.1977747082710266, 0.20510314404964447, 0.09725353866815567, 0.08047939091920853, 0.10092920064926147, 0.21377430856227875, 0.30656346678733826, 0.3467777669429779, 0.37821027636528015, 0.3284067213535309, 0.23211096227169037, 0.1988329440355301, 0.13934901356697083, 0.13865388929843903, 0.15997430682182312, 0.14315685629844666, 0.1762678176164627, 0.17752835154533386, 0.1524093747138977, 0.12969788908958435, 0.11493497341871262, 0.10986726731061935, 0.09365814179182053, 0.13037331402301788, 0.12095892429351807, 0.1183617040514946, 0.1356351375579834, 0.11290138959884644, 0.12748391926288605, 0.07770676165819168, 0.07781574875116348, 0.07354171574115753, 0.07512473315000534, 0.0907101109623909, 0.08363071084022522, 0.12478886544704437, 0.14324559271335602, 0.19109803438186646, 0.19716118276119232, 0.1729298233985901, 0.11013186722993851, 0.050295524299144745, 0.04264103248715401, 0.04572393000125885, 0.09276893734931946, 0.08957362174987793, 0.07929486036300659, 0.09782928973436356, 0.06720232218503952, 0.0850217416882515, 0.13448864221572876, 0.1893516480922699, 0.15567095577716827, 0.13531628251075745, 0.07483569532632828, 0.07546041160821915, 0.09856221079826355, 0.09310458600521088, 0.09755158424377441, 0.1751304566860199, 0.17704246938228607]</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.4640401601791382</v>
+        <v>0.5400242209434509</v>
       </c>
       <c r="F223" t="n">
         <v>1</v>
@@ -9463,10 +9463,10 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>0.7391618999827188</v>
+        <v>0.7257102000003215</v>
       </c>
       <c r="J223" t="n">
-        <v>0.005642457251776479</v>
+        <v>0.005539772519086423</v>
       </c>
     </row>
     <row r="224">
@@ -9485,11 +9485,11 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>[0.1676449179649353, 0.134673610329628, 0.12237991392612457, 0.13491801917552948, 0.1319715529680252, 0.1664160043001175, 0.16062617301940918, 0.1537601351737976, 0.1590091586112976, 0.17634865641593933, 0.22310686111450195, 0.14804257452487946, 0.15371747314929962, 0.12017271667718887, 0.11196164041757584, 0.09701425582170486, 0.10181234031915665, 0.10161978751420975, 0.114773690700531, 0.21719731390476227, 0.24085144698619843, 0.18113569915294647, 0.12820596992969513, 0.15336844325065613, 0.15233558416366577, 0.1463448405265808, 0.23123367130756378, 0.2097989171743393, 0.32582563161849976, 0.29262253642082214, 0.23054228723049164, 0.1902535855770111, 0.15773309767246246, 0.14738845825195312, 0.1430843621492386, 0.15393483638763428, 0.14605556428432465, 0.1830458790063858, 0.15604965388774872, 0.12462152540683746, 0.1265253722667694, 0.13762684166431427, 0.15600523352622986, 0.15211284160614014, 0.13688310980796814, 0.13722920417785645, 0.1616305410861969, 0.15901783108711243, 0.16692733764648438, 0.228860542178154, 0.22511564195156097, 0.21474957466125488, 0.21016158163547516, 0.1819649189710617, 0.17755340039730072, 0.16427627205848694, 0.16319133341312408, 0.1628267765045166, 0.39909401535987854, 0.33037659525871277, 0.208774134516716, 0.16071438789367676, 0.19118377566337585, 0.22232893109321594, 0.3195131719112396, 0.3813936710357666, 0.3690570592880249, 0.5061076879501343, 0.4658011794090271, 0.4842331111431122, 0.474441796541214, 0.40964463353157043, 0.41040167212486267, 0.773586094379425, 0.7459377646446228, 0.8252291083335876, 0.3345503807067871, 0.28899362683296204, 0.2435166835784912, 0.49655863642692566, 0.4556897282600403, 0.5196902751922607, 0.270892471075058, 0.20314060151576996, 0.1947486400604248, 0.26304036378860474, 0.2144988626241684, 0.22354376316070557, 0.27451369166374207, 0.21791842579841614, 0.212650865316391, 0.15584808588027954, 0.16351690888404846, 0.15708434581756592, 0.22775793075561523, 0.4233625829219818, 0.5246123671531677, 0.6710593104362488, 0.6148657202720642, 0.7328739166259766, 0.8290786743164062, 0.867649495601654, 0.9022654294967651, 0.9460911750793457, 0.8997271656990051, 0.8989496231079102, 0.8637033104896545, 0.7957800030708313, 0.701871931552887, 0.3018360137939453, 0.3757222592830658, 0.39356735348701477, 0.21259351074695587, 0.26538047194480896, 0.2582745850086212, 0.2656456232070923, 0.24816563725471497, 0.22873088717460632, 0.2217598706483841, 0.2156950831413269, 0.24850153923034668, 0.22380121052265167, 0.20024828612804413, 0.1984308511018753, 0.24591897428035736, 0.2567603290081024, 0.19903789460659027, 0.208286851644516, 0.18971320986747742, 0.23374134302139282, 0.2277231514453888]</t>
+          <t>[0.17787446081638336, 0.14854773879051208, 0.14081589877605438, 0.17388735711574554, 0.20116162300109863, 0.26265257596969604, 0.2121194303035736, 0.22750060260295868, 0.2164674699306488, 0.27807867527008057, 0.3707479238510132, 0.19209204614162445, 0.19584374129772186, 0.13167554140090942, 0.1220933198928833, 0.12067650258541107, 0.14203549921512604, 0.13007910549640656, 0.14653049409389496, 0.3868018388748169, 0.38265714049339294, 0.22626659274101257, 0.1497570127248764, 0.1735217124223709, 0.15196484327316284, 0.15495255589485168, 0.31888502836227417, 0.24414600431919098, 0.37031060457229614, 0.31344839930534363, 0.25357967615127563, 0.22489111125469208, 0.1952364444732666, 0.1938965767621994, 0.15644490718841553, 0.15287305414676666, 0.14300203323364258, 0.2111111730337143, 0.18738491833209991, 0.14891111850738525, 0.16024833917617798, 0.16704529523849487, 0.20592981576919556, 0.16924802958965302, 0.15073339641094208, 0.15378010272979736, 0.17363274097442627, 0.17162276804447174, 0.1779380589723587, 0.23650044202804565, 0.2512155771255493, 0.2324495017528534, 0.25783681869506836, 0.18046694993972778, 0.16104064881801605, 0.15105895698070526, 0.17212587594985962, 0.17459549009799957, 0.6165105104446411, 0.5265214443206787, 0.32622969150543213, 0.1795237809419632, 0.23448090255260468, 0.2575570344924927, 0.4171993136405945, 0.5676431655883789, 0.5910549163818359, 0.7552621960639954, 0.6678114533424377, 0.6625211238861084, 0.624686598777771, 0.5580657124519348, 0.5997946262359619, 0.9250105619430542, 0.9083297848701477, 0.9572713375091553, 0.479526549577713, 0.38765454292297363, 0.32922878861427307, 0.688133180141449, 0.5962845087051392, 0.6606011390686035, 0.32341134548187256, 0.2711978852748871, 0.22520554065704346, 0.34731167554855347, 0.26321297883987427, 0.26074692606925964, 0.30909135937690735, 0.2396363615989685, 0.26085734367370605, 0.17731112241744995, 0.17235244810581207, 0.17521227896213531, 0.35912445187568665, 0.6810376644134521, 0.7598869800567627, 0.8185641169548035, 0.7803331017494202, 0.8729100823402405, 0.9167095422744751, 0.935680091381073, 0.9578693509101868, 0.9840713739395142, 0.9724048376083374, 0.9706999063491821, 0.9474847912788391, 0.9174209237098694, 0.8791059255599976, 0.4913312792778015, 0.6004486083984375, 0.6299084424972534, 0.38980504870414734, 0.4121280908584595, 0.3717409074306488, 0.3493209779262543, 0.30085647106170654, 0.2750755548477173, 0.23888082802295685, 0.23015549778938293, 0.28416237235069275, 0.2872728407382965, 0.26532891392707825, 0.2918199598789215, 0.33149752020835876, 0.38140225410461426, 0.2509026825428009, 0.2925286293029785, 0.24948197603225708, 0.3402848243713379, 0.3280809223651886]</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.9460911750793457</v>
+        <v>0.9840713739395142</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -9503,10 +9503,10 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>0.7342670999933034</v>
+        <v>0.7511995999957435</v>
       </c>
       <c r="J224" t="n">
-        <v>0.005605092366361095</v>
+        <v>0.005734348091570561</v>
       </c>
     </row>
     <row r="225">
@@ -9525,11 +9525,11 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>[0.11097661405801773, 0.10770531743764877, 0.13013409078121185, 0.13264669477939606, 0.08824793249368668, 0.0910499170422554, 0.12122604250907898, 0.1363365650177002, 0.14557446539402008, 0.11115944385528564, 0.10016157478094101, 0.09227199852466583, 0.09440405666828156, 0.09544540196657181, 0.1018369123339653, 0.11267498880624771, 0.10524898767471313, 0.1055373102426529, 0.12136419862508774, 0.1296897977590561, 0.11967107653617859, 0.1101665273308754, 0.10430698096752167, 0.12296042591333389, 0.1416013538837433, 0.14929735660552979, 0.1362077295780182, 0.10748062282800674, 0.12041988223791122, 0.09672403335571289, 0.1485568732023239, 0.12298591434955597, 0.10917644202709198, 0.11049482226371765, 0.11702887713909149, 0.10596589744091034, 0.1188596859574318, 0.13933251798152924, 0.138792023062706, 0.17456592619419098, 0.14266419410705566, 0.1346033364534378, 0.12954749166965485, 0.12291151285171509, 0.1410815715789795, 0.12017689645290375, 0.09719441086053848, 0.08343440294265747, 0.12868529558181763, 0.11812925338745117, 0.10724438726902008, 0.12039543688297272, 0.10412517189979553, 0.10796964913606644, 0.13176266849040985, 0.1320720762014389, 0.1575658917427063, 0.13778142631053925, 0.1169038638472557, 0.1188238337635994, 0.14796976745128632, 0.13057363033294678, 0.11143729090690613, 0.13936828076839447, 0.11984891444444656, 0.13067656755447388, 0.10533304512500763, 0.11438540369272232, 0.11376745998859406, 0.1532447785139084, 0.18178464472293854, 0.19136962294578552, 0.10096931457519531, 0.11497873812913895, 0.11381322890520096, 0.11059803515672684, 0.10076279193162918, 0.07949052006006241, 0.10472613573074341, 0.10013832151889801, 0.09816206991672516, 0.08887997269630432, 0.06864403188228607, 0.0761408805847168, 0.08734051138162613, 0.0885603129863739, 0.07613950967788696, 0.0696144700050354, 0.07991985231637955, 0.09174153953790665, 0.06463613361120224, 0.06144614890217781, 0.06330149620771408, 0.08228734135627747, 0.08621778339147568, 0.07766436040401459, 0.061760496348142624, 0.06323029845952988, 0.07074092328548431, 0.05410872399806976, 0.05479054152965546, 0.05255218222737312, 0.06919916719198227, 0.0798504501581192, 0.06960969418287277, 0.06324004381895065, 0.06677253544330597, 0.05373388156294823, 0.0478690080344677, 0.0609607957303524, 0.06951231509447098, 0.09470979124307632, 0.1054699569940567, 0.09201429784297943, 0.07832172513008118, 0.08149287849664688, 0.0583939403295517, 0.11756087839603424, 0.11178849637508392, 0.09359069913625717, 0.11438028514385223, 0.1247168779373169, 0.09877422451972961, 0.042389076203107834, 0.0504896380007267, 0.09005768597126007, 0.11987649649381638, 0.10738888382911682, 0.06923013925552368, 0.1384531706571579, 0.13813941180706024]</t>
+          <t>[0.07376797497272491, 0.06529247015714645, 0.0900409147143364, 0.09854348003864288, 0.059080835431814194, 0.06762304902076721, 0.08517319709062576, 0.0980391576886177, 0.09870563447475433, 0.07871966809034348, 0.0717439204454422, 0.05945611000061035, 0.0651092529296875, 0.06320860981941223, 0.07194807380437851, 0.08477777242660522, 0.06712206453084946, 0.0693955272436142, 0.1144951805472374, 0.12741604447364807, 0.11083292216062546, 0.07690306752920151, 0.0688566043972969, 0.09252484142780304, 0.115118607878685, 0.1430676281452179, 0.11845501512289047, 0.10218718647956848, 0.11010520905256271, 0.077985979616642, 0.12178690731525421, 0.09437017887830734, 0.08418457210063934, 0.09821624308824539, 0.10930237919092178, 0.09509550034999847, 0.10136289894580841, 0.12282924354076385, 0.11502918601036072, 0.21583642065525055, 0.15312908589839935, 0.13171344995498657, 0.1091151162981987, 0.08893992751836777, 0.10252431035041809, 0.09259792417287827, 0.0708862692117691, 0.06041112542152405, 0.10941247642040253, 0.10845924913883209, 0.10145435482263565, 0.11184036731719971, 0.08723662793636322, 0.09382127970457077, 0.1132660061120987, 0.11690409481525421, 0.14684568345546722, 0.13309380412101746, 0.10519550740718842, 0.09550394117832184, 0.13731896877288818, 0.12328314036130905, 0.10640525072813034, 0.1319645345211029, 0.10669780522584915, 0.1111239492893219, 0.07740559428930283, 0.08237724006175995, 0.07912154495716095, 0.1117783784866333, 0.14477702975273132, 0.1679178923368454, 0.09715200215578079, 0.11223281919956207, 0.10728266090154648, 0.07995836436748505, 0.06256158649921417, 0.04709465056657791, 0.0695345550775528, 0.07283573597669601, 0.07875372469425201, 0.05500269681215286, 0.03980176895856857, 0.043564919382333755, 0.05522551387548447, 0.05860934779047966, 0.050259191542863846, 0.04204453155398369, 0.05305501073598862, 0.05995144695043564, 0.03323613107204437, 0.03378506749868393, 0.041537169367074966, 0.05308767035603523, 0.060287781059741974, 0.050336308777332306, 0.0322364866733551, 0.03170494735240936, 0.03814736381173134, 0.02908201701939106, 0.029180021956562996, 0.02720244601368904, 0.03690887987613678, 0.04749368131160736, 0.042505841702222824, 0.0344572439789772, 0.03653169423341751, 0.026095999404788017, 0.020049020648002625, 0.02718496322631836, 0.03144650161266327, 0.050886835902929306, 0.055249352008104324, 0.047936540096998215, 0.04200020805001259, 0.04332301393151283, 0.027366753667593002, 0.0742463767528534, 0.07514719665050507, 0.055175866931676865, 0.05237650126218796, 0.06218057498335838, 0.05374506860971451, 0.01943744532763958, 0.02649158239364624, 0.06490880995988846, 0.10442528873682022, 0.07946191728115082, 0.05388636887073517, 0.15746602416038513, 0.15712487697601318]</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.1913696229457855</v>
+        <v>0.2158364206552505</v>
       </c>
       <c r="F225" t="n">
         <v>1</v>
@@ -9543,10 +9543,10 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>0.735981100006029</v>
+        <v>0.7335725000011735</v>
       </c>
       <c r="J225" t="n">
-        <v>0.005618176335923886</v>
+        <v>0.005599790076344835</v>
       </c>
     </row>
     <row r="226">
@@ -9565,11 +9565,11 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[0.06646095961332321, 0.10690581053495407, 0.1256808191537857, 0.11269430816173553, 0.11239881068468094, 0.15092185139656067, 0.14676599204540253, 0.0905161052942276, 0.07525961846113205, 0.07808209210634232, 0.07338104397058487, 0.11138620972633362, 0.13540531694889069, 0.18120507895946503, 0.09975951910018921, 0.08760549128055573, 0.06745173037052155, 0.059905387461185455, 0.04344303533434868, 0.031938765197992325, 0.046050962060689926, 0.035210829228162766, 0.027963951230049133, 0.028562774881720543, 0.031427036970853806, 0.03370693698525429, 0.03278869763016701, 0.03177126124501228, 0.058445628732442856, 0.047728873789310455, 0.06608499586582184, 0.13730350136756897, 0.16847628355026245, 0.1377050131559372, 0.12144868820905685, 0.09083250164985657, 0.07647553086280823, 0.04978266358375549, 0.052359890192747116, 0.0546715147793293, 0.0787333995103836, 0.10988888144493103, 0.11271435767412186, 0.04855596274137497, 0.04454674571752548, 0.04864289611577988, 0.0657762810587883, 0.06036319583654404, 0.04160575568675995, 0.0940217673778534, 0.14682476222515106, 0.15051837265491486, 0.10965616255998611, 0.11332856863737106, 0.11235590279102325, 0.1791307032108307, 0.14326247572898865, 0.1544284224510193, 0.09836818277835846, 0.1140386313199997, 0.1035565584897995, 0.08933745324611664, 0.1715323030948639, 0.24665626883506775, 0.1651114821434021, 0.11851799488067627, 0.04517040029168129, 0.02612634003162384, 0.037378791719675064, 0.06523048877716064, 0.1252346634864807, 0.05545385554432869, 0.043007828295230865, 0.0639944076538086, 0.08182468265295029, 0.08279682695865631, 0.08228947967290878, 0.11025555431842804, 0.15646682679653168, 0.07916893064975739, 0.07510241866111755, 0.04574844241142273, 0.04134675860404968, 0.05208912119269371, 0.03831378370523453, 0.07620132714509964, 0.07911905646324158, 0.07066796720027924, 0.1099156066775322, 0.11846854537725449, 0.11091949045658112, 0.1195136308670044, 0.11918418109416962, 0.12653519213199615, 0.12914687395095825, 0.09309782832860947, 0.1044914647936821, 0.09783829748630524, 0.10083651542663574, 0.09554179757833481, 0.0983608067035675, 0.12754811346530914, 0.15365420281887054, 0.1705050766468048, 0.24285739660263062, 0.26684367656707764, 0.22216764092445374, 0.23072005808353424, 0.21854715049266815, 0.223424032330513, 0.19212017953395844, 0.17873872816562653, 0.169081911444664, 0.16961480677127838, 0.14008358120918274, 0.10066840052604675, 0.06523091346025467, 0.08013501763343811, 0.07158953696489334, 0.0736309140920639, 0.06748075038194656, 0.07527215033769608, 0.08967170119285583, 0.14456143975257874, 0.12639322876930237, 0.12859581410884857, 0.13918012380599976, 0.15045997500419617, 0.1317153126001358, 0.13562273979187012, 0.13196398317813873]</t>
+          <t>[0.061131756752729416, 0.11251922696828842, 0.1380418837070465, 0.11041877418756485, 0.12451666593551636, 0.17569611966609955, 0.1616251915693283, 0.0771671012043953, 0.0693414956331253, 0.0788552388548851, 0.0671282708644867, 0.1171787902712822, 0.15403279662132263, 0.2529858946800232, 0.11206408590078354, 0.10266109555959702, 0.07153991609811783, 0.05632039159536362, 0.034391775727272034, 0.034833867102861404, 0.057355400174856186, 0.04189175367355347, 0.025030499324202538, 0.025987714529037476, 0.03442489728331566, 0.029519682750105858, 0.02824416011571884, 0.029210766777396202, 0.04615529626607895, 0.031838007271289825, 0.05405233055353165, 0.18595916032791138, 0.24319489300251007, 0.18596018850803375, 0.1600470393896103, 0.11373565346002579, 0.0957181379199028, 0.05233186110854149, 0.06221292167901993, 0.058329418301582336, 0.10588537901639938, 0.143178328871727, 0.14738991856575012, 0.05495809018611908, 0.04826546087861061, 0.05144258961081505, 0.06737029552459717, 0.05880086123943329, 0.03368748351931572, 0.12781597673892975, 0.19821684062480927, 0.16350002586841583, 0.13735641539096832, 0.13190796971321106, 0.12345756590366364, 0.2587955892086029, 0.18929019570350647, 0.23023957014083862, 0.11912662535905838, 0.17000141739845276, 0.1380341649055481, 0.1064760759472847, 0.3202754855155945, 0.520217776298523, 0.35208505392074585, 0.20592467486858368, 0.0570649616420269, 0.020003117620944977, 0.03182803466916084, 0.07073400914669037, 0.2316870242357254, 0.06393123418092728, 0.041758958250284195, 0.06543200463056564, 0.09968158602714539, 0.1066121980547905, 0.0885259360074997, 0.12324953824281693, 0.18520070612430573, 0.09636799991130829, 0.08231362700462341, 0.03432086855173111, 0.028560474514961243, 0.03770465403795242, 0.023139312863349915, 0.04820628464221954, 0.05622066929936409, 0.04631947726011276, 0.06873839348554611, 0.08384962379932404, 0.08389896899461746, 0.13702630996704102, 0.11822476238012314, 0.14655956625938416, 0.15380673110485077, 0.09715836495161057, 0.11711864918470383, 0.09474918246269226, 0.09952444583177567, 0.10665087401866913, 0.09250514954328537, 0.11477451771497726, 0.15835162997245789, 0.1622004210948944, 0.2440313845872879, 0.28058603405952454, 0.16915279626846313, 0.19444938004016876, 0.19292312860488892, 0.2024843841791153, 0.17280873656272888, 0.1544821411371231, 0.15383604168891907, 0.15526224672794342, 0.14367148280143738, 0.0973777323961258, 0.05687648430466652, 0.08201280981302261, 0.05912673473358154, 0.06804359704256058, 0.06611877679824829, 0.07656098157167435, 0.09965693950653076, 0.18018591403961182, 0.13476791977882385, 0.13801884651184082, 0.13023149967193604, 0.15441225469112396, 0.12015002965927124, 0.12741489708423615, 0.1242951825261116]</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.2668436765670776</v>
+        <v>0.5202177762985229</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
@@ -9583,10 +9583,10 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>0.7322482999879867</v>
+        <v>0.7335347000043839</v>
       </c>
       <c r="J226" t="n">
-        <v>0.005589681679297609</v>
+        <v>0.005599501526751022</v>
       </c>
     </row>
   </sheetData>
